--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,12 +4,13 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="13515" yWindow="-30" windowWidth="16515" windowHeight="12720" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="25215" windowHeight="6135" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="125725"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
@@ -781,23 +782,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -805,14 +791,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -877,35 +890,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1281,8 +1282,8 @@
   </sheetPr>
   <dimension ref="A1:IE71"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="U25" sqref="U25"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1306,226 +1307,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="68" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="64" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="65" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="67"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="71"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1537,17 +1538,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="87" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1556,261 +1557,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="52" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="53"/>
-      <c r="CP6" s="53"/>
-      <c r="CQ6" s="53"/>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
-      <c r="CT6" s="53"/>
-      <c r="CU6" s="53"/>
-      <c r="CV6" s="53"/>
-      <c r="CW6" s="53"/>
-      <c r="CX6" s="53"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="53"/>
-      <c r="DA6" s="53"/>
-      <c r="DB6" s="53"/>
-      <c r="DC6" s="53"/>
-      <c r="DD6" s="53"/>
-      <c r="DE6" s="53"/>
-      <c r="DF6" s="53"/>
-      <c r="DG6" s="53"/>
-      <c r="DH6" s="53"/>
-      <c r="DI6" s="53"/>
-      <c r="DJ6" s="53"/>
-      <c r="DK6" s="53"/>
-      <c r="DL6" s="53"/>
-      <c r="DM6" s="53"/>
-      <c r="DN6" s="53"/>
-      <c r="DO6" s="53"/>
-      <c r="DP6" s="53"/>
-      <c r="DQ6" s="53"/>
-      <c r="DR6" s="53"/>
-      <c r="DS6" s="53"/>
-      <c r="DT6" s="53"/>
-      <c r="DU6" s="53"/>
-      <c r="DV6" s="53"/>
-      <c r="DW6" s="53"/>
-      <c r="DX6" s="53"/>
-      <c r="DY6" s="53"/>
-      <c r="DZ6" s="53"/>
-      <c r="EA6" s="53"/>
-      <c r="EB6" s="53"/>
-      <c r="EC6" s="53"/>
-      <c r="ED6" s="53"/>
-      <c r="EE6" s="53"/>
-      <c r="EF6" s="53"/>
-      <c r="EG6" s="53"/>
-      <c r="EH6" s="53"/>
-      <c r="EI6" s="53"/>
-      <c r="EJ6" s="53"/>
-      <c r="EK6" s="53"/>
-      <c r="EL6" s="53"/>
-      <c r="EM6" s="53"/>
-      <c r="EN6" s="53"/>
-      <c r="EO6" s="53"/>
-      <c r="EP6" s="53"/>
-      <c r="EQ6" s="53"/>
-      <c r="ER6" s="53"/>
-      <c r="ES6" s="53"/>
-      <c r="ET6" s="53"/>
-      <c r="EU6" s="53"/>
-      <c r="EV6" s="53"/>
-      <c r="EW6" s="53"/>
-      <c r="EX6" s="53"/>
-      <c r="EY6" s="53"/>
-      <c r="EZ6" s="53"/>
-      <c r="FA6" s="53"/>
-      <c r="FB6" s="53"/>
-      <c r="FC6" s="53"/>
-      <c r="FD6" s="53"/>
-      <c r="FE6" s="53"/>
-      <c r="FF6" s="53"/>
-      <c r="FG6" s="53"/>
-      <c r="FH6" s="53"/>
-      <c r="FI6" s="53"/>
-      <c r="FJ6" s="53"/>
-      <c r="FK6" s="53"/>
-      <c r="FL6" s="53"/>
-      <c r="FM6" s="53"/>
-      <c r="FN6" s="53"/>
-      <c r="FO6" s="53"/>
-      <c r="FP6" s="53"/>
-      <c r="FQ6" s="53"/>
-      <c r="FR6" s="53"/>
-      <c r="FS6" s="53"/>
-      <c r="FT6" s="53"/>
-      <c r="FU6" s="53"/>
-      <c r="FV6" s="53"/>
-      <c r="FW6" s="53"/>
-      <c r="FX6" s="53"/>
-      <c r="FY6" s="53"/>
-      <c r="FZ6" s="53"/>
-      <c r="GA6" s="53"/>
-      <c r="GB6" s="53"/>
-      <c r="GC6" s="53"/>
-      <c r="GD6" s="53"/>
-      <c r="GE6" s="53"/>
-      <c r="GF6" s="53"/>
-      <c r="GG6" s="53"/>
-      <c r="GH6" s="53"/>
-      <c r="GI6" s="53"/>
-      <c r="GJ6" s="53"/>
-      <c r="GK6" s="53"/>
-      <c r="GL6" s="53"/>
-      <c r="GM6" s="53"/>
-      <c r="GN6" s="53"/>
-      <c r="GO6" s="53"/>
-      <c r="GP6" s="53"/>
-      <c r="GQ6" s="53"/>
-      <c r="GR6" s="53"/>
-      <c r="GS6" s="53"/>
-      <c r="GT6" s="53"/>
-      <c r="GU6" s="53"/>
-      <c r="GV6" s="53"/>
-      <c r="GW6" s="53"/>
-      <c r="GX6" s="53"/>
-      <c r="GY6" s="53"/>
-      <c r="GZ6" s="53"/>
-      <c r="HA6" s="53"/>
-      <c r="HB6" s="53"/>
-      <c r="HC6" s="53"/>
-      <c r="HD6" s="53"/>
-      <c r="HE6" s="53"/>
-      <c r="HF6" s="53"/>
-      <c r="HG6" s="53"/>
-      <c r="HH6" s="53"/>
-      <c r="HI6" s="53"/>
-      <c r="HJ6" s="53"/>
-      <c r="HK6" s="53"/>
-      <c r="HL6" s="53"/>
-      <c r="HM6" s="53"/>
-      <c r="HN6" s="53"/>
-      <c r="HO6" s="53"/>
-      <c r="HP6" s="53"/>
-      <c r="HQ6" s="53"/>
-      <c r="HR6" s="53"/>
-      <c r="HS6" s="53"/>
-      <c r="HT6" s="53"/>
-      <c r="HU6" s="53"/>
-      <c r="HV6" s="53"/>
-      <c r="HW6" s="53"/>
-      <c r="HX6" s="53"/>
-      <c r="HY6" s="53"/>
-      <c r="HZ6" s="53"/>
-      <c r="IA6" s="53"/>
-      <c r="IB6" s="53"/>
-      <c r="IC6" s="53"/>
-      <c r="ID6" s="53"/>
-      <c r="IE6" s="54"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="89"/>
+      <c r="BQ6" s="89"/>
+      <c r="BR6" s="89"/>
+      <c r="BS6" s="89"/>
+      <c r="BT6" s="89"/>
+      <c r="BU6" s="89"/>
+      <c r="BV6" s="89"/>
+      <c r="BW6" s="89"/>
+      <c r="BX6" s="89"/>
+      <c r="BY6" s="89"/>
+      <c r="BZ6" s="89"/>
+      <c r="CA6" s="89"/>
+      <c r="CB6" s="89"/>
+      <c r="CC6" s="89"/>
+      <c r="CD6" s="89"/>
+      <c r="CE6" s="89"/>
+      <c r="CF6" s="89"/>
+      <c r="CG6" s="89"/>
+      <c r="CH6" s="89"/>
+      <c r="CI6" s="89"/>
+      <c r="CJ6" s="89"/>
+      <c r="CK6" s="89"/>
+      <c r="CL6" s="89"/>
+      <c r="CM6" s="89"/>
+      <c r="CN6" s="89"/>
+      <c r="CO6" s="89"/>
+      <c r="CP6" s="89"/>
+      <c r="CQ6" s="89"/>
+      <c r="CR6" s="89"/>
+      <c r="CS6" s="89"/>
+      <c r="CT6" s="89"/>
+      <c r="CU6" s="89"/>
+      <c r="CV6" s="89"/>
+      <c r="CW6" s="89"/>
+      <c r="CX6" s="89"/>
+      <c r="CY6" s="89"/>
+      <c r="CZ6" s="89"/>
+      <c r="DA6" s="89"/>
+      <c r="DB6" s="89"/>
+      <c r="DC6" s="89"/>
+      <c r="DD6" s="89"/>
+      <c r="DE6" s="89"/>
+      <c r="DF6" s="89"/>
+      <c r="DG6" s="89"/>
+      <c r="DH6" s="89"/>
+      <c r="DI6" s="89"/>
+      <c r="DJ6" s="89"/>
+      <c r="DK6" s="89"/>
+      <c r="DL6" s="89"/>
+      <c r="DM6" s="89"/>
+      <c r="DN6" s="89"/>
+      <c r="DO6" s="89"/>
+      <c r="DP6" s="89"/>
+      <c r="DQ6" s="89"/>
+      <c r="DR6" s="89"/>
+      <c r="DS6" s="89"/>
+      <c r="DT6" s="89"/>
+      <c r="DU6" s="89"/>
+      <c r="DV6" s="89"/>
+      <c r="DW6" s="89"/>
+      <c r="DX6" s="89"/>
+      <c r="DY6" s="89"/>
+      <c r="DZ6" s="89"/>
+      <c r="EA6" s="89"/>
+      <c r="EB6" s="89"/>
+      <c r="EC6" s="89"/>
+      <c r="ED6" s="89"/>
+      <c r="EE6" s="89"/>
+      <c r="EF6" s="89"/>
+      <c r="EG6" s="89"/>
+      <c r="EH6" s="89"/>
+      <c r="EI6" s="89"/>
+      <c r="EJ6" s="89"/>
+      <c r="EK6" s="89"/>
+      <c r="EL6" s="89"/>
+      <c r="EM6" s="89"/>
+      <c r="EN6" s="89"/>
+      <c r="EO6" s="89"/>
+      <c r="EP6" s="89"/>
+      <c r="EQ6" s="89"/>
+      <c r="ER6" s="89"/>
+      <c r="ES6" s="89"/>
+      <c r="ET6" s="89"/>
+      <c r="EU6" s="89"/>
+      <c r="EV6" s="89"/>
+      <c r="EW6" s="89"/>
+      <c r="EX6" s="89"/>
+      <c r="EY6" s="89"/>
+      <c r="EZ6" s="89"/>
+      <c r="FA6" s="89"/>
+      <c r="FB6" s="89"/>
+      <c r="FC6" s="89"/>
+      <c r="FD6" s="89"/>
+      <c r="FE6" s="89"/>
+      <c r="FF6" s="89"/>
+      <c r="FG6" s="89"/>
+      <c r="FH6" s="89"/>
+      <c r="FI6" s="89"/>
+      <c r="FJ6" s="89"/>
+      <c r="FK6" s="89"/>
+      <c r="FL6" s="89"/>
+      <c r="FM6" s="89"/>
+      <c r="FN6" s="89"/>
+      <c r="FO6" s="89"/>
+      <c r="FP6" s="89"/>
+      <c r="FQ6" s="89"/>
+      <c r="FR6" s="89"/>
+      <c r="FS6" s="89"/>
+      <c r="FT6" s="89"/>
+      <c r="FU6" s="89"/>
+      <c r="FV6" s="89"/>
+      <c r="FW6" s="89"/>
+      <c r="FX6" s="89"/>
+      <c r="FY6" s="89"/>
+      <c r="FZ6" s="89"/>
+      <c r="GA6" s="89"/>
+      <c r="GB6" s="89"/>
+      <c r="GC6" s="89"/>
+      <c r="GD6" s="89"/>
+      <c r="GE6" s="89"/>
+      <c r="GF6" s="89"/>
+      <c r="GG6" s="89"/>
+      <c r="GH6" s="89"/>
+      <c r="GI6" s="89"/>
+      <c r="GJ6" s="89"/>
+      <c r="GK6" s="89"/>
+      <c r="GL6" s="89"/>
+      <c r="GM6" s="89"/>
+      <c r="GN6" s="89"/>
+      <c r="GO6" s="89"/>
+      <c r="GP6" s="89"/>
+      <c r="GQ6" s="89"/>
+      <c r="GR6" s="89"/>
+      <c r="GS6" s="89"/>
+      <c r="GT6" s="89"/>
+      <c r="GU6" s="89"/>
+      <c r="GV6" s="89"/>
+      <c r="GW6" s="89"/>
+      <c r="GX6" s="89"/>
+      <c r="GY6" s="89"/>
+      <c r="GZ6" s="89"/>
+      <c r="HA6" s="89"/>
+      <c r="HB6" s="89"/>
+      <c r="HC6" s="89"/>
+      <c r="HD6" s="89"/>
+      <c r="HE6" s="89"/>
+      <c r="HF6" s="89"/>
+      <c r="HG6" s="89"/>
+      <c r="HH6" s="89"/>
+      <c r="HI6" s="89"/>
+      <c r="HJ6" s="89"/>
+      <c r="HK6" s="89"/>
+      <c r="HL6" s="89"/>
+      <c r="HM6" s="89"/>
+      <c r="HN6" s="89"/>
+      <c r="HO6" s="89"/>
+      <c r="HP6" s="89"/>
+      <c r="HQ6" s="89"/>
+      <c r="HR6" s="89"/>
+      <c r="HS6" s="89"/>
+      <c r="HT6" s="89"/>
+      <c r="HU6" s="89"/>
+      <c r="HV6" s="89"/>
+      <c r="HW6" s="89"/>
+      <c r="HX6" s="89"/>
+      <c r="HY6" s="89"/>
+      <c r="HZ6" s="89"/>
+      <c r="IA6" s="89"/>
+      <c r="IB6" s="89"/>
+      <c r="IC6" s="89"/>
+      <c r="ID6" s="89"/>
+      <c r="IE6" s="90"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1978,17 +1979,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="51">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -1997,10 +1998,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="52">
         <v>1</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2249,19 +2250,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="51"/>
+      <c r="B9" s="60"/>
+      <c r="C9" s="61"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2508,15 +2509,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="55">
+      <c r="A10" s="51">
         <v>2</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="60"/>
+      <c r="C10" s="61"/>
+      <c r="D10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2525,10 +2526,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="52">
         <v>1</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2769,19 +2770,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="51"/>
+      <c r="B11" s="60"/>
+      <c r="C11" s="61"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3020,15 +3021,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="55">
+      <c r="A12" s="51">
         <v>3</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="60"/>
+      <c r="C12" s="61"/>
+      <c r="D12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3037,10 +3038,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="52">
         <v>1</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3281,19 +3282,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="51"/>
+      <c r="B13" s="60"/>
+      <c r="C13" s="61"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3532,15 +3533,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="51">
         <v>4</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="60"/>
+      <c r="C14" s="61"/>
+      <c r="D14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3549,10 +3550,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="52">
         <v>1</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3793,19 +3794,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="55"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="60"/>
+      <c r="C15" s="61"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4044,15 +4045,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="51">
         <v>5</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="60"/>
+      <c r="C16" s="61"/>
+      <c r="D16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4061,10 +4062,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="52">
         <v>1</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4303,19 +4304,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="55"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="60"/>
+      <c r="C17" s="61"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4552,15 +4553,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="51">
         <v>6</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="60"/>
+      <c r="C18" s="61"/>
+      <c r="D18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4569,10 +4570,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="52">
         <v>1</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4811,19 +4812,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="55"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5060,17 +5061,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="51">
         <v>9</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5079,8 +5080,8 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="H20" s="62"/>
+      <c r="I20" s="62"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5319,15 +5320,15 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="55"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="60"/>
+      <c r="C21" s="61"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="H21" s="63"/>
+      <c r="I21" s="63"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5560,15 +5561,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="51">
         <v>10</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="60"/>
+      <c r="C22" s="61"/>
+      <c r="D22" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5577,8 +5578,8 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="H22" s="62"/>
+      <c r="I22" s="62"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5815,15 +5816,15 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="55"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="60"/>
+      <c r="C23" s="61"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="H23" s="63"/>
+      <c r="I23" s="63"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6056,15 +6057,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="51">
         <v>11</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="60"/>
+      <c r="C24" s="61"/>
+      <c r="D24" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6073,8 +6074,8 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="H24" s="62"/>
+      <c r="I24" s="62"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6311,15 +6312,15 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="55"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="51"/>
+      <c r="B25" s="60"/>
+      <c r="C25" s="61"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="H25" s="63"/>
+      <c r="I25" s="63"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6552,15 +6553,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="51">
         <v>12</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="60" t="s">
+      <c r="B26" s="60"/>
+      <c r="C26" s="61"/>
+      <c r="D26" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6569,8 +6570,8 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="H26" s="62"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6807,15 +6808,15 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="51"/>
+      <c r="B27" s="60"/>
+      <c r="C27" s="61"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
+      <c r="H27" s="63"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7048,15 +7049,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="51">
         <v>13</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="60" t="s">
+      <c r="B28" s="60"/>
+      <c r="C28" s="61"/>
+      <c r="D28" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7065,8 +7066,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7303,15 +7304,15 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="55"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="60"/>
+      <c r="C29" s="61"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7544,15 +7545,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="51">
         <v>14</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="60" t="s">
+      <c r="B30" s="60"/>
+      <c r="C30" s="61"/>
+      <c r="D30" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7561,8 +7562,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7799,15 +7800,15 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="60"/>
+      <c r="C31" s="61"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8040,15 +8041,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="51">
         <v>15</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="60" t="s">
+      <c r="B32" s="60"/>
+      <c r="C32" s="61"/>
+      <c r="D32" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8057,8 +8058,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8295,15 +8296,15 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="55"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="60"/>
+      <c r="C33" s="61"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8536,15 +8537,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="51">
         <v>16</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="60"/>
+      <c r="C34" s="61"/>
+      <c r="D34" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8553,8 +8554,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8791,15 +8792,15 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="55"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9032,17 +9033,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="51">
         <v>17</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9051,8 +9052,8 @@
       <c r="G36" s="8">
         <v>42832</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="62"/>
+      <c r="I36" s="62"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9297,15 +9298,15 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="55"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9538,15 +9539,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="55">
+      <c r="A38" s="51">
         <v>18</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="60" t="s">
+      <c r="B38" s="60"/>
+      <c r="C38" s="61"/>
+      <c r="D38" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9555,8 +9556,8 @@
       <c r="G38" s="8">
         <v>42824</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9809,15 +9810,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="55"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10050,17 +10051,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="55">
+      <c r="A40" s="51">
         <v>19</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="60" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10069,8 +10070,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="62"/>
+      <c r="I40" s="62"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10323,15 +10324,15 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="55"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="60"/>
+      <c r="C41" s="61"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10564,15 +10565,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="51">
         <v>20</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="60"/>
+      <c r="C42" s="61"/>
+      <c r="D42" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10581,8 +10582,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="91"/>
-      <c r="I42" s="83"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10831,15 +10832,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="55"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="60"/>
+      <c r="C43" s="61"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="84"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11072,15 +11073,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="51">
         <v>21</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="55" t="s">
+      <c r="B44" s="60"/>
+      <c r="C44" s="61"/>
+      <c r="D44" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11089,8 +11090,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="91"/>
-      <c r="I44" s="83"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11327,15 +11328,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="55"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="84"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11568,17 +11569,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="51">
         <v>22</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11587,8 +11588,8 @@
       <c r="G46" s="8">
         <v>42823</v>
       </c>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
+      <c r="H46" s="62"/>
+      <c r="I46" s="62"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -11827,15 +11828,15 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="55"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="60"/>
+      <c r="C47" s="61"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12068,15 +12069,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="51">
         <v>23</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="55" t="s">
+      <c r="B48" s="60"/>
+      <c r="C48" s="61"/>
+      <c r="D48" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12085,8 +12086,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12333,15 +12334,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="55"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="58"/>
+      <c r="C49" s="59"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12354,7 +12355,7 @@
       <c r="S49" s="15"/>
       <c r="T49" s="14"/>
       <c r="U49" s="14"/>
-      <c r="V49" s="15"/>
+      <c r="V49" s="13"/>
       <c r="W49" s="15"/>
       <c r="X49" s="13"/>
       <c r="Y49" s="13"/>
@@ -12574,17 +12575,17 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239">
-      <c r="A50" s="55">
+      <c r="A50" s="51">
         <v>24</v>
       </c>
-      <c r="B50" s="85" t="s">
+      <c r="B50" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C50" s="86"/>
-      <c r="D50" s="55" t="s">
+      <c r="C50" s="57"/>
+      <c r="D50" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12593,8 +12594,8 @@
       <c r="G50" s="8">
         <v>42837</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12849,15 +12850,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="55"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13090,17 +13091,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="51">
         <v>18</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="60" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F52" s="30">
@@ -13109,8 +13110,8 @@
       <c r="G52" s="30">
         <v>42813</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13347,15 +13348,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="55"/>
-      <c r="B53" s="87"/>
-      <c r="C53" s="88"/>
-      <c r="D53" s="61"/>
-      <c r="E53" s="61"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="60"/>
+      <c r="C53" s="61"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="30"/>
       <c r="G53" s="30"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13588,15 +13589,15 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="55">
+      <c r="A54" s="51">
         <v>19</v>
       </c>
-      <c r="B54" s="87"/>
-      <c r="C54" s="88"/>
-      <c r="D54" s="55" t="s">
+      <c r="B54" s="60"/>
+      <c r="C54" s="61"/>
+      <c r="D54" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E54" s="55" t="s">
+      <c r="E54" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13605,8 +13606,8 @@
       <c r="G54" s="30">
         <v>42816</v>
       </c>
-      <c r="H54" s="57"/>
-      <c r="I54" s="57"/>
+      <c r="H54" s="52"/>
+      <c r="I54" s="52"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13843,15 +13844,15 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="55"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="60"/>
+      <c r="C55" s="61"/>
+      <c r="D55" s="51"/>
+      <c r="E55" s="51"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="57"/>
-      <c r="I55" s="58"/>
+      <c r="H55" s="52"/>
+      <c r="I55" s="53"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14084,15 +14085,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="55">
+      <c r="A56" s="51">
         <v>20</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="55" t="s">
+      <c r="B56" s="60"/>
+      <c r="C56" s="61"/>
+      <c r="D56" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="51" t="s">
         <v>67</v>
       </c>
       <c r="F56" s="30">
@@ -14101,8 +14102,8 @@
       <c r="G56" s="30">
         <v>42819</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14339,15 +14340,15 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239" ht="19.5">
-      <c r="A57" s="55"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="60"/>
+      <c r="C57" s="61"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="58"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14580,15 +14581,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239" ht="19.5">
-      <c r="A58" s="55">
+      <c r="A58" s="51">
         <v>21</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="55" t="s">
+      <c r="B58" s="60"/>
+      <c r="C58" s="61"/>
+      <c r="D58" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F58" s="30">
@@ -14597,8 +14598,8 @@
       <c r="G58" s="30">
         <v>42822</v>
       </c>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14835,15 +14836,15 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="55"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="51"/>
+      <c r="B59" s="60"/>
+      <c r="C59" s="61"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="58"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15076,15 +15077,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="55">
+      <c r="A60" s="51">
         <v>22</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="55" t="s">
+      <c r="B60" s="60"/>
+      <c r="C60" s="61"/>
+      <c r="D60" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15093,8 +15094,8 @@
       <c r="G60" s="30">
         <v>42826</v>
       </c>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="25"/>
       <c r="K60" s="25"/>
       <c r="L60" s="25"/>
@@ -15331,15 +15332,15 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239">
-      <c r="A61" s="55"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="51"/>
+      <c r="B61" s="60"/>
+      <c r="C61" s="61"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="53"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15572,15 +15573,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239">
-      <c r="A62" s="55">
+      <c r="A62" s="51">
         <v>23</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="60" t="s">
+      <c r="B62" s="60"/>
+      <c r="C62" s="61"/>
+      <c r="D62" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15589,8 +15590,8 @@
       <c r="G62" s="30">
         <v>42829</v>
       </c>
-      <c r="H62" s="83"/>
-      <c r="I62" s="83"/>
+      <c r="H62" s="62"/>
+      <c r="I62" s="62"/>
       <c r="J62" s="24"/>
       <c r="K62" s="24"/>
       <c r="L62" s="24"/>
@@ -15827,15 +15828,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="55"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="61"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="60"/>
+      <c r="C63" s="61"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="84"/>
-      <c r="I63" s="84"/>
+      <c r="H63" s="63"/>
+      <c r="I63" s="63"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16068,15 +16069,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="60">
+      <c r="A64" s="54">
         <v>24</v>
       </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="55" t="s">
+      <c r="B64" s="60"/>
+      <c r="C64" s="61"/>
+      <c r="D64" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16085,8 +16086,8 @@
       <c r="G64" s="30">
         <v>42832</v>
       </c>
-      <c r="H64" s="57"/>
-      <c r="I64" s="57"/>
+      <c r="H64" s="52"/>
+      <c r="I64" s="52"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16323,15 +16324,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="61"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="60"/>
+      <c r="C65" s="61"/>
+      <c r="D65" s="51"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="58"/>
+      <c r="H65" s="52"/>
+      <c r="I65" s="53"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16564,15 +16565,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="60">
+      <c r="A66" s="54">
         <v>25</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="55" t="s">
+      <c r="B66" s="60"/>
+      <c r="C66" s="61"/>
+      <c r="D66" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16581,8 +16582,8 @@
       <c r="G66" s="30">
         <v>42837</v>
       </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -16819,15 +16820,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="61"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="58"/>
+      <c r="C67" s="59"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17059,77 +17060,229 @@
       <c r="ID67" s="13"/>
       <c r="IE67" s="13"/>
     </row>
-    <row r="70" spans="1:239">
-      <c r="A70" s="59" t="s">
+    <row r="70" spans="1:239" ht="409.6">
+      <c r="A70" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="59"/>
-      <c r="C70" s="59"/>
-      <c r="D70" s="59"/>
-      <c r="E70" s="59"/>
-      <c r="F70" s="59"/>
-      <c r="G70" s="59"/>
-      <c r="H70" s="59"/>
-      <c r="I70" s="59"/>
-      <c r="J70" s="59"/>
-      <c r="K70" s="59"/>
-      <c r="L70" s="59"/>
-      <c r="M70" s="59"/>
-      <c r="N70" s="59"/>
-      <c r="O70" s="59"/>
-      <c r="P70" s="59"/>
-      <c r="Q70" s="59"/>
-      <c r="R70" s="59"/>
-      <c r="S70" s="59"/>
-      <c r="T70" s="59"/>
-      <c r="U70" s="59"/>
-      <c r="V70" s="59"/>
-      <c r="W70" s="59"/>
-      <c r="X70" s="59"/>
-      <c r="Y70" s="59"/>
-      <c r="Z70" s="59"/>
-      <c r="AA70" s="59"/>
-      <c r="AB70" s="59"/>
-      <c r="AC70" s="59"/>
-      <c r="AD70" s="59"/>
-      <c r="AE70" s="59"/>
+      <c r="B70" s="92"/>
+      <c r="C70" s="92"/>
+      <c r="D70" s="92"/>
+      <c r="E70" s="92"/>
+      <c r="F70" s="92"/>
+      <c r="G70" s="92"/>
+      <c r="H70" s="92"/>
+      <c r="I70" s="92"/>
+      <c r="J70" s="92"/>
+      <c r="K70" s="92"/>
+      <c r="L70" s="92"/>
+      <c r="M70" s="92"/>
+      <c r="N70" s="92"/>
+      <c r="O70" s="92"/>
+      <c r="P70" s="92"/>
+      <c r="Q70" s="92"/>
+      <c r="R70" s="92"/>
+      <c r="S70" s="92"/>
+      <c r="T70" s="92"/>
+      <c r="U70" s="92"/>
+      <c r="V70" s="92"/>
+      <c r="W70" s="92"/>
+      <c r="X70" s="92"/>
+      <c r="Y70" s="92"/>
+      <c r="Z70" s="92"/>
+      <c r="AA70" s="92"/>
+      <c r="AB70" s="92"/>
+      <c r="AC70" s="92"/>
+      <c r="AD70" s="92"/>
+      <c r="AE70" s="92"/>
     </row>
-    <row r="71" spans="1:239">
-      <c r="A71" s="59"/>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="59"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="59"/>
-      <c r="AE71" s="59"/>
+    <row r="71" spans="1:239" ht="409.6">
+      <c r="A71" s="92"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
+      <c r="O71" s="92"/>
+      <c r="P71" s="92"/>
+      <c r="Q71" s="92"/>
+      <c r="R71" s="92"/>
+      <c r="S71" s="92"/>
+      <c r="T71" s="92"/>
+      <c r="U71" s="92"/>
+      <c r="V71" s="92"/>
+      <c r="W71" s="92"/>
+      <c r="X71" s="92"/>
+      <c r="Y71" s="92"/>
+      <c r="Z71" s="92"/>
+      <c r="AA71" s="92"/>
+      <c r="AB71" s="92"/>
+      <c r="AC71" s="92"/>
+      <c r="AD71" s="92"/>
+      <c r="AE71" s="92"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="176">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A70:AE71"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
     <mergeCell ref="E56:E57"/>
     <mergeCell ref="H56:H57"/>
     <mergeCell ref="I56:I57"/>
@@ -17154,158 +17307,6 @@
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="A58:A59"/>
     <mergeCell ref="D58:D59"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A70:AE71"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="25215" windowHeight="6135" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="25215" windowHeight="5790" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="229" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -297,6 +297,10 @@
   </si>
   <si>
     <t>상품 관리 (목록)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>회원 가입</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -782,8 +786,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -791,41 +810,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -890,23 +882,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1280,10 +1284,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IE71"/>
+  <dimension ref="A1:IE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A17" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="U25" sqref="U25"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12"/>
@@ -1307,226 +1311,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="72" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="68" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="69" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="71"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="67"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1538,17 +1542,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="51" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1557,261 +1561,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="88" t="s">
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="89"/>
-      <c r="AV6" s="89"/>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="89"/>
-      <c r="BA6" s="89"/>
-      <c r="BB6" s="89"/>
-      <c r="BC6" s="89"/>
-      <c r="BD6" s="89"/>
-      <c r="BE6" s="89"/>
-      <c r="BF6" s="89"/>
-      <c r="BG6" s="89"/>
-      <c r="BH6" s="89"/>
-      <c r="BI6" s="89"/>
-      <c r="BJ6" s="89"/>
-      <c r="BK6" s="89"/>
-      <c r="BL6" s="89"/>
-      <c r="BM6" s="89"/>
-      <c r="BN6" s="89"/>
-      <c r="BO6" s="89"/>
-      <c r="BP6" s="89"/>
-      <c r="BQ6" s="89"/>
-      <c r="BR6" s="89"/>
-      <c r="BS6" s="89"/>
-      <c r="BT6" s="89"/>
-      <c r="BU6" s="89"/>
-      <c r="BV6" s="89"/>
-      <c r="BW6" s="89"/>
-      <c r="BX6" s="89"/>
-      <c r="BY6" s="89"/>
-      <c r="BZ6" s="89"/>
-      <c r="CA6" s="89"/>
-      <c r="CB6" s="89"/>
-      <c r="CC6" s="89"/>
-      <c r="CD6" s="89"/>
-      <c r="CE6" s="89"/>
-      <c r="CF6" s="89"/>
-      <c r="CG6" s="89"/>
-      <c r="CH6" s="89"/>
-      <c r="CI6" s="89"/>
-      <c r="CJ6" s="89"/>
-      <c r="CK6" s="89"/>
-      <c r="CL6" s="89"/>
-      <c r="CM6" s="89"/>
-      <c r="CN6" s="89"/>
-      <c r="CO6" s="89"/>
-      <c r="CP6" s="89"/>
-      <c r="CQ6" s="89"/>
-      <c r="CR6" s="89"/>
-      <c r="CS6" s="89"/>
-      <c r="CT6" s="89"/>
-      <c r="CU6" s="89"/>
-      <c r="CV6" s="89"/>
-      <c r="CW6" s="89"/>
-      <c r="CX6" s="89"/>
-      <c r="CY6" s="89"/>
-      <c r="CZ6" s="89"/>
-      <c r="DA6" s="89"/>
-      <c r="DB6" s="89"/>
-      <c r="DC6" s="89"/>
-      <c r="DD6" s="89"/>
-      <c r="DE6" s="89"/>
-      <c r="DF6" s="89"/>
-      <c r="DG6" s="89"/>
-      <c r="DH6" s="89"/>
-      <c r="DI6" s="89"/>
-      <c r="DJ6" s="89"/>
-      <c r="DK6" s="89"/>
-      <c r="DL6" s="89"/>
-      <c r="DM6" s="89"/>
-      <c r="DN6" s="89"/>
-      <c r="DO6" s="89"/>
-      <c r="DP6" s="89"/>
-      <c r="DQ6" s="89"/>
-      <c r="DR6" s="89"/>
-      <c r="DS6" s="89"/>
-      <c r="DT6" s="89"/>
-      <c r="DU6" s="89"/>
-      <c r="DV6" s="89"/>
-      <c r="DW6" s="89"/>
-      <c r="DX6" s="89"/>
-      <c r="DY6" s="89"/>
-      <c r="DZ6" s="89"/>
-      <c r="EA6" s="89"/>
-      <c r="EB6" s="89"/>
-      <c r="EC6" s="89"/>
-      <c r="ED6" s="89"/>
-      <c r="EE6" s="89"/>
-      <c r="EF6" s="89"/>
-      <c r="EG6" s="89"/>
-      <c r="EH6" s="89"/>
-      <c r="EI6" s="89"/>
-      <c r="EJ6" s="89"/>
-      <c r="EK6" s="89"/>
-      <c r="EL6" s="89"/>
-      <c r="EM6" s="89"/>
-      <c r="EN6" s="89"/>
-      <c r="EO6" s="89"/>
-      <c r="EP6" s="89"/>
-      <c r="EQ6" s="89"/>
-      <c r="ER6" s="89"/>
-      <c r="ES6" s="89"/>
-      <c r="ET6" s="89"/>
-      <c r="EU6" s="89"/>
-      <c r="EV6" s="89"/>
-      <c r="EW6" s="89"/>
-      <c r="EX6" s="89"/>
-      <c r="EY6" s="89"/>
-      <c r="EZ6" s="89"/>
-      <c r="FA6" s="89"/>
-      <c r="FB6" s="89"/>
-      <c r="FC6" s="89"/>
-      <c r="FD6" s="89"/>
-      <c r="FE6" s="89"/>
-      <c r="FF6" s="89"/>
-      <c r="FG6" s="89"/>
-      <c r="FH6" s="89"/>
-      <c r="FI6" s="89"/>
-      <c r="FJ6" s="89"/>
-      <c r="FK6" s="89"/>
-      <c r="FL6" s="89"/>
-      <c r="FM6" s="89"/>
-      <c r="FN6" s="89"/>
-      <c r="FO6" s="89"/>
-      <c r="FP6" s="89"/>
-      <c r="FQ6" s="89"/>
-      <c r="FR6" s="89"/>
-      <c r="FS6" s="89"/>
-      <c r="FT6" s="89"/>
-      <c r="FU6" s="89"/>
-      <c r="FV6" s="89"/>
-      <c r="FW6" s="89"/>
-      <c r="FX6" s="89"/>
-      <c r="FY6" s="89"/>
-      <c r="FZ6" s="89"/>
-      <c r="GA6" s="89"/>
-      <c r="GB6" s="89"/>
-      <c r="GC6" s="89"/>
-      <c r="GD6" s="89"/>
-      <c r="GE6" s="89"/>
-      <c r="GF6" s="89"/>
-      <c r="GG6" s="89"/>
-      <c r="GH6" s="89"/>
-      <c r="GI6" s="89"/>
-      <c r="GJ6" s="89"/>
-      <c r="GK6" s="89"/>
-      <c r="GL6" s="89"/>
-      <c r="GM6" s="89"/>
-      <c r="GN6" s="89"/>
-      <c r="GO6" s="89"/>
-      <c r="GP6" s="89"/>
-      <c r="GQ6" s="89"/>
-      <c r="GR6" s="89"/>
-      <c r="GS6" s="89"/>
-      <c r="GT6" s="89"/>
-      <c r="GU6" s="89"/>
-      <c r="GV6" s="89"/>
-      <c r="GW6" s="89"/>
-      <c r="GX6" s="89"/>
-      <c r="GY6" s="89"/>
-      <c r="GZ6" s="89"/>
-      <c r="HA6" s="89"/>
-      <c r="HB6" s="89"/>
-      <c r="HC6" s="89"/>
-      <c r="HD6" s="89"/>
-      <c r="HE6" s="89"/>
-      <c r="HF6" s="89"/>
-      <c r="HG6" s="89"/>
-      <c r="HH6" s="89"/>
-      <c r="HI6" s="89"/>
-      <c r="HJ6" s="89"/>
-      <c r="HK6" s="89"/>
-      <c r="HL6" s="89"/>
-      <c r="HM6" s="89"/>
-      <c r="HN6" s="89"/>
-      <c r="HO6" s="89"/>
-      <c r="HP6" s="89"/>
-      <c r="HQ6" s="89"/>
-      <c r="HR6" s="89"/>
-      <c r="HS6" s="89"/>
-      <c r="HT6" s="89"/>
-      <c r="HU6" s="89"/>
-      <c r="HV6" s="89"/>
-      <c r="HW6" s="89"/>
-      <c r="HX6" s="89"/>
-      <c r="HY6" s="89"/>
-      <c r="HZ6" s="89"/>
-      <c r="IA6" s="89"/>
-      <c r="IB6" s="89"/>
-      <c r="IC6" s="89"/>
-      <c r="ID6" s="89"/>
-      <c r="IE6" s="90"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
+      <c r="CF6" s="53"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="53"/>
+      <c r="CI6" s="53"/>
+      <c r="CJ6" s="53"/>
+      <c r="CK6" s="53"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="53"/>
+      <c r="CN6" s="53"/>
+      <c r="CO6" s="53"/>
+      <c r="CP6" s="53"/>
+      <c r="CQ6" s="53"/>
+      <c r="CR6" s="53"/>
+      <c r="CS6" s="53"/>
+      <c r="CT6" s="53"/>
+      <c r="CU6" s="53"/>
+      <c r="CV6" s="53"/>
+      <c r="CW6" s="53"/>
+      <c r="CX6" s="53"/>
+      <c r="CY6" s="53"/>
+      <c r="CZ6" s="53"/>
+      <c r="DA6" s="53"/>
+      <c r="DB6" s="53"/>
+      <c r="DC6" s="53"/>
+      <c r="DD6" s="53"/>
+      <c r="DE6" s="53"/>
+      <c r="DF6" s="53"/>
+      <c r="DG6" s="53"/>
+      <c r="DH6" s="53"/>
+      <c r="DI6" s="53"/>
+      <c r="DJ6" s="53"/>
+      <c r="DK6" s="53"/>
+      <c r="DL6" s="53"/>
+      <c r="DM6" s="53"/>
+      <c r="DN6" s="53"/>
+      <c r="DO6" s="53"/>
+      <c r="DP6" s="53"/>
+      <c r="DQ6" s="53"/>
+      <c r="DR6" s="53"/>
+      <c r="DS6" s="53"/>
+      <c r="DT6" s="53"/>
+      <c r="DU6" s="53"/>
+      <c r="DV6" s="53"/>
+      <c r="DW6" s="53"/>
+      <c r="DX6" s="53"/>
+      <c r="DY6" s="53"/>
+      <c r="DZ6" s="53"/>
+      <c r="EA6" s="53"/>
+      <c r="EB6" s="53"/>
+      <c r="EC6" s="53"/>
+      <c r="ED6" s="53"/>
+      <c r="EE6" s="53"/>
+      <c r="EF6" s="53"/>
+      <c r="EG6" s="53"/>
+      <c r="EH6" s="53"/>
+      <c r="EI6" s="53"/>
+      <c r="EJ6" s="53"/>
+      <c r="EK6" s="53"/>
+      <c r="EL6" s="53"/>
+      <c r="EM6" s="53"/>
+      <c r="EN6" s="53"/>
+      <c r="EO6" s="53"/>
+      <c r="EP6" s="53"/>
+      <c r="EQ6" s="53"/>
+      <c r="ER6" s="53"/>
+      <c r="ES6" s="53"/>
+      <c r="ET6" s="53"/>
+      <c r="EU6" s="53"/>
+      <c r="EV6" s="53"/>
+      <c r="EW6" s="53"/>
+      <c r="EX6" s="53"/>
+      <c r="EY6" s="53"/>
+      <c r="EZ6" s="53"/>
+      <c r="FA6" s="53"/>
+      <c r="FB6" s="53"/>
+      <c r="FC6" s="53"/>
+      <c r="FD6" s="53"/>
+      <c r="FE6" s="53"/>
+      <c r="FF6" s="53"/>
+      <c r="FG6" s="53"/>
+      <c r="FH6" s="53"/>
+      <c r="FI6" s="53"/>
+      <c r="FJ6" s="53"/>
+      <c r="FK6" s="53"/>
+      <c r="FL6" s="53"/>
+      <c r="FM6" s="53"/>
+      <c r="FN6" s="53"/>
+      <c r="FO6" s="53"/>
+      <c r="FP6" s="53"/>
+      <c r="FQ6" s="53"/>
+      <c r="FR6" s="53"/>
+      <c r="FS6" s="53"/>
+      <c r="FT6" s="53"/>
+      <c r="FU6" s="53"/>
+      <c r="FV6" s="53"/>
+      <c r="FW6" s="53"/>
+      <c r="FX6" s="53"/>
+      <c r="FY6" s="53"/>
+      <c r="FZ6" s="53"/>
+      <c r="GA6" s="53"/>
+      <c r="GB6" s="53"/>
+      <c r="GC6" s="53"/>
+      <c r="GD6" s="53"/>
+      <c r="GE6" s="53"/>
+      <c r="GF6" s="53"/>
+      <c r="GG6" s="53"/>
+      <c r="GH6" s="53"/>
+      <c r="GI6" s="53"/>
+      <c r="GJ6" s="53"/>
+      <c r="GK6" s="53"/>
+      <c r="GL6" s="53"/>
+      <c r="GM6" s="53"/>
+      <c r="GN6" s="53"/>
+      <c r="GO6" s="53"/>
+      <c r="GP6" s="53"/>
+      <c r="GQ6" s="53"/>
+      <c r="GR6" s="53"/>
+      <c r="GS6" s="53"/>
+      <c r="GT6" s="53"/>
+      <c r="GU6" s="53"/>
+      <c r="GV6" s="53"/>
+      <c r="GW6" s="53"/>
+      <c r="GX6" s="53"/>
+      <c r="GY6" s="53"/>
+      <c r="GZ6" s="53"/>
+      <c r="HA6" s="53"/>
+      <c r="HB6" s="53"/>
+      <c r="HC6" s="53"/>
+      <c r="HD6" s="53"/>
+      <c r="HE6" s="53"/>
+      <c r="HF6" s="53"/>
+      <c r="HG6" s="53"/>
+      <c r="HH6" s="53"/>
+      <c r="HI6" s="53"/>
+      <c r="HJ6" s="53"/>
+      <c r="HK6" s="53"/>
+      <c r="HL6" s="53"/>
+      <c r="HM6" s="53"/>
+      <c r="HN6" s="53"/>
+      <c r="HO6" s="53"/>
+      <c r="HP6" s="53"/>
+      <c r="HQ6" s="53"/>
+      <c r="HR6" s="53"/>
+      <c r="HS6" s="53"/>
+      <c r="HT6" s="53"/>
+      <c r="HU6" s="53"/>
+      <c r="HV6" s="53"/>
+      <c r="HW6" s="53"/>
+      <c r="HX6" s="53"/>
+      <c r="HY6" s="53"/>
+      <c r="HZ6" s="53"/>
+      <c r="IA6" s="53"/>
+      <c r="IB6" s="53"/>
+      <c r="IC6" s="53"/>
+      <c r="ID6" s="53"/>
+      <c r="IE6" s="54"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1979,17 +1983,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -1998,10 +2002,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2250,19 +2254,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="60"/>
-      <c r="C9" s="61"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2509,15 +2513,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="51">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="60"/>
-      <c r="C10" s="61"/>
-      <c r="D10" s="51" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2526,10 +2530,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="57">
         <v>1</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2770,19 +2774,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="60"/>
-      <c r="C11" s="61"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3021,15 +3025,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="51">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="61"/>
-      <c r="D12" s="51" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3038,10 +3042,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="57">
         <v>1</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3282,19 +3286,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="60"/>
-      <c r="C13" s="61"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3533,15 +3537,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
-      <c r="B14" s="60"/>
-      <c r="C14" s="61"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3550,10 +3554,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="57">
         <v>1</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3794,19 +3798,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="51"/>
-      <c r="B15" s="60"/>
-      <c r="C15" s="61"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="91"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4045,15 +4049,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="51">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="60"/>
-      <c r="C16" s="61"/>
-      <c r="D16" s="51" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4062,10 +4066,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="57">
         <v>1</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4304,19 +4308,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="51"/>
-      <c r="B17" s="60"/>
-      <c r="C17" s="61"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="91"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4553,15 +4557,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="51">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B18" s="60"/>
-      <c r="C18" s="61"/>
-      <c r="D18" s="51" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="55" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4570,10 +4574,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="57">
         <v>1</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4812,19 +4816,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="51"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="91"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5061,17 +5065,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="51">
+      <c r="A20" s="55">
         <v>9</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5080,8 +5084,8 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="62"/>
-      <c r="I20" s="62"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5320,15 +5324,15 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="51"/>
-      <c r="B21" s="60"/>
-      <c r="C21" s="61"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="63"/>
-      <c r="I21" s="63"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5561,15 +5565,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="51">
+      <c r="A22" s="55">
         <v>10</v>
       </c>
-      <c r="B22" s="60"/>
-      <c r="C22" s="61"/>
-      <c r="D22" s="54" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5578,8 +5582,8 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="62"/>
-      <c r="I22" s="62"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5816,15 +5820,15 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="51"/>
-      <c r="B23" s="60"/>
-      <c r="C23" s="61"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="63"/>
-      <c r="I23" s="63"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6057,15 +6061,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="51">
+      <c r="A24" s="55">
         <v>11</v>
       </c>
-      <c r="B24" s="60"/>
-      <c r="C24" s="61"/>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6074,8 +6078,8 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="62"/>
-      <c r="I24" s="62"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6312,15 +6316,15 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="51"/>
-      <c r="B25" s="60"/>
-      <c r="C25" s="61"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="63"/>
-      <c r="I25" s="63"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6553,15 +6557,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="51">
+      <c r="A26" s="55">
         <v>12</v>
       </c>
-      <c r="B26" s="60"/>
-      <c r="C26" s="61"/>
-      <c r="D26" s="54" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6570,8 +6574,8 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="62"/>
-      <c r="I26" s="62"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6808,15 +6812,15 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="51"/>
-      <c r="B27" s="60"/>
-      <c r="C27" s="61"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="63"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7049,15 +7053,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="51">
+      <c r="A28" s="55">
         <v>13</v>
       </c>
-      <c r="B28" s="60"/>
-      <c r="C28" s="61"/>
-      <c r="D28" s="54" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7066,8 +7070,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7304,15 +7308,15 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="51"/>
-      <c r="B29" s="60"/>
-      <c r="C29" s="61"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7545,15 +7549,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="51">
+      <c r="A30" s="55">
         <v>14</v>
       </c>
-      <c r="B30" s="60"/>
-      <c r="C30" s="61"/>
-      <c r="D30" s="54" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7562,8 +7566,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7800,15 +7804,15 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="60"/>
-      <c r="C31" s="61"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8041,15 +8045,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="51">
+      <c r="A32" s="55">
         <v>15</v>
       </c>
-      <c r="B32" s="60"/>
-      <c r="C32" s="61"/>
-      <c r="D32" s="54" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8058,8 +8062,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8296,15 +8300,15 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="51"/>
-      <c r="B33" s="60"/>
-      <c r="C33" s="61"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8537,15 +8541,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="51">
+      <c r="A34" s="55">
         <v>16</v>
       </c>
-      <c r="B34" s="60"/>
-      <c r="C34" s="61"/>
-      <c r="D34" s="54" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8554,8 +8558,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8792,15 +8796,15 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="51"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9033,17 +9037,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="51">
+      <c r="A36" s="55">
         <v>17</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="51" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9052,8 +9056,8 @@
       <c r="G36" s="8">
         <v>42832</v>
       </c>
-      <c r="H36" s="62"/>
-      <c r="I36" s="62"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9298,15 +9302,15 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="51"/>
-      <c r="B37" s="60"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="55"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9539,15 +9543,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="51">
+      <c r="A38" s="55">
         <v>18</v>
       </c>
-      <c r="B38" s="60"/>
-      <c r="C38" s="61"/>
-      <c r="D38" s="54" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9556,8 +9560,8 @@
       <c r="G38" s="8">
         <v>42824</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9810,15 +9814,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="51"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10051,17 +10055,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="51">
+      <c r="A40" s="55">
         <v>19</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="54" t="s">
+      <c r="C40" s="86"/>
+      <c r="D40" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10070,8 +10074,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="62"/>
-      <c r="I40" s="62"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10324,15 +10328,15 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="51"/>
-      <c r="B41" s="60"/>
-      <c r="C41" s="61"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10565,15 +10569,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="51">
+      <c r="A42" s="55">
         <v>20</v>
       </c>
-      <c r="B42" s="60"/>
-      <c r="C42" s="61"/>
-      <c r="D42" s="51" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10582,8 +10586,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="83"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10832,15 +10836,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="51"/>
-      <c r="B43" s="60"/>
-      <c r="C43" s="61"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="63"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="84"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11073,15 +11077,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="51">
+      <c r="A44" s="55">
         <v>21</v>
       </c>
-      <c r="B44" s="60"/>
-      <c r="C44" s="61"/>
-      <c r="D44" s="51" t="s">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11090,8 +11094,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="62"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11328,15 +11332,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="51"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="55"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="63"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="84"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11569,17 +11573,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="51">
+      <c r="A46" s="55">
         <v>22</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="86"/>
+      <c r="D46" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11588,8 +11592,8 @@
       <c r="G46" s="8">
         <v>42823</v>
       </c>
-      <c r="H46" s="62"/>
-      <c r="I46" s="62"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -11828,15 +11832,15 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="51"/>
-      <c r="B47" s="60"/>
-      <c r="C47" s="61"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="55"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12069,25 +12073,25 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="51">
+      <c r="A48" s="55">
         <v>23</v>
       </c>
-      <c r="B48" s="60"/>
-      <c r="C48" s="61"/>
-      <c r="D48" s="51" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
-        <v>42811</v>
+        <v>42816</v>
       </c>
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12097,25 +12101,19 @@
       <c r="P48" s="13"/>
       <c r="Q48" s="13"/>
       <c r="R48" s="13"/>
-      <c r="S48" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="S48" s="13"/>
       <c r="T48" s="14"/>
       <c r="U48" s="14"/>
-      <c r="V48" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="W48" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="V48" s="13"/>
+      <c r="W48" s="13"/>
       <c r="X48" s="13" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="Y48" s="13" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="Z48" s="13" t="s">
-        <v>59</v>
+        <v>7</v>
       </c>
       <c r="AA48" s="14" t="s">
         <v>16</v>
@@ -12334,15 +12332,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="51"/>
-      <c r="B49" s="58"/>
-      <c r="C49" s="59"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="55"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12574,28 +12572,26 @@
       <c r="ID49" s="13"/>
       <c r="IE49" s="13"/>
     </row>
-    <row r="50" spans="1:239">
-      <c r="A50" s="51">
-        <v>24</v>
-      </c>
-      <c r="B50" s="56" t="s">
-        <v>61</v>
-      </c>
-      <c r="C50" s="57"/>
-      <c r="D50" s="51" t="s">
-        <v>62</v>
-      </c>
-      <c r="E50" s="54" t="s">
+    <row r="50" spans="1:239" ht="12" customHeight="1">
+      <c r="A50" s="55">
+        <v>23</v>
+      </c>
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="55" t="s">
+        <v>71</v>
+      </c>
+      <c r="E50" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
-        <v>42825</v>
+        <v>42811</v>
       </c>
       <c r="G50" s="8">
-        <v>42837</v>
-      </c>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+        <v>42815</v>
+      </c>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12605,55 +12601,39 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
-      <c r="S50" s="13"/>
+      <c r="S50" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
-      <c r="V50" s="13"/>
-      <c r="W50" s="13"/>
+      <c r="V50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W50" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
       <c r="AC50" s="13"/>
-      <c r="AD50" s="13"/>
-      <c r="AE50" s="13"/>
-      <c r="AF50" s="13"/>
-      <c r="AG50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AH50" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="AD50" s="15"/>
+      <c r="AE50" s="15"/>
+      <c r="AF50" s="15"/>
+      <c r="AG50" s="20"/>
+      <c r="AH50" s="31"/>
       <c r="AI50" s="31"/>
-      <c r="AJ50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AK50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AL50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AM50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AN50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AO50" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="AJ50" s="13"/>
+      <c r="AK50" s="13"/>
+      <c r="AL50" s="13"/>
+      <c r="AM50" s="13"/>
+      <c r="AN50" s="13"/>
+      <c r="AO50" s="31"/>
       <c r="AP50" s="31"/>
-      <c r="AQ50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AR50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AS50" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="AQ50" s="13"/>
+      <c r="AR50" s="13"/>
+      <c r="AS50" s="36"/>
       <c r="AT50" s="37"/>
       <c r="AU50" s="13"/>
       <c r="AV50" s="38"/>
@@ -12850,15 +12830,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="51"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -12868,21 +12848,21 @@
       <c r="P51" s="13"/>
       <c r="Q51" s="13"/>
       <c r="R51" s="13"/>
-      <c r="S51" s="12"/>
+      <c r="S51" s="15"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
-      <c r="V51" s="12"/>
-      <c r="W51" s="12"/>
+      <c r="V51" s="13"/>
+      <c r="W51" s="15"/>
       <c r="X51" s="13"/>
       <c r="Y51" s="13"/>
-      <c r="Z51" s="12"/>
+      <c r="Z51" s="13"/>
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
-      <c r="AC51" s="12"/>
-      <c r="AD51" s="12"/>
-      <c r="AE51" s="12"/>
-      <c r="AF51" s="12"/>
-      <c r="AG51" s="22"/>
+      <c r="AC51" s="13"/>
+      <c r="AD51" s="15"/>
+      <c r="AE51" s="15"/>
+      <c r="AF51" s="15"/>
+      <c r="AG51" s="20"/>
       <c r="AH51" s="31"/>
       <c r="AI51" s="31"/>
       <c r="AJ51" s="13"/>
@@ -13091,27 +13071,27 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="51">
-        <v>18</v>
-      </c>
-      <c r="B52" s="56" t="s">
-        <v>65</v>
-      </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="54" t="s">
-        <v>50</v>
-      </c>
-      <c r="E52" s="54" t="s">
-        <v>51</v>
-      </c>
-      <c r="F52" s="30">
-        <v>42810</v>
-      </c>
-      <c r="G52" s="30">
-        <v>42813</v>
-      </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
+      <c r="A52" s="55">
+        <v>24</v>
+      </c>
+      <c r="B52" s="85" t="s">
+        <v>61</v>
+      </c>
+      <c r="C52" s="86"/>
+      <c r="D52" s="55" t="s">
+        <v>62</v>
+      </c>
+      <c r="E52" s="60" t="s">
+        <v>47</v>
+      </c>
+      <c r="F52" s="8">
+        <v>42825</v>
+      </c>
+      <c r="G52" s="8">
+        <v>42837</v>
+      </c>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13120,56 +13100,74 @@
       <c r="O52" s="13"/>
       <c r="P52" s="13"/>
       <c r="Q52" s="13"/>
-      <c r="R52" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="S52" s="15"/>
+      <c r="R52" s="13"/>
+      <c r="S52" s="13"/>
       <c r="T52" s="14"/>
-      <c r="U52" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="U52" s="14"/>
       <c r="V52" s="13"/>
-      <c r="W52" s="12"/>
+      <c r="W52" s="13"/>
       <c r="X52" s="13"/>
       <c r="Y52" s="13"/>
-      <c r="Z52" s="12"/>
+      <c r="Z52" s="13"/>
       <c r="AA52" s="14"/>
       <c r="AB52" s="14"/>
-      <c r="AC52" s="12"/>
-      <c r="AD52" s="12"/>
-      <c r="AE52" s="12"/>
-      <c r="AF52" s="12"/>
-      <c r="AG52" s="12"/>
-      <c r="AH52" s="31"/>
+      <c r="AC52" s="13"/>
+      <c r="AD52" s="13"/>
+      <c r="AE52" s="13"/>
+      <c r="AF52" s="13"/>
+      <c r="AG52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AH52" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="AI52" s="31"/>
-      <c r="AJ52" s="13"/>
-      <c r="AK52" s="13"/>
-      <c r="AL52" s="13"/>
-      <c r="AM52" s="13"/>
-      <c r="AN52" s="13"/>
-      <c r="AO52" s="31"/>
+      <c r="AJ52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AK52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AL52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AM52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AN52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AO52" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="AP52" s="31"/>
-      <c r="AQ52" s="13"/>
-      <c r="AR52" s="13"/>
-      <c r="AS52" s="13"/>
-      <c r="AT52" s="13"/>
+      <c r="AQ52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AR52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AS52" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AT52" s="37"/>
       <c r="AU52" s="13"/>
-      <c r="AV52" s="13"/>
-      <c r="AW52" s="13"/>
-      <c r="AX52" s="46"/>
-      <c r="AY52" s="46"/>
-      <c r="AZ52" s="47"/>
-      <c r="BA52" s="47"/>
-      <c r="BB52" s="47"/>
-      <c r="BC52" s="47"/>
-      <c r="BD52" s="47"/>
-      <c r="BE52" s="46"/>
-      <c r="BF52" s="46"/>
-      <c r="BG52" s="47"/>
-      <c r="BH52" s="47"/>
-      <c r="BI52" s="47"/>
-      <c r="BJ52" s="47"/>
-      <c r="BK52" s="47"/>
+      <c r="AV52" s="38"/>
+      <c r="AW52" s="38"/>
+      <c r="AX52" s="38"/>
+      <c r="AY52" s="38"/>
+      <c r="AZ52" s="38"/>
+      <c r="BA52" s="38"/>
+      <c r="BB52" s="38"/>
+      <c r="BC52" s="38"/>
+      <c r="BD52" s="38"/>
+      <c r="BE52" s="38"/>
+      <c r="BF52" s="38"/>
+      <c r="BG52" s="38"/>
+      <c r="BH52" s="38"/>
+      <c r="BI52" s="38"/>
+      <c r="BJ52" s="38"/>
+      <c r="BK52" s="38"/>
       <c r="BL52" s="38"/>
       <c r="BM52" s="38"/>
       <c r="BN52" s="38"/>
@@ -13348,15 +13346,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="51"/>
-      <c r="B53" s="60"/>
-      <c r="C53" s="61"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
       <c r="D53" s="55"/>
-      <c r="E53" s="55"/>
-      <c r="F53" s="30"/>
-      <c r="G53" s="30"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
+      <c r="E53" s="61"/>
+      <c r="F53" s="8"/>
+      <c r="G53" s="8"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13366,10 +13364,10 @@
       <c r="P53" s="13"/>
       <c r="Q53" s="13"/>
       <c r="R53" s="13"/>
-      <c r="S53" s="15"/>
+      <c r="S53" s="12"/>
       <c r="T53" s="14"/>
       <c r="U53" s="14"/>
-      <c r="V53" s="15"/>
+      <c r="V53" s="12"/>
       <c r="W53" s="12"/>
       <c r="X53" s="13"/>
       <c r="Y53" s="13"/>
@@ -13380,7 +13378,7 @@
       <c r="AD53" s="12"/>
       <c r="AE53" s="12"/>
       <c r="AF53" s="12"/>
-      <c r="AG53" s="12"/>
+      <c r="AG53" s="22"/>
       <c r="AH53" s="31"/>
       <c r="AI53" s="31"/>
       <c r="AJ53" s="13"/>
@@ -13392,25 +13390,25 @@
       <c r="AP53" s="31"/>
       <c r="AQ53" s="13"/>
       <c r="AR53" s="13"/>
-      <c r="AS53" s="13"/>
-      <c r="AT53" s="13"/>
+      <c r="AS53" s="36"/>
+      <c r="AT53" s="37"/>
       <c r="AU53" s="13"/>
-      <c r="AV53" s="13"/>
-      <c r="AW53" s="13"/>
-      <c r="AX53" s="46"/>
-      <c r="AY53" s="46"/>
-      <c r="AZ53" s="47"/>
-      <c r="BA53" s="47"/>
-      <c r="BB53" s="47"/>
-      <c r="BC53" s="47"/>
-      <c r="BD53" s="47"/>
-      <c r="BE53" s="46"/>
-      <c r="BF53" s="46"/>
-      <c r="BG53" s="47"/>
-      <c r="BH53" s="47"/>
-      <c r="BI53" s="47"/>
-      <c r="BJ53" s="47"/>
-      <c r="BK53" s="47"/>
+      <c r="AV53" s="38"/>
+      <c r="AW53" s="38"/>
+      <c r="AX53" s="38"/>
+      <c r="AY53" s="38"/>
+      <c r="AZ53" s="38"/>
+      <c r="BA53" s="38"/>
+      <c r="BB53" s="38"/>
+      <c r="BC53" s="38"/>
+      <c r="BD53" s="38"/>
+      <c r="BE53" s="38"/>
+      <c r="BF53" s="38"/>
+      <c r="BG53" s="38"/>
+      <c r="BH53" s="38"/>
+      <c r="BI53" s="38"/>
+      <c r="BJ53" s="38"/>
+      <c r="BK53" s="38"/>
       <c r="BL53" s="38"/>
       <c r="BM53" s="38"/>
       <c r="BN53" s="38"/>
@@ -13589,25 +13587,27 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="51">
-        <v>19</v>
-      </c>
-      <c r="B54" s="60"/>
-      <c r="C54" s="61"/>
-      <c r="D54" s="51" t="s">
-        <v>66</v>
-      </c>
-      <c r="E54" s="51" t="s">
+      <c r="A54" s="55">
+        <v>25</v>
+      </c>
+      <c r="B54" s="85" t="s">
+        <v>65</v>
+      </c>
+      <c r="C54" s="86"/>
+      <c r="D54" s="60" t="s">
+        <v>50</v>
+      </c>
+      <c r="E54" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
-        <v>42814</v>
+        <v>42810</v>
       </c>
       <c r="G54" s="30">
-        <v>42816</v>
-      </c>
-      <c r="H54" s="52"/>
-      <c r="I54" s="52"/>
+        <v>42813</v>
+      </c>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13616,19 +13616,19 @@
       <c r="O54" s="13"/>
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
-      <c r="R54" s="13"/>
+      <c r="R54" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="S54" s="15"/>
       <c r="T54" s="14"/>
-      <c r="U54" s="14"/>
-      <c r="V54" s="29" t="s">
+      <c r="U54" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="W54" s="13"/>
-      <c r="X54" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="V54" s="13"/>
+      <c r="W54" s="12"/>
+      <c r="X54" s="13"/>
       <c r="Y54" s="13"/>
-      <c r="Z54" s="13"/>
+      <c r="Z54" s="12"/>
       <c r="AA54" s="14"/>
       <c r="AB54" s="14"/>
       <c r="AC54" s="12"/>
@@ -13844,15 +13844,15 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="51"/>
-      <c r="B55" s="60"/>
-      <c r="C55" s="61"/>
-      <c r="D55" s="51"/>
-      <c r="E55" s="51"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="52"/>
-      <c r="I55" s="53"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14085,25 +14085,25 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="51">
-        <v>20</v>
-      </c>
-      <c r="B56" s="60"/>
-      <c r="C56" s="61"/>
-      <c r="D56" s="51" t="s">
-        <v>53</v>
-      </c>
-      <c r="E56" s="51" t="s">
-        <v>67</v>
+      <c r="A56" s="55">
+        <v>26</v>
+      </c>
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="55" t="s">
+        <v>66</v>
+      </c>
+      <c r="E56" s="55" t="s">
+        <v>51</v>
       </c>
       <c r="F56" s="30">
-        <v>42817</v>
+        <v>42814</v>
       </c>
       <c r="G56" s="30">
-        <v>42819</v>
-      </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+        <v>42816</v>
+      </c>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14113,25 +14113,25 @@
       <c r="P56" s="13"/>
       <c r="Q56" s="13"/>
       <c r="R56" s="13"/>
-      <c r="S56" s="13"/>
+      <c r="S56" s="15"/>
       <c r="T56" s="14"/>
       <c r="U56" s="14"/>
-      <c r="V56" s="15"/>
-      <c r="W56" s="15"/>
-      <c r="X56" s="13"/>
-      <c r="Y56" s="13" t="s">
+      <c r="V56" s="29" t="s">
         <v>16</v>
       </c>
+      <c r="W56" s="13"/>
+      <c r="X56" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y56" s="13"/>
       <c r="Z56" s="13"/>
-      <c r="AA56" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="AA56" s="14"/>
       <c r="AB56" s="14"/>
-      <c r="AC56" s="13"/>
-      <c r="AD56" s="15"/>
-      <c r="AE56" s="13"/>
-      <c r="AF56" s="13"/>
-      <c r="AG56" s="13"/>
+      <c r="AC56" s="12"/>
+      <c r="AD56" s="12"/>
+      <c r="AE56" s="12"/>
+      <c r="AF56" s="12"/>
+      <c r="AG56" s="12"/>
       <c r="AH56" s="31"/>
       <c r="AI56" s="31"/>
       <c r="AJ56" s="13"/>
@@ -14146,8 +14146,8 @@
       <c r="AS56" s="13"/>
       <c r="AT56" s="13"/>
       <c r="AU56" s="13"/>
-      <c r="AV56" s="47"/>
-      <c r="AW56" s="47"/>
+      <c r="AV56" s="13"/>
+      <c r="AW56" s="13"/>
       <c r="AX56" s="46"/>
       <c r="AY56" s="46"/>
       <c r="AZ56" s="47"/>
@@ -14339,16 +14339,16 @@
       <c r="ID56" s="13"/>
       <c r="IE56" s="13"/>
     </row>
-    <row r="57" spans="1:239" ht="19.5">
-      <c r="A57" s="51"/>
-      <c r="B57" s="60"/>
-      <c r="C57" s="61"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
+    <row r="57" spans="1:239">
+      <c r="A57" s="55"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="53"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14362,24 +14362,24 @@
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
       <c r="V57" s="15"/>
-      <c r="W57" s="15"/>
+      <c r="W57" s="12"/>
       <c r="X57" s="13"/>
       <c r="Y57" s="13"/>
-      <c r="Z57" s="13"/>
+      <c r="Z57" s="12"/>
       <c r="AA57" s="14"/>
       <c r="AB57" s="14"/>
-      <c r="AC57" s="15"/>
-      <c r="AD57" s="15"/>
-      <c r="AE57" s="13"/>
-      <c r="AF57" s="13"/>
-      <c r="AG57" s="13"/>
-      <c r="AH57" s="39"/>
-      <c r="AI57" s="39"/>
-      <c r="AJ57" s="40"/>
-      <c r="AK57" s="40"/>
-      <c r="AL57" s="40"/>
-      <c r="AM57" s="40"/>
-      <c r="AN57" s="40"/>
+      <c r="AC57" s="12"/>
+      <c r="AD57" s="12"/>
+      <c r="AE57" s="12"/>
+      <c r="AF57" s="12"/>
+      <c r="AG57" s="12"/>
+      <c r="AH57" s="31"/>
+      <c r="AI57" s="31"/>
+      <c r="AJ57" s="13"/>
+      <c r="AK57" s="13"/>
+      <c r="AL57" s="13"/>
+      <c r="AM57" s="13"/>
+      <c r="AN57" s="13"/>
       <c r="AO57" s="31"/>
       <c r="AP57" s="31"/>
       <c r="AQ57" s="13"/>
@@ -14387,8 +14387,8 @@
       <c r="AS57" s="13"/>
       <c r="AT57" s="13"/>
       <c r="AU57" s="13"/>
-      <c r="AV57" s="47"/>
-      <c r="AW57" s="47"/>
+      <c r="AV57" s="13"/>
+      <c r="AW57" s="13"/>
       <c r="AX57" s="46"/>
       <c r="AY57" s="46"/>
       <c r="AZ57" s="47"/>
@@ -14580,26 +14580,26 @@
       <c r="ID57" s="13"/>
       <c r="IE57" s="13"/>
     </row>
-    <row r="58" spans="1:239" ht="19.5">
-      <c r="A58" s="51">
-        <v>21</v>
-      </c>
-      <c r="B58" s="60"/>
-      <c r="C58" s="61"/>
-      <c r="D58" s="51" t="s">
-        <v>54</v>
-      </c>
-      <c r="E58" s="51" t="s">
-        <v>51</v>
+    <row r="58" spans="1:239">
+      <c r="A58" s="55">
+        <v>27</v>
+      </c>
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>67</v>
       </c>
       <c r="F58" s="30">
-        <v>42820</v>
+        <v>42817</v>
       </c>
       <c r="G58" s="30">
-        <v>42822</v>
-      </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
+        <v>42819</v>
+      </c>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14609,32 +14609,32 @@
       <c r="P58" s="13"/>
       <c r="Q58" s="13"/>
       <c r="R58" s="13"/>
-      <c r="S58" s="15"/>
+      <c r="S58" s="13"/>
       <c r="T58" s="14"/>
       <c r="U58" s="14"/>
       <c r="V58" s="15"/>
       <c r="W58" s="15"/>
       <c r="X58" s="13"/>
-      <c r="Y58" s="13"/>
+      <c r="Y58" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="Z58" s="13"/>
-      <c r="AA58" s="14"/>
-      <c r="AB58" s="14" t="s">
+      <c r="AA58" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AC58" s="15"/>
-      <c r="AD58" s="29" t="s">
-        <v>16</v>
-      </c>
+      <c r="AB58" s="14"/>
+      <c r="AC58" s="13"/>
+      <c r="AD58" s="15"/>
       <c r="AE58" s="13"/>
       <c r="AF58" s="13"/>
       <c r="AG58" s="13"/>
-      <c r="AH58" s="39"/>
-      <c r="AI58" s="39"/>
-      <c r="AJ58" s="40"/>
-      <c r="AK58" s="28"/>
+      <c r="AH58" s="31"/>
+      <c r="AI58" s="31"/>
+      <c r="AJ58" s="13"/>
+      <c r="AK58" s="13"/>
       <c r="AL58" s="13"/>
-      <c r="AM58" s="40"/>
-      <c r="AN58" s="40"/>
+      <c r="AM58" s="13"/>
+      <c r="AN58" s="13"/>
       <c r="AO58" s="31"/>
       <c r="AP58" s="31"/>
       <c r="AQ58" s="13"/>
@@ -14836,15 +14836,15 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="51"/>
-      <c r="B59" s="60"/>
-      <c r="C59" s="61"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="53"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -14862,20 +14862,20 @@
       <c r="X59" s="13"/>
       <c r="Y59" s="13"/>
       <c r="Z59" s="13"/>
-      <c r="AA59" s="41"/>
-      <c r="AB59" s="41"/>
+      <c r="AA59" s="14"/>
+      <c r="AB59" s="14"/>
       <c r="AC59" s="15"/>
       <c r="AD59" s="15"/>
       <c r="AE59" s="13"/>
       <c r="AF59" s="13"/>
       <c r="AG59" s="13"/>
-      <c r="AH59" s="42"/>
-      <c r="AI59" s="42"/>
-      <c r="AJ59" s="43"/>
-      <c r="AK59" s="43"/>
-      <c r="AL59" s="43"/>
-      <c r="AM59" s="43"/>
-      <c r="AN59" s="43"/>
+      <c r="AH59" s="39"/>
+      <c r="AI59" s="39"/>
+      <c r="AJ59" s="40"/>
+      <c r="AK59" s="40"/>
+      <c r="AL59" s="40"/>
+      <c r="AM59" s="40"/>
+      <c r="AN59" s="40"/>
       <c r="AO59" s="31"/>
       <c r="AP59" s="31"/>
       <c r="AQ59" s="13"/>
@@ -15077,30 +15077,30 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="51">
-        <v>22</v>
-      </c>
-      <c r="B60" s="60"/>
-      <c r="C60" s="61"/>
-      <c r="D60" s="51" t="s">
-        <v>56</v>
-      </c>
-      <c r="E60" s="51" t="s">
+      <c r="A60" s="55">
+        <v>28</v>
+      </c>
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E60" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
-        <v>42823</v>
+        <v>42820</v>
       </c>
       <c r="G60" s="30">
-        <v>42826</v>
-      </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
-      <c r="J60" s="25"/>
-      <c r="K60" s="25"/>
-      <c r="L60" s="25"/>
-      <c r="M60" s="27"/>
-      <c r="N60" s="27"/>
+        <v>42822</v>
+      </c>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
+      <c r="J60" s="24"/>
+      <c r="K60" s="24"/>
+      <c r="L60" s="24"/>
+      <c r="M60" s="26"/>
+      <c r="N60" s="26"/>
       <c r="O60" s="13"/>
       <c r="P60" s="13"/>
       <c r="Q60" s="13"/>
@@ -15113,24 +15113,24 @@
       <c r="X60" s="13"/>
       <c r="Y60" s="13"/>
       <c r="Z60" s="13"/>
-      <c r="AA60" s="41"/>
-      <c r="AB60" s="41"/>
+      <c r="AA60" s="14"/>
+      <c r="AB60" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="AC60" s="15"/>
-      <c r="AD60" s="15"/>
-      <c r="AE60" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="AD60" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE60" s="13"/>
       <c r="AF60" s="13"/>
       <c r="AG60" s="13"/>
-      <c r="AH60" s="44" t="s">
-        <v>59</v>
-      </c>
-      <c r="AI60" s="42"/>
-      <c r="AJ60" s="43"/>
-      <c r="AK60" s="43"/>
-      <c r="AL60" s="45"/>
-      <c r="AM60" s="13"/>
-      <c r="AN60" s="43"/>
+      <c r="AH60" s="39"/>
+      <c r="AI60" s="39"/>
+      <c r="AJ60" s="40"/>
+      <c r="AK60" s="28"/>
+      <c r="AL60" s="13"/>
+      <c r="AM60" s="40"/>
+      <c r="AN60" s="40"/>
       <c r="AO60" s="31"/>
       <c r="AP60" s="31"/>
       <c r="AQ60" s="13"/>
@@ -15331,16 +15331,16 @@
       <c r="ID60" s="13"/>
       <c r="IE60" s="13"/>
     </row>
-    <row r="61" spans="1:239">
-      <c r="A61" s="51"/>
-      <c r="B61" s="60"/>
-      <c r="C61" s="61"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
+    <row r="61" spans="1:239" ht="19.5">
+      <c r="A61" s="55"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="53"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15358,20 +15358,20 @@
       <c r="X61" s="13"/>
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
-      <c r="AA61" s="14"/>
-      <c r="AB61" s="14"/>
+      <c r="AA61" s="41"/>
+      <c r="AB61" s="41"/>
       <c r="AC61" s="15"/>
       <c r="AD61" s="15"/>
       <c r="AE61" s="13"/>
       <c r="AF61" s="13"/>
       <c r="AG61" s="13"/>
-      <c r="AH61" s="31"/>
-      <c r="AI61" s="31"/>
-      <c r="AJ61" s="13"/>
-      <c r="AK61" s="13"/>
-      <c r="AL61" s="13"/>
-      <c r="AM61" s="13"/>
-      <c r="AN61" s="13"/>
+      <c r="AH61" s="42"/>
+      <c r="AI61" s="42"/>
+      <c r="AJ61" s="43"/>
+      <c r="AK61" s="43"/>
+      <c r="AL61" s="43"/>
+      <c r="AM61" s="43"/>
+      <c r="AN61" s="43"/>
       <c r="AO61" s="31"/>
       <c r="AP61" s="31"/>
       <c r="AQ61" s="13"/>
@@ -15572,31 +15572,31 @@
       <c r="ID61" s="13"/>
       <c r="IE61" s="13"/>
     </row>
-    <row r="62" spans="1:239">
-      <c r="A62" s="51">
-        <v>23</v>
-      </c>
-      <c r="B62" s="60"/>
-      <c r="C62" s="61"/>
-      <c r="D62" s="54" t="s">
-        <v>60</v>
-      </c>
-      <c r="E62" s="51" t="s">
+    <row r="62" spans="1:239" ht="19.5">
+      <c r="A62" s="55">
+        <v>29</v>
+      </c>
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="55" t="s">
+        <v>56</v>
+      </c>
+      <c r="E62" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
-        <v>42827</v>
+        <v>42823</v>
       </c>
       <c r="G62" s="30">
-        <v>42829</v>
-      </c>
-      <c r="H62" s="62"/>
-      <c r="I62" s="62"/>
-      <c r="J62" s="24"/>
-      <c r="K62" s="24"/>
-      <c r="L62" s="24"/>
-      <c r="M62" s="26"/>
-      <c r="N62" s="26"/>
+        <v>42826</v>
+      </c>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
+      <c r="J62" s="25"/>
+      <c r="K62" s="25"/>
+      <c r="L62" s="25"/>
+      <c r="M62" s="27"/>
+      <c r="N62" s="27"/>
       <c r="O62" s="13"/>
       <c r="P62" s="13"/>
       <c r="Q62" s="13"/>
@@ -15609,24 +15609,24 @@
       <c r="X62" s="13"/>
       <c r="Y62" s="13"/>
       <c r="Z62" s="13"/>
-      <c r="AA62" s="14"/>
-      <c r="AB62" s="14"/>
+      <c r="AA62" s="41"/>
+      <c r="AB62" s="41"/>
       <c r="AC62" s="15"/>
       <c r="AD62" s="15"/>
-      <c r="AE62" s="13"/>
+      <c r="AE62" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AF62" s="13"/>
       <c r="AG62" s="13"/>
-      <c r="AH62" s="31"/>
-      <c r="AI62" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AJ62" s="13"/>
-      <c r="AK62" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL62" s="13"/>
+      <c r="AH62" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI62" s="42"/>
+      <c r="AJ62" s="43"/>
+      <c r="AK62" s="43"/>
+      <c r="AL62" s="45"/>
       <c r="AM62" s="13"/>
-      <c r="AN62" s="13"/>
+      <c r="AN62" s="43"/>
       <c r="AO62" s="31"/>
       <c r="AP62" s="31"/>
       <c r="AQ62" s="13"/>
@@ -15635,7 +15635,7 @@
       <c r="AT62" s="13"/>
       <c r="AU62" s="13"/>
       <c r="AV62" s="47"/>
-      <c r="AW62" s="13"/>
+      <c r="AW62" s="47"/>
       <c r="AX62" s="46"/>
       <c r="AY62" s="46"/>
       <c r="AZ62" s="47"/>
@@ -15828,15 +15828,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="51"/>
-      <c r="B63" s="60"/>
-      <c r="C63" s="61"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
       <c r="D63" s="55"/>
-      <c r="E63" s="51"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="63"/>
-      <c r="I63" s="63"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16069,25 +16069,25 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="54">
-        <v>24</v>
-      </c>
-      <c r="B64" s="60"/>
-      <c r="C64" s="61"/>
-      <c r="D64" s="51" t="s">
-        <v>57</v>
-      </c>
-      <c r="E64" s="51" t="s">
+      <c r="A64" s="55">
+        <v>30</v>
+      </c>
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="60" t="s">
+        <v>60</v>
+      </c>
+      <c r="E64" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
-        <v>42830</v>
+        <v>42827</v>
       </c>
       <c r="G64" s="30">
-        <v>42832</v>
-      </c>
-      <c r="H64" s="52"/>
-      <c r="I64" s="52"/>
+        <v>42829</v>
+      </c>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16113,16 +16113,16 @@
       <c r="AF64" s="13"/>
       <c r="AG64" s="13"/>
       <c r="AH64" s="31"/>
-      <c r="AI64" s="31"/>
+      <c r="AI64" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="AJ64" s="13"/>
-      <c r="AK64" s="13"/>
-      <c r="AL64" s="13" t="s">
+      <c r="AK64" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="AL64" s="13"/>
       <c r="AM64" s="13"/>
-      <c r="AN64" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="AN64" s="13"/>
       <c r="AO64" s="31"/>
       <c r="AP64" s="31"/>
       <c r="AQ64" s="13"/>
@@ -16131,10 +16131,10 @@
       <c r="AT64" s="13"/>
       <c r="AU64" s="13"/>
       <c r="AV64" s="47"/>
-      <c r="AW64" s="47"/>
+      <c r="AW64" s="13"/>
       <c r="AX64" s="46"/>
       <c r="AY64" s="46"/>
-      <c r="AZ64" s="13"/>
+      <c r="AZ64" s="47"/>
       <c r="BA64" s="47"/>
       <c r="BB64" s="47"/>
       <c r="BC64" s="47"/>
@@ -16325,14 +16325,14 @@
     </row>
     <row r="65" spans="1:239">
       <c r="A65" s="55"/>
-      <c r="B65" s="60"/>
-      <c r="C65" s="61"/>
-      <c r="D65" s="51"/>
-      <c r="E65" s="51"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="52"/>
-      <c r="I65" s="53"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16565,25 +16565,25 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="54">
-        <v>25</v>
-      </c>
-      <c r="B66" s="60"/>
-      <c r="C66" s="61"/>
-      <c r="D66" s="51" t="s">
-        <v>68</v>
-      </c>
-      <c r="E66" s="51" t="s">
+      <c r="A66" s="60">
+        <v>31</v>
+      </c>
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="55" t="s">
+        <v>57</v>
+      </c>
+      <c r="E66" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
-        <v>42833</v>
+        <v>42830</v>
       </c>
       <c r="G66" s="30">
-        <v>42837</v>
-      </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+        <v>42832</v>
+      </c>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -16593,7 +16593,7 @@
       <c r="P66" s="13"/>
       <c r="Q66" s="13"/>
       <c r="R66" s="13"/>
-      <c r="S66" s="13"/>
+      <c r="S66" s="15"/>
       <c r="T66" s="14"/>
       <c r="U66" s="14"/>
       <c r="V66" s="15"/>
@@ -16612,25 +16612,25 @@
       <c r="AI66" s="31"/>
       <c r="AJ66" s="13"/>
       <c r="AK66" s="13"/>
-      <c r="AL66" s="13"/>
+      <c r="AL66" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AM66" s="13"/>
-      <c r="AN66" s="13"/>
-      <c r="AO66" s="31" t="s">
+      <c r="AN66" s="13" t="s">
         <v>16</v>
       </c>
+      <c r="AO66" s="31"/>
       <c r="AP66" s="31"/>
       <c r="AQ66" s="13"/>
       <c r="AR66" s="13"/>
-      <c r="AS66" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="AS66" s="13"/>
       <c r="AT66" s="13"/>
       <c r="AU66" s="13"/>
       <c r="AV66" s="47"/>
       <c r="AW66" s="47"/>
       <c r="AX66" s="46"/>
       <c r="AY66" s="46"/>
-      <c r="AZ66" s="47"/>
+      <c r="AZ66" s="13"/>
       <c r="BA66" s="47"/>
       <c r="BB66" s="47"/>
       <c r="BC66" s="47"/>
@@ -16820,15 +16820,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="55"/>
-      <c r="B67" s="58"/>
-      <c r="C67" s="59"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -16842,17 +16842,17 @@
       <c r="T67" s="14"/>
       <c r="U67" s="14"/>
       <c r="V67" s="15"/>
-      <c r="W67" s="12"/>
+      <c r="W67" s="15"/>
       <c r="X67" s="13"/>
       <c r="Y67" s="13"/>
-      <c r="Z67" s="12"/>
+      <c r="Z67" s="13"/>
       <c r="AA67" s="14"/>
       <c r="AB67" s="14"/>
       <c r="AC67" s="15"/>
-      <c r="AD67" s="12"/>
+      <c r="AD67" s="15"/>
       <c r="AE67" s="13"/>
       <c r="AF67" s="13"/>
-      <c r="AG67" s="12"/>
+      <c r="AG67" s="13"/>
       <c r="AH67" s="31"/>
       <c r="AI67" s="31"/>
       <c r="AJ67" s="13"/>
@@ -17060,101 +17060,740 @@
       <c r="ID67" s="13"/>
       <c r="IE67" s="13"/>
     </row>
-    <row r="70" spans="1:239" ht="409.6">
-      <c r="A70" s="92" t="s">
+    <row r="68" spans="1:239">
+      <c r="A68" s="60">
+        <v>32</v>
+      </c>
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="55" t="s">
+        <v>68</v>
+      </c>
+      <c r="E68" s="55" t="s">
+        <v>51</v>
+      </c>
+      <c r="F68" s="30">
+        <v>42833</v>
+      </c>
+      <c r="G68" s="30">
+        <v>42837</v>
+      </c>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
+      <c r="J68" s="24"/>
+      <c r="K68" s="24"/>
+      <c r="L68" s="24"/>
+      <c r="M68" s="26"/>
+      <c r="N68" s="26"/>
+      <c r="O68" s="13"/>
+      <c r="P68" s="13"/>
+      <c r="Q68" s="13"/>
+      <c r="R68" s="13"/>
+      <c r="S68" s="13"/>
+      <c r="T68" s="14"/>
+      <c r="U68" s="14"/>
+      <c r="V68" s="15"/>
+      <c r="W68" s="15"/>
+      <c r="X68" s="13"/>
+      <c r="Y68" s="13"/>
+      <c r="Z68" s="13"/>
+      <c r="AA68" s="14"/>
+      <c r="AB68" s="14"/>
+      <c r="AC68" s="15"/>
+      <c r="AD68" s="15"/>
+      <c r="AE68" s="13"/>
+      <c r="AF68" s="13"/>
+      <c r="AG68" s="13"/>
+      <c r="AH68" s="31"/>
+      <c r="AI68" s="31"/>
+      <c r="AJ68" s="13"/>
+      <c r="AK68" s="13"/>
+      <c r="AL68" s="13"/>
+      <c r="AM68" s="13"/>
+      <c r="AN68" s="13"/>
+      <c r="AO68" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP68" s="31"/>
+      <c r="AQ68" s="13"/>
+      <c r="AR68" s="13"/>
+      <c r="AS68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AT68" s="13"/>
+      <c r="AU68" s="13"/>
+      <c r="AV68" s="47"/>
+      <c r="AW68" s="47"/>
+      <c r="AX68" s="46"/>
+      <c r="AY68" s="46"/>
+      <c r="AZ68" s="47"/>
+      <c r="BA68" s="47"/>
+      <c r="BB68" s="47"/>
+      <c r="BC68" s="47"/>
+      <c r="BD68" s="47"/>
+      <c r="BE68" s="46"/>
+      <c r="BF68" s="46"/>
+      <c r="BG68" s="47"/>
+      <c r="BH68" s="47"/>
+      <c r="BI68" s="47"/>
+      <c r="BJ68" s="47"/>
+      <c r="BK68" s="47"/>
+      <c r="BL68" s="38"/>
+      <c r="BM68" s="38"/>
+      <c r="BN68" s="38"/>
+      <c r="BO68" s="38"/>
+      <c r="BP68" s="38"/>
+      <c r="BQ68" s="38"/>
+      <c r="BR68" s="38"/>
+      <c r="BS68" s="38"/>
+      <c r="BT68" s="38"/>
+      <c r="BU68" s="38"/>
+      <c r="BV68" s="38"/>
+      <c r="BW68" s="38"/>
+      <c r="BX68" s="38"/>
+      <c r="BY68" s="38"/>
+      <c r="BZ68" s="38"/>
+      <c r="CA68" s="38"/>
+      <c r="CB68" s="38"/>
+      <c r="CC68" s="38"/>
+      <c r="CD68" s="38"/>
+      <c r="CE68" s="38"/>
+      <c r="CF68" s="38"/>
+      <c r="CG68" s="38"/>
+      <c r="CH68" s="38"/>
+      <c r="CI68" s="38"/>
+      <c r="CJ68" s="38"/>
+      <c r="CK68" s="38"/>
+      <c r="CL68" s="38"/>
+      <c r="CM68" s="38"/>
+      <c r="CN68" s="38"/>
+      <c r="CO68" s="38"/>
+      <c r="CP68" s="38"/>
+      <c r="CQ68" s="38"/>
+      <c r="CR68" s="38"/>
+      <c r="CS68" s="38"/>
+      <c r="CT68" s="38"/>
+      <c r="CU68" s="38"/>
+      <c r="CV68" s="38"/>
+      <c r="CW68" s="38"/>
+      <c r="CX68" s="38"/>
+      <c r="CY68" s="38"/>
+      <c r="CZ68" s="38"/>
+      <c r="DA68" s="38"/>
+      <c r="DB68" s="38"/>
+      <c r="DC68" s="38"/>
+      <c r="DD68" s="38"/>
+      <c r="DE68" s="38"/>
+      <c r="DF68" s="38"/>
+      <c r="DG68" s="38"/>
+      <c r="DH68" s="38"/>
+      <c r="DI68" s="38"/>
+      <c r="DJ68" s="38"/>
+      <c r="DK68" s="38"/>
+      <c r="DL68" s="38"/>
+      <c r="DM68" s="38"/>
+      <c r="DN68" s="38"/>
+      <c r="DO68" s="38"/>
+      <c r="DP68" s="38"/>
+      <c r="DQ68" s="38"/>
+      <c r="DR68" s="38"/>
+      <c r="DS68" s="38"/>
+      <c r="DT68" s="38"/>
+      <c r="DU68" s="38"/>
+      <c r="DV68" s="38"/>
+      <c r="DW68" s="38"/>
+      <c r="DX68" s="38"/>
+      <c r="DY68" s="38"/>
+      <c r="DZ68" s="38"/>
+      <c r="EA68" s="38"/>
+      <c r="EB68" s="38"/>
+      <c r="EC68" s="38"/>
+      <c r="ED68" s="38"/>
+      <c r="EE68" s="38"/>
+      <c r="EF68" s="38"/>
+      <c r="EG68" s="38"/>
+      <c r="EH68" s="38"/>
+      <c r="EI68" s="38"/>
+      <c r="EJ68" s="38"/>
+      <c r="EK68" s="38"/>
+      <c r="EL68" s="38"/>
+      <c r="EM68" s="38"/>
+      <c r="EN68" s="38"/>
+      <c r="EO68" s="38"/>
+      <c r="EP68" s="38"/>
+      <c r="EQ68" s="38"/>
+      <c r="ER68" s="38"/>
+      <c r="ES68" s="38"/>
+      <c r="ET68" s="38"/>
+      <c r="EU68" s="38"/>
+      <c r="EV68" s="38"/>
+      <c r="EW68" s="38"/>
+      <c r="EX68" s="38"/>
+      <c r="EY68" s="38"/>
+      <c r="EZ68" s="38"/>
+      <c r="FA68" s="38"/>
+      <c r="FB68" s="38"/>
+      <c r="FC68" s="38"/>
+      <c r="FD68" s="38"/>
+      <c r="FE68" s="38"/>
+      <c r="FF68" s="38"/>
+      <c r="FG68" s="38"/>
+      <c r="FH68" s="38"/>
+      <c r="FI68" s="38"/>
+      <c r="FJ68" s="38"/>
+      <c r="FK68" s="38"/>
+      <c r="FL68" s="38"/>
+      <c r="FM68" s="38"/>
+      <c r="FN68" s="38"/>
+      <c r="FO68" s="38"/>
+      <c r="FP68" s="38"/>
+      <c r="FQ68" s="38"/>
+      <c r="FR68" s="38"/>
+      <c r="FS68" s="38"/>
+      <c r="FT68" s="38"/>
+      <c r="FU68" s="38"/>
+      <c r="FV68" s="38"/>
+      <c r="FW68" s="38"/>
+      <c r="FX68" s="38"/>
+      <c r="FY68" s="38"/>
+      <c r="FZ68" s="38"/>
+      <c r="GA68" s="38"/>
+      <c r="GB68" s="38"/>
+      <c r="GC68" s="38"/>
+      <c r="GD68" s="38"/>
+      <c r="GE68" s="38"/>
+      <c r="GF68" s="38"/>
+      <c r="GG68" s="38"/>
+      <c r="GH68" s="38"/>
+      <c r="GI68" s="38"/>
+      <c r="GJ68" s="38"/>
+      <c r="GK68" s="38"/>
+      <c r="GL68" s="38"/>
+      <c r="GM68" s="38"/>
+      <c r="GN68" s="38"/>
+      <c r="GO68" s="38"/>
+      <c r="GP68" s="38"/>
+      <c r="GQ68" s="38"/>
+      <c r="GR68" s="38"/>
+      <c r="GS68" s="38"/>
+      <c r="GT68" s="38"/>
+      <c r="GU68" s="38"/>
+      <c r="GV68" s="38"/>
+      <c r="GW68" s="38"/>
+      <c r="GX68" s="38"/>
+      <c r="GY68" s="38"/>
+      <c r="GZ68" s="38"/>
+      <c r="HA68" s="38"/>
+      <c r="HB68" s="38"/>
+      <c r="HC68" s="38"/>
+      <c r="HD68" s="38"/>
+      <c r="HE68" s="38"/>
+      <c r="HF68" s="38"/>
+      <c r="HG68" s="38"/>
+      <c r="HH68" s="35"/>
+      <c r="HI68" s="35"/>
+      <c r="HJ68" s="35"/>
+      <c r="HK68" s="35"/>
+      <c r="HL68" s="35"/>
+      <c r="HM68" s="35"/>
+      <c r="HN68" s="35"/>
+      <c r="HO68" s="35"/>
+      <c r="HP68" s="49"/>
+      <c r="HQ68" s="13"/>
+      <c r="HR68" s="31"/>
+      <c r="HS68" s="31"/>
+      <c r="HT68" s="13"/>
+      <c r="HU68" s="13"/>
+      <c r="HV68" s="13"/>
+      <c r="HW68" s="13"/>
+      <c r="HX68" s="13"/>
+      <c r="HY68" s="31"/>
+      <c r="HZ68" s="31"/>
+      <c r="IA68" s="13"/>
+      <c r="IB68" s="13"/>
+      <c r="IC68" s="13"/>
+      <c r="ID68" s="13"/>
+      <c r="IE68" s="13"/>
+    </row>
+    <row r="69" spans="1:239">
+      <c r="A69" s="61"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
+      <c r="F69" s="30"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58"/>
+      <c r="J69" s="25"/>
+      <c r="K69" s="25"/>
+      <c r="L69" s="25"/>
+      <c r="M69" s="27"/>
+      <c r="N69" s="27"/>
+      <c r="O69" s="13"/>
+      <c r="P69" s="13"/>
+      <c r="Q69" s="13"/>
+      <c r="R69" s="13"/>
+      <c r="S69" s="15"/>
+      <c r="T69" s="14"/>
+      <c r="U69" s="14"/>
+      <c r="V69" s="15"/>
+      <c r="W69" s="12"/>
+      <c r="X69" s="13"/>
+      <c r="Y69" s="13"/>
+      <c r="Z69" s="12"/>
+      <c r="AA69" s="14"/>
+      <c r="AB69" s="14"/>
+      <c r="AC69" s="15"/>
+      <c r="AD69" s="12"/>
+      <c r="AE69" s="13"/>
+      <c r="AF69" s="13"/>
+      <c r="AG69" s="12"/>
+      <c r="AH69" s="31"/>
+      <c r="AI69" s="31"/>
+      <c r="AJ69" s="13"/>
+      <c r="AK69" s="13"/>
+      <c r="AL69" s="13"/>
+      <c r="AM69" s="13"/>
+      <c r="AN69" s="13"/>
+      <c r="AO69" s="31"/>
+      <c r="AP69" s="31"/>
+      <c r="AQ69" s="13"/>
+      <c r="AR69" s="13"/>
+      <c r="AS69" s="13"/>
+      <c r="AT69" s="13"/>
+      <c r="AU69" s="13"/>
+      <c r="AV69" s="47"/>
+      <c r="AW69" s="47"/>
+      <c r="AX69" s="46"/>
+      <c r="AY69" s="46"/>
+      <c r="AZ69" s="47"/>
+      <c r="BA69" s="47"/>
+      <c r="BB69" s="47"/>
+      <c r="BC69" s="47"/>
+      <c r="BD69" s="47"/>
+      <c r="BE69" s="46"/>
+      <c r="BF69" s="46"/>
+      <c r="BG69" s="47"/>
+      <c r="BH69" s="47"/>
+      <c r="BI69" s="47"/>
+      <c r="BJ69" s="47"/>
+      <c r="BK69" s="47"/>
+      <c r="BL69" s="38"/>
+      <c r="BM69" s="38"/>
+      <c r="BN69" s="38"/>
+      <c r="BO69" s="38"/>
+      <c r="BP69" s="38"/>
+      <c r="BQ69" s="38"/>
+      <c r="BR69" s="38"/>
+      <c r="BS69" s="38"/>
+      <c r="BT69" s="38"/>
+      <c r="BU69" s="38"/>
+      <c r="BV69" s="38"/>
+      <c r="BW69" s="38"/>
+      <c r="BX69" s="38"/>
+      <c r="BY69" s="38"/>
+      <c r="BZ69" s="38"/>
+      <c r="CA69" s="38"/>
+      <c r="CB69" s="38"/>
+      <c r="CC69" s="38"/>
+      <c r="CD69" s="38"/>
+      <c r="CE69" s="38"/>
+      <c r="CF69" s="38"/>
+      <c r="CG69" s="38"/>
+      <c r="CH69" s="38"/>
+      <c r="CI69" s="38"/>
+      <c r="CJ69" s="38"/>
+      <c r="CK69" s="38"/>
+      <c r="CL69" s="38"/>
+      <c r="CM69" s="38"/>
+      <c r="CN69" s="38"/>
+      <c r="CO69" s="38"/>
+      <c r="CP69" s="38"/>
+      <c r="CQ69" s="38"/>
+      <c r="CR69" s="38"/>
+      <c r="CS69" s="38"/>
+      <c r="CT69" s="38"/>
+      <c r="CU69" s="38"/>
+      <c r="CV69" s="38"/>
+      <c r="CW69" s="38"/>
+      <c r="CX69" s="38"/>
+      <c r="CY69" s="38"/>
+      <c r="CZ69" s="38"/>
+      <c r="DA69" s="38"/>
+      <c r="DB69" s="38"/>
+      <c r="DC69" s="38"/>
+      <c r="DD69" s="38"/>
+      <c r="DE69" s="38"/>
+      <c r="DF69" s="38"/>
+      <c r="DG69" s="38"/>
+      <c r="DH69" s="38"/>
+      <c r="DI69" s="38"/>
+      <c r="DJ69" s="38"/>
+      <c r="DK69" s="38"/>
+      <c r="DL69" s="38"/>
+      <c r="DM69" s="38"/>
+      <c r="DN69" s="38"/>
+      <c r="DO69" s="38"/>
+      <c r="DP69" s="38"/>
+      <c r="DQ69" s="38"/>
+      <c r="DR69" s="38"/>
+      <c r="DS69" s="38"/>
+      <c r="DT69" s="38"/>
+      <c r="DU69" s="38"/>
+      <c r="DV69" s="38"/>
+      <c r="DW69" s="38"/>
+      <c r="DX69" s="38"/>
+      <c r="DY69" s="38"/>
+      <c r="DZ69" s="38"/>
+      <c r="EA69" s="38"/>
+      <c r="EB69" s="38"/>
+      <c r="EC69" s="38"/>
+      <c r="ED69" s="38"/>
+      <c r="EE69" s="38"/>
+      <c r="EF69" s="38"/>
+      <c r="EG69" s="38"/>
+      <c r="EH69" s="38"/>
+      <c r="EI69" s="38"/>
+      <c r="EJ69" s="38"/>
+      <c r="EK69" s="38"/>
+      <c r="EL69" s="38"/>
+      <c r="EM69" s="38"/>
+      <c r="EN69" s="38"/>
+      <c r="EO69" s="38"/>
+      <c r="EP69" s="38"/>
+      <c r="EQ69" s="38"/>
+      <c r="ER69" s="38"/>
+      <c r="ES69" s="38"/>
+      <c r="ET69" s="38"/>
+      <c r="EU69" s="38"/>
+      <c r="EV69" s="38"/>
+      <c r="EW69" s="38"/>
+      <c r="EX69" s="38"/>
+      <c r="EY69" s="38"/>
+      <c r="EZ69" s="38"/>
+      <c r="FA69" s="38"/>
+      <c r="FB69" s="38"/>
+      <c r="FC69" s="38"/>
+      <c r="FD69" s="38"/>
+      <c r="FE69" s="38"/>
+      <c r="FF69" s="38"/>
+      <c r="FG69" s="38"/>
+      <c r="FH69" s="38"/>
+      <c r="FI69" s="38"/>
+      <c r="FJ69" s="38"/>
+      <c r="FK69" s="38"/>
+      <c r="FL69" s="38"/>
+      <c r="FM69" s="38"/>
+      <c r="FN69" s="38"/>
+      <c r="FO69" s="38"/>
+      <c r="FP69" s="38"/>
+      <c r="FQ69" s="38"/>
+      <c r="FR69" s="38"/>
+      <c r="FS69" s="38"/>
+      <c r="FT69" s="38"/>
+      <c r="FU69" s="38"/>
+      <c r="FV69" s="38"/>
+      <c r="FW69" s="38"/>
+      <c r="FX69" s="38"/>
+      <c r="FY69" s="38"/>
+      <c r="FZ69" s="38"/>
+      <c r="GA69" s="38"/>
+      <c r="GB69" s="38"/>
+      <c r="GC69" s="38"/>
+      <c r="GD69" s="38"/>
+      <c r="GE69" s="38"/>
+      <c r="GF69" s="38"/>
+      <c r="GG69" s="38"/>
+      <c r="GH69" s="38"/>
+      <c r="GI69" s="38"/>
+      <c r="GJ69" s="38"/>
+      <c r="GK69" s="38"/>
+      <c r="GL69" s="38"/>
+      <c r="GM69" s="38"/>
+      <c r="GN69" s="38"/>
+      <c r="GO69" s="38"/>
+      <c r="GP69" s="38"/>
+      <c r="GQ69" s="38"/>
+      <c r="GR69" s="38"/>
+      <c r="GS69" s="38"/>
+      <c r="GT69" s="38"/>
+      <c r="GU69" s="38"/>
+      <c r="GV69" s="38"/>
+      <c r="GW69" s="38"/>
+      <c r="GX69" s="38"/>
+      <c r="GY69" s="38"/>
+      <c r="GZ69" s="38"/>
+      <c r="HA69" s="38"/>
+      <c r="HB69" s="38"/>
+      <c r="HC69" s="38"/>
+      <c r="HD69" s="38"/>
+      <c r="HE69" s="38"/>
+      <c r="HF69" s="38"/>
+      <c r="HG69" s="38"/>
+      <c r="HH69" s="35"/>
+      <c r="HI69" s="35"/>
+      <c r="HJ69" s="35"/>
+      <c r="HK69" s="35"/>
+      <c r="HL69" s="35"/>
+      <c r="HM69" s="35"/>
+      <c r="HN69" s="35"/>
+      <c r="HO69" s="35"/>
+      <c r="HP69" s="49"/>
+      <c r="HQ69" s="13"/>
+      <c r="HR69" s="31"/>
+      <c r="HS69" s="31"/>
+      <c r="HT69" s="13"/>
+      <c r="HU69" s="13"/>
+      <c r="HV69" s="13"/>
+      <c r="HW69" s="13"/>
+      <c r="HX69" s="13"/>
+      <c r="HY69" s="31"/>
+      <c r="HZ69" s="31"/>
+      <c r="IA69" s="13"/>
+      <c r="IB69" s="13"/>
+      <c r="IC69" s="13"/>
+      <c r="ID69" s="13"/>
+      <c r="IE69" s="13"/>
+    </row>
+    <row r="70" spans="1:239"/>
+    <row r="71" spans="1:239">
+      <c r="A71" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B70" s="92"/>
-      <c r="C70" s="92"/>
-      <c r="D70" s="92"/>
-      <c r="E70" s="92"/>
-      <c r="F70" s="92"/>
-      <c r="G70" s="92"/>
-      <c r="H70" s="92"/>
-      <c r="I70" s="92"/>
-      <c r="J70" s="92"/>
-      <c r="K70" s="92"/>
-      <c r="L70" s="92"/>
-      <c r="M70" s="92"/>
-      <c r="N70" s="92"/>
-      <c r="O70" s="92"/>
-      <c r="P70" s="92"/>
-      <c r="Q70" s="92"/>
-      <c r="R70" s="92"/>
-      <c r="S70" s="92"/>
-      <c r="T70" s="92"/>
-      <c r="U70" s="92"/>
-      <c r="V70" s="92"/>
-      <c r="W70" s="92"/>
-      <c r="X70" s="92"/>
-      <c r="Y70" s="92"/>
-      <c r="Z70" s="92"/>
-      <c r="AA70" s="92"/>
-      <c r="AB70" s="92"/>
-      <c r="AC70" s="92"/>
-      <c r="AD70" s="92"/>
-      <c r="AE70" s="92"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="59"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="59"/>
+      <c r="AE71" s="59"/>
     </row>
-    <row r="71" spans="1:239" ht="409.6">
-      <c r="A71" s="92"/>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="92"/>
-      <c r="O71" s="92"/>
-      <c r="P71" s="92"/>
-      <c r="Q71" s="92"/>
-      <c r="R71" s="92"/>
-      <c r="S71" s="92"/>
-      <c r="T71" s="92"/>
-      <c r="U71" s="92"/>
-      <c r="V71" s="92"/>
-      <c r="W71" s="92"/>
-      <c r="X71" s="92"/>
-      <c r="Y71" s="92"/>
-      <c r="Z71" s="92"/>
-      <c r="AA71" s="92"/>
-      <c r="AB71" s="92"/>
-      <c r="AC71" s="92"/>
-      <c r="AD71" s="92"/>
-      <c r="AE71" s="92"/>
+    <row r="72" spans="1:239">
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
     </row>
+    <row r="73" spans="1:239"/>
+    <row r="74" spans="1:239"/>
+    <row r="75" spans="1:239"/>
+    <row r="76" spans="1:239"/>
+    <row r="77" spans="1:239"/>
+    <row r="81" spans="1:239"/>
+    <row r="82" spans="1:239"/>
+    <row r="83" spans="1:239"/>
+    <row r="84" spans="1:239"/>
+    <row r="85" spans="1:239"/>
+    <row r="86" spans="1:239"/>
+    <row r="87" spans="1:239"/>
+    <row r="88" spans="1:239"/>
+    <row r="89" spans="1:239"/>
+    <row r="90" spans="1:239"/>
+    <row r="91" spans="1:239"/>
+    <row r="92" spans="1:239"/>
+    <row r="93" spans="1:239"/>
+    <row r="94" spans="1:239"/>
+    <row r="95" spans="1:239"/>
+    <row r="96" spans="1:239"/>
+    <row r="97" spans="1:239"/>
+    <row r="98" spans="1:239"/>
+    <row r="99" spans="1:239"/>
+    <row r="100" spans="1:239"/>
+    <row r="101" spans="1:239"/>
+    <row r="102" spans="1:239"/>
+    <row r="103" spans="1:239"/>
+    <row r="104" spans="1:239"/>
+    <row r="105" spans="1:239"/>
+    <row r="106" spans="1:239"/>
+    <row r="107" spans="1:239"/>
+    <row r="108" spans="1:239"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
-  <mergeCells count="176">
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A70:AE71"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
+  <mergeCells count="181">
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="B54:C69"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
     <mergeCell ref="A1:AN2"/>
     <mergeCell ref="Q3:AN3"/>
     <mergeCell ref="Q4:AN4"/>
@@ -17179,134 +17818,30 @@
     <mergeCell ref="D6:D7"/>
     <mergeCell ref="E6:E7"/>
     <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="B50:C51"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="B46:C49"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="B52:C67"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A71:AE72"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -1,10 +1,10 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="25215" windowHeight="5790" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="18252" windowHeight="3072" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="231" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -786,23 +786,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,14 +795,41 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,35 +894,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,251 +1286,251 @@
   </sheetPr>
   <dimension ref="A1:IE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="G31" sqref="G31"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="12"/>
+  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5703125" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.28515625" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.5546875" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.33203125" style="5" customWidth="1"/>
     <col min="5" max="5" width="28" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.85546875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="5.7109375" style="5" customWidth="1"/>
-    <col min="15" max="16" width="5.5703125" style="7" customWidth="1"/>
-    <col min="17" max="40" width="5.5703125" style="1" customWidth="1"/>
-    <col min="41" max="45" width="5.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.88671875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="5.6640625" style="5" customWidth="1"/>
+    <col min="15" max="16" width="5.5546875" style="7" customWidth="1"/>
+    <col min="17" max="40" width="5.5546875" style="1" customWidth="1"/>
+    <col min="41" max="45" width="5.6640625" style="1" customWidth="1"/>
     <col min="46" max="223" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="224" max="239" width="5.5703125" style="2" customWidth="1"/>
-    <col min="240" max="16384" width="9.140625" style="2"/>
+    <col min="224" max="239" width="5.5546875" style="2" customWidth="1"/>
+    <col min="240" max="16384" width="9.109375" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="66" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
+      <c r="B1" s="67"/>
+      <c r="C1" s="67"/>
+      <c r="D1" s="67"/>
+      <c r="E1" s="67"/>
+      <c r="F1" s="67"/>
+      <c r="G1" s="67"/>
+      <c r="H1" s="67"/>
+      <c r="I1" s="67"/>
+      <c r="J1" s="67"/>
+      <c r="K1" s="67"/>
+      <c r="L1" s="67"/>
+      <c r="M1" s="67"/>
+      <c r="N1" s="67"/>
+      <c r="O1" s="67"/>
+      <c r="P1" s="67"/>
+      <c r="Q1" s="67"/>
+      <c r="R1" s="67"/>
+      <c r="S1" s="67"/>
+      <c r="T1" s="67"/>
+      <c r="U1" s="67"/>
+      <c r="V1" s="67"/>
+      <c r="W1" s="67"/>
+      <c r="X1" s="67"/>
+      <c r="Y1" s="67"/>
+      <c r="Z1" s="67"/>
+      <c r="AA1" s="67"/>
+      <c r="AB1" s="67"/>
+      <c r="AC1" s="67"/>
+      <c r="AD1" s="67"/>
+      <c r="AE1" s="67"/>
+      <c r="AF1" s="67"/>
+      <c r="AG1" s="67"/>
+      <c r="AH1" s="67"/>
+      <c r="AI1" s="67"/>
+      <c r="AJ1" s="67"/>
+      <c r="AK1" s="67"/>
+      <c r="AL1" s="67"/>
+      <c r="AM1" s="67"/>
+      <c r="AN1" s="67"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
+      <c r="A2" s="66"/>
+      <c r="B2" s="67"/>
+      <c r="C2" s="67"/>
+      <c r="D2" s="67"/>
+      <c r="E2" s="67"/>
+      <c r="F2" s="67"/>
+      <c r="G2" s="67"/>
+      <c r="H2" s="67"/>
+      <c r="I2" s="67"/>
+      <c r="J2" s="67"/>
+      <c r="K2" s="67"/>
+      <c r="L2" s="67"/>
+      <c r="M2" s="67"/>
+      <c r="N2" s="67"/>
+      <c r="O2" s="67"/>
+      <c r="P2" s="67"/>
+      <c r="Q2" s="67"/>
+      <c r="R2" s="67"/>
+      <c r="S2" s="67"/>
+      <c r="T2" s="67"/>
+      <c r="U2" s="67"/>
+      <c r="V2" s="67"/>
+      <c r="W2" s="67"/>
+      <c r="X2" s="67"/>
+      <c r="Y2" s="67"/>
+      <c r="Z2" s="67"/>
+      <c r="AA2" s="67"/>
+      <c r="AB2" s="67"/>
+      <c r="AC2" s="67"/>
+      <c r="AD2" s="67"/>
+      <c r="AE2" s="67"/>
+      <c r="AF2" s="67"/>
+      <c r="AG2" s="67"/>
+      <c r="AH2" s="67"/>
+      <c r="AI2" s="67"/>
+      <c r="AJ2" s="67"/>
+      <c r="AK2" s="67"/>
+      <c r="AL2" s="67"/>
+      <c r="AM2" s="67"/>
+      <c r="AN2" s="67"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="68" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="68" t="s">
+      <c r="B3" s="68"/>
+      <c r="C3" s="68"/>
+      <c r="D3" s="68"/>
+      <c r="E3" s="68"/>
+      <c r="F3" s="68"/>
+      <c r="G3" s="72" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70" t="s">
+      <c r="H3" s="73"/>
+      <c r="I3" s="74" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="64" t="s">
+      <c r="J3" s="75"/>
+      <c r="K3" s="75"/>
+      <c r="L3" s="75"/>
+      <c r="M3" s="75"/>
+      <c r="N3" s="75"/>
+      <c r="O3" s="75"/>
+      <c r="P3" s="75"/>
+      <c r="Q3" s="68" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
+      <c r="R3" s="68"/>
+      <c r="S3" s="68"/>
+      <c r="T3" s="68"/>
+      <c r="U3" s="68"/>
+      <c r="V3" s="68"/>
+      <c r="W3" s="68"/>
+      <c r="X3" s="68"/>
+      <c r="Y3" s="68"/>
+      <c r="Z3" s="68"/>
+      <c r="AA3" s="68"/>
+      <c r="AB3" s="68"/>
+      <c r="AC3" s="68"/>
+      <c r="AD3" s="68"/>
+      <c r="AE3" s="68"/>
+      <c r="AF3" s="68"/>
+      <c r="AG3" s="68"/>
+      <c r="AH3" s="68"/>
+      <c r="AI3" s="68"/>
+      <c r="AJ3" s="68"/>
+      <c r="AK3" s="68"/>
+      <c r="AL3" s="68"/>
+      <c r="AM3" s="68"/>
+      <c r="AN3" s="68"/>
     </row>
-    <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:239" ht="21.15" customHeight="1">
+      <c r="A4" s="76" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73" t="s">
+      <c r="B4" s="76"/>
+      <c r="C4" s="76"/>
+      <c r="D4" s="76"/>
+      <c r="E4" s="76"/>
+      <c r="F4" s="76"/>
+      <c r="G4" s="77" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="78"/>
+      <c r="I4" s="79" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="65" t="s">
+      <c r="J4" s="80"/>
+      <c r="K4" s="80"/>
+      <c r="L4" s="80"/>
+      <c r="M4" s="80"/>
+      <c r="N4" s="80"/>
+      <c r="O4" s="80"/>
+      <c r="P4" s="81"/>
+      <c r="Q4" s="69" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="67"/>
+      <c r="R4" s="70"/>
+      <c r="S4" s="70"/>
+      <c r="T4" s="70"/>
+      <c r="U4" s="70"/>
+      <c r="V4" s="70"/>
+      <c r="W4" s="70"/>
+      <c r="X4" s="70"/>
+      <c r="Y4" s="70"/>
+      <c r="Z4" s="70"/>
+      <c r="AA4" s="70"/>
+      <c r="AB4" s="70"/>
+      <c r="AC4" s="70"/>
+      <c r="AD4" s="70"/>
+      <c r="AE4" s="70"/>
+      <c r="AF4" s="70"/>
+      <c r="AG4" s="70"/>
+      <c r="AH4" s="70"/>
+      <c r="AI4" s="70"/>
+      <c r="AJ4" s="70"/>
+      <c r="AK4" s="70"/>
+      <c r="AL4" s="70"/>
+      <c r="AM4" s="70"/>
+      <c r="AN4" s="71"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
+      <c r="A5" s="85"/>
+      <c r="B5" s="85"/>
+      <c r="C5" s="85"/>
+      <c r="D5" s="85"/>
+      <c r="E5" s="85"/>
+      <c r="F5" s="85"/>
+      <c r="G5" s="85"/>
+      <c r="H5" s="85"/>
+      <c r="I5" s="85"/>
+      <c r="J5" s="86"/>
+      <c r="K5" s="86"/>
+      <c r="L5" s="86"/>
+      <c r="M5" s="86"/>
+      <c r="N5" s="86"/>
+      <c r="O5" s="86"/>
+      <c r="P5" s="86"/>
+      <c r="Q5" s="86"/>
+      <c r="R5" s="86"/>
+      <c r="S5" s="86"/>
+      <c r="T5" s="86"/>
+      <c r="U5" s="86"/>
+      <c r="V5" s="86"/>
+      <c r="W5" s="86"/>
+      <c r="X5" s="86"/>
+      <c r="Y5" s="86"/>
+      <c r="Z5" s="86"/>
+      <c r="AA5" s="86"/>
+      <c r="AB5" s="86"/>
+      <c r="AC5" s="86"/>
+      <c r="AD5" s="86"/>
+      <c r="AE5" s="86"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1542,17 +1542,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="87" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="87" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="87"/>
+      <c r="D6" s="87" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="87" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1561,261 +1561,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="87" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="87" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="82" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="52" t="s">
+      <c r="K6" s="83"/>
+      <c r="L6" s="83"/>
+      <c r="M6" s="83"/>
+      <c r="N6" s="83"/>
+      <c r="O6" s="83"/>
+      <c r="P6" s="83"/>
+      <c r="Q6" s="83"/>
+      <c r="R6" s="83"/>
+      <c r="S6" s="83"/>
+      <c r="T6" s="83"/>
+      <c r="U6" s="83"/>
+      <c r="V6" s="83"/>
+      <c r="W6" s="83"/>
+      <c r="X6" s="83"/>
+      <c r="Y6" s="83"/>
+      <c r="Z6" s="83"/>
+      <c r="AA6" s="83"/>
+      <c r="AB6" s="83"/>
+      <c r="AC6" s="83"/>
+      <c r="AD6" s="83"/>
+      <c r="AE6" s="83"/>
+      <c r="AF6" s="83"/>
+      <c r="AG6" s="84"/>
+      <c r="AH6" s="88" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="53"/>
-      <c r="CP6" s="53"/>
-      <c r="CQ6" s="53"/>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
-      <c r="CT6" s="53"/>
-      <c r="CU6" s="53"/>
-      <c r="CV6" s="53"/>
-      <c r="CW6" s="53"/>
-      <c r="CX6" s="53"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="53"/>
-      <c r="DA6" s="53"/>
-      <c r="DB6" s="53"/>
-      <c r="DC6" s="53"/>
-      <c r="DD6" s="53"/>
-      <c r="DE6" s="53"/>
-      <c r="DF6" s="53"/>
-      <c r="DG6" s="53"/>
-      <c r="DH6" s="53"/>
-      <c r="DI6" s="53"/>
-      <c r="DJ6" s="53"/>
-      <c r="DK6" s="53"/>
-      <c r="DL6" s="53"/>
-      <c r="DM6" s="53"/>
-      <c r="DN6" s="53"/>
-      <c r="DO6" s="53"/>
-      <c r="DP6" s="53"/>
-      <c r="DQ6" s="53"/>
-      <c r="DR6" s="53"/>
-      <c r="DS6" s="53"/>
-      <c r="DT6" s="53"/>
-      <c r="DU6" s="53"/>
-      <c r="DV6" s="53"/>
-      <c r="DW6" s="53"/>
-      <c r="DX6" s="53"/>
-      <c r="DY6" s="53"/>
-      <c r="DZ6" s="53"/>
-      <c r="EA6" s="53"/>
-      <c r="EB6" s="53"/>
-      <c r="EC6" s="53"/>
-      <c r="ED6" s="53"/>
-      <c r="EE6" s="53"/>
-      <c r="EF6" s="53"/>
-      <c r="EG6" s="53"/>
-      <c r="EH6" s="53"/>
-      <c r="EI6" s="53"/>
-      <c r="EJ6" s="53"/>
-      <c r="EK6" s="53"/>
-      <c r="EL6" s="53"/>
-      <c r="EM6" s="53"/>
-      <c r="EN6" s="53"/>
-      <c r="EO6" s="53"/>
-      <c r="EP6" s="53"/>
-      <c r="EQ6" s="53"/>
-      <c r="ER6" s="53"/>
-      <c r="ES6" s="53"/>
-      <c r="ET6" s="53"/>
-      <c r="EU6" s="53"/>
-      <c r="EV6" s="53"/>
-      <c r="EW6" s="53"/>
-      <c r="EX6" s="53"/>
-      <c r="EY6" s="53"/>
-      <c r="EZ6" s="53"/>
-      <c r="FA6" s="53"/>
-      <c r="FB6" s="53"/>
-      <c r="FC6" s="53"/>
-      <c r="FD6" s="53"/>
-      <c r="FE6" s="53"/>
-      <c r="FF6" s="53"/>
-      <c r="FG6" s="53"/>
-      <c r="FH6" s="53"/>
-      <c r="FI6" s="53"/>
-      <c r="FJ6" s="53"/>
-      <c r="FK6" s="53"/>
-      <c r="FL6" s="53"/>
-      <c r="FM6" s="53"/>
-      <c r="FN6" s="53"/>
-      <c r="FO6" s="53"/>
-      <c r="FP6" s="53"/>
-      <c r="FQ6" s="53"/>
-      <c r="FR6" s="53"/>
-      <c r="FS6" s="53"/>
-      <c r="FT6" s="53"/>
-      <c r="FU6" s="53"/>
-      <c r="FV6" s="53"/>
-      <c r="FW6" s="53"/>
-      <c r="FX6" s="53"/>
-      <c r="FY6" s="53"/>
-      <c r="FZ6" s="53"/>
-      <c r="GA6" s="53"/>
-      <c r="GB6" s="53"/>
-      <c r="GC6" s="53"/>
-      <c r="GD6" s="53"/>
-      <c r="GE6" s="53"/>
-      <c r="GF6" s="53"/>
-      <c r="GG6" s="53"/>
-      <c r="GH6" s="53"/>
-      <c r="GI6" s="53"/>
-      <c r="GJ6" s="53"/>
-      <c r="GK6" s="53"/>
-      <c r="GL6" s="53"/>
-      <c r="GM6" s="53"/>
-      <c r="GN6" s="53"/>
-      <c r="GO6" s="53"/>
-      <c r="GP6" s="53"/>
-      <c r="GQ6" s="53"/>
-      <c r="GR6" s="53"/>
-      <c r="GS6" s="53"/>
-      <c r="GT6" s="53"/>
-      <c r="GU6" s="53"/>
-      <c r="GV6" s="53"/>
-      <c r="GW6" s="53"/>
-      <c r="GX6" s="53"/>
-      <c r="GY6" s="53"/>
-      <c r="GZ6" s="53"/>
-      <c r="HA6" s="53"/>
-      <c r="HB6" s="53"/>
-      <c r="HC6" s="53"/>
-      <c r="HD6" s="53"/>
-      <c r="HE6" s="53"/>
-      <c r="HF6" s="53"/>
-      <c r="HG6" s="53"/>
-      <c r="HH6" s="53"/>
-      <c r="HI6" s="53"/>
-      <c r="HJ6" s="53"/>
-      <c r="HK6" s="53"/>
-      <c r="HL6" s="53"/>
-      <c r="HM6" s="53"/>
-      <c r="HN6" s="53"/>
-      <c r="HO6" s="53"/>
-      <c r="HP6" s="53"/>
-      <c r="HQ6" s="53"/>
-      <c r="HR6" s="53"/>
-      <c r="HS6" s="53"/>
-      <c r="HT6" s="53"/>
-      <c r="HU6" s="53"/>
-      <c r="HV6" s="53"/>
-      <c r="HW6" s="53"/>
-      <c r="HX6" s="53"/>
-      <c r="HY6" s="53"/>
-      <c r="HZ6" s="53"/>
-      <c r="IA6" s="53"/>
-      <c r="IB6" s="53"/>
-      <c r="IC6" s="53"/>
-      <c r="ID6" s="53"/>
-      <c r="IE6" s="54"/>
+      <c r="AI6" s="89"/>
+      <c r="AJ6" s="89"/>
+      <c r="AK6" s="89"/>
+      <c r="AL6" s="89"/>
+      <c r="AM6" s="89"/>
+      <c r="AN6" s="89"/>
+      <c r="AO6" s="89"/>
+      <c r="AP6" s="89"/>
+      <c r="AQ6" s="89"/>
+      <c r="AR6" s="89"/>
+      <c r="AS6" s="89"/>
+      <c r="AT6" s="89"/>
+      <c r="AU6" s="89"/>
+      <c r="AV6" s="89"/>
+      <c r="AW6" s="89"/>
+      <c r="AX6" s="89"/>
+      <c r="AY6" s="89"/>
+      <c r="AZ6" s="89"/>
+      <c r="BA6" s="89"/>
+      <c r="BB6" s="89"/>
+      <c r="BC6" s="89"/>
+      <c r="BD6" s="89"/>
+      <c r="BE6" s="89"/>
+      <c r="BF6" s="89"/>
+      <c r="BG6" s="89"/>
+      <c r="BH6" s="89"/>
+      <c r="BI6" s="89"/>
+      <c r="BJ6" s="89"/>
+      <c r="BK6" s="89"/>
+      <c r="BL6" s="89"/>
+      <c r="BM6" s="89"/>
+      <c r="BN6" s="89"/>
+      <c r="BO6" s="89"/>
+      <c r="BP6" s="89"/>
+      <c r="BQ6" s="89"/>
+      <c r="BR6" s="89"/>
+      <c r="BS6" s="89"/>
+      <c r="BT6" s="89"/>
+      <c r="BU6" s="89"/>
+      <c r="BV6" s="89"/>
+      <c r="BW6" s="89"/>
+      <c r="BX6" s="89"/>
+      <c r="BY6" s="89"/>
+      <c r="BZ6" s="89"/>
+      <c r="CA6" s="89"/>
+      <c r="CB6" s="89"/>
+      <c r="CC6" s="89"/>
+      <c r="CD6" s="89"/>
+      <c r="CE6" s="89"/>
+      <c r="CF6" s="89"/>
+      <c r="CG6" s="89"/>
+      <c r="CH6" s="89"/>
+      <c r="CI6" s="89"/>
+      <c r="CJ6" s="89"/>
+      <c r="CK6" s="89"/>
+      <c r="CL6" s="89"/>
+      <c r="CM6" s="89"/>
+      <c r="CN6" s="89"/>
+      <c r="CO6" s="89"/>
+      <c r="CP6" s="89"/>
+      <c r="CQ6" s="89"/>
+      <c r="CR6" s="89"/>
+      <c r="CS6" s="89"/>
+      <c r="CT6" s="89"/>
+      <c r="CU6" s="89"/>
+      <c r="CV6" s="89"/>
+      <c r="CW6" s="89"/>
+      <c r="CX6" s="89"/>
+      <c r="CY6" s="89"/>
+      <c r="CZ6" s="89"/>
+      <c r="DA6" s="89"/>
+      <c r="DB6" s="89"/>
+      <c r="DC6" s="89"/>
+      <c r="DD6" s="89"/>
+      <c r="DE6" s="89"/>
+      <c r="DF6" s="89"/>
+      <c r="DG6" s="89"/>
+      <c r="DH6" s="89"/>
+      <c r="DI6" s="89"/>
+      <c r="DJ6" s="89"/>
+      <c r="DK6" s="89"/>
+      <c r="DL6" s="89"/>
+      <c r="DM6" s="89"/>
+      <c r="DN6" s="89"/>
+      <c r="DO6" s="89"/>
+      <c r="DP6" s="89"/>
+      <c r="DQ6" s="89"/>
+      <c r="DR6" s="89"/>
+      <c r="DS6" s="89"/>
+      <c r="DT6" s="89"/>
+      <c r="DU6" s="89"/>
+      <c r="DV6" s="89"/>
+      <c r="DW6" s="89"/>
+      <c r="DX6" s="89"/>
+      <c r="DY6" s="89"/>
+      <c r="DZ6" s="89"/>
+      <c r="EA6" s="89"/>
+      <c r="EB6" s="89"/>
+      <c r="EC6" s="89"/>
+      <c r="ED6" s="89"/>
+      <c r="EE6" s="89"/>
+      <c r="EF6" s="89"/>
+      <c r="EG6" s="89"/>
+      <c r="EH6" s="89"/>
+      <c r="EI6" s="89"/>
+      <c r="EJ6" s="89"/>
+      <c r="EK6" s="89"/>
+      <c r="EL6" s="89"/>
+      <c r="EM6" s="89"/>
+      <c r="EN6" s="89"/>
+      <c r="EO6" s="89"/>
+      <c r="EP6" s="89"/>
+      <c r="EQ6" s="89"/>
+      <c r="ER6" s="89"/>
+      <c r="ES6" s="89"/>
+      <c r="ET6" s="89"/>
+      <c r="EU6" s="89"/>
+      <c r="EV6" s="89"/>
+      <c r="EW6" s="89"/>
+      <c r="EX6" s="89"/>
+      <c r="EY6" s="89"/>
+      <c r="EZ6" s="89"/>
+      <c r="FA6" s="89"/>
+      <c r="FB6" s="89"/>
+      <c r="FC6" s="89"/>
+      <c r="FD6" s="89"/>
+      <c r="FE6" s="89"/>
+      <c r="FF6" s="89"/>
+      <c r="FG6" s="89"/>
+      <c r="FH6" s="89"/>
+      <c r="FI6" s="89"/>
+      <c r="FJ6" s="89"/>
+      <c r="FK6" s="89"/>
+      <c r="FL6" s="89"/>
+      <c r="FM6" s="89"/>
+      <c r="FN6" s="89"/>
+      <c r="FO6" s="89"/>
+      <c r="FP6" s="89"/>
+      <c r="FQ6" s="89"/>
+      <c r="FR6" s="89"/>
+      <c r="FS6" s="89"/>
+      <c r="FT6" s="89"/>
+      <c r="FU6" s="89"/>
+      <c r="FV6" s="89"/>
+      <c r="FW6" s="89"/>
+      <c r="FX6" s="89"/>
+      <c r="FY6" s="89"/>
+      <c r="FZ6" s="89"/>
+      <c r="GA6" s="89"/>
+      <c r="GB6" s="89"/>
+      <c r="GC6" s="89"/>
+      <c r="GD6" s="89"/>
+      <c r="GE6" s="89"/>
+      <c r="GF6" s="89"/>
+      <c r="GG6" s="89"/>
+      <c r="GH6" s="89"/>
+      <c r="GI6" s="89"/>
+      <c r="GJ6" s="89"/>
+      <c r="GK6" s="89"/>
+      <c r="GL6" s="89"/>
+      <c r="GM6" s="89"/>
+      <c r="GN6" s="89"/>
+      <c r="GO6" s="89"/>
+      <c r="GP6" s="89"/>
+      <c r="GQ6" s="89"/>
+      <c r="GR6" s="89"/>
+      <c r="GS6" s="89"/>
+      <c r="GT6" s="89"/>
+      <c r="GU6" s="89"/>
+      <c r="GV6" s="89"/>
+      <c r="GW6" s="89"/>
+      <c r="GX6" s="89"/>
+      <c r="GY6" s="89"/>
+      <c r="GZ6" s="89"/>
+      <c r="HA6" s="89"/>
+      <c r="HB6" s="89"/>
+      <c r="HC6" s="89"/>
+      <c r="HD6" s="89"/>
+      <c r="HE6" s="89"/>
+      <c r="HF6" s="89"/>
+      <c r="HG6" s="89"/>
+      <c r="HH6" s="89"/>
+      <c r="HI6" s="89"/>
+      <c r="HJ6" s="89"/>
+      <c r="HK6" s="89"/>
+      <c r="HL6" s="89"/>
+      <c r="HM6" s="89"/>
+      <c r="HN6" s="89"/>
+      <c r="HO6" s="89"/>
+      <c r="HP6" s="89"/>
+      <c r="HQ6" s="89"/>
+      <c r="HR6" s="89"/>
+      <c r="HS6" s="89"/>
+      <c r="HT6" s="89"/>
+      <c r="HU6" s="89"/>
+      <c r="HV6" s="89"/>
+      <c r="HW6" s="89"/>
+      <c r="HX6" s="89"/>
+      <c r="HY6" s="89"/>
+      <c r="HZ6" s="89"/>
+      <c r="IA6" s="89"/>
+      <c r="IB6" s="89"/>
+      <c r="IC6" s="89"/>
+      <c r="ID6" s="89"/>
+      <c r="IE6" s="90"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="87"/>
+      <c r="B7" s="87"/>
+      <c r="C7" s="87"/>
+      <c r="D7" s="87"/>
+      <c r="E7" s="87"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="87"/>
+      <c r="I7" s="87"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1982,18 +1982,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="55">
+    <row r="8" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
+      <c r="A8" s="51">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="51" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2002,10 +2002,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="52">
         <v>1</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2253,20 +2253,20 @@
       <c r="ID8" s="12"/>
       <c r="IE8" s="12"/>
     </row>
-    <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+    <row r="9" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
+      <c r="A9" s="51"/>
+      <c r="B9" s="62"/>
+      <c r="C9" s="63"/>
+      <c r="D9" s="51"/>
+      <c r="E9" s="51"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2512,16 +2512,16 @@
       <c r="ID9" s="12"/>
       <c r="IE9" s="12"/>
     </row>
-    <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="55">
+    <row r="10" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
+      <c r="A10" s="51">
         <v>2</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="62"/>
+      <c r="C10" s="63"/>
+      <c r="D10" s="51" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2530,10 +2530,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="52">
         <v>1</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2773,20 +2773,20 @@
       <c r="ID10" s="12"/>
       <c r="IE10" s="12"/>
     </row>
-    <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+    <row r="11" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
+      <c r="A11" s="51"/>
+      <c r="B11" s="62"/>
+      <c r="C11" s="63"/>
+      <c r="D11" s="51"/>
+      <c r="E11" s="51"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3024,16 +3024,16 @@
       <c r="ID11" s="12"/>
       <c r="IE11" s="12"/>
     </row>
-    <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="55">
+    <row r="12" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
+      <c r="A12" s="51">
         <v>3</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="62"/>
+      <c r="C12" s="63"/>
+      <c r="D12" s="51" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3042,10 +3042,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="52">
         <v>1</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3285,20 +3285,20 @@
       <c r="ID12" s="12"/>
       <c r="IE12" s="12"/>
     </row>
-    <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+    <row r="13" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
+      <c r="A13" s="51"/>
+      <c r="B13" s="62"/>
+      <c r="C13" s="63"/>
+      <c r="D13" s="51"/>
+      <c r="E13" s="51"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3537,15 +3537,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="51">
         <v>4</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="62"/>
+      <c r="C14" s="63"/>
+      <c r="D14" s="51" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="51" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3554,10 +3554,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="52">
         <v>1</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3798,19 +3798,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="55"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="51"/>
+      <c r="B15" s="62"/>
+      <c r="C15" s="63"/>
+      <c r="D15" s="51"/>
+      <c r="E15" s="91"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4049,15 +4049,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="51">
         <v>5</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="62"/>
+      <c r="C16" s="63"/>
+      <c r="D16" s="51" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="51" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4066,10 +4066,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="52">
         <v>1</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4308,19 +4308,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="55"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="51"/>
+      <c r="B17" s="62"/>
+      <c r="C17" s="63"/>
+      <c r="D17" s="51"/>
+      <c r="E17" s="91"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4557,15 +4557,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="51">
         <v>6</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="62"/>
+      <c r="C18" s="63"/>
+      <c r="D18" s="51" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="51" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4574,10 +4574,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="52">
         <v>1</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4816,19 +4816,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="55"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="51"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="51"/>
+      <c r="E19" s="91"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5065,17 +5065,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="51">
         <v>9</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5084,8 +5084,8 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="H20" s="60"/>
+      <c r="I20" s="60"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5324,15 +5324,15 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="55"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="51"/>
+      <c r="B21" s="62"/>
+      <c r="C21" s="63"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="H21" s="61"/>
+      <c r="I21" s="61"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5565,15 +5565,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="51">
         <v>10</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="62"/>
+      <c r="C22" s="63"/>
+      <c r="D22" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5582,8 +5582,8 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="H22" s="60"/>
+      <c r="I22" s="60"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5820,15 +5820,15 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="55"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="51"/>
+      <c r="B23" s="62"/>
+      <c r="C23" s="63"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="H23" s="61"/>
+      <c r="I23" s="61"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6061,15 +6061,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="51">
         <v>11</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="62"/>
+      <c r="C24" s="63"/>
+      <c r="D24" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6078,8 +6078,8 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="H24" s="60"/>
+      <c r="I24" s="60"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6315,16 +6315,16 @@
       <c r="ID24" s="13"/>
       <c r="IE24" s="13"/>
     </row>
-    <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="55"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+    <row r="25" spans="1:239" ht="19.2">
+      <c r="A25" s="51"/>
+      <c r="B25" s="62"/>
+      <c r="C25" s="63"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="H25" s="61"/>
+      <c r="I25" s="61"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6557,15 +6557,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="51">
         <v>12</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="60" t="s">
+      <c r="B26" s="62"/>
+      <c r="C26" s="63"/>
+      <c r="D26" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6574,8 +6574,8 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="H26" s="60"/>
+      <c r="I26" s="60"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6811,16 +6811,16 @@
       <c r="ID26" s="13"/>
       <c r="IE26" s="13"/>
     </row>
-    <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+    <row r="27" spans="1:239" ht="19.2">
+      <c r="A27" s="51"/>
+      <c r="B27" s="62"/>
+      <c r="C27" s="63"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
+      <c r="H27" s="61"/>
+      <c r="I27" s="61"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7053,15 +7053,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="51">
         <v>13</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="60" t="s">
+      <c r="B28" s="62"/>
+      <c r="C28" s="63"/>
+      <c r="D28" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7070,8 +7070,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="60"/>
+      <c r="I28" s="60"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7308,15 +7308,15 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="55"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="51"/>
+      <c r="B29" s="62"/>
+      <c r="C29" s="63"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
+      <c r="H29" s="61"/>
+      <c r="I29" s="61"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7549,15 +7549,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="51">
         <v>14</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="60" t="s">
+      <c r="B30" s="62"/>
+      <c r="C30" s="63"/>
+      <c r="D30" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7566,8 +7566,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
+      <c r="H30" s="60"/>
+      <c r="I30" s="60"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7804,15 +7804,15 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="51"/>
+      <c r="B31" s="62"/>
+      <c r="C31" s="63"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="H31" s="61"/>
+      <c r="I31" s="61"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8045,15 +8045,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="51">
         <v>15</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="60" t="s">
+      <c r="B32" s="62"/>
+      <c r="C32" s="63"/>
+      <c r="D32" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8062,8 +8062,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="H32" s="60"/>
+      <c r="I32" s="60"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8300,15 +8300,15 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="55"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="51"/>
+      <c r="B33" s="62"/>
+      <c r="C33" s="63"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="H33" s="61"/>
+      <c r="I33" s="61"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8541,15 +8541,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="51">
         <v>16</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="62"/>
+      <c r="C34" s="63"/>
+      <c r="D34" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8558,8 +8558,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="H34" s="60"/>
+      <c r="I34" s="60"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8796,15 +8796,15 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="55"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="51"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="H35" s="61"/>
+      <c r="I35" s="61"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9037,17 +9037,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="51">
         <v>17</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="51" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9056,8 +9056,8 @@
       <c r="G36" s="8">
         <v>42832</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="60"/>
+      <c r="I36" s="60"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9302,15 +9302,15 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="55"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="51"/>
+      <c r="B37" s="62"/>
+      <c r="C37" s="63"/>
+      <c r="D37" s="51"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="H37" s="61"/>
+      <c r="I37" s="61"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9543,15 +9543,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="55">
+      <c r="A38" s="51">
         <v>18</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="60" t="s">
+      <c r="B38" s="62"/>
+      <c r="C38" s="63"/>
+      <c r="D38" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9560,8 +9560,8 @@
       <c r="G38" s="8">
         <v>42824</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
+      <c r="H38" s="60"/>
+      <c r="I38" s="60"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9814,15 +9814,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="55"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="51"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
+      <c r="H39" s="61"/>
+      <c r="I39" s="61"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10055,17 +10055,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="55">
+      <c r="A40" s="51">
         <v>19</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="60" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="54" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10074,8 +10074,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="60"/>
+      <c r="I40" s="60"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10328,15 +10328,15 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="55"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
+      <c r="A41" s="51"/>
+      <c r="B41" s="62"/>
+      <c r="C41" s="63"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
+      <c r="H41" s="61"/>
+      <c r="I41" s="61"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10350,8 +10350,12 @@
       <c r="T41" s="14"/>
       <c r="U41" s="14"/>
       <c r="V41" s="12"/>
-      <c r="W41" s="12"/>
-      <c r="X41" s="13"/>
+      <c r="W41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X41" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="Y41" s="13"/>
       <c r="Z41" s="12"/>
       <c r="AA41" s="14"/>
@@ -10569,15 +10573,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="51">
         <v>20</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="62"/>
+      <c r="C42" s="63"/>
+      <c r="D42" s="51" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10586,8 +10590,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="91"/>
-      <c r="I42" s="83"/>
+      <c r="H42" s="64"/>
+      <c r="I42" s="60"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10836,15 +10840,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="55"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="51"/>
+      <c r="B43" s="62"/>
+      <c r="C43" s="63"/>
+      <c r="D43" s="51"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="84"/>
+      <c r="H43" s="65"/>
+      <c r="I43" s="61"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11077,15 +11081,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="51">
         <v>21</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="55" t="s">
+      <c r="B44" s="62"/>
+      <c r="C44" s="63"/>
+      <c r="D44" s="51" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11094,8 +11098,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="91"/>
-      <c r="I44" s="83"/>
+      <c r="H44" s="64"/>
+      <c r="I44" s="60"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11332,15 +11336,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="55"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="51"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="51"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="84"/>
+      <c r="H45" s="65"/>
+      <c r="I45" s="61"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11573,17 +11577,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="51">
         <v>22</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="51" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11592,8 +11596,8 @@
       <c r="G46" s="8">
         <v>42823</v>
       </c>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
+      <c r="H46" s="60"/>
+      <c r="I46" s="60"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -11832,15 +11836,15 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="55"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
+      <c r="A47" s="51"/>
+      <c r="B47" s="62"/>
+      <c r="C47" s="63"/>
+      <c r="D47" s="51"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
+      <c r="H47" s="61"/>
+      <c r="I47" s="61"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12073,15 +12077,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="51">
         <v>23</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="55" t="s">
+      <c r="B48" s="62"/>
+      <c r="C48" s="63"/>
+      <c r="D48" s="51" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12090,8 +12094,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="60"/>
+      <c r="I48" s="60"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12332,15 +12336,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="55"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
+      <c r="A49" s="51"/>
+      <c r="B49" s="62"/>
+      <c r="C49" s="63"/>
+      <c r="D49" s="51"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
+      <c r="H49" s="61"/>
+      <c r="I49" s="61"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12573,15 +12577,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="51">
         <v>23</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="62"/>
+      <c r="C50" s="63"/>
+      <c r="D50" s="51" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12590,8 +12594,8 @@
       <c r="G50" s="8">
         <v>42815</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="60"/>
+      <c r="I50" s="60"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12830,15 +12834,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="55"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
+      <c r="A51" s="51"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="51"/>
+      <c r="E51" s="55"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
+      <c r="H51" s="61"/>
+      <c r="I51" s="61"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13071,17 +13075,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="51">
         <v>24</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="56" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="51" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13090,8 +13094,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="H52" s="60"/>
+      <c r="I52" s="60"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13346,15 +13350,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="55"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="61"/>
+      <c r="A53" s="51"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="51"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="H53" s="61"/>
+      <c r="I53" s="61"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13587,17 +13591,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="55">
+      <c r="A54" s="51">
         <v>25</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="56" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="60" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13606,8 +13610,8 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
+      <c r="H54" s="60"/>
+      <c r="I54" s="60"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13844,15 +13848,15 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="55"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
+      <c r="A55" s="51"/>
+      <c r="B55" s="62"/>
+      <c r="C55" s="63"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
+      <c r="H55" s="61"/>
+      <c r="I55" s="61"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14085,15 +14089,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="55">
+      <c r="A56" s="51">
         <v>26</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="55" t="s">
+      <c r="B56" s="62"/>
+      <c r="C56" s="63"/>
+      <c r="D56" s="51" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14102,8 +14106,8 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14340,15 +14344,15 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="55"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="A57" s="51"/>
+      <c r="B57" s="62"/>
+      <c r="C57" s="63"/>
+      <c r="D57" s="51"/>
+      <c r="E57" s="51"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="58"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14581,15 +14585,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="55">
+      <c r="A58" s="51">
         <v>27</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="55" t="s">
+      <c r="B58" s="62"/>
+      <c r="C58" s="63"/>
+      <c r="D58" s="51" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="51" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="30">
@@ -14598,8 +14602,8 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14835,16 +14839,16 @@
       <c r="ID58" s="13"/>
       <c r="IE58" s="13"/>
     </row>
-    <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="55"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+    <row r="59" spans="1:239" ht="19.2">
+      <c r="A59" s="51"/>
+      <c r="B59" s="62"/>
+      <c r="C59" s="63"/>
+      <c r="D59" s="51"/>
+      <c r="E59" s="51"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="58"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15076,16 +15080,16 @@
       <c r="ID59" s="13"/>
       <c r="IE59" s="13"/>
     </row>
-    <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="55">
+    <row r="60" spans="1:239" ht="19.2">
+      <c r="A60" s="51">
         <v>28</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="55" t="s">
+      <c r="B60" s="62"/>
+      <c r="C60" s="63"/>
+      <c r="D60" s="51" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15094,8 +15098,8 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
@@ -15331,16 +15335,16 @@
       <c r="ID60" s="13"/>
       <c r="IE60" s="13"/>
     </row>
-    <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="55"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+    <row r="61" spans="1:239" ht="19.2">
+      <c r="A61" s="51"/>
+      <c r="B61" s="62"/>
+      <c r="C61" s="63"/>
+      <c r="D61" s="51"/>
+      <c r="E61" s="51"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="53"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15572,16 +15576,16 @@
       <c r="ID61" s="13"/>
       <c r="IE61" s="13"/>
     </row>
-    <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="55">
+    <row r="62" spans="1:239" ht="19.2">
+      <c r="A62" s="51">
         <v>29</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="55" t="s">
+      <c r="B62" s="62"/>
+      <c r="C62" s="63"/>
+      <c r="D62" s="51" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15590,8 +15594,8 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -15828,15 +15832,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="55"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="51"/>
+      <c r="B63" s="62"/>
+      <c r="C63" s="63"/>
+      <c r="D63" s="51"/>
+      <c r="E63" s="51"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="53"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16069,15 +16073,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="55">
+      <c r="A64" s="51">
         <v>30</v>
       </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="60" t="s">
+      <c r="B64" s="62"/>
+      <c r="C64" s="63"/>
+      <c r="D64" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16086,8 +16090,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
+      <c r="H64" s="60"/>
+      <c r="I64" s="60"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16324,15 +16328,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="55"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="51"/>
+      <c r="B65" s="62"/>
+      <c r="C65" s="63"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="51"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
+      <c r="H65" s="61"/>
+      <c r="I65" s="61"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16565,15 +16569,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="60">
+      <c r="A66" s="54">
         <v>31</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="55" t="s">
+      <c r="B66" s="62"/>
+      <c r="C66" s="63"/>
+      <c r="D66" s="51" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16582,8 +16586,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -16820,15 +16824,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="61"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="62"/>
+      <c r="C67" s="63"/>
+      <c r="D67" s="51"/>
+      <c r="E67" s="51"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17061,15 +17065,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="60">
+      <c r="A68" s="54">
         <v>32</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="55" t="s">
+      <c r="B68" s="62"/>
+      <c r="C68" s="63"/>
+      <c r="D68" s="51" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="51" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17078,8 +17082,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17316,15 +17320,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="61"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="51"/>
+      <c r="E69" s="51"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="53"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17558,72 +17562,72 @@
     </row>
     <row r="70" spans="1:239"/>
     <row r="71" spans="1:239">
-      <c r="A71" s="59" t="s">
+      <c r="A71" s="92" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="59"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="59"/>
-      <c r="AE71" s="59"/>
+      <c r="B71" s="92"/>
+      <c r="C71" s="92"/>
+      <c r="D71" s="92"/>
+      <c r="E71" s="92"/>
+      <c r="F71" s="92"/>
+      <c r="G71" s="92"/>
+      <c r="H71" s="92"/>
+      <c r="I71" s="92"/>
+      <c r="J71" s="92"/>
+      <c r="K71" s="92"/>
+      <c r="L71" s="92"/>
+      <c r="M71" s="92"/>
+      <c r="N71" s="92"/>
+      <c r="O71" s="92"/>
+      <c r="P71" s="92"/>
+      <c r="Q71" s="92"/>
+      <c r="R71" s="92"/>
+      <c r="S71" s="92"/>
+      <c r="T71" s="92"/>
+      <c r="U71" s="92"/>
+      <c r="V71" s="92"/>
+      <c r="W71" s="92"/>
+      <c r="X71" s="92"/>
+      <c r="Y71" s="92"/>
+      <c r="Z71" s="92"/>
+      <c r="AA71" s="92"/>
+      <c r="AB71" s="92"/>
+      <c r="AC71" s="92"/>
+      <c r="AD71" s="92"/>
+      <c r="AE71" s="92"/>
     </row>
     <row r="72" spans="1:239">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
+      <c r="A72" s="92"/>
+      <c r="B72" s="92"/>
+      <c r="C72" s="92"/>
+      <c r="D72" s="92"/>
+      <c r="E72" s="92"/>
+      <c r="F72" s="92"/>
+      <c r="G72" s="92"/>
+      <c r="H72" s="92"/>
+      <c r="I72" s="92"/>
+      <c r="J72" s="92"/>
+      <c r="K72" s="92"/>
+      <c r="L72" s="92"/>
+      <c r="M72" s="92"/>
+      <c r="N72" s="92"/>
+      <c r="O72" s="92"/>
+      <c r="P72" s="92"/>
+      <c r="Q72" s="92"/>
+      <c r="R72" s="92"/>
+      <c r="S72" s="92"/>
+      <c r="T72" s="92"/>
+      <c r="U72" s="92"/>
+      <c r="V72" s="92"/>
+      <c r="W72" s="92"/>
+      <c r="X72" s="92"/>
+      <c r="Y72" s="92"/>
+      <c r="Z72" s="92"/>
+      <c r="AA72" s="92"/>
+      <c r="AB72" s="92"/>
+      <c r="AC72" s="92"/>
+      <c r="AD72" s="92"/>
+      <c r="AE72" s="92"/>
     </row>
     <row r="73" spans="1:239"/>
     <row r="74" spans="1:239"/>
@@ -17631,36 +17635,193 @@
     <row r="76" spans="1:239"/>
     <row r="77" spans="1:239"/>
     <row r="81" spans="1:239"/>
-    <row r="82" spans="1:239"/>
-    <row r="83" spans="1:239"/>
-    <row r="84" spans="1:239"/>
-    <row r="85" spans="1:239"/>
-    <row r="86" spans="1:239"/>
-    <row r="87" spans="1:239"/>
-    <row r="88" spans="1:239"/>
-    <row r="89" spans="1:239"/>
-    <row r="90" spans="1:239"/>
-    <row r="91" spans="1:239"/>
-    <row r="92" spans="1:239"/>
-    <row r="93" spans="1:239"/>
-    <row r="94" spans="1:239"/>
-    <row r="95" spans="1:239"/>
-    <row r="96" spans="1:239"/>
-    <row r="97" spans="1:239"/>
-    <row r="98" spans="1:239"/>
-    <row r="99" spans="1:239"/>
-    <row r="100" spans="1:239"/>
-    <row r="101" spans="1:239"/>
-    <row r="102" spans="1:239"/>
-    <row r="103" spans="1:239"/>
-    <row r="104" spans="1:239"/>
-    <row r="105" spans="1:239"/>
-    <row r="106" spans="1:239"/>
-    <row r="107" spans="1:239"/>
-    <row r="108" spans="1:239"/>
+    <row r="82" spans="1:239" ht="409.6"/>
+    <row r="83" spans="1:239" ht="409.6"/>
+    <row r="84" spans="1:239" ht="409.6"/>
+    <row r="85" spans="1:239" ht="409.6"/>
+    <row r="86" spans="1:239" ht="409.6"/>
+    <row r="87" spans="1:239" ht="409.6"/>
+    <row r="88" spans="1:239" ht="409.6"/>
+    <row r="89" spans="1:239" ht="409.6"/>
+    <row r="90" spans="1:239" ht="409.6"/>
+    <row r="91" spans="1:239" ht="409.6"/>
+    <row r="92" spans="1:239" ht="409.6"/>
+    <row r="93" spans="1:239" ht="409.6"/>
+    <row r="94" spans="1:239" ht="409.6"/>
+    <row r="95" spans="1:239" ht="409.6"/>
+    <row r="96" spans="1:239" ht="409.6"/>
+    <row r="97" spans="1:239" ht="409.6"/>
+    <row r="98" spans="1:239" ht="409.6"/>
+    <row r="99" spans="1:239" ht="409.6"/>
+    <row r="100" spans="1:239" ht="409.6"/>
+    <row r="101" spans="1:239" ht="409.6"/>
+    <row r="102" spans="1:239" ht="409.6"/>
+    <row r="103" spans="1:239" ht="409.6"/>
+    <row r="104" spans="1:239" ht="409.6"/>
+    <row r="105" spans="1:239" ht="409.6"/>
+    <row r="106" spans="1:239" ht="409.6"/>
+    <row r="107" spans="1:239" ht="409.6"/>
+    <row r="108" spans="1:239" ht="409.6"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A71:AE72"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
     <mergeCell ref="E58:E59"/>
     <mergeCell ref="H58:H59"/>
     <mergeCell ref="I58:I59"/>
@@ -17685,163 +17846,6 @@
     <mergeCell ref="A60:A61"/>
     <mergeCell ref="D60:D61"/>
     <mergeCell ref="E60:E61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A71:AE72"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="18252" windowHeight="3072" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="13140" windowHeight="5796" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="233" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
   <si>
     <t>No</t>
   </si>
@@ -786,8 +786,23 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -795,41 +810,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -894,23 +882,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1286,8 +1286,8 @@
   </sheetPr>
   <dimension ref="A1:IE108"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="F28" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="G31" sqref="G31"/>
+    <sheetView tabSelected="1" topLeftCell="O37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection activeCell="R44" sqref="R44"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
@@ -1311,226 +1311,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="66" t="s">
+      <c r="A1" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="67"/>
-      <c r="C1" s="67"/>
-      <c r="D1" s="67"/>
-      <c r="E1" s="67"/>
-      <c r="F1" s="67"/>
-      <c r="G1" s="67"/>
-      <c r="H1" s="67"/>
-      <c r="I1" s="67"/>
-      <c r="J1" s="67"/>
-      <c r="K1" s="67"/>
-      <c r="L1" s="67"/>
-      <c r="M1" s="67"/>
-      <c r="N1" s="67"/>
-      <c r="O1" s="67"/>
-      <c r="P1" s="67"/>
-      <c r="Q1" s="67"/>
-      <c r="R1" s="67"/>
-      <c r="S1" s="67"/>
-      <c r="T1" s="67"/>
-      <c r="U1" s="67"/>
-      <c r="V1" s="67"/>
-      <c r="W1" s="67"/>
-      <c r="X1" s="67"/>
-      <c r="Y1" s="67"/>
-      <c r="Z1" s="67"/>
-      <c r="AA1" s="67"/>
-      <c r="AB1" s="67"/>
-      <c r="AC1" s="67"/>
-      <c r="AD1" s="67"/>
-      <c r="AE1" s="67"/>
-      <c r="AF1" s="67"/>
-      <c r="AG1" s="67"/>
-      <c r="AH1" s="67"/>
-      <c r="AI1" s="67"/>
-      <c r="AJ1" s="67"/>
-      <c r="AK1" s="67"/>
-      <c r="AL1" s="67"/>
-      <c r="AM1" s="67"/>
-      <c r="AN1" s="67"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
+      <c r="D1" s="63"/>
+      <c r="E1" s="63"/>
+      <c r="F1" s="63"/>
+      <c r="G1" s="63"/>
+      <c r="H1" s="63"/>
+      <c r="I1" s="63"/>
+      <c r="J1" s="63"/>
+      <c r="K1" s="63"/>
+      <c r="L1" s="63"/>
+      <c r="M1" s="63"/>
+      <c r="N1" s="63"/>
+      <c r="O1" s="63"/>
+      <c r="P1" s="63"/>
+      <c r="Q1" s="63"/>
+      <c r="R1" s="63"/>
+      <c r="S1" s="63"/>
+      <c r="T1" s="63"/>
+      <c r="U1" s="63"/>
+      <c r="V1" s="63"/>
+      <c r="W1" s="63"/>
+      <c r="X1" s="63"/>
+      <c r="Y1" s="63"/>
+      <c r="Z1" s="63"/>
+      <c r="AA1" s="63"/>
+      <c r="AB1" s="63"/>
+      <c r="AC1" s="63"/>
+      <c r="AD1" s="63"/>
+      <c r="AE1" s="63"/>
+      <c r="AF1" s="63"/>
+      <c r="AG1" s="63"/>
+      <c r="AH1" s="63"/>
+      <c r="AI1" s="63"/>
+      <c r="AJ1" s="63"/>
+      <c r="AK1" s="63"/>
+      <c r="AL1" s="63"/>
+      <c r="AM1" s="63"/>
+      <c r="AN1" s="63"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="66"/>
-      <c r="B2" s="67"/>
-      <c r="C2" s="67"/>
-      <c r="D2" s="67"/>
-      <c r="E2" s="67"/>
-      <c r="F2" s="67"/>
-      <c r="G2" s="67"/>
-      <c r="H2" s="67"/>
-      <c r="I2" s="67"/>
-      <c r="J2" s="67"/>
-      <c r="K2" s="67"/>
-      <c r="L2" s="67"/>
-      <c r="M2" s="67"/>
-      <c r="N2" s="67"/>
-      <c r="O2" s="67"/>
-      <c r="P2" s="67"/>
-      <c r="Q2" s="67"/>
-      <c r="R2" s="67"/>
-      <c r="S2" s="67"/>
-      <c r="T2" s="67"/>
-      <c r="U2" s="67"/>
-      <c r="V2" s="67"/>
-      <c r="W2" s="67"/>
-      <c r="X2" s="67"/>
-      <c r="Y2" s="67"/>
-      <c r="Z2" s="67"/>
-      <c r="AA2" s="67"/>
-      <c r="AB2" s="67"/>
-      <c r="AC2" s="67"/>
-      <c r="AD2" s="67"/>
-      <c r="AE2" s="67"/>
-      <c r="AF2" s="67"/>
-      <c r="AG2" s="67"/>
-      <c r="AH2" s="67"/>
-      <c r="AI2" s="67"/>
-      <c r="AJ2" s="67"/>
-      <c r="AK2" s="67"/>
-      <c r="AL2" s="67"/>
-      <c r="AM2" s="67"/>
-      <c r="AN2" s="67"/>
+      <c r="A2" s="62"/>
+      <c r="B2" s="63"/>
+      <c r="C2" s="63"/>
+      <c r="D2" s="63"/>
+      <c r="E2" s="63"/>
+      <c r="F2" s="63"/>
+      <c r="G2" s="63"/>
+      <c r="H2" s="63"/>
+      <c r="I2" s="63"/>
+      <c r="J2" s="63"/>
+      <c r="K2" s="63"/>
+      <c r="L2" s="63"/>
+      <c r="M2" s="63"/>
+      <c r="N2" s="63"/>
+      <c r="O2" s="63"/>
+      <c r="P2" s="63"/>
+      <c r="Q2" s="63"/>
+      <c r="R2" s="63"/>
+      <c r="S2" s="63"/>
+      <c r="T2" s="63"/>
+      <c r="U2" s="63"/>
+      <c r="V2" s="63"/>
+      <c r="W2" s="63"/>
+      <c r="X2" s="63"/>
+      <c r="Y2" s="63"/>
+      <c r="Z2" s="63"/>
+      <c r="AA2" s="63"/>
+      <c r="AB2" s="63"/>
+      <c r="AC2" s="63"/>
+      <c r="AD2" s="63"/>
+      <c r="AE2" s="63"/>
+      <c r="AF2" s="63"/>
+      <c r="AG2" s="63"/>
+      <c r="AH2" s="63"/>
+      <c r="AI2" s="63"/>
+      <c r="AJ2" s="63"/>
+      <c r="AK2" s="63"/>
+      <c r="AL2" s="63"/>
+      <c r="AM2" s="63"/>
+      <c r="AN2" s="63"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="68" t="s">
+      <c r="A3" s="64" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="68"/>
-      <c r="C3" s="68"/>
-      <c r="D3" s="68"/>
-      <c r="E3" s="68"/>
-      <c r="F3" s="68"/>
-      <c r="G3" s="72" t="s">
+      <c r="B3" s="64"/>
+      <c r="C3" s="64"/>
+      <c r="D3" s="64"/>
+      <c r="E3" s="64"/>
+      <c r="F3" s="64"/>
+      <c r="G3" s="68" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="73"/>
-      <c r="I3" s="74" t="s">
+      <c r="H3" s="69"/>
+      <c r="I3" s="70" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="75"/>
-      <c r="K3" s="75"/>
-      <c r="L3" s="75"/>
-      <c r="M3" s="75"/>
-      <c r="N3" s="75"/>
-      <c r="O3" s="75"/>
-      <c r="P3" s="75"/>
-      <c r="Q3" s="68" t="s">
+      <c r="J3" s="71"/>
+      <c r="K3" s="71"/>
+      <c r="L3" s="71"/>
+      <c r="M3" s="71"/>
+      <c r="N3" s="71"/>
+      <c r="O3" s="71"/>
+      <c r="P3" s="71"/>
+      <c r="Q3" s="64" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="68"/>
-      <c r="S3" s="68"/>
-      <c r="T3" s="68"/>
-      <c r="U3" s="68"/>
-      <c r="V3" s="68"/>
-      <c r="W3" s="68"/>
-      <c r="X3" s="68"/>
-      <c r="Y3" s="68"/>
-      <c r="Z3" s="68"/>
-      <c r="AA3" s="68"/>
-      <c r="AB3" s="68"/>
-      <c r="AC3" s="68"/>
-      <c r="AD3" s="68"/>
-      <c r="AE3" s="68"/>
-      <c r="AF3" s="68"/>
-      <c r="AG3" s="68"/>
-      <c r="AH3" s="68"/>
-      <c r="AI3" s="68"/>
-      <c r="AJ3" s="68"/>
-      <c r="AK3" s="68"/>
-      <c r="AL3" s="68"/>
-      <c r="AM3" s="68"/>
-      <c r="AN3" s="68"/>
+      <c r="R3" s="64"/>
+      <c r="S3" s="64"/>
+      <c r="T3" s="64"/>
+      <c r="U3" s="64"/>
+      <c r="V3" s="64"/>
+      <c r="W3" s="64"/>
+      <c r="X3" s="64"/>
+      <c r="Y3" s="64"/>
+      <c r="Z3" s="64"/>
+      <c r="AA3" s="64"/>
+      <c r="AB3" s="64"/>
+      <c r="AC3" s="64"/>
+      <c r="AD3" s="64"/>
+      <c r="AE3" s="64"/>
+      <c r="AF3" s="64"/>
+      <c r="AG3" s="64"/>
+      <c r="AH3" s="64"/>
+      <c r="AI3" s="64"/>
+      <c r="AJ3" s="64"/>
+      <c r="AK3" s="64"/>
+      <c r="AL3" s="64"/>
+      <c r="AM3" s="64"/>
+      <c r="AN3" s="64"/>
     </row>
     <row r="4" spans="1:239" ht="21.15" customHeight="1">
-      <c r="A4" s="76" t="s">
+      <c r="A4" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="76"/>
-      <c r="C4" s="76"/>
-      <c r="D4" s="76"/>
-      <c r="E4" s="76"/>
-      <c r="F4" s="76"/>
-      <c r="G4" s="77" t="s">
+      <c r="B4" s="72"/>
+      <c r="C4" s="72"/>
+      <c r="D4" s="72"/>
+      <c r="E4" s="72"/>
+      <c r="F4" s="72"/>
+      <c r="G4" s="73" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="78"/>
-      <c r="I4" s="79" t="s">
+      <c r="H4" s="74"/>
+      <c r="I4" s="75" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="80"/>
-      <c r="K4" s="80"/>
-      <c r="L4" s="80"/>
-      <c r="M4" s="80"/>
-      <c r="N4" s="80"/>
-      <c r="O4" s="80"/>
-      <c r="P4" s="81"/>
-      <c r="Q4" s="69" t="s">
+      <c r="J4" s="76"/>
+      <c r="K4" s="76"/>
+      <c r="L4" s="76"/>
+      <c r="M4" s="76"/>
+      <c r="N4" s="76"/>
+      <c r="O4" s="76"/>
+      <c r="P4" s="77"/>
+      <c r="Q4" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="70"/>
-      <c r="S4" s="70"/>
-      <c r="T4" s="70"/>
-      <c r="U4" s="70"/>
-      <c r="V4" s="70"/>
-      <c r="W4" s="70"/>
-      <c r="X4" s="70"/>
-      <c r="Y4" s="70"/>
-      <c r="Z4" s="70"/>
-      <c r="AA4" s="70"/>
-      <c r="AB4" s="70"/>
-      <c r="AC4" s="70"/>
-      <c r="AD4" s="70"/>
-      <c r="AE4" s="70"/>
-      <c r="AF4" s="70"/>
-      <c r="AG4" s="70"/>
-      <c r="AH4" s="70"/>
-      <c r="AI4" s="70"/>
-      <c r="AJ4" s="70"/>
-      <c r="AK4" s="70"/>
-      <c r="AL4" s="70"/>
-      <c r="AM4" s="70"/>
-      <c r="AN4" s="71"/>
+      <c r="R4" s="66"/>
+      <c r="S4" s="66"/>
+      <c r="T4" s="66"/>
+      <c r="U4" s="66"/>
+      <c r="V4" s="66"/>
+      <c r="W4" s="66"/>
+      <c r="X4" s="66"/>
+      <c r="Y4" s="66"/>
+      <c r="Z4" s="66"/>
+      <c r="AA4" s="66"/>
+      <c r="AB4" s="66"/>
+      <c r="AC4" s="66"/>
+      <c r="AD4" s="66"/>
+      <c r="AE4" s="66"/>
+      <c r="AF4" s="66"/>
+      <c r="AG4" s="66"/>
+      <c r="AH4" s="66"/>
+      <c r="AI4" s="66"/>
+      <c r="AJ4" s="66"/>
+      <c r="AK4" s="66"/>
+      <c r="AL4" s="66"/>
+      <c r="AM4" s="66"/>
+      <c r="AN4" s="67"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="85"/>
-      <c r="B5" s="85"/>
-      <c r="C5" s="85"/>
-      <c r="D5" s="85"/>
-      <c r="E5" s="85"/>
-      <c r="F5" s="85"/>
-      <c r="G5" s="85"/>
-      <c r="H5" s="85"/>
-      <c r="I5" s="85"/>
-      <c r="J5" s="86"/>
-      <c r="K5" s="86"/>
-      <c r="L5" s="86"/>
-      <c r="M5" s="86"/>
-      <c r="N5" s="86"/>
-      <c r="O5" s="86"/>
-      <c r="P5" s="86"/>
-      <c r="Q5" s="86"/>
-      <c r="R5" s="86"/>
-      <c r="S5" s="86"/>
-      <c r="T5" s="86"/>
-      <c r="U5" s="86"/>
-      <c r="V5" s="86"/>
-      <c r="W5" s="86"/>
-      <c r="X5" s="86"/>
-      <c r="Y5" s="86"/>
-      <c r="Z5" s="86"/>
-      <c r="AA5" s="86"/>
-      <c r="AB5" s="86"/>
-      <c r="AC5" s="86"/>
-      <c r="AD5" s="86"/>
-      <c r="AE5" s="86"/>
+      <c r="A5" s="81"/>
+      <c r="B5" s="81"/>
+      <c r="C5" s="81"/>
+      <c r="D5" s="81"/>
+      <c r="E5" s="81"/>
+      <c r="F5" s="81"/>
+      <c r="G5" s="81"/>
+      <c r="H5" s="81"/>
+      <c r="I5" s="81"/>
+      <c r="J5" s="82"/>
+      <c r="K5" s="82"/>
+      <c r="L5" s="82"/>
+      <c r="M5" s="82"/>
+      <c r="N5" s="82"/>
+      <c r="O5" s="82"/>
+      <c r="P5" s="82"/>
+      <c r="Q5" s="82"/>
+      <c r="R5" s="82"/>
+      <c r="S5" s="82"/>
+      <c r="T5" s="82"/>
+      <c r="U5" s="82"/>
+      <c r="V5" s="82"/>
+      <c r="W5" s="82"/>
+      <c r="X5" s="82"/>
+      <c r="Y5" s="82"/>
+      <c r="Z5" s="82"/>
+      <c r="AA5" s="82"/>
+      <c r="AB5" s="82"/>
+      <c r="AC5" s="82"/>
+      <c r="AD5" s="82"/>
+      <c r="AE5" s="82"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1542,17 +1542,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="87" t="s">
+      <c r="A6" s="51" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="87" t="s">
+      <c r="B6" s="51" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="87"/>
-      <c r="D6" s="87" t="s">
+      <c r="C6" s="51"/>
+      <c r="D6" s="51" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="87" t="s">
+      <c r="E6" s="51" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1561,261 +1561,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="87" t="s">
+      <c r="H6" s="51" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="87" t="s">
+      <c r="I6" s="51" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="82" t="s">
+      <c r="J6" s="78" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="83"/>
-      <c r="L6" s="83"/>
-      <c r="M6" s="83"/>
-      <c r="N6" s="83"/>
-      <c r="O6" s="83"/>
-      <c r="P6" s="83"/>
-      <c r="Q6" s="83"/>
-      <c r="R6" s="83"/>
-      <c r="S6" s="83"/>
-      <c r="T6" s="83"/>
-      <c r="U6" s="83"/>
-      <c r="V6" s="83"/>
-      <c r="W6" s="83"/>
-      <c r="X6" s="83"/>
-      <c r="Y6" s="83"/>
-      <c r="Z6" s="83"/>
-      <c r="AA6" s="83"/>
-      <c r="AB6" s="83"/>
-      <c r="AC6" s="83"/>
-      <c r="AD6" s="83"/>
-      <c r="AE6" s="83"/>
-      <c r="AF6" s="83"/>
-      <c r="AG6" s="84"/>
-      <c r="AH6" s="88" t="s">
+      <c r="K6" s="79"/>
+      <c r="L6" s="79"/>
+      <c r="M6" s="79"/>
+      <c r="N6" s="79"/>
+      <c r="O6" s="79"/>
+      <c r="P6" s="79"/>
+      <c r="Q6" s="79"/>
+      <c r="R6" s="79"/>
+      <c r="S6" s="79"/>
+      <c r="T6" s="79"/>
+      <c r="U6" s="79"/>
+      <c r="V6" s="79"/>
+      <c r="W6" s="79"/>
+      <c r="X6" s="79"/>
+      <c r="Y6" s="79"/>
+      <c r="Z6" s="79"/>
+      <c r="AA6" s="79"/>
+      <c r="AB6" s="79"/>
+      <c r="AC6" s="79"/>
+      <c r="AD6" s="79"/>
+      <c r="AE6" s="79"/>
+      <c r="AF6" s="79"/>
+      <c r="AG6" s="80"/>
+      <c r="AH6" s="52" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="89"/>
-      <c r="AJ6" s="89"/>
-      <c r="AK6" s="89"/>
-      <c r="AL6" s="89"/>
-      <c r="AM6" s="89"/>
-      <c r="AN6" s="89"/>
-      <c r="AO6" s="89"/>
-      <c r="AP6" s="89"/>
-      <c r="AQ6" s="89"/>
-      <c r="AR6" s="89"/>
-      <c r="AS6" s="89"/>
-      <c r="AT6" s="89"/>
-      <c r="AU6" s="89"/>
-      <c r="AV6" s="89"/>
-      <c r="AW6" s="89"/>
-      <c r="AX6" s="89"/>
-      <c r="AY6" s="89"/>
-      <c r="AZ6" s="89"/>
-      <c r="BA6" s="89"/>
-      <c r="BB6" s="89"/>
-      <c r="BC6" s="89"/>
-      <c r="BD6" s="89"/>
-      <c r="BE6" s="89"/>
-      <c r="BF6" s="89"/>
-      <c r="BG6" s="89"/>
-      <c r="BH6" s="89"/>
-      <c r="BI6" s="89"/>
-      <c r="BJ6" s="89"/>
-      <c r="BK6" s="89"/>
-      <c r="BL6" s="89"/>
-      <c r="BM6" s="89"/>
-      <c r="BN6" s="89"/>
-      <c r="BO6" s="89"/>
-      <c r="BP6" s="89"/>
-      <c r="BQ6" s="89"/>
-      <c r="BR6" s="89"/>
-      <c r="BS6" s="89"/>
-      <c r="BT6" s="89"/>
-      <c r="BU6" s="89"/>
-      <c r="BV6" s="89"/>
-      <c r="BW6" s="89"/>
-      <c r="BX6" s="89"/>
-      <c r="BY6" s="89"/>
-      <c r="BZ6" s="89"/>
-      <c r="CA6" s="89"/>
-      <c r="CB6" s="89"/>
-      <c r="CC6" s="89"/>
-      <c r="CD6" s="89"/>
-      <c r="CE6" s="89"/>
-      <c r="CF6" s="89"/>
-      <c r="CG6" s="89"/>
-      <c r="CH6" s="89"/>
-      <c r="CI6" s="89"/>
-      <c r="CJ6" s="89"/>
-      <c r="CK6" s="89"/>
-      <c r="CL6" s="89"/>
-      <c r="CM6" s="89"/>
-      <c r="CN6" s="89"/>
-      <c r="CO6" s="89"/>
-      <c r="CP6" s="89"/>
-      <c r="CQ6" s="89"/>
-      <c r="CR6" s="89"/>
-      <c r="CS6" s="89"/>
-      <c r="CT6" s="89"/>
-      <c r="CU6" s="89"/>
-      <c r="CV6" s="89"/>
-      <c r="CW6" s="89"/>
-      <c r="CX6" s="89"/>
-      <c r="CY6" s="89"/>
-      <c r="CZ6" s="89"/>
-      <c r="DA6" s="89"/>
-      <c r="DB6" s="89"/>
-      <c r="DC6" s="89"/>
-      <c r="DD6" s="89"/>
-      <c r="DE6" s="89"/>
-      <c r="DF6" s="89"/>
-      <c r="DG6" s="89"/>
-      <c r="DH6" s="89"/>
-      <c r="DI6" s="89"/>
-      <c r="DJ6" s="89"/>
-      <c r="DK6" s="89"/>
-      <c r="DL6" s="89"/>
-      <c r="DM6" s="89"/>
-      <c r="DN6" s="89"/>
-      <c r="DO6" s="89"/>
-      <c r="DP6" s="89"/>
-      <c r="DQ6" s="89"/>
-      <c r="DR6" s="89"/>
-      <c r="DS6" s="89"/>
-      <c r="DT6" s="89"/>
-      <c r="DU6" s="89"/>
-      <c r="DV6" s="89"/>
-      <c r="DW6" s="89"/>
-      <c r="DX6" s="89"/>
-      <c r="DY6" s="89"/>
-      <c r="DZ6" s="89"/>
-      <c r="EA6" s="89"/>
-      <c r="EB6" s="89"/>
-      <c r="EC6" s="89"/>
-      <c r="ED6" s="89"/>
-      <c r="EE6" s="89"/>
-      <c r="EF6" s="89"/>
-      <c r="EG6" s="89"/>
-      <c r="EH6" s="89"/>
-      <c r="EI6" s="89"/>
-      <c r="EJ6" s="89"/>
-      <c r="EK6" s="89"/>
-      <c r="EL6" s="89"/>
-      <c r="EM6" s="89"/>
-      <c r="EN6" s="89"/>
-      <c r="EO6" s="89"/>
-      <c r="EP6" s="89"/>
-      <c r="EQ6" s="89"/>
-      <c r="ER6" s="89"/>
-      <c r="ES6" s="89"/>
-      <c r="ET6" s="89"/>
-      <c r="EU6" s="89"/>
-      <c r="EV6" s="89"/>
-      <c r="EW6" s="89"/>
-      <c r="EX6" s="89"/>
-      <c r="EY6" s="89"/>
-      <c r="EZ6" s="89"/>
-      <c r="FA6" s="89"/>
-      <c r="FB6" s="89"/>
-      <c r="FC6" s="89"/>
-      <c r="FD6" s="89"/>
-      <c r="FE6" s="89"/>
-      <c r="FF6" s="89"/>
-      <c r="FG6" s="89"/>
-      <c r="FH6" s="89"/>
-      <c r="FI6" s="89"/>
-      <c r="FJ6" s="89"/>
-      <c r="FK6" s="89"/>
-      <c r="FL6" s="89"/>
-      <c r="FM6" s="89"/>
-      <c r="FN6" s="89"/>
-      <c r="FO6" s="89"/>
-      <c r="FP6" s="89"/>
-      <c r="FQ6" s="89"/>
-      <c r="FR6" s="89"/>
-      <c r="FS6" s="89"/>
-      <c r="FT6" s="89"/>
-      <c r="FU6" s="89"/>
-      <c r="FV6" s="89"/>
-      <c r="FW6" s="89"/>
-      <c r="FX6" s="89"/>
-      <c r="FY6" s="89"/>
-      <c r="FZ6" s="89"/>
-      <c r="GA6" s="89"/>
-      <c r="GB6" s="89"/>
-      <c r="GC6" s="89"/>
-      <c r="GD6" s="89"/>
-      <c r="GE6" s="89"/>
-      <c r="GF6" s="89"/>
-      <c r="GG6" s="89"/>
-      <c r="GH6" s="89"/>
-      <c r="GI6" s="89"/>
-      <c r="GJ6" s="89"/>
-      <c r="GK6" s="89"/>
-      <c r="GL6" s="89"/>
-      <c r="GM6" s="89"/>
-      <c r="GN6" s="89"/>
-      <c r="GO6" s="89"/>
-      <c r="GP6" s="89"/>
-      <c r="GQ6" s="89"/>
-      <c r="GR6" s="89"/>
-      <c r="GS6" s="89"/>
-      <c r="GT6" s="89"/>
-      <c r="GU6" s="89"/>
-      <c r="GV6" s="89"/>
-      <c r="GW6" s="89"/>
-      <c r="GX6" s="89"/>
-      <c r="GY6" s="89"/>
-      <c r="GZ6" s="89"/>
-      <c r="HA6" s="89"/>
-      <c r="HB6" s="89"/>
-      <c r="HC6" s="89"/>
-      <c r="HD6" s="89"/>
-      <c r="HE6" s="89"/>
-      <c r="HF6" s="89"/>
-      <c r="HG6" s="89"/>
-      <c r="HH6" s="89"/>
-      <c r="HI6" s="89"/>
-      <c r="HJ6" s="89"/>
-      <c r="HK6" s="89"/>
-      <c r="HL6" s="89"/>
-      <c r="HM6" s="89"/>
-      <c r="HN6" s="89"/>
-      <c r="HO6" s="89"/>
-      <c r="HP6" s="89"/>
-      <c r="HQ6" s="89"/>
-      <c r="HR6" s="89"/>
-      <c r="HS6" s="89"/>
-      <c r="HT6" s="89"/>
-      <c r="HU6" s="89"/>
-      <c r="HV6" s="89"/>
-      <c r="HW6" s="89"/>
-      <c r="HX6" s="89"/>
-      <c r="HY6" s="89"/>
-      <c r="HZ6" s="89"/>
-      <c r="IA6" s="89"/>
-      <c r="IB6" s="89"/>
-      <c r="IC6" s="89"/>
-      <c r="ID6" s="89"/>
-      <c r="IE6" s="90"/>
+      <c r="AI6" s="53"/>
+      <c r="AJ6" s="53"/>
+      <c r="AK6" s="53"/>
+      <c r="AL6" s="53"/>
+      <c r="AM6" s="53"/>
+      <c r="AN6" s="53"/>
+      <c r="AO6" s="53"/>
+      <c r="AP6" s="53"/>
+      <c r="AQ6" s="53"/>
+      <c r="AR6" s="53"/>
+      <c r="AS6" s="53"/>
+      <c r="AT6" s="53"/>
+      <c r="AU6" s="53"/>
+      <c r="AV6" s="53"/>
+      <c r="AW6" s="53"/>
+      <c r="AX6" s="53"/>
+      <c r="AY6" s="53"/>
+      <c r="AZ6" s="53"/>
+      <c r="BA6" s="53"/>
+      <c r="BB6" s="53"/>
+      <c r="BC6" s="53"/>
+      <c r="BD6" s="53"/>
+      <c r="BE6" s="53"/>
+      <c r="BF6" s="53"/>
+      <c r="BG6" s="53"/>
+      <c r="BH6" s="53"/>
+      <c r="BI6" s="53"/>
+      <c r="BJ6" s="53"/>
+      <c r="BK6" s="53"/>
+      <c r="BL6" s="53"/>
+      <c r="BM6" s="53"/>
+      <c r="BN6" s="53"/>
+      <c r="BO6" s="53"/>
+      <c r="BP6" s="53"/>
+      <c r="BQ6" s="53"/>
+      <c r="BR6" s="53"/>
+      <c r="BS6" s="53"/>
+      <c r="BT6" s="53"/>
+      <c r="BU6" s="53"/>
+      <c r="BV6" s="53"/>
+      <c r="BW6" s="53"/>
+      <c r="BX6" s="53"/>
+      <c r="BY6" s="53"/>
+      <c r="BZ6" s="53"/>
+      <c r="CA6" s="53"/>
+      <c r="CB6" s="53"/>
+      <c r="CC6" s="53"/>
+      <c r="CD6" s="53"/>
+      <c r="CE6" s="53"/>
+      <c r="CF6" s="53"/>
+      <c r="CG6" s="53"/>
+      <c r="CH6" s="53"/>
+      <c r="CI6" s="53"/>
+      <c r="CJ6" s="53"/>
+      <c r="CK6" s="53"/>
+      <c r="CL6" s="53"/>
+      <c r="CM6" s="53"/>
+      <c r="CN6" s="53"/>
+      <c r="CO6" s="53"/>
+      <c r="CP6" s="53"/>
+      <c r="CQ6" s="53"/>
+      <c r="CR6" s="53"/>
+      <c r="CS6" s="53"/>
+      <c r="CT6" s="53"/>
+      <c r="CU6" s="53"/>
+      <c r="CV6" s="53"/>
+      <c r="CW6" s="53"/>
+      <c r="CX6" s="53"/>
+      <c r="CY6" s="53"/>
+      <c r="CZ6" s="53"/>
+      <c r="DA6" s="53"/>
+      <c r="DB6" s="53"/>
+      <c r="DC6" s="53"/>
+      <c r="DD6" s="53"/>
+      <c r="DE6" s="53"/>
+      <c r="DF6" s="53"/>
+      <c r="DG6" s="53"/>
+      <c r="DH6" s="53"/>
+      <c r="DI6" s="53"/>
+      <c r="DJ6" s="53"/>
+      <c r="DK6" s="53"/>
+      <c r="DL6" s="53"/>
+      <c r="DM6" s="53"/>
+      <c r="DN6" s="53"/>
+      <c r="DO6" s="53"/>
+      <c r="DP6" s="53"/>
+      <c r="DQ6" s="53"/>
+      <c r="DR6" s="53"/>
+      <c r="DS6" s="53"/>
+      <c r="DT6" s="53"/>
+      <c r="DU6" s="53"/>
+      <c r="DV6" s="53"/>
+      <c r="DW6" s="53"/>
+      <c r="DX6" s="53"/>
+      <c r="DY6" s="53"/>
+      <c r="DZ6" s="53"/>
+      <c r="EA6" s="53"/>
+      <c r="EB6" s="53"/>
+      <c r="EC6" s="53"/>
+      <c r="ED6" s="53"/>
+      <c r="EE6" s="53"/>
+      <c r="EF6" s="53"/>
+      <c r="EG6" s="53"/>
+      <c r="EH6" s="53"/>
+      <c r="EI6" s="53"/>
+      <c r="EJ6" s="53"/>
+      <c r="EK6" s="53"/>
+      <c r="EL6" s="53"/>
+      <c r="EM6" s="53"/>
+      <c r="EN6" s="53"/>
+      <c r="EO6" s="53"/>
+      <c r="EP6" s="53"/>
+      <c r="EQ6" s="53"/>
+      <c r="ER6" s="53"/>
+      <c r="ES6" s="53"/>
+      <c r="ET6" s="53"/>
+      <c r="EU6" s="53"/>
+      <c r="EV6" s="53"/>
+      <c r="EW6" s="53"/>
+      <c r="EX6" s="53"/>
+      <c r="EY6" s="53"/>
+      <c r="EZ6" s="53"/>
+      <c r="FA6" s="53"/>
+      <c r="FB6" s="53"/>
+      <c r="FC6" s="53"/>
+      <c r="FD6" s="53"/>
+      <c r="FE6" s="53"/>
+      <c r="FF6" s="53"/>
+      <c r="FG6" s="53"/>
+      <c r="FH6" s="53"/>
+      <c r="FI6" s="53"/>
+      <c r="FJ6" s="53"/>
+      <c r="FK6" s="53"/>
+      <c r="FL6" s="53"/>
+      <c r="FM6" s="53"/>
+      <c r="FN6" s="53"/>
+      <c r="FO6" s="53"/>
+      <c r="FP6" s="53"/>
+      <c r="FQ6" s="53"/>
+      <c r="FR6" s="53"/>
+      <c r="FS6" s="53"/>
+      <c r="FT6" s="53"/>
+      <c r="FU6" s="53"/>
+      <c r="FV6" s="53"/>
+      <c r="FW6" s="53"/>
+      <c r="FX6" s="53"/>
+      <c r="FY6" s="53"/>
+      <c r="FZ6" s="53"/>
+      <c r="GA6" s="53"/>
+      <c r="GB6" s="53"/>
+      <c r="GC6" s="53"/>
+      <c r="GD6" s="53"/>
+      <c r="GE6" s="53"/>
+      <c r="GF6" s="53"/>
+      <c r="GG6" s="53"/>
+      <c r="GH6" s="53"/>
+      <c r="GI6" s="53"/>
+      <c r="GJ6" s="53"/>
+      <c r="GK6" s="53"/>
+      <c r="GL6" s="53"/>
+      <c r="GM6" s="53"/>
+      <c r="GN6" s="53"/>
+      <c r="GO6" s="53"/>
+      <c r="GP6" s="53"/>
+      <c r="GQ6" s="53"/>
+      <c r="GR6" s="53"/>
+      <c r="GS6" s="53"/>
+      <c r="GT6" s="53"/>
+      <c r="GU6" s="53"/>
+      <c r="GV6" s="53"/>
+      <c r="GW6" s="53"/>
+      <c r="GX6" s="53"/>
+      <c r="GY6" s="53"/>
+      <c r="GZ6" s="53"/>
+      <c r="HA6" s="53"/>
+      <c r="HB6" s="53"/>
+      <c r="HC6" s="53"/>
+      <c r="HD6" s="53"/>
+      <c r="HE6" s="53"/>
+      <c r="HF6" s="53"/>
+      <c r="HG6" s="53"/>
+      <c r="HH6" s="53"/>
+      <c r="HI6" s="53"/>
+      <c r="HJ6" s="53"/>
+      <c r="HK6" s="53"/>
+      <c r="HL6" s="53"/>
+      <c r="HM6" s="53"/>
+      <c r="HN6" s="53"/>
+      <c r="HO6" s="53"/>
+      <c r="HP6" s="53"/>
+      <c r="HQ6" s="53"/>
+      <c r="HR6" s="53"/>
+      <c r="HS6" s="53"/>
+      <c r="HT6" s="53"/>
+      <c r="HU6" s="53"/>
+      <c r="HV6" s="53"/>
+      <c r="HW6" s="53"/>
+      <c r="HX6" s="53"/>
+      <c r="HY6" s="53"/>
+      <c r="HZ6" s="53"/>
+      <c r="IA6" s="53"/>
+      <c r="IB6" s="53"/>
+      <c r="IC6" s="53"/>
+      <c r="ID6" s="53"/>
+      <c r="IE6" s="54"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="87"/>
-      <c r="B7" s="87"/>
-      <c r="C7" s="87"/>
-      <c r="D7" s="87"/>
-      <c r="E7" s="87"/>
+      <c r="A7" s="51"/>
+      <c r="B7" s="51"/>
+      <c r="C7" s="51"/>
+      <c r="D7" s="51"/>
+      <c r="E7" s="51"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="87"/>
-      <c r="I7" s="87"/>
+      <c r="H7" s="51"/>
+      <c r="I7" s="51"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1983,17 +1983,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="51">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="85" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="51" t="s">
+      <c r="C8" s="86"/>
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="51" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2002,10 +2002,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="57">
         <v>1</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2254,19 +2254,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="51"/>
-      <c r="B9" s="62"/>
-      <c r="C9" s="63"/>
-      <c r="D9" s="51"/>
-      <c r="E9" s="51"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="87"/>
+      <c r="C9" s="88"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="57"/>
+      <c r="I9" s="58"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2513,15 +2513,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="51">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="62"/>
-      <c r="C10" s="63"/>
-      <c r="D10" s="51" t="s">
+      <c r="B10" s="87"/>
+      <c r="C10" s="88"/>
+      <c r="D10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="51" t="s">
+      <c r="E10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2530,10 +2530,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="57">
         <v>1</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2774,19 +2774,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="51"/>
-      <c r="B11" s="62"/>
-      <c r="C11" s="63"/>
-      <c r="D11" s="51"/>
-      <c r="E11" s="51"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="87"/>
+      <c r="C11" s="88"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="57"/>
+      <c r="I11" s="58"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3025,15 +3025,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="51">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="62"/>
-      <c r="C12" s="63"/>
-      <c r="D12" s="51" t="s">
+      <c r="B12" s="87"/>
+      <c r="C12" s="88"/>
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="51" t="s">
+      <c r="E12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3042,10 +3042,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="57">
         <v>1</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3286,19 +3286,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="51"/>
-      <c r="B13" s="62"/>
-      <c r="C13" s="63"/>
-      <c r="D13" s="51"/>
-      <c r="E13" s="51"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="87"/>
+      <c r="C13" s="88"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="57"/>
+      <c r="I13" s="58"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3537,15 +3537,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="51">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
-      <c r="B14" s="62"/>
-      <c r="C14" s="63"/>
-      <c r="D14" s="51" t="s">
+      <c r="B14" s="87"/>
+      <c r="C14" s="88"/>
+      <c r="D14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="51" t="s">
+      <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3554,10 +3554,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="57">
         <v>1</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3798,19 +3798,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="51"/>
-      <c r="B15" s="62"/>
-      <c r="C15" s="63"/>
-      <c r="D15" s="51"/>
-      <c r="E15" s="91"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="87"/>
+      <c r="C15" s="88"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="56"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="57"/>
+      <c r="I15" s="58"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4049,15 +4049,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="51">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="62"/>
-      <c r="C16" s="63"/>
-      <c r="D16" s="51" t="s">
+      <c r="B16" s="87"/>
+      <c r="C16" s="88"/>
+      <c r="D16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="51" t="s">
+      <c r="E16" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4066,10 +4066,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="57">
         <v>1</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4308,19 +4308,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="51"/>
-      <c r="B17" s="62"/>
-      <c r="C17" s="63"/>
-      <c r="D17" s="51"/>
-      <c r="E17" s="91"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="87"/>
+      <c r="C17" s="88"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="56"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="57"/>
+      <c r="I17" s="58"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4557,15 +4557,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="51">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B18" s="62"/>
-      <c r="C18" s="63"/>
-      <c r="D18" s="51" t="s">
+      <c r="B18" s="87"/>
+      <c r="C18" s="88"/>
+      <c r="D18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="51" t="s">
+      <c r="E18" s="55" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4574,10 +4574,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="57">
         <v>1</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="57" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4816,19 +4816,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="51"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="51"/>
-      <c r="E19" s="91"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="89"/>
+      <c r="C19" s="90"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="56"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="57"/>
+      <c r="I19" s="58"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5065,17 +5065,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="51">
+      <c r="A20" s="55">
         <v>9</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="85" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="86"/>
+      <c r="D20" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5084,8 +5084,8 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="60"/>
-      <c r="I20" s="60"/>
+      <c r="H20" s="83"/>
+      <c r="I20" s="83"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5324,15 +5324,15 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="51"/>
-      <c r="B21" s="62"/>
-      <c r="C21" s="63"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="87"/>
+      <c r="C21" s="88"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="30"/>
       <c r="G21" s="30"/>
-      <c r="H21" s="61"/>
-      <c r="I21" s="61"/>
+      <c r="H21" s="84"/>
+      <c r="I21" s="84"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5565,15 +5565,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="51">
+      <c r="A22" s="55">
         <v>10</v>
       </c>
-      <c r="B22" s="62"/>
-      <c r="C22" s="63"/>
-      <c r="D22" s="54" t="s">
+      <c r="B22" s="87"/>
+      <c r="C22" s="88"/>
+      <c r="D22" s="60" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5582,8 +5582,8 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="60"/>
-      <c r="I22" s="60"/>
+      <c r="H22" s="83"/>
+      <c r="I22" s="83"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5820,15 +5820,15 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="51"/>
-      <c r="B23" s="62"/>
-      <c r="C23" s="63"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="87"/>
+      <c r="C23" s="88"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="30"/>
       <c r="G23" s="30"/>
-      <c r="H23" s="61"/>
-      <c r="I23" s="61"/>
+      <c r="H23" s="84"/>
+      <c r="I23" s="84"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6061,15 +6061,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="51">
+      <c r="A24" s="55">
         <v>11</v>
       </c>
-      <c r="B24" s="62"/>
-      <c r="C24" s="63"/>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="87"/>
+      <c r="C24" s="88"/>
+      <c r="D24" s="60" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6078,8 +6078,8 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="60"/>
-      <c r="I24" s="60"/>
+      <c r="H24" s="83"/>
+      <c r="I24" s="83"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6316,15 +6316,15 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.2">
-      <c r="A25" s="51"/>
-      <c r="B25" s="62"/>
-      <c r="C25" s="63"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="87"/>
+      <c r="C25" s="88"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30"/>
       <c r="G25" s="30"/>
-      <c r="H25" s="61"/>
-      <c r="I25" s="61"/>
+      <c r="H25" s="84"/>
+      <c r="I25" s="84"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6557,15 +6557,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="51">
+      <c r="A26" s="55">
         <v>12</v>
       </c>
-      <c r="B26" s="62"/>
-      <c r="C26" s="63"/>
-      <c r="D26" s="54" t="s">
+      <c r="B26" s="87"/>
+      <c r="C26" s="88"/>
+      <c r="D26" s="60" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6574,8 +6574,8 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="60"/>
-      <c r="I26" s="60"/>
+      <c r="H26" s="83"/>
+      <c r="I26" s="83"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6812,15 +6812,15 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.2">
-      <c r="A27" s="51"/>
-      <c r="B27" s="62"/>
-      <c r="C27" s="63"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="87"/>
+      <c r="C27" s="88"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="30"/>
       <c r="G27" s="30"/>
-      <c r="H27" s="61"/>
-      <c r="I27" s="61"/>
+      <c r="H27" s="84"/>
+      <c r="I27" s="84"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7053,15 +7053,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="51">
+      <c r="A28" s="55">
         <v>13</v>
       </c>
-      <c r="B28" s="62"/>
-      <c r="C28" s="63"/>
-      <c r="D28" s="54" t="s">
+      <c r="B28" s="87"/>
+      <c r="C28" s="88"/>
+      <c r="D28" s="60" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7070,8 +7070,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="60"/>
-      <c r="I28" s="60"/>
+      <c r="H28" s="83"/>
+      <c r="I28" s="83"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7308,15 +7308,15 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="51"/>
-      <c r="B29" s="62"/>
-      <c r="C29" s="63"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="87"/>
+      <c r="C29" s="88"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="30"/>
       <c r="G29" s="30"/>
-      <c r="H29" s="61"/>
-      <c r="I29" s="61"/>
+      <c r="H29" s="84"/>
+      <c r="I29" s="84"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7549,15 +7549,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="51">
+      <c r="A30" s="55">
         <v>14</v>
       </c>
-      <c r="B30" s="62"/>
-      <c r="C30" s="63"/>
-      <c r="D30" s="54" t="s">
+      <c r="B30" s="87"/>
+      <c r="C30" s="88"/>
+      <c r="D30" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7566,8 +7566,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="60"/>
-      <c r="I30" s="60"/>
+      <c r="H30" s="83"/>
+      <c r="I30" s="83"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7804,15 +7804,15 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="51"/>
-      <c r="B31" s="62"/>
-      <c r="C31" s="63"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="87"/>
+      <c r="C31" s="88"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="30"/>
       <c r="G31" s="30"/>
-      <c r="H31" s="61"/>
-      <c r="I31" s="61"/>
+      <c r="H31" s="84"/>
+      <c r="I31" s="84"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8045,15 +8045,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="51">
+      <c r="A32" s="55">
         <v>15</v>
       </c>
-      <c r="B32" s="62"/>
-      <c r="C32" s="63"/>
-      <c r="D32" s="54" t="s">
+      <c r="B32" s="87"/>
+      <c r="C32" s="88"/>
+      <c r="D32" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8062,8 +8062,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="60"/>
-      <c r="I32" s="60"/>
+      <c r="H32" s="83"/>
+      <c r="I32" s="83"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8300,15 +8300,15 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="51"/>
-      <c r="B33" s="62"/>
-      <c r="C33" s="63"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="87"/>
+      <c r="C33" s="88"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="30"/>
       <c r="G33" s="30"/>
-      <c r="H33" s="61"/>
-      <c r="I33" s="61"/>
+      <c r="H33" s="84"/>
+      <c r="I33" s="84"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8541,15 +8541,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="51">
+      <c r="A34" s="55">
         <v>16</v>
       </c>
-      <c r="B34" s="62"/>
-      <c r="C34" s="63"/>
-      <c r="D34" s="54" t="s">
+      <c r="B34" s="87"/>
+      <c r="C34" s="88"/>
+      <c r="D34" s="60" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8558,8 +8558,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="60"/>
-      <c r="I34" s="60"/>
+      <c r="H34" s="83"/>
+      <c r="I34" s="83"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8796,15 +8796,15 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="51"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="89"/>
+      <c r="C35" s="90"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="30"/>
       <c r="G35" s="30"/>
-      <c r="H35" s="61"/>
-      <c r="I35" s="61"/>
+      <c r="H35" s="84"/>
+      <c r="I35" s="84"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9037,17 +9037,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="51">
+      <c r="A36" s="55">
         <v>17</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="85" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="51" t="s">
+      <c r="C36" s="86"/>
+      <c r="D36" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="54" t="s">
+      <c r="E36" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9056,8 +9056,8 @@
       <c r="G36" s="8">
         <v>42832</v>
       </c>
-      <c r="H36" s="60"/>
-      <c r="I36" s="60"/>
+      <c r="H36" s="83"/>
+      <c r="I36" s="83"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9302,15 +9302,15 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="51"/>
-      <c r="B37" s="62"/>
-      <c r="C37" s="63"/>
-      <c r="D37" s="51"/>
-      <c r="E37" s="55"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="87"/>
+      <c r="C37" s="88"/>
+      <c r="D37" s="55"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="61"/>
-      <c r="I37" s="61"/>
+      <c r="H37" s="84"/>
+      <c r="I37" s="84"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9543,15 +9543,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="51">
+      <c r="A38" s="55">
         <v>18</v>
       </c>
-      <c r="B38" s="62"/>
-      <c r="C38" s="63"/>
-      <c r="D38" s="54" t="s">
+      <c r="B38" s="87"/>
+      <c r="C38" s="88"/>
+      <c r="D38" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E38" s="54" t="s">
+      <c r="E38" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9560,8 +9560,8 @@
       <c r="G38" s="8">
         <v>42824</v>
       </c>
-      <c r="H38" s="60"/>
-      <c r="I38" s="60"/>
+      <c r="H38" s="83"/>
+      <c r="I38" s="83"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9814,15 +9814,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="51"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="89"/>
+      <c r="C39" s="90"/>
+      <c r="D39" s="61"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="61"/>
-      <c r="I39" s="61"/>
+      <c r="H39" s="84"/>
+      <c r="I39" s="84"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10055,17 +10055,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="51">
+      <c r="A40" s="55">
         <v>19</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="85" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="54" t="s">
+      <c r="C40" s="86"/>
+      <c r="D40" s="60" t="s">
         <v>69</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10074,8 +10074,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="60"/>
-      <c r="I40" s="60"/>
+      <c r="H40" s="83"/>
+      <c r="I40" s="83"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10328,15 +10328,15 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="51"/>
-      <c r="B41" s="62"/>
-      <c r="C41" s="63"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="87"/>
+      <c r="C41" s="88"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="8"/>
       <c r="G41" s="8"/>
-      <c r="H41" s="61"/>
-      <c r="I41" s="61"/>
+      <c r="H41" s="84"/>
+      <c r="I41" s="84"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10356,7 +10356,9 @@
       <c r="X41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Y41" s="13"/>
+      <c r="Y41" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="Z41" s="12"/>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
@@ -10573,15 +10575,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="51">
+      <c r="A42" s="55">
         <v>20</v>
       </c>
-      <c r="B42" s="62"/>
-      <c r="C42" s="63"/>
-      <c r="D42" s="51" t="s">
+      <c r="B42" s="87"/>
+      <c r="C42" s="88"/>
+      <c r="D42" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10590,8 +10592,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="64"/>
-      <c r="I42" s="60"/>
+      <c r="H42" s="91"/>
+      <c r="I42" s="83"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10840,15 +10842,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="51"/>
-      <c r="B43" s="62"/>
-      <c r="C43" s="63"/>
-      <c r="D43" s="51"/>
-      <c r="E43" s="55"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="87"/>
+      <c r="C43" s="88"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="65"/>
-      <c r="I43" s="61"/>
+      <c r="H43" s="92"/>
+      <c r="I43" s="84"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11081,15 +11083,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="51">
+      <c r="A44" s="55">
         <v>21</v>
       </c>
-      <c r="B44" s="62"/>
-      <c r="C44" s="63"/>
-      <c r="D44" s="51" t="s">
+      <c r="B44" s="87"/>
+      <c r="C44" s="88"/>
+      <c r="D44" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11098,8 +11100,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="64"/>
-      <c r="I44" s="60"/>
+      <c r="H44" s="91"/>
+      <c r="I44" s="83"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11336,15 +11338,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="51"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="51"/>
-      <c r="E45" s="55"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="89"/>
+      <c r="C45" s="90"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="65"/>
-      <c r="I45" s="61"/>
+      <c r="H45" s="92"/>
+      <c r="I45" s="84"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11577,17 +11579,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="51">
+      <c r="A46" s="55">
         <v>22</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="85" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="51" t="s">
+      <c r="C46" s="86"/>
+      <c r="D46" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="54" t="s">
+      <c r="E46" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11596,8 +11598,8 @@
       <c r="G46" s="8">
         <v>42823</v>
       </c>
-      <c r="H46" s="60"/>
-      <c r="I46" s="60"/>
+      <c r="H46" s="83"/>
+      <c r="I46" s="83"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -11836,15 +11838,15 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="51"/>
-      <c r="B47" s="62"/>
-      <c r="C47" s="63"/>
-      <c r="D47" s="51"/>
-      <c r="E47" s="55"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="87"/>
+      <c r="C47" s="88"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="61"/>
-      <c r="I47" s="61"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="84"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12077,15 +12079,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="51">
+      <c r="A48" s="55">
         <v>23</v>
       </c>
-      <c r="B48" s="62"/>
-      <c r="C48" s="63"/>
-      <c r="D48" s="51" t="s">
+      <c r="B48" s="87"/>
+      <c r="C48" s="88"/>
+      <c r="D48" s="55" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12094,8 +12096,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="60"/>
-      <c r="I48" s="60"/>
+      <c r="H48" s="83"/>
+      <c r="I48" s="83"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12336,15 +12338,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="51"/>
-      <c r="B49" s="62"/>
-      <c r="C49" s="63"/>
-      <c r="D49" s="51"/>
-      <c r="E49" s="55"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="87"/>
+      <c r="C49" s="88"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="61"/>
-      <c r="I49" s="61"/>
+      <c r="H49" s="84"/>
+      <c r="I49" s="84"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12577,15 +12579,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="51">
+      <c r="A50" s="55">
         <v>23</v>
       </c>
-      <c r="B50" s="62"/>
-      <c r="C50" s="63"/>
-      <c r="D50" s="51" t="s">
+      <c r="B50" s="87"/>
+      <c r="C50" s="88"/>
+      <c r="D50" s="55" t="s">
         <v>71</v>
       </c>
-      <c r="E50" s="54" t="s">
+      <c r="E50" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12594,8 +12596,8 @@
       <c r="G50" s="8">
         <v>42815</v>
       </c>
-      <c r="H50" s="60"/>
-      <c r="I50" s="60"/>
+      <c r="H50" s="83"/>
+      <c r="I50" s="83"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12834,15 +12836,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="51"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="51"/>
-      <c r="E51" s="55"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="89"/>
+      <c r="C51" s="90"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="61"/>
-      <c r="I51" s="61"/>
+      <c r="H51" s="84"/>
+      <c r="I51" s="84"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13075,17 +13077,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="51">
+      <c r="A52" s="55">
         <v>24</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="85" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="51" t="s">
+      <c r="C52" s="86"/>
+      <c r="D52" s="55" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13094,8 +13096,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="60"/>
-      <c r="I52" s="60"/>
+      <c r="H52" s="83"/>
+      <c r="I52" s="83"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13350,15 +13352,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="51"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="51"/>
-      <c r="E53" s="55"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="89"/>
+      <c r="C53" s="90"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="61"/>
-      <c r="I53" s="61"/>
+      <c r="H53" s="84"/>
+      <c r="I53" s="84"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13591,17 +13593,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="51">
+      <c r="A54" s="55">
         <v>25</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="85" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="54" t="s">
+      <c r="C54" s="86"/>
+      <c r="D54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13610,8 +13612,8 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="60"/>
-      <c r="I54" s="60"/>
+      <c r="H54" s="83"/>
+      <c r="I54" s="83"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13848,15 +13850,15 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="51"/>
-      <c r="B55" s="62"/>
-      <c r="C55" s="63"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="87"/>
+      <c r="C55" s="88"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="30"/>
       <c r="G55" s="30"/>
-      <c r="H55" s="61"/>
-      <c r="I55" s="61"/>
+      <c r="H55" s="84"/>
+      <c r="I55" s="84"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14089,15 +14091,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="51">
+      <c r="A56" s="55">
         <v>26</v>
       </c>
-      <c r="B56" s="62"/>
-      <c r="C56" s="63"/>
-      <c r="D56" s="51" t="s">
+      <c r="B56" s="87"/>
+      <c r="C56" s="88"/>
+      <c r="D56" s="55" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="51" t="s">
+      <c r="E56" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14106,8 +14108,8 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="57"/>
+      <c r="I56" s="57"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14344,15 +14346,15 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="51"/>
-      <c r="B57" s="62"/>
-      <c r="C57" s="63"/>
-      <c r="D57" s="51"/>
-      <c r="E57" s="51"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="87"/>
+      <c r="C57" s="88"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="30"/>
       <c r="G57" s="30"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="53"/>
+      <c r="H57" s="57"/>
+      <c r="I57" s="58"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14585,15 +14587,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="51">
+      <c r="A58" s="55">
         <v>27</v>
       </c>
-      <c r="B58" s="62"/>
-      <c r="C58" s="63"/>
-      <c r="D58" s="51" t="s">
+      <c r="B58" s="87"/>
+      <c r="C58" s="88"/>
+      <c r="D58" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="51" t="s">
+      <c r="E58" s="55" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="30">
@@ -14602,8 +14604,8 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
+      <c r="H58" s="57"/>
+      <c r="I58" s="57"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14840,15 +14842,15 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.2">
-      <c r="A59" s="51"/>
-      <c r="B59" s="62"/>
-      <c r="C59" s="63"/>
-      <c r="D59" s="51"/>
-      <c r="E59" s="51"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="87"/>
+      <c r="C59" s="88"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="30"/>
       <c r="G59" s="30"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="53"/>
+      <c r="H59" s="57"/>
+      <c r="I59" s="58"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15081,15 +15083,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.2">
-      <c r="A60" s="51">
+      <c r="A60" s="55">
         <v>28</v>
       </c>
-      <c r="B60" s="62"/>
-      <c r="C60" s="63"/>
-      <c r="D60" s="51" t="s">
+      <c r="B60" s="87"/>
+      <c r="C60" s="88"/>
+      <c r="D60" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="51" t="s">
+      <c r="E60" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15098,8 +15100,8 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="H60" s="57"/>
+      <c r="I60" s="57"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
@@ -15336,15 +15338,15 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.2">
-      <c r="A61" s="51"/>
-      <c r="B61" s="62"/>
-      <c r="C61" s="63"/>
-      <c r="D61" s="51"/>
-      <c r="E61" s="51"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="87"/>
+      <c r="C61" s="88"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="30"/>
       <c r="G61" s="30"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="53"/>
+      <c r="H61" s="57"/>
+      <c r="I61" s="58"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15577,15 +15579,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.2">
-      <c r="A62" s="51">
+      <c r="A62" s="55">
         <v>29</v>
       </c>
-      <c r="B62" s="62"/>
-      <c r="C62" s="63"/>
-      <c r="D62" s="51" t="s">
+      <c r="B62" s="87"/>
+      <c r="C62" s="88"/>
+      <c r="D62" s="55" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="51" t="s">
+      <c r="E62" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15594,8 +15596,8 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="H62" s="57"/>
+      <c r="I62" s="57"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -15832,15 +15834,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="51"/>
-      <c r="B63" s="62"/>
-      <c r="C63" s="63"/>
-      <c r="D63" s="51"/>
-      <c r="E63" s="51"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="87"/>
+      <c r="C63" s="88"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
+      <c r="H63" s="57"/>
+      <c r="I63" s="58"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16073,15 +16075,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="51">
+      <c r="A64" s="55">
         <v>30</v>
       </c>
-      <c r="B64" s="62"/>
-      <c r="C64" s="63"/>
-      <c r="D64" s="54" t="s">
+      <c r="B64" s="87"/>
+      <c r="C64" s="88"/>
+      <c r="D64" s="60" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="51" t="s">
+      <c r="E64" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16090,8 +16092,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="60"/>
-      <c r="I64" s="60"/>
+      <c r="H64" s="83"/>
+      <c r="I64" s="83"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16328,15 +16330,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="51"/>
-      <c r="B65" s="62"/>
-      <c r="C65" s="63"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="51"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="87"/>
+      <c r="C65" s="88"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="61"/>
-      <c r="I65" s="61"/>
+      <c r="H65" s="84"/>
+      <c r="I65" s="84"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16569,15 +16571,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="54">
+      <c r="A66" s="60">
         <v>31</v>
       </c>
-      <c r="B66" s="62"/>
-      <c r="C66" s="63"/>
-      <c r="D66" s="51" t="s">
+      <c r="B66" s="87"/>
+      <c r="C66" s="88"/>
+      <c r="D66" s="55" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="51" t="s">
+      <c r="E66" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16586,8 +16588,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="H66" s="57"/>
+      <c r="I66" s="57"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -16824,15 +16826,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="55"/>
-      <c r="B67" s="62"/>
-      <c r="C67" s="63"/>
-      <c r="D67" s="51"/>
-      <c r="E67" s="51"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="87"/>
+      <c r="C67" s="88"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
+      <c r="H67" s="57"/>
+      <c r="I67" s="58"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17065,15 +17067,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="54">
+      <c r="A68" s="60">
         <v>32</v>
       </c>
-      <c r="B68" s="62"/>
-      <c r="C68" s="63"/>
-      <c r="D68" s="51" t="s">
+      <c r="B68" s="87"/>
+      <c r="C68" s="88"/>
+      <c r="D68" s="55" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="51" t="s">
+      <c r="E68" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17082,8 +17084,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="H68" s="57"/>
+      <c r="I68" s="57"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17320,15 +17322,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="55"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="51"/>
-      <c r="E69" s="51"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="89"/>
+      <c r="C69" s="90"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
+      <c r="H69" s="57"/>
+      <c r="I69" s="58"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17560,81 +17562,81 @@
       <c r="ID69" s="13"/>
       <c r="IE69" s="13"/>
     </row>
-    <row r="70" spans="1:239"/>
-    <row r="71" spans="1:239">
-      <c r="A71" s="92" t="s">
+    <row r="70" spans="1:239" ht="409.6"/>
+    <row r="71" spans="1:239" ht="409.6">
+      <c r="A71" s="59" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="92"/>
-      <c r="C71" s="92"/>
-      <c r="D71" s="92"/>
-      <c r="E71" s="92"/>
-      <c r="F71" s="92"/>
-      <c r="G71" s="92"/>
-      <c r="H71" s="92"/>
-      <c r="I71" s="92"/>
-      <c r="J71" s="92"/>
-      <c r="K71" s="92"/>
-      <c r="L71" s="92"/>
-      <c r="M71" s="92"/>
-      <c r="N71" s="92"/>
-      <c r="O71" s="92"/>
-      <c r="P71" s="92"/>
-      <c r="Q71" s="92"/>
-      <c r="R71" s="92"/>
-      <c r="S71" s="92"/>
-      <c r="T71" s="92"/>
-      <c r="U71" s="92"/>
-      <c r="V71" s="92"/>
-      <c r="W71" s="92"/>
-      <c r="X71" s="92"/>
-      <c r="Y71" s="92"/>
-      <c r="Z71" s="92"/>
-      <c r="AA71" s="92"/>
-      <c r="AB71" s="92"/>
-      <c r="AC71" s="92"/>
-      <c r="AD71" s="92"/>
-      <c r="AE71" s="92"/>
+      <c r="B71" s="59"/>
+      <c r="C71" s="59"/>
+      <c r="D71" s="59"/>
+      <c r="E71" s="59"/>
+      <c r="F71" s="59"/>
+      <c r="G71" s="59"/>
+      <c r="H71" s="59"/>
+      <c r="I71" s="59"/>
+      <c r="J71" s="59"/>
+      <c r="K71" s="59"/>
+      <c r="L71" s="59"/>
+      <c r="M71" s="59"/>
+      <c r="N71" s="59"/>
+      <c r="O71" s="59"/>
+      <c r="P71" s="59"/>
+      <c r="Q71" s="59"/>
+      <c r="R71" s="59"/>
+      <c r="S71" s="59"/>
+      <c r="T71" s="59"/>
+      <c r="U71" s="59"/>
+      <c r="V71" s="59"/>
+      <c r="W71" s="59"/>
+      <c r="X71" s="59"/>
+      <c r="Y71" s="59"/>
+      <c r="Z71" s="59"/>
+      <c r="AA71" s="59"/>
+      <c r="AB71" s="59"/>
+      <c r="AC71" s="59"/>
+      <c r="AD71" s="59"/>
+      <c r="AE71" s="59"/>
     </row>
-    <row r="72" spans="1:239">
-      <c r="A72" s="92"/>
-      <c r="B72" s="92"/>
-      <c r="C72" s="92"/>
-      <c r="D72" s="92"/>
-      <c r="E72" s="92"/>
-      <c r="F72" s="92"/>
-      <c r="G72" s="92"/>
-      <c r="H72" s="92"/>
-      <c r="I72" s="92"/>
-      <c r="J72" s="92"/>
-      <c r="K72" s="92"/>
-      <c r="L72" s="92"/>
-      <c r="M72" s="92"/>
-      <c r="N72" s="92"/>
-      <c r="O72" s="92"/>
-      <c r="P72" s="92"/>
-      <c r="Q72" s="92"/>
-      <c r="R72" s="92"/>
-      <c r="S72" s="92"/>
-      <c r="T72" s="92"/>
-      <c r="U72" s="92"/>
-      <c r="V72" s="92"/>
-      <c r="W72" s="92"/>
-      <c r="X72" s="92"/>
-      <c r="Y72" s="92"/>
-      <c r="Z72" s="92"/>
-      <c r="AA72" s="92"/>
-      <c r="AB72" s="92"/>
-      <c r="AC72" s="92"/>
-      <c r="AD72" s="92"/>
-      <c r="AE72" s="92"/>
+    <row r="72" spans="1:239" ht="409.6">
+      <c r="A72" s="59"/>
+      <c r="B72" s="59"/>
+      <c r="C72" s="59"/>
+      <c r="D72" s="59"/>
+      <c r="E72" s="59"/>
+      <c r="F72" s="59"/>
+      <c r="G72" s="59"/>
+      <c r="H72" s="59"/>
+      <c r="I72" s="59"/>
+      <c r="J72" s="59"/>
+      <c r="K72" s="59"/>
+      <c r="L72" s="59"/>
+      <c r="M72" s="59"/>
+      <c r="N72" s="59"/>
+      <c r="O72" s="59"/>
+      <c r="P72" s="59"/>
+      <c r="Q72" s="59"/>
+      <c r="R72" s="59"/>
+      <c r="S72" s="59"/>
+      <c r="T72" s="59"/>
+      <c r="U72" s="59"/>
+      <c r="V72" s="59"/>
+      <c r="W72" s="59"/>
+      <c r="X72" s="59"/>
+      <c r="Y72" s="59"/>
+      <c r="Z72" s="59"/>
+      <c r="AA72" s="59"/>
+      <c r="AB72" s="59"/>
+      <c r="AC72" s="59"/>
+      <c r="AD72" s="59"/>
+      <c r="AE72" s="59"/>
     </row>
-    <row r="73" spans="1:239"/>
-    <row r="74" spans="1:239"/>
-    <row r="75" spans="1:239"/>
-    <row r="76" spans="1:239"/>
-    <row r="77" spans="1:239"/>
-    <row r="81" spans="1:239"/>
+    <row r="73" spans="1:239" ht="409.6"/>
+    <row r="74" spans="1:239" ht="409.6"/>
+    <row r="75" spans="1:239" ht="409.6"/>
+    <row r="76" spans="1:239" ht="409.6"/>
+    <row r="77" spans="1:239" ht="409.6"/>
+    <row r="81" spans="1:239" ht="409.6"/>
     <row r="82" spans="1:239" ht="409.6"/>
     <row r="83" spans="1:239" ht="409.6"/>
     <row r="84" spans="1:239" ht="409.6"/>
@@ -17665,6 +17667,163 @@
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="B54:C69"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="AH6:IE6"/>
     <mergeCell ref="E14:E15"/>
@@ -17689,163 +17848,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="B54:C69"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9303"/>
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="13140" windowHeight="5796" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="13140" windowHeight="5790" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="234" uniqueCount="72">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="74">
   <si>
     <t>No</t>
   </si>
@@ -292,15 +291,23 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>상품 관리 (등록)</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>상품 관리 (목록)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>회원 가입</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품 관리 (등록 및 수정)</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -638,7 +645,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="93">
+  <cellXfs count="94">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -786,23 +793,8 @@
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -810,14 +802,44 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -882,35 +904,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1284,253 +1294,253 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IE108"/>
+  <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="O37" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
-      <selection activeCell="R44" sqref="R44"/>
+    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+      <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.109375" defaultRowHeight="13.2"/>
+  <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
   <cols>
     <col min="1" max="1" width="4" style="5" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="4.5546875" style="5" customWidth="1"/>
-    <col min="3" max="3" width="13.6640625" style="5" customWidth="1"/>
-    <col min="4" max="4" width="16.33203125" style="5" customWidth="1"/>
+    <col min="2" max="2" width="4.5703125" style="5" customWidth="1"/>
+    <col min="3" max="3" width="13.7109375" style="5" customWidth="1"/>
+    <col min="4" max="4" width="16.28515625" style="5" customWidth="1"/>
     <col min="5" max="5" width="28" style="5" customWidth="1"/>
-    <col min="6" max="6" width="17.5546875" style="6" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="16.88671875" style="6" customWidth="1"/>
-    <col min="8" max="8" width="7.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="9.5546875" style="5" bestFit="1" customWidth="1"/>
-    <col min="10" max="14" width="5.6640625" style="5" customWidth="1"/>
-    <col min="15" max="16" width="5.5546875" style="7" customWidth="1"/>
-    <col min="17" max="40" width="5.5546875" style="1" customWidth="1"/>
-    <col min="41" max="45" width="5.6640625" style="1" customWidth="1"/>
+    <col min="6" max="6" width="17.5703125" style="6" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="16.85546875" style="6" customWidth="1"/>
+    <col min="8" max="8" width="7.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="9.5703125" style="5" bestFit="1" customWidth="1"/>
+    <col min="10" max="14" width="5.7109375" style="5" customWidth="1"/>
+    <col min="15" max="16" width="5.5703125" style="7" customWidth="1"/>
+    <col min="17" max="40" width="5.5703125" style="1" customWidth="1"/>
+    <col min="41" max="45" width="5.7109375" style="1" customWidth="1"/>
     <col min="46" max="223" width="0" style="1" hidden="1" customWidth="1"/>
-    <col min="224" max="239" width="5.5546875" style="2" customWidth="1"/>
-    <col min="240" max="16384" width="9.109375" style="2"/>
+    <col min="224" max="239" width="5.5703125" style="2" customWidth="1"/>
+    <col min="240" max="16384" width="9.140625" style="2"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="68" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="64" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
     </row>
-    <row r="4" spans="1:239" ht="21.15" customHeight="1">
-      <c r="A4" s="72" t="s">
+    <row r="4" spans="1:239" ht="21.2" customHeight="1">
+      <c r="A4" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="65" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="67"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="72"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1542,17 +1552,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1561,261 +1571,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="52" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="53"/>
-      <c r="CP6" s="53"/>
-      <c r="CQ6" s="53"/>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
-      <c r="CT6" s="53"/>
-      <c r="CU6" s="53"/>
-      <c r="CV6" s="53"/>
-      <c r="CW6" s="53"/>
-      <c r="CX6" s="53"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="53"/>
-      <c r="DA6" s="53"/>
-      <c r="DB6" s="53"/>
-      <c r="DC6" s="53"/>
-      <c r="DD6" s="53"/>
-      <c r="DE6" s="53"/>
-      <c r="DF6" s="53"/>
-      <c r="DG6" s="53"/>
-      <c r="DH6" s="53"/>
-      <c r="DI6" s="53"/>
-      <c r="DJ6" s="53"/>
-      <c r="DK6" s="53"/>
-      <c r="DL6" s="53"/>
-      <c r="DM6" s="53"/>
-      <c r="DN6" s="53"/>
-      <c r="DO6" s="53"/>
-      <c r="DP6" s="53"/>
-      <c r="DQ6" s="53"/>
-      <c r="DR6" s="53"/>
-      <c r="DS6" s="53"/>
-      <c r="DT6" s="53"/>
-      <c r="DU6" s="53"/>
-      <c r="DV6" s="53"/>
-      <c r="DW6" s="53"/>
-      <c r="DX6" s="53"/>
-      <c r="DY6" s="53"/>
-      <c r="DZ6" s="53"/>
-      <c r="EA6" s="53"/>
-      <c r="EB6" s="53"/>
-      <c r="EC6" s="53"/>
-      <c r="ED6" s="53"/>
-      <c r="EE6" s="53"/>
-      <c r="EF6" s="53"/>
-      <c r="EG6" s="53"/>
-      <c r="EH6" s="53"/>
-      <c r="EI6" s="53"/>
-      <c r="EJ6" s="53"/>
-      <c r="EK6" s="53"/>
-      <c r="EL6" s="53"/>
-      <c r="EM6" s="53"/>
-      <c r="EN6" s="53"/>
-      <c r="EO6" s="53"/>
-      <c r="EP6" s="53"/>
-      <c r="EQ6" s="53"/>
-      <c r="ER6" s="53"/>
-      <c r="ES6" s="53"/>
-      <c r="ET6" s="53"/>
-      <c r="EU6" s="53"/>
-      <c r="EV6" s="53"/>
-      <c r="EW6" s="53"/>
-      <c r="EX6" s="53"/>
-      <c r="EY6" s="53"/>
-      <c r="EZ6" s="53"/>
-      <c r="FA6" s="53"/>
-      <c r="FB6" s="53"/>
-      <c r="FC6" s="53"/>
-      <c r="FD6" s="53"/>
-      <c r="FE6" s="53"/>
-      <c r="FF6" s="53"/>
-      <c r="FG6" s="53"/>
-      <c r="FH6" s="53"/>
-      <c r="FI6" s="53"/>
-      <c r="FJ6" s="53"/>
-      <c r="FK6" s="53"/>
-      <c r="FL6" s="53"/>
-      <c r="FM6" s="53"/>
-      <c r="FN6" s="53"/>
-      <c r="FO6" s="53"/>
-      <c r="FP6" s="53"/>
-      <c r="FQ6" s="53"/>
-      <c r="FR6" s="53"/>
-      <c r="FS6" s="53"/>
-      <c r="FT6" s="53"/>
-      <c r="FU6" s="53"/>
-      <c r="FV6" s="53"/>
-      <c r="FW6" s="53"/>
-      <c r="FX6" s="53"/>
-      <c r="FY6" s="53"/>
-      <c r="FZ6" s="53"/>
-      <c r="GA6" s="53"/>
-      <c r="GB6" s="53"/>
-      <c r="GC6" s="53"/>
-      <c r="GD6" s="53"/>
-      <c r="GE6" s="53"/>
-      <c r="GF6" s="53"/>
-      <c r="GG6" s="53"/>
-      <c r="GH6" s="53"/>
-      <c r="GI6" s="53"/>
-      <c r="GJ6" s="53"/>
-      <c r="GK6" s="53"/>
-      <c r="GL6" s="53"/>
-      <c r="GM6" s="53"/>
-      <c r="GN6" s="53"/>
-      <c r="GO6" s="53"/>
-      <c r="GP6" s="53"/>
-      <c r="GQ6" s="53"/>
-      <c r="GR6" s="53"/>
-      <c r="GS6" s="53"/>
-      <c r="GT6" s="53"/>
-      <c r="GU6" s="53"/>
-      <c r="GV6" s="53"/>
-      <c r="GW6" s="53"/>
-      <c r="GX6" s="53"/>
-      <c r="GY6" s="53"/>
-      <c r="GZ6" s="53"/>
-      <c r="HA6" s="53"/>
-      <c r="HB6" s="53"/>
-      <c r="HC6" s="53"/>
-      <c r="HD6" s="53"/>
-      <c r="HE6" s="53"/>
-      <c r="HF6" s="53"/>
-      <c r="HG6" s="53"/>
-      <c r="HH6" s="53"/>
-      <c r="HI6" s="53"/>
-      <c r="HJ6" s="53"/>
-      <c r="HK6" s="53"/>
-      <c r="HL6" s="53"/>
-      <c r="HM6" s="53"/>
-      <c r="HN6" s="53"/>
-      <c r="HO6" s="53"/>
-      <c r="HP6" s="53"/>
-      <c r="HQ6" s="53"/>
-      <c r="HR6" s="53"/>
-      <c r="HS6" s="53"/>
-      <c r="HT6" s="53"/>
-      <c r="HU6" s="53"/>
-      <c r="HV6" s="53"/>
-      <c r="HW6" s="53"/>
-      <c r="HX6" s="53"/>
-      <c r="HY6" s="53"/>
-      <c r="HZ6" s="53"/>
-      <c r="IA6" s="53"/>
-      <c r="IB6" s="53"/>
-      <c r="IC6" s="53"/>
-      <c r="ID6" s="53"/>
-      <c r="IE6" s="54"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BP6" s="90"/>
+      <c r="BQ6" s="90"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="90"/>
+      <c r="BT6" s="90"/>
+      <c r="BU6" s="90"/>
+      <c r="BV6" s="90"/>
+      <c r="BW6" s="90"/>
+      <c r="BX6" s="90"/>
+      <c r="BY6" s="90"/>
+      <c r="BZ6" s="90"/>
+      <c r="CA6" s="90"/>
+      <c r="CB6" s="90"/>
+      <c r="CC6" s="90"/>
+      <c r="CD6" s="90"/>
+      <c r="CE6" s="90"/>
+      <c r="CF6" s="90"/>
+      <c r="CG6" s="90"/>
+      <c r="CH6" s="90"/>
+      <c r="CI6" s="90"/>
+      <c r="CJ6" s="90"/>
+      <c r="CK6" s="90"/>
+      <c r="CL6" s="90"/>
+      <c r="CM6" s="90"/>
+      <c r="CN6" s="90"/>
+      <c r="CO6" s="90"/>
+      <c r="CP6" s="90"/>
+      <c r="CQ6" s="90"/>
+      <c r="CR6" s="90"/>
+      <c r="CS6" s="90"/>
+      <c r="CT6" s="90"/>
+      <c r="CU6" s="90"/>
+      <c r="CV6" s="90"/>
+      <c r="CW6" s="90"/>
+      <c r="CX6" s="90"/>
+      <c r="CY6" s="90"/>
+      <c r="CZ6" s="90"/>
+      <c r="DA6" s="90"/>
+      <c r="DB6" s="90"/>
+      <c r="DC6" s="90"/>
+      <c r="DD6" s="90"/>
+      <c r="DE6" s="90"/>
+      <c r="DF6" s="90"/>
+      <c r="DG6" s="90"/>
+      <c r="DH6" s="90"/>
+      <c r="DI6" s="90"/>
+      <c r="DJ6" s="90"/>
+      <c r="DK6" s="90"/>
+      <c r="DL6" s="90"/>
+      <c r="DM6" s="90"/>
+      <c r="DN6" s="90"/>
+      <c r="DO6" s="90"/>
+      <c r="DP6" s="90"/>
+      <c r="DQ6" s="90"/>
+      <c r="DR6" s="90"/>
+      <c r="DS6" s="90"/>
+      <c r="DT6" s="90"/>
+      <c r="DU6" s="90"/>
+      <c r="DV6" s="90"/>
+      <c r="DW6" s="90"/>
+      <c r="DX6" s="90"/>
+      <c r="DY6" s="90"/>
+      <c r="DZ6" s="90"/>
+      <c r="EA6" s="90"/>
+      <c r="EB6" s="90"/>
+      <c r="EC6" s="90"/>
+      <c r="ED6" s="90"/>
+      <c r="EE6" s="90"/>
+      <c r="EF6" s="90"/>
+      <c r="EG6" s="90"/>
+      <c r="EH6" s="90"/>
+      <c r="EI6" s="90"/>
+      <c r="EJ6" s="90"/>
+      <c r="EK6" s="90"/>
+      <c r="EL6" s="90"/>
+      <c r="EM6" s="90"/>
+      <c r="EN6" s="90"/>
+      <c r="EO6" s="90"/>
+      <c r="EP6" s="90"/>
+      <c r="EQ6" s="90"/>
+      <c r="ER6" s="90"/>
+      <c r="ES6" s="90"/>
+      <c r="ET6" s="90"/>
+      <c r="EU6" s="90"/>
+      <c r="EV6" s="90"/>
+      <c r="EW6" s="90"/>
+      <c r="EX6" s="90"/>
+      <c r="EY6" s="90"/>
+      <c r="EZ6" s="90"/>
+      <c r="FA6" s="90"/>
+      <c r="FB6" s="90"/>
+      <c r="FC6" s="90"/>
+      <c r="FD6" s="90"/>
+      <c r="FE6" s="90"/>
+      <c r="FF6" s="90"/>
+      <c r="FG6" s="90"/>
+      <c r="FH6" s="90"/>
+      <c r="FI6" s="90"/>
+      <c r="FJ6" s="90"/>
+      <c r="FK6" s="90"/>
+      <c r="FL6" s="90"/>
+      <c r="FM6" s="90"/>
+      <c r="FN6" s="90"/>
+      <c r="FO6" s="90"/>
+      <c r="FP6" s="90"/>
+      <c r="FQ6" s="90"/>
+      <c r="FR6" s="90"/>
+      <c r="FS6" s="90"/>
+      <c r="FT6" s="90"/>
+      <c r="FU6" s="90"/>
+      <c r="FV6" s="90"/>
+      <c r="FW6" s="90"/>
+      <c r="FX6" s="90"/>
+      <c r="FY6" s="90"/>
+      <c r="FZ6" s="90"/>
+      <c r="GA6" s="90"/>
+      <c r="GB6" s="90"/>
+      <c r="GC6" s="90"/>
+      <c r="GD6" s="90"/>
+      <c r="GE6" s="90"/>
+      <c r="GF6" s="90"/>
+      <c r="GG6" s="90"/>
+      <c r="GH6" s="90"/>
+      <c r="GI6" s="90"/>
+      <c r="GJ6" s="90"/>
+      <c r="GK6" s="90"/>
+      <c r="GL6" s="90"/>
+      <c r="GM6" s="90"/>
+      <c r="GN6" s="90"/>
+      <c r="GO6" s="90"/>
+      <c r="GP6" s="90"/>
+      <c r="GQ6" s="90"/>
+      <c r="GR6" s="90"/>
+      <c r="GS6" s="90"/>
+      <c r="GT6" s="90"/>
+      <c r="GU6" s="90"/>
+      <c r="GV6" s="90"/>
+      <c r="GW6" s="90"/>
+      <c r="GX6" s="90"/>
+      <c r="GY6" s="90"/>
+      <c r="GZ6" s="90"/>
+      <c r="HA6" s="90"/>
+      <c r="HB6" s="90"/>
+      <c r="HC6" s="90"/>
+      <c r="HD6" s="90"/>
+      <c r="HE6" s="90"/>
+      <c r="HF6" s="90"/>
+      <c r="HG6" s="90"/>
+      <c r="HH6" s="90"/>
+      <c r="HI6" s="90"/>
+      <c r="HJ6" s="90"/>
+      <c r="HK6" s="90"/>
+      <c r="HL6" s="90"/>
+      <c r="HM6" s="90"/>
+      <c r="HN6" s="90"/>
+      <c r="HO6" s="90"/>
+      <c r="HP6" s="90"/>
+      <c r="HQ6" s="90"/>
+      <c r="HR6" s="90"/>
+      <c r="HS6" s="90"/>
+      <c r="HT6" s="90"/>
+      <c r="HU6" s="90"/>
+      <c r="HV6" s="90"/>
+      <c r="HW6" s="90"/>
+      <c r="HX6" s="90"/>
+      <c r="HY6" s="90"/>
+      <c r="HZ6" s="90"/>
+      <c r="IA6" s="90"/>
+      <c r="IB6" s="90"/>
+      <c r="IC6" s="90"/>
+      <c r="ID6" s="90"/>
+      <c r="IE6" s="91"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1982,18 +1992,18 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A8" s="55">
+    <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
+      <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="57" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="58"/>
+      <c r="D8" s="56" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2002,10 +2012,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="52">
         <v>1</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2253,20 +2263,20 @@
       <c r="ID8" s="12"/>
       <c r="IE8" s="12"/>
     </row>
-    <row r="9" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+    <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
+      <c r="A9" s="56"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="56"/>
+      <c r="E9" s="56"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2512,16 +2522,16 @@
       <c r="ID9" s="12"/>
       <c r="IE9" s="12"/>
     </row>
-    <row r="10" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A10" s="55">
+    <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
+      <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="56" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2530,10 +2540,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="52">
         <v>1</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2773,20 +2783,20 @@
       <c r="ID10" s="12"/>
       <c r="IE10" s="12"/>
     </row>
-    <row r="11" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+    <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
+      <c r="A11" s="56"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="56"/>
+      <c r="E11" s="56"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3024,16 +3034,16 @@
       <c r="ID11" s="12"/>
       <c r="IE11" s="12"/>
     </row>
-    <row r="12" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A12" s="55">
+    <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
+      <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="56" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="56" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3042,10 +3052,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="52">
         <v>1</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3285,20 +3295,20 @@
       <c r="ID12" s="12"/>
       <c r="IE12" s="12"/>
     </row>
-    <row r="13" spans="1:239" s="4" customFormat="1" ht="11.7" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+    <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
+      <c r="A13" s="56"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="56"/>
+      <c r="E13" s="56"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3537,15 +3547,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="56">
         <v>4</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="56" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="56" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3554,10 +3564,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="52">
         <v>1</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3798,19 +3808,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="55"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="56"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="56"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4049,15 +4059,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="56">
         <v>5</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="56" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="56" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4066,10 +4076,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="52">
         <v>1</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4308,19 +4318,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="55"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="56"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="56"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4557,15 +4567,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="56">
         <v>6</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="56" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="56" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4574,10 +4584,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="52">
         <v>1</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4816,19 +4826,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="55"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="56"/>
+      <c r="B19" s="59"/>
+      <c r="C19" s="60"/>
+      <c r="D19" s="56"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5065,17 +5075,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="56">
         <v>9</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="57" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="58"/>
+      <c r="D20" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5084,8 +5094,8 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="83"/>
-      <c r="I20" s="83"/>
+      <c r="H20" s="61"/>
+      <c r="I20" s="61"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5324,15 +5334,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="55"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
-      <c r="F21" s="30"/>
+      <c r="A21" s="56"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="55"/>
+      <c r="E21" s="55"/>
+      <c r="F21" s="30">
+        <v>42814</v>
+      </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="84"/>
-      <c r="I21" s="84"/>
+      <c r="H21" s="62"/>
+      <c r="I21" s="62"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5341,15 +5353,29 @@
       <c r="O21" s="13"/>
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
-      <c r="R21" s="13"/>
-      <c r="S21" s="15"/>
+      <c r="R21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="S21" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
-      <c r="V21" s="15"/>
-      <c r="W21" s="12"/>
-      <c r="X21" s="13"/>
-      <c r="Y21" s="13"/>
-      <c r="Z21" s="12"/>
+      <c r="V21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y21" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z21" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
       <c r="AC21" s="12"/>
@@ -5565,15 +5591,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="56">
         <v>10</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="54" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5582,8 +5608,8 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="83"/>
-      <c r="I22" s="83"/>
+      <c r="H22" s="61"/>
+      <c r="I22" s="61"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5820,15 +5846,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="55"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
-      <c r="F23" s="30"/>
+      <c r="A23" s="56"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="55"/>
+      <c r="E23" s="55"/>
+      <c r="F23" s="30">
+        <v>42814</v>
+      </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="84"/>
-      <c r="I23" s="84"/>
+      <c r="H23" s="62"/>
+      <c r="I23" s="62"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -5841,11 +5869,21 @@
       <c r="S23" s="15"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="15"/>
-      <c r="W23" s="12"/>
-      <c r="X23" s="13"/>
-      <c r="Y23" s="13"/>
-      <c r="Z23" s="12"/>
+      <c r="V23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z23" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="12"/>
@@ -6061,15 +6099,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="56">
         <v>11</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6078,8 +6116,8 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="83"/>
-      <c r="I24" s="83"/>
+      <c r="H24" s="61"/>
+      <c r="I24" s="61"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6315,16 +6353,18 @@
       <c r="ID24" s="13"/>
       <c r="IE24" s="13"/>
     </row>
-    <row r="25" spans="1:239" ht="19.2">
-      <c r="A25" s="55"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
-      <c r="F25" s="30"/>
+    <row r="25" spans="1:239" ht="19.5">
+      <c r="A25" s="56"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="55"/>
+      <c r="E25" s="55"/>
+      <c r="F25" s="30">
+        <v>42814</v>
+      </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="84"/>
-      <c r="I25" s="84"/>
+      <c r="H25" s="62"/>
+      <c r="I25" s="62"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6337,11 +6377,21 @@
       <c r="S25" s="15"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="15"/>
-      <c r="W25" s="15"/>
-      <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
+      <c r="V25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
@@ -6557,15 +6607,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="56">
         <v>12</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="60" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="54" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6574,8 +6624,8 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="83"/>
-      <c r="I26" s="83"/>
+      <c r="H26" s="61"/>
+      <c r="I26" s="61"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6811,16 +6861,18 @@
       <c r="ID26" s="13"/>
       <c r="IE26" s="13"/>
     </row>
-    <row r="27" spans="1:239" ht="19.2">
-      <c r="A27" s="55"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
-      <c r="F27" s="30"/>
+    <row r="27" spans="1:239" ht="19.5">
+      <c r="A27" s="56"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="55"/>
+      <c r="E27" s="55"/>
+      <c r="F27" s="30">
+        <v>42814</v>
+      </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="84"/>
-      <c r="I27" s="84"/>
+      <c r="H27" s="62"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -6833,11 +6885,21 @@
       <c r="S27" s="15"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="15"/>
-      <c r="W27" s="15"/>
-      <c r="X27" s="13"/>
-      <c r="Y27" s="13"/>
-      <c r="Z27" s="13"/>
+      <c r="V27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z27" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
       <c r="AC27" s="15"/>
@@ -7053,15 +7115,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="56">
         <v>13</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="60" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7070,8 +7132,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7308,15 +7370,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="55"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
-      <c r="F29" s="30"/>
+      <c r="A29" s="56"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="55"/>
+      <c r="E29" s="55"/>
+      <c r="F29" s="30">
+        <v>42814</v>
+      </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7329,11 +7393,21 @@
       <c r="S29" s="15"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="15"/>
-      <c r="W29" s="15"/>
-      <c r="X29" s="13"/>
-      <c r="Y29" s="13"/>
-      <c r="Z29" s="13"/>
+      <c r="V29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y29" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z29" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
@@ -7549,15 +7623,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="56">
         <v>14</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="60" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7566,8 +7640,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7804,15 +7878,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
-      <c r="F31" s="30"/>
+      <c r="A31" s="56"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="55"/>
+      <c r="E31" s="55"/>
+      <c r="F31" s="30">
+        <v>42814</v>
+      </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -7825,11 +7901,21 @@
       <c r="S31" s="15"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="15"/>
-      <c r="W31" s="15"/>
-      <c r="X31" s="13"/>
-      <c r="Y31" s="13"/>
-      <c r="Z31" s="13"/>
+      <c r="V31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y31" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z31" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="15"/>
@@ -8045,15 +8131,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="56">
         <v>15</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="60" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8062,8 +8148,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8300,15 +8386,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="55"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
-      <c r="F33" s="30"/>
+      <c r="A33" s="56"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="55"/>
+      <c r="E33" s="55"/>
+      <c r="F33" s="30">
+        <v>42814</v>
+      </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8321,11 +8409,21 @@
       <c r="S33" s="15"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="15"/>
-      <c r="W33" s="15"/>
-      <c r="X33" s="13"/>
-      <c r="Y33" s="13"/>
-      <c r="Z33" s="13"/>
+      <c r="V33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y33" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z33" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
@@ -8541,15 +8639,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="56">
         <v>16</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="54" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8558,8 +8656,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8796,15 +8894,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="55"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
-      <c r="F35" s="30"/>
+      <c r="A35" s="56"/>
+      <c r="B35" s="59"/>
+      <c r="C35" s="60"/>
+      <c r="D35" s="55"/>
+      <c r="E35" s="55"/>
+      <c r="F35" s="30">
+        <v>42814</v>
+      </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -8817,11 +8917,21 @@
       <c r="S35" s="15"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="15"/>
-      <c r="W35" s="15"/>
-      <c r="X35" s="13"/>
-      <c r="Y35" s="13"/>
-      <c r="Z35" s="13"/>
+      <c r="V35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y35" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z35" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
@@ -9037,17 +9147,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="56">
         <v>17</v>
       </c>
-      <c r="B36" s="85" t="s">
+      <c r="B36" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="86"/>
-      <c r="D36" s="55" t="s">
+      <c r="C36" s="58"/>
+      <c r="D36" s="56" t="s">
         <v>41</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9056,8 +9166,8 @@
       <c r="G36" s="8">
         <v>42832</v>
       </c>
-      <c r="H36" s="83"/>
-      <c r="I36" s="83"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9302,15 +9412,15 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="55"/>
-      <c r="B37" s="87"/>
-      <c r="C37" s="88"/>
-      <c r="D37" s="55"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="56"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="56"/>
+      <c r="E37" s="55"/>
       <c r="F37" s="8"/>
       <c r="G37" s="8"/>
-      <c r="H37" s="84"/>
-      <c r="I37" s="84"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9543,15 +9653,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="55">
+      <c r="A38" s="56">
         <v>18</v>
       </c>
-      <c r="B38" s="87"/>
-      <c r="C38" s="88"/>
-      <c r="D38" s="60" t="s">
-        <v>70</v>
-      </c>
-      <c r="E38" s="60" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="54" t="s">
+        <v>69</v>
+      </c>
+      <c r="E38" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9560,8 +9670,8 @@
       <c r="G38" s="8">
         <v>42824</v>
       </c>
-      <c r="H38" s="83"/>
-      <c r="I38" s="83"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9814,15 +9924,17 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="55"/>
-      <c r="B39" s="89"/>
-      <c r="C39" s="90"/>
-      <c r="D39" s="61"/>
-      <c r="E39" s="61"/>
-      <c r="F39" s="8"/>
+      <c r="A39" s="56"/>
+      <c r="B39" s="59"/>
+      <c r="C39" s="60"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="55"/>
+      <c r="F39" s="8">
+        <v>42815</v>
+      </c>
       <c r="G39" s="8"/>
-      <c r="H39" s="84"/>
-      <c r="I39" s="84"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -9835,11 +9947,21 @@
       <c r="S39" s="15"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="15"/>
-      <c r="W39" s="15"/>
-      <c r="X39" s="13"/>
-      <c r="Y39" s="13"/>
-      <c r="Z39" s="13"/>
+      <c r="V39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y39" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z39" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
       <c r="AC39" s="13"/>
@@ -10055,17 +10177,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="55">
+      <c r="A40" s="56">
         <v>19</v>
       </c>
-      <c r="B40" s="85" t="s">
+      <c r="B40" s="57" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="86"/>
-      <c r="D40" s="60" t="s">
-        <v>69</v>
-      </c>
-      <c r="E40" s="60" t="s">
+      <c r="C40" s="58"/>
+      <c r="D40" s="54" t="s">
+        <v>73</v>
+      </c>
+      <c r="E40" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10074,8 +10196,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="83"/>
-      <c r="I40" s="83"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10328,15 +10450,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="55"/>
-      <c r="B41" s="87"/>
-      <c r="C41" s="88"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
-      <c r="F41" s="8"/>
+      <c r="A41" s="56"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="55"/>
+      <c r="E41" s="55"/>
+      <c r="F41" s="8">
+        <v>42814</v>
+      </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="84"/>
-      <c r="I41" s="84"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10359,7 +10483,9 @@
       <c r="Y41" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="Z41" s="12"/>
+      <c r="Z41" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
       <c r="AC41" s="12"/>
@@ -10575,15 +10701,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="56">
         <v>20</v>
       </c>
-      <c r="B42" s="87"/>
-      <c r="C42" s="88"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10592,8 +10718,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="91"/>
-      <c r="I42" s="83"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10842,15 +10968,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="55"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="56"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="56"/>
+      <c r="E43" s="55"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="92"/>
-      <c r="I43" s="84"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11083,15 +11209,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="56">
         <v>21</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="55" t="s">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11100,8 +11226,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="91"/>
-      <c r="I44" s="83"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="61"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11338,15 +11464,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="55"/>
-      <c r="B45" s="89"/>
-      <c r="C45" s="90"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="56"/>
+      <c r="B45" s="59"/>
+      <c r="C45" s="60"/>
+      <c r="D45" s="56"/>
+      <c r="E45" s="55"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="84"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="62"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11579,17 +11705,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="56">
         <v>22</v>
       </c>
-      <c r="B46" s="85" t="s">
+      <c r="B46" s="57" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="86"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="58"/>
+      <c r="D46" s="56" t="s">
         <v>63</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11598,8 +11724,8 @@
       <c r="G46" s="8">
         <v>42823</v>
       </c>
-      <c r="H46" s="83"/>
-      <c r="I46" s="83"/>
+      <c r="H46" s="61"/>
+      <c r="I46" s="61"/>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -11838,15 +11964,15 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="55"/>
-      <c r="B47" s="87"/>
-      <c r="C47" s="88"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
+      <c r="A47" s="56"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="56"/>
+      <c r="E47" s="55"/>
       <c r="F47" s="8"/>
       <c r="G47" s="8"/>
-      <c r="H47" s="84"/>
-      <c r="I47" s="84"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12079,15 +12205,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="56">
         <v>23</v>
       </c>
-      <c r="B48" s="87"/>
-      <c r="C48" s="88"/>
-      <c r="D48" s="55" t="s">
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12096,8 +12222,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="83"/>
-      <c r="I48" s="83"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12338,15 +12464,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="55"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
+      <c r="A49" s="56"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="56"/>
+      <c r="E49" s="55"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12579,15 +12705,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="56">
         <v>23</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="55" t="s">
-        <v>71</v>
-      </c>
-      <c r="E50" s="60" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="56" t="s">
+        <v>70</v>
+      </c>
+      <c r="E50" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12596,8 +12722,8 @@
       <c r="G50" s="8">
         <v>42815</v>
       </c>
-      <c r="H50" s="83"/>
-      <c r="I50" s="83"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12836,15 +12962,17 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="55"/>
-      <c r="B51" s="89"/>
-      <c r="C51" s="90"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
-      <c r="F51" s="8"/>
+      <c r="A51" s="56"/>
+      <c r="B51" s="59"/>
+      <c r="C51" s="60"/>
+      <c r="D51" s="56"/>
+      <c r="E51" s="55"/>
+      <c r="F51" s="8">
+        <v>42816</v>
+      </c>
       <c r="G51" s="8"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -12857,11 +12985,21 @@
       <c r="S51" s="15"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
-      <c r="V51" s="13"/>
-      <c r="W51" s="15"/>
-      <c r="X51" s="13"/>
-      <c r="Y51" s="13"/>
-      <c r="Z51" s="13"/>
+      <c r="V51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y51" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z51" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
       <c r="AC51" s="13"/>
@@ -13077,17 +13215,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="56">
         <v>24</v>
       </c>
-      <c r="B52" s="85" t="s">
+      <c r="B52" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="86"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="58"/>
+      <c r="D52" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="54" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13096,8 +13234,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13352,15 +13490,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="55"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="61"/>
+      <c r="A53" s="56"/>
+      <c r="B53" s="59"/>
+      <c r="C53" s="60"/>
+      <c r="D53" s="56"/>
+      <c r="E53" s="55"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13593,17 +13731,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="55">
+      <c r="A54" s="56">
         <v>25</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="60" t="s">
+      <c r="C54" s="58"/>
+      <c r="D54" s="54" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13612,8 +13750,8 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13850,15 +13988,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="55"/>
-      <c r="B55" s="87"/>
-      <c r="C55" s="88"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
-      <c r="F55" s="30"/>
+      <c r="A55" s="56"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="55"/>
+      <c r="E55" s="55"/>
+      <c r="F55" s="30">
+        <v>42810</v>
+      </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -13867,10 +14007,14 @@
       <c r="O55" s="13"/>
       <c r="P55" s="13"/>
       <c r="Q55" s="13"/>
-      <c r="R55" s="13"/>
+      <c r="R55" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="S55" s="15"/>
       <c r="T55" s="14"/>
-      <c r="U55" s="14"/>
+      <c r="U55" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="V55" s="15"/>
       <c r="W55" s="12"/>
       <c r="X55" s="13"/>
@@ -14091,15 +14235,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="55">
+      <c r="A56" s="56">
         <v>26</v>
       </c>
-      <c r="B56" s="87"/>
-      <c r="C56" s="88"/>
-      <c r="D56" s="55" t="s">
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="56" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14108,8 +14252,8 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="57"/>
-      <c r="I56" s="57"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14346,15 +14490,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="55"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
-      <c r="F57" s="30"/>
+      <c r="A57" s="56"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="56"/>
+      <c r="E57" s="56"/>
+      <c r="F57" s="30">
+        <v>42814</v>
+      </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="57"/>
-      <c r="I57" s="58"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14367,9 +14513,13 @@
       <c r="S57" s="15"/>
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
-      <c r="V57" s="15"/>
+      <c r="V57" s="13" t="s">
+        <v>71</v>
+      </c>
       <c r="W57" s="12"/>
-      <c r="X57" s="13"/>
+      <c r="X57" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="Y57" s="13"/>
       <c r="Z57" s="12"/>
       <c r="AA57" s="14"/>
@@ -14587,15 +14737,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="55">
+      <c r="A58" s="56">
         <v>27</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="55" t="s">
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="56" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="56" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="30">
@@ -14604,8 +14754,8 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="57"/>
-      <c r="I58" s="57"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14841,16 +14991,18 @@
       <c r="ID58" s="13"/>
       <c r="IE58" s="13"/>
     </row>
-    <row r="59" spans="1:239" ht="19.2">
-      <c r="A59" s="55"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
-      <c r="F59" s="30"/>
+    <row r="59" spans="1:239" ht="19.5">
+      <c r="A59" s="56"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="56"/>
+      <c r="E59" s="56"/>
+      <c r="F59" s="30">
+        <v>42817</v>
+      </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="58"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -14866,9 +15018,13 @@
       <c r="V59" s="15"/>
       <c r="W59" s="15"/>
       <c r="X59" s="13"/>
-      <c r="Y59" s="13"/>
+      <c r="Y59" s="13" t="s">
+        <v>37</v>
+      </c>
       <c r="Z59" s="13"/>
-      <c r="AA59" s="14"/>
+      <c r="AA59" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AB59" s="14"/>
       <c r="AC59" s="15"/>
       <c r="AD59" s="15"/>
@@ -15082,16 +15238,16 @@
       <c r="ID59" s="13"/>
       <c r="IE59" s="13"/>
     </row>
-    <row r="60" spans="1:239" ht="19.2">
-      <c r="A60" s="55">
+    <row r="60" spans="1:239" ht="19.5">
+      <c r="A60" s="56">
         <v>28</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="55" t="s">
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="56" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15100,8 +15256,8 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="57"/>
-      <c r="I60" s="57"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
@@ -15337,16 +15493,18 @@
       <c r="ID60" s="13"/>
       <c r="IE60" s="13"/>
     </row>
-    <row r="61" spans="1:239" ht="19.2">
-      <c r="A61" s="55"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
-      <c r="F61" s="30"/>
+    <row r="61" spans="1:239" ht="19.5">
+      <c r="A61" s="56"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="56"/>
+      <c r="E61" s="56"/>
+      <c r="F61" s="30">
+        <v>42820</v>
+      </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="53"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15365,8 +15523,12 @@
       <c r="Y61" s="13"/>
       <c r="Z61" s="13"/>
       <c r="AA61" s="41"/>
-      <c r="AB61" s="41"/>
-      <c r="AC61" s="15"/>
+      <c r="AB61" s="51" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC61" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="AD61" s="15"/>
       <c r="AE61" s="13"/>
       <c r="AF61" s="13"/>
@@ -15578,16 +15740,16 @@
       <c r="ID61" s="13"/>
       <c r="IE61" s="13"/>
     </row>
-    <row r="62" spans="1:239" ht="19.2">
-      <c r="A62" s="55">
+    <row r="62" spans="1:239" ht="19.5">
+      <c r="A62" s="56">
         <v>29</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="55" t="s">
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="56" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15596,8 +15758,8 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="57"/>
-      <c r="I62" s="57"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -15834,15 +15996,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="55"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="56"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="56"/>
+      <c r="E63" s="56"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="53"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16075,15 +16237,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="55">
+      <c r="A64" s="56">
         <v>30</v>
       </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="60" t="s">
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="54" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16092,8 +16254,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="83"/>
-      <c r="I64" s="83"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16330,15 +16492,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="55"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="56"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="55"/>
+      <c r="E65" s="56"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="84"/>
-      <c r="I65" s="84"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16571,15 +16733,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="60">
+      <c r="A66" s="54">
         <v>31</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="55" t="s">
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="56" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16588,8 +16750,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="57"/>
-      <c r="I66" s="57"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -16826,15 +16988,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="61"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="55"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="56"/>
+      <c r="E67" s="56"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="57"/>
-      <c r="I67" s="58"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17067,15 +17229,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="60">
+      <c r="A68" s="54">
         <v>32</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="55" t="s">
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="56" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="56" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17084,8 +17246,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17322,15 +17484,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="61"/>
-      <c r="B69" s="89"/>
-      <c r="C69" s="90"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="55"/>
+      <c r="B69" s="59"/>
+      <c r="C69" s="60"/>
+      <c r="D69" s="56"/>
+      <c r="E69" s="56"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="53"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17562,112 +17724,234 @@
       <c r="ID69" s="13"/>
       <c r="IE69" s="13"/>
     </row>
-    <row r="70" spans="1:239" ht="409.6"/>
-    <row r="71" spans="1:239" ht="409.6">
-      <c r="A71" s="59" t="s">
+    <row r="71" spans="1:239">
+      <c r="A71" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="59"/>
-      <c r="C71" s="59"/>
-      <c r="D71" s="59"/>
-      <c r="E71" s="59"/>
-      <c r="F71" s="59"/>
-      <c r="G71" s="59"/>
-      <c r="H71" s="59"/>
-      <c r="I71" s="59"/>
-      <c r="J71" s="59"/>
-      <c r="K71" s="59"/>
-      <c r="L71" s="59"/>
-      <c r="M71" s="59"/>
-      <c r="N71" s="59"/>
-      <c r="O71" s="59"/>
-      <c r="P71" s="59"/>
-      <c r="Q71" s="59"/>
-      <c r="R71" s="59"/>
-      <c r="S71" s="59"/>
-      <c r="T71" s="59"/>
-      <c r="U71" s="59"/>
-      <c r="V71" s="59"/>
-      <c r="W71" s="59"/>
-      <c r="X71" s="59"/>
-      <c r="Y71" s="59"/>
-      <c r="Z71" s="59"/>
-      <c r="AA71" s="59"/>
-      <c r="AB71" s="59"/>
-      <c r="AC71" s="59"/>
-      <c r="AD71" s="59"/>
-      <c r="AE71" s="59"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="93"/>
+      <c r="T71" s="93"/>
+      <c r="U71" s="93"/>
+      <c r="V71" s="93"/>
+      <c r="W71" s="93"/>
+      <c r="X71" s="93"/>
+      <c r="Y71" s="93"/>
+      <c r="Z71" s="93"/>
+      <c r="AA71" s="93"/>
+      <c r="AB71" s="93"/>
+      <c r="AC71" s="93"/>
+      <c r="AD71" s="93"/>
+      <c r="AE71" s="93"/>
     </row>
-    <row r="72" spans="1:239" ht="409.6">
-      <c r="A72" s="59"/>
-      <c r="B72" s="59"/>
-      <c r="C72" s="59"/>
-      <c r="D72" s="59"/>
-      <c r="E72" s="59"/>
-      <c r="F72" s="59"/>
-      <c r="G72" s="59"/>
-      <c r="H72" s="59"/>
-      <c r="I72" s="59"/>
-      <c r="J72" s="59"/>
-      <c r="K72" s="59"/>
-      <c r="L72" s="59"/>
-      <c r="M72" s="59"/>
-      <c r="N72" s="59"/>
-      <c r="O72" s="59"/>
-      <c r="P72" s="59"/>
-      <c r="Q72" s="59"/>
-      <c r="R72" s="59"/>
-      <c r="S72" s="59"/>
-      <c r="T72" s="59"/>
-      <c r="U72" s="59"/>
-      <c r="V72" s="59"/>
-      <c r="W72" s="59"/>
-      <c r="X72" s="59"/>
-      <c r="Y72" s="59"/>
-      <c r="Z72" s="59"/>
-      <c r="AA72" s="59"/>
-      <c r="AB72" s="59"/>
-      <c r="AC72" s="59"/>
-      <c r="AD72" s="59"/>
-      <c r="AE72" s="59"/>
+    <row r="72" spans="1:239">
+      <c r="A72" s="93"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="93"/>
+      <c r="T72" s="93"/>
+      <c r="U72" s="93"/>
+      <c r="V72" s="93"/>
+      <c r="W72" s="93"/>
+      <c r="X72" s="93"/>
+      <c r="Y72" s="93"/>
+      <c r="Z72" s="93"/>
+      <c r="AA72" s="93"/>
+      <c r="AB72" s="93"/>
+      <c r="AC72" s="93"/>
+      <c r="AD72" s="93"/>
+      <c r="AE72" s="93"/>
     </row>
-    <row r="73" spans="1:239" ht="409.6"/>
-    <row r="74" spans="1:239" ht="409.6"/>
-    <row r="75" spans="1:239" ht="409.6"/>
-    <row r="76" spans="1:239" ht="409.6"/>
-    <row r="77" spans="1:239" ht="409.6"/>
-    <row r="81" spans="1:239" ht="409.6"/>
-    <row r="82" spans="1:239" ht="409.6"/>
-    <row r="83" spans="1:239" ht="409.6"/>
-    <row r="84" spans="1:239" ht="409.6"/>
-    <row r="85" spans="1:239" ht="409.6"/>
-    <row r="86" spans="1:239" ht="409.6"/>
-    <row r="87" spans="1:239" ht="409.6"/>
-    <row r="88" spans="1:239" ht="409.6"/>
-    <row r="89" spans="1:239" ht="409.6"/>
-    <row r="90" spans="1:239" ht="409.6"/>
-    <row r="91" spans="1:239" ht="409.6"/>
-    <row r="92" spans="1:239" ht="409.6"/>
-    <row r="93" spans="1:239" ht="409.6"/>
-    <row r="94" spans="1:239" ht="409.6"/>
-    <row r="95" spans="1:239" ht="409.6"/>
-    <row r="96" spans="1:239" ht="409.6"/>
-    <row r="97" spans="1:239" ht="409.6"/>
-    <row r="98" spans="1:239" ht="409.6"/>
-    <row r="99" spans="1:239" ht="409.6"/>
-    <row r="100" spans="1:239" ht="409.6"/>
-    <row r="101" spans="1:239" ht="409.6"/>
-    <row r="102" spans="1:239" ht="409.6"/>
-    <row r="103" spans="1:239" ht="409.6"/>
-    <row r="104" spans="1:239" ht="409.6"/>
-    <row r="105" spans="1:239" ht="409.6"/>
-    <row r="106" spans="1:239" ht="409.6"/>
-    <row r="107" spans="1:239" ht="409.6"/>
-    <row r="108" spans="1:239" ht="409.6"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A71:AE72"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
     <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
     <mergeCell ref="I58:I59"/>
     <mergeCell ref="D38:D39"/>
     <mergeCell ref="D40:D41"/>
@@ -17692,162 +17976,6 @@
     <mergeCell ref="E60:E61"/>
     <mergeCell ref="H60:H61"/>
     <mergeCell ref="I56:I57"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A71:AE72"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="295" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -308,6 +308,10 @@
   </si>
   <si>
     <t>상품 관리 (등록 및 수정)</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -796,50 +800,38 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -904,23 +896,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1296,7 +1300,7 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="115" zoomScaleNormal="115" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
@@ -1321,226 +1325,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="63" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
+      <c r="B1" s="64"/>
+      <c r="C1" s="64"/>
+      <c r="D1" s="64"/>
+      <c r="E1" s="64"/>
+      <c r="F1" s="64"/>
+      <c r="G1" s="64"/>
+      <c r="H1" s="64"/>
+      <c r="I1" s="64"/>
+      <c r="J1" s="64"/>
+      <c r="K1" s="64"/>
+      <c r="L1" s="64"/>
+      <c r="M1" s="64"/>
+      <c r="N1" s="64"/>
+      <c r="O1" s="64"/>
+      <c r="P1" s="64"/>
+      <c r="Q1" s="64"/>
+      <c r="R1" s="64"/>
+      <c r="S1" s="64"/>
+      <c r="T1" s="64"/>
+      <c r="U1" s="64"/>
+      <c r="V1" s="64"/>
+      <c r="W1" s="64"/>
+      <c r="X1" s="64"/>
+      <c r="Y1" s="64"/>
+      <c r="Z1" s="64"/>
+      <c r="AA1" s="64"/>
+      <c r="AB1" s="64"/>
+      <c r="AC1" s="64"/>
+      <c r="AD1" s="64"/>
+      <c r="AE1" s="64"/>
+      <c r="AF1" s="64"/>
+      <c r="AG1" s="64"/>
+      <c r="AH1" s="64"/>
+      <c r="AI1" s="64"/>
+      <c r="AJ1" s="64"/>
+      <c r="AK1" s="64"/>
+      <c r="AL1" s="64"/>
+      <c r="AM1" s="64"/>
+      <c r="AN1" s="64"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
+      <c r="A2" s="63"/>
+      <c r="B2" s="64"/>
+      <c r="C2" s="64"/>
+      <c r="D2" s="64"/>
+      <c r="E2" s="64"/>
+      <c r="F2" s="64"/>
+      <c r="G2" s="64"/>
+      <c r="H2" s="64"/>
+      <c r="I2" s="64"/>
+      <c r="J2" s="64"/>
+      <c r="K2" s="64"/>
+      <c r="L2" s="64"/>
+      <c r="M2" s="64"/>
+      <c r="N2" s="64"/>
+      <c r="O2" s="64"/>
+      <c r="P2" s="64"/>
+      <c r="Q2" s="64"/>
+      <c r="R2" s="64"/>
+      <c r="S2" s="64"/>
+      <c r="T2" s="64"/>
+      <c r="U2" s="64"/>
+      <c r="V2" s="64"/>
+      <c r="W2" s="64"/>
+      <c r="X2" s="64"/>
+      <c r="Y2" s="64"/>
+      <c r="Z2" s="64"/>
+      <c r="AA2" s="64"/>
+      <c r="AB2" s="64"/>
+      <c r="AC2" s="64"/>
+      <c r="AD2" s="64"/>
+      <c r="AE2" s="64"/>
+      <c r="AF2" s="64"/>
+      <c r="AG2" s="64"/>
+      <c r="AH2" s="64"/>
+      <c r="AI2" s="64"/>
+      <c r="AJ2" s="64"/>
+      <c r="AK2" s="64"/>
+      <c r="AL2" s="64"/>
+      <c r="AM2" s="64"/>
+      <c r="AN2" s="64"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="65" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="73" t="s">
+      <c r="B3" s="65"/>
+      <c r="C3" s="65"/>
+      <c r="D3" s="65"/>
+      <c r="E3" s="65"/>
+      <c r="F3" s="65"/>
+      <c r="G3" s="69" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="70"/>
+      <c r="I3" s="71" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="69" t="s">
+      <c r="J3" s="72"/>
+      <c r="K3" s="72"/>
+      <c r="L3" s="72"/>
+      <c r="M3" s="72"/>
+      <c r="N3" s="72"/>
+      <c r="O3" s="72"/>
+      <c r="P3" s="72"/>
+      <c r="Q3" s="65" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
+      <c r="R3" s="65"/>
+      <c r="S3" s="65"/>
+      <c r="T3" s="65"/>
+      <c r="U3" s="65"/>
+      <c r="V3" s="65"/>
+      <c r="W3" s="65"/>
+      <c r="X3" s="65"/>
+      <c r="Y3" s="65"/>
+      <c r="Z3" s="65"/>
+      <c r="AA3" s="65"/>
+      <c r="AB3" s="65"/>
+      <c r="AC3" s="65"/>
+      <c r="AD3" s="65"/>
+      <c r="AE3" s="65"/>
+      <c r="AF3" s="65"/>
+      <c r="AG3" s="65"/>
+      <c r="AH3" s="65"/>
+      <c r="AI3" s="65"/>
+      <c r="AJ3" s="65"/>
+      <c r="AK3" s="65"/>
+      <c r="AL3" s="65"/>
+      <c r="AM3" s="65"/>
+      <c r="AN3" s="65"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="73" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78" t="s">
+      <c r="B4" s="73"/>
+      <c r="C4" s="73"/>
+      <c r="D4" s="73"/>
+      <c r="E4" s="73"/>
+      <c r="F4" s="73"/>
+      <c r="G4" s="74" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80" t="s">
+      <c r="H4" s="75"/>
+      <c r="I4" s="76" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="70" t="s">
+      <c r="J4" s="77"/>
+      <c r="K4" s="77"/>
+      <c r="L4" s="77"/>
+      <c r="M4" s="77"/>
+      <c r="N4" s="77"/>
+      <c r="O4" s="77"/>
+      <c r="P4" s="78"/>
+      <c r="Q4" s="66" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="72"/>
+      <c r="R4" s="67"/>
+      <c r="S4" s="67"/>
+      <c r="T4" s="67"/>
+      <c r="U4" s="67"/>
+      <c r="V4" s="67"/>
+      <c r="W4" s="67"/>
+      <c r="X4" s="67"/>
+      <c r="Y4" s="67"/>
+      <c r="Z4" s="67"/>
+      <c r="AA4" s="67"/>
+      <c r="AB4" s="67"/>
+      <c r="AC4" s="67"/>
+      <c r="AD4" s="67"/>
+      <c r="AE4" s="67"/>
+      <c r="AF4" s="67"/>
+      <c r="AG4" s="67"/>
+      <c r="AH4" s="67"/>
+      <c r="AI4" s="67"/>
+      <c r="AJ4" s="67"/>
+      <c r="AK4" s="67"/>
+      <c r="AL4" s="67"/>
+      <c r="AM4" s="67"/>
+      <c r="AN4" s="68"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="82"/>
+      <c r="B5" s="82"/>
+      <c r="C5" s="82"/>
+      <c r="D5" s="82"/>
+      <c r="E5" s="82"/>
+      <c r="F5" s="82"/>
+      <c r="G5" s="82"/>
+      <c r="H5" s="82"/>
+      <c r="I5" s="82"/>
+      <c r="J5" s="83"/>
+      <c r="K5" s="83"/>
+      <c r="L5" s="83"/>
+      <c r="M5" s="83"/>
+      <c r="N5" s="83"/>
+      <c r="O5" s="83"/>
+      <c r="P5" s="83"/>
+      <c r="Q5" s="83"/>
+      <c r="R5" s="83"/>
+      <c r="S5" s="83"/>
+      <c r="T5" s="83"/>
+      <c r="U5" s="83"/>
+      <c r="V5" s="83"/>
+      <c r="W5" s="83"/>
+      <c r="X5" s="83"/>
+      <c r="Y5" s="83"/>
+      <c r="Z5" s="83"/>
+      <c r="AA5" s="83"/>
+      <c r="AB5" s="83"/>
+      <c r="AC5" s="83"/>
+      <c r="AD5" s="83"/>
+      <c r="AE5" s="83"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1552,17 +1556,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="52" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="52" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="52"/>
+      <c r="D6" s="52" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="52" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1571,261 +1575,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="52" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="52" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="79" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="89" t="s">
+      <c r="K6" s="80"/>
+      <c r="L6" s="80"/>
+      <c r="M6" s="80"/>
+      <c r="N6" s="80"/>
+      <c r="O6" s="80"/>
+      <c r="P6" s="80"/>
+      <c r="Q6" s="80"/>
+      <c r="R6" s="80"/>
+      <c r="S6" s="80"/>
+      <c r="T6" s="80"/>
+      <c r="U6" s="80"/>
+      <c r="V6" s="80"/>
+      <c r="W6" s="80"/>
+      <c r="X6" s="80"/>
+      <c r="Y6" s="80"/>
+      <c r="Z6" s="80"/>
+      <c r="AA6" s="80"/>
+      <c r="AB6" s="80"/>
+      <c r="AC6" s="80"/>
+      <c r="AD6" s="80"/>
+      <c r="AE6" s="80"/>
+      <c r="AF6" s="80"/>
+      <c r="AG6" s="81"/>
+      <c r="AH6" s="53" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BO6" s="90"/>
-      <c r="BP6" s="90"/>
-      <c r="BQ6" s="90"/>
-      <c r="BR6" s="90"/>
-      <c r="BS6" s="90"/>
-      <c r="BT6" s="90"/>
-      <c r="BU6" s="90"/>
-      <c r="BV6" s="90"/>
-      <c r="BW6" s="90"/>
-      <c r="BX6" s="90"/>
-      <c r="BY6" s="90"/>
-      <c r="BZ6" s="90"/>
-      <c r="CA6" s="90"/>
-      <c r="CB6" s="90"/>
-      <c r="CC6" s="90"/>
-      <c r="CD6" s="90"/>
-      <c r="CE6" s="90"/>
-      <c r="CF6" s="90"/>
-      <c r="CG6" s="90"/>
-      <c r="CH6" s="90"/>
-      <c r="CI6" s="90"/>
-      <c r="CJ6" s="90"/>
-      <c r="CK6" s="90"/>
-      <c r="CL6" s="90"/>
-      <c r="CM6" s="90"/>
-      <c r="CN6" s="90"/>
-      <c r="CO6" s="90"/>
-      <c r="CP6" s="90"/>
-      <c r="CQ6" s="90"/>
-      <c r="CR6" s="90"/>
-      <c r="CS6" s="90"/>
-      <c r="CT6" s="90"/>
-      <c r="CU6" s="90"/>
-      <c r="CV6" s="90"/>
-      <c r="CW6" s="90"/>
-      <c r="CX6" s="90"/>
-      <c r="CY6" s="90"/>
-      <c r="CZ6" s="90"/>
-      <c r="DA6" s="90"/>
-      <c r="DB6" s="90"/>
-      <c r="DC6" s="90"/>
-      <c r="DD6" s="90"/>
-      <c r="DE6" s="90"/>
-      <c r="DF6" s="90"/>
-      <c r="DG6" s="90"/>
-      <c r="DH6" s="90"/>
-      <c r="DI6" s="90"/>
-      <c r="DJ6" s="90"/>
-      <c r="DK6" s="90"/>
-      <c r="DL6" s="90"/>
-      <c r="DM6" s="90"/>
-      <c r="DN6" s="90"/>
-      <c r="DO6" s="90"/>
-      <c r="DP6" s="90"/>
-      <c r="DQ6" s="90"/>
-      <c r="DR6" s="90"/>
-      <c r="DS6" s="90"/>
-      <c r="DT6" s="90"/>
-      <c r="DU6" s="90"/>
-      <c r="DV6" s="90"/>
-      <c r="DW6" s="90"/>
-      <c r="DX6" s="90"/>
-      <c r="DY6" s="90"/>
-      <c r="DZ6" s="90"/>
-      <c r="EA6" s="90"/>
-      <c r="EB6" s="90"/>
-      <c r="EC6" s="90"/>
-      <c r="ED6" s="90"/>
-      <c r="EE6" s="90"/>
-      <c r="EF6" s="90"/>
-      <c r="EG6" s="90"/>
-      <c r="EH6" s="90"/>
-      <c r="EI6" s="90"/>
-      <c r="EJ6" s="90"/>
-      <c r="EK6" s="90"/>
-      <c r="EL6" s="90"/>
-      <c r="EM6" s="90"/>
-      <c r="EN6" s="90"/>
-      <c r="EO6" s="90"/>
-      <c r="EP6" s="90"/>
-      <c r="EQ6" s="90"/>
-      <c r="ER6" s="90"/>
-      <c r="ES6" s="90"/>
-      <c r="ET6" s="90"/>
-      <c r="EU6" s="90"/>
-      <c r="EV6" s="90"/>
-      <c r="EW6" s="90"/>
-      <c r="EX6" s="90"/>
-      <c r="EY6" s="90"/>
-      <c r="EZ6" s="90"/>
-      <c r="FA6" s="90"/>
-      <c r="FB6" s="90"/>
-      <c r="FC6" s="90"/>
-      <c r="FD6" s="90"/>
-      <c r="FE6" s="90"/>
-      <c r="FF6" s="90"/>
-      <c r="FG6" s="90"/>
-      <c r="FH6" s="90"/>
-      <c r="FI6" s="90"/>
-      <c r="FJ6" s="90"/>
-      <c r="FK6" s="90"/>
-      <c r="FL6" s="90"/>
-      <c r="FM6" s="90"/>
-      <c r="FN6" s="90"/>
-      <c r="FO6" s="90"/>
-      <c r="FP6" s="90"/>
-      <c r="FQ6" s="90"/>
-      <c r="FR6" s="90"/>
-      <c r="FS6" s="90"/>
-      <c r="FT6" s="90"/>
-      <c r="FU6" s="90"/>
-      <c r="FV6" s="90"/>
-      <c r="FW6" s="90"/>
-      <c r="FX6" s="90"/>
-      <c r="FY6" s="90"/>
-      <c r="FZ6" s="90"/>
-      <c r="GA6" s="90"/>
-      <c r="GB6" s="90"/>
-      <c r="GC6" s="90"/>
-      <c r="GD6" s="90"/>
-      <c r="GE6" s="90"/>
-      <c r="GF6" s="90"/>
-      <c r="GG6" s="90"/>
-      <c r="GH6" s="90"/>
-      <c r="GI6" s="90"/>
-      <c r="GJ6" s="90"/>
-      <c r="GK6" s="90"/>
-      <c r="GL6" s="90"/>
-      <c r="GM6" s="90"/>
-      <c r="GN6" s="90"/>
-      <c r="GO6" s="90"/>
-      <c r="GP6" s="90"/>
-      <c r="GQ6" s="90"/>
-      <c r="GR6" s="90"/>
-      <c r="GS6" s="90"/>
-      <c r="GT6" s="90"/>
-      <c r="GU6" s="90"/>
-      <c r="GV6" s="90"/>
-      <c r="GW6" s="90"/>
-      <c r="GX6" s="90"/>
-      <c r="GY6" s="90"/>
-      <c r="GZ6" s="90"/>
-      <c r="HA6" s="90"/>
-      <c r="HB6" s="90"/>
-      <c r="HC6" s="90"/>
-      <c r="HD6" s="90"/>
-      <c r="HE6" s="90"/>
-      <c r="HF6" s="90"/>
-      <c r="HG6" s="90"/>
-      <c r="HH6" s="90"/>
-      <c r="HI6" s="90"/>
-      <c r="HJ6" s="90"/>
-      <c r="HK6" s="90"/>
-      <c r="HL6" s="90"/>
-      <c r="HM6" s="90"/>
-      <c r="HN6" s="90"/>
-      <c r="HO6" s="90"/>
-      <c r="HP6" s="90"/>
-      <c r="HQ6" s="90"/>
-      <c r="HR6" s="90"/>
-      <c r="HS6" s="90"/>
-      <c r="HT6" s="90"/>
-      <c r="HU6" s="90"/>
-      <c r="HV6" s="90"/>
-      <c r="HW6" s="90"/>
-      <c r="HX6" s="90"/>
-      <c r="HY6" s="90"/>
-      <c r="HZ6" s="90"/>
-      <c r="IA6" s="90"/>
-      <c r="IB6" s="90"/>
-      <c r="IC6" s="90"/>
-      <c r="ID6" s="90"/>
-      <c r="IE6" s="91"/>
+      <c r="AI6" s="54"/>
+      <c r="AJ6" s="54"/>
+      <c r="AK6" s="54"/>
+      <c r="AL6" s="54"/>
+      <c r="AM6" s="54"/>
+      <c r="AN6" s="54"/>
+      <c r="AO6" s="54"/>
+      <c r="AP6" s="54"/>
+      <c r="AQ6" s="54"/>
+      <c r="AR6" s="54"/>
+      <c r="AS6" s="54"/>
+      <c r="AT6" s="54"/>
+      <c r="AU6" s="54"/>
+      <c r="AV6" s="54"/>
+      <c r="AW6" s="54"/>
+      <c r="AX6" s="54"/>
+      <c r="AY6" s="54"/>
+      <c r="AZ6" s="54"/>
+      <c r="BA6" s="54"/>
+      <c r="BB6" s="54"/>
+      <c r="BC6" s="54"/>
+      <c r="BD6" s="54"/>
+      <c r="BE6" s="54"/>
+      <c r="BF6" s="54"/>
+      <c r="BG6" s="54"/>
+      <c r="BH6" s="54"/>
+      <c r="BI6" s="54"/>
+      <c r="BJ6" s="54"/>
+      <c r="BK6" s="54"/>
+      <c r="BL6" s="54"/>
+      <c r="BM6" s="54"/>
+      <c r="BN6" s="54"/>
+      <c r="BO6" s="54"/>
+      <c r="BP6" s="54"/>
+      <c r="BQ6" s="54"/>
+      <c r="BR6" s="54"/>
+      <c r="BS6" s="54"/>
+      <c r="BT6" s="54"/>
+      <c r="BU6" s="54"/>
+      <c r="BV6" s="54"/>
+      <c r="BW6" s="54"/>
+      <c r="BX6" s="54"/>
+      <c r="BY6" s="54"/>
+      <c r="BZ6" s="54"/>
+      <c r="CA6" s="54"/>
+      <c r="CB6" s="54"/>
+      <c r="CC6" s="54"/>
+      <c r="CD6" s="54"/>
+      <c r="CE6" s="54"/>
+      <c r="CF6" s="54"/>
+      <c r="CG6" s="54"/>
+      <c r="CH6" s="54"/>
+      <c r="CI6" s="54"/>
+      <c r="CJ6" s="54"/>
+      <c r="CK6" s="54"/>
+      <c r="CL6" s="54"/>
+      <c r="CM6" s="54"/>
+      <c r="CN6" s="54"/>
+      <c r="CO6" s="54"/>
+      <c r="CP6" s="54"/>
+      <c r="CQ6" s="54"/>
+      <c r="CR6" s="54"/>
+      <c r="CS6" s="54"/>
+      <c r="CT6" s="54"/>
+      <c r="CU6" s="54"/>
+      <c r="CV6" s="54"/>
+      <c r="CW6" s="54"/>
+      <c r="CX6" s="54"/>
+      <c r="CY6" s="54"/>
+      <c r="CZ6" s="54"/>
+      <c r="DA6" s="54"/>
+      <c r="DB6" s="54"/>
+      <c r="DC6" s="54"/>
+      <c r="DD6" s="54"/>
+      <c r="DE6" s="54"/>
+      <c r="DF6" s="54"/>
+      <c r="DG6" s="54"/>
+      <c r="DH6" s="54"/>
+      <c r="DI6" s="54"/>
+      <c r="DJ6" s="54"/>
+      <c r="DK6" s="54"/>
+      <c r="DL6" s="54"/>
+      <c r="DM6" s="54"/>
+      <c r="DN6" s="54"/>
+      <c r="DO6" s="54"/>
+      <c r="DP6" s="54"/>
+      <c r="DQ6" s="54"/>
+      <c r="DR6" s="54"/>
+      <c r="DS6" s="54"/>
+      <c r="DT6" s="54"/>
+      <c r="DU6" s="54"/>
+      <c r="DV6" s="54"/>
+      <c r="DW6" s="54"/>
+      <c r="DX6" s="54"/>
+      <c r="DY6" s="54"/>
+      <c r="DZ6" s="54"/>
+      <c r="EA6" s="54"/>
+      <c r="EB6" s="54"/>
+      <c r="EC6" s="54"/>
+      <c r="ED6" s="54"/>
+      <c r="EE6" s="54"/>
+      <c r="EF6" s="54"/>
+      <c r="EG6" s="54"/>
+      <c r="EH6" s="54"/>
+      <c r="EI6" s="54"/>
+      <c r="EJ6" s="54"/>
+      <c r="EK6" s="54"/>
+      <c r="EL6" s="54"/>
+      <c r="EM6" s="54"/>
+      <c r="EN6" s="54"/>
+      <c r="EO6" s="54"/>
+      <c r="EP6" s="54"/>
+      <c r="EQ6" s="54"/>
+      <c r="ER6" s="54"/>
+      <c r="ES6" s="54"/>
+      <c r="ET6" s="54"/>
+      <c r="EU6" s="54"/>
+      <c r="EV6" s="54"/>
+      <c r="EW6" s="54"/>
+      <c r="EX6" s="54"/>
+      <c r="EY6" s="54"/>
+      <c r="EZ6" s="54"/>
+      <c r="FA6" s="54"/>
+      <c r="FB6" s="54"/>
+      <c r="FC6" s="54"/>
+      <c r="FD6" s="54"/>
+      <c r="FE6" s="54"/>
+      <c r="FF6" s="54"/>
+      <c r="FG6" s="54"/>
+      <c r="FH6" s="54"/>
+      <c r="FI6" s="54"/>
+      <c r="FJ6" s="54"/>
+      <c r="FK6" s="54"/>
+      <c r="FL6" s="54"/>
+      <c r="FM6" s="54"/>
+      <c r="FN6" s="54"/>
+      <c r="FO6" s="54"/>
+      <c r="FP6" s="54"/>
+      <c r="FQ6" s="54"/>
+      <c r="FR6" s="54"/>
+      <c r="FS6" s="54"/>
+      <c r="FT6" s="54"/>
+      <c r="FU6" s="54"/>
+      <c r="FV6" s="54"/>
+      <c r="FW6" s="54"/>
+      <c r="FX6" s="54"/>
+      <c r="FY6" s="54"/>
+      <c r="FZ6" s="54"/>
+      <c r="GA6" s="54"/>
+      <c r="GB6" s="54"/>
+      <c r="GC6" s="54"/>
+      <c r="GD6" s="54"/>
+      <c r="GE6" s="54"/>
+      <c r="GF6" s="54"/>
+      <c r="GG6" s="54"/>
+      <c r="GH6" s="54"/>
+      <c r="GI6" s="54"/>
+      <c r="GJ6" s="54"/>
+      <c r="GK6" s="54"/>
+      <c r="GL6" s="54"/>
+      <c r="GM6" s="54"/>
+      <c r="GN6" s="54"/>
+      <c r="GO6" s="54"/>
+      <c r="GP6" s="54"/>
+      <c r="GQ6" s="54"/>
+      <c r="GR6" s="54"/>
+      <c r="GS6" s="54"/>
+      <c r="GT6" s="54"/>
+      <c r="GU6" s="54"/>
+      <c r="GV6" s="54"/>
+      <c r="GW6" s="54"/>
+      <c r="GX6" s="54"/>
+      <c r="GY6" s="54"/>
+      <c r="GZ6" s="54"/>
+      <c r="HA6" s="54"/>
+      <c r="HB6" s="54"/>
+      <c r="HC6" s="54"/>
+      <c r="HD6" s="54"/>
+      <c r="HE6" s="54"/>
+      <c r="HF6" s="54"/>
+      <c r="HG6" s="54"/>
+      <c r="HH6" s="54"/>
+      <c r="HI6" s="54"/>
+      <c r="HJ6" s="54"/>
+      <c r="HK6" s="54"/>
+      <c r="HL6" s="54"/>
+      <c r="HM6" s="54"/>
+      <c r="HN6" s="54"/>
+      <c r="HO6" s="54"/>
+      <c r="HP6" s="54"/>
+      <c r="HQ6" s="54"/>
+      <c r="HR6" s="54"/>
+      <c r="HS6" s="54"/>
+      <c r="HT6" s="54"/>
+      <c r="HU6" s="54"/>
+      <c r="HV6" s="54"/>
+      <c r="HW6" s="54"/>
+      <c r="HX6" s="54"/>
+      <c r="HY6" s="54"/>
+      <c r="HZ6" s="54"/>
+      <c r="IA6" s="54"/>
+      <c r="IB6" s="54"/>
+      <c r="IC6" s="54"/>
+      <c r="ID6" s="54"/>
+      <c r="IE6" s="55"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="A7" s="52"/>
+      <c r="B7" s="52"/>
+      <c r="C7" s="52"/>
+      <c r="D7" s="52"/>
+      <c r="E7" s="52"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="H7" s="52"/>
+      <c r="I7" s="52"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1996,10 +2000,10 @@
       <c r="A8" s="56">
         <v>1</v>
       </c>
-      <c r="B8" s="57" t="s">
+      <c r="B8" s="86" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="58"/>
+      <c r="C8" s="87"/>
       <c r="D8" s="56" t="s">
         <v>31</v>
       </c>
@@ -2012,10 +2016,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="58">
         <v>1</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2030,7 +2034,9 @@
       <c r="M8" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="N8" s="26"/>
+      <c r="N8" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="O8" s="13" t="s">
         <v>7</v>
       </c>
@@ -2265,8 +2271,8 @@
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A9" s="56"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
+      <c r="B9" s="88"/>
+      <c r="C9" s="89"/>
       <c r="D9" s="56"/>
       <c r="E9" s="56"/>
       <c r="F9" s="8">
@@ -2275,8 +2281,8 @@
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="58"/>
+      <c r="I9" s="59"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2526,8 +2532,8 @@
       <c r="A10" s="56">
         <v>2</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
+      <c r="B10" s="88"/>
+      <c r="C10" s="89"/>
       <c r="D10" s="56" t="s">
         <v>32</v>
       </c>
@@ -2540,10 +2546,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="58">
         <v>1</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2554,7 +2560,9 @@
       <c r="M10" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N10" s="26"/>
+      <c r="N10" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="O10" s="13" t="s">
         <v>7</v>
       </c>
@@ -2785,8 +2793,8 @@
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A11" s="56"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
+      <c r="B11" s="88"/>
+      <c r="C11" s="89"/>
       <c r="D11" s="56"/>
       <c r="E11" s="56"/>
       <c r="F11" s="8">
@@ -2795,8 +2803,8 @@
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="58"/>
+      <c r="I11" s="59"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3038,8 +3046,8 @@
       <c r="A12" s="56">
         <v>3</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
+      <c r="B12" s="88"/>
+      <c r="C12" s="89"/>
       <c r="D12" s="56" t="s">
         <v>33</v>
       </c>
@@ -3052,10 +3060,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="58">
         <v>1</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3066,7 +3074,9 @@
       <c r="M12" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N12" s="26"/>
+      <c r="N12" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="O12" s="13" t="s">
         <v>7</v>
       </c>
@@ -3297,8 +3307,8 @@
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
       <c r="A13" s="56"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
+      <c r="B13" s="88"/>
+      <c r="C13" s="89"/>
       <c r="D13" s="56"/>
       <c r="E13" s="56"/>
       <c r="F13" s="8">
@@ -3307,8 +3317,8 @@
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="58"/>
+      <c r="I13" s="59"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3550,8 +3560,8 @@
       <c r="A14" s="56">
         <v>4</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
+      <c r="B14" s="88"/>
+      <c r="C14" s="89"/>
       <c r="D14" s="56" t="s">
         <v>34</v>
       </c>
@@ -3564,10 +3574,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="58">
         <v>1</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3578,7 +3588,9 @@
       <c r="M14" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="N14" s="26"/>
+      <c r="N14" s="26" t="s">
+        <v>16</v>
+      </c>
       <c r="O14" s="13" t="s">
         <v>7</v>
       </c>
@@ -3809,18 +3821,18 @@
     </row>
     <row r="15" spans="1:239">
       <c r="A15" s="56"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
+      <c r="B15" s="88"/>
+      <c r="C15" s="89"/>
       <c r="D15" s="56"/>
-      <c r="E15" s="92"/>
+      <c r="E15" s="57"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="58"/>
+      <c r="I15" s="59"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4062,8 +4074,8 @@
       <c r="A16" s="56">
         <v>5</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
+      <c r="B16" s="88"/>
+      <c r="C16" s="89"/>
       <c r="D16" s="56" t="s">
         <v>24</v>
       </c>
@@ -4076,10 +4088,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="58">
         <v>1</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4319,18 +4331,18 @@
     </row>
     <row r="17" spans="1:239">
       <c r="A17" s="56"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
+      <c r="B17" s="88"/>
+      <c r="C17" s="89"/>
       <c r="D17" s="56"/>
-      <c r="E17" s="92"/>
+      <c r="E17" s="57"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="58"/>
+      <c r="I17" s="59"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4570,8 +4582,8 @@
       <c r="A18" s="56">
         <v>6</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
+      <c r="B18" s="88"/>
+      <c r="C18" s="89"/>
       <c r="D18" s="56" t="s">
         <v>25</v>
       </c>
@@ -4584,10 +4596,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="58">
         <v>1</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="58" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4827,18 +4839,18 @@
     </row>
     <row r="19" spans="1:239">
       <c r="A19" s="56"/>
-      <c r="B19" s="59"/>
-      <c r="C19" s="60"/>
+      <c r="B19" s="90"/>
+      <c r="C19" s="91"/>
       <c r="D19" s="56"/>
-      <c r="E19" s="92"/>
+      <c r="E19" s="57"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="58"/>
+      <c r="I19" s="59"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5078,14 +5090,14 @@
       <c r="A20" s="56">
         <v>9</v>
       </c>
-      <c r="B20" s="57" t="s">
+      <c r="B20" s="86" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="58"/>
-      <c r="D20" s="54" t="s">
+      <c r="C20" s="87"/>
+      <c r="D20" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="54" t="s">
+      <c r="E20" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5094,8 +5106,8 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="61"/>
-      <c r="I20" s="61"/>
+      <c r="H20" s="84"/>
+      <c r="I20" s="84"/>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5110,7 +5122,9 @@
       <c r="S20" s="13" t="s">
         <v>7</v>
       </c>
-      <c r="T20" s="14"/>
+      <c r="T20" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="U20" s="14" t="s">
         <v>16</v>
       </c>
@@ -5335,16 +5349,16 @@
     </row>
     <row r="21" spans="1:239">
       <c r="A21" s="56"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="55"/>
-      <c r="E21" s="55"/>
+      <c r="B21" s="88"/>
+      <c r="C21" s="89"/>
+      <c r="D21" s="62"/>
+      <c r="E21" s="62"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="62"/>
-      <c r="I21" s="62"/>
+      <c r="H21" s="85"/>
+      <c r="I21" s="85"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5594,12 +5608,12 @@
       <c r="A22" s="56">
         <v>10</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="54" t="s">
+      <c r="B22" s="88"/>
+      <c r="C22" s="89"/>
+      <c r="D22" s="61" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="54" t="s">
+      <c r="E22" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5608,8 +5622,8 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="61"/>
-      <c r="I22" s="61"/>
+      <c r="H22" s="84"/>
+      <c r="I22" s="84"/>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5625,7 +5639,9 @@
       <c r="V22" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W22" s="13"/>
+      <c r="W22" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="X22" s="13" t="s">
         <v>16</v>
       </c>
@@ -5847,16 +5863,16 @@
     </row>
     <row r="23" spans="1:239">
       <c r="A23" s="56"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="55"/>
-      <c r="E23" s="55"/>
+      <c r="B23" s="88"/>
+      <c r="C23" s="89"/>
+      <c r="D23" s="62"/>
+      <c r="E23" s="62"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="62"/>
-      <c r="I23" s="62"/>
+      <c r="H23" s="85"/>
+      <c r="I23" s="85"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -5869,21 +5885,11 @@
       <c r="S23" s="15"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y23" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z23" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V23" s="13"/>
+      <c r="W23" s="13"/>
+      <c r="X23" s="13"/>
+      <c r="Y23" s="13"/>
+      <c r="Z23" s="13"/>
       <c r="AA23" s="14"/>
       <c r="AB23" s="14"/>
       <c r="AC23" s="12"/>
@@ -6102,12 +6108,12 @@
       <c r="A24" s="56">
         <v>11</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="54" t="s">
+      <c r="B24" s="88"/>
+      <c r="C24" s="89"/>
+      <c r="D24" s="61" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="54" t="s">
+      <c r="E24" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6116,8 +6122,8 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="61"/>
-      <c r="I24" s="61"/>
+      <c r="H24" s="84"/>
+      <c r="I24" s="84"/>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6136,7 +6142,9 @@
       <c r="Y24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Z24" s="13"/>
+      <c r="Z24" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AA24" s="14" t="s">
         <v>16</v>
       </c>
@@ -6355,16 +6363,16 @@
     </row>
     <row r="25" spans="1:239" ht="19.5">
       <c r="A25" s="56"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="55"/>
-      <c r="E25" s="55"/>
+      <c r="B25" s="88"/>
+      <c r="C25" s="89"/>
+      <c r="D25" s="62"/>
+      <c r="E25" s="62"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="62"/>
-      <c r="I25" s="62"/>
+      <c r="H25" s="85"/>
+      <c r="I25" s="85"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6377,21 +6385,11 @@
       <c r="S25" s="15"/>
       <c r="T25" s="14"/>
       <c r="U25" s="14"/>
-      <c r="V25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y25" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z25" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V25" s="13"/>
+      <c r="W25" s="13"/>
+      <c r="X25" s="13"/>
+      <c r="Y25" s="13"/>
+      <c r="Z25" s="13"/>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
@@ -6610,12 +6608,12 @@
       <c r="A26" s="56">
         <v>12</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="54" t="s">
+      <c r="B26" s="88"/>
+      <c r="C26" s="89"/>
+      <c r="D26" s="61" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="54" t="s">
+      <c r="E26" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6624,8 +6622,8 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="61"/>
-      <c r="I26" s="61"/>
+      <c r="H26" s="84"/>
+      <c r="I26" s="84"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6647,7 +6645,9 @@
       <c r="AB26" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AC26" s="15"/>
+      <c r="AC26" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="AD26" s="29" t="s">
         <v>16</v>
       </c>
@@ -6863,16 +6863,16 @@
     </row>
     <row r="27" spans="1:239" ht="19.5">
       <c r="A27" s="56"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="55"/>
-      <c r="E27" s="55"/>
+      <c r="B27" s="88"/>
+      <c r="C27" s="89"/>
+      <c r="D27" s="62"/>
+      <c r="E27" s="62"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="62"/>
-      <c r="I27" s="62"/>
+      <c r="H27" s="85"/>
+      <c r="I27" s="85"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -6885,21 +6885,11 @@
       <c r="S27" s="15"/>
       <c r="T27" s="14"/>
       <c r="U27" s="14"/>
-      <c r="V27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y27" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z27" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V27" s="13"/>
+      <c r="W27" s="13"/>
+      <c r="X27" s="13"/>
+      <c r="Y27" s="13"/>
+      <c r="Z27" s="13"/>
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
       <c r="AC27" s="15"/>
@@ -7118,12 +7108,12 @@
       <c r="A28" s="56">
         <v>13</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="54" t="s">
+      <c r="B28" s="88"/>
+      <c r="C28" s="89"/>
+      <c r="D28" s="61" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="54" t="s">
+      <c r="E28" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7132,8 +7122,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="84"/>
+      <c r="I28" s="84"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7158,8 +7148,12 @@
       <c r="AE28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AF28" s="13"/>
-      <c r="AG28" s="13"/>
+      <c r="AF28" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG28" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AH28" s="44" t="s">
         <v>59</v>
       </c>
@@ -7371,16 +7365,16 @@
     </row>
     <row r="29" spans="1:239">
       <c r="A29" s="56"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="55"/>
-      <c r="E29" s="55"/>
+      <c r="B29" s="88"/>
+      <c r="C29" s="89"/>
+      <c r="D29" s="62"/>
+      <c r="E29" s="62"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
+      <c r="H29" s="85"/>
+      <c r="I29" s="85"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7393,21 +7387,11 @@
       <c r="S29" s="15"/>
       <c r="T29" s="14"/>
       <c r="U29" s="14"/>
-      <c r="V29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y29" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z29" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V29" s="13"/>
+      <c r="W29" s="13"/>
+      <c r="X29" s="13"/>
+      <c r="Y29" s="13"/>
+      <c r="Z29" s="13"/>
       <c r="AA29" s="14"/>
       <c r="AB29" s="14"/>
       <c r="AC29" s="15"/>
@@ -7626,12 +7610,12 @@
       <c r="A30" s="56">
         <v>14</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="54" t="s">
+      <c r="B30" s="88"/>
+      <c r="C30" s="89"/>
+      <c r="D30" s="61" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="54" t="s">
+      <c r="E30" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7640,8 +7624,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="84"/>
+      <c r="I30" s="84"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7670,7 +7654,9 @@
       <c r="AI30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AJ30" s="13"/>
+      <c r="AJ30" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AK30" s="13" t="s">
         <v>16</v>
       </c>
@@ -7879,16 +7865,16 @@
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
       <c r="A31" s="56"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="55"/>
-      <c r="E31" s="55"/>
+      <c r="B31" s="88"/>
+      <c r="C31" s="89"/>
+      <c r="D31" s="62"/>
+      <c r="E31" s="62"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="H31" s="85"/>
+      <c r="I31" s="85"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -7901,21 +7887,11 @@
       <c r="S31" s="15"/>
       <c r="T31" s="14"/>
       <c r="U31" s="14"/>
-      <c r="V31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y31" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z31" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V31" s="13"/>
+      <c r="W31" s="13"/>
+      <c r="X31" s="13"/>
+      <c r="Y31" s="13"/>
+      <c r="Z31" s="13"/>
       <c r="AA31" s="14"/>
       <c r="AB31" s="14"/>
       <c r="AC31" s="15"/>
@@ -8134,12 +8110,12 @@
       <c r="A32" s="56">
         <v>15</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="54" t="s">
+      <c r="B32" s="88"/>
+      <c r="C32" s="89"/>
+      <c r="D32" s="61" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="54" t="s">
+      <c r="E32" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8148,8 +8124,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="H32" s="84"/>
+      <c r="I32" s="84"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8181,7 +8157,9 @@
       <c r="AL32" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AM32" s="13"/>
+      <c r="AM32" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AN32" s="13" t="s">
         <v>16</v>
       </c>
@@ -8387,16 +8365,16 @@
     </row>
     <row r="33" spans="1:239">
       <c r="A33" s="56"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="55"/>
-      <c r="E33" s="55"/>
+      <c r="B33" s="88"/>
+      <c r="C33" s="89"/>
+      <c r="D33" s="62"/>
+      <c r="E33" s="62"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="H33" s="85"/>
+      <c r="I33" s="85"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8409,21 +8387,11 @@
       <c r="S33" s="15"/>
       <c r="T33" s="14"/>
       <c r="U33" s="14"/>
-      <c r="V33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y33" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z33" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V33" s="13"/>
+      <c r="W33" s="13"/>
+      <c r="X33" s="13"/>
+      <c r="Y33" s="13"/>
+      <c r="Z33" s="13"/>
       <c r="AA33" s="14"/>
       <c r="AB33" s="14"/>
       <c r="AC33" s="15"/>
@@ -8642,12 +8610,12 @@
       <c r="A34" s="56">
         <v>16</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="54" t="s">
+      <c r="B34" s="88"/>
+      <c r="C34" s="89"/>
+      <c r="D34" s="61" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="54" t="s">
+      <c r="E34" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8656,8 +8624,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="84"/>
+      <c r="I34" s="84"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8692,9 +8660,15 @@
       <c r="AO34" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AP34" s="31"/>
-      <c r="AQ34" s="13"/>
-      <c r="AR34" s="13"/>
+      <c r="AP34" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ34" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR34" s="50" t="s">
+        <v>16</v>
+      </c>
       <c r="AS34" s="50" t="s">
         <v>16</v>
       </c>
@@ -8895,16 +8869,16 @@
     </row>
     <row r="35" spans="1:239">
       <c r="A35" s="56"/>
-      <c r="B35" s="59"/>
-      <c r="C35" s="60"/>
-      <c r="D35" s="55"/>
-      <c r="E35" s="55"/>
+      <c r="B35" s="90"/>
+      <c r="C35" s="91"/>
+      <c r="D35" s="62"/>
+      <c r="E35" s="62"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="H35" s="85"/>
+      <c r="I35" s="85"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -8917,21 +8891,11 @@
       <c r="S35" s="15"/>
       <c r="T35" s="14"/>
       <c r="U35" s="14"/>
-      <c r="V35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y35" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z35" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V35" s="13"/>
+      <c r="W35" s="13"/>
+      <c r="X35" s="13"/>
+      <c r="Y35" s="13"/>
+      <c r="Z35" s="13"/>
       <c r="AA35" s="14"/>
       <c r="AB35" s="14"/>
       <c r="AC35" s="15"/>
@@ -9150,24 +9114,24 @@
       <c r="A36" s="56">
         <v>17</v>
       </c>
-      <c r="B36" s="57" t="s">
+      <c r="B36" s="86" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="58"/>
-      <c r="D36" s="56" t="s">
-        <v>41</v>
-      </c>
-      <c r="E36" s="54" t="s">
+      <c r="C36" s="87"/>
+      <c r="D36" s="61" t="s">
+        <v>69</v>
+      </c>
+      <c r="E36" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
-        <v>42826</v>
+        <v>42814</v>
       </c>
       <c r="G36" s="8">
-        <v>42832</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+        <v>42824</v>
+      </c>
+      <c r="H36" s="84"/>
+      <c r="I36" s="84"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9177,40 +9141,50 @@
       <c r="P36" s="13"/>
       <c r="Q36" s="13"/>
       <c r="R36" s="13"/>
-      <c r="S36" s="13"/>
+      <c r="S36" s="15"/>
       <c r="T36" s="14"/>
       <c r="U36" s="14"/>
-      <c r="V36" s="15"/>
-      <c r="W36" s="15"/>
-      <c r="X36" s="13"/>
-      <c r="Y36" s="13"/>
-      <c r="Z36" s="13"/>
-      <c r="AA36" s="14"/>
-      <c r="AB36" s="14"/>
-      <c r="AC36" s="13"/>
-      <c r="AD36" s="15"/>
-      <c r="AE36" s="15"/>
-      <c r="AF36" s="15"/>
+      <c r="V36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="W36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="X36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="Z36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AA36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AB36" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="AC36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AD36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AE36" s="29" t="s">
+        <v>16</v>
+      </c>
+      <c r="AF36" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="AG36" s="20"/>
-      <c r="AH36" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="AH36" s="31"/>
       <c r="AI36" s="31"/>
-      <c r="AJ36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AK36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AL36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AM36" s="13" t="s">
-        <v>16</v>
-      </c>
-      <c r="AN36" s="13" t="s">
-        <v>16</v>
-      </c>
+      <c r="AJ36" s="13"/>
+      <c r="AK36" s="13"/>
+      <c r="AL36" s="13"/>
+      <c r="AM36" s="13"/>
+      <c r="AN36" s="13"/>
       <c r="AO36" s="31"/>
       <c r="AP36" s="31"/>
       <c r="AQ36" s="13"/>
@@ -9413,14 +9387,16 @@
     </row>
     <row r="37" spans="1:239">
       <c r="A37" s="56"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="56"/>
-      <c r="E37" s="55"/>
-      <c r="F37" s="8"/>
+      <c r="B37" s="88"/>
+      <c r="C37" s="89"/>
+      <c r="D37" s="62"/>
+      <c r="E37" s="62"/>
+      <c r="F37" s="8">
+        <v>42815</v>
+      </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
+      <c r="H37" s="85"/>
+      <c r="I37" s="85"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9433,11 +9409,21 @@
       <c r="S37" s="15"/>
       <c r="T37" s="14"/>
       <c r="U37" s="14"/>
-      <c r="V37" s="15"/>
-      <c r="W37" s="15"/>
-      <c r="X37" s="13"/>
-      <c r="Y37" s="13"/>
-      <c r="Z37" s="13"/>
+      <c r="V37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="W37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="X37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Y37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="Z37" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
       <c r="AC37" s="13"/>
@@ -9656,22 +9642,22 @@
       <c r="A38" s="56">
         <v>18</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="54" t="s">
-        <v>69</v>
-      </c>
-      <c r="E38" s="54" t="s">
+      <c r="B38" s="88"/>
+      <c r="C38" s="89"/>
+      <c r="D38" s="56" t="s">
+        <v>41</v>
+      </c>
+      <c r="E38" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
-        <v>42814</v>
+        <v>42826</v>
       </c>
       <c r="G38" s="8">
-        <v>42824</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
+        <v>42832</v>
+      </c>
+      <c r="H38" s="84"/>
+      <c r="I38" s="84"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9681,48 +9667,42 @@
       <c r="P38" s="13"/>
       <c r="Q38" s="13"/>
       <c r="R38" s="13"/>
-      <c r="S38" s="15"/>
+      <c r="S38" s="13"/>
       <c r="T38" s="14"/>
       <c r="U38" s="14"/>
-      <c r="V38" s="29" t="s">
+      <c r="V38" s="15"/>
+      <c r="W38" s="15"/>
+      <c r="X38" s="13"/>
+      <c r="Y38" s="13"/>
+      <c r="Z38" s="13"/>
+      <c r="AA38" s="14"/>
+      <c r="AB38" s="14"/>
+      <c r="AC38" s="13"/>
+      <c r="AD38" s="15"/>
+      <c r="AE38" s="15"/>
+      <c r="AF38" s="15"/>
+      <c r="AG38" s="20"/>
+      <c r="AH38" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AI38" s="44" t="s">
+        <v>59</v>
+      </c>
+      <c r="AJ38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="W38" s="29" t="s">
+      <c r="AK38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="X38" s="29" t="s">
+      <c r="AL38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Y38" s="29" t="s">
+      <c r="AM38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Z38" s="29" t="s">
+      <c r="AN38" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AA38" s="14" t="s">
-        <v>16</v>
-      </c>
-      <c r="AB38" s="14"/>
-      <c r="AC38" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AD38" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AE38" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AF38" s="29" t="s">
-        <v>16</v>
-      </c>
-      <c r="AG38" s="20"/>
-      <c r="AH38" s="31"/>
-      <c r="AI38" s="31"/>
-      <c r="AJ38" s="13"/>
-      <c r="AK38" s="13"/>
-      <c r="AL38" s="13"/>
-      <c r="AM38" s="13"/>
-      <c r="AN38" s="13"/>
       <c r="AO38" s="31"/>
       <c r="AP38" s="31"/>
       <c r="AQ38" s="13"/>
@@ -9925,16 +9905,14 @@
     </row>
     <row r="39" spans="1:239">
       <c r="A39" s="56"/>
-      <c r="B39" s="59"/>
-      <c r="C39" s="60"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="55"/>
-      <c r="F39" s="8">
-        <v>42815</v>
-      </c>
+      <c r="B39" s="90"/>
+      <c r="C39" s="91"/>
+      <c r="D39" s="56"/>
+      <c r="E39" s="62"/>
+      <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="H39" s="85"/>
+      <c r="I39" s="85"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -9947,21 +9925,11 @@
       <c r="S39" s="15"/>
       <c r="T39" s="14"/>
       <c r="U39" s="14"/>
-      <c r="V39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="W39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="X39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Y39" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="Z39" s="15" t="s">
-        <v>37</v>
-      </c>
+      <c r="V39" s="15"/>
+      <c r="W39" s="15"/>
+      <c r="X39" s="13"/>
+      <c r="Y39" s="13"/>
+      <c r="Z39" s="13"/>
       <c r="AA39" s="14"/>
       <c r="AB39" s="14"/>
       <c r="AC39" s="13"/>
@@ -10180,14 +10148,14 @@
       <c r="A40" s="56">
         <v>19</v>
       </c>
-      <c r="B40" s="57" t="s">
+      <c r="B40" s="86" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="58"/>
-      <c r="D40" s="54" t="s">
+      <c r="C40" s="87"/>
+      <c r="D40" s="61" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="54" t="s">
+      <c r="E40" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10196,8 +10164,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
+      <c r="H40" s="84"/>
+      <c r="I40" s="84"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10228,7 +10196,9 @@
       <c r="AA40" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AB40" s="14"/>
+      <c r="AB40" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="AC40" s="29" t="s">
         <v>16</v>
       </c>
@@ -10451,16 +10421,16 @@
     </row>
     <row r="41" spans="1:239">
       <c r="A41" s="56"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="55"/>
-      <c r="E41" s="55"/>
+      <c r="B41" s="88"/>
+      <c r="C41" s="89"/>
+      <c r="D41" s="62"/>
+      <c r="E41" s="62"/>
       <c r="F41" s="8">
         <v>42814</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
+      <c r="H41" s="85"/>
+      <c r="I41" s="85"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10704,12 +10674,12 @@
       <c r="A42" s="56">
         <v>20</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
+      <c r="B42" s="88"/>
+      <c r="C42" s="89"/>
       <c r="D42" s="56" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="54" t="s">
+      <c r="E42" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10718,8 +10688,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="65"/>
-      <c r="I42" s="61"/>
+      <c r="H42" s="92"/>
+      <c r="I42" s="84"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10766,7 +10736,9 @@
       <c r="AO42" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AP42" s="31"/>
+      <c r="AP42" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ42" s="13" t="s">
         <v>16</v>
       </c>
@@ -10969,14 +10941,14 @@
     </row>
     <row r="43" spans="1:239">
       <c r="A43" s="56"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
+      <c r="B43" s="88"/>
+      <c r="C43" s="89"/>
       <c r="D43" s="56"/>
-      <c r="E43" s="55"/>
+      <c r="E43" s="62"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="93"/>
+      <c r="I43" s="85"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11212,12 +11184,12 @@
       <c r="A44" s="56">
         <v>21</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
+      <c r="B44" s="88"/>
+      <c r="C44" s="89"/>
       <c r="D44" s="56" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="54" t="s">
+      <c r="E44" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11226,8 +11198,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="65"/>
-      <c r="I44" s="61"/>
+      <c r="H44" s="92"/>
+      <c r="I44" s="84"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11465,14 +11437,14 @@
     </row>
     <row r="45" spans="1:239">
       <c r="A45" s="56"/>
-      <c r="B45" s="59"/>
-      <c r="C45" s="60"/>
+      <c r="B45" s="90"/>
+      <c r="C45" s="91"/>
       <c r="D45" s="56"/>
-      <c r="E45" s="55"/>
+      <c r="E45" s="62"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="62"/>
+      <c r="H45" s="93"/>
+      <c r="I45" s="85"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11708,24 +11680,28 @@
       <c r="A46" s="56">
         <v>22</v>
       </c>
-      <c r="B46" s="57" t="s">
+      <c r="B46" s="86" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="58"/>
+      <c r="C46" s="87"/>
       <c r="D46" s="56" t="s">
-        <v>63</v>
-      </c>
-      <c r="E46" s="54" t="s">
+        <v>70</v>
+      </c>
+      <c r="E46" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
-        <v>42821</v>
+        <v>42811</v>
       </c>
       <c r="G46" s="8">
-        <v>42823</v>
-      </c>
-      <c r="H46" s="61"/>
-      <c r="I46" s="61"/>
+        <v>42815</v>
+      </c>
+      <c r="H46" s="84">
+        <v>0.85</v>
+      </c>
+      <c r="I46" s="84" t="s">
+        <v>74</v>
+      </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
       <c r="L46" s="24"/>
@@ -11735,25 +11711,29 @@
       <c r="P46" s="13"/>
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
-      <c r="S46" s="13"/>
-      <c r="T46" s="14"/>
-      <c r="U46" s="14"/>
-      <c r="V46" s="15"/>
-      <c r="W46" s="15"/>
+      <c r="S46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="U46" s="14" t="s">
+        <v>16</v>
+      </c>
+      <c r="V46" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="W46" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
       <c r="Z46" s="13"/>
       <c r="AA46" s="14"/>
       <c r="AB46" s="14"/>
-      <c r="AC46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AD46" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="AE46" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="AC46" s="13"/>
+      <c r="AD46" s="15"/>
+      <c r="AE46" s="15"/>
       <c r="AF46" s="15"/>
       <c r="AG46" s="20"/>
       <c r="AH46" s="31"/>
@@ -11965,14 +11945,16 @@
     </row>
     <row r="47" spans="1:239">
       <c r="A47" s="56"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
+      <c r="B47" s="88"/>
+      <c r="C47" s="89"/>
       <c r="D47" s="56"/>
-      <c r="E47" s="55"/>
-      <c r="F47" s="8"/>
+      <c r="E47" s="62"/>
+      <c r="F47" s="8">
+        <v>42816</v>
+      </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
+      <c r="H47" s="85"/>
+      <c r="I47" s="85"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -11985,17 +11967,37 @@
       <c r="S47" s="15"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
-      <c r="V47" s="15"/>
-      <c r="W47" s="15"/>
-      <c r="X47" s="13"/>
-      <c r="Y47" s="13"/>
-      <c r="Z47" s="13"/>
-      <c r="AA47" s="14"/>
+      <c r="V47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Y47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AA47" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="AB47" s="14"/>
-      <c r="AC47" s="13"/>
-      <c r="AD47" s="15"/>
-      <c r="AE47" s="15"/>
-      <c r="AF47" s="15"/>
+      <c r="AC47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF47" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AG47" s="20"/>
       <c r="AH47" s="31"/>
       <c r="AI47" s="31"/>
@@ -12208,12 +12210,12 @@
       <c r="A48" s="56">
         <v>23</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
+      <c r="B48" s="88"/>
+      <c r="C48" s="89"/>
       <c r="D48" s="56" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="54" t="s">
+      <c r="E48" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12222,8 +12224,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
+      <c r="H48" s="84"/>
+      <c r="I48" s="84"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12465,14 +12467,14 @@
     </row>
     <row r="49" spans="1:239">
       <c r="A49" s="56"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
+      <c r="B49" s="88"/>
+      <c r="C49" s="89"/>
       <c r="D49" s="56"/>
-      <c r="E49" s="55"/>
+      <c r="E49" s="62"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
+      <c r="H49" s="85"/>
+      <c r="I49" s="85"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12708,22 +12710,22 @@
       <c r="A50" s="56">
         <v>23</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
+      <c r="B50" s="88"/>
+      <c r="C50" s="89"/>
       <c r="D50" s="56" t="s">
-        <v>70</v>
-      </c>
-      <c r="E50" s="54" t="s">
+        <v>63</v>
+      </c>
+      <c r="E50" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
-        <v>42811</v>
+        <v>42821</v>
       </c>
       <c r="G50" s="8">
-        <v>42815</v>
-      </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
+        <v>42823</v>
+      </c>
+      <c r="H50" s="84"/>
+      <c r="I50" s="84"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12733,25 +12735,25 @@
       <c r="P50" s="13"/>
       <c r="Q50" s="13"/>
       <c r="R50" s="13"/>
-      <c r="S50" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="S50" s="13"/>
       <c r="T50" s="14"/>
       <c r="U50" s="14"/>
-      <c r="V50" s="13" t="s">
-        <v>59</v>
-      </c>
-      <c r="W50" s="13" t="s">
-        <v>59</v>
-      </c>
+      <c r="V50" s="15"/>
+      <c r="W50" s="15"/>
       <c r="X50" s="13"/>
       <c r="Y50" s="13"/>
       <c r="Z50" s="13"/>
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
-      <c r="AC50" s="13"/>
-      <c r="AD50" s="15"/>
-      <c r="AE50" s="15"/>
+      <c r="AC50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AD50" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AE50" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AF50" s="15"/>
       <c r="AG50" s="20"/>
       <c r="AH50" s="31"/>
@@ -12963,16 +12965,14 @@
     </row>
     <row r="51" spans="1:239">
       <c r="A51" s="56"/>
-      <c r="B51" s="59"/>
-      <c r="C51" s="60"/>
+      <c r="B51" s="90"/>
+      <c r="C51" s="91"/>
       <c r="D51" s="56"/>
-      <c r="E51" s="55"/>
-      <c r="F51" s="8">
-        <v>42816</v>
-      </c>
+      <c r="E51" s="62"/>
+      <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
+      <c r="H51" s="85"/>
+      <c r="I51" s="85"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -12985,21 +12985,11 @@
       <c r="S51" s="15"/>
       <c r="T51" s="14"/>
       <c r="U51" s="14"/>
-      <c r="V51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="X51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Y51" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="Z51" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V51" s="15"/>
+      <c r="W51" s="15"/>
+      <c r="X51" s="13"/>
+      <c r="Y51" s="13"/>
+      <c r="Z51" s="13"/>
       <c r="AA51" s="14"/>
       <c r="AB51" s="14"/>
       <c r="AC51" s="13"/>
@@ -13218,14 +13208,14 @@
       <c r="A52" s="56">
         <v>24</v>
       </c>
-      <c r="B52" s="57" t="s">
+      <c r="B52" s="86" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="58"/>
+      <c r="C52" s="87"/>
       <c r="D52" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="54" t="s">
+      <c r="E52" s="61" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13234,8 +13224,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
+      <c r="H52" s="84"/>
+      <c r="I52" s="84"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13265,7 +13255,9 @@
       <c r="AH52" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AI52" s="31"/>
+      <c r="AI52" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="AJ52" s="13" t="s">
         <v>59</v>
       </c>
@@ -13284,7 +13276,9 @@
       <c r="AO52" s="44" t="s">
         <v>59</v>
       </c>
-      <c r="AP52" s="31"/>
+      <c r="AP52" s="44" t="s">
+        <v>59</v>
+      </c>
       <c r="AQ52" s="13" t="s">
         <v>59</v>
       </c>
@@ -13491,14 +13485,14 @@
     </row>
     <row r="53" spans="1:239">
       <c r="A53" s="56"/>
-      <c r="B53" s="59"/>
-      <c r="C53" s="60"/>
+      <c r="B53" s="90"/>
+      <c r="C53" s="91"/>
       <c r="D53" s="56"/>
-      <c r="E53" s="55"/>
+      <c r="E53" s="62"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
+      <c r="H53" s="85"/>
+      <c r="I53" s="85"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13734,14 +13728,14 @@
       <c r="A54" s="56">
         <v>25</v>
       </c>
-      <c r="B54" s="57" t="s">
+      <c r="B54" s="86" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="58"/>
-      <c r="D54" s="54" t="s">
+      <c r="C54" s="87"/>
+      <c r="D54" s="61" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="54" t="s">
+      <c r="E54" s="61" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13750,8 +13744,8 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
+      <c r="H54" s="84"/>
+      <c r="I54" s="84"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13763,8 +13757,12 @@
       <c r="R54" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="S54" s="15"/>
-      <c r="T54" s="14"/>
+      <c r="S54" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="T54" s="14" t="s">
+        <v>16</v>
+      </c>
       <c r="U54" s="14" t="s">
         <v>16</v>
       </c>
@@ -13989,16 +13987,16 @@
     </row>
     <row r="55" spans="1:239">
       <c r="A55" s="56"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="55"/>
+      <c r="B55" s="88"/>
+      <c r="C55" s="89"/>
+      <c r="D55" s="62"/>
+      <c r="E55" s="62"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
+      <c r="H55" s="85"/>
+      <c r="I55" s="85"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14238,8 +14236,8 @@
       <c r="A56" s="56">
         <v>26</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
+      <c r="B56" s="88"/>
+      <c r="C56" s="89"/>
       <c r="D56" s="56" t="s">
         <v>66</v>
       </c>
@@ -14252,8 +14250,8 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="58"/>
+      <c r="I56" s="58"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14269,7 +14267,9 @@
       <c r="V56" s="29" t="s">
         <v>16</v>
       </c>
-      <c r="W56" s="13"/>
+      <c r="W56" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="X56" s="13" t="s">
         <v>16</v>
       </c>
@@ -14491,16 +14491,16 @@
     </row>
     <row r="57" spans="1:239">
       <c r="A57" s="56"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
+      <c r="B57" s="88"/>
+      <c r="C57" s="89"/>
       <c r="D57" s="56"/>
       <c r="E57" s="56"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="53"/>
+      <c r="H57" s="58"/>
+      <c r="I57" s="59"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14740,8 +14740,8 @@
       <c r="A58" s="56">
         <v>27</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
+      <c r="B58" s="88"/>
+      <c r="C58" s="89"/>
       <c r="D58" s="56" t="s">
         <v>53</v>
       </c>
@@ -14754,8 +14754,8 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
+      <c r="H58" s="58"/>
+      <c r="I58" s="58"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14774,7 +14774,9 @@
       <c r="Y58" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="Z58" s="13"/>
+      <c r="Z58" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AA58" s="14" t="s">
         <v>16</v>
       </c>
@@ -14993,16 +14995,16 @@
     </row>
     <row r="59" spans="1:239" ht="19.5">
       <c r="A59" s="56"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
+      <c r="B59" s="88"/>
+      <c r="C59" s="89"/>
       <c r="D59" s="56"/>
       <c r="E59" s="56"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="53"/>
+      <c r="H59" s="58"/>
+      <c r="I59" s="59"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15242,8 +15244,8 @@
       <c r="A60" s="56">
         <v>28</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
+      <c r="B60" s="88"/>
+      <c r="C60" s="89"/>
       <c r="D60" s="56" t="s">
         <v>54</v>
       </c>
@@ -15256,8 +15258,8 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="H60" s="58"/>
+      <c r="I60" s="58"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
@@ -15279,7 +15281,9 @@
       <c r="AB60" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="AC60" s="15"/>
+      <c r="AC60" s="29" t="s">
+        <v>16</v>
+      </c>
       <c r="AD60" s="29" t="s">
         <v>16</v>
       </c>
@@ -15495,16 +15499,16 @@
     </row>
     <row r="61" spans="1:239" ht="19.5">
       <c r="A61" s="56"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
+      <c r="B61" s="88"/>
+      <c r="C61" s="89"/>
       <c r="D61" s="56"/>
       <c r="E61" s="56"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="53"/>
+      <c r="H61" s="58"/>
+      <c r="I61" s="59"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15744,8 +15748,8 @@
       <c r="A62" s="56">
         <v>29</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
+      <c r="B62" s="88"/>
+      <c r="C62" s="89"/>
       <c r="D62" s="56" t="s">
         <v>56</v>
       </c>
@@ -15758,8 +15762,8 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="H62" s="58"/>
+      <c r="I62" s="58"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -15784,8 +15788,12 @@
       <c r="AE62" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AF62" s="13"/>
-      <c r="AG62" s="13"/>
+      <c r="AF62" s="13" t="s">
+        <v>59</v>
+      </c>
+      <c r="AG62" s="13" t="s">
+        <v>59</v>
+      </c>
       <c r="AH62" s="44" t="s">
         <v>59</v>
       </c>
@@ -15997,14 +16005,14 @@
     </row>
     <row r="63" spans="1:239">
       <c r="A63" s="56"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
+      <c r="B63" s="88"/>
+      <c r="C63" s="89"/>
       <c r="D63" s="56"/>
       <c r="E63" s="56"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
+      <c r="H63" s="58"/>
+      <c r="I63" s="59"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16240,9 +16248,9 @@
       <c r="A64" s="56">
         <v>30</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="54" t="s">
+      <c r="B64" s="88"/>
+      <c r="C64" s="89"/>
+      <c r="D64" s="61" t="s">
         <v>60</v>
       </c>
       <c r="E64" s="56" t="s">
@@ -16254,8 +16262,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
+      <c r="H64" s="84"/>
+      <c r="I64" s="84"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16284,7 +16292,9 @@
       <c r="AI64" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AJ64" s="13"/>
+      <c r="AJ64" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AK64" s="13" t="s">
         <v>16</v>
       </c>
@@ -16493,14 +16503,14 @@
     </row>
     <row r="65" spans="1:239">
       <c r="A65" s="56"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="55"/>
+      <c r="B65" s="88"/>
+      <c r="C65" s="89"/>
+      <c r="D65" s="62"/>
       <c r="E65" s="56"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
+      <c r="H65" s="85"/>
+      <c r="I65" s="85"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16733,11 +16743,11 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="54">
+      <c r="A66" s="61">
         <v>31</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
+      <c r="B66" s="88"/>
+      <c r="C66" s="89"/>
       <c r="D66" s="56" t="s">
         <v>57</v>
       </c>
@@ -16750,8 +16760,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="H66" s="58"/>
+      <c r="I66" s="58"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -16783,7 +16793,9 @@
       <c r="AL66" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AM66" s="13"/>
+      <c r="AM66" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AN66" s="13" t="s">
         <v>16</v>
       </c>
@@ -16988,15 +17000,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="55"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
+      <c r="A67" s="62"/>
+      <c r="B67" s="88"/>
+      <c r="C67" s="89"/>
       <c r="D67" s="56"/>
       <c r="E67" s="56"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
+      <c r="H67" s="58"/>
+      <c r="I67" s="59"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17229,11 +17241,11 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="54">
+      <c r="A68" s="61">
         <v>32</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
+      <c r="B68" s="88"/>
+      <c r="C68" s="89"/>
       <c r="D68" s="56" t="s">
         <v>68</v>
       </c>
@@ -17246,8 +17258,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="H68" s="58"/>
+      <c r="I68" s="58"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17282,9 +17294,15 @@
       <c r="AO68" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="AP68" s="31"/>
-      <c r="AQ68" s="13"/>
-      <c r="AR68" s="13"/>
+      <c r="AP68" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AQ68" s="13" t="s">
+        <v>16</v>
+      </c>
+      <c r="AR68" s="13" t="s">
+        <v>16</v>
+      </c>
       <c r="AS68" s="13" t="s">
         <v>16</v>
       </c>
@@ -17484,15 +17502,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="55"/>
-      <c r="B69" s="59"/>
-      <c r="C69" s="60"/>
+      <c r="A69" s="62"/>
+      <c r="B69" s="90"/>
+      <c r="C69" s="91"/>
       <c r="D69" s="56"/>
       <c r="E69" s="56"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
+      <c r="H69" s="58"/>
+      <c r="I69" s="59"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17725,76 +17743,233 @@
       <c r="IE69" s="13"/>
     </row>
     <row r="71" spans="1:239">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="60" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="93"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="93"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="93"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="93"/>
-      <c r="R71" s="93"/>
-      <c r="S71" s="93"/>
-      <c r="T71" s="93"/>
-      <c r="U71" s="93"/>
-      <c r="V71" s="93"/>
-      <c r="W71" s="93"/>
-      <c r="X71" s="93"/>
-      <c r="Y71" s="93"/>
-      <c r="Z71" s="93"/>
-      <c r="AA71" s="93"/>
-      <c r="AB71" s="93"/>
-      <c r="AC71" s="93"/>
-      <c r="AD71" s="93"/>
-      <c r="AE71" s="93"/>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
+      <c r="D71" s="60"/>
+      <c r="E71" s="60"/>
+      <c r="F71" s="60"/>
+      <c r="G71" s="60"/>
+      <c r="H71" s="60"/>
+      <c r="I71" s="60"/>
+      <c r="J71" s="60"/>
+      <c r="K71" s="60"/>
+      <c r="L71" s="60"/>
+      <c r="M71" s="60"/>
+      <c r="N71" s="60"/>
+      <c r="O71" s="60"/>
+      <c r="P71" s="60"/>
+      <c r="Q71" s="60"/>
+      <c r="R71" s="60"/>
+      <c r="S71" s="60"/>
+      <c r="T71" s="60"/>
+      <c r="U71" s="60"/>
+      <c r="V71" s="60"/>
+      <c r="W71" s="60"/>
+      <c r="X71" s="60"/>
+      <c r="Y71" s="60"/>
+      <c r="Z71" s="60"/>
+      <c r="AA71" s="60"/>
+      <c r="AB71" s="60"/>
+      <c r="AC71" s="60"/>
+      <c r="AD71" s="60"/>
+      <c r="AE71" s="60"/>
     </row>
     <row r="72" spans="1:239">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="93"/>
-      <c r="M72" s="93"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="93"/>
-      <c r="S72" s="93"/>
-      <c r="T72" s="93"/>
-      <c r="U72" s="93"/>
-      <c r="V72" s="93"/>
-      <c r="W72" s="93"/>
-      <c r="X72" s="93"/>
-      <c r="Y72" s="93"/>
-      <c r="Z72" s="93"/>
-      <c r="AA72" s="93"/>
-      <c r="AB72" s="93"/>
-      <c r="AC72" s="93"/>
-      <c r="AD72" s="93"/>
-      <c r="AE72" s="93"/>
+      <c r="A72" s="60"/>
+      <c r="B72" s="60"/>
+      <c r="C72" s="60"/>
+      <c r="D72" s="60"/>
+      <c r="E72" s="60"/>
+      <c r="F72" s="60"/>
+      <c r="G72" s="60"/>
+      <c r="H72" s="60"/>
+      <c r="I72" s="60"/>
+      <c r="J72" s="60"/>
+      <c r="K72" s="60"/>
+      <c r="L72" s="60"/>
+      <c r="M72" s="60"/>
+      <c r="N72" s="60"/>
+      <c r="O72" s="60"/>
+      <c r="P72" s="60"/>
+      <c r="Q72" s="60"/>
+      <c r="R72" s="60"/>
+      <c r="S72" s="60"/>
+      <c r="T72" s="60"/>
+      <c r="U72" s="60"/>
+      <c r="V72" s="60"/>
+      <c r="W72" s="60"/>
+      <c r="X72" s="60"/>
+      <c r="Y72" s="60"/>
+      <c r="Z72" s="60"/>
+      <c r="AA72" s="60"/>
+      <c r="AB72" s="60"/>
+      <c r="AC72" s="60"/>
+      <c r="AD72" s="60"/>
+      <c r="AE72" s="60"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="B54:C69"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="AH6:IE6"/>
     <mergeCell ref="E14:E15"/>
@@ -17819,163 +17994,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="B54:C69"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I56:I57"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="13140" windowHeight="5790" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="10395" windowHeight="1995" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
   <si>
     <t>No</t>
   </si>
@@ -318,7 +319,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
@@ -800,38 +801,50 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -896,39 +909,27 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="표준" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1004,12 +1005,15 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1051,7 +1055,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria"/>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1086,7 +1090,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1300,8 +1304,8 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="K36" sqref="K36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1325,226 +1329,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="67" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="64"/>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
-      <c r="E1" s="64"/>
-      <c r="F1" s="64"/>
-      <c r="G1" s="64"/>
-      <c r="H1" s="64"/>
-      <c r="I1" s="64"/>
-      <c r="J1" s="64"/>
-      <c r="K1" s="64"/>
-      <c r="L1" s="64"/>
-      <c r="M1" s="64"/>
-      <c r="N1" s="64"/>
-      <c r="O1" s="64"/>
-      <c r="P1" s="64"/>
-      <c r="Q1" s="64"/>
-      <c r="R1" s="64"/>
-      <c r="S1" s="64"/>
-      <c r="T1" s="64"/>
-      <c r="U1" s="64"/>
-      <c r="V1" s="64"/>
-      <c r="W1" s="64"/>
-      <c r="X1" s="64"/>
-      <c r="Y1" s="64"/>
-      <c r="Z1" s="64"/>
-      <c r="AA1" s="64"/>
-      <c r="AB1" s="64"/>
-      <c r="AC1" s="64"/>
-      <c r="AD1" s="64"/>
-      <c r="AE1" s="64"/>
-      <c r="AF1" s="64"/>
-      <c r="AG1" s="64"/>
-      <c r="AH1" s="64"/>
-      <c r="AI1" s="64"/>
-      <c r="AJ1" s="64"/>
-      <c r="AK1" s="64"/>
-      <c r="AL1" s="64"/>
-      <c r="AM1" s="64"/>
-      <c r="AN1" s="64"/>
+      <c r="B1" s="68"/>
+      <c r="C1" s="68"/>
+      <c r="D1" s="68"/>
+      <c r="E1" s="68"/>
+      <c r="F1" s="68"/>
+      <c r="G1" s="68"/>
+      <c r="H1" s="68"/>
+      <c r="I1" s="68"/>
+      <c r="J1" s="68"/>
+      <c r="K1" s="68"/>
+      <c r="L1" s="68"/>
+      <c r="M1" s="68"/>
+      <c r="N1" s="68"/>
+      <c r="O1" s="68"/>
+      <c r="P1" s="68"/>
+      <c r="Q1" s="68"/>
+      <c r="R1" s="68"/>
+      <c r="S1" s="68"/>
+      <c r="T1" s="68"/>
+      <c r="U1" s="68"/>
+      <c r="V1" s="68"/>
+      <c r="W1" s="68"/>
+      <c r="X1" s="68"/>
+      <c r="Y1" s="68"/>
+      <c r="Z1" s="68"/>
+      <c r="AA1" s="68"/>
+      <c r="AB1" s="68"/>
+      <c r="AC1" s="68"/>
+      <c r="AD1" s="68"/>
+      <c r="AE1" s="68"/>
+      <c r="AF1" s="68"/>
+      <c r="AG1" s="68"/>
+      <c r="AH1" s="68"/>
+      <c r="AI1" s="68"/>
+      <c r="AJ1" s="68"/>
+      <c r="AK1" s="68"/>
+      <c r="AL1" s="68"/>
+      <c r="AM1" s="68"/>
+      <c r="AN1" s="68"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="63"/>
-      <c r="B2" s="64"/>
-      <c r="C2" s="64"/>
-      <c r="D2" s="64"/>
-      <c r="E2" s="64"/>
-      <c r="F2" s="64"/>
-      <c r="G2" s="64"/>
-      <c r="H2" s="64"/>
-      <c r="I2" s="64"/>
-      <c r="J2" s="64"/>
-      <c r="K2" s="64"/>
-      <c r="L2" s="64"/>
-      <c r="M2" s="64"/>
-      <c r="N2" s="64"/>
-      <c r="O2" s="64"/>
-      <c r="P2" s="64"/>
-      <c r="Q2" s="64"/>
-      <c r="R2" s="64"/>
-      <c r="S2" s="64"/>
-      <c r="T2" s="64"/>
-      <c r="U2" s="64"/>
-      <c r="V2" s="64"/>
-      <c r="W2" s="64"/>
-      <c r="X2" s="64"/>
-      <c r="Y2" s="64"/>
-      <c r="Z2" s="64"/>
-      <c r="AA2" s="64"/>
-      <c r="AB2" s="64"/>
-      <c r="AC2" s="64"/>
-      <c r="AD2" s="64"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-      <c r="AG2" s="64"/>
-      <c r="AH2" s="64"/>
-      <c r="AI2" s="64"/>
-      <c r="AJ2" s="64"/>
-      <c r="AK2" s="64"/>
-      <c r="AL2" s="64"/>
-      <c r="AM2" s="64"/>
-      <c r="AN2" s="64"/>
+      <c r="A2" s="67"/>
+      <c r="B2" s="68"/>
+      <c r="C2" s="68"/>
+      <c r="D2" s="68"/>
+      <c r="E2" s="68"/>
+      <c r="F2" s="68"/>
+      <c r="G2" s="68"/>
+      <c r="H2" s="68"/>
+      <c r="I2" s="68"/>
+      <c r="J2" s="68"/>
+      <c r="K2" s="68"/>
+      <c r="L2" s="68"/>
+      <c r="M2" s="68"/>
+      <c r="N2" s="68"/>
+      <c r="O2" s="68"/>
+      <c r="P2" s="68"/>
+      <c r="Q2" s="68"/>
+      <c r="R2" s="68"/>
+      <c r="S2" s="68"/>
+      <c r="T2" s="68"/>
+      <c r="U2" s="68"/>
+      <c r="V2" s="68"/>
+      <c r="W2" s="68"/>
+      <c r="X2" s="68"/>
+      <c r="Y2" s="68"/>
+      <c r="Z2" s="68"/>
+      <c r="AA2" s="68"/>
+      <c r="AB2" s="68"/>
+      <c r="AC2" s="68"/>
+      <c r="AD2" s="68"/>
+      <c r="AE2" s="68"/>
+      <c r="AF2" s="68"/>
+      <c r="AG2" s="68"/>
+      <c r="AH2" s="68"/>
+      <c r="AI2" s="68"/>
+      <c r="AJ2" s="68"/>
+      <c r="AK2" s="68"/>
+      <c r="AL2" s="68"/>
+      <c r="AM2" s="68"/>
+      <c r="AN2" s="68"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="65" t="s">
+      <c r="A3" s="69" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="65"/>
-      <c r="C3" s="65"/>
-      <c r="D3" s="65"/>
-      <c r="E3" s="65"/>
-      <c r="F3" s="65"/>
-      <c r="G3" s="69" t="s">
+      <c r="B3" s="69"/>
+      <c r="C3" s="69"/>
+      <c r="D3" s="69"/>
+      <c r="E3" s="69"/>
+      <c r="F3" s="69"/>
+      <c r="G3" s="73" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="70"/>
-      <c r="I3" s="71" t="s">
+      <c r="H3" s="74"/>
+      <c r="I3" s="75" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="72"/>
-      <c r="K3" s="72"/>
-      <c r="L3" s="72"/>
-      <c r="M3" s="72"/>
-      <c r="N3" s="72"/>
-      <c r="O3" s="72"/>
-      <c r="P3" s="72"/>
-      <c r="Q3" s="65" t="s">
+      <c r="J3" s="76"/>
+      <c r="K3" s="76"/>
+      <c r="L3" s="76"/>
+      <c r="M3" s="76"/>
+      <c r="N3" s="76"/>
+      <c r="O3" s="76"/>
+      <c r="P3" s="76"/>
+      <c r="Q3" s="69" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="65"/>
-      <c r="S3" s="65"/>
-      <c r="T3" s="65"/>
-      <c r="U3" s="65"/>
-      <c r="V3" s="65"/>
-      <c r="W3" s="65"/>
-      <c r="X3" s="65"/>
-      <c r="Y3" s="65"/>
-      <c r="Z3" s="65"/>
-      <c r="AA3" s="65"/>
-      <c r="AB3" s="65"/>
-      <c r="AC3" s="65"/>
-      <c r="AD3" s="65"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-      <c r="AG3" s="65"/>
-      <c r="AH3" s="65"/>
-      <c r="AI3" s="65"/>
-      <c r="AJ3" s="65"/>
-      <c r="AK3" s="65"/>
-      <c r="AL3" s="65"/>
-      <c r="AM3" s="65"/>
-      <c r="AN3" s="65"/>
+      <c r="R3" s="69"/>
+      <c r="S3" s="69"/>
+      <c r="T3" s="69"/>
+      <c r="U3" s="69"/>
+      <c r="V3" s="69"/>
+      <c r="W3" s="69"/>
+      <c r="X3" s="69"/>
+      <c r="Y3" s="69"/>
+      <c r="Z3" s="69"/>
+      <c r="AA3" s="69"/>
+      <c r="AB3" s="69"/>
+      <c r="AC3" s="69"/>
+      <c r="AD3" s="69"/>
+      <c r="AE3" s="69"/>
+      <c r="AF3" s="69"/>
+      <c r="AG3" s="69"/>
+      <c r="AH3" s="69"/>
+      <c r="AI3" s="69"/>
+      <c r="AJ3" s="69"/>
+      <c r="AK3" s="69"/>
+      <c r="AL3" s="69"/>
+      <c r="AM3" s="69"/>
+      <c r="AN3" s="69"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="73" t="s">
+      <c r="A4" s="77" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="73"/>
-      <c r="C4" s="73"/>
-      <c r="D4" s="73"/>
-      <c r="E4" s="73"/>
-      <c r="F4" s="73"/>
-      <c r="G4" s="74" t="s">
+      <c r="B4" s="77"/>
+      <c r="C4" s="77"/>
+      <c r="D4" s="77"/>
+      <c r="E4" s="77"/>
+      <c r="F4" s="77"/>
+      <c r="G4" s="78" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="75"/>
-      <c r="I4" s="76" t="s">
+      <c r="H4" s="79"/>
+      <c r="I4" s="80" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="77"/>
-      <c r="K4" s="77"/>
-      <c r="L4" s="77"/>
-      <c r="M4" s="77"/>
-      <c r="N4" s="77"/>
-      <c r="O4" s="77"/>
-      <c r="P4" s="78"/>
-      <c r="Q4" s="66" t="s">
+      <c r="J4" s="81"/>
+      <c r="K4" s="81"/>
+      <c r="L4" s="81"/>
+      <c r="M4" s="81"/>
+      <c r="N4" s="81"/>
+      <c r="O4" s="81"/>
+      <c r="P4" s="82"/>
+      <c r="Q4" s="70" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="67"/>
-      <c r="S4" s="67"/>
-      <c r="T4" s="67"/>
-      <c r="U4" s="67"/>
-      <c r="V4" s="67"/>
-      <c r="W4" s="67"/>
-      <c r="X4" s="67"/>
-      <c r="Y4" s="67"/>
-      <c r="Z4" s="67"/>
-      <c r="AA4" s="67"/>
-      <c r="AB4" s="67"/>
-      <c r="AC4" s="67"/>
-      <c r="AD4" s="67"/>
-      <c r="AE4" s="67"/>
-      <c r="AF4" s="67"/>
-      <c r="AG4" s="67"/>
-      <c r="AH4" s="67"/>
-      <c r="AI4" s="67"/>
-      <c r="AJ4" s="67"/>
-      <c r="AK4" s="67"/>
-      <c r="AL4" s="67"/>
-      <c r="AM4" s="67"/>
-      <c r="AN4" s="68"/>
+      <c r="R4" s="71"/>
+      <c r="S4" s="71"/>
+      <c r="T4" s="71"/>
+      <c r="U4" s="71"/>
+      <c r="V4" s="71"/>
+      <c r="W4" s="71"/>
+      <c r="X4" s="71"/>
+      <c r="Y4" s="71"/>
+      <c r="Z4" s="71"/>
+      <c r="AA4" s="71"/>
+      <c r="AB4" s="71"/>
+      <c r="AC4" s="71"/>
+      <c r="AD4" s="71"/>
+      <c r="AE4" s="71"/>
+      <c r="AF4" s="71"/>
+      <c r="AG4" s="71"/>
+      <c r="AH4" s="71"/>
+      <c r="AI4" s="71"/>
+      <c r="AJ4" s="71"/>
+      <c r="AK4" s="71"/>
+      <c r="AL4" s="71"/>
+      <c r="AM4" s="71"/>
+      <c r="AN4" s="72"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="82"/>
-      <c r="B5" s="82"/>
-      <c r="C5" s="82"/>
-      <c r="D5" s="82"/>
-      <c r="E5" s="82"/>
-      <c r="F5" s="82"/>
-      <c r="G5" s="82"/>
-      <c r="H5" s="82"/>
-      <c r="I5" s="82"/>
-      <c r="J5" s="83"/>
-      <c r="K5" s="83"/>
-      <c r="L5" s="83"/>
-      <c r="M5" s="83"/>
-      <c r="N5" s="83"/>
-      <c r="O5" s="83"/>
-      <c r="P5" s="83"/>
-      <c r="Q5" s="83"/>
-      <c r="R5" s="83"/>
-      <c r="S5" s="83"/>
-      <c r="T5" s="83"/>
-      <c r="U5" s="83"/>
-      <c r="V5" s="83"/>
-      <c r="W5" s="83"/>
-      <c r="X5" s="83"/>
-      <c r="Y5" s="83"/>
-      <c r="Z5" s="83"/>
-      <c r="AA5" s="83"/>
-      <c r="AB5" s="83"/>
-      <c r="AC5" s="83"/>
-      <c r="AD5" s="83"/>
-      <c r="AE5" s="83"/>
+      <c r="A5" s="86"/>
+      <c r="B5" s="86"/>
+      <c r="C5" s="86"/>
+      <c r="D5" s="86"/>
+      <c r="E5" s="86"/>
+      <c r="F5" s="86"/>
+      <c r="G5" s="86"/>
+      <c r="H5" s="86"/>
+      <c r="I5" s="86"/>
+      <c r="J5" s="87"/>
+      <c r="K5" s="87"/>
+      <c r="L5" s="87"/>
+      <c r="M5" s="87"/>
+      <c r="N5" s="87"/>
+      <c r="O5" s="87"/>
+      <c r="P5" s="87"/>
+      <c r="Q5" s="87"/>
+      <c r="R5" s="87"/>
+      <c r="S5" s="87"/>
+      <c r="T5" s="87"/>
+      <c r="U5" s="87"/>
+      <c r="V5" s="87"/>
+      <c r="W5" s="87"/>
+      <c r="X5" s="87"/>
+      <c r="Y5" s="87"/>
+      <c r="Z5" s="87"/>
+      <c r="AA5" s="87"/>
+      <c r="AB5" s="87"/>
+      <c r="AC5" s="87"/>
+      <c r="AD5" s="87"/>
+      <c r="AE5" s="87"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1556,17 +1560,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="52" t="s">
+      <c r="A6" s="88" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="52" t="s">
+      <c r="B6" s="88" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="52"/>
-      <c r="D6" s="52" t="s">
+      <c r="C6" s="88"/>
+      <c r="D6" s="88" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="52" t="s">
+      <c r="E6" s="88" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1575,261 +1579,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="52" t="s">
+      <c r="H6" s="88" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="52" t="s">
+      <c r="I6" s="88" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="79" t="s">
+      <c r="J6" s="83" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="80"/>
-      <c r="L6" s="80"/>
-      <c r="M6" s="80"/>
-      <c r="N6" s="80"/>
-      <c r="O6" s="80"/>
-      <c r="P6" s="80"/>
-      <c r="Q6" s="80"/>
-      <c r="R6" s="80"/>
-      <c r="S6" s="80"/>
-      <c r="T6" s="80"/>
-      <c r="U6" s="80"/>
-      <c r="V6" s="80"/>
-      <c r="W6" s="80"/>
-      <c r="X6" s="80"/>
-      <c r="Y6" s="80"/>
-      <c r="Z6" s="80"/>
-      <c r="AA6" s="80"/>
-      <c r="AB6" s="80"/>
-      <c r="AC6" s="80"/>
-      <c r="AD6" s="80"/>
-      <c r="AE6" s="80"/>
-      <c r="AF6" s="80"/>
-      <c r="AG6" s="81"/>
-      <c r="AH6" s="53" t="s">
+      <c r="K6" s="84"/>
+      <c r="L6" s="84"/>
+      <c r="M6" s="84"/>
+      <c r="N6" s="84"/>
+      <c r="O6" s="84"/>
+      <c r="P6" s="84"/>
+      <c r="Q6" s="84"/>
+      <c r="R6" s="84"/>
+      <c r="S6" s="84"/>
+      <c r="T6" s="84"/>
+      <c r="U6" s="84"/>
+      <c r="V6" s="84"/>
+      <c r="W6" s="84"/>
+      <c r="X6" s="84"/>
+      <c r="Y6" s="84"/>
+      <c r="Z6" s="84"/>
+      <c r="AA6" s="84"/>
+      <c r="AB6" s="84"/>
+      <c r="AC6" s="84"/>
+      <c r="AD6" s="84"/>
+      <c r="AE6" s="84"/>
+      <c r="AF6" s="84"/>
+      <c r="AG6" s="85"/>
+      <c r="AH6" s="89" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="54"/>
-      <c r="AJ6" s="54"/>
-      <c r="AK6" s="54"/>
-      <c r="AL6" s="54"/>
-      <c r="AM6" s="54"/>
-      <c r="AN6" s="54"/>
-      <c r="AO6" s="54"/>
-      <c r="AP6" s="54"/>
-      <c r="AQ6" s="54"/>
-      <c r="AR6" s="54"/>
-      <c r="AS6" s="54"/>
-      <c r="AT6" s="54"/>
-      <c r="AU6" s="54"/>
-      <c r="AV6" s="54"/>
-      <c r="AW6" s="54"/>
-      <c r="AX6" s="54"/>
-      <c r="AY6" s="54"/>
-      <c r="AZ6" s="54"/>
-      <c r="BA6" s="54"/>
-      <c r="BB6" s="54"/>
-      <c r="BC6" s="54"/>
-      <c r="BD6" s="54"/>
-      <c r="BE6" s="54"/>
-      <c r="BF6" s="54"/>
-      <c r="BG6" s="54"/>
-      <c r="BH6" s="54"/>
-      <c r="BI6" s="54"/>
-      <c r="BJ6" s="54"/>
-      <c r="BK6" s="54"/>
-      <c r="BL6" s="54"/>
-      <c r="BM6" s="54"/>
-      <c r="BN6" s="54"/>
-      <c r="BO6" s="54"/>
-      <c r="BP6" s="54"/>
-      <c r="BQ6" s="54"/>
-      <c r="BR6" s="54"/>
-      <c r="BS6" s="54"/>
-      <c r="BT6" s="54"/>
-      <c r="BU6" s="54"/>
-      <c r="BV6" s="54"/>
-      <c r="BW6" s="54"/>
-      <c r="BX6" s="54"/>
-      <c r="BY6" s="54"/>
-      <c r="BZ6" s="54"/>
-      <c r="CA6" s="54"/>
-      <c r="CB6" s="54"/>
-      <c r="CC6" s="54"/>
-      <c r="CD6" s="54"/>
-      <c r="CE6" s="54"/>
-      <c r="CF6" s="54"/>
-      <c r="CG6" s="54"/>
-      <c r="CH6" s="54"/>
-      <c r="CI6" s="54"/>
-      <c r="CJ6" s="54"/>
-      <c r="CK6" s="54"/>
-      <c r="CL6" s="54"/>
-      <c r="CM6" s="54"/>
-      <c r="CN6" s="54"/>
-      <c r="CO6" s="54"/>
-      <c r="CP6" s="54"/>
-      <c r="CQ6" s="54"/>
-      <c r="CR6" s="54"/>
-      <c r="CS6" s="54"/>
-      <c r="CT6" s="54"/>
-      <c r="CU6" s="54"/>
-      <c r="CV6" s="54"/>
-      <c r="CW6" s="54"/>
-      <c r="CX6" s="54"/>
-      <c r="CY6" s="54"/>
-      <c r="CZ6" s="54"/>
-      <c r="DA6" s="54"/>
-      <c r="DB6" s="54"/>
-      <c r="DC6" s="54"/>
-      <c r="DD6" s="54"/>
-      <c r="DE6" s="54"/>
-      <c r="DF6" s="54"/>
-      <c r="DG6" s="54"/>
-      <c r="DH6" s="54"/>
-      <c r="DI6" s="54"/>
-      <c r="DJ6" s="54"/>
-      <c r="DK6" s="54"/>
-      <c r="DL6" s="54"/>
-      <c r="DM6" s="54"/>
-      <c r="DN6" s="54"/>
-      <c r="DO6" s="54"/>
-      <c r="DP6" s="54"/>
-      <c r="DQ6" s="54"/>
-      <c r="DR6" s="54"/>
-      <c r="DS6" s="54"/>
-      <c r="DT6" s="54"/>
-      <c r="DU6" s="54"/>
-      <c r="DV6" s="54"/>
-      <c r="DW6" s="54"/>
-      <c r="DX6" s="54"/>
-      <c r="DY6" s="54"/>
-      <c r="DZ6" s="54"/>
-      <c r="EA6" s="54"/>
-      <c r="EB6" s="54"/>
-      <c r="EC6" s="54"/>
-      <c r="ED6" s="54"/>
-      <c r="EE6" s="54"/>
-      <c r="EF6" s="54"/>
-      <c r="EG6" s="54"/>
-      <c r="EH6" s="54"/>
-      <c r="EI6" s="54"/>
-      <c r="EJ6" s="54"/>
-      <c r="EK6" s="54"/>
-      <c r="EL6" s="54"/>
-      <c r="EM6" s="54"/>
-      <c r="EN6" s="54"/>
-      <c r="EO6" s="54"/>
-      <c r="EP6" s="54"/>
-      <c r="EQ6" s="54"/>
-      <c r="ER6" s="54"/>
-      <c r="ES6" s="54"/>
-      <c r="ET6" s="54"/>
-      <c r="EU6" s="54"/>
-      <c r="EV6" s="54"/>
-      <c r="EW6" s="54"/>
-      <c r="EX6" s="54"/>
-      <c r="EY6" s="54"/>
-      <c r="EZ6" s="54"/>
-      <c r="FA6" s="54"/>
-      <c r="FB6" s="54"/>
-      <c r="FC6" s="54"/>
-      <c r="FD6" s="54"/>
-      <c r="FE6" s="54"/>
-      <c r="FF6" s="54"/>
-      <c r="FG6" s="54"/>
-      <c r="FH6" s="54"/>
-      <c r="FI6" s="54"/>
-      <c r="FJ6" s="54"/>
-      <c r="FK6" s="54"/>
-      <c r="FL6" s="54"/>
-      <c r="FM6" s="54"/>
-      <c r="FN6" s="54"/>
-      <c r="FO6" s="54"/>
-      <c r="FP6" s="54"/>
-      <c r="FQ6" s="54"/>
-      <c r="FR6" s="54"/>
-      <c r="FS6" s="54"/>
-      <c r="FT6" s="54"/>
-      <c r="FU6" s="54"/>
-      <c r="FV6" s="54"/>
-      <c r="FW6" s="54"/>
-      <c r="FX6" s="54"/>
-      <c r="FY6" s="54"/>
-      <c r="FZ6" s="54"/>
-      <c r="GA6" s="54"/>
-      <c r="GB6" s="54"/>
-      <c r="GC6" s="54"/>
-      <c r="GD6" s="54"/>
-      <c r="GE6" s="54"/>
-      <c r="GF6" s="54"/>
-      <c r="GG6" s="54"/>
-      <c r="GH6" s="54"/>
-      <c r="GI6" s="54"/>
-      <c r="GJ6" s="54"/>
-      <c r="GK6" s="54"/>
-      <c r="GL6" s="54"/>
-      <c r="GM6" s="54"/>
-      <c r="GN6" s="54"/>
-      <c r="GO6" s="54"/>
-      <c r="GP6" s="54"/>
-      <c r="GQ6" s="54"/>
-      <c r="GR6" s="54"/>
-      <c r="GS6" s="54"/>
-      <c r="GT6" s="54"/>
-      <c r="GU6" s="54"/>
-      <c r="GV6" s="54"/>
-      <c r="GW6" s="54"/>
-      <c r="GX6" s="54"/>
-      <c r="GY6" s="54"/>
-      <c r="GZ6" s="54"/>
-      <c r="HA6" s="54"/>
-      <c r="HB6" s="54"/>
-      <c r="HC6" s="54"/>
-      <c r="HD6" s="54"/>
-      <c r="HE6" s="54"/>
-      <c r="HF6" s="54"/>
-      <c r="HG6" s="54"/>
-      <c r="HH6" s="54"/>
-      <c r="HI6" s="54"/>
-      <c r="HJ6" s="54"/>
-      <c r="HK6" s="54"/>
-      <c r="HL6" s="54"/>
-      <c r="HM6" s="54"/>
-      <c r="HN6" s="54"/>
-      <c r="HO6" s="54"/>
-      <c r="HP6" s="54"/>
-      <c r="HQ6" s="54"/>
-      <c r="HR6" s="54"/>
-      <c r="HS6" s="54"/>
-      <c r="HT6" s="54"/>
-      <c r="HU6" s="54"/>
-      <c r="HV6" s="54"/>
-      <c r="HW6" s="54"/>
-      <c r="HX6" s="54"/>
-      <c r="HY6" s="54"/>
-      <c r="HZ6" s="54"/>
-      <c r="IA6" s="54"/>
-      <c r="IB6" s="54"/>
-      <c r="IC6" s="54"/>
-      <c r="ID6" s="54"/>
-      <c r="IE6" s="55"/>
+      <c r="AI6" s="90"/>
+      <c r="AJ6" s="90"/>
+      <c r="AK6" s="90"/>
+      <c r="AL6" s="90"/>
+      <c r="AM6" s="90"/>
+      <c r="AN6" s="90"/>
+      <c r="AO6" s="90"/>
+      <c r="AP6" s="90"/>
+      <c r="AQ6" s="90"/>
+      <c r="AR6" s="90"/>
+      <c r="AS6" s="90"/>
+      <c r="AT6" s="90"/>
+      <c r="AU6" s="90"/>
+      <c r="AV6" s="90"/>
+      <c r="AW6" s="90"/>
+      <c r="AX6" s="90"/>
+      <c r="AY6" s="90"/>
+      <c r="AZ6" s="90"/>
+      <c r="BA6" s="90"/>
+      <c r="BB6" s="90"/>
+      <c r="BC6" s="90"/>
+      <c r="BD6" s="90"/>
+      <c r="BE6" s="90"/>
+      <c r="BF6" s="90"/>
+      <c r="BG6" s="90"/>
+      <c r="BH6" s="90"/>
+      <c r="BI6" s="90"/>
+      <c r="BJ6" s="90"/>
+      <c r="BK6" s="90"/>
+      <c r="BL6" s="90"/>
+      <c r="BM6" s="90"/>
+      <c r="BN6" s="90"/>
+      <c r="BO6" s="90"/>
+      <c r="BP6" s="90"/>
+      <c r="BQ6" s="90"/>
+      <c r="BR6" s="90"/>
+      <c r="BS6" s="90"/>
+      <c r="BT6" s="90"/>
+      <c r="BU6" s="90"/>
+      <c r="BV6" s="90"/>
+      <c r="BW6" s="90"/>
+      <c r="BX6" s="90"/>
+      <c r="BY6" s="90"/>
+      <c r="BZ6" s="90"/>
+      <c r="CA6" s="90"/>
+      <c r="CB6" s="90"/>
+      <c r="CC6" s="90"/>
+      <c r="CD6" s="90"/>
+      <c r="CE6" s="90"/>
+      <c r="CF6" s="90"/>
+      <c r="CG6" s="90"/>
+      <c r="CH6" s="90"/>
+      <c r="CI6" s="90"/>
+      <c r="CJ6" s="90"/>
+      <c r="CK6" s="90"/>
+      <c r="CL6" s="90"/>
+      <c r="CM6" s="90"/>
+      <c r="CN6" s="90"/>
+      <c r="CO6" s="90"/>
+      <c r="CP6" s="90"/>
+      <c r="CQ6" s="90"/>
+      <c r="CR6" s="90"/>
+      <c r="CS6" s="90"/>
+      <c r="CT6" s="90"/>
+      <c r="CU6" s="90"/>
+      <c r="CV6" s="90"/>
+      <c r="CW6" s="90"/>
+      <c r="CX6" s="90"/>
+      <c r="CY6" s="90"/>
+      <c r="CZ6" s="90"/>
+      <c r="DA6" s="90"/>
+      <c r="DB6" s="90"/>
+      <c r="DC6" s="90"/>
+      <c r="DD6" s="90"/>
+      <c r="DE6" s="90"/>
+      <c r="DF6" s="90"/>
+      <c r="DG6" s="90"/>
+      <c r="DH6" s="90"/>
+      <c r="DI6" s="90"/>
+      <c r="DJ6" s="90"/>
+      <c r="DK6" s="90"/>
+      <c r="DL6" s="90"/>
+      <c r="DM6" s="90"/>
+      <c r="DN6" s="90"/>
+      <c r="DO6" s="90"/>
+      <c r="DP6" s="90"/>
+      <c r="DQ6" s="90"/>
+      <c r="DR6" s="90"/>
+      <c r="DS6" s="90"/>
+      <c r="DT6" s="90"/>
+      <c r="DU6" s="90"/>
+      <c r="DV6" s="90"/>
+      <c r="DW6" s="90"/>
+      <c r="DX6" s="90"/>
+      <c r="DY6" s="90"/>
+      <c r="DZ6" s="90"/>
+      <c r="EA6" s="90"/>
+      <c r="EB6" s="90"/>
+      <c r="EC6" s="90"/>
+      <c r="ED6" s="90"/>
+      <c r="EE6" s="90"/>
+      <c r="EF6" s="90"/>
+      <c r="EG6" s="90"/>
+      <c r="EH6" s="90"/>
+      <c r="EI6" s="90"/>
+      <c r="EJ6" s="90"/>
+      <c r="EK6" s="90"/>
+      <c r="EL6" s="90"/>
+      <c r="EM6" s="90"/>
+      <c r="EN6" s="90"/>
+      <c r="EO6" s="90"/>
+      <c r="EP6" s="90"/>
+      <c r="EQ6" s="90"/>
+      <c r="ER6" s="90"/>
+      <c r="ES6" s="90"/>
+      <c r="ET6" s="90"/>
+      <c r="EU6" s="90"/>
+      <c r="EV6" s="90"/>
+      <c r="EW6" s="90"/>
+      <c r="EX6" s="90"/>
+      <c r="EY6" s="90"/>
+      <c r="EZ6" s="90"/>
+      <c r="FA6" s="90"/>
+      <c r="FB6" s="90"/>
+      <c r="FC6" s="90"/>
+      <c r="FD6" s="90"/>
+      <c r="FE6" s="90"/>
+      <c r="FF6" s="90"/>
+      <c r="FG6" s="90"/>
+      <c r="FH6" s="90"/>
+      <c r="FI6" s="90"/>
+      <c r="FJ6" s="90"/>
+      <c r="FK6" s="90"/>
+      <c r="FL6" s="90"/>
+      <c r="FM6" s="90"/>
+      <c r="FN6" s="90"/>
+      <c r="FO6" s="90"/>
+      <c r="FP6" s="90"/>
+      <c r="FQ6" s="90"/>
+      <c r="FR6" s="90"/>
+      <c r="FS6" s="90"/>
+      <c r="FT6" s="90"/>
+      <c r="FU6" s="90"/>
+      <c r="FV6" s="90"/>
+      <c r="FW6" s="90"/>
+      <c r="FX6" s="90"/>
+      <c r="FY6" s="90"/>
+      <c r="FZ6" s="90"/>
+      <c r="GA6" s="90"/>
+      <c r="GB6" s="90"/>
+      <c r="GC6" s="90"/>
+      <c r="GD6" s="90"/>
+      <c r="GE6" s="90"/>
+      <c r="GF6" s="90"/>
+      <c r="GG6" s="90"/>
+      <c r="GH6" s="90"/>
+      <c r="GI6" s="90"/>
+      <c r="GJ6" s="90"/>
+      <c r="GK6" s="90"/>
+      <c r="GL6" s="90"/>
+      <c r="GM6" s="90"/>
+      <c r="GN6" s="90"/>
+      <c r="GO6" s="90"/>
+      <c r="GP6" s="90"/>
+      <c r="GQ6" s="90"/>
+      <c r="GR6" s="90"/>
+      <c r="GS6" s="90"/>
+      <c r="GT6" s="90"/>
+      <c r="GU6" s="90"/>
+      <c r="GV6" s="90"/>
+      <c r="GW6" s="90"/>
+      <c r="GX6" s="90"/>
+      <c r="GY6" s="90"/>
+      <c r="GZ6" s="90"/>
+      <c r="HA6" s="90"/>
+      <c r="HB6" s="90"/>
+      <c r="HC6" s="90"/>
+      <c r="HD6" s="90"/>
+      <c r="HE6" s="90"/>
+      <c r="HF6" s="90"/>
+      <c r="HG6" s="90"/>
+      <c r="HH6" s="90"/>
+      <c r="HI6" s="90"/>
+      <c r="HJ6" s="90"/>
+      <c r="HK6" s="90"/>
+      <c r="HL6" s="90"/>
+      <c r="HM6" s="90"/>
+      <c r="HN6" s="90"/>
+      <c r="HO6" s="90"/>
+      <c r="HP6" s="90"/>
+      <c r="HQ6" s="90"/>
+      <c r="HR6" s="90"/>
+      <c r="HS6" s="90"/>
+      <c r="HT6" s="90"/>
+      <c r="HU6" s="90"/>
+      <c r="HV6" s="90"/>
+      <c r="HW6" s="90"/>
+      <c r="HX6" s="90"/>
+      <c r="HY6" s="90"/>
+      <c r="HZ6" s="90"/>
+      <c r="IA6" s="90"/>
+      <c r="IB6" s="90"/>
+      <c r="IC6" s="90"/>
+      <c r="ID6" s="90"/>
+      <c r="IE6" s="91"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="52"/>
-      <c r="B7" s="52"/>
-      <c r="C7" s="52"/>
-      <c r="D7" s="52"/>
-      <c r="E7" s="52"/>
+      <c r="A7" s="88"/>
+      <c r="B7" s="88"/>
+      <c r="C7" s="88"/>
+      <c r="D7" s="88"/>
+      <c r="E7" s="88"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="52"/>
-      <c r="I7" s="52"/>
+      <c r="H7" s="88"/>
+      <c r="I7" s="88"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -1997,17 +2001,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="56">
+      <c r="A8" s="54">
         <v>1</v>
       </c>
-      <c r="B8" s="86" t="s">
+      <c r="B8" s="55" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="87"/>
-      <c r="D8" s="56" t="s">
+      <c r="C8" s="56"/>
+      <c r="D8" s="54" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="56" t="s">
+      <c r="E8" s="54" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2016,10 +2020,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="58">
+      <c r="H8" s="52">
         <v>1</v>
       </c>
-      <c r="I8" s="58" t="s">
+      <c r="I8" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2270,19 +2274,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="56"/>
-      <c r="B9" s="88"/>
-      <c r="C9" s="89"/>
-      <c r="D9" s="56"/>
-      <c r="E9" s="56"/>
+      <c r="A9" s="54"/>
+      <c r="B9" s="63"/>
+      <c r="C9" s="64"/>
+      <c r="D9" s="54"/>
+      <c r="E9" s="54"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="58"/>
-      <c r="I9" s="59"/>
+      <c r="H9" s="52"/>
+      <c r="I9" s="53"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2529,15 +2533,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="56">
+      <c r="A10" s="54">
         <v>2</v>
       </c>
-      <c r="B10" s="88"/>
-      <c r="C10" s="89"/>
-      <c r="D10" s="56" t="s">
+      <c r="B10" s="63"/>
+      <c r="C10" s="64"/>
+      <c r="D10" s="54" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="56" t="s">
+      <c r="E10" s="54" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2546,10 +2550,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="58">
+      <c r="H10" s="52">
         <v>1</v>
       </c>
-      <c r="I10" s="58" t="s">
+      <c r="I10" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2792,19 +2796,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="56"/>
-      <c r="B11" s="88"/>
-      <c r="C11" s="89"/>
-      <c r="D11" s="56"/>
-      <c r="E11" s="56"/>
+      <c r="A11" s="54"/>
+      <c r="B11" s="63"/>
+      <c r="C11" s="64"/>
+      <c r="D11" s="54"/>
+      <c r="E11" s="54"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="58"/>
-      <c r="I11" s="59"/>
+      <c r="H11" s="52"/>
+      <c r="I11" s="53"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3043,15 +3047,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="56">
+      <c r="A12" s="54">
         <v>3</v>
       </c>
-      <c r="B12" s="88"/>
-      <c r="C12" s="89"/>
-      <c r="D12" s="56" t="s">
+      <c r="B12" s="63"/>
+      <c r="C12" s="64"/>
+      <c r="D12" s="54" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="56" t="s">
+      <c r="E12" s="54" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3060,10 +3064,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="58">
+      <c r="H12" s="52">
         <v>1</v>
       </c>
-      <c r="I12" s="58" t="s">
+      <c r="I12" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3306,19 +3310,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="56"/>
-      <c r="B13" s="88"/>
-      <c r="C13" s="89"/>
-      <c r="D13" s="56"/>
-      <c r="E13" s="56"/>
+      <c r="A13" s="54"/>
+      <c r="B13" s="63"/>
+      <c r="C13" s="64"/>
+      <c r="D13" s="54"/>
+      <c r="E13" s="54"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="58"/>
-      <c r="I13" s="59"/>
+      <c r="H13" s="52"/>
+      <c r="I13" s="53"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3557,15 +3561,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="56">
+      <c r="A14" s="54">
         <v>4</v>
       </c>
-      <c r="B14" s="88"/>
-      <c r="C14" s="89"/>
-      <c r="D14" s="56" t="s">
+      <c r="B14" s="63"/>
+      <c r="C14" s="64"/>
+      <c r="D14" s="54" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="56" t="s">
+      <c r="E14" s="54" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3574,10 +3578,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="58">
+      <c r="H14" s="52">
         <v>1</v>
       </c>
-      <c r="I14" s="58" t="s">
+      <c r="I14" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3820,19 +3824,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="56"/>
-      <c r="B15" s="88"/>
-      <c r="C15" s="89"/>
-      <c r="D15" s="56"/>
-      <c r="E15" s="57"/>
+      <c r="A15" s="54"/>
+      <c r="B15" s="63"/>
+      <c r="C15" s="64"/>
+      <c r="D15" s="54"/>
+      <c r="E15" s="92"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="58"/>
-      <c r="I15" s="59"/>
+      <c r="H15" s="52"/>
+      <c r="I15" s="53"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4071,15 +4075,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="56">
+      <c r="A16" s="54">
         <v>5</v>
       </c>
-      <c r="B16" s="88"/>
-      <c r="C16" s="89"/>
-      <c r="D16" s="56" t="s">
+      <c r="B16" s="63"/>
+      <c r="C16" s="64"/>
+      <c r="D16" s="54" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="56" t="s">
+      <c r="E16" s="54" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4088,10 +4092,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="58">
+      <c r="H16" s="52">
         <v>1</v>
       </c>
-      <c r="I16" s="58" t="s">
+      <c r="I16" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4330,19 +4334,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="56"/>
-      <c r="B17" s="88"/>
-      <c r="C17" s="89"/>
-      <c r="D17" s="56"/>
-      <c r="E17" s="57"/>
+      <c r="A17" s="54"/>
+      <c r="B17" s="63"/>
+      <c r="C17" s="64"/>
+      <c r="D17" s="54"/>
+      <c r="E17" s="92"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="58"/>
-      <c r="I17" s="59"/>
+      <c r="H17" s="52"/>
+      <c r="I17" s="53"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4579,15 +4583,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="56">
+      <c r="A18" s="54">
         <v>6</v>
       </c>
-      <c r="B18" s="88"/>
-      <c r="C18" s="89"/>
-      <c r="D18" s="56" t="s">
+      <c r="B18" s="63"/>
+      <c r="C18" s="64"/>
+      <c r="D18" s="54" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="56" t="s">
+      <c r="E18" s="54" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4596,10 +4600,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="58">
+      <c r="H18" s="52">
         <v>1</v>
       </c>
-      <c r="I18" s="58" t="s">
+      <c r="I18" s="52" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4838,19 +4842,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="56"/>
-      <c r="B19" s="90"/>
-      <c r="C19" s="91"/>
-      <c r="D19" s="56"/>
-      <c r="E19" s="57"/>
+      <c r="A19" s="54"/>
+      <c r="B19" s="57"/>
+      <c r="C19" s="58"/>
+      <c r="D19" s="54"/>
+      <c r="E19" s="92"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="58"/>
-      <c r="I19" s="59"/>
+      <c r="H19" s="52"/>
+      <c r="I19" s="53"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5087,17 +5091,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="56">
+      <c r="A20" s="54">
         <v>9</v>
       </c>
-      <c r="B20" s="86" t="s">
+      <c r="B20" s="55" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="87"/>
-      <c r="D20" s="61" t="s">
+      <c r="C20" s="56"/>
+      <c r="D20" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E20" s="61" t="s">
+      <c r="E20" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F20" s="30">
@@ -5106,8 +5110,12 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="84"/>
-      <c r="I20" s="84"/>
+      <c r="H20" s="52">
+        <v>1</v>
+      </c>
+      <c r="I20" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
       <c r="L20" s="24"/>
@@ -5348,17 +5356,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="56"/>
-      <c r="B21" s="88"/>
-      <c r="C21" s="89"/>
-      <c r="D21" s="62"/>
-      <c r="E21" s="62"/>
+      <c r="A21" s="54"/>
+      <c r="B21" s="63"/>
+      <c r="C21" s="64"/>
+      <c r="D21" s="60"/>
+      <c r="E21" s="60"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="85"/>
-      <c r="I21" s="85"/>
+      <c r="H21" s="52"/>
+      <c r="I21" s="53"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5605,15 +5613,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="56">
+      <c r="A22" s="54">
         <v>10</v>
       </c>
-      <c r="B22" s="88"/>
-      <c r="C22" s="89"/>
-      <c r="D22" s="61" t="s">
+      <c r="B22" s="63"/>
+      <c r="C22" s="64"/>
+      <c r="D22" s="59" t="s">
         <v>52</v>
       </c>
-      <c r="E22" s="61" t="s">
+      <c r="E22" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F22" s="30">
@@ -5622,8 +5630,12 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="84"/>
-      <c r="I22" s="84"/>
+      <c r="H22" s="52">
+        <v>1</v>
+      </c>
+      <c r="I22" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
       <c r="L22" s="24"/>
@@ -5862,17 +5874,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="56"/>
-      <c r="B23" s="88"/>
-      <c r="C23" s="89"/>
-      <c r="D23" s="62"/>
-      <c r="E23" s="62"/>
+      <c r="A23" s="54"/>
+      <c r="B23" s="63"/>
+      <c r="C23" s="64"/>
+      <c r="D23" s="60"/>
+      <c r="E23" s="60"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="85"/>
-      <c r="I23" s="85"/>
+      <c r="H23" s="52"/>
+      <c r="I23" s="53"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -5885,9 +5897,15 @@
       <c r="S23" s="15"/>
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
-      <c r="V23" s="13"/>
-      <c r="W23" s="13"/>
-      <c r="X23" s="13"/>
+      <c r="V23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="W23" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="X23" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
       <c r="AA23" s="14"/>
@@ -6105,15 +6123,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="56">
+      <c r="A24" s="54">
         <v>11</v>
       </c>
-      <c r="B24" s="88"/>
-      <c r="C24" s="89"/>
-      <c r="D24" s="61" t="s">
+      <c r="B24" s="63"/>
+      <c r="C24" s="64"/>
+      <c r="D24" s="59" t="s">
         <v>53</v>
       </c>
-      <c r="E24" s="61" t="s">
+      <c r="E24" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F24" s="30">
@@ -6122,8 +6140,12 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="84"/>
-      <c r="I24" s="84"/>
+      <c r="H24" s="52">
+        <v>1</v>
+      </c>
+      <c r="I24" s="52" t="s">
+        <v>18</v>
+      </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
       <c r="L24" s="24"/>
@@ -6145,9 +6167,7 @@
       <c r="Z24" s="13" t="s">
         <v>16</v>
       </c>
-      <c r="AA24" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="AA24" s="14"/>
       <c r="AB24" s="14"/>
       <c r="AC24" s="13"/>
       <c r="AD24" s="15"/>
@@ -6362,17 +6382,17 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="56"/>
-      <c r="B25" s="88"/>
-      <c r="C25" s="89"/>
-      <c r="D25" s="62"/>
-      <c r="E25" s="62"/>
+      <c r="A25" s="54"/>
+      <c r="B25" s="63"/>
+      <c r="C25" s="64"/>
+      <c r="D25" s="60"/>
+      <c r="E25" s="60"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="85"/>
-      <c r="I25" s="85"/>
+      <c r="H25" s="52"/>
+      <c r="I25" s="53"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6388,8 +6408,12 @@
       <c r="V25" s="13"/>
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
-      <c r="Y25" s="13"/>
-      <c r="Z25" s="13"/>
+      <c r="Y25" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z25" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
       <c r="AC25" s="15"/>
@@ -6605,15 +6629,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="56">
+      <c r="A26" s="54">
         <v>12</v>
       </c>
-      <c r="B26" s="88"/>
-      <c r="C26" s="89"/>
-      <c r="D26" s="61" t="s">
+      <c r="B26" s="63"/>
+      <c r="C26" s="64"/>
+      <c r="D26" s="59" t="s">
         <v>55</v>
       </c>
-      <c r="E26" s="61" t="s">
+      <c r="E26" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F26" s="30">
@@ -6622,8 +6646,10 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="84"/>
-      <c r="I26" s="84"/>
+      <c r="H26" s="52">
+        <v>0.9</v>
+      </c>
+      <c r="I26" s="61"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6642,9 +6668,7 @@
       <c r="Y26" s="13"/>
       <c r="Z26" s="13"/>
       <c r="AA26" s="14"/>
-      <c r="AB26" s="14" t="s">
-        <v>16</v>
-      </c>
+      <c r="AB26" s="14"/>
       <c r="AC26" s="29" t="s">
         <v>16</v>
       </c>
@@ -6862,17 +6886,17 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="56"/>
-      <c r="B27" s="88"/>
-      <c r="C27" s="89"/>
-      <c r="D27" s="62"/>
-      <c r="E27" s="62"/>
+      <c r="A27" s="54"/>
+      <c r="B27" s="63"/>
+      <c r="C27" s="64"/>
+      <c r="D27" s="60"/>
+      <c r="E27" s="60"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="85"/>
-      <c r="I27" s="85"/>
+      <c r="H27" s="52"/>
+      <c r="I27" s="62"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -6892,8 +6916,12 @@
       <c r="Z27" s="13"/>
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
-      <c r="AC27" s="15"/>
-      <c r="AD27" s="15"/>
+      <c r="AC27" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD27" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
       <c r="AG27" s="13"/>
@@ -7105,15 +7133,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="56">
+      <c r="A28" s="54">
         <v>13</v>
       </c>
-      <c r="B28" s="88"/>
-      <c r="C28" s="89"/>
-      <c r="D28" s="61" t="s">
+      <c r="B28" s="63"/>
+      <c r="C28" s="64"/>
+      <c r="D28" s="59" t="s">
         <v>56</v>
       </c>
-      <c r="E28" s="61" t="s">
+      <c r="E28" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F28" s="30">
@@ -7122,8 +7150,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="84"/>
-      <c r="I28" s="84"/>
+      <c r="H28" s="61"/>
+      <c r="I28" s="61"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7154,9 +7182,7 @@
       <c r="AG28" s="13" t="s">
         <v>59</v>
       </c>
-      <c r="AH28" s="44" t="s">
-        <v>59</v>
-      </c>
+      <c r="AH28" s="44"/>
       <c r="AI28" s="42"/>
       <c r="AJ28" s="43"/>
       <c r="AK28" s="43"/>
@@ -7364,17 +7390,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="56"/>
-      <c r="B29" s="88"/>
-      <c r="C29" s="89"/>
-      <c r="D29" s="62"/>
-      <c r="E29" s="62"/>
+      <c r="A29" s="54"/>
+      <c r="B29" s="63"/>
+      <c r="C29" s="64"/>
+      <c r="D29" s="60"/>
+      <c r="E29" s="60"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="85"/>
-      <c r="I29" s="85"/>
+      <c r="H29" s="62"/>
+      <c r="I29" s="62"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7607,15 +7633,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="56">
+      <c r="A30" s="54">
         <v>14</v>
       </c>
-      <c r="B30" s="88"/>
-      <c r="C30" s="89"/>
-      <c r="D30" s="61" t="s">
+      <c r="B30" s="63"/>
+      <c r="C30" s="64"/>
+      <c r="D30" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E30" s="61" t="s">
+      <c r="E30" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F30" s="30">
@@ -7624,8 +7650,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="84"/>
-      <c r="I30" s="84"/>
+      <c r="H30" s="61"/>
+      <c r="I30" s="61"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7651,9 +7677,7 @@
       <c r="AF30" s="13"/>
       <c r="AG30" s="13"/>
       <c r="AH30" s="31"/>
-      <c r="AI30" s="31" t="s">
-        <v>16</v>
-      </c>
+      <c r="AI30" s="31"/>
       <c r="AJ30" s="13" t="s">
         <v>16</v>
       </c>
@@ -7864,17 +7888,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="56"/>
-      <c r="B31" s="88"/>
-      <c r="C31" s="89"/>
-      <c r="D31" s="62"/>
-      <c r="E31" s="62"/>
+      <c r="A31" s="54"/>
+      <c r="B31" s="63"/>
+      <c r="C31" s="64"/>
+      <c r="D31" s="60"/>
+      <c r="E31" s="60"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="85"/>
-      <c r="I31" s="85"/>
+      <c r="H31" s="62"/>
+      <c r="I31" s="62"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8107,15 +8131,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="56">
+      <c r="A32" s="54">
         <v>15</v>
       </c>
-      <c r="B32" s="88"/>
-      <c r="C32" s="89"/>
-      <c r="D32" s="61" t="s">
+      <c r="B32" s="63"/>
+      <c r="C32" s="64"/>
+      <c r="D32" s="59" t="s">
         <v>57</v>
       </c>
-      <c r="E32" s="61" t="s">
+      <c r="E32" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F32" s="30">
@@ -8124,8 +8148,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="84"/>
-      <c r="I32" s="84"/>
+      <c r="H32" s="61"/>
+      <c r="I32" s="61"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8364,17 +8388,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="56"/>
-      <c r="B33" s="88"/>
-      <c r="C33" s="89"/>
-      <c r="D33" s="62"/>
-      <c r="E33" s="62"/>
+      <c r="A33" s="54"/>
+      <c r="B33" s="63"/>
+      <c r="C33" s="64"/>
+      <c r="D33" s="60"/>
+      <c r="E33" s="60"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="85"/>
-      <c r="I33" s="85"/>
+      <c r="H33" s="62"/>
+      <c r="I33" s="62"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8607,15 +8631,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="56">
+      <c r="A34" s="54">
         <v>16</v>
       </c>
-      <c r="B34" s="88"/>
-      <c r="C34" s="89"/>
-      <c r="D34" s="61" t="s">
+      <c r="B34" s="63"/>
+      <c r="C34" s="64"/>
+      <c r="D34" s="59" t="s">
         <v>58</v>
       </c>
-      <c r="E34" s="61" t="s">
+      <c r="E34" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F34" s="30">
@@ -8624,8 +8648,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="84"/>
-      <c r="I34" s="84"/>
+      <c r="H34" s="61"/>
+      <c r="I34" s="61"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8657,12 +8681,8 @@
       <c r="AL34" s="13"/>
       <c r="AM34" s="13"/>
       <c r="AN34" s="13"/>
-      <c r="AO34" s="31" t="s">
-        <v>16</v>
-      </c>
-      <c r="AP34" s="31" t="s">
-        <v>16</v>
-      </c>
+      <c r="AO34" s="31"/>
+      <c r="AP34" s="31"/>
       <c r="AQ34" s="13" t="s">
         <v>16</v>
       </c>
@@ -8868,17 +8888,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="56"/>
-      <c r="B35" s="90"/>
-      <c r="C35" s="91"/>
-      <c r="D35" s="62"/>
-      <c r="E35" s="62"/>
+      <c r="A35" s="54"/>
+      <c r="B35" s="57"/>
+      <c r="C35" s="58"/>
+      <c r="D35" s="60"/>
+      <c r="E35" s="60"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="85"/>
-      <c r="I35" s="85"/>
+      <c r="H35" s="62"/>
+      <c r="I35" s="62"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9111,17 +9131,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="56">
+      <c r="A36" s="54">
         <v>17</v>
       </c>
-      <c r="B36" s="86" t="s">
+      <c r="B36" s="55" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="87"/>
-      <c r="D36" s="61" t="s">
+      <c r="C36" s="56"/>
+      <c r="D36" s="59" t="s">
         <v>69</v>
       </c>
-      <c r="E36" s="61" t="s">
+      <c r="E36" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9130,8 +9150,8 @@
       <c r="G36" s="8">
         <v>42824</v>
       </c>
-      <c r="H36" s="84"/>
-      <c r="I36" s="84"/>
+      <c r="H36" s="61"/>
+      <c r="I36" s="61"/>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9386,17 +9406,17 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="56"/>
-      <c r="B37" s="88"/>
-      <c r="C37" s="89"/>
-      <c r="D37" s="62"/>
-      <c r="E37" s="62"/>
+      <c r="A37" s="54"/>
+      <c r="B37" s="63"/>
+      <c r="C37" s="64"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
       <c r="F37" s="8">
         <v>42815</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="85"/>
-      <c r="I37" s="85"/>
+      <c r="H37" s="62"/>
+      <c r="I37" s="62"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9639,15 +9659,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="56">
+      <c r="A38" s="54">
         <v>18</v>
       </c>
-      <c r="B38" s="88"/>
-      <c r="C38" s="89"/>
-      <c r="D38" s="56" t="s">
+      <c r="B38" s="63"/>
+      <c r="C38" s="64"/>
+      <c r="D38" s="54" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="61" t="s">
+      <c r="E38" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9656,8 +9676,8 @@
       <c r="G38" s="8">
         <v>42832</v>
       </c>
-      <c r="H38" s="84"/>
-      <c r="I38" s="84"/>
+      <c r="H38" s="61"/>
+      <c r="I38" s="61"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9904,15 +9924,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="56"/>
-      <c r="B39" s="90"/>
-      <c r="C39" s="91"/>
-      <c r="D39" s="56"/>
-      <c r="E39" s="62"/>
+      <c r="A39" s="54"/>
+      <c r="B39" s="57"/>
+      <c r="C39" s="58"/>
+      <c r="D39" s="54"/>
+      <c r="E39" s="60"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="85"/>
-      <c r="I39" s="85"/>
+      <c r="H39" s="62"/>
+      <c r="I39" s="62"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10145,17 +10165,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="56">
+      <c r="A40" s="54">
         <v>19</v>
       </c>
-      <c r="B40" s="86" t="s">
+      <c r="B40" s="55" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="87"/>
-      <c r="D40" s="61" t="s">
+      <c r="C40" s="56"/>
+      <c r="D40" s="59" t="s">
         <v>73</v>
       </c>
-      <c r="E40" s="61" t="s">
+      <c r="E40" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10164,8 +10184,8 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="84"/>
-      <c r="I40" s="84"/>
+      <c r="H40" s="61"/>
+      <c r="I40" s="61"/>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10420,17 +10440,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="56"/>
-      <c r="B41" s="88"/>
-      <c r="C41" s="89"/>
-      <c r="D41" s="62"/>
-      <c r="E41" s="62"/>
+      <c r="A41" s="54"/>
+      <c r="B41" s="63"/>
+      <c r="C41" s="64"/>
+      <c r="D41" s="60"/>
+      <c r="E41" s="60"/>
       <c r="F41" s="8">
         <v>42814</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="85"/>
-      <c r="I41" s="85"/>
+      <c r="H41" s="62"/>
+      <c r="I41" s="62"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10671,15 +10691,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="56">
+      <c r="A42" s="54">
         <v>20</v>
       </c>
-      <c r="B42" s="88"/>
-      <c r="C42" s="89"/>
-      <c r="D42" s="56" t="s">
+      <c r="B42" s="63"/>
+      <c r="C42" s="64"/>
+      <c r="D42" s="54" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="61" t="s">
+      <c r="E42" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10688,8 +10708,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="92"/>
-      <c r="I42" s="84"/>
+      <c r="H42" s="65"/>
+      <c r="I42" s="61"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10940,15 +10960,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="56"/>
-      <c r="B43" s="88"/>
-      <c r="C43" s="89"/>
-      <c r="D43" s="56"/>
-      <c r="E43" s="62"/>
+      <c r="A43" s="54"/>
+      <c r="B43" s="63"/>
+      <c r="C43" s="64"/>
+      <c r="D43" s="54"/>
+      <c r="E43" s="60"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="93"/>
-      <c r="I43" s="85"/>
+      <c r="H43" s="66"/>
+      <c r="I43" s="62"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11181,15 +11201,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="56">
+      <c r="A44" s="54">
         <v>21</v>
       </c>
-      <c r="B44" s="88"/>
-      <c r="C44" s="89"/>
-      <c r="D44" s="56" t="s">
+      <c r="B44" s="63"/>
+      <c r="C44" s="64"/>
+      <c r="D44" s="54" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="61" t="s">
+      <c r="E44" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11198,8 +11218,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="92"/>
-      <c r="I44" s="84"/>
+      <c r="H44" s="65"/>
+      <c r="I44" s="61"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11436,15 +11456,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="56"/>
-      <c r="B45" s="90"/>
-      <c r="C45" s="91"/>
-      <c r="D45" s="56"/>
-      <c r="E45" s="62"/>
+      <c r="A45" s="54"/>
+      <c r="B45" s="57"/>
+      <c r="C45" s="58"/>
+      <c r="D45" s="54"/>
+      <c r="E45" s="60"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="93"/>
-      <c r="I45" s="85"/>
+      <c r="H45" s="66"/>
+      <c r="I45" s="62"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11677,17 +11697,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="56">
+      <c r="A46" s="54">
         <v>22</v>
       </c>
-      <c r="B46" s="86" t="s">
+      <c r="B46" s="55" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="87"/>
-      <c r="D46" s="56" t="s">
+      <c r="C46" s="56"/>
+      <c r="D46" s="54" t="s">
         <v>70</v>
       </c>
-      <c r="E46" s="61" t="s">
+      <c r="E46" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11696,10 +11716,10 @@
       <c r="G46" s="8">
         <v>42815</v>
       </c>
-      <c r="H46" s="84">
+      <c r="H46" s="61">
         <v>0.85</v>
       </c>
-      <c r="I46" s="84" t="s">
+      <c r="I46" s="61" t="s">
         <v>74</v>
       </c>
       <c r="J46" s="24"/>
@@ -11944,17 +11964,17 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="56"/>
-      <c r="B47" s="88"/>
-      <c r="C47" s="89"/>
-      <c r="D47" s="56"/>
-      <c r="E47" s="62"/>
+      <c r="A47" s="54"/>
+      <c r="B47" s="63"/>
+      <c r="C47" s="64"/>
+      <c r="D47" s="54"/>
+      <c r="E47" s="60"/>
       <c r="F47" s="8">
         <v>42816</v>
       </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="85"/>
-      <c r="I47" s="85"/>
+      <c r="H47" s="62"/>
+      <c r="I47" s="62"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12207,15 +12227,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="56">
+      <c r="A48" s="54">
         <v>23</v>
       </c>
-      <c r="B48" s="88"/>
-      <c r="C48" s="89"/>
-      <c r="D48" s="56" t="s">
+      <c r="B48" s="63"/>
+      <c r="C48" s="64"/>
+      <c r="D48" s="54" t="s">
         <v>64</v>
       </c>
-      <c r="E48" s="61" t="s">
+      <c r="E48" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12224,8 +12244,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="84"/>
-      <c r="I48" s="84"/>
+      <c r="H48" s="61"/>
+      <c r="I48" s="61"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12466,15 +12486,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="56"/>
-      <c r="B49" s="88"/>
-      <c r="C49" s="89"/>
-      <c r="D49" s="56"/>
-      <c r="E49" s="62"/>
+      <c r="A49" s="54"/>
+      <c r="B49" s="63"/>
+      <c r="C49" s="64"/>
+      <c r="D49" s="54"/>
+      <c r="E49" s="60"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="85"/>
-      <c r="I49" s="85"/>
+      <c r="H49" s="62"/>
+      <c r="I49" s="62"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12707,15 +12727,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="56">
+      <c r="A50" s="54">
         <v>23</v>
       </c>
-      <c r="B50" s="88"/>
-      <c r="C50" s="89"/>
-      <c r="D50" s="56" t="s">
+      <c r="B50" s="63"/>
+      <c r="C50" s="64"/>
+      <c r="D50" s="54" t="s">
         <v>63</v>
       </c>
-      <c r="E50" s="61" t="s">
+      <c r="E50" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12724,8 +12744,8 @@
       <c r="G50" s="8">
         <v>42823</v>
       </c>
-      <c r="H50" s="84"/>
-      <c r="I50" s="84"/>
+      <c r="H50" s="61"/>
+      <c r="I50" s="61"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12964,15 +12984,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="56"/>
-      <c r="B51" s="90"/>
-      <c r="C51" s="91"/>
-      <c r="D51" s="56"/>
-      <c r="E51" s="62"/>
+      <c r="A51" s="54"/>
+      <c r="B51" s="57"/>
+      <c r="C51" s="58"/>
+      <c r="D51" s="54"/>
+      <c r="E51" s="60"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="85"/>
-      <c r="I51" s="85"/>
+      <c r="H51" s="62"/>
+      <c r="I51" s="62"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13205,17 +13225,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="56">
+      <c r="A52" s="54">
         <v>24</v>
       </c>
-      <c r="B52" s="86" t="s">
+      <c r="B52" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="C52" s="87"/>
-      <c r="D52" s="56" t="s">
+      <c r="C52" s="56"/>
+      <c r="D52" s="54" t="s">
         <v>62</v>
       </c>
-      <c r="E52" s="61" t="s">
+      <c r="E52" s="59" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13224,8 +13244,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="84"/>
-      <c r="I52" s="84"/>
+      <c r="H52" s="61"/>
+      <c r="I52" s="61"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13484,15 +13504,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="56"/>
-      <c r="B53" s="90"/>
-      <c r="C53" s="91"/>
-      <c r="D53" s="56"/>
-      <c r="E53" s="62"/>
+      <c r="A53" s="54"/>
+      <c r="B53" s="57"/>
+      <c r="C53" s="58"/>
+      <c r="D53" s="54"/>
+      <c r="E53" s="60"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="85"/>
-      <c r="I53" s="85"/>
+      <c r="H53" s="62"/>
+      <c r="I53" s="62"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13725,17 +13745,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="56">
+      <c r="A54" s="54">
         <v>25</v>
       </c>
-      <c r="B54" s="86" t="s">
+      <c r="B54" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="C54" s="87"/>
-      <c r="D54" s="61" t="s">
+      <c r="C54" s="56"/>
+      <c r="D54" s="59" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="61" t="s">
+      <c r="E54" s="59" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13744,8 +13764,8 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="84"/>
-      <c r="I54" s="84"/>
+      <c r="H54" s="61"/>
+      <c r="I54" s="61"/>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13986,17 +14006,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="56"/>
-      <c r="B55" s="88"/>
-      <c r="C55" s="89"/>
-      <c r="D55" s="62"/>
-      <c r="E55" s="62"/>
+      <c r="A55" s="54"/>
+      <c r="B55" s="63"/>
+      <c r="C55" s="64"/>
+      <c r="D55" s="60"/>
+      <c r="E55" s="60"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="85"/>
-      <c r="I55" s="85"/>
+      <c r="H55" s="62"/>
+      <c r="I55" s="62"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14233,15 +14253,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="56">
+      <c r="A56" s="54">
         <v>26</v>
       </c>
-      <c r="B56" s="88"/>
-      <c r="C56" s="89"/>
-      <c r="D56" s="56" t="s">
+      <c r="B56" s="63"/>
+      <c r="C56" s="64"/>
+      <c r="D56" s="54" t="s">
         <v>66</v>
       </c>
-      <c r="E56" s="56" t="s">
+      <c r="E56" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14250,8 +14270,8 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="58"/>
-      <c r="I56" s="58"/>
+      <c r="H56" s="52"/>
+      <c r="I56" s="52"/>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14490,17 +14510,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="56"/>
-      <c r="B57" s="88"/>
-      <c r="C57" s="89"/>
-      <c r="D57" s="56"/>
-      <c r="E57" s="56"/>
+      <c r="A57" s="54"/>
+      <c r="B57" s="63"/>
+      <c r="C57" s="64"/>
+      <c r="D57" s="54"/>
+      <c r="E57" s="54"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="58"/>
-      <c r="I57" s="59"/>
+      <c r="H57" s="52"/>
+      <c r="I57" s="53"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14737,15 +14757,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="56">
+      <c r="A58" s="54">
         <v>27</v>
       </c>
-      <c r="B58" s="88"/>
-      <c r="C58" s="89"/>
-      <c r="D58" s="56" t="s">
+      <c r="B58" s="63"/>
+      <c r="C58" s="64"/>
+      <c r="D58" s="54" t="s">
         <v>53</v>
       </c>
-      <c r="E58" s="56" t="s">
+      <c r="E58" s="54" t="s">
         <v>67</v>
       </c>
       <c r="F58" s="30">
@@ -14754,8 +14774,8 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="58"/>
-      <c r="I58" s="58"/>
+      <c r="H58" s="52"/>
+      <c r="I58" s="52"/>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -14994,17 +15014,17 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="56"/>
-      <c r="B59" s="88"/>
-      <c r="C59" s="89"/>
-      <c r="D59" s="56"/>
-      <c r="E59" s="56"/>
+      <c r="A59" s="54"/>
+      <c r="B59" s="63"/>
+      <c r="C59" s="64"/>
+      <c r="D59" s="54"/>
+      <c r="E59" s="54"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="58"/>
-      <c r="I59" s="59"/>
+      <c r="H59" s="52"/>
+      <c r="I59" s="53"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15241,15 +15261,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="56">
+      <c r="A60" s="54">
         <v>28</v>
       </c>
-      <c r="B60" s="88"/>
-      <c r="C60" s="89"/>
-      <c r="D60" s="56" t="s">
+      <c r="B60" s="63"/>
+      <c r="C60" s="64"/>
+      <c r="D60" s="54" t="s">
         <v>54</v>
       </c>
-      <c r="E60" s="56" t="s">
+      <c r="E60" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15258,8 +15278,8 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="58"/>
-      <c r="I60" s="58"/>
+      <c r="H60" s="52"/>
+      <c r="I60" s="52"/>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
@@ -15498,17 +15518,17 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="56"/>
-      <c r="B61" s="88"/>
-      <c r="C61" s="89"/>
-      <c r="D61" s="56"/>
-      <c r="E61" s="56"/>
+      <c r="A61" s="54"/>
+      <c r="B61" s="63"/>
+      <c r="C61" s="64"/>
+      <c r="D61" s="54"/>
+      <c r="E61" s="54"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="58"/>
-      <c r="I61" s="59"/>
+      <c r="H61" s="52"/>
+      <c r="I61" s="53"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15745,15 +15765,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="56">
+      <c r="A62" s="54">
         <v>29</v>
       </c>
-      <c r="B62" s="88"/>
-      <c r="C62" s="89"/>
-      <c r="D62" s="56" t="s">
+      <c r="B62" s="63"/>
+      <c r="C62" s="64"/>
+      <c r="D62" s="54" t="s">
         <v>56</v>
       </c>
-      <c r="E62" s="56" t="s">
+      <c r="E62" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15762,8 +15782,8 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="58"/>
-      <c r="I62" s="58"/>
+      <c r="H62" s="52"/>
+      <c r="I62" s="52"/>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -16004,15 +16024,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="56"/>
-      <c r="B63" s="88"/>
-      <c r="C63" s="89"/>
-      <c r="D63" s="56"/>
-      <c r="E63" s="56"/>
+      <c r="A63" s="54"/>
+      <c r="B63" s="63"/>
+      <c r="C63" s="64"/>
+      <c r="D63" s="54"/>
+      <c r="E63" s="54"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="58"/>
-      <c r="I63" s="59"/>
+      <c r="H63" s="52"/>
+      <c r="I63" s="53"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16245,15 +16265,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="56">
+      <c r="A64" s="54">
         <v>30</v>
       </c>
-      <c r="B64" s="88"/>
-      <c r="C64" s="89"/>
-      <c r="D64" s="61" t="s">
+      <c r="B64" s="63"/>
+      <c r="C64" s="64"/>
+      <c r="D64" s="59" t="s">
         <v>60</v>
       </c>
-      <c r="E64" s="56" t="s">
+      <c r="E64" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16262,8 +16282,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="84"/>
-      <c r="I64" s="84"/>
+      <c r="H64" s="61"/>
+      <c r="I64" s="61"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16502,15 +16522,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="56"/>
-      <c r="B65" s="88"/>
-      <c r="C65" s="89"/>
-      <c r="D65" s="62"/>
-      <c r="E65" s="56"/>
+      <c r="A65" s="54"/>
+      <c r="B65" s="63"/>
+      <c r="C65" s="64"/>
+      <c r="D65" s="60"/>
+      <c r="E65" s="54"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="85"/>
-      <c r="I65" s="85"/>
+      <c r="H65" s="62"/>
+      <c r="I65" s="62"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16743,15 +16763,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="61">
+      <c r="A66" s="59">
         <v>31</v>
       </c>
-      <c r="B66" s="88"/>
-      <c r="C66" s="89"/>
-      <c r="D66" s="56" t="s">
+      <c r="B66" s="63"/>
+      <c r="C66" s="64"/>
+      <c r="D66" s="54" t="s">
         <v>57</v>
       </c>
-      <c r="E66" s="56" t="s">
+      <c r="E66" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16760,8 +16780,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="58"/>
-      <c r="I66" s="58"/>
+      <c r="H66" s="52"/>
+      <c r="I66" s="52"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -17000,15 +17020,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="62"/>
-      <c r="B67" s="88"/>
-      <c r="C67" s="89"/>
-      <c r="D67" s="56"/>
-      <c r="E67" s="56"/>
+      <c r="A67" s="60"/>
+      <c r="B67" s="63"/>
+      <c r="C67" s="64"/>
+      <c r="D67" s="54"/>
+      <c r="E67" s="54"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="58"/>
-      <c r="I67" s="59"/>
+      <c r="H67" s="52"/>
+      <c r="I67" s="53"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17241,15 +17261,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="61">
+      <c r="A68" s="59">
         <v>32</v>
       </c>
-      <c r="B68" s="88"/>
-      <c r="C68" s="89"/>
-      <c r="D68" s="56" t="s">
+      <c r="B68" s="63"/>
+      <c r="C68" s="64"/>
+      <c r="D68" s="54" t="s">
         <v>68</v>
       </c>
-      <c r="E68" s="56" t="s">
+      <c r="E68" s="54" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17258,8 +17278,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="58"/>
-      <c r="I68" s="58"/>
+      <c r="H68" s="52"/>
+      <c r="I68" s="52"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17502,15 +17522,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="62"/>
-      <c r="B69" s="90"/>
-      <c r="C69" s="91"/>
-      <c r="D69" s="56"/>
-      <c r="E69" s="56"/>
+      <c r="A69" s="60"/>
+      <c r="B69" s="57"/>
+      <c r="C69" s="58"/>
+      <c r="D69" s="54"/>
+      <c r="E69" s="54"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="58"/>
-      <c r="I69" s="59"/>
+      <c r="H69" s="52"/>
+      <c r="I69" s="53"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17743,76 +17763,233 @@
       <c r="IE69" s="13"/>
     </row>
     <row r="71" spans="1:239">
-      <c r="A71" s="60" t="s">
+      <c r="A71" s="93" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
-      <c r="D71" s="60"/>
-      <c r="E71" s="60"/>
-      <c r="F71" s="60"/>
-      <c r="G71" s="60"/>
-      <c r="H71" s="60"/>
-      <c r="I71" s="60"/>
-      <c r="J71" s="60"/>
-      <c r="K71" s="60"/>
-      <c r="L71" s="60"/>
-      <c r="M71" s="60"/>
-      <c r="N71" s="60"/>
-      <c r="O71" s="60"/>
-      <c r="P71" s="60"/>
-      <c r="Q71" s="60"/>
-      <c r="R71" s="60"/>
-      <c r="S71" s="60"/>
-      <c r="T71" s="60"/>
-      <c r="U71" s="60"/>
-      <c r="V71" s="60"/>
-      <c r="W71" s="60"/>
-      <c r="X71" s="60"/>
-      <c r="Y71" s="60"/>
-      <c r="Z71" s="60"/>
-      <c r="AA71" s="60"/>
-      <c r="AB71" s="60"/>
-      <c r="AC71" s="60"/>
-      <c r="AD71" s="60"/>
-      <c r="AE71" s="60"/>
+      <c r="B71" s="93"/>
+      <c r="C71" s="93"/>
+      <c r="D71" s="93"/>
+      <c r="E71" s="93"/>
+      <c r="F71" s="93"/>
+      <c r="G71" s="93"/>
+      <c r="H71" s="93"/>
+      <c r="I71" s="93"/>
+      <c r="J71" s="93"/>
+      <c r="K71" s="93"/>
+      <c r="L71" s="93"/>
+      <c r="M71" s="93"/>
+      <c r="N71" s="93"/>
+      <c r="O71" s="93"/>
+      <c r="P71" s="93"/>
+      <c r="Q71" s="93"/>
+      <c r="R71" s="93"/>
+      <c r="S71" s="93"/>
+      <c r="T71" s="93"/>
+      <c r="U71" s="93"/>
+      <c r="V71" s="93"/>
+      <c r="W71" s="93"/>
+      <c r="X71" s="93"/>
+      <c r="Y71" s="93"/>
+      <c r="Z71" s="93"/>
+      <c r="AA71" s="93"/>
+      <c r="AB71" s="93"/>
+      <c r="AC71" s="93"/>
+      <c r="AD71" s="93"/>
+      <c r="AE71" s="93"/>
     </row>
     <row r="72" spans="1:239">
-      <c r="A72" s="60"/>
-      <c r="B72" s="60"/>
-      <c r="C72" s="60"/>
-      <c r="D72" s="60"/>
-      <c r="E72" s="60"/>
-      <c r="F72" s="60"/>
-      <c r="G72" s="60"/>
-      <c r="H72" s="60"/>
-      <c r="I72" s="60"/>
-      <c r="J72" s="60"/>
-      <c r="K72" s="60"/>
-      <c r="L72" s="60"/>
-      <c r="M72" s="60"/>
-      <c r="N72" s="60"/>
-      <c r="O72" s="60"/>
-      <c r="P72" s="60"/>
-      <c r="Q72" s="60"/>
-      <c r="R72" s="60"/>
-      <c r="S72" s="60"/>
-      <c r="T72" s="60"/>
-      <c r="U72" s="60"/>
-      <c r="V72" s="60"/>
-      <c r="W72" s="60"/>
-      <c r="X72" s="60"/>
-      <c r="Y72" s="60"/>
-      <c r="Z72" s="60"/>
-      <c r="AA72" s="60"/>
-      <c r="AB72" s="60"/>
-      <c r="AC72" s="60"/>
-      <c r="AD72" s="60"/>
-      <c r="AE72" s="60"/>
+      <c r="A72" s="93"/>
+      <c r="B72" s="93"/>
+      <c r="C72" s="93"/>
+      <c r="D72" s="93"/>
+      <c r="E72" s="93"/>
+      <c r="F72" s="93"/>
+      <c r="G72" s="93"/>
+      <c r="H72" s="93"/>
+      <c r="I72" s="93"/>
+      <c r="J72" s="93"/>
+      <c r="K72" s="93"/>
+      <c r="L72" s="93"/>
+      <c r="M72" s="93"/>
+      <c r="N72" s="93"/>
+      <c r="O72" s="93"/>
+      <c r="P72" s="93"/>
+      <c r="Q72" s="93"/>
+      <c r="R72" s="93"/>
+      <c r="S72" s="93"/>
+      <c r="T72" s="93"/>
+      <c r="U72" s="93"/>
+      <c r="V72" s="93"/>
+      <c r="W72" s="93"/>
+      <c r="X72" s="93"/>
+      <c r="Y72" s="93"/>
+      <c r="Z72" s="93"/>
+      <c r="AA72" s="93"/>
+      <c r="AB72" s="93"/>
+      <c r="AC72" s="93"/>
+      <c r="AD72" s="93"/>
+      <c r="AE72" s="93"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A71:AE72"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="D62:D63"/>
@@ -17837,163 +18014,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A71:AE72"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -1,21 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="10395" windowHeight="1995" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="13140" windowHeight="5790" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
-  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="305" uniqueCount="75">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="87">
   <si>
     <t>No</t>
   </si>
@@ -224,15 +223,7 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>카테고리별검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>매장표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택매장정보조회</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -245,10 +236,6 @@
   </si>
   <si>
     <t>연관상품추천기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색한기록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -315,11 +302,71 @@
     <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>지도표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>코딩</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>□</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>■</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>매장표시</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>선택매장정보조회</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품정보화면</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>상품상황정보수신</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>연관상품추천기능</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색한기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
     <numFmt numFmtId="176" formatCode="dd"/>
   </numFmts>
@@ -650,7 +697,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="94">
+  <cellXfs count="95">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -801,6 +848,9 @@
     <xf numFmtId="0" fontId="9" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -929,7 +979,7 @@
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="표준" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1005,15 +1055,12 @@
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
     </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
   </extLst>
 </styleSheet>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 테마">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -1055,7 +1102,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1090,7 +1137,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1304,8 +1351,8 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E19" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="K36" sqref="K36"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1329,226 +1376,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="67" t="s">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="68"/>
-      <c r="C1" s="68"/>
-      <c r="D1" s="68"/>
-      <c r="E1" s="68"/>
-      <c r="F1" s="68"/>
-      <c r="G1" s="68"/>
-      <c r="H1" s="68"/>
-      <c r="I1" s="68"/>
-      <c r="J1" s="68"/>
-      <c r="K1" s="68"/>
-      <c r="L1" s="68"/>
-      <c r="M1" s="68"/>
-      <c r="N1" s="68"/>
-      <c r="O1" s="68"/>
-      <c r="P1" s="68"/>
-      <c r="Q1" s="68"/>
-      <c r="R1" s="68"/>
-      <c r="S1" s="68"/>
-      <c r="T1" s="68"/>
-      <c r="U1" s="68"/>
-      <c r="V1" s="68"/>
-      <c r="W1" s="68"/>
-      <c r="X1" s="68"/>
-      <c r="Y1" s="68"/>
-      <c r="Z1" s="68"/>
-      <c r="AA1" s="68"/>
-      <c r="AB1" s="68"/>
-      <c r="AC1" s="68"/>
-      <c r="AD1" s="68"/>
-      <c r="AE1" s="68"/>
-      <c r="AF1" s="68"/>
-      <c r="AG1" s="68"/>
-      <c r="AH1" s="68"/>
-      <c r="AI1" s="68"/>
-      <c r="AJ1" s="68"/>
-      <c r="AK1" s="68"/>
-      <c r="AL1" s="68"/>
-      <c r="AM1" s="68"/>
-      <c r="AN1" s="68"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="67"/>
-      <c r="B2" s="68"/>
-      <c r="C2" s="68"/>
-      <c r="D2" s="68"/>
-      <c r="E2" s="68"/>
-      <c r="F2" s="68"/>
-      <c r="G2" s="68"/>
-      <c r="H2" s="68"/>
-      <c r="I2" s="68"/>
-      <c r="J2" s="68"/>
-      <c r="K2" s="68"/>
-      <c r="L2" s="68"/>
-      <c r="M2" s="68"/>
-      <c r="N2" s="68"/>
-      <c r="O2" s="68"/>
-      <c r="P2" s="68"/>
-      <c r="Q2" s="68"/>
-      <c r="R2" s="68"/>
-      <c r="S2" s="68"/>
-      <c r="T2" s="68"/>
-      <c r="U2" s="68"/>
-      <c r="V2" s="68"/>
-      <c r="W2" s="68"/>
-      <c r="X2" s="68"/>
-      <c r="Y2" s="68"/>
-      <c r="Z2" s="68"/>
-      <c r="AA2" s="68"/>
-      <c r="AB2" s="68"/>
-      <c r="AC2" s="68"/>
-      <c r="AD2" s="68"/>
-      <c r="AE2" s="68"/>
-      <c r="AF2" s="68"/>
-      <c r="AG2" s="68"/>
-      <c r="AH2" s="68"/>
-      <c r="AI2" s="68"/>
-      <c r="AJ2" s="68"/>
-      <c r="AK2" s="68"/>
-      <c r="AL2" s="68"/>
-      <c r="AM2" s="68"/>
-      <c r="AN2" s="68"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="69" t="s">
+      <c r="A3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="69"/>
-      <c r="C3" s="69"/>
-      <c r="D3" s="69"/>
-      <c r="E3" s="69"/>
-      <c r="F3" s="69"/>
-      <c r="G3" s="73" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="74"/>
-      <c r="I3" s="75" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="76"/>
-      <c r="K3" s="76"/>
-      <c r="L3" s="76"/>
-      <c r="M3" s="76"/>
-      <c r="N3" s="76"/>
-      <c r="O3" s="76"/>
-      <c r="P3" s="76"/>
-      <c r="Q3" s="69" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="69"/>
-      <c r="S3" s="69"/>
-      <c r="T3" s="69"/>
-      <c r="U3" s="69"/>
-      <c r="V3" s="69"/>
-      <c r="W3" s="69"/>
-      <c r="X3" s="69"/>
-      <c r="Y3" s="69"/>
-      <c r="Z3" s="69"/>
-      <c r="AA3" s="69"/>
-      <c r="AB3" s="69"/>
-      <c r="AC3" s="69"/>
-      <c r="AD3" s="69"/>
-      <c r="AE3" s="69"/>
-      <c r="AF3" s="69"/>
-      <c r="AG3" s="69"/>
-      <c r="AH3" s="69"/>
-      <c r="AI3" s="69"/>
-      <c r="AJ3" s="69"/>
-      <c r="AK3" s="69"/>
-      <c r="AL3" s="69"/>
-      <c r="AM3" s="69"/>
-      <c r="AN3" s="69"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="77" t="s">
+      <c r="A4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="77"/>
-      <c r="C4" s="77"/>
-      <c r="D4" s="77"/>
-      <c r="E4" s="77"/>
-      <c r="F4" s="77"/>
-      <c r="G4" s="78" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="79"/>
-      <c r="I4" s="80" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="81"/>
-      <c r="K4" s="81"/>
-      <c r="L4" s="81"/>
-      <c r="M4" s="81"/>
-      <c r="N4" s="81"/>
-      <c r="O4" s="81"/>
-      <c r="P4" s="82"/>
-      <c r="Q4" s="70" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="71"/>
-      <c r="S4" s="71"/>
-      <c r="T4" s="71"/>
-      <c r="U4" s="71"/>
-      <c r="V4" s="71"/>
-      <c r="W4" s="71"/>
-      <c r="X4" s="71"/>
-      <c r="Y4" s="71"/>
-      <c r="Z4" s="71"/>
-      <c r="AA4" s="71"/>
-      <c r="AB4" s="71"/>
-      <c r="AC4" s="71"/>
-      <c r="AD4" s="71"/>
-      <c r="AE4" s="71"/>
-      <c r="AF4" s="71"/>
-      <c r="AG4" s="71"/>
-      <c r="AH4" s="71"/>
-      <c r="AI4" s="71"/>
-      <c r="AJ4" s="71"/>
-      <c r="AK4" s="71"/>
-      <c r="AL4" s="71"/>
-      <c r="AM4" s="71"/>
-      <c r="AN4" s="72"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="86"/>
-      <c r="B5" s="86"/>
-      <c r="C5" s="86"/>
-      <c r="D5" s="86"/>
-      <c r="E5" s="86"/>
-      <c r="F5" s="86"/>
-      <c r="G5" s="86"/>
-      <c r="H5" s="86"/>
-      <c r="I5" s="86"/>
-      <c r="J5" s="87"/>
-      <c r="K5" s="87"/>
-      <c r="L5" s="87"/>
-      <c r="M5" s="87"/>
-      <c r="N5" s="87"/>
-      <c r="O5" s="87"/>
-      <c r="P5" s="87"/>
-      <c r="Q5" s="87"/>
-      <c r="R5" s="87"/>
-      <c r="S5" s="87"/>
-      <c r="T5" s="87"/>
-      <c r="U5" s="87"/>
-      <c r="V5" s="87"/>
-      <c r="W5" s="87"/>
-      <c r="X5" s="87"/>
-      <c r="Y5" s="87"/>
-      <c r="Z5" s="87"/>
-      <c r="AA5" s="87"/>
-      <c r="AB5" s="87"/>
-      <c r="AC5" s="87"/>
-      <c r="AD5" s="87"/>
-      <c r="AE5" s="87"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1560,17 +1607,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="88" t="s">
+      <c r="A6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="88" t="s">
+      <c r="B6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="88"/>
-      <c r="D6" s="88" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="88" t="s">
+      <c r="E6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1579,261 +1626,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="88" t="s">
+      <c r="H6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="88" t="s">
+      <c r="I6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="83" t="s">
+      <c r="J6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="84"/>
-      <c r="L6" s="84"/>
-      <c r="M6" s="84"/>
-      <c r="N6" s="84"/>
-      <c r="O6" s="84"/>
-      <c r="P6" s="84"/>
-      <c r="Q6" s="84"/>
-      <c r="R6" s="84"/>
-      <c r="S6" s="84"/>
-      <c r="T6" s="84"/>
-      <c r="U6" s="84"/>
-      <c r="V6" s="84"/>
-      <c r="W6" s="84"/>
-      <c r="X6" s="84"/>
-      <c r="Y6" s="84"/>
-      <c r="Z6" s="84"/>
-      <c r="AA6" s="84"/>
-      <c r="AB6" s="84"/>
-      <c r="AC6" s="84"/>
-      <c r="AD6" s="84"/>
-      <c r="AE6" s="84"/>
-      <c r="AF6" s="84"/>
-      <c r="AG6" s="85"/>
-      <c r="AH6" s="89" t="s">
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="90"/>
-      <c r="AJ6" s="90"/>
-      <c r="AK6" s="90"/>
-      <c r="AL6" s="90"/>
-      <c r="AM6" s="90"/>
-      <c r="AN6" s="90"/>
-      <c r="AO6" s="90"/>
-      <c r="AP6" s="90"/>
-      <c r="AQ6" s="90"/>
-      <c r="AR6" s="90"/>
-      <c r="AS6" s="90"/>
-      <c r="AT6" s="90"/>
-      <c r="AU6" s="90"/>
-      <c r="AV6" s="90"/>
-      <c r="AW6" s="90"/>
-      <c r="AX6" s="90"/>
-      <c r="AY6" s="90"/>
-      <c r="AZ6" s="90"/>
-      <c r="BA6" s="90"/>
-      <c r="BB6" s="90"/>
-      <c r="BC6" s="90"/>
-      <c r="BD6" s="90"/>
-      <c r="BE6" s="90"/>
-      <c r="BF6" s="90"/>
-      <c r="BG6" s="90"/>
-      <c r="BH6" s="90"/>
-      <c r="BI6" s="90"/>
-      <c r="BJ6" s="90"/>
-      <c r="BK6" s="90"/>
-      <c r="BL6" s="90"/>
-      <c r="BM6" s="90"/>
-      <c r="BN6" s="90"/>
-      <c r="BO6" s="90"/>
-      <c r="BP6" s="90"/>
-      <c r="BQ6" s="90"/>
-      <c r="BR6" s="90"/>
-      <c r="BS6" s="90"/>
-      <c r="BT6" s="90"/>
-      <c r="BU6" s="90"/>
-      <c r="BV6" s="90"/>
-      <c r="BW6" s="90"/>
-      <c r="BX6" s="90"/>
-      <c r="BY6" s="90"/>
-      <c r="BZ6" s="90"/>
-      <c r="CA6" s="90"/>
-      <c r="CB6" s="90"/>
-      <c r="CC6" s="90"/>
-      <c r="CD6" s="90"/>
-      <c r="CE6" s="90"/>
-      <c r="CF6" s="90"/>
-      <c r="CG6" s="90"/>
-      <c r="CH6" s="90"/>
-      <c r="CI6" s="90"/>
-      <c r="CJ6" s="90"/>
-      <c r="CK6" s="90"/>
-      <c r="CL6" s="90"/>
-      <c r="CM6" s="90"/>
-      <c r="CN6" s="90"/>
-      <c r="CO6" s="90"/>
-      <c r="CP6" s="90"/>
-      <c r="CQ6" s="90"/>
-      <c r="CR6" s="90"/>
-      <c r="CS6" s="90"/>
-      <c r="CT6" s="90"/>
-      <c r="CU6" s="90"/>
-      <c r="CV6" s="90"/>
-      <c r="CW6" s="90"/>
-      <c r="CX6" s="90"/>
-      <c r="CY6" s="90"/>
-      <c r="CZ6" s="90"/>
-      <c r="DA6" s="90"/>
-      <c r="DB6" s="90"/>
-      <c r="DC6" s="90"/>
-      <c r="DD6" s="90"/>
-      <c r="DE6" s="90"/>
-      <c r="DF6" s="90"/>
-      <c r="DG6" s="90"/>
-      <c r="DH6" s="90"/>
-      <c r="DI6" s="90"/>
-      <c r="DJ6" s="90"/>
-      <c r="DK6" s="90"/>
-      <c r="DL6" s="90"/>
-      <c r="DM6" s="90"/>
-      <c r="DN6" s="90"/>
-      <c r="DO6" s="90"/>
-      <c r="DP6" s="90"/>
-      <c r="DQ6" s="90"/>
-      <c r="DR6" s="90"/>
-      <c r="DS6" s="90"/>
-      <c r="DT6" s="90"/>
-      <c r="DU6" s="90"/>
-      <c r="DV6" s="90"/>
-      <c r="DW6" s="90"/>
-      <c r="DX6" s="90"/>
-      <c r="DY6" s="90"/>
-      <c r="DZ6" s="90"/>
-      <c r="EA6" s="90"/>
-      <c r="EB6" s="90"/>
-      <c r="EC6" s="90"/>
-      <c r="ED6" s="90"/>
-      <c r="EE6" s="90"/>
-      <c r="EF6" s="90"/>
-      <c r="EG6" s="90"/>
-      <c r="EH6" s="90"/>
-      <c r="EI6" s="90"/>
-      <c r="EJ6" s="90"/>
-      <c r="EK6" s="90"/>
-      <c r="EL6" s="90"/>
-      <c r="EM6" s="90"/>
-      <c r="EN6" s="90"/>
-      <c r="EO6" s="90"/>
-      <c r="EP6" s="90"/>
-      <c r="EQ6" s="90"/>
-      <c r="ER6" s="90"/>
-      <c r="ES6" s="90"/>
-      <c r="ET6" s="90"/>
-      <c r="EU6" s="90"/>
-      <c r="EV6" s="90"/>
-      <c r="EW6" s="90"/>
-      <c r="EX6" s="90"/>
-      <c r="EY6" s="90"/>
-      <c r="EZ6" s="90"/>
-      <c r="FA6" s="90"/>
-      <c r="FB6" s="90"/>
-      <c r="FC6" s="90"/>
-      <c r="FD6" s="90"/>
-      <c r="FE6" s="90"/>
-      <c r="FF6" s="90"/>
-      <c r="FG6" s="90"/>
-      <c r="FH6" s="90"/>
-      <c r="FI6" s="90"/>
-      <c r="FJ6" s="90"/>
-      <c r="FK6" s="90"/>
-      <c r="FL6" s="90"/>
-      <c r="FM6" s="90"/>
-      <c r="FN6" s="90"/>
-      <c r="FO6" s="90"/>
-      <c r="FP6" s="90"/>
-      <c r="FQ6" s="90"/>
-      <c r="FR6" s="90"/>
-      <c r="FS6" s="90"/>
-      <c r="FT6" s="90"/>
-      <c r="FU6" s="90"/>
-      <c r="FV6" s="90"/>
-      <c r="FW6" s="90"/>
-      <c r="FX6" s="90"/>
-      <c r="FY6" s="90"/>
-      <c r="FZ6" s="90"/>
-      <c r="GA6" s="90"/>
-      <c r="GB6" s="90"/>
-      <c r="GC6" s="90"/>
-      <c r="GD6" s="90"/>
-      <c r="GE6" s="90"/>
-      <c r="GF6" s="90"/>
-      <c r="GG6" s="90"/>
-      <c r="GH6" s="90"/>
-      <c r="GI6" s="90"/>
-      <c r="GJ6" s="90"/>
-      <c r="GK6" s="90"/>
-      <c r="GL6" s="90"/>
-      <c r="GM6" s="90"/>
-      <c r="GN6" s="90"/>
-      <c r="GO6" s="90"/>
-      <c r="GP6" s="90"/>
-      <c r="GQ6" s="90"/>
-      <c r="GR6" s="90"/>
-      <c r="GS6" s="90"/>
-      <c r="GT6" s="90"/>
-      <c r="GU6" s="90"/>
-      <c r="GV6" s="90"/>
-      <c r="GW6" s="90"/>
-      <c r="GX6" s="90"/>
-      <c r="GY6" s="90"/>
-      <c r="GZ6" s="90"/>
-      <c r="HA6" s="90"/>
-      <c r="HB6" s="90"/>
-      <c r="HC6" s="90"/>
-      <c r="HD6" s="90"/>
-      <c r="HE6" s="90"/>
-      <c r="HF6" s="90"/>
-      <c r="HG6" s="90"/>
-      <c r="HH6" s="90"/>
-      <c r="HI6" s="90"/>
-      <c r="HJ6" s="90"/>
-      <c r="HK6" s="90"/>
-      <c r="HL6" s="90"/>
-      <c r="HM6" s="90"/>
-      <c r="HN6" s="90"/>
-      <c r="HO6" s="90"/>
-      <c r="HP6" s="90"/>
-      <c r="HQ6" s="90"/>
-      <c r="HR6" s="90"/>
-      <c r="HS6" s="90"/>
-      <c r="HT6" s="90"/>
-      <c r="HU6" s="90"/>
-      <c r="HV6" s="90"/>
-      <c r="HW6" s="90"/>
-      <c r="HX6" s="90"/>
-      <c r="HY6" s="90"/>
-      <c r="HZ6" s="90"/>
-      <c r="IA6" s="90"/>
-      <c r="IB6" s="90"/>
-      <c r="IC6" s="90"/>
-      <c r="ID6" s="90"/>
-      <c r="IE6" s="91"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="91"/>
+      <c r="AN6" s="91"/>
+      <c r="AO6" s="91"/>
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="91"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="91"/>
+      <c r="BG6" s="91"/>
+      <c r="BH6" s="91"/>
+      <c r="BI6" s="91"/>
+      <c r="BJ6" s="91"/>
+      <c r="BK6" s="91"/>
+      <c r="BL6" s="91"/>
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="91"/>
+      <c r="BQ6" s="91"/>
+      <c r="BR6" s="91"/>
+      <c r="BS6" s="91"/>
+      <c r="BT6" s="91"/>
+      <c r="BU6" s="91"/>
+      <c r="BV6" s="91"/>
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="91"/>
+      <c r="CA6" s="91"/>
+      <c r="CB6" s="91"/>
+      <c r="CC6" s="91"/>
+      <c r="CD6" s="91"/>
+      <c r="CE6" s="91"/>
+      <c r="CF6" s="91"/>
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="91"/>
+      <c r="CK6" s="91"/>
+      <c r="CL6" s="91"/>
+      <c r="CM6" s="91"/>
+      <c r="CN6" s="91"/>
+      <c r="CO6" s="91"/>
+      <c r="CP6" s="91"/>
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="91"/>
+      <c r="CU6" s="91"/>
+      <c r="CV6" s="91"/>
+      <c r="CW6" s="91"/>
+      <c r="CX6" s="91"/>
+      <c r="CY6" s="91"/>
+      <c r="CZ6" s="91"/>
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="91"/>
+      <c r="DE6" s="91"/>
+      <c r="DF6" s="91"/>
+      <c r="DG6" s="91"/>
+      <c r="DH6" s="91"/>
+      <c r="DI6" s="91"/>
+      <c r="DJ6" s="91"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="91"/>
+      <c r="DO6" s="91"/>
+      <c r="DP6" s="91"/>
+      <c r="DQ6" s="91"/>
+      <c r="DR6" s="91"/>
+      <c r="DS6" s="91"/>
+      <c r="DT6" s="91"/>
+      <c r="DU6" s="91"/>
+      <c r="DV6" s="91"/>
+      <c r="DW6" s="91"/>
+      <c r="DX6" s="91"/>
+      <c r="DY6" s="91"/>
+      <c r="DZ6" s="91"/>
+      <c r="EA6" s="91"/>
+      <c r="EB6" s="91"/>
+      <c r="EC6" s="91"/>
+      <c r="ED6" s="91"/>
+      <c r="EE6" s="91"/>
+      <c r="EF6" s="91"/>
+      <c r="EG6" s="91"/>
+      <c r="EH6" s="91"/>
+      <c r="EI6" s="91"/>
+      <c r="EJ6" s="91"/>
+      <c r="EK6" s="91"/>
+      <c r="EL6" s="91"/>
+      <c r="EM6" s="91"/>
+      <c r="EN6" s="91"/>
+      <c r="EO6" s="91"/>
+      <c r="EP6" s="91"/>
+      <c r="EQ6" s="91"/>
+      <c r="ER6" s="91"/>
+      <c r="ES6" s="91"/>
+      <c r="ET6" s="91"/>
+      <c r="EU6" s="91"/>
+      <c r="EV6" s="91"/>
+      <c r="EW6" s="91"/>
+      <c r="EX6" s="91"/>
+      <c r="EY6" s="91"/>
+      <c r="EZ6" s="91"/>
+      <c r="FA6" s="91"/>
+      <c r="FB6" s="91"/>
+      <c r="FC6" s="91"/>
+      <c r="FD6" s="91"/>
+      <c r="FE6" s="91"/>
+      <c r="FF6" s="91"/>
+      <c r="FG6" s="91"/>
+      <c r="FH6" s="91"/>
+      <c r="FI6" s="91"/>
+      <c r="FJ6" s="91"/>
+      <c r="FK6" s="91"/>
+      <c r="FL6" s="91"/>
+      <c r="FM6" s="91"/>
+      <c r="FN6" s="91"/>
+      <c r="FO6" s="91"/>
+      <c r="FP6" s="91"/>
+      <c r="FQ6" s="91"/>
+      <c r="FR6" s="91"/>
+      <c r="FS6" s="91"/>
+      <c r="FT6" s="91"/>
+      <c r="FU6" s="91"/>
+      <c r="FV6" s="91"/>
+      <c r="FW6" s="91"/>
+      <c r="FX6" s="91"/>
+      <c r="FY6" s="91"/>
+      <c r="FZ6" s="91"/>
+      <c r="GA6" s="91"/>
+      <c r="GB6" s="91"/>
+      <c r="GC6" s="91"/>
+      <c r="GD6" s="91"/>
+      <c r="GE6" s="91"/>
+      <c r="GF6" s="91"/>
+      <c r="GG6" s="91"/>
+      <c r="GH6" s="91"/>
+      <c r="GI6" s="91"/>
+      <c r="GJ6" s="91"/>
+      <c r="GK6" s="91"/>
+      <c r="GL6" s="91"/>
+      <c r="GM6" s="91"/>
+      <c r="GN6" s="91"/>
+      <c r="GO6" s="91"/>
+      <c r="GP6" s="91"/>
+      <c r="GQ6" s="91"/>
+      <c r="GR6" s="91"/>
+      <c r="GS6" s="91"/>
+      <c r="GT6" s="91"/>
+      <c r="GU6" s="91"/>
+      <c r="GV6" s="91"/>
+      <c r="GW6" s="91"/>
+      <c r="GX6" s="91"/>
+      <c r="GY6" s="91"/>
+      <c r="GZ6" s="91"/>
+      <c r="HA6" s="91"/>
+      <c r="HB6" s="91"/>
+      <c r="HC6" s="91"/>
+      <c r="HD6" s="91"/>
+      <c r="HE6" s="91"/>
+      <c r="HF6" s="91"/>
+      <c r="HG6" s="91"/>
+      <c r="HH6" s="91"/>
+      <c r="HI6" s="91"/>
+      <c r="HJ6" s="91"/>
+      <c r="HK6" s="91"/>
+      <c r="HL6" s="91"/>
+      <c r="HM6" s="91"/>
+      <c r="HN6" s="91"/>
+      <c r="HO6" s="91"/>
+      <c r="HP6" s="91"/>
+      <c r="HQ6" s="91"/>
+      <c r="HR6" s="91"/>
+      <c r="HS6" s="91"/>
+      <c r="HT6" s="91"/>
+      <c r="HU6" s="91"/>
+      <c r="HV6" s="91"/>
+      <c r="HW6" s="91"/>
+      <c r="HX6" s="91"/>
+      <c r="HY6" s="91"/>
+      <c r="HZ6" s="91"/>
+      <c r="IA6" s="91"/>
+      <c r="IB6" s="91"/>
+      <c r="IC6" s="91"/>
+      <c r="ID6" s="91"/>
+      <c r="IE6" s="92"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="88"/>
-      <c r="B7" s="88"/>
-      <c r="C7" s="88"/>
-      <c r="D7" s="88"/>
-      <c r="E7" s="88"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="88"/>
-      <c r="I7" s="88"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -2001,17 +2048,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="54">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="55" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="56"/>
-      <c r="D8" s="54" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="54" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2020,10 +2067,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="52">
+      <c r="H8" s="53">
         <v>1</v>
       </c>
-      <c r="I8" s="52" t="s">
+      <c r="I8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2274,19 +2321,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="54"/>
-      <c r="B9" s="63"/>
-      <c r="C9" s="64"/>
-      <c r="D9" s="54"/>
-      <c r="E9" s="54"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="52"/>
-      <c r="I9" s="53"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2533,15 +2580,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="54">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="63"/>
-      <c r="C10" s="64"/>
-      <c r="D10" s="54" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="54" t="s">
+      <c r="E10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2550,10 +2597,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="52">
+      <c r="H10" s="53">
         <v>1</v>
       </c>
-      <c r="I10" s="52" t="s">
+      <c r="I10" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2796,19 +2843,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="54"/>
-      <c r="B11" s="63"/>
-      <c r="C11" s="64"/>
-      <c r="D11" s="54"/>
-      <c r="E11" s="54"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="52"/>
-      <c r="I11" s="53"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3047,15 +3094,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="54">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="63"/>
-      <c r="C12" s="64"/>
-      <c r="D12" s="54" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="54" t="s">
+      <c r="E12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3064,10 +3111,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="52">
+      <c r="H12" s="53">
         <v>1</v>
       </c>
-      <c r="I12" s="52" t="s">
+      <c r="I12" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3310,19 +3357,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="54"/>
-      <c r="B13" s="63"/>
-      <c r="C13" s="64"/>
-      <c r="D13" s="54"/>
-      <c r="E13" s="54"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="52"/>
-      <c r="I13" s="53"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3561,15 +3608,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="54">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
-      <c r="B14" s="63"/>
-      <c r="C14" s="64"/>
-      <c r="D14" s="54" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="54" t="s">
+      <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3578,10 +3625,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="52">
+      <c r="H14" s="53">
         <v>1</v>
       </c>
-      <c r="I14" s="52" t="s">
+      <c r="I14" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3824,19 +3871,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="54"/>
-      <c r="B15" s="63"/>
-      <c r="C15" s="64"/>
-      <c r="D15" s="54"/>
-      <c r="E15" s="92"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="52"/>
-      <c r="I15" s="53"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4075,15 +4122,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="54">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="63"/>
-      <c r="C16" s="64"/>
-      <c r="D16" s="54" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="54" t="s">
+      <c r="E16" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4092,10 +4139,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="52">
+      <c r="H16" s="53">
         <v>1</v>
       </c>
-      <c r="I16" s="52" t="s">
+      <c r="I16" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4334,19 +4381,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="54"/>
-      <c r="B17" s="63"/>
-      <c r="C17" s="64"/>
-      <c r="D17" s="54"/>
-      <c r="E17" s="92"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="52"/>
-      <c r="I17" s="53"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4583,15 +4630,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="54">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B18" s="63"/>
-      <c r="C18" s="64"/>
-      <c r="D18" s="54" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="54" t="s">
+      <c r="E18" s="55" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4600,10 +4647,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="52">
+      <c r="H18" s="53">
         <v>1</v>
       </c>
-      <c r="I18" s="52" t="s">
+      <c r="I18" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4842,19 +4889,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="54"/>
-      <c r="B19" s="57"/>
-      <c r="C19" s="58"/>
-      <c r="D19" s="54"/>
-      <c r="E19" s="92"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="52"/>
-      <c r="I19" s="53"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5091,18 +5138,18 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="54">
+      <c r="A20" s="55">
         <v>9</v>
       </c>
-      <c r="B20" s="55" t="s">
+      <c r="B20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="56"/>
-      <c r="D20" s="59" t="s">
-        <v>50</v>
-      </c>
-      <c r="E20" s="59" t="s">
-        <v>51</v>
+      <c r="C20" s="57"/>
+      <c r="D20" s="60" t="s">
+        <v>75</v>
+      </c>
+      <c r="E20" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F20" s="30">
         <v>42810</v>
@@ -5110,11 +5157,11 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="52">
+      <c r="H20" s="53">
         <v>1</v>
       </c>
-      <c r="I20" s="52" t="s">
-        <v>18</v>
+      <c r="I20" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J20" s="24"/>
       <c r="K20" s="24"/>
@@ -5125,10 +5172,10 @@
       <c r="P20" s="13"/>
       <c r="Q20" s="13"/>
       <c r="R20" s="13" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="S20" s="13" t="s">
-        <v>7</v>
+        <v>78</v>
       </c>
       <c r="T20" s="14" t="s">
         <v>16</v>
@@ -5356,17 +5403,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="54"/>
-      <c r="B21" s="63"/>
-      <c r="C21" s="64"/>
-      <c r="D21" s="60"/>
-      <c r="E21" s="60"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="52"/>
-      <c r="I21" s="53"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5376,27 +5423,27 @@
       <c r="P21" s="13"/>
       <c r="Q21" s="13"/>
       <c r="R21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="S21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="T21" s="14"/>
       <c r="U21" s="14"/>
       <c r="V21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="W21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="X21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="Y21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="Z21" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="AA21" s="14"/>
       <c r="AB21" s="14"/>
@@ -5613,16 +5660,16 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="54">
+      <c r="A22" s="55">
         <v>10</v>
       </c>
-      <c r="B22" s="63"/>
-      <c r="C22" s="64"/>
-      <c r="D22" s="59" t="s">
-        <v>52</v>
-      </c>
-      <c r="E22" s="59" t="s">
-        <v>51</v>
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="60" t="s">
+        <v>80</v>
+      </c>
+      <c r="E22" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F22" s="30">
         <v>42814</v>
@@ -5630,11 +5677,11 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="52">
+      <c r="H22" s="53">
         <v>1</v>
       </c>
-      <c r="I22" s="52" t="s">
-        <v>18</v>
+      <c r="I22" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J22" s="24"/>
       <c r="K22" s="24"/>
@@ -5874,17 +5921,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="54"/>
-      <c r="B23" s="63"/>
-      <c r="C23" s="64"/>
-      <c r="D23" s="60"/>
-      <c r="E23" s="60"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="52"/>
-      <c r="I23" s="53"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -5898,13 +5945,13 @@
       <c r="T23" s="14"/>
       <c r="U23" s="14"/>
       <c r="V23" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="W23" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="X23" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="Y23" s="13"/>
       <c r="Z23" s="13"/>
@@ -6123,16 +6170,16 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="54">
+      <c r="A24" s="55">
         <v>11</v>
       </c>
-      <c r="B24" s="63"/>
-      <c r="C24" s="64"/>
-      <c r="D24" s="59" t="s">
-        <v>53</v>
-      </c>
-      <c r="E24" s="59" t="s">
-        <v>51</v>
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="60" t="s">
+        <v>81</v>
+      </c>
+      <c r="E24" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F24" s="30">
         <v>42817</v>
@@ -6140,11 +6187,11 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="52">
+      <c r="H24" s="53">
         <v>1</v>
       </c>
-      <c r="I24" s="52" t="s">
-        <v>18</v>
+      <c r="I24" s="53" t="s">
+        <v>77</v>
       </c>
       <c r="J24" s="24"/>
       <c r="K24" s="24"/>
@@ -6382,17 +6429,17 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="54"/>
-      <c r="B25" s="63"/>
-      <c r="C25" s="64"/>
-      <c r="D25" s="60"/>
-      <c r="E25" s="60"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="52"/>
-      <c r="I25" s="53"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6409,10 +6456,10 @@
       <c r="W25" s="13"/>
       <c r="X25" s="13"/>
       <c r="Y25" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="Z25" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="AA25" s="14"/>
       <c r="AB25" s="14"/>
@@ -6629,16 +6676,16 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="54">
+      <c r="A26" s="55">
         <v>12</v>
       </c>
-      <c r="B26" s="63"/>
-      <c r="C26" s="64"/>
-      <c r="D26" s="59" t="s">
-        <v>55</v>
-      </c>
-      <c r="E26" s="59" t="s">
-        <v>51</v>
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="60" t="s">
+        <v>82</v>
+      </c>
+      <c r="E26" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F26" s="30">
         <v>42820</v>
@@ -6646,10 +6693,10 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="52">
+      <c r="H26" s="53">
         <v>0.9</v>
       </c>
-      <c r="I26" s="61"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6681,7 +6728,7 @@
       <c r="AH26" s="39"/>
       <c r="AI26" s="39"/>
       <c r="AJ26" s="40"/>
-      <c r="AK26" s="28"/>
+      <c r="AK26" s="52"/>
       <c r="AL26" s="13"/>
       <c r="AM26" s="40"/>
       <c r="AN26" s="40"/>
@@ -6886,17 +6933,17 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="54"/>
-      <c r="B27" s="63"/>
-      <c r="C27" s="64"/>
-      <c r="D27" s="60"/>
-      <c r="E27" s="60"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="52"/>
-      <c r="I27" s="62"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -6917,10 +6964,10 @@
       <c r="AA27" s="41"/>
       <c r="AB27" s="41"/>
       <c r="AC27" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="AD27" s="13" t="s">
-        <v>8</v>
+        <v>79</v>
       </c>
       <c r="AE27" s="13"/>
       <c r="AF27" s="13"/>
@@ -7133,16 +7180,16 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="54">
+      <c r="A28" s="55">
         <v>13</v>
       </c>
-      <c r="B28" s="63"/>
-      <c r="C28" s="64"/>
-      <c r="D28" s="59" t="s">
-        <v>56</v>
-      </c>
-      <c r="E28" s="59" t="s">
-        <v>51</v>
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="60" t="s">
+        <v>83</v>
+      </c>
+      <c r="E28" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F28" s="30">
         <v>42823</v>
@@ -7150,8 +7197,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="61"/>
-      <c r="I28" s="61"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7174,13 +7221,13 @@
       <c r="AC28" s="15"/>
       <c r="AD28" s="15"/>
       <c r="AE28" s="13" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AF28" s="13" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AG28" s="13" t="s">
-        <v>59</v>
+        <v>78</v>
       </c>
       <c r="AH28" s="44"/>
       <c r="AI28" s="42"/>
@@ -7390,17 +7437,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="54"/>
-      <c r="B29" s="63"/>
-      <c r="C29" s="64"/>
-      <c r="D29" s="60"/>
-      <c r="E29" s="60"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="62"/>
-      <c r="I29" s="62"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7633,16 +7680,16 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="54">
+      <c r="A30" s="55">
         <v>14</v>
       </c>
-      <c r="B30" s="63"/>
-      <c r="C30" s="64"/>
-      <c r="D30" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E30" s="59" t="s">
-        <v>51</v>
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="60" t="s">
+        <v>84</v>
+      </c>
+      <c r="E30" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F30" s="30">
         <v>42827</v>
@@ -7650,8 +7697,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="61"/>
-      <c r="I30" s="61"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7888,17 +7935,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="54"/>
-      <c r="B31" s="63"/>
-      <c r="C31" s="64"/>
-      <c r="D31" s="60"/>
-      <c r="E31" s="60"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="62"/>
-      <c r="I31" s="62"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8131,16 +8178,16 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="54">
+      <c r="A32" s="55">
         <v>15</v>
       </c>
-      <c r="B32" s="63"/>
-      <c r="C32" s="64"/>
-      <c r="D32" s="59" t="s">
-        <v>57</v>
-      </c>
-      <c r="E32" s="59" t="s">
-        <v>51</v>
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="60" t="s">
+        <v>85</v>
+      </c>
+      <c r="E32" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F32" s="30">
         <v>42830</v>
@@ -8148,8 +8195,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="61"/>
-      <c r="I32" s="61"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8388,17 +8435,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="54"/>
-      <c r="B33" s="63"/>
-      <c r="C33" s="64"/>
-      <c r="D33" s="60"/>
-      <c r="E33" s="60"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="62"/>
-      <c r="I33" s="62"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8631,16 +8678,16 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="54">
+      <c r="A34" s="55">
         <v>16</v>
       </c>
-      <c r="B34" s="63"/>
-      <c r="C34" s="64"/>
-      <c r="D34" s="59" t="s">
-        <v>58</v>
-      </c>
-      <c r="E34" s="59" t="s">
-        <v>51</v>
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="60" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" s="60" t="s">
+        <v>76</v>
       </c>
       <c r="F34" s="30">
         <v>42833</v>
@@ -8648,8 +8695,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="61"/>
-      <c r="I34" s="61"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8681,8 +8728,12 @@
       <c r="AL34" s="13"/>
       <c r="AM34" s="13"/>
       <c r="AN34" s="13"/>
-      <c r="AO34" s="31"/>
-      <c r="AP34" s="31"/>
+      <c r="AO34" s="31" t="s">
+        <v>16</v>
+      </c>
+      <c r="AP34" s="31" t="s">
+        <v>16</v>
+      </c>
       <c r="AQ34" s="13" t="s">
         <v>16</v>
       </c>
@@ -8888,17 +8939,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="54"/>
-      <c r="B35" s="57"/>
-      <c r="C35" s="58"/>
-      <c r="D35" s="60"/>
-      <c r="E35" s="60"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="62"/>
-      <c r="I35" s="62"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9131,27 +9182,31 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="54">
+      <c r="A36" s="55">
         <v>17</v>
       </c>
-      <c r="B36" s="55" t="s">
+      <c r="B36" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="56"/>
-      <c r="D36" s="59" t="s">
-        <v>69</v>
-      </c>
-      <c r="E36" s="59" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="60" t="s">
+        <v>66</v>
+      </c>
+      <c r="E36" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
         <v>42814</v>
       </c>
       <c r="G36" s="8">
-        <v>42824</v>
-      </c>
-      <c r="H36" s="61"/>
-      <c r="I36" s="61"/>
+        <v>42829</v>
+      </c>
+      <c r="H36" s="62">
+        <v>0.95</v>
+      </c>
+      <c r="I36" s="62" t="s">
+        <v>74</v>
+      </c>
       <c r="J36" s="24"/>
       <c r="K36" s="24"/>
       <c r="L36" s="24"/>
@@ -9406,17 +9461,17 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="54"/>
-      <c r="B37" s="63"/>
-      <c r="C37" s="64"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="8">
         <v>42815</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="62"/>
-      <c r="I37" s="62"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9446,11 +9501,21 @@
       </c>
       <c r="AA37" s="14"/>
       <c r="AB37" s="14"/>
-      <c r="AC37" s="13"/>
-      <c r="AD37" s="15"/>
-      <c r="AE37" s="15"/>
-      <c r="AF37" s="15"/>
-      <c r="AG37" s="20"/>
+      <c r="AC37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AD37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AE37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AF37" s="15" t="s">
+        <v>37</v>
+      </c>
+      <c r="AG37" s="15" t="s">
+        <v>37</v>
+      </c>
       <c r="AH37" s="31"/>
       <c r="AI37" s="31"/>
       <c r="AJ37" s="13"/>
@@ -9659,25 +9724,25 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="54">
+      <c r="A38" s="55">
         <v>18</v>
       </c>
-      <c r="B38" s="63"/>
-      <c r="C38" s="64"/>
-      <c r="D38" s="54" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="59" t="s">
+      <c r="E38" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
-        <v>42826</v>
+        <v>42830</v>
       </c>
       <c r="G38" s="8">
-        <v>42832</v>
-      </c>
-      <c r="H38" s="61"/>
-      <c r="I38" s="61"/>
+        <v>42837</v>
+      </c>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9703,10 +9768,10 @@
       <c r="AF38" s="15"/>
       <c r="AG38" s="20"/>
       <c r="AH38" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AI38" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AJ38" s="13" t="s">
         <v>16</v>
@@ -9924,15 +9989,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="54"/>
-      <c r="B39" s="57"/>
-      <c r="C39" s="58"/>
-      <c r="D39" s="54"/>
-      <c r="E39" s="60"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="62"/>
-      <c r="I39" s="62"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10165,17 +10230,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="54">
+      <c r="A40" s="55">
         <v>19</v>
       </c>
-      <c r="B40" s="55" t="s">
+      <c r="B40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="56"/>
-      <c r="D40" s="59" t="s">
-        <v>73</v>
-      </c>
-      <c r="E40" s="59" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="60" t="s">
+        <v>70</v>
+      </c>
+      <c r="E40" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10184,8 +10249,12 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="61"/>
-      <c r="I40" s="61"/>
+      <c r="H40" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="I40" s="62" t="s">
+        <v>71</v>
+      </c>
       <c r="J40" s="24"/>
       <c r="K40" s="24"/>
       <c r="L40" s="24"/>
@@ -10440,17 +10509,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="54"/>
-      <c r="B41" s="63"/>
-      <c r="C41" s="64"/>
-      <c r="D41" s="60"/>
-      <c r="E41" s="60"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="8">
-        <v>42814</v>
+        <v>42815</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="62"/>
-      <c r="I41" s="62"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10478,10 +10547,18 @@
       </c>
       <c r="AA41" s="14"/>
       <c r="AB41" s="14"/>
-      <c r="AC41" s="12"/>
-      <c r="AD41" s="12"/>
-      <c r="AE41" s="12"/>
-      <c r="AF41" s="12"/>
+      <c r="AC41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AD41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AE41" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF41" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AG41" s="22"/>
       <c r="AH41" s="31"/>
       <c r="AI41" s="31"/>
@@ -10691,15 +10768,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="54">
+      <c r="A42" s="55">
         <v>20</v>
       </c>
-      <c r="B42" s="63"/>
-      <c r="C42" s="64"/>
-      <c r="D42" s="54" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="59" t="s">
+      <c r="E42" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10708,8 +10785,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="65"/>
-      <c r="I42" s="61"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -10736,7 +10813,7 @@
       <c r="AG42" s="22"/>
       <c r="AH42" s="31"/>
       <c r="AI42" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AJ42" s="13" t="s">
         <v>16</v>
@@ -10754,10 +10831,10 @@
         <v>16</v>
       </c>
       <c r="AO42" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AP42" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AQ42" s="13" t="s">
         <v>16</v>
@@ -10960,15 +11037,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="54"/>
-      <c r="B43" s="63"/>
-      <c r="C43" s="64"/>
-      <c r="D43" s="54"/>
-      <c r="E43" s="60"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="66"/>
-      <c r="I43" s="62"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11201,15 +11278,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="54">
+      <c r="A44" s="55">
         <v>21</v>
       </c>
-      <c r="B44" s="63"/>
-      <c r="C44" s="64"/>
-      <c r="D44" s="54" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="59" t="s">
+      <c r="E44" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11218,8 +11295,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="65"/>
-      <c r="I44" s="61"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11247,7 +11324,7 @@
         <v>16</v>
       </c>
       <c r="AH44" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AI44" s="31"/>
       <c r="AJ44" s="13"/>
@@ -11456,15 +11533,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="54"/>
-      <c r="B45" s="57"/>
-      <c r="C45" s="58"/>
-      <c r="D45" s="54"/>
-      <c r="E45" s="60"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="66"/>
-      <c r="I45" s="62"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11697,17 +11774,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="54">
+      <c r="A46" s="55">
         <v>22</v>
       </c>
-      <c r="B46" s="55" t="s">
+      <c r="B46" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="56"/>
-      <c r="D46" s="54" t="s">
-        <v>70</v>
-      </c>
-      <c r="E46" s="59" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="55" t="s">
+        <v>67</v>
+      </c>
+      <c r="E46" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11716,11 +11793,11 @@
       <c r="G46" s="8">
         <v>42815</v>
       </c>
-      <c r="H46" s="61">
+      <c r="H46" s="62">
         <v>0.85</v>
       </c>
-      <c r="I46" s="61" t="s">
-        <v>74</v>
+      <c r="I46" s="62" t="s">
+        <v>71</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
@@ -11732,7 +11809,7 @@
       <c r="Q46" s="13"/>
       <c r="R46" s="13"/>
       <c r="S46" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T46" s="14" t="s">
         <v>16</v>
@@ -11741,10 +11818,10 @@
         <v>16</v>
       </c>
       <c r="V46" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="W46" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="X46" s="13"/>
       <c r="Y46" s="13"/>
@@ -11964,17 +12041,17 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="54"/>
-      <c r="B47" s="63"/>
-      <c r="C47" s="64"/>
-      <c r="D47" s="54"/>
-      <c r="E47" s="60"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="8">
         <v>42816</v>
       </c>
       <c r="G47" s="8"/>
-      <c r="H47" s="62"/>
-      <c r="I47" s="62"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12227,15 +12304,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="54">
+      <c r="A48" s="55">
         <v>23</v>
       </c>
-      <c r="B48" s="63"/>
-      <c r="C48" s="64"/>
-      <c r="D48" s="54" t="s">
-        <v>64</v>
-      </c>
-      <c r="E48" s="59" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="55" t="s">
+        <v>61</v>
+      </c>
+      <c r="E48" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12244,8 +12321,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="61"/>
-      <c r="I48" s="61"/>
+      <c r="H48" s="62"/>
+      <c r="I48" s="62"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12486,15 +12563,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="54"/>
-      <c r="B49" s="63"/>
-      <c r="C49" s="64"/>
-      <c r="D49" s="54"/>
-      <c r="E49" s="60"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="62"/>
-      <c r="I49" s="62"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12727,15 +12804,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="54">
+      <c r="A50" s="55">
         <v>23</v>
       </c>
-      <c r="B50" s="63"/>
-      <c r="C50" s="64"/>
-      <c r="D50" s="54" t="s">
-        <v>63</v>
-      </c>
-      <c r="E50" s="59" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="55" t="s">
+        <v>60</v>
+      </c>
+      <c r="E50" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12744,8 +12821,8 @@
       <c r="G50" s="8">
         <v>42823</v>
       </c>
-      <c r="H50" s="61"/>
-      <c r="I50" s="61"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -12766,13 +12843,13 @@
       <c r="AA50" s="14"/>
       <c r="AB50" s="14"/>
       <c r="AC50" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AD50" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AE50" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF50" s="15"/>
       <c r="AG50" s="20"/>
@@ -12984,15 +13061,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="54"/>
-      <c r="B51" s="57"/>
-      <c r="C51" s="58"/>
-      <c r="D51" s="54"/>
-      <c r="E51" s="60"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="62"/>
-      <c r="I51" s="62"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13225,17 +13302,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="54">
+      <c r="A52" s="55">
         <v>24</v>
       </c>
-      <c r="B52" s="55" t="s">
-        <v>61</v>
-      </c>
-      <c r="C52" s="56"/>
-      <c r="D52" s="54" t="s">
-        <v>62</v>
-      </c>
-      <c r="E52" s="59" t="s">
+      <c r="B52" s="56" t="s">
+        <v>58</v>
+      </c>
+      <c r="C52" s="57"/>
+      <c r="D52" s="55" t="s">
+        <v>59</v>
+      </c>
+      <c r="E52" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13244,8 +13321,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="61"/>
-      <c r="I52" s="61"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13270,43 +13347,43 @@
       <c r="AE52" s="13"/>
       <c r="AF52" s="13"/>
       <c r="AG52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AH52" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AI52" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AJ52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AK52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AL52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AM52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AN52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AO52" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AP52" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AQ52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AR52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AS52" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AT52" s="37"/>
       <c r="AU52" s="13"/>
@@ -13504,15 +13581,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="54"/>
-      <c r="B53" s="57"/>
-      <c r="C53" s="58"/>
-      <c r="D53" s="54"/>
-      <c r="E53" s="60"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="62"/>
-      <c r="I53" s="62"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13745,17 +13822,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="54">
+      <c r="A54" s="55">
         <v>25</v>
       </c>
-      <c r="B54" s="55" t="s">
-        <v>65</v>
-      </c>
-      <c r="C54" s="56"/>
-      <c r="D54" s="59" t="s">
+      <c r="B54" s="56" t="s">
+        <v>62</v>
+      </c>
+      <c r="C54" s="57"/>
+      <c r="D54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="59" t="s">
+      <c r="E54" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13764,8 +13841,12 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="61"/>
-      <c r="I54" s="61"/>
+      <c r="H54" s="62">
+        <v>1</v>
+      </c>
+      <c r="I54" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="J54" s="24"/>
       <c r="K54" s="24"/>
       <c r="L54" s="24"/>
@@ -13775,10 +13856,10 @@
       <c r="P54" s="13"/>
       <c r="Q54" s="13"/>
       <c r="R54" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="S54" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="T54" s="14" t="s">
         <v>16</v>
@@ -14006,17 +14087,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="54"/>
-      <c r="B55" s="63"/>
-      <c r="C55" s="64"/>
-      <c r="D55" s="60"/>
-      <c r="E55" s="60"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="62"/>
-      <c r="I55" s="62"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14028,8 +14109,12 @@
       <c r="R55" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="S55" s="15"/>
-      <c r="T55" s="14"/>
+      <c r="S55" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="T55" s="14" t="s">
+        <v>37</v>
+      </c>
       <c r="U55" s="14" t="s">
         <v>37</v>
       </c>
@@ -14253,15 +14338,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="54">
+      <c r="A56" s="55">
         <v>26</v>
       </c>
-      <c r="B56" s="63"/>
-      <c r="C56" s="64"/>
-      <c r="D56" s="54" t="s">
-        <v>66</v>
-      </c>
-      <c r="E56" s="54" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="55" t="s">
+        <v>63</v>
+      </c>
+      <c r="E56" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14270,8 +14355,12 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="52"/>
-      <c r="I56" s="52"/>
+      <c r="H56" s="53">
+        <v>1</v>
+      </c>
+      <c r="I56" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="J56" s="24"/>
       <c r="K56" s="24"/>
       <c r="L56" s="24"/>
@@ -14510,17 +14599,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="54"/>
-      <c r="B57" s="63"/>
-      <c r="C57" s="64"/>
-      <c r="D57" s="54"/>
-      <c r="E57" s="54"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="52"/>
-      <c r="I57" s="53"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14534,9 +14623,11 @@
       <c r="T57" s="14"/>
       <c r="U57" s="14"/>
       <c r="V57" s="13" t="s">
-        <v>71</v>
-      </c>
-      <c r="W57" s="12"/>
+        <v>68</v>
+      </c>
+      <c r="W57" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="X57" s="13" t="s">
         <v>37</v>
       </c>
@@ -14757,16 +14848,16 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="54">
+      <c r="A58" s="55">
         <v>27</v>
       </c>
-      <c r="B58" s="63"/>
-      <c r="C58" s="64"/>
-      <c r="D58" s="54" t="s">
-        <v>53</v>
-      </c>
-      <c r="E58" s="54" t="s">
-        <v>67</v>
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="55" t="s">
+        <v>52</v>
+      </c>
+      <c r="E58" s="55" t="s">
+        <v>64</v>
       </c>
       <c r="F58" s="30">
         <v>42817</v>
@@ -14774,8 +14865,12 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="52"/>
-      <c r="I58" s="52"/>
+      <c r="H58" s="53">
+        <v>1</v>
+      </c>
+      <c r="I58" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="J58" s="24"/>
       <c r="K58" s="24"/>
       <c r="L58" s="24"/>
@@ -15014,17 +15109,17 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="54"/>
-      <c r="B59" s="63"/>
-      <c r="C59" s="64"/>
-      <c r="D59" s="54"/>
-      <c r="E59" s="54"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="52"/>
-      <c r="I59" s="53"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15043,7 +15138,9 @@
       <c r="Y59" s="13" t="s">
         <v>37</v>
       </c>
-      <c r="Z59" s="13"/>
+      <c r="Z59" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AA59" s="14" t="s">
         <v>37</v>
       </c>
@@ -15261,15 +15358,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="54">
+      <c r="A60" s="55">
         <v>28</v>
       </c>
-      <c r="B60" s="63"/>
-      <c r="C60" s="64"/>
-      <c r="D60" s="54" t="s">
-        <v>54</v>
-      </c>
-      <c r="E60" s="54" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="55" t="s">
+        <v>53</v>
+      </c>
+      <c r="E60" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15278,8 +15375,12 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="52"/>
-      <c r="I60" s="52"/>
+      <c r="H60" s="53">
+        <v>1</v>
+      </c>
+      <c r="I60" s="53" t="s">
+        <v>18</v>
+      </c>
       <c r="J60" s="24"/>
       <c r="K60" s="24"/>
       <c r="L60" s="24"/>
@@ -15518,17 +15619,17 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="54"/>
-      <c r="B61" s="63"/>
-      <c r="C61" s="64"/>
-      <c r="D61" s="54"/>
-      <c r="E61" s="54"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="52"/>
-      <c r="I61" s="53"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="54"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15548,12 +15649,14 @@
       <c r="Z61" s="13"/>
       <c r="AA61" s="41"/>
       <c r="AB61" s="51" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="AC61" s="15" t="s">
         <v>37</v>
       </c>
-      <c r="AD61" s="15"/>
+      <c r="AD61" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AE61" s="13"/>
       <c r="AF61" s="13"/>
       <c r="AG61" s="13"/>
@@ -15765,15 +15868,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="54">
+      <c r="A62" s="55">
         <v>29</v>
       </c>
-      <c r="B62" s="63"/>
-      <c r="C62" s="64"/>
-      <c r="D62" s="54" t="s">
-        <v>56</v>
-      </c>
-      <c r="E62" s="54" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="E62" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15782,8 +15885,12 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="52"/>
-      <c r="I62" s="52"/>
+      <c r="H62" s="53">
+        <v>1</v>
+      </c>
+      <c r="I62" s="53" t="s">
+        <v>72</v>
+      </c>
       <c r="J62" s="25"/>
       <c r="K62" s="25"/>
       <c r="L62" s="25"/>
@@ -15806,16 +15913,16 @@
       <c r="AC62" s="15"/>
       <c r="AD62" s="15"/>
       <c r="AE62" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AF62" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AG62" s="13" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AH62" s="44" t="s">
-        <v>59</v>
+        <v>56</v>
       </c>
       <c r="AI62" s="42"/>
       <c r="AJ62" s="43"/>
@@ -16024,15 +16131,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="54"/>
-      <c r="B63" s="63"/>
-      <c r="C63" s="64"/>
-      <c r="D63" s="54"/>
-      <c r="E63" s="54"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="52"/>
-      <c r="I63" s="53"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="54"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16054,10 +16161,18 @@
       <c r="AB63" s="14"/>
       <c r="AC63" s="15"/>
       <c r="AD63" s="15"/>
-      <c r="AE63" s="13"/>
-      <c r="AF63" s="13"/>
-      <c r="AG63" s="13"/>
-      <c r="AH63" s="31"/>
+      <c r="AE63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AG63" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AH63" s="31" t="s">
+        <v>73</v>
+      </c>
       <c r="AI63" s="31"/>
       <c r="AJ63" s="13"/>
       <c r="AK63" s="13"/>
@@ -16265,15 +16380,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="54">
+      <c r="A64" s="55">
         <v>30</v>
       </c>
-      <c r="B64" s="63"/>
-      <c r="C64" s="64"/>
-      <c r="D64" s="59" t="s">
-        <v>60</v>
-      </c>
-      <c r="E64" s="54" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="60" t="s">
+        <v>57</v>
+      </c>
+      <c r="E64" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16282,8 +16397,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="61"/>
-      <c r="I64" s="61"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16522,15 +16637,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="54"/>
-      <c r="B65" s="63"/>
-      <c r="C65" s="64"/>
-      <c r="D65" s="60"/>
-      <c r="E65" s="54"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="62"/>
-      <c r="I65" s="62"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16763,15 +16878,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="59">
+      <c r="A66" s="60">
         <v>31</v>
       </c>
-      <c r="B66" s="63"/>
-      <c r="C66" s="64"/>
-      <c r="D66" s="54" t="s">
-        <v>57</v>
-      </c>
-      <c r="E66" s="54" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="E66" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16780,8 +16895,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="52"/>
-      <c r="I66" s="52"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -17020,15 +17135,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="60"/>
-      <c r="B67" s="63"/>
-      <c r="C67" s="64"/>
-      <c r="D67" s="54"/>
-      <c r="E67" s="54"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="52"/>
-      <c r="I67" s="53"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17261,15 +17376,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="59">
+      <c r="A68" s="60">
         <v>32</v>
       </c>
-      <c r="B68" s="63"/>
-      <c r="C68" s="64"/>
-      <c r="D68" s="54" t="s">
-        <v>68</v>
-      </c>
-      <c r="E68" s="54" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="55" t="s">
+        <v>65</v>
+      </c>
+      <c r="E68" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17278,8 +17393,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="52"/>
-      <c r="I68" s="52"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17522,15 +17637,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="60"/>
-      <c r="B69" s="57"/>
-      <c r="C69" s="58"/>
-      <c r="D69" s="54"/>
-      <c r="E69" s="54"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="52"/>
-      <c r="I69" s="53"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="54"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17763,72 +17878,72 @@
       <c r="IE69" s="13"/>
     </row>
     <row r="71" spans="1:239">
-      <c r="A71" s="93" t="s">
+      <c r="A71" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="93"/>
-      <c r="C71" s="93"/>
-      <c r="D71" s="93"/>
-      <c r="E71" s="93"/>
-      <c r="F71" s="93"/>
-      <c r="G71" s="93"/>
-      <c r="H71" s="93"/>
-      <c r="I71" s="93"/>
-      <c r="J71" s="93"/>
-      <c r="K71" s="93"/>
-      <c r="L71" s="93"/>
-      <c r="M71" s="93"/>
-      <c r="N71" s="93"/>
-      <c r="O71" s="93"/>
-      <c r="P71" s="93"/>
-      <c r="Q71" s="93"/>
-      <c r="R71" s="93"/>
-      <c r="S71" s="93"/>
-      <c r="T71" s="93"/>
-      <c r="U71" s="93"/>
-      <c r="V71" s="93"/>
-      <c r="W71" s="93"/>
-      <c r="X71" s="93"/>
-      <c r="Y71" s="93"/>
-      <c r="Z71" s="93"/>
-      <c r="AA71" s="93"/>
-      <c r="AB71" s="93"/>
-      <c r="AC71" s="93"/>
-      <c r="AD71" s="93"/>
-      <c r="AE71" s="93"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="94"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="94"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="94"/>
+      <c r="AA71" s="94"/>
+      <c r="AB71" s="94"/>
+      <c r="AC71" s="94"/>
+      <c r="AD71" s="94"/>
+      <c r="AE71" s="94"/>
     </row>
     <row r="72" spans="1:239">
-      <c r="A72" s="93"/>
-      <c r="B72" s="93"/>
-      <c r="C72" s="93"/>
-      <c r="D72" s="93"/>
-      <c r="E72" s="93"/>
-      <c r="F72" s="93"/>
-      <c r="G72" s="93"/>
-      <c r="H72" s="93"/>
-      <c r="I72" s="93"/>
-      <c r="J72" s="93"/>
-      <c r="K72" s="93"/>
-      <c r="L72" s="93"/>
-      <c r="M72" s="93"/>
-      <c r="N72" s="93"/>
-      <c r="O72" s="93"/>
-      <c r="P72" s="93"/>
-      <c r="Q72" s="93"/>
-      <c r="R72" s="93"/>
-      <c r="S72" s="93"/>
-      <c r="T72" s="93"/>
-      <c r="U72" s="93"/>
-      <c r="V72" s="93"/>
-      <c r="W72" s="93"/>
-      <c r="X72" s="93"/>
-      <c r="Y72" s="93"/>
-      <c r="Z72" s="93"/>
-      <c r="AA72" s="93"/>
-      <c r="AB72" s="93"/>
-      <c r="AC72" s="93"/>
-      <c r="AD72" s="93"/>
-      <c r="AE72" s="93"/>
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="94"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="94"/>
+      <c r="Z72" s="94"/>
+      <c r="AA72" s="94"/>
+      <c r="AB72" s="94"/>
+      <c r="AC72" s="94"/>
+      <c r="AD72" s="94"/>
+      <c r="AE72" s="94"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,17 +4,18 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="13140" windowHeight="5790" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="23475" windowHeight="5970" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
   </sheets>
   <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="332" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="88">
   <si>
     <t>No</t>
   </si>
@@ -360,6 +361,10 @@
   </si>
   <si>
     <t>검색한기록</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>완료</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -851,50 +856,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -959,23 +952,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1351,8 +1356,8 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F49" sqref="F49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1376,226 +1381,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="70" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="71" t="s">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="69"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1607,17 +1612,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="53" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1626,261 +1631,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="90" t="s">
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="91"/>
-      <c r="AO6" s="91"/>
-      <c r="AP6" s="91"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="91"/>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="91"/>
-      <c r="AY6" s="91"/>
-      <c r="AZ6" s="91"/>
-      <c r="BA6" s="91"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="91"/>
-      <c r="BG6" s="91"/>
-      <c r="BH6" s="91"/>
-      <c r="BI6" s="91"/>
-      <c r="BJ6" s="91"/>
-      <c r="BK6" s="91"/>
-      <c r="BL6" s="91"/>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="91"/>
-      <c r="BQ6" s="91"/>
-      <c r="BR6" s="91"/>
-      <c r="BS6" s="91"/>
-      <c r="BT6" s="91"/>
-      <c r="BU6" s="91"/>
-      <c r="BV6" s="91"/>
-      <c r="BW6" s="91"/>
-      <c r="BX6" s="91"/>
-      <c r="BY6" s="91"/>
-      <c r="BZ6" s="91"/>
-      <c r="CA6" s="91"/>
-      <c r="CB6" s="91"/>
-      <c r="CC6" s="91"/>
-      <c r="CD6" s="91"/>
-      <c r="CE6" s="91"/>
-      <c r="CF6" s="91"/>
-      <c r="CG6" s="91"/>
-      <c r="CH6" s="91"/>
-      <c r="CI6" s="91"/>
-      <c r="CJ6" s="91"/>
-      <c r="CK6" s="91"/>
-      <c r="CL6" s="91"/>
-      <c r="CM6" s="91"/>
-      <c r="CN6" s="91"/>
-      <c r="CO6" s="91"/>
-      <c r="CP6" s="91"/>
-      <c r="CQ6" s="91"/>
-      <c r="CR6" s="91"/>
-      <c r="CS6" s="91"/>
-      <c r="CT6" s="91"/>
-      <c r="CU6" s="91"/>
-      <c r="CV6" s="91"/>
-      <c r="CW6" s="91"/>
-      <c r="CX6" s="91"/>
-      <c r="CY6" s="91"/>
-      <c r="CZ6" s="91"/>
-      <c r="DA6" s="91"/>
-      <c r="DB6" s="91"/>
-      <c r="DC6" s="91"/>
-      <c r="DD6" s="91"/>
-      <c r="DE6" s="91"/>
-      <c r="DF6" s="91"/>
-      <c r="DG6" s="91"/>
-      <c r="DH6" s="91"/>
-      <c r="DI6" s="91"/>
-      <c r="DJ6" s="91"/>
-      <c r="DK6" s="91"/>
-      <c r="DL6" s="91"/>
-      <c r="DM6" s="91"/>
-      <c r="DN6" s="91"/>
-      <c r="DO6" s="91"/>
-      <c r="DP6" s="91"/>
-      <c r="DQ6" s="91"/>
-      <c r="DR6" s="91"/>
-      <c r="DS6" s="91"/>
-      <c r="DT6" s="91"/>
-      <c r="DU6" s="91"/>
-      <c r="DV6" s="91"/>
-      <c r="DW6" s="91"/>
-      <c r="DX6" s="91"/>
-      <c r="DY6" s="91"/>
-      <c r="DZ6" s="91"/>
-      <c r="EA6" s="91"/>
-      <c r="EB6" s="91"/>
-      <c r="EC6" s="91"/>
-      <c r="ED6" s="91"/>
-      <c r="EE6" s="91"/>
-      <c r="EF6" s="91"/>
-      <c r="EG6" s="91"/>
-      <c r="EH6" s="91"/>
-      <c r="EI6" s="91"/>
-      <c r="EJ6" s="91"/>
-      <c r="EK6" s="91"/>
-      <c r="EL6" s="91"/>
-      <c r="EM6" s="91"/>
-      <c r="EN6" s="91"/>
-      <c r="EO6" s="91"/>
-      <c r="EP6" s="91"/>
-      <c r="EQ6" s="91"/>
-      <c r="ER6" s="91"/>
-      <c r="ES6" s="91"/>
-      <c r="ET6" s="91"/>
-      <c r="EU6" s="91"/>
-      <c r="EV6" s="91"/>
-      <c r="EW6" s="91"/>
-      <c r="EX6" s="91"/>
-      <c r="EY6" s="91"/>
-      <c r="EZ6" s="91"/>
-      <c r="FA6" s="91"/>
-      <c r="FB6" s="91"/>
-      <c r="FC6" s="91"/>
-      <c r="FD6" s="91"/>
-      <c r="FE6" s="91"/>
-      <c r="FF6" s="91"/>
-      <c r="FG6" s="91"/>
-      <c r="FH6" s="91"/>
-      <c r="FI6" s="91"/>
-      <c r="FJ6" s="91"/>
-      <c r="FK6" s="91"/>
-      <c r="FL6" s="91"/>
-      <c r="FM6" s="91"/>
-      <c r="FN6" s="91"/>
-      <c r="FO6" s="91"/>
-      <c r="FP6" s="91"/>
-      <c r="FQ6" s="91"/>
-      <c r="FR6" s="91"/>
-      <c r="FS6" s="91"/>
-      <c r="FT6" s="91"/>
-      <c r="FU6" s="91"/>
-      <c r="FV6" s="91"/>
-      <c r="FW6" s="91"/>
-      <c r="FX6" s="91"/>
-      <c r="FY6" s="91"/>
-      <c r="FZ6" s="91"/>
-      <c r="GA6" s="91"/>
-      <c r="GB6" s="91"/>
-      <c r="GC6" s="91"/>
-      <c r="GD6" s="91"/>
-      <c r="GE6" s="91"/>
-      <c r="GF6" s="91"/>
-      <c r="GG6" s="91"/>
-      <c r="GH6" s="91"/>
-      <c r="GI6" s="91"/>
-      <c r="GJ6" s="91"/>
-      <c r="GK6" s="91"/>
-      <c r="GL6" s="91"/>
-      <c r="GM6" s="91"/>
-      <c r="GN6" s="91"/>
-      <c r="GO6" s="91"/>
-      <c r="GP6" s="91"/>
-      <c r="GQ6" s="91"/>
-      <c r="GR6" s="91"/>
-      <c r="GS6" s="91"/>
-      <c r="GT6" s="91"/>
-      <c r="GU6" s="91"/>
-      <c r="GV6" s="91"/>
-      <c r="GW6" s="91"/>
-      <c r="GX6" s="91"/>
-      <c r="GY6" s="91"/>
-      <c r="GZ6" s="91"/>
-      <c r="HA6" s="91"/>
-      <c r="HB6" s="91"/>
-      <c r="HC6" s="91"/>
-      <c r="HD6" s="91"/>
-      <c r="HE6" s="91"/>
-      <c r="HF6" s="91"/>
-      <c r="HG6" s="91"/>
-      <c r="HH6" s="91"/>
-      <c r="HI6" s="91"/>
-      <c r="HJ6" s="91"/>
-      <c r="HK6" s="91"/>
-      <c r="HL6" s="91"/>
-      <c r="HM6" s="91"/>
-      <c r="HN6" s="91"/>
-      <c r="HO6" s="91"/>
-      <c r="HP6" s="91"/>
-      <c r="HQ6" s="91"/>
-      <c r="HR6" s="91"/>
-      <c r="HS6" s="91"/>
-      <c r="HT6" s="91"/>
-      <c r="HU6" s="91"/>
-      <c r="HV6" s="91"/>
-      <c r="HW6" s="91"/>
-      <c r="HX6" s="91"/>
-      <c r="HY6" s="91"/>
-      <c r="HZ6" s="91"/>
-      <c r="IA6" s="91"/>
-      <c r="IB6" s="91"/>
-      <c r="IC6" s="91"/>
-      <c r="ID6" s="91"/>
-      <c r="IE6" s="92"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="55"/>
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="55"/>
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="55"/>
+      <c r="BL6" s="55"/>
+      <c r="BM6" s="55"/>
+      <c r="BN6" s="55"/>
+      <c r="BO6" s="55"/>
+      <c r="BP6" s="55"/>
+      <c r="BQ6" s="55"/>
+      <c r="BR6" s="55"/>
+      <c r="BS6" s="55"/>
+      <c r="BT6" s="55"/>
+      <c r="BU6" s="55"/>
+      <c r="BV6" s="55"/>
+      <c r="BW6" s="55"/>
+      <c r="BX6" s="55"/>
+      <c r="BY6" s="55"/>
+      <c r="BZ6" s="55"/>
+      <c r="CA6" s="55"/>
+      <c r="CB6" s="55"/>
+      <c r="CC6" s="55"/>
+      <c r="CD6" s="55"/>
+      <c r="CE6" s="55"/>
+      <c r="CF6" s="55"/>
+      <c r="CG6" s="55"/>
+      <c r="CH6" s="55"/>
+      <c r="CI6" s="55"/>
+      <c r="CJ6" s="55"/>
+      <c r="CK6" s="55"/>
+      <c r="CL6" s="55"/>
+      <c r="CM6" s="55"/>
+      <c r="CN6" s="55"/>
+      <c r="CO6" s="55"/>
+      <c r="CP6" s="55"/>
+      <c r="CQ6" s="55"/>
+      <c r="CR6" s="55"/>
+      <c r="CS6" s="55"/>
+      <c r="CT6" s="55"/>
+      <c r="CU6" s="55"/>
+      <c r="CV6" s="55"/>
+      <c r="CW6" s="55"/>
+      <c r="CX6" s="55"/>
+      <c r="CY6" s="55"/>
+      <c r="CZ6" s="55"/>
+      <c r="DA6" s="55"/>
+      <c r="DB6" s="55"/>
+      <c r="DC6" s="55"/>
+      <c r="DD6" s="55"/>
+      <c r="DE6" s="55"/>
+      <c r="DF6" s="55"/>
+      <c r="DG6" s="55"/>
+      <c r="DH6" s="55"/>
+      <c r="DI6" s="55"/>
+      <c r="DJ6" s="55"/>
+      <c r="DK6" s="55"/>
+      <c r="DL6" s="55"/>
+      <c r="DM6" s="55"/>
+      <c r="DN6" s="55"/>
+      <c r="DO6" s="55"/>
+      <c r="DP6" s="55"/>
+      <c r="DQ6" s="55"/>
+      <c r="DR6" s="55"/>
+      <c r="DS6" s="55"/>
+      <c r="DT6" s="55"/>
+      <c r="DU6" s="55"/>
+      <c r="DV6" s="55"/>
+      <c r="DW6" s="55"/>
+      <c r="DX6" s="55"/>
+      <c r="DY6" s="55"/>
+      <c r="DZ6" s="55"/>
+      <c r="EA6" s="55"/>
+      <c r="EB6" s="55"/>
+      <c r="EC6" s="55"/>
+      <c r="ED6" s="55"/>
+      <c r="EE6" s="55"/>
+      <c r="EF6" s="55"/>
+      <c r="EG6" s="55"/>
+      <c r="EH6" s="55"/>
+      <c r="EI6" s="55"/>
+      <c r="EJ6" s="55"/>
+      <c r="EK6" s="55"/>
+      <c r="EL6" s="55"/>
+      <c r="EM6" s="55"/>
+      <c r="EN6" s="55"/>
+      <c r="EO6" s="55"/>
+      <c r="EP6" s="55"/>
+      <c r="EQ6" s="55"/>
+      <c r="ER6" s="55"/>
+      <c r="ES6" s="55"/>
+      <c r="ET6" s="55"/>
+      <c r="EU6" s="55"/>
+      <c r="EV6" s="55"/>
+      <c r="EW6" s="55"/>
+      <c r="EX6" s="55"/>
+      <c r="EY6" s="55"/>
+      <c r="EZ6" s="55"/>
+      <c r="FA6" s="55"/>
+      <c r="FB6" s="55"/>
+      <c r="FC6" s="55"/>
+      <c r="FD6" s="55"/>
+      <c r="FE6" s="55"/>
+      <c r="FF6" s="55"/>
+      <c r="FG6" s="55"/>
+      <c r="FH6" s="55"/>
+      <c r="FI6" s="55"/>
+      <c r="FJ6" s="55"/>
+      <c r="FK6" s="55"/>
+      <c r="FL6" s="55"/>
+      <c r="FM6" s="55"/>
+      <c r="FN6" s="55"/>
+      <c r="FO6" s="55"/>
+      <c r="FP6" s="55"/>
+      <c r="FQ6" s="55"/>
+      <c r="FR6" s="55"/>
+      <c r="FS6" s="55"/>
+      <c r="FT6" s="55"/>
+      <c r="FU6" s="55"/>
+      <c r="FV6" s="55"/>
+      <c r="FW6" s="55"/>
+      <c r="FX6" s="55"/>
+      <c r="FY6" s="55"/>
+      <c r="FZ6" s="55"/>
+      <c r="GA6" s="55"/>
+      <c r="GB6" s="55"/>
+      <c r="GC6" s="55"/>
+      <c r="GD6" s="55"/>
+      <c r="GE6" s="55"/>
+      <c r="GF6" s="55"/>
+      <c r="GG6" s="55"/>
+      <c r="GH6" s="55"/>
+      <c r="GI6" s="55"/>
+      <c r="GJ6" s="55"/>
+      <c r="GK6" s="55"/>
+      <c r="GL6" s="55"/>
+      <c r="GM6" s="55"/>
+      <c r="GN6" s="55"/>
+      <c r="GO6" s="55"/>
+      <c r="GP6" s="55"/>
+      <c r="GQ6" s="55"/>
+      <c r="GR6" s="55"/>
+      <c r="GS6" s="55"/>
+      <c r="GT6" s="55"/>
+      <c r="GU6" s="55"/>
+      <c r="GV6" s="55"/>
+      <c r="GW6" s="55"/>
+      <c r="GX6" s="55"/>
+      <c r="GY6" s="55"/>
+      <c r="GZ6" s="55"/>
+      <c r="HA6" s="55"/>
+      <c r="HB6" s="55"/>
+      <c r="HC6" s="55"/>
+      <c r="HD6" s="55"/>
+      <c r="HE6" s="55"/>
+      <c r="HF6" s="55"/>
+      <c r="HG6" s="55"/>
+      <c r="HH6" s="55"/>
+      <c r="HI6" s="55"/>
+      <c r="HJ6" s="55"/>
+      <c r="HK6" s="55"/>
+      <c r="HL6" s="55"/>
+      <c r="HM6" s="55"/>
+      <c r="HN6" s="55"/>
+      <c r="HO6" s="55"/>
+      <c r="HP6" s="55"/>
+      <c r="HQ6" s="55"/>
+      <c r="HR6" s="55"/>
+      <c r="HS6" s="55"/>
+      <c r="HT6" s="55"/>
+      <c r="HU6" s="55"/>
+      <c r="HV6" s="55"/>
+      <c r="HW6" s="55"/>
+      <c r="HX6" s="55"/>
+      <c r="HY6" s="55"/>
+      <c r="HZ6" s="55"/>
+      <c r="IA6" s="55"/>
+      <c r="IB6" s="55"/>
+      <c r="IC6" s="55"/>
+      <c r="ID6" s="55"/>
+      <c r="IE6" s="56"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -2048,17 +2053,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2067,10 +2072,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="59">
         <v>1</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2321,19 +2326,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2580,15 +2585,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="55">
+      <c r="A10" s="57">
         <v>2</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2597,10 +2602,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="59">
         <v>1</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2843,19 +2848,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3094,15 +3099,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="55">
+      <c r="A12" s="57">
         <v>3</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="57" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3111,10 +3116,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3357,19 +3362,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3608,15 +3613,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="57">
         <v>4</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3625,10 +3630,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="59">
         <v>1</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3871,19 +3876,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="55"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="93"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4122,15 +4127,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="57">
         <v>5</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="57" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4139,10 +4144,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="59">
         <v>1</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4381,19 +4386,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="55"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="93"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4630,15 +4635,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="57">
         <v>6</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="57" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4647,10 +4652,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="59">
         <v>1</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4889,19 +4894,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5138,17 +5143,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="57">
         <v>9</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="30">
@@ -5157,10 +5162,10 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="59">
         <v>1</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="24"/>
@@ -5403,17 +5408,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5660,15 +5665,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="57">
         <v>10</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="30">
@@ -5677,10 +5682,10 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="59">
         <v>1</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="24"/>
@@ -5921,17 +5926,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="55"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6170,15 +6175,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="57">
         <v>11</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="30">
@@ -6187,10 +6192,10 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="59">
         <v>1</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J24" s="24"/>
@@ -6429,17 +6434,17 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="55"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6676,15 +6681,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="57">
         <v>12</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="60" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="30">
@@ -6693,10 +6698,10 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="59">
         <v>0.9</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6933,17 +6938,17 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="86"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7180,15 +7185,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="57">
         <v>13</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="60" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="30">
@@ -7197,8 +7202,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7437,17 +7442,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7680,15 +7685,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="57">
         <v>14</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="60" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="30">
@@ -7697,8 +7702,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7935,17 +7940,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8178,15 +8183,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="57">
         <v>15</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="60" t="s">
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="30">
@@ -8195,8 +8200,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8435,17 +8440,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8678,15 +8683,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="57">
         <v>16</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="30">
@@ -8695,8 +8700,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8939,17 +8944,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9182,17 +9187,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="57">
         <v>17</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="88"/>
+      <c r="D36" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9201,10 +9206,10 @@
       <c r="G36" s="8">
         <v>42829</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="85">
         <v>0.95</v>
       </c>
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="85" t="s">
         <v>74</v>
       </c>
       <c r="J36" s="24"/>
@@ -9461,17 +9466,17 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="55"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="8">
         <v>42815</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9724,15 +9729,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="55">
+      <c r="A38" s="57">
         <v>18</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="55" t="s">
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9741,8 +9746,8 @@
       <c r="G38" s="8">
         <v>42837</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9989,15 +9994,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10230,17 +10235,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="55">
+      <c r="A40" s="57">
         <v>19</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="60" t="s">
+      <c r="C40" s="88"/>
+      <c r="D40" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10249,10 +10254,10 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="85">
         <v>0.75</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="85" t="s">
         <v>71</v>
       </c>
       <c r="J40" s="24"/>
@@ -10509,17 +10514,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="55"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="8">
         <v>42815</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10768,15 +10773,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="57">
         <v>20</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10785,8 +10790,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="85"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -11037,15 +11042,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="55"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="63"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="86"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11278,15 +11283,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="57">
         <v>21</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="55" t="s">
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11295,8 +11300,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="62"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="85"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11533,15 +11538,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="55"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="63"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="86"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11774,17 +11779,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="57">
         <v>22</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="88"/>
+      <c r="D46" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11793,11 +11798,11 @@
       <c r="G46" s="8">
         <v>42815</v>
       </c>
-      <c r="H46" s="62">
-        <v>0.85</v>
-      </c>
-      <c r="I46" s="62" t="s">
-        <v>71</v>
+      <c r="H46" s="85">
+        <v>1</v>
+      </c>
+      <c r="I46" s="85" t="s">
+        <v>87</v>
       </c>
       <c r="J46" s="24"/>
       <c r="K46" s="24"/>
@@ -12041,17 +12046,19 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="55"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="8">
         <v>42816</v>
       </c>
-      <c r="G47" s="8"/>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
+      <c r="G47" s="8">
+        <v>42830</v>
+      </c>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12064,12 +12071,8 @@
       <c r="S47" s="15"/>
       <c r="T47" s="14"/>
       <c r="U47" s="14"/>
-      <c r="V47" s="13" t="s">
-        <v>8</v>
-      </c>
-      <c r="W47" s="13" t="s">
-        <v>8</v>
-      </c>
+      <c r="V47" s="13"/>
+      <c r="W47" s="13"/>
       <c r="X47" s="13" t="s">
         <v>8</v>
       </c>
@@ -12095,12 +12098,20 @@
       <c r="AF47" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AG47" s="20"/>
+      <c r="AG47" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AH47" s="31"/>
       <c r="AI47" s="31"/>
-      <c r="AJ47" s="13"/>
-      <c r="AK47" s="13"/>
-      <c r="AL47" s="13"/>
+      <c r="AJ47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AK47" s="13" t="s">
+        <v>8</v>
+      </c>
+      <c r="AL47" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AM47" s="13"/>
       <c r="AN47" s="13"/>
       <c r="AO47" s="31"/>
@@ -12304,15 +12315,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="57">
         <v>23</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="55" t="s">
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12321,8 +12332,8 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="62"/>
-      <c r="I48" s="62"/>
+      <c r="H48" s="85"/>
+      <c r="I48" s="85"/>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12563,15 +12574,15 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="55"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="8"/>
       <c r="G49" s="8"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12804,15 +12815,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="57">
         <v>23</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12821,8 +12832,8 @@
       <c r="G50" s="8">
         <v>42823</v>
       </c>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -13061,15 +13072,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="55"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13302,17 +13313,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="57">
         <v>24</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="88"/>
+      <c r="D52" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13321,8 +13332,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13581,15 +13592,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="55"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="61"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13822,17 +13833,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="55">
+      <c r="A54" s="57">
         <v>25</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="60" t="s">
+      <c r="C54" s="88"/>
+      <c r="D54" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="62" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13841,10 +13852,10 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="85">
         <v>1</v>
       </c>
-      <c r="I54" s="53" t="s">
+      <c r="I54" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="24"/>
@@ -14087,17 +14098,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="55"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14338,15 +14349,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="55">
+      <c r="A56" s="57">
         <v>26</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="55" t="s">
+      <c r="B56" s="89"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14355,10 +14366,10 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="53">
+      <c r="H56" s="59">
         <v>1</v>
       </c>
-      <c r="I56" s="53" t="s">
+      <c r="I56" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="24"/>
@@ -14599,17 +14610,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="55"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="54"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="60"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14848,15 +14859,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="55">
+      <c r="A58" s="57">
         <v>27</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="55" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="57" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="30">
@@ -14865,10 +14876,10 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="53">
+      <c r="H58" s="59">
         <v>1</v>
       </c>
-      <c r="I58" s="53" t="s">
+      <c r="I58" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="24"/>
@@ -15109,17 +15120,17 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="55"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="60"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15358,15 +15369,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="55">
+      <c r="A60" s="57">
         <v>28</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="55" t="s">
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15375,10 +15386,10 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="53">
+      <c r="H60" s="59">
         <v>1</v>
       </c>
-      <c r="I60" s="53" t="s">
+      <c r="I60" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="24"/>
@@ -15619,17 +15630,17 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="55"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="54"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="60"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15868,15 +15879,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="55">
+      <c r="A62" s="57">
         <v>29</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="55" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15885,10 +15896,10 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="53">
+      <c r="H62" s="59">
         <v>1</v>
       </c>
-      <c r="I62" s="53" t="s">
+      <c r="I62" s="59" t="s">
         <v>72</v>
       </c>
       <c r="J62" s="25"/>
@@ -16131,15 +16142,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="55"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="54"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="60"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16380,15 +16391,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="55">
+      <c r="A64" s="57">
         <v>30</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="60" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16397,8 +16408,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16637,15 +16648,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="55"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16878,15 +16889,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="60">
+      <c r="A66" s="62">
         <v>31</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="55" t="s">
+      <c r="B66" s="89"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16895,8 +16906,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -17135,15 +17146,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="61"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="54"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="60"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17376,15 +17387,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="60">
+      <c r="A68" s="62">
         <v>32</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="55" t="s">
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17393,8 +17404,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17637,15 +17648,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="61"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17877,77 +17888,234 @@
       <c r="ID69" s="13"/>
       <c r="IE69" s="13"/>
     </row>
-    <row r="71" spans="1:239">
-      <c r="A71" s="94" t="s">
+    <row r="71" spans="1:239" ht="409.6">
+      <c r="A71" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="94"/>
-      <c r="X71" s="94"/>
-      <c r="Y71" s="94"/>
-      <c r="Z71" s="94"/>
-      <c r="AA71" s="94"/>
-      <c r="AB71" s="94"/>
-      <c r="AC71" s="94"/>
-      <c r="AD71" s="94"/>
-      <c r="AE71" s="94"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="61"/>
+      <c r="AC71" s="61"/>
+      <c r="AD71" s="61"/>
+      <c r="AE71" s="61"/>
     </row>
-    <row r="72" spans="1:239">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="94"/>
-      <c r="V72" s="94"/>
-      <c r="W72" s="94"/>
-      <c r="X72" s="94"/>
-      <c r="Y72" s="94"/>
-      <c r="Z72" s="94"/>
-      <c r="AA72" s="94"/>
-      <c r="AB72" s="94"/>
-      <c r="AC72" s="94"/>
-      <c r="AD72" s="94"/>
-      <c r="AE72" s="94"/>
+    <row r="72" spans="1:239" ht="409.6">
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="B54:C69"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="AH6:IE6"/>
     <mergeCell ref="E14:E15"/>
@@ -17972,163 +18140,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="B54:C69"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="H68:H69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="23475" windowHeight="5970" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="11625" windowHeight="7110" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="334" uniqueCount="88">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -365,6 +365,10 @@
   </si>
   <si>
     <t>완료</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>진행중</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -856,38 +860,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -952,35 +968,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1356,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A37" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F49" sqref="F49"/>
+    <sheetView tabSelected="1" topLeftCell="AB34" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="AN49" sqref="AN49"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1381,226 +1385,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="70" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="66" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="67" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="69"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1612,17 +1616,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1631,261 +1635,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="54" t="s">
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55"/>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55"/>
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="55"/>
-      <c r="BD6" s="55"/>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="55"/>
-      <c r="BG6" s="55"/>
-      <c r="BH6" s="55"/>
-      <c r="BI6" s="55"/>
-      <c r="BJ6" s="55"/>
-      <c r="BK6" s="55"/>
-      <c r="BL6" s="55"/>
-      <c r="BM6" s="55"/>
-      <c r="BN6" s="55"/>
-      <c r="BO6" s="55"/>
-      <c r="BP6" s="55"/>
-      <c r="BQ6" s="55"/>
-      <c r="BR6" s="55"/>
-      <c r="BS6" s="55"/>
-      <c r="BT6" s="55"/>
-      <c r="BU6" s="55"/>
-      <c r="BV6" s="55"/>
-      <c r="BW6" s="55"/>
-      <c r="BX6" s="55"/>
-      <c r="BY6" s="55"/>
-      <c r="BZ6" s="55"/>
-      <c r="CA6" s="55"/>
-      <c r="CB6" s="55"/>
-      <c r="CC6" s="55"/>
-      <c r="CD6" s="55"/>
-      <c r="CE6" s="55"/>
-      <c r="CF6" s="55"/>
-      <c r="CG6" s="55"/>
-      <c r="CH6" s="55"/>
-      <c r="CI6" s="55"/>
-      <c r="CJ6" s="55"/>
-      <c r="CK6" s="55"/>
-      <c r="CL6" s="55"/>
-      <c r="CM6" s="55"/>
-      <c r="CN6" s="55"/>
-      <c r="CO6" s="55"/>
-      <c r="CP6" s="55"/>
-      <c r="CQ6" s="55"/>
-      <c r="CR6" s="55"/>
-      <c r="CS6" s="55"/>
-      <c r="CT6" s="55"/>
-      <c r="CU6" s="55"/>
-      <c r="CV6" s="55"/>
-      <c r="CW6" s="55"/>
-      <c r="CX6" s="55"/>
-      <c r="CY6" s="55"/>
-      <c r="CZ6" s="55"/>
-      <c r="DA6" s="55"/>
-      <c r="DB6" s="55"/>
-      <c r="DC6" s="55"/>
-      <c r="DD6" s="55"/>
-      <c r="DE6" s="55"/>
-      <c r="DF6" s="55"/>
-      <c r="DG6" s="55"/>
-      <c r="DH6" s="55"/>
-      <c r="DI6" s="55"/>
-      <c r="DJ6" s="55"/>
-      <c r="DK6" s="55"/>
-      <c r="DL6" s="55"/>
-      <c r="DM6" s="55"/>
-      <c r="DN6" s="55"/>
-      <c r="DO6" s="55"/>
-      <c r="DP6" s="55"/>
-      <c r="DQ6" s="55"/>
-      <c r="DR6" s="55"/>
-      <c r="DS6" s="55"/>
-      <c r="DT6" s="55"/>
-      <c r="DU6" s="55"/>
-      <c r="DV6" s="55"/>
-      <c r="DW6" s="55"/>
-      <c r="DX6" s="55"/>
-      <c r="DY6" s="55"/>
-      <c r="DZ6" s="55"/>
-      <c r="EA6" s="55"/>
-      <c r="EB6" s="55"/>
-      <c r="EC6" s="55"/>
-      <c r="ED6" s="55"/>
-      <c r="EE6" s="55"/>
-      <c r="EF6" s="55"/>
-      <c r="EG6" s="55"/>
-      <c r="EH6" s="55"/>
-      <c r="EI6" s="55"/>
-      <c r="EJ6" s="55"/>
-      <c r="EK6" s="55"/>
-      <c r="EL6" s="55"/>
-      <c r="EM6" s="55"/>
-      <c r="EN6" s="55"/>
-      <c r="EO6" s="55"/>
-      <c r="EP6" s="55"/>
-      <c r="EQ6" s="55"/>
-      <c r="ER6" s="55"/>
-      <c r="ES6" s="55"/>
-      <c r="ET6" s="55"/>
-      <c r="EU6" s="55"/>
-      <c r="EV6" s="55"/>
-      <c r="EW6" s="55"/>
-      <c r="EX6" s="55"/>
-      <c r="EY6" s="55"/>
-      <c r="EZ6" s="55"/>
-      <c r="FA6" s="55"/>
-      <c r="FB6" s="55"/>
-      <c r="FC6" s="55"/>
-      <c r="FD6" s="55"/>
-      <c r="FE6" s="55"/>
-      <c r="FF6" s="55"/>
-      <c r="FG6" s="55"/>
-      <c r="FH6" s="55"/>
-      <c r="FI6" s="55"/>
-      <c r="FJ6" s="55"/>
-      <c r="FK6" s="55"/>
-      <c r="FL6" s="55"/>
-      <c r="FM6" s="55"/>
-      <c r="FN6" s="55"/>
-      <c r="FO6" s="55"/>
-      <c r="FP6" s="55"/>
-      <c r="FQ6" s="55"/>
-      <c r="FR6" s="55"/>
-      <c r="FS6" s="55"/>
-      <c r="FT6" s="55"/>
-      <c r="FU6" s="55"/>
-      <c r="FV6" s="55"/>
-      <c r="FW6" s="55"/>
-      <c r="FX6" s="55"/>
-      <c r="FY6" s="55"/>
-      <c r="FZ6" s="55"/>
-      <c r="GA6" s="55"/>
-      <c r="GB6" s="55"/>
-      <c r="GC6" s="55"/>
-      <c r="GD6" s="55"/>
-      <c r="GE6" s="55"/>
-      <c r="GF6" s="55"/>
-      <c r="GG6" s="55"/>
-      <c r="GH6" s="55"/>
-      <c r="GI6" s="55"/>
-      <c r="GJ6" s="55"/>
-      <c r="GK6" s="55"/>
-      <c r="GL6" s="55"/>
-      <c r="GM6" s="55"/>
-      <c r="GN6" s="55"/>
-      <c r="GO6" s="55"/>
-      <c r="GP6" s="55"/>
-      <c r="GQ6" s="55"/>
-      <c r="GR6" s="55"/>
-      <c r="GS6" s="55"/>
-      <c r="GT6" s="55"/>
-      <c r="GU6" s="55"/>
-      <c r="GV6" s="55"/>
-      <c r="GW6" s="55"/>
-      <c r="GX6" s="55"/>
-      <c r="GY6" s="55"/>
-      <c r="GZ6" s="55"/>
-      <c r="HA6" s="55"/>
-      <c r="HB6" s="55"/>
-      <c r="HC6" s="55"/>
-      <c r="HD6" s="55"/>
-      <c r="HE6" s="55"/>
-      <c r="HF6" s="55"/>
-      <c r="HG6" s="55"/>
-      <c r="HH6" s="55"/>
-      <c r="HI6" s="55"/>
-      <c r="HJ6" s="55"/>
-      <c r="HK6" s="55"/>
-      <c r="HL6" s="55"/>
-      <c r="HM6" s="55"/>
-      <c r="HN6" s="55"/>
-      <c r="HO6" s="55"/>
-      <c r="HP6" s="55"/>
-      <c r="HQ6" s="55"/>
-      <c r="HR6" s="55"/>
-      <c r="HS6" s="55"/>
-      <c r="HT6" s="55"/>
-      <c r="HU6" s="55"/>
-      <c r="HV6" s="55"/>
-      <c r="HW6" s="55"/>
-      <c r="HX6" s="55"/>
-      <c r="HY6" s="55"/>
-      <c r="HZ6" s="55"/>
-      <c r="IA6" s="55"/>
-      <c r="IB6" s="55"/>
-      <c r="IC6" s="55"/>
-      <c r="ID6" s="55"/>
-      <c r="IE6" s="56"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="91"/>
+      <c r="AN6" s="91"/>
+      <c r="AO6" s="91"/>
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="91"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="91"/>
+      <c r="BG6" s="91"/>
+      <c r="BH6" s="91"/>
+      <c r="BI6" s="91"/>
+      <c r="BJ6" s="91"/>
+      <c r="BK6" s="91"/>
+      <c r="BL6" s="91"/>
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="91"/>
+      <c r="BQ6" s="91"/>
+      <c r="BR6" s="91"/>
+      <c r="BS6" s="91"/>
+      <c r="BT6" s="91"/>
+      <c r="BU6" s="91"/>
+      <c r="BV6" s="91"/>
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="91"/>
+      <c r="CA6" s="91"/>
+      <c r="CB6" s="91"/>
+      <c r="CC6" s="91"/>
+      <c r="CD6" s="91"/>
+      <c r="CE6" s="91"/>
+      <c r="CF6" s="91"/>
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="91"/>
+      <c r="CK6" s="91"/>
+      <c r="CL6" s="91"/>
+      <c r="CM6" s="91"/>
+      <c r="CN6" s="91"/>
+      <c r="CO6" s="91"/>
+      <c r="CP6" s="91"/>
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="91"/>
+      <c r="CU6" s="91"/>
+      <c r="CV6" s="91"/>
+      <c r="CW6" s="91"/>
+      <c r="CX6" s="91"/>
+      <c r="CY6" s="91"/>
+      <c r="CZ6" s="91"/>
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="91"/>
+      <c r="DE6" s="91"/>
+      <c r="DF6" s="91"/>
+      <c r="DG6" s="91"/>
+      <c r="DH6" s="91"/>
+      <c r="DI6" s="91"/>
+      <c r="DJ6" s="91"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="91"/>
+      <c r="DO6" s="91"/>
+      <c r="DP6" s="91"/>
+      <c r="DQ6" s="91"/>
+      <c r="DR6" s="91"/>
+      <c r="DS6" s="91"/>
+      <c r="DT6" s="91"/>
+      <c r="DU6" s="91"/>
+      <c r="DV6" s="91"/>
+      <c r="DW6" s="91"/>
+      <c r="DX6" s="91"/>
+      <c r="DY6" s="91"/>
+      <c r="DZ6" s="91"/>
+      <c r="EA6" s="91"/>
+      <c r="EB6" s="91"/>
+      <c r="EC6" s="91"/>
+      <c r="ED6" s="91"/>
+      <c r="EE6" s="91"/>
+      <c r="EF6" s="91"/>
+      <c r="EG6" s="91"/>
+      <c r="EH6" s="91"/>
+      <c r="EI6" s="91"/>
+      <c r="EJ6" s="91"/>
+      <c r="EK6" s="91"/>
+      <c r="EL6" s="91"/>
+      <c r="EM6" s="91"/>
+      <c r="EN6" s="91"/>
+      <c r="EO6" s="91"/>
+      <c r="EP6" s="91"/>
+      <c r="EQ6" s="91"/>
+      <c r="ER6" s="91"/>
+      <c r="ES6" s="91"/>
+      <c r="ET6" s="91"/>
+      <c r="EU6" s="91"/>
+      <c r="EV6" s="91"/>
+      <c r="EW6" s="91"/>
+      <c r="EX6" s="91"/>
+      <c r="EY6" s="91"/>
+      <c r="EZ6" s="91"/>
+      <c r="FA6" s="91"/>
+      <c r="FB6" s="91"/>
+      <c r="FC6" s="91"/>
+      <c r="FD6" s="91"/>
+      <c r="FE6" s="91"/>
+      <c r="FF6" s="91"/>
+      <c r="FG6" s="91"/>
+      <c r="FH6" s="91"/>
+      <c r="FI6" s="91"/>
+      <c r="FJ6" s="91"/>
+      <c r="FK6" s="91"/>
+      <c r="FL6" s="91"/>
+      <c r="FM6" s="91"/>
+      <c r="FN6" s="91"/>
+      <c r="FO6" s="91"/>
+      <c r="FP6" s="91"/>
+      <c r="FQ6" s="91"/>
+      <c r="FR6" s="91"/>
+      <c r="FS6" s="91"/>
+      <c r="FT6" s="91"/>
+      <c r="FU6" s="91"/>
+      <c r="FV6" s="91"/>
+      <c r="FW6" s="91"/>
+      <c r="FX6" s="91"/>
+      <c r="FY6" s="91"/>
+      <c r="FZ6" s="91"/>
+      <c r="GA6" s="91"/>
+      <c r="GB6" s="91"/>
+      <c r="GC6" s="91"/>
+      <c r="GD6" s="91"/>
+      <c r="GE6" s="91"/>
+      <c r="GF6" s="91"/>
+      <c r="GG6" s="91"/>
+      <c r="GH6" s="91"/>
+      <c r="GI6" s="91"/>
+      <c r="GJ6" s="91"/>
+      <c r="GK6" s="91"/>
+      <c r="GL6" s="91"/>
+      <c r="GM6" s="91"/>
+      <c r="GN6" s="91"/>
+      <c r="GO6" s="91"/>
+      <c r="GP6" s="91"/>
+      <c r="GQ6" s="91"/>
+      <c r="GR6" s="91"/>
+      <c r="GS6" s="91"/>
+      <c r="GT6" s="91"/>
+      <c r="GU6" s="91"/>
+      <c r="GV6" s="91"/>
+      <c r="GW6" s="91"/>
+      <c r="GX6" s="91"/>
+      <c r="GY6" s="91"/>
+      <c r="GZ6" s="91"/>
+      <c r="HA6" s="91"/>
+      <c r="HB6" s="91"/>
+      <c r="HC6" s="91"/>
+      <c r="HD6" s="91"/>
+      <c r="HE6" s="91"/>
+      <c r="HF6" s="91"/>
+      <c r="HG6" s="91"/>
+      <c r="HH6" s="91"/>
+      <c r="HI6" s="91"/>
+      <c r="HJ6" s="91"/>
+      <c r="HK6" s="91"/>
+      <c r="HL6" s="91"/>
+      <c r="HM6" s="91"/>
+      <c r="HN6" s="91"/>
+      <c r="HO6" s="91"/>
+      <c r="HP6" s="91"/>
+      <c r="HQ6" s="91"/>
+      <c r="HR6" s="91"/>
+      <c r="HS6" s="91"/>
+      <c r="HT6" s="91"/>
+      <c r="HU6" s="91"/>
+      <c r="HV6" s="91"/>
+      <c r="HW6" s="91"/>
+      <c r="HX6" s="91"/>
+      <c r="HY6" s="91"/>
+      <c r="HZ6" s="91"/>
+      <c r="IA6" s="91"/>
+      <c r="IB6" s="91"/>
+      <c r="IC6" s="91"/>
+      <c r="ID6" s="91"/>
+      <c r="IE6" s="92"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -2053,17 +2057,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="57">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2072,10 +2076,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="53">
         <v>1</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2326,19 +2330,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2585,15 +2589,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="57">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="57" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2602,10 +2606,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="53">
         <v>1</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2848,19 +2852,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3099,15 +3103,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="57">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="57" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3116,10 +3120,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="53">
         <v>1</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3362,19 +3366,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3613,15 +3617,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="57">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="57" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3630,10 +3634,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="53">
         <v>1</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3876,19 +3880,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="57"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4127,15 +4131,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="57">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="57" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4144,10 +4148,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="53">
         <v>1</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4386,19 +4390,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="57"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4635,15 +4639,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="57">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="55" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4652,10 +4656,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="53">
         <v>1</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4894,19 +4898,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="57"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5143,17 +5147,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="57">
+      <c r="A20" s="55">
         <v>9</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="62" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="30">
@@ -5162,10 +5166,10 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="53">
         <v>1</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="24"/>
@@ -5408,17 +5412,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="57"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5665,15 +5669,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="57">
+      <c r="A22" s="55">
         <v>10</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="30">
@@ -5682,10 +5686,10 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="53">
         <v>1</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="24"/>
@@ -5926,17 +5930,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="57"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6175,15 +6179,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="57">
+      <c r="A24" s="55">
         <v>11</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="30">
@@ -6192,10 +6196,10 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="53">
         <v>1</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J24" s="24"/>
@@ -6434,17 +6438,17 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="57"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6681,15 +6685,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="57">
+      <c r="A26" s="55">
         <v>12</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="30">
@@ -6698,10 +6702,10 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="53">
         <v>0.9</v>
       </c>
-      <c r="I26" s="85"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6938,17 +6942,17 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="86"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7185,15 +7189,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="57">
+      <c r="A28" s="55">
         <v>13</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="30">
@@ -7202,8 +7206,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7442,17 +7446,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="57"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7685,15 +7689,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="57">
+      <c r="A30" s="55">
         <v>14</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="62" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="30">
@@ -7702,8 +7706,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7940,17 +7944,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8183,15 +8187,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="57">
+      <c r="A32" s="55">
         <v>15</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="62" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="30">
@@ -8200,8 +8204,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8440,17 +8444,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="57"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8683,15 +8687,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="57">
+      <c r="A34" s="55">
         <v>16</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="62" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="30">
@@ -8700,8 +8704,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8944,17 +8948,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="57"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9187,17 +9191,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="57">
+      <c r="A36" s="55">
         <v>17</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="62" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9206,10 +9210,10 @@
       <c r="G36" s="8">
         <v>42829</v>
       </c>
-      <c r="H36" s="85">
+      <c r="H36" s="62">
         <v>0.95</v>
       </c>
-      <c r="I36" s="85" t="s">
+      <c r="I36" s="62" t="s">
         <v>74</v>
       </c>
       <c r="J36" s="24"/>
@@ -9466,17 +9470,17 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="57"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="8">
         <v>42815</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9729,15 +9733,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="57">
+      <c r="A38" s="55">
         <v>18</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="57" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9746,8 +9750,8 @@
       <c r="G38" s="8">
         <v>42837</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9994,15 +9998,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="57"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10235,17 +10239,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="57">
+      <c r="A40" s="55">
         <v>19</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="62" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10254,10 +10258,10 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="85">
+      <c r="H40" s="62">
         <v>0.75</v>
       </c>
-      <c r="I40" s="85" t="s">
+      <c r="I40" s="62" t="s">
         <v>71</v>
       </c>
       <c r="J40" s="24"/>
@@ -10514,17 +10518,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="57"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="8">
         <v>42815</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10773,15 +10777,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="57">
+      <c r="A42" s="55">
         <v>20</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="57" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10790,8 +10794,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="85"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -11042,15 +11046,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="57"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="63"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="86"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11283,15 +11287,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="57">
+      <c r="A44" s="55">
         <v>21</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="57" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="62" t="s">
+      <c r="E44" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11300,8 +11304,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="85"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11538,15 +11542,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="57"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="63"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="86"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11779,17 +11783,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="57">
+      <c r="A46" s="55">
         <v>22</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="57" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11798,10 +11802,10 @@
       <c r="G46" s="8">
         <v>42815</v>
       </c>
-      <c r="H46" s="85">
+      <c r="H46" s="62">
         <v>1</v>
       </c>
-      <c r="I46" s="85" t="s">
+      <c r="I46" s="62" t="s">
         <v>87</v>
       </c>
       <c r="J46" s="24"/>
@@ -12046,19 +12050,19 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="57"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="63"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="8">
         <v>42816</v>
       </c>
       <c r="G47" s="8">
         <v>42830</v>
       </c>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12315,15 +12319,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="57">
+      <c r="A48" s="55">
         <v>23</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="57" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12332,8 +12336,12 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="85"/>
-      <c r="I48" s="85"/>
+      <c r="H48" s="62">
+        <v>0.05</v>
+      </c>
+      <c r="I48" s="62" t="s">
+        <v>88</v>
+      </c>
       <c r="J48" s="24"/>
       <c r="K48" s="24"/>
       <c r="L48" s="24"/>
@@ -12574,15 +12582,17 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="57"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="63"/>
-      <c r="F49" s="8"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="61"/>
+      <c r="F49" s="8">
+        <v>42831</v>
+      </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12612,7 +12622,9 @@
       <c r="AJ49" s="13"/>
       <c r="AK49" s="13"/>
       <c r="AL49" s="13"/>
-      <c r="AM49" s="13"/>
+      <c r="AM49" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AN49" s="13"/>
       <c r="AO49" s="31"/>
       <c r="AP49" s="31"/>
@@ -12815,15 +12827,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="57">
+      <c r="A50" s="55">
         <v>23</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="57" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="E50" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12832,8 +12844,8 @@
       <c r="G50" s="8">
         <v>42823</v>
       </c>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -13072,15 +13084,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="57"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="63"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13313,17 +13325,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="57">
+      <c r="A52" s="55">
         <v>24</v>
       </c>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="57" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E52" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13332,8 +13344,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13592,15 +13604,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="57"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="63"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13833,17 +13845,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="57">
+      <c r="A54" s="55">
         <v>25</v>
       </c>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="88"/>
-      <c r="D54" s="62" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="E54" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13852,10 +13864,10 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="85">
+      <c r="H54" s="62">
         <v>1</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="I54" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="24"/>
@@ -14098,17 +14110,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="57"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="60"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14349,15 +14361,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="57">
+      <c r="A56" s="55">
         <v>26</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="57" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14366,10 +14378,10 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="53">
         <v>1</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="24"/>
@@ -14610,17 +14622,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="57"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="60"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14859,15 +14871,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="57">
+      <c r="A58" s="55">
         <v>27</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="57" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="55" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="30">
@@ -14876,10 +14888,10 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="53">
         <v>1</v>
       </c>
-      <c r="I58" s="59" t="s">
+      <c r="I58" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="24"/>
@@ -15120,17 +15132,17 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="57"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15369,15 +15381,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="57">
+      <c r="A60" s="55">
         <v>28</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="57" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15386,10 +15398,10 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="59">
+      <c r="H60" s="53">
         <v>1</v>
       </c>
-      <c r="I60" s="59" t="s">
+      <c r="I60" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="24"/>
@@ -15630,17 +15642,17 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="57"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="60"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="54"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15879,15 +15891,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="57">
+      <c r="A62" s="55">
         <v>29</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="57" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15896,10 +15908,10 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="59">
+      <c r="H62" s="53">
         <v>1</v>
       </c>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="53" t="s">
         <v>72</v>
       </c>
       <c r="J62" s="25"/>
@@ -16142,15 +16154,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="57"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="60"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="54"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16391,15 +16403,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="57">
+      <c r="A64" s="55">
         <v>30</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="62" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16408,8 +16420,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16648,15 +16660,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="57"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16889,15 +16901,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="62">
+      <c r="A66" s="60">
         <v>31</v>
       </c>
-      <c r="B66" s="89"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="57" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16906,8 +16918,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -17146,15 +17158,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="63"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17387,15 +17399,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="62">
+      <c r="A68" s="60">
         <v>32</v>
       </c>
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="57" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17404,8 +17416,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17648,15 +17660,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="63"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="54"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17888,77 +17900,234 @@
       <c r="ID69" s="13"/>
       <c r="IE69" s="13"/>
     </row>
-    <row r="71" spans="1:239" ht="409.6">
-      <c r="A71" s="61" t="s">
+    <row r="71" spans="1:239">
+      <c r="A71" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="61"/>
-      <c r="AB71" s="61"/>
-      <c r="AC71" s="61"/>
-      <c r="AD71" s="61"/>
-      <c r="AE71" s="61"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="94"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="94"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="94"/>
+      <c r="AA71" s="94"/>
+      <c r="AB71" s="94"/>
+      <c r="AC71" s="94"/>
+      <c r="AD71" s="94"/>
+      <c r="AE71" s="94"/>
     </row>
-    <row r="72" spans="1:239" ht="409.6">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="61"/>
-      <c r="AC72" s="61"/>
-      <c r="AD72" s="61"/>
-      <c r="AE72" s="61"/>
+    <row r="72" spans="1:239">
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="94"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="94"/>
+      <c r="Z72" s="94"/>
+      <c r="AA72" s="94"/>
+      <c r="AB72" s="94"/>
+      <c r="AC72" s="94"/>
+      <c r="AD72" s="94"/>
+      <c r="AE72" s="94"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A71:AE72"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="D62:D63"/>
@@ -17983,163 +18152,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A71:AE72"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="11625" windowHeight="7110" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="23640" windowHeight="6255" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="336" uniqueCount="89">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="337" uniqueCount="89">
   <si>
     <t>No</t>
   </si>
@@ -860,50 +860,38 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -968,23 +956,35 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="AB34" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="AN49" sqref="AN49"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1385,226 +1385,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="68" t="s">
+      <c r="A1" s="64" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="69"/>
-      <c r="C1" s="69"/>
-      <c r="D1" s="69"/>
-      <c r="E1" s="69"/>
-      <c r="F1" s="69"/>
-      <c r="G1" s="69"/>
-      <c r="H1" s="69"/>
-      <c r="I1" s="69"/>
-      <c r="J1" s="69"/>
-      <c r="K1" s="69"/>
-      <c r="L1" s="69"/>
-      <c r="M1" s="69"/>
-      <c r="N1" s="69"/>
-      <c r="O1" s="69"/>
-      <c r="P1" s="69"/>
-      <c r="Q1" s="69"/>
-      <c r="R1" s="69"/>
-      <c r="S1" s="69"/>
-      <c r="T1" s="69"/>
-      <c r="U1" s="69"/>
-      <c r="V1" s="69"/>
-      <c r="W1" s="69"/>
-      <c r="X1" s="69"/>
-      <c r="Y1" s="69"/>
-      <c r="Z1" s="69"/>
-      <c r="AA1" s="69"/>
-      <c r="AB1" s="69"/>
-      <c r="AC1" s="69"/>
-      <c r="AD1" s="69"/>
-      <c r="AE1" s="69"/>
-      <c r="AF1" s="69"/>
-      <c r="AG1" s="69"/>
-      <c r="AH1" s="69"/>
-      <c r="AI1" s="69"/>
-      <c r="AJ1" s="69"/>
-      <c r="AK1" s="69"/>
-      <c r="AL1" s="69"/>
-      <c r="AM1" s="69"/>
-      <c r="AN1" s="69"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
+      <c r="K1" s="65"/>
+      <c r="L1" s="65"/>
+      <c r="M1" s="65"/>
+      <c r="N1" s="65"/>
+      <c r="O1" s="65"/>
+      <c r="P1" s="65"/>
+      <c r="Q1" s="65"/>
+      <c r="R1" s="65"/>
+      <c r="S1" s="65"/>
+      <c r="T1" s="65"/>
+      <c r="U1" s="65"/>
+      <c r="V1" s="65"/>
+      <c r="W1" s="65"/>
+      <c r="X1" s="65"/>
+      <c r="Y1" s="65"/>
+      <c r="Z1" s="65"/>
+      <c r="AA1" s="65"/>
+      <c r="AB1" s="65"/>
+      <c r="AC1" s="65"/>
+      <c r="AD1" s="65"/>
+      <c r="AE1" s="65"/>
+      <c r="AF1" s="65"/>
+      <c r="AG1" s="65"/>
+      <c r="AH1" s="65"/>
+      <c r="AI1" s="65"/>
+      <c r="AJ1" s="65"/>
+      <c r="AK1" s="65"/>
+      <c r="AL1" s="65"/>
+      <c r="AM1" s="65"/>
+      <c r="AN1" s="65"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="68"/>
-      <c r="B2" s="69"/>
-      <c r="C2" s="69"/>
-      <c r="D2" s="69"/>
-      <c r="E2" s="69"/>
-      <c r="F2" s="69"/>
-      <c r="G2" s="69"/>
-      <c r="H2" s="69"/>
-      <c r="I2" s="69"/>
-      <c r="J2" s="69"/>
-      <c r="K2" s="69"/>
-      <c r="L2" s="69"/>
-      <c r="M2" s="69"/>
-      <c r="N2" s="69"/>
-      <c r="O2" s="69"/>
-      <c r="P2" s="69"/>
-      <c r="Q2" s="69"/>
-      <c r="R2" s="69"/>
-      <c r="S2" s="69"/>
-      <c r="T2" s="69"/>
-      <c r="U2" s="69"/>
-      <c r="V2" s="69"/>
-      <c r="W2" s="69"/>
-      <c r="X2" s="69"/>
-      <c r="Y2" s="69"/>
-      <c r="Z2" s="69"/>
-      <c r="AA2" s="69"/>
-      <c r="AB2" s="69"/>
-      <c r="AC2" s="69"/>
-      <c r="AD2" s="69"/>
-      <c r="AE2" s="69"/>
-      <c r="AF2" s="69"/>
-      <c r="AG2" s="69"/>
-      <c r="AH2" s="69"/>
-      <c r="AI2" s="69"/>
-      <c r="AJ2" s="69"/>
-      <c r="AK2" s="69"/>
-      <c r="AL2" s="69"/>
-      <c r="AM2" s="69"/>
-      <c r="AN2" s="69"/>
+      <c r="A2" s="64"/>
+      <c r="B2" s="65"/>
+      <c r="C2" s="65"/>
+      <c r="D2" s="65"/>
+      <c r="E2" s="65"/>
+      <c r="F2" s="65"/>
+      <c r="G2" s="65"/>
+      <c r="H2" s="65"/>
+      <c r="I2" s="65"/>
+      <c r="J2" s="65"/>
+      <c r="K2" s="65"/>
+      <c r="L2" s="65"/>
+      <c r="M2" s="65"/>
+      <c r="N2" s="65"/>
+      <c r="O2" s="65"/>
+      <c r="P2" s="65"/>
+      <c r="Q2" s="65"/>
+      <c r="R2" s="65"/>
+      <c r="S2" s="65"/>
+      <c r="T2" s="65"/>
+      <c r="U2" s="65"/>
+      <c r="V2" s="65"/>
+      <c r="W2" s="65"/>
+      <c r="X2" s="65"/>
+      <c r="Y2" s="65"/>
+      <c r="Z2" s="65"/>
+      <c r="AA2" s="65"/>
+      <c r="AB2" s="65"/>
+      <c r="AC2" s="65"/>
+      <c r="AD2" s="65"/>
+      <c r="AE2" s="65"/>
+      <c r="AF2" s="65"/>
+      <c r="AG2" s="65"/>
+      <c r="AH2" s="65"/>
+      <c r="AI2" s="65"/>
+      <c r="AJ2" s="65"/>
+      <c r="AK2" s="65"/>
+      <c r="AL2" s="65"/>
+      <c r="AM2" s="65"/>
+      <c r="AN2" s="65"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="70" t="s">
+      <c r="A3" s="66" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="70"/>
-      <c r="C3" s="70"/>
-      <c r="D3" s="70"/>
-      <c r="E3" s="70"/>
-      <c r="F3" s="70"/>
-      <c r="G3" s="74" t="s">
+      <c r="B3" s="66"/>
+      <c r="C3" s="66"/>
+      <c r="D3" s="66"/>
+      <c r="E3" s="66"/>
+      <c r="F3" s="66"/>
+      <c r="G3" s="70" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="75"/>
-      <c r="I3" s="76" t="s">
+      <c r="H3" s="71"/>
+      <c r="I3" s="72" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="77"/>
-      <c r="K3" s="77"/>
-      <c r="L3" s="77"/>
-      <c r="M3" s="77"/>
-      <c r="N3" s="77"/>
-      <c r="O3" s="77"/>
-      <c r="P3" s="77"/>
-      <c r="Q3" s="70" t="s">
+      <c r="J3" s="73"/>
+      <c r="K3" s="73"/>
+      <c r="L3" s="73"/>
+      <c r="M3" s="73"/>
+      <c r="N3" s="73"/>
+      <c r="O3" s="73"/>
+      <c r="P3" s="73"/>
+      <c r="Q3" s="66" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="70"/>
-      <c r="S3" s="70"/>
-      <c r="T3" s="70"/>
-      <c r="U3" s="70"/>
-      <c r="V3" s="70"/>
-      <c r="W3" s="70"/>
-      <c r="X3" s="70"/>
-      <c r="Y3" s="70"/>
-      <c r="Z3" s="70"/>
-      <c r="AA3" s="70"/>
-      <c r="AB3" s="70"/>
-      <c r="AC3" s="70"/>
-      <c r="AD3" s="70"/>
-      <c r="AE3" s="70"/>
-      <c r="AF3" s="70"/>
-      <c r="AG3" s="70"/>
-      <c r="AH3" s="70"/>
-      <c r="AI3" s="70"/>
-      <c r="AJ3" s="70"/>
-      <c r="AK3" s="70"/>
-      <c r="AL3" s="70"/>
-      <c r="AM3" s="70"/>
-      <c r="AN3" s="70"/>
+      <c r="R3" s="66"/>
+      <c r="S3" s="66"/>
+      <c r="T3" s="66"/>
+      <c r="U3" s="66"/>
+      <c r="V3" s="66"/>
+      <c r="W3" s="66"/>
+      <c r="X3" s="66"/>
+      <c r="Y3" s="66"/>
+      <c r="Z3" s="66"/>
+      <c r="AA3" s="66"/>
+      <c r="AB3" s="66"/>
+      <c r="AC3" s="66"/>
+      <c r="AD3" s="66"/>
+      <c r="AE3" s="66"/>
+      <c r="AF3" s="66"/>
+      <c r="AG3" s="66"/>
+      <c r="AH3" s="66"/>
+      <c r="AI3" s="66"/>
+      <c r="AJ3" s="66"/>
+      <c r="AK3" s="66"/>
+      <c r="AL3" s="66"/>
+      <c r="AM3" s="66"/>
+      <c r="AN3" s="66"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="78" t="s">
+      <c r="A4" s="74" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="78"/>
-      <c r="C4" s="78"/>
-      <c r="D4" s="78"/>
-      <c r="E4" s="78"/>
-      <c r="F4" s="78"/>
-      <c r="G4" s="79" t="s">
+      <c r="B4" s="74"/>
+      <c r="C4" s="74"/>
+      <c r="D4" s="74"/>
+      <c r="E4" s="74"/>
+      <c r="F4" s="74"/>
+      <c r="G4" s="75" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="80"/>
-      <c r="I4" s="81" t="s">
+      <c r="H4" s="76"/>
+      <c r="I4" s="77" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="82"/>
-      <c r="K4" s="82"/>
-      <c r="L4" s="82"/>
-      <c r="M4" s="82"/>
-      <c r="N4" s="82"/>
-      <c r="O4" s="82"/>
-      <c r="P4" s="83"/>
-      <c r="Q4" s="71" t="s">
+      <c r="J4" s="78"/>
+      <c r="K4" s="78"/>
+      <c r="L4" s="78"/>
+      <c r="M4" s="78"/>
+      <c r="N4" s="78"/>
+      <c r="O4" s="78"/>
+      <c r="P4" s="79"/>
+      <c r="Q4" s="67" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="72"/>
-      <c r="S4" s="72"/>
-      <c r="T4" s="72"/>
-      <c r="U4" s="72"/>
-      <c r="V4" s="72"/>
-      <c r="W4" s="72"/>
-      <c r="X4" s="72"/>
-      <c r="Y4" s="72"/>
-      <c r="Z4" s="72"/>
-      <c r="AA4" s="72"/>
-      <c r="AB4" s="72"/>
-      <c r="AC4" s="72"/>
-      <c r="AD4" s="72"/>
-      <c r="AE4" s="72"/>
-      <c r="AF4" s="72"/>
-      <c r="AG4" s="72"/>
-      <c r="AH4" s="72"/>
-      <c r="AI4" s="72"/>
-      <c r="AJ4" s="72"/>
-      <c r="AK4" s="72"/>
-      <c r="AL4" s="72"/>
-      <c r="AM4" s="72"/>
-      <c r="AN4" s="73"/>
+      <c r="R4" s="68"/>
+      <c r="S4" s="68"/>
+      <c r="T4" s="68"/>
+      <c r="U4" s="68"/>
+      <c r="V4" s="68"/>
+      <c r="W4" s="68"/>
+      <c r="X4" s="68"/>
+      <c r="Y4" s="68"/>
+      <c r="Z4" s="68"/>
+      <c r="AA4" s="68"/>
+      <c r="AB4" s="68"/>
+      <c r="AC4" s="68"/>
+      <c r="AD4" s="68"/>
+      <c r="AE4" s="68"/>
+      <c r="AF4" s="68"/>
+      <c r="AG4" s="68"/>
+      <c r="AH4" s="68"/>
+      <c r="AI4" s="68"/>
+      <c r="AJ4" s="68"/>
+      <c r="AK4" s="68"/>
+      <c r="AL4" s="68"/>
+      <c r="AM4" s="68"/>
+      <c r="AN4" s="69"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="87"/>
-      <c r="B5" s="87"/>
-      <c r="C5" s="87"/>
-      <c r="D5" s="87"/>
-      <c r="E5" s="87"/>
-      <c r="F5" s="87"/>
-      <c r="G5" s="87"/>
-      <c r="H5" s="87"/>
-      <c r="I5" s="87"/>
-      <c r="J5" s="88"/>
-      <c r="K5" s="88"/>
-      <c r="L5" s="88"/>
-      <c r="M5" s="88"/>
-      <c r="N5" s="88"/>
-      <c r="O5" s="88"/>
-      <c r="P5" s="88"/>
-      <c r="Q5" s="88"/>
-      <c r="R5" s="88"/>
-      <c r="S5" s="88"/>
-      <c r="T5" s="88"/>
-      <c r="U5" s="88"/>
-      <c r="V5" s="88"/>
-      <c r="W5" s="88"/>
-      <c r="X5" s="88"/>
-      <c r="Y5" s="88"/>
-      <c r="Z5" s="88"/>
-      <c r="AA5" s="88"/>
-      <c r="AB5" s="88"/>
-      <c r="AC5" s="88"/>
-      <c r="AD5" s="88"/>
-      <c r="AE5" s="88"/>
+      <c r="A5" s="83"/>
+      <c r="B5" s="83"/>
+      <c r="C5" s="83"/>
+      <c r="D5" s="83"/>
+      <c r="E5" s="83"/>
+      <c r="F5" s="83"/>
+      <c r="G5" s="83"/>
+      <c r="H5" s="83"/>
+      <c r="I5" s="83"/>
+      <c r="J5" s="84"/>
+      <c r="K5" s="84"/>
+      <c r="L5" s="84"/>
+      <c r="M5" s="84"/>
+      <c r="N5" s="84"/>
+      <c r="O5" s="84"/>
+      <c r="P5" s="84"/>
+      <c r="Q5" s="84"/>
+      <c r="R5" s="84"/>
+      <c r="S5" s="84"/>
+      <c r="T5" s="84"/>
+      <c r="U5" s="84"/>
+      <c r="V5" s="84"/>
+      <c r="W5" s="84"/>
+      <c r="X5" s="84"/>
+      <c r="Y5" s="84"/>
+      <c r="Z5" s="84"/>
+      <c r="AA5" s="84"/>
+      <c r="AB5" s="84"/>
+      <c r="AC5" s="84"/>
+      <c r="AD5" s="84"/>
+      <c r="AE5" s="84"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1616,17 +1616,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="89" t="s">
+      <c r="A6" s="53" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="89" t="s">
+      <c r="B6" s="53" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="89"/>
-      <c r="D6" s="89" t="s">
+      <c r="C6" s="53"/>
+      <c r="D6" s="53" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="89" t="s">
+      <c r="E6" s="53" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1635,261 +1635,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="89" t="s">
+      <c r="H6" s="53" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="89" t="s">
+      <c r="I6" s="53" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="84" t="s">
+      <c r="J6" s="80" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="85"/>
-      <c r="L6" s="85"/>
-      <c r="M6" s="85"/>
-      <c r="N6" s="85"/>
-      <c r="O6" s="85"/>
-      <c r="P6" s="85"/>
-      <c r="Q6" s="85"/>
-      <c r="R6" s="85"/>
-      <c r="S6" s="85"/>
-      <c r="T6" s="85"/>
-      <c r="U6" s="85"/>
-      <c r="V6" s="85"/>
-      <c r="W6" s="85"/>
-      <c r="X6" s="85"/>
-      <c r="Y6" s="85"/>
-      <c r="Z6" s="85"/>
-      <c r="AA6" s="85"/>
-      <c r="AB6" s="85"/>
-      <c r="AC6" s="85"/>
-      <c r="AD6" s="85"/>
-      <c r="AE6" s="85"/>
-      <c r="AF6" s="85"/>
-      <c r="AG6" s="86"/>
-      <c r="AH6" s="90" t="s">
+      <c r="K6" s="81"/>
+      <c r="L6" s="81"/>
+      <c r="M6" s="81"/>
+      <c r="N6" s="81"/>
+      <c r="O6" s="81"/>
+      <c r="P6" s="81"/>
+      <c r="Q6" s="81"/>
+      <c r="R6" s="81"/>
+      <c r="S6" s="81"/>
+      <c r="T6" s="81"/>
+      <c r="U6" s="81"/>
+      <c r="V6" s="81"/>
+      <c r="W6" s="81"/>
+      <c r="X6" s="81"/>
+      <c r="Y6" s="81"/>
+      <c r="Z6" s="81"/>
+      <c r="AA6" s="81"/>
+      <c r="AB6" s="81"/>
+      <c r="AC6" s="81"/>
+      <c r="AD6" s="81"/>
+      <c r="AE6" s="81"/>
+      <c r="AF6" s="81"/>
+      <c r="AG6" s="82"/>
+      <c r="AH6" s="54" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="91"/>
-      <c r="AJ6" s="91"/>
-      <c r="AK6" s="91"/>
-      <c r="AL6" s="91"/>
-      <c r="AM6" s="91"/>
-      <c r="AN6" s="91"/>
-      <c r="AO6" s="91"/>
-      <c r="AP6" s="91"/>
-      <c r="AQ6" s="91"/>
-      <c r="AR6" s="91"/>
-      <c r="AS6" s="91"/>
-      <c r="AT6" s="91"/>
-      <c r="AU6" s="91"/>
-      <c r="AV6" s="91"/>
-      <c r="AW6" s="91"/>
-      <c r="AX6" s="91"/>
-      <c r="AY6" s="91"/>
-      <c r="AZ6" s="91"/>
-      <c r="BA6" s="91"/>
-      <c r="BB6" s="91"/>
-      <c r="BC6" s="91"/>
-      <c r="BD6" s="91"/>
-      <c r="BE6" s="91"/>
-      <c r="BF6" s="91"/>
-      <c r="BG6" s="91"/>
-      <c r="BH6" s="91"/>
-      <c r="BI6" s="91"/>
-      <c r="BJ6" s="91"/>
-      <c r="BK6" s="91"/>
-      <c r="BL6" s="91"/>
-      <c r="BM6" s="91"/>
-      <c r="BN6" s="91"/>
-      <c r="BO6" s="91"/>
-      <c r="BP6" s="91"/>
-      <c r="BQ6" s="91"/>
-      <c r="BR6" s="91"/>
-      <c r="BS6" s="91"/>
-      <c r="BT6" s="91"/>
-      <c r="BU6" s="91"/>
-      <c r="BV6" s="91"/>
-      <c r="BW6" s="91"/>
-      <c r="BX6" s="91"/>
-      <c r="BY6" s="91"/>
-      <c r="BZ6" s="91"/>
-      <c r="CA6" s="91"/>
-      <c r="CB6" s="91"/>
-      <c r="CC6" s="91"/>
-      <c r="CD6" s="91"/>
-      <c r="CE6" s="91"/>
-      <c r="CF6" s="91"/>
-      <c r="CG6" s="91"/>
-      <c r="CH6" s="91"/>
-      <c r="CI6" s="91"/>
-      <c r="CJ6" s="91"/>
-      <c r="CK6" s="91"/>
-      <c r="CL6" s="91"/>
-      <c r="CM6" s="91"/>
-      <c r="CN6" s="91"/>
-      <c r="CO6" s="91"/>
-      <c r="CP6" s="91"/>
-      <c r="CQ6" s="91"/>
-      <c r="CR6" s="91"/>
-      <c r="CS6" s="91"/>
-      <c r="CT6" s="91"/>
-      <c r="CU6" s="91"/>
-      <c r="CV6" s="91"/>
-      <c r="CW6" s="91"/>
-      <c r="CX6" s="91"/>
-      <c r="CY6" s="91"/>
-      <c r="CZ6" s="91"/>
-      <c r="DA6" s="91"/>
-      <c r="DB6" s="91"/>
-      <c r="DC6" s="91"/>
-      <c r="DD6" s="91"/>
-      <c r="DE6" s="91"/>
-      <c r="DF6" s="91"/>
-      <c r="DG6" s="91"/>
-      <c r="DH6" s="91"/>
-      <c r="DI6" s="91"/>
-      <c r="DJ6" s="91"/>
-      <c r="DK6" s="91"/>
-      <c r="DL6" s="91"/>
-      <c r="DM6" s="91"/>
-      <c r="DN6" s="91"/>
-      <c r="DO6" s="91"/>
-      <c r="DP6" s="91"/>
-      <c r="DQ6" s="91"/>
-      <c r="DR6" s="91"/>
-      <c r="DS6" s="91"/>
-      <c r="DT6" s="91"/>
-      <c r="DU6" s="91"/>
-      <c r="DV6" s="91"/>
-      <c r="DW6" s="91"/>
-      <c r="DX6" s="91"/>
-      <c r="DY6" s="91"/>
-      <c r="DZ6" s="91"/>
-      <c r="EA6" s="91"/>
-      <c r="EB6" s="91"/>
-      <c r="EC6" s="91"/>
-      <c r="ED6" s="91"/>
-      <c r="EE6" s="91"/>
-      <c r="EF6" s="91"/>
-      <c r="EG6" s="91"/>
-      <c r="EH6" s="91"/>
-      <c r="EI6" s="91"/>
-      <c r="EJ6" s="91"/>
-      <c r="EK6" s="91"/>
-      <c r="EL6" s="91"/>
-      <c r="EM6" s="91"/>
-      <c r="EN6" s="91"/>
-      <c r="EO6" s="91"/>
-      <c r="EP6" s="91"/>
-      <c r="EQ6" s="91"/>
-      <c r="ER6" s="91"/>
-      <c r="ES6" s="91"/>
-      <c r="ET6" s="91"/>
-      <c r="EU6" s="91"/>
-      <c r="EV6" s="91"/>
-      <c r="EW6" s="91"/>
-      <c r="EX6" s="91"/>
-      <c r="EY6" s="91"/>
-      <c r="EZ6" s="91"/>
-      <c r="FA6" s="91"/>
-      <c r="FB6" s="91"/>
-      <c r="FC6" s="91"/>
-      <c r="FD6" s="91"/>
-      <c r="FE6" s="91"/>
-      <c r="FF6" s="91"/>
-      <c r="FG6" s="91"/>
-      <c r="FH6" s="91"/>
-      <c r="FI6" s="91"/>
-      <c r="FJ6" s="91"/>
-      <c r="FK6" s="91"/>
-      <c r="FL6" s="91"/>
-      <c r="FM6" s="91"/>
-      <c r="FN6" s="91"/>
-      <c r="FO6" s="91"/>
-      <c r="FP6" s="91"/>
-      <c r="FQ6" s="91"/>
-      <c r="FR6" s="91"/>
-      <c r="FS6" s="91"/>
-      <c r="FT6" s="91"/>
-      <c r="FU6" s="91"/>
-      <c r="FV6" s="91"/>
-      <c r="FW6" s="91"/>
-      <c r="FX6" s="91"/>
-      <c r="FY6" s="91"/>
-      <c r="FZ6" s="91"/>
-      <c r="GA6" s="91"/>
-      <c r="GB6" s="91"/>
-      <c r="GC6" s="91"/>
-      <c r="GD6" s="91"/>
-      <c r="GE6" s="91"/>
-      <c r="GF6" s="91"/>
-      <c r="GG6" s="91"/>
-      <c r="GH6" s="91"/>
-      <c r="GI6" s="91"/>
-      <c r="GJ6" s="91"/>
-      <c r="GK6" s="91"/>
-      <c r="GL6" s="91"/>
-      <c r="GM6" s="91"/>
-      <c r="GN6" s="91"/>
-      <c r="GO6" s="91"/>
-      <c r="GP6" s="91"/>
-      <c r="GQ6" s="91"/>
-      <c r="GR6" s="91"/>
-      <c r="GS6" s="91"/>
-      <c r="GT6" s="91"/>
-      <c r="GU6" s="91"/>
-      <c r="GV6" s="91"/>
-      <c r="GW6" s="91"/>
-      <c r="GX6" s="91"/>
-      <c r="GY6" s="91"/>
-      <c r="GZ6" s="91"/>
-      <c r="HA6" s="91"/>
-      <c r="HB6" s="91"/>
-      <c r="HC6" s="91"/>
-      <c r="HD6" s="91"/>
-      <c r="HE6" s="91"/>
-      <c r="HF6" s="91"/>
-      <c r="HG6" s="91"/>
-      <c r="HH6" s="91"/>
-      <c r="HI6" s="91"/>
-      <c r="HJ6" s="91"/>
-      <c r="HK6" s="91"/>
-      <c r="HL6" s="91"/>
-      <c r="HM6" s="91"/>
-      <c r="HN6" s="91"/>
-      <c r="HO6" s="91"/>
-      <c r="HP6" s="91"/>
-      <c r="HQ6" s="91"/>
-      <c r="HR6" s="91"/>
-      <c r="HS6" s="91"/>
-      <c r="HT6" s="91"/>
-      <c r="HU6" s="91"/>
-      <c r="HV6" s="91"/>
-      <c r="HW6" s="91"/>
-      <c r="HX6" s="91"/>
-      <c r="HY6" s="91"/>
-      <c r="HZ6" s="91"/>
-      <c r="IA6" s="91"/>
-      <c r="IB6" s="91"/>
-      <c r="IC6" s="91"/>
-      <c r="ID6" s="91"/>
-      <c r="IE6" s="92"/>
+      <c r="AI6" s="55"/>
+      <c r="AJ6" s="55"/>
+      <c r="AK6" s="55"/>
+      <c r="AL6" s="55"/>
+      <c r="AM6" s="55"/>
+      <c r="AN6" s="55"/>
+      <c r="AO6" s="55"/>
+      <c r="AP6" s="55"/>
+      <c r="AQ6" s="55"/>
+      <c r="AR6" s="55"/>
+      <c r="AS6" s="55"/>
+      <c r="AT6" s="55"/>
+      <c r="AU6" s="55"/>
+      <c r="AV6" s="55"/>
+      <c r="AW6" s="55"/>
+      <c r="AX6" s="55"/>
+      <c r="AY6" s="55"/>
+      <c r="AZ6" s="55"/>
+      <c r="BA6" s="55"/>
+      <c r="BB6" s="55"/>
+      <c r="BC6" s="55"/>
+      <c r="BD6" s="55"/>
+      <c r="BE6" s="55"/>
+      <c r="BF6" s="55"/>
+      <c r="BG6" s="55"/>
+      <c r="BH6" s="55"/>
+      <c r="BI6" s="55"/>
+      <c r="BJ6" s="55"/>
+      <c r="BK6" s="55"/>
+      <c r="BL6" s="55"/>
+      <c r="BM6" s="55"/>
+      <c r="BN6" s="55"/>
+      <c r="BO6" s="55"/>
+      <c r="BP6" s="55"/>
+      <c r="BQ6" s="55"/>
+      <c r="BR6" s="55"/>
+      <c r="BS6" s="55"/>
+      <c r="BT6" s="55"/>
+      <c r="BU6" s="55"/>
+      <c r="BV6" s="55"/>
+      <c r="BW6" s="55"/>
+      <c r="BX6" s="55"/>
+      <c r="BY6" s="55"/>
+      <c r="BZ6" s="55"/>
+      <c r="CA6" s="55"/>
+      <c r="CB6" s="55"/>
+      <c r="CC6" s="55"/>
+      <c r="CD6" s="55"/>
+      <c r="CE6" s="55"/>
+      <c r="CF6" s="55"/>
+      <c r="CG6" s="55"/>
+      <c r="CH6" s="55"/>
+      <c r="CI6" s="55"/>
+      <c r="CJ6" s="55"/>
+      <c r="CK6" s="55"/>
+      <c r="CL6" s="55"/>
+      <c r="CM6" s="55"/>
+      <c r="CN6" s="55"/>
+      <c r="CO6" s="55"/>
+      <c r="CP6" s="55"/>
+      <c r="CQ6" s="55"/>
+      <c r="CR6" s="55"/>
+      <c r="CS6" s="55"/>
+      <c r="CT6" s="55"/>
+      <c r="CU6" s="55"/>
+      <c r="CV6" s="55"/>
+      <c r="CW6" s="55"/>
+      <c r="CX6" s="55"/>
+      <c r="CY6" s="55"/>
+      <c r="CZ6" s="55"/>
+      <c r="DA6" s="55"/>
+      <c r="DB6" s="55"/>
+      <c r="DC6" s="55"/>
+      <c r="DD6" s="55"/>
+      <c r="DE6" s="55"/>
+      <c r="DF6" s="55"/>
+      <c r="DG6" s="55"/>
+      <c r="DH6" s="55"/>
+      <c r="DI6" s="55"/>
+      <c r="DJ6" s="55"/>
+      <c r="DK6" s="55"/>
+      <c r="DL6" s="55"/>
+      <c r="DM6" s="55"/>
+      <c r="DN6" s="55"/>
+      <c r="DO6" s="55"/>
+      <c r="DP6" s="55"/>
+      <c r="DQ6" s="55"/>
+      <c r="DR6" s="55"/>
+      <c r="DS6" s="55"/>
+      <c r="DT6" s="55"/>
+      <c r="DU6" s="55"/>
+      <c r="DV6" s="55"/>
+      <c r="DW6" s="55"/>
+      <c r="DX6" s="55"/>
+      <c r="DY6" s="55"/>
+      <c r="DZ6" s="55"/>
+      <c r="EA6" s="55"/>
+      <c r="EB6" s="55"/>
+      <c r="EC6" s="55"/>
+      <c r="ED6" s="55"/>
+      <c r="EE6" s="55"/>
+      <c r="EF6" s="55"/>
+      <c r="EG6" s="55"/>
+      <c r="EH6" s="55"/>
+      <c r="EI6" s="55"/>
+      <c r="EJ6" s="55"/>
+      <c r="EK6" s="55"/>
+      <c r="EL6" s="55"/>
+      <c r="EM6" s="55"/>
+      <c r="EN6" s="55"/>
+      <c r="EO6" s="55"/>
+      <c r="EP6" s="55"/>
+      <c r="EQ6" s="55"/>
+      <c r="ER6" s="55"/>
+      <c r="ES6" s="55"/>
+      <c r="ET6" s="55"/>
+      <c r="EU6" s="55"/>
+      <c r="EV6" s="55"/>
+      <c r="EW6" s="55"/>
+      <c r="EX6" s="55"/>
+      <c r="EY6" s="55"/>
+      <c r="EZ6" s="55"/>
+      <c r="FA6" s="55"/>
+      <c r="FB6" s="55"/>
+      <c r="FC6" s="55"/>
+      <c r="FD6" s="55"/>
+      <c r="FE6" s="55"/>
+      <c r="FF6" s="55"/>
+      <c r="FG6" s="55"/>
+      <c r="FH6" s="55"/>
+      <c r="FI6" s="55"/>
+      <c r="FJ6" s="55"/>
+      <c r="FK6" s="55"/>
+      <c r="FL6" s="55"/>
+      <c r="FM6" s="55"/>
+      <c r="FN6" s="55"/>
+      <c r="FO6" s="55"/>
+      <c r="FP6" s="55"/>
+      <c r="FQ6" s="55"/>
+      <c r="FR6" s="55"/>
+      <c r="FS6" s="55"/>
+      <c r="FT6" s="55"/>
+      <c r="FU6" s="55"/>
+      <c r="FV6" s="55"/>
+      <c r="FW6" s="55"/>
+      <c r="FX6" s="55"/>
+      <c r="FY6" s="55"/>
+      <c r="FZ6" s="55"/>
+      <c r="GA6" s="55"/>
+      <c r="GB6" s="55"/>
+      <c r="GC6" s="55"/>
+      <c r="GD6" s="55"/>
+      <c r="GE6" s="55"/>
+      <c r="GF6" s="55"/>
+      <c r="GG6" s="55"/>
+      <c r="GH6" s="55"/>
+      <c r="GI6" s="55"/>
+      <c r="GJ6" s="55"/>
+      <c r="GK6" s="55"/>
+      <c r="GL6" s="55"/>
+      <c r="GM6" s="55"/>
+      <c r="GN6" s="55"/>
+      <c r="GO6" s="55"/>
+      <c r="GP6" s="55"/>
+      <c r="GQ6" s="55"/>
+      <c r="GR6" s="55"/>
+      <c r="GS6" s="55"/>
+      <c r="GT6" s="55"/>
+      <c r="GU6" s="55"/>
+      <c r="GV6" s="55"/>
+      <c r="GW6" s="55"/>
+      <c r="GX6" s="55"/>
+      <c r="GY6" s="55"/>
+      <c r="GZ6" s="55"/>
+      <c r="HA6" s="55"/>
+      <c r="HB6" s="55"/>
+      <c r="HC6" s="55"/>
+      <c r="HD6" s="55"/>
+      <c r="HE6" s="55"/>
+      <c r="HF6" s="55"/>
+      <c r="HG6" s="55"/>
+      <c r="HH6" s="55"/>
+      <c r="HI6" s="55"/>
+      <c r="HJ6" s="55"/>
+      <c r="HK6" s="55"/>
+      <c r="HL6" s="55"/>
+      <c r="HM6" s="55"/>
+      <c r="HN6" s="55"/>
+      <c r="HO6" s="55"/>
+      <c r="HP6" s="55"/>
+      <c r="HQ6" s="55"/>
+      <c r="HR6" s="55"/>
+      <c r="HS6" s="55"/>
+      <c r="HT6" s="55"/>
+      <c r="HU6" s="55"/>
+      <c r="HV6" s="55"/>
+      <c r="HW6" s="55"/>
+      <c r="HX6" s="55"/>
+      <c r="HY6" s="55"/>
+      <c r="HZ6" s="55"/>
+      <c r="IA6" s="55"/>
+      <c r="IB6" s="55"/>
+      <c r="IC6" s="55"/>
+      <c r="ID6" s="55"/>
+      <c r="IE6" s="56"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="89"/>
-      <c r="B7" s="89"/>
-      <c r="C7" s="89"/>
-      <c r="D7" s="89"/>
-      <c r="E7" s="89"/>
+      <c r="A7" s="53"/>
+      <c r="B7" s="53"/>
+      <c r="C7" s="53"/>
+      <c r="D7" s="53"/>
+      <c r="E7" s="53"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="89"/>
-      <c r="I7" s="89"/>
+      <c r="H7" s="53"/>
+      <c r="I7" s="53"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -2057,17 +2057,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="57">
         <v>1</v>
       </c>
-      <c r="B8" s="56" t="s">
+      <c r="B8" s="87" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="57"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="88"/>
+      <c r="D8" s="57" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2076,10 +2076,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="53">
+      <c r="H8" s="59">
         <v>1</v>
       </c>
-      <c r="I8" s="53" t="s">
+      <c r="I8" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2330,19 +2330,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="64"/>
-      <c r="C9" s="65"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="57"/>
+      <c r="B9" s="89"/>
+      <c r="C9" s="90"/>
+      <c r="D9" s="57"/>
+      <c r="E9" s="57"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="53"/>
-      <c r="I9" s="54"/>
+      <c r="H9" s="59"/>
+      <c r="I9" s="60"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2589,15 +2589,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="55">
+      <c r="A10" s="57">
         <v>2</v>
       </c>
-      <c r="B10" s="64"/>
-      <c r="C10" s="65"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="89"/>
+      <c r="C10" s="90"/>
+      <c r="D10" s="57" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2606,10 +2606,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="53">
+      <c r="H10" s="59">
         <v>1</v>
       </c>
-      <c r="I10" s="53" t="s">
+      <c r="I10" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2852,19 +2852,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="64"/>
-      <c r="C11" s="65"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="57"/>
+      <c r="B11" s="89"/>
+      <c r="C11" s="90"/>
+      <c r="D11" s="57"/>
+      <c r="E11" s="57"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="53"/>
-      <c r="I11" s="54"/>
+      <c r="H11" s="59"/>
+      <c r="I11" s="60"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3103,15 +3103,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="55">
+      <c r="A12" s="57">
         <v>3</v>
       </c>
-      <c r="B12" s="64"/>
-      <c r="C12" s="65"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="89"/>
+      <c r="C12" s="90"/>
+      <c r="D12" s="57" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="57" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3120,10 +3120,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="53">
+      <c r="H12" s="59">
         <v>1</v>
       </c>
-      <c r="I12" s="53" t="s">
+      <c r="I12" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3366,19 +3366,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="64"/>
-      <c r="C13" s="65"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="89"/>
+      <c r="C13" s="90"/>
+      <c r="D13" s="57"/>
+      <c r="E13" s="57"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="53"/>
-      <c r="I13" s="54"/>
+      <c r="H13" s="59"/>
+      <c r="I13" s="60"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3617,15 +3617,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="57">
         <v>4</v>
       </c>
-      <c r="B14" s="64"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="89"/>
+      <c r="C14" s="90"/>
+      <c r="D14" s="57" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="57" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3634,10 +3634,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="53">
+      <c r="H14" s="59">
         <v>1</v>
       </c>
-      <c r="I14" s="53" t="s">
+      <c r="I14" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3880,19 +3880,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="55"/>
-      <c r="B15" s="64"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="93"/>
+      <c r="A15" s="57"/>
+      <c r="B15" s="89"/>
+      <c r="C15" s="90"/>
+      <c r="D15" s="57"/>
+      <c r="E15" s="58"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="53"/>
-      <c r="I15" s="54"/>
+      <c r="H15" s="59"/>
+      <c r="I15" s="60"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4131,15 +4131,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="57">
         <v>5</v>
       </c>
-      <c r="B16" s="64"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="89"/>
+      <c r="C16" s="90"/>
+      <c r="D16" s="57" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="57" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4148,10 +4148,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="53">
+      <c r="H16" s="59">
         <v>1</v>
       </c>
-      <c r="I16" s="53" t="s">
+      <c r="I16" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4390,19 +4390,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="55"/>
-      <c r="B17" s="64"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="93"/>
+      <c r="A17" s="57"/>
+      <c r="B17" s="89"/>
+      <c r="C17" s="90"/>
+      <c r="D17" s="57"/>
+      <c r="E17" s="58"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="53"/>
-      <c r="I17" s="54"/>
+      <c r="H17" s="59"/>
+      <c r="I17" s="60"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4639,15 +4639,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="57">
         <v>6</v>
       </c>
-      <c r="B18" s="64"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="89"/>
+      <c r="C18" s="90"/>
+      <c r="D18" s="57" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="57" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4656,10 +4656,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="53">
+      <c r="H18" s="59">
         <v>1</v>
       </c>
-      <c r="I18" s="53" t="s">
+      <c r="I18" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4898,19 +4898,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="55"/>
-      <c r="B19" s="58"/>
-      <c r="C19" s="59"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="93"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="91"/>
+      <c r="C19" s="92"/>
+      <c r="D19" s="57"/>
+      <c r="E19" s="58"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="53"/>
-      <c r="I19" s="54"/>
+      <c r="H19" s="59"/>
+      <c r="I19" s="60"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5147,17 +5147,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="57">
         <v>9</v>
       </c>
-      <c r="B20" s="56" t="s">
+      <c r="B20" s="87" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="57"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="88"/>
+      <c r="D20" s="62" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="30">
@@ -5166,10 +5166,10 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="53">
+      <c r="H20" s="59">
         <v>1</v>
       </c>
-      <c r="I20" s="53" t="s">
+      <c r="I20" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="24"/>
@@ -5412,17 +5412,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="55"/>
-      <c r="B21" s="64"/>
-      <c r="C21" s="65"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="57"/>
+      <c r="B21" s="89"/>
+      <c r="C21" s="90"/>
+      <c r="D21" s="63"/>
+      <c r="E21" s="63"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="53"/>
-      <c r="I21" s="54"/>
+      <c r="H21" s="59"/>
+      <c r="I21" s="60"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5669,15 +5669,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="57">
         <v>10</v>
       </c>
-      <c r="B22" s="64"/>
-      <c r="C22" s="65"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="89"/>
+      <c r="C22" s="90"/>
+      <c r="D22" s="62" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="30">
@@ -5686,10 +5686,10 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="53">
+      <c r="H22" s="59">
         <v>1</v>
       </c>
-      <c r="I22" s="53" t="s">
+      <c r="I22" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="24"/>
@@ -5930,17 +5930,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="55"/>
-      <c r="B23" s="64"/>
-      <c r="C23" s="65"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="57"/>
+      <c r="B23" s="89"/>
+      <c r="C23" s="90"/>
+      <c r="D23" s="63"/>
+      <c r="E23" s="63"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="53"/>
-      <c r="I23" s="54"/>
+      <c r="H23" s="59"/>
+      <c r="I23" s="60"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6179,15 +6179,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="57">
         <v>11</v>
       </c>
-      <c r="B24" s="64"/>
-      <c r="C24" s="65"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="89"/>
+      <c r="C24" s="90"/>
+      <c r="D24" s="62" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="30">
@@ -6196,10 +6196,10 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="53">
+      <c r="H24" s="59">
         <v>1</v>
       </c>
-      <c r="I24" s="53" t="s">
+      <c r="I24" s="59" t="s">
         <v>77</v>
       </c>
       <c r="J24" s="24"/>
@@ -6438,17 +6438,17 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="55"/>
-      <c r="B25" s="64"/>
-      <c r="C25" s="65"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="57"/>
+      <c r="B25" s="89"/>
+      <c r="C25" s="90"/>
+      <c r="D25" s="63"/>
+      <c r="E25" s="63"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="53"/>
-      <c r="I25" s="54"/>
+      <c r="H25" s="59"/>
+      <c r="I25" s="60"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6685,15 +6685,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="57">
         <v>12</v>
       </c>
-      <c r="B26" s="64"/>
-      <c r="C26" s="65"/>
-      <c r="D26" s="60" t="s">
+      <c r="B26" s="89"/>
+      <c r="C26" s="90"/>
+      <c r="D26" s="62" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="30">
@@ -6702,10 +6702,10 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="53">
+      <c r="H26" s="59">
         <v>0.9</v>
       </c>
-      <c r="I26" s="62"/>
+      <c r="I26" s="85"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6942,17 +6942,17 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="64"/>
-      <c r="C27" s="65"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="57"/>
+      <c r="B27" s="89"/>
+      <c r="C27" s="90"/>
+      <c r="D27" s="63"/>
+      <c r="E27" s="63"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="53"/>
-      <c r="I27" s="63"/>
+      <c r="H27" s="59"/>
+      <c r="I27" s="86"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7189,15 +7189,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="57">
         <v>13</v>
       </c>
-      <c r="B28" s="64"/>
-      <c r="C28" s="65"/>
-      <c r="D28" s="60" t="s">
+      <c r="B28" s="89"/>
+      <c r="C28" s="90"/>
+      <c r="D28" s="62" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="30">
@@ -7206,8 +7206,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="62"/>
-      <c r="I28" s="62"/>
+      <c r="H28" s="85"/>
+      <c r="I28" s="85"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7446,17 +7446,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="55"/>
-      <c r="B29" s="64"/>
-      <c r="C29" s="65"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="57"/>
+      <c r="B29" s="89"/>
+      <c r="C29" s="90"/>
+      <c r="D29" s="63"/>
+      <c r="E29" s="63"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="63"/>
-      <c r="I29" s="63"/>
+      <c r="H29" s="86"/>
+      <c r="I29" s="86"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7689,15 +7689,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="57">
         <v>14</v>
       </c>
-      <c r="B30" s="64"/>
-      <c r="C30" s="65"/>
-      <c r="D30" s="60" t="s">
+      <c r="B30" s="89"/>
+      <c r="C30" s="90"/>
+      <c r="D30" s="62" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="30">
@@ -7706,8 +7706,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="62"/>
-      <c r="I30" s="62"/>
+      <c r="H30" s="85"/>
+      <c r="I30" s="85"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7944,17 +7944,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="64"/>
-      <c r="C31" s="65"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="57"/>
+      <c r="B31" s="89"/>
+      <c r="C31" s="90"/>
+      <c r="D31" s="63"/>
+      <c r="E31" s="63"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="63"/>
-      <c r="I31" s="63"/>
+      <c r="H31" s="86"/>
+      <c r="I31" s="86"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8187,15 +8187,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="57">
         <v>15</v>
       </c>
-      <c r="B32" s="64"/>
-      <c r="C32" s="65"/>
-      <c r="D32" s="60" t="s">
+      <c r="B32" s="89"/>
+      <c r="C32" s="90"/>
+      <c r="D32" s="62" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="30">
@@ -8204,8 +8204,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="62"/>
-      <c r="I32" s="62"/>
+      <c r="H32" s="85"/>
+      <c r="I32" s="85"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8444,17 +8444,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="55"/>
-      <c r="B33" s="64"/>
-      <c r="C33" s="65"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="57"/>
+      <c r="B33" s="89"/>
+      <c r="C33" s="90"/>
+      <c r="D33" s="63"/>
+      <c r="E33" s="63"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="63"/>
-      <c r="I33" s="63"/>
+      <c r="H33" s="86"/>
+      <c r="I33" s="86"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8687,15 +8687,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="57">
         <v>16</v>
       </c>
-      <c r="B34" s="64"/>
-      <c r="C34" s="65"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="89"/>
+      <c r="C34" s="90"/>
+      <c r="D34" s="62" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="62" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="30">
@@ -8704,8 +8704,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="62"/>
-      <c r="I34" s="62"/>
+      <c r="H34" s="85"/>
+      <c r="I34" s="85"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8948,17 +8948,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="55"/>
-      <c r="B35" s="58"/>
-      <c r="C35" s="59"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="57"/>
+      <c r="B35" s="91"/>
+      <c r="C35" s="92"/>
+      <c r="D35" s="63"/>
+      <c r="E35" s="63"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="63"/>
-      <c r="I35" s="63"/>
+      <c r="H35" s="86"/>
+      <c r="I35" s="86"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9191,17 +9191,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="55">
+      <c r="A36" s="57">
         <v>17</v>
       </c>
-      <c r="B36" s="56" t="s">
+      <c r="B36" s="87" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="57"/>
-      <c r="D36" s="60" t="s">
+      <c r="C36" s="88"/>
+      <c r="D36" s="62" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="60" t="s">
+      <c r="E36" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9210,10 +9210,10 @@
       <c r="G36" s="8">
         <v>42829</v>
       </c>
-      <c r="H36" s="62">
+      <c r="H36" s="85">
         <v>0.95</v>
       </c>
-      <c r="I36" s="62" t="s">
+      <c r="I36" s="85" t="s">
         <v>74</v>
       </c>
       <c r="J36" s="24"/>
@@ -9470,17 +9470,17 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="55"/>
-      <c r="B37" s="64"/>
-      <c r="C37" s="65"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="A37" s="57"/>
+      <c r="B37" s="89"/>
+      <c r="C37" s="90"/>
+      <c r="D37" s="63"/>
+      <c r="E37" s="63"/>
       <c r="F37" s="8">
         <v>42815</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="63"/>
-      <c r="I37" s="63"/>
+      <c r="H37" s="86"/>
+      <c r="I37" s="86"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9733,15 +9733,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="55">
+      <c r="A38" s="57">
         <v>18</v>
       </c>
-      <c r="B38" s="64"/>
-      <c r="C38" s="65"/>
-      <c r="D38" s="55" t="s">
+      <c r="B38" s="89"/>
+      <c r="C38" s="90"/>
+      <c r="D38" s="57" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="60" t="s">
+      <c r="E38" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9750,8 +9750,8 @@
       <c r="G38" s="8">
         <v>42837</v>
       </c>
-      <c r="H38" s="62"/>
-      <c r="I38" s="62"/>
+      <c r="H38" s="85"/>
+      <c r="I38" s="85"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9998,15 +9998,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="55"/>
-      <c r="B39" s="58"/>
-      <c r="C39" s="59"/>
-      <c r="D39" s="55"/>
-      <c r="E39" s="61"/>
+      <c r="A39" s="57"/>
+      <c r="B39" s="91"/>
+      <c r="C39" s="92"/>
+      <c r="D39" s="57"/>
+      <c r="E39" s="63"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="63"/>
-      <c r="I39" s="63"/>
+      <c r="H39" s="86"/>
+      <c r="I39" s="86"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10239,17 +10239,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="55">
+      <c r="A40" s="57">
         <v>19</v>
       </c>
-      <c r="B40" s="56" t="s">
+      <c r="B40" s="87" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="57"/>
-      <c r="D40" s="60" t="s">
+      <c r="C40" s="88"/>
+      <c r="D40" s="62" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="60" t="s">
+      <c r="E40" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10258,10 +10258,10 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="62">
+      <c r="H40" s="85">
         <v>0.75</v>
       </c>
-      <c r="I40" s="62" t="s">
+      <c r="I40" s="85" t="s">
         <v>71</v>
       </c>
       <c r="J40" s="24"/>
@@ -10518,17 +10518,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="55"/>
-      <c r="B41" s="64"/>
-      <c r="C41" s="65"/>
-      <c r="D41" s="61"/>
-      <c r="E41" s="61"/>
+      <c r="A41" s="57"/>
+      <c r="B41" s="89"/>
+      <c r="C41" s="90"/>
+      <c r="D41" s="63"/>
+      <c r="E41" s="63"/>
       <c r="F41" s="8">
         <v>42815</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="63"/>
-      <c r="I41" s="63"/>
+      <c r="H41" s="86"/>
+      <c r="I41" s="86"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10777,15 +10777,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="57">
         <v>20</v>
       </c>
-      <c r="B42" s="64"/>
-      <c r="C42" s="65"/>
-      <c r="D42" s="55" t="s">
+      <c r="B42" s="89"/>
+      <c r="C42" s="90"/>
+      <c r="D42" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10794,8 +10794,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="66"/>
-      <c r="I42" s="62"/>
+      <c r="H42" s="93"/>
+      <c r="I42" s="85"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -11046,15 +11046,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="55"/>
-      <c r="B43" s="64"/>
-      <c r="C43" s="65"/>
-      <c r="D43" s="55"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="57"/>
+      <c r="B43" s="89"/>
+      <c r="C43" s="90"/>
+      <c r="D43" s="57"/>
+      <c r="E43" s="63"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="67"/>
-      <c r="I43" s="63"/>
+      <c r="H43" s="94"/>
+      <c r="I43" s="86"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11287,15 +11287,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="57">
         <v>21</v>
       </c>
-      <c r="B44" s="64"/>
-      <c r="C44" s="65"/>
-      <c r="D44" s="55" t="s">
+      <c r="B44" s="89"/>
+      <c r="C44" s="90"/>
+      <c r="D44" s="57" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11304,8 +11304,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="66"/>
-      <c r="I44" s="62"/>
+      <c r="H44" s="93"/>
+      <c r="I44" s="85"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11542,15 +11542,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="55"/>
-      <c r="B45" s="58"/>
-      <c r="C45" s="59"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="57"/>
+      <c r="B45" s="91"/>
+      <c r="C45" s="92"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="63"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="67"/>
-      <c r="I45" s="63"/>
+      <c r="H45" s="94"/>
+      <c r="I45" s="86"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11783,17 +11783,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="57">
         <v>22</v>
       </c>
-      <c r="B46" s="56" t="s">
+      <c r="B46" s="87" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="57"/>
-      <c r="D46" s="55" t="s">
+      <c r="C46" s="88"/>
+      <c r="D46" s="57" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11802,10 +11802,10 @@
       <c r="G46" s="8">
         <v>42815</v>
       </c>
-      <c r="H46" s="62">
+      <c r="H46" s="85">
         <v>1</v>
       </c>
-      <c r="I46" s="62" t="s">
+      <c r="I46" s="85" t="s">
         <v>87</v>
       </c>
       <c r="J46" s="24"/>
@@ -12050,19 +12050,19 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="55"/>
-      <c r="B47" s="64"/>
-      <c r="C47" s="65"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
+      <c r="A47" s="57"/>
+      <c r="B47" s="89"/>
+      <c r="C47" s="90"/>
+      <c r="D47" s="57"/>
+      <c r="E47" s="63"/>
       <c r="F47" s="8">
         <v>42816</v>
       </c>
       <c r="G47" s="8">
         <v>42830</v>
       </c>
-      <c r="H47" s="63"/>
-      <c r="I47" s="63"/>
+      <c r="H47" s="86"/>
+      <c r="I47" s="86"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12319,15 +12319,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="57">
         <v>23</v>
       </c>
-      <c r="B48" s="64"/>
-      <c r="C48" s="65"/>
-      <c r="D48" s="55" t="s">
+      <c r="B48" s="89"/>
+      <c r="C48" s="90"/>
+      <c r="D48" s="57" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12336,10 +12336,10 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="62">
-        <v>0.05</v>
-      </c>
-      <c r="I48" s="62" t="s">
+      <c r="H48" s="85">
+        <v>0.5</v>
+      </c>
+      <c r="I48" s="85" t="s">
         <v>88</v>
       </c>
       <c r="J48" s="24"/>
@@ -12582,17 +12582,17 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="55"/>
-      <c r="B49" s="64"/>
-      <c r="C49" s="65"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
+      <c r="A49" s="57"/>
+      <c r="B49" s="89"/>
+      <c r="C49" s="90"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="63"/>
       <c r="F49" s="8">
         <v>42831</v>
       </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="63"/>
-      <c r="I49" s="63"/>
+      <c r="H49" s="86"/>
+      <c r="I49" s="86"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12625,7 +12625,9 @@
       <c r="AM49" s="13" t="s">
         <v>8</v>
       </c>
-      <c r="AN49" s="13"/>
+      <c r="AN49" s="13" t="s">
+        <v>8</v>
+      </c>
       <c r="AO49" s="31"/>
       <c r="AP49" s="31"/>
       <c r="AQ49" s="13"/>
@@ -12827,15 +12829,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="57">
         <v>23</v>
       </c>
-      <c r="B50" s="64"/>
-      <c r="C50" s="65"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="89"/>
+      <c r="C50" s="90"/>
+      <c r="D50" s="57" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12844,8 +12846,8 @@
       <c r="G50" s="8">
         <v>42823</v>
       </c>
-      <c r="H50" s="62"/>
-      <c r="I50" s="62"/>
+      <c r="H50" s="85"/>
+      <c r="I50" s="85"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -13084,15 +13086,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="55"/>
-      <c r="B51" s="58"/>
-      <c r="C51" s="59"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
+      <c r="A51" s="57"/>
+      <c r="B51" s="91"/>
+      <c r="C51" s="92"/>
+      <c r="D51" s="57"/>
+      <c r="E51" s="63"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="63"/>
-      <c r="I51" s="63"/>
+      <c r="H51" s="86"/>
+      <c r="I51" s="86"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13325,17 +13327,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="57">
         <v>24</v>
       </c>
-      <c r="B52" s="56" t="s">
+      <c r="B52" s="87" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="57"/>
-      <c r="D52" s="55" t="s">
+      <c r="C52" s="88"/>
+      <c r="D52" s="57" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="62" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13344,8 +13346,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="62"/>
-      <c r="I52" s="62"/>
+      <c r="H52" s="85"/>
+      <c r="I52" s="85"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13604,15 +13606,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="55"/>
-      <c r="B53" s="58"/>
-      <c r="C53" s="59"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="61"/>
+      <c r="A53" s="57"/>
+      <c r="B53" s="91"/>
+      <c r="C53" s="92"/>
+      <c r="D53" s="57"/>
+      <c r="E53" s="63"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="63"/>
-      <c r="I53" s="63"/>
+      <c r="H53" s="86"/>
+      <c r="I53" s="86"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13845,17 +13847,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="55">
+      <c r="A54" s="57">
         <v>25</v>
       </c>
-      <c r="B54" s="56" t="s">
+      <c r="B54" s="87" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="57"/>
-      <c r="D54" s="60" t="s">
+      <c r="C54" s="88"/>
+      <c r="D54" s="62" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="62" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13864,10 +13866,10 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="62">
+      <c r="H54" s="85">
         <v>1</v>
       </c>
-      <c r="I54" s="53" t="s">
+      <c r="I54" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="24"/>
@@ -14110,17 +14112,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="55"/>
-      <c r="B55" s="64"/>
-      <c r="C55" s="65"/>
-      <c r="D55" s="61"/>
-      <c r="E55" s="61"/>
+      <c r="A55" s="57"/>
+      <c r="B55" s="89"/>
+      <c r="C55" s="90"/>
+      <c r="D55" s="63"/>
+      <c r="E55" s="63"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="63"/>
-      <c r="I55" s="54"/>
+      <c r="H55" s="86"/>
+      <c r="I55" s="60"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14361,15 +14363,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="55">
+      <c r="A56" s="57">
         <v>26</v>
       </c>
-      <c r="B56" s="64"/>
-      <c r="C56" s="65"/>
-      <c r="D56" s="55" t="s">
+      <c r="B56" s="89"/>
+      <c r="C56" s="90"/>
+      <c r="D56" s="57" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="55" t="s">
+      <c r="E56" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14378,10 +14380,10 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="53">
+      <c r="H56" s="59">
         <v>1</v>
       </c>
-      <c r="I56" s="53" t="s">
+      <c r="I56" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="24"/>
@@ -14622,17 +14624,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="55"/>
-      <c r="B57" s="64"/>
-      <c r="C57" s="65"/>
-      <c r="D57" s="55"/>
-      <c r="E57" s="55"/>
+      <c r="A57" s="57"/>
+      <c r="B57" s="89"/>
+      <c r="C57" s="90"/>
+      <c r="D57" s="57"/>
+      <c r="E57" s="57"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="53"/>
-      <c r="I57" s="54"/>
+      <c r="H57" s="59"/>
+      <c r="I57" s="60"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14871,15 +14873,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="55">
+      <c r="A58" s="57">
         <v>27</v>
       </c>
-      <c r="B58" s="64"/>
-      <c r="C58" s="65"/>
-      <c r="D58" s="55" t="s">
+      <c r="B58" s="89"/>
+      <c r="C58" s="90"/>
+      <c r="D58" s="57" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="57" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="30">
@@ -14888,10 +14890,10 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="53">
+      <c r="H58" s="59">
         <v>1</v>
       </c>
-      <c r="I58" s="53" t="s">
+      <c r="I58" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="24"/>
@@ -15132,17 +15134,17 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="55"/>
-      <c r="B59" s="64"/>
-      <c r="C59" s="65"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="57"/>
+      <c r="B59" s="89"/>
+      <c r="C59" s="90"/>
+      <c r="D59" s="57"/>
+      <c r="E59" s="57"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="53"/>
-      <c r="I59" s="54"/>
+      <c r="H59" s="59"/>
+      <c r="I59" s="60"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15381,15 +15383,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="55">
+      <c r="A60" s="57">
         <v>28</v>
       </c>
-      <c r="B60" s="64"/>
-      <c r="C60" s="65"/>
-      <c r="D60" s="55" t="s">
+      <c r="B60" s="89"/>
+      <c r="C60" s="90"/>
+      <c r="D60" s="57" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15398,10 +15400,10 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="53">
+      <c r="H60" s="59">
         <v>1</v>
       </c>
-      <c r="I60" s="53" t="s">
+      <c r="I60" s="59" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="24"/>
@@ -15642,17 +15644,17 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="55"/>
-      <c r="B61" s="64"/>
-      <c r="C61" s="65"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="57"/>
+      <c r="B61" s="89"/>
+      <c r="C61" s="90"/>
+      <c r="D61" s="57"/>
+      <c r="E61" s="57"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="53"/>
-      <c r="I61" s="54"/>
+      <c r="H61" s="59"/>
+      <c r="I61" s="60"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15891,15 +15893,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="55">
+      <c r="A62" s="57">
         <v>29</v>
       </c>
-      <c r="B62" s="64"/>
-      <c r="C62" s="65"/>
-      <c r="D62" s="55" t="s">
+      <c r="B62" s="89"/>
+      <c r="C62" s="90"/>
+      <c r="D62" s="57" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15908,10 +15910,10 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="53">
+      <c r="H62" s="59">
         <v>1</v>
       </c>
-      <c r="I62" s="53" t="s">
+      <c r="I62" s="59" t="s">
         <v>72</v>
       </c>
       <c r="J62" s="25"/>
@@ -16154,15 +16156,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="55"/>
-      <c r="B63" s="64"/>
-      <c r="C63" s="65"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="57"/>
+      <c r="B63" s="89"/>
+      <c r="C63" s="90"/>
+      <c r="D63" s="57"/>
+      <c r="E63" s="57"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="53"/>
-      <c r="I63" s="54"/>
+      <c r="H63" s="59"/>
+      <c r="I63" s="60"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16403,15 +16405,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="55">
+      <c r="A64" s="57">
         <v>30</v>
       </c>
-      <c r="B64" s="64"/>
-      <c r="C64" s="65"/>
-      <c r="D64" s="60" t="s">
+      <c r="B64" s="89"/>
+      <c r="C64" s="90"/>
+      <c r="D64" s="62" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16420,8 +16422,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="62"/>
-      <c r="I64" s="62"/>
+      <c r="H64" s="85"/>
+      <c r="I64" s="85"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16660,15 +16662,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="55"/>
-      <c r="B65" s="64"/>
-      <c r="C65" s="65"/>
-      <c r="D65" s="61"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="57"/>
+      <c r="B65" s="89"/>
+      <c r="C65" s="90"/>
+      <c r="D65" s="63"/>
+      <c r="E65" s="57"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="63"/>
-      <c r="I65" s="63"/>
+      <c r="H65" s="86"/>
+      <c r="I65" s="86"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16901,15 +16903,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="60">
+      <c r="A66" s="62">
         <v>31</v>
       </c>
-      <c r="B66" s="64"/>
-      <c r="C66" s="65"/>
-      <c r="D66" s="55" t="s">
+      <c r="B66" s="89"/>
+      <c r="C66" s="90"/>
+      <c r="D66" s="57" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16918,8 +16920,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="53"/>
-      <c r="I66" s="53"/>
+      <c r="H66" s="59"/>
+      <c r="I66" s="59"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -17158,15 +17160,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="61"/>
-      <c r="B67" s="64"/>
-      <c r="C67" s="65"/>
-      <c r="D67" s="55"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="63"/>
+      <c r="B67" s="89"/>
+      <c r="C67" s="90"/>
+      <c r="D67" s="57"/>
+      <c r="E67" s="57"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="53"/>
-      <c r="I67" s="54"/>
+      <c r="H67" s="59"/>
+      <c r="I67" s="60"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17399,15 +17401,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="60">
+      <c r="A68" s="62">
         <v>32</v>
       </c>
-      <c r="B68" s="64"/>
-      <c r="C68" s="65"/>
-      <c r="D68" s="55" t="s">
+      <c r="B68" s="89"/>
+      <c r="C68" s="90"/>
+      <c r="D68" s="57" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="57" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17416,8 +17418,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="53"/>
-      <c r="I68" s="53"/>
+      <c r="H68" s="59"/>
+      <c r="I68" s="59"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17660,15 +17662,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="61"/>
-      <c r="B69" s="58"/>
-      <c r="C69" s="59"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="63"/>
+      <c r="B69" s="91"/>
+      <c r="C69" s="92"/>
+      <c r="D69" s="57"/>
+      <c r="E69" s="57"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="53"/>
-      <c r="I69" s="54"/>
+      <c r="H69" s="59"/>
+      <c r="I69" s="60"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17901,76 +17903,233 @@
       <c r="IE69" s="13"/>
     </row>
     <row r="71" spans="1:239">
-      <c r="A71" s="94" t="s">
+      <c r="A71" s="61" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="94"/>
-      <c r="C71" s="94"/>
-      <c r="D71" s="94"/>
-      <c r="E71" s="94"/>
-      <c r="F71" s="94"/>
-      <c r="G71" s="94"/>
-      <c r="H71" s="94"/>
-      <c r="I71" s="94"/>
-      <c r="J71" s="94"/>
-      <c r="K71" s="94"/>
-      <c r="L71" s="94"/>
-      <c r="M71" s="94"/>
-      <c r="N71" s="94"/>
-      <c r="O71" s="94"/>
-      <c r="P71" s="94"/>
-      <c r="Q71" s="94"/>
-      <c r="R71" s="94"/>
-      <c r="S71" s="94"/>
-      <c r="T71" s="94"/>
-      <c r="U71" s="94"/>
-      <c r="V71" s="94"/>
-      <c r="W71" s="94"/>
-      <c r="X71" s="94"/>
-      <c r="Y71" s="94"/>
-      <c r="Z71" s="94"/>
-      <c r="AA71" s="94"/>
-      <c r="AB71" s="94"/>
-      <c r="AC71" s="94"/>
-      <c r="AD71" s="94"/>
-      <c r="AE71" s="94"/>
+      <c r="B71" s="61"/>
+      <c r="C71" s="61"/>
+      <c r="D71" s="61"/>
+      <c r="E71" s="61"/>
+      <c r="F71" s="61"/>
+      <c r="G71" s="61"/>
+      <c r="H71" s="61"/>
+      <c r="I71" s="61"/>
+      <c r="J71" s="61"/>
+      <c r="K71" s="61"/>
+      <c r="L71" s="61"/>
+      <c r="M71" s="61"/>
+      <c r="N71" s="61"/>
+      <c r="O71" s="61"/>
+      <c r="P71" s="61"/>
+      <c r="Q71" s="61"/>
+      <c r="R71" s="61"/>
+      <c r="S71" s="61"/>
+      <c r="T71" s="61"/>
+      <c r="U71" s="61"/>
+      <c r="V71" s="61"/>
+      <c r="W71" s="61"/>
+      <c r="X71" s="61"/>
+      <c r="Y71" s="61"/>
+      <c r="Z71" s="61"/>
+      <c r="AA71" s="61"/>
+      <c r="AB71" s="61"/>
+      <c r="AC71" s="61"/>
+      <c r="AD71" s="61"/>
+      <c r="AE71" s="61"/>
     </row>
     <row r="72" spans="1:239">
-      <c r="A72" s="94"/>
-      <c r="B72" s="94"/>
-      <c r="C72" s="94"/>
-      <c r="D72" s="94"/>
-      <c r="E72" s="94"/>
-      <c r="F72" s="94"/>
-      <c r="G72" s="94"/>
-      <c r="H72" s="94"/>
-      <c r="I72" s="94"/>
-      <c r="J72" s="94"/>
-      <c r="K72" s="94"/>
-      <c r="L72" s="94"/>
-      <c r="M72" s="94"/>
-      <c r="N72" s="94"/>
-      <c r="O72" s="94"/>
-      <c r="P72" s="94"/>
-      <c r="Q72" s="94"/>
-      <c r="R72" s="94"/>
-      <c r="S72" s="94"/>
-      <c r="T72" s="94"/>
-      <c r="U72" s="94"/>
-      <c r="V72" s="94"/>
-      <c r="W72" s="94"/>
-      <c r="X72" s="94"/>
-      <c r="Y72" s="94"/>
-      <c r="Z72" s="94"/>
-      <c r="AA72" s="94"/>
-      <c r="AB72" s="94"/>
-      <c r="AC72" s="94"/>
-      <c r="AD72" s="94"/>
-      <c r="AE72" s="94"/>
+      <c r="A72" s="61"/>
+      <c r="B72" s="61"/>
+      <c r="C72" s="61"/>
+      <c r="D72" s="61"/>
+      <c r="E72" s="61"/>
+      <c r="F72" s="61"/>
+      <c r="G72" s="61"/>
+      <c r="H72" s="61"/>
+      <c r="I72" s="61"/>
+      <c r="J72" s="61"/>
+      <c r="K72" s="61"/>
+      <c r="L72" s="61"/>
+      <c r="M72" s="61"/>
+      <c r="N72" s="61"/>
+      <c r="O72" s="61"/>
+      <c r="P72" s="61"/>
+      <c r="Q72" s="61"/>
+      <c r="R72" s="61"/>
+      <c r="S72" s="61"/>
+      <c r="T72" s="61"/>
+      <c r="U72" s="61"/>
+      <c r="V72" s="61"/>
+      <c r="W72" s="61"/>
+      <c r="X72" s="61"/>
+      <c r="Y72" s="61"/>
+      <c r="Z72" s="61"/>
+      <c r="AA72" s="61"/>
+      <c r="AB72" s="61"/>
+      <c r="AC72" s="61"/>
+      <c r="AD72" s="61"/>
+      <c r="AE72" s="61"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I60:I61"/>
+    <mergeCell ref="A62:A63"/>
+    <mergeCell ref="D62:D63"/>
+    <mergeCell ref="B52:C53"/>
+    <mergeCell ref="D52:D53"/>
+    <mergeCell ref="A54:A55"/>
+    <mergeCell ref="D54:D55"/>
+    <mergeCell ref="E54:E55"/>
+    <mergeCell ref="H54:H55"/>
+    <mergeCell ref="I54:I55"/>
+    <mergeCell ref="B54:C69"/>
+    <mergeCell ref="E62:E63"/>
+    <mergeCell ref="H62:H63"/>
+    <mergeCell ref="I62:I63"/>
+    <mergeCell ref="A60:A61"/>
+    <mergeCell ref="D60:D61"/>
+    <mergeCell ref="E60:E61"/>
+    <mergeCell ref="H60:H61"/>
+    <mergeCell ref="I56:I57"/>
+    <mergeCell ref="I68:I69"/>
+    <mergeCell ref="A68:A69"/>
+    <mergeCell ref="D68:D69"/>
+    <mergeCell ref="E68:E69"/>
+    <mergeCell ref="H68:H69"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
     <mergeCell ref="I6:I7"/>
     <mergeCell ref="AH6:IE6"/>
     <mergeCell ref="E14:E15"/>
@@ -17995,163 +18154,6 @@
     <mergeCell ref="A16:A17"/>
     <mergeCell ref="D16:D17"/>
     <mergeCell ref="E22:E23"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="I60:I61"/>
-    <mergeCell ref="A62:A63"/>
-    <mergeCell ref="D62:D63"/>
-    <mergeCell ref="B52:C53"/>
-    <mergeCell ref="D52:D53"/>
-    <mergeCell ref="A54:A55"/>
-    <mergeCell ref="D54:D55"/>
-    <mergeCell ref="E54:E55"/>
-    <mergeCell ref="H54:H55"/>
-    <mergeCell ref="I54:I55"/>
-    <mergeCell ref="B54:C69"/>
-    <mergeCell ref="E62:E63"/>
-    <mergeCell ref="H62:H63"/>
-    <mergeCell ref="I62:I63"/>
-    <mergeCell ref="A60:A61"/>
-    <mergeCell ref="D60:D61"/>
-    <mergeCell ref="E60:E61"/>
-    <mergeCell ref="H60:H61"/>
-    <mergeCell ref="I56:I57"/>
-    <mergeCell ref="I68:I69"/>
-    <mergeCell ref="A68:A69"/>
-    <mergeCell ref="D68:D69"/>
-    <mergeCell ref="E68:E69"/>
-    <mergeCell ref="H68:H69"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -860,38 +860,50 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -956,35 +968,23 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1360,8 +1360,8 @@
   </sheetPr>
   <dimension ref="A1:IE72"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:AN2"/>
+    <sheetView tabSelected="1" topLeftCell="A40" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G58" sqref="G58"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1385,226 +1385,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="64" t="s">
+      <c r="A1" s="68" t="s">
         <v>19</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
-      <c r="D1" s="65"/>
-      <c r="E1" s="65"/>
-      <c r="F1" s="65"/>
-      <c r="G1" s="65"/>
-      <c r="H1" s="65"/>
-      <c r="I1" s="65"/>
-      <c r="J1" s="65"/>
-      <c r="K1" s="65"/>
-      <c r="L1" s="65"/>
-      <c r="M1" s="65"/>
-      <c r="N1" s="65"/>
-      <c r="O1" s="65"/>
-      <c r="P1" s="65"/>
-      <c r="Q1" s="65"/>
-      <c r="R1" s="65"/>
-      <c r="S1" s="65"/>
-      <c r="T1" s="65"/>
-      <c r="U1" s="65"/>
-      <c r="V1" s="65"/>
-      <c r="W1" s="65"/>
-      <c r="X1" s="65"/>
-      <c r="Y1" s="65"/>
-      <c r="Z1" s="65"/>
-      <c r="AA1" s="65"/>
-      <c r="AB1" s="65"/>
-      <c r="AC1" s="65"/>
-      <c r="AD1" s="65"/>
-      <c r="AE1" s="65"/>
-      <c r="AF1" s="65"/>
-      <c r="AG1" s="65"/>
-      <c r="AH1" s="65"/>
-      <c r="AI1" s="65"/>
-      <c r="AJ1" s="65"/>
-      <c r="AK1" s="65"/>
-      <c r="AL1" s="65"/>
-      <c r="AM1" s="65"/>
-      <c r="AN1" s="65"/>
+      <c r="B1" s="69"/>
+      <c r="C1" s="69"/>
+      <c r="D1" s="69"/>
+      <c r="E1" s="69"/>
+      <c r="F1" s="69"/>
+      <c r="G1" s="69"/>
+      <c r="H1" s="69"/>
+      <c r="I1" s="69"/>
+      <c r="J1" s="69"/>
+      <c r="K1" s="69"/>
+      <c r="L1" s="69"/>
+      <c r="M1" s="69"/>
+      <c r="N1" s="69"/>
+      <c r="O1" s="69"/>
+      <c r="P1" s="69"/>
+      <c r="Q1" s="69"/>
+      <c r="R1" s="69"/>
+      <c r="S1" s="69"/>
+      <c r="T1" s="69"/>
+      <c r="U1" s="69"/>
+      <c r="V1" s="69"/>
+      <c r="W1" s="69"/>
+      <c r="X1" s="69"/>
+      <c r="Y1" s="69"/>
+      <c r="Z1" s="69"/>
+      <c r="AA1" s="69"/>
+      <c r="AB1" s="69"/>
+      <c r="AC1" s="69"/>
+      <c r="AD1" s="69"/>
+      <c r="AE1" s="69"/>
+      <c r="AF1" s="69"/>
+      <c r="AG1" s="69"/>
+      <c r="AH1" s="69"/>
+      <c r="AI1" s="69"/>
+      <c r="AJ1" s="69"/>
+      <c r="AK1" s="69"/>
+      <c r="AL1" s="69"/>
+      <c r="AM1" s="69"/>
+      <c r="AN1" s="69"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="64"/>
-      <c r="B2" s="65"/>
-      <c r="C2" s="65"/>
-      <c r="D2" s="65"/>
-      <c r="E2" s="65"/>
-      <c r="F2" s="65"/>
-      <c r="G2" s="65"/>
-      <c r="H2" s="65"/>
-      <c r="I2" s="65"/>
-      <c r="J2" s="65"/>
-      <c r="K2" s="65"/>
-      <c r="L2" s="65"/>
-      <c r="M2" s="65"/>
-      <c r="N2" s="65"/>
-      <c r="O2" s="65"/>
-      <c r="P2" s="65"/>
-      <c r="Q2" s="65"/>
-      <c r="R2" s="65"/>
-      <c r="S2" s="65"/>
-      <c r="T2" s="65"/>
-      <c r="U2" s="65"/>
-      <c r="V2" s="65"/>
-      <c r="W2" s="65"/>
-      <c r="X2" s="65"/>
-      <c r="Y2" s="65"/>
-      <c r="Z2" s="65"/>
-      <c r="AA2" s="65"/>
-      <c r="AB2" s="65"/>
-      <c r="AC2" s="65"/>
-      <c r="AD2" s="65"/>
-      <c r="AE2" s="65"/>
-      <c r="AF2" s="65"/>
-      <c r="AG2" s="65"/>
-      <c r="AH2" s="65"/>
-      <c r="AI2" s="65"/>
-      <c r="AJ2" s="65"/>
-      <c r="AK2" s="65"/>
-      <c r="AL2" s="65"/>
-      <c r="AM2" s="65"/>
-      <c r="AN2" s="65"/>
+      <c r="A2" s="68"/>
+      <c r="B2" s="69"/>
+      <c r="C2" s="69"/>
+      <c r="D2" s="69"/>
+      <c r="E2" s="69"/>
+      <c r="F2" s="69"/>
+      <c r="G2" s="69"/>
+      <c r="H2" s="69"/>
+      <c r="I2" s="69"/>
+      <c r="J2" s="69"/>
+      <c r="K2" s="69"/>
+      <c r="L2" s="69"/>
+      <c r="M2" s="69"/>
+      <c r="N2" s="69"/>
+      <c r="O2" s="69"/>
+      <c r="P2" s="69"/>
+      <c r="Q2" s="69"/>
+      <c r="R2" s="69"/>
+      <c r="S2" s="69"/>
+      <c r="T2" s="69"/>
+      <c r="U2" s="69"/>
+      <c r="V2" s="69"/>
+      <c r="W2" s="69"/>
+      <c r="X2" s="69"/>
+      <c r="Y2" s="69"/>
+      <c r="Z2" s="69"/>
+      <c r="AA2" s="69"/>
+      <c r="AB2" s="69"/>
+      <c r="AC2" s="69"/>
+      <c r="AD2" s="69"/>
+      <c r="AE2" s="69"/>
+      <c r="AF2" s="69"/>
+      <c r="AG2" s="69"/>
+      <c r="AH2" s="69"/>
+      <c r="AI2" s="69"/>
+      <c r="AJ2" s="69"/>
+      <c r="AK2" s="69"/>
+      <c r="AL2" s="69"/>
+      <c r="AM2" s="69"/>
+      <c r="AN2" s="69"/>
       <c r="HS2" s="2" t="s">
         <v>16</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="66" t="s">
+      <c r="A3" s="70" t="s">
         <v>9</v>
       </c>
-      <c r="B3" s="66"/>
-      <c r="C3" s="66"/>
-      <c r="D3" s="66"/>
-      <c r="E3" s="66"/>
-      <c r="F3" s="66"/>
-      <c r="G3" s="70" t="s">
+      <c r="B3" s="70"/>
+      <c r="C3" s="70"/>
+      <c r="D3" s="70"/>
+      <c r="E3" s="70"/>
+      <c r="F3" s="70"/>
+      <c r="G3" s="74" t="s">
         <v>10</v>
       </c>
-      <c r="H3" s="71"/>
-      <c r="I3" s="72" t="s">
+      <c r="H3" s="75"/>
+      <c r="I3" s="76" t="s">
         <v>11</v>
       </c>
-      <c r="J3" s="73"/>
-      <c r="K3" s="73"/>
-      <c r="L3" s="73"/>
-      <c r="M3" s="73"/>
-      <c r="N3" s="73"/>
-      <c r="O3" s="73"/>
-      <c r="P3" s="73"/>
-      <c r="Q3" s="66" t="s">
+      <c r="J3" s="77"/>
+      <c r="K3" s="77"/>
+      <c r="L3" s="77"/>
+      <c r="M3" s="77"/>
+      <c r="N3" s="77"/>
+      <c r="O3" s="77"/>
+      <c r="P3" s="77"/>
+      <c r="Q3" s="70" t="s">
         <v>17</v>
       </c>
-      <c r="R3" s="66"/>
-      <c r="S3" s="66"/>
-      <c r="T3" s="66"/>
-      <c r="U3" s="66"/>
-      <c r="V3" s="66"/>
-      <c r="W3" s="66"/>
-      <c r="X3" s="66"/>
-      <c r="Y3" s="66"/>
-      <c r="Z3" s="66"/>
-      <c r="AA3" s="66"/>
-      <c r="AB3" s="66"/>
-      <c r="AC3" s="66"/>
-      <c r="AD3" s="66"/>
-      <c r="AE3" s="66"/>
-      <c r="AF3" s="66"/>
-      <c r="AG3" s="66"/>
-      <c r="AH3" s="66"/>
-      <c r="AI3" s="66"/>
-      <c r="AJ3" s="66"/>
-      <c r="AK3" s="66"/>
-      <c r="AL3" s="66"/>
-      <c r="AM3" s="66"/>
-      <c r="AN3" s="66"/>
+      <c r="R3" s="70"/>
+      <c r="S3" s="70"/>
+      <c r="T3" s="70"/>
+      <c r="U3" s="70"/>
+      <c r="V3" s="70"/>
+      <c r="W3" s="70"/>
+      <c r="X3" s="70"/>
+      <c r="Y3" s="70"/>
+      <c r="Z3" s="70"/>
+      <c r="AA3" s="70"/>
+      <c r="AB3" s="70"/>
+      <c r="AC3" s="70"/>
+      <c r="AD3" s="70"/>
+      <c r="AE3" s="70"/>
+      <c r="AF3" s="70"/>
+      <c r="AG3" s="70"/>
+      <c r="AH3" s="70"/>
+      <c r="AI3" s="70"/>
+      <c r="AJ3" s="70"/>
+      <c r="AK3" s="70"/>
+      <c r="AL3" s="70"/>
+      <c r="AM3" s="70"/>
+      <c r="AN3" s="70"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="74" t="s">
+      <c r="A4" s="78" t="s">
         <v>48</v>
       </c>
-      <c r="B4" s="74"/>
-      <c r="C4" s="74"/>
-      <c r="D4" s="74"/>
-      <c r="E4" s="74"/>
-      <c r="F4" s="74"/>
-      <c r="G4" s="75" t="s">
+      <c r="B4" s="78"/>
+      <c r="C4" s="78"/>
+      <c r="D4" s="78"/>
+      <c r="E4" s="78"/>
+      <c r="F4" s="78"/>
+      <c r="G4" s="79" t="s">
         <v>20</v>
       </c>
-      <c r="H4" s="76"/>
-      <c r="I4" s="77" t="s">
+      <c r="H4" s="80"/>
+      <c r="I4" s="81" t="s">
         <v>21</v>
       </c>
-      <c r="J4" s="78"/>
-      <c r="K4" s="78"/>
-      <c r="L4" s="78"/>
-      <c r="M4" s="78"/>
-      <c r="N4" s="78"/>
-      <c r="O4" s="78"/>
-      <c r="P4" s="79"/>
-      <c r="Q4" s="67" t="s">
+      <c r="J4" s="82"/>
+      <c r="K4" s="82"/>
+      <c r="L4" s="82"/>
+      <c r="M4" s="82"/>
+      <c r="N4" s="82"/>
+      <c r="O4" s="82"/>
+      <c r="P4" s="83"/>
+      <c r="Q4" s="71" t="s">
         <v>22</v>
       </c>
-      <c r="R4" s="68"/>
-      <c r="S4" s="68"/>
-      <c r="T4" s="68"/>
-      <c r="U4" s="68"/>
-      <c r="V4" s="68"/>
-      <c r="W4" s="68"/>
-      <c r="X4" s="68"/>
-      <c r="Y4" s="68"/>
-      <c r="Z4" s="68"/>
-      <c r="AA4" s="68"/>
-      <c r="AB4" s="68"/>
-      <c r="AC4" s="68"/>
-      <c r="AD4" s="68"/>
-      <c r="AE4" s="68"/>
-      <c r="AF4" s="68"/>
-      <c r="AG4" s="68"/>
-      <c r="AH4" s="68"/>
-      <c r="AI4" s="68"/>
-      <c r="AJ4" s="68"/>
-      <c r="AK4" s="68"/>
-      <c r="AL4" s="68"/>
-      <c r="AM4" s="68"/>
-      <c r="AN4" s="69"/>
+      <c r="R4" s="72"/>
+      <c r="S4" s="72"/>
+      <c r="T4" s="72"/>
+      <c r="U4" s="72"/>
+      <c r="V4" s="72"/>
+      <c r="W4" s="72"/>
+      <c r="X4" s="72"/>
+      <c r="Y4" s="72"/>
+      <c r="Z4" s="72"/>
+      <c r="AA4" s="72"/>
+      <c r="AB4" s="72"/>
+      <c r="AC4" s="72"/>
+      <c r="AD4" s="72"/>
+      <c r="AE4" s="72"/>
+      <c r="AF4" s="72"/>
+      <c r="AG4" s="72"/>
+      <c r="AH4" s="72"/>
+      <c r="AI4" s="72"/>
+      <c r="AJ4" s="72"/>
+      <c r="AK4" s="72"/>
+      <c r="AL4" s="72"/>
+      <c r="AM4" s="72"/>
+      <c r="AN4" s="73"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="83"/>
-      <c r="B5" s="83"/>
-      <c r="C5" s="83"/>
-      <c r="D5" s="83"/>
-      <c r="E5" s="83"/>
-      <c r="F5" s="83"/>
-      <c r="G5" s="83"/>
-      <c r="H5" s="83"/>
-      <c r="I5" s="83"/>
-      <c r="J5" s="84"/>
-      <c r="K5" s="84"/>
-      <c r="L5" s="84"/>
-      <c r="M5" s="84"/>
-      <c r="N5" s="84"/>
-      <c r="O5" s="84"/>
-      <c r="P5" s="84"/>
-      <c r="Q5" s="84"/>
-      <c r="R5" s="84"/>
-      <c r="S5" s="84"/>
-      <c r="T5" s="84"/>
-      <c r="U5" s="84"/>
-      <c r="V5" s="84"/>
-      <c r="W5" s="84"/>
-      <c r="X5" s="84"/>
-      <c r="Y5" s="84"/>
-      <c r="Z5" s="84"/>
-      <c r="AA5" s="84"/>
-      <c r="AB5" s="84"/>
-      <c r="AC5" s="84"/>
-      <c r="AD5" s="84"/>
-      <c r="AE5" s="84"/>
+      <c r="A5" s="87"/>
+      <c r="B5" s="87"/>
+      <c r="C5" s="87"/>
+      <c r="D5" s="87"/>
+      <c r="E5" s="87"/>
+      <c r="F5" s="87"/>
+      <c r="G5" s="87"/>
+      <c r="H5" s="87"/>
+      <c r="I5" s="87"/>
+      <c r="J5" s="88"/>
+      <c r="K5" s="88"/>
+      <c r="L5" s="88"/>
+      <c r="M5" s="88"/>
+      <c r="N5" s="88"/>
+      <c r="O5" s="88"/>
+      <c r="P5" s="88"/>
+      <c r="Q5" s="88"/>
+      <c r="R5" s="88"/>
+      <c r="S5" s="88"/>
+      <c r="T5" s="88"/>
+      <c r="U5" s="88"/>
+      <c r="V5" s="88"/>
+      <c r="W5" s="88"/>
+      <c r="X5" s="88"/>
+      <c r="Y5" s="88"/>
+      <c r="Z5" s="88"/>
+      <c r="AA5" s="88"/>
+      <c r="AB5" s="88"/>
+      <c r="AC5" s="88"/>
+      <c r="AD5" s="88"/>
+      <c r="AE5" s="88"/>
       <c r="AF5" s="9"/>
       <c r="AG5" s="9"/>
       <c r="AH5" s="9"/>
@@ -1616,17 +1616,17 @@
       <c r="AN5" s="9"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="53" t="s">
+      <c r="A6" s="89" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="53" t="s">
+      <c r="B6" s="89" t="s">
         <v>12</v>
       </c>
-      <c r="C6" s="53"/>
-      <c r="D6" s="53" t="s">
+      <c r="C6" s="89"/>
+      <c r="D6" s="89" t="s">
         <v>14</v>
       </c>
-      <c r="E6" s="53" t="s">
+      <c r="E6" s="89" t="s">
         <v>13</v>
       </c>
       <c r="F6" s="11" t="s">
@@ -1635,261 +1635,261 @@
       <c r="G6" s="11" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="53" t="s">
+      <c r="H6" s="89" t="s">
         <v>4</v>
       </c>
-      <c r="I6" s="53" t="s">
+      <c r="I6" s="89" t="s">
         <v>5</v>
       </c>
-      <c r="J6" s="80" t="s">
+      <c r="J6" s="84" t="s">
         <v>23</v>
       </c>
-      <c r="K6" s="81"/>
-      <c r="L6" s="81"/>
-      <c r="M6" s="81"/>
-      <c r="N6" s="81"/>
-      <c r="O6" s="81"/>
-      <c r="P6" s="81"/>
-      <c r="Q6" s="81"/>
-      <c r="R6" s="81"/>
-      <c r="S6" s="81"/>
-      <c r="T6" s="81"/>
-      <c r="U6" s="81"/>
-      <c r="V6" s="81"/>
-      <c r="W6" s="81"/>
-      <c r="X6" s="81"/>
-      <c r="Y6" s="81"/>
-      <c r="Z6" s="81"/>
-      <c r="AA6" s="81"/>
-      <c r="AB6" s="81"/>
-      <c r="AC6" s="81"/>
-      <c r="AD6" s="81"/>
-      <c r="AE6" s="81"/>
-      <c r="AF6" s="81"/>
-      <c r="AG6" s="82"/>
-      <c r="AH6" s="54" t="s">
+      <c r="K6" s="85"/>
+      <c r="L6" s="85"/>
+      <c r="M6" s="85"/>
+      <c r="N6" s="85"/>
+      <c r="O6" s="85"/>
+      <c r="P6" s="85"/>
+      <c r="Q6" s="85"/>
+      <c r="R6" s="85"/>
+      <c r="S6" s="85"/>
+      <c r="T6" s="85"/>
+      <c r="U6" s="85"/>
+      <c r="V6" s="85"/>
+      <c r="W6" s="85"/>
+      <c r="X6" s="85"/>
+      <c r="Y6" s="85"/>
+      <c r="Z6" s="85"/>
+      <c r="AA6" s="85"/>
+      <c r="AB6" s="85"/>
+      <c r="AC6" s="85"/>
+      <c r="AD6" s="85"/>
+      <c r="AE6" s="85"/>
+      <c r="AF6" s="85"/>
+      <c r="AG6" s="86"/>
+      <c r="AH6" s="90" t="s">
         <v>27</v>
       </c>
-      <c r="AI6" s="55"/>
-      <c r="AJ6" s="55"/>
-      <c r="AK6" s="55"/>
-      <c r="AL6" s="55"/>
-      <c r="AM6" s="55"/>
-      <c r="AN6" s="55"/>
-      <c r="AO6" s="55"/>
-      <c r="AP6" s="55"/>
-      <c r="AQ6" s="55"/>
-      <c r="AR6" s="55"/>
-      <c r="AS6" s="55"/>
-      <c r="AT6" s="55"/>
-      <c r="AU6" s="55"/>
-      <c r="AV6" s="55"/>
-      <c r="AW6" s="55"/>
-      <c r="AX6" s="55"/>
-      <c r="AY6" s="55"/>
-      <c r="AZ6" s="55"/>
-      <c r="BA6" s="55"/>
-      <c r="BB6" s="55"/>
-      <c r="BC6" s="55"/>
-      <c r="BD6" s="55"/>
-      <c r="BE6" s="55"/>
-      <c r="BF6" s="55"/>
-      <c r="BG6" s="55"/>
-      <c r="BH6" s="55"/>
-      <c r="BI6" s="55"/>
-      <c r="BJ6" s="55"/>
-      <c r="BK6" s="55"/>
-      <c r="BL6" s="55"/>
-      <c r="BM6" s="55"/>
-      <c r="BN6" s="55"/>
-      <c r="BO6" s="55"/>
-      <c r="BP6" s="55"/>
-      <c r="BQ6" s="55"/>
-      <c r="BR6" s="55"/>
-      <c r="BS6" s="55"/>
-      <c r="BT6" s="55"/>
-      <c r="BU6" s="55"/>
-      <c r="BV6" s="55"/>
-      <c r="BW6" s="55"/>
-      <c r="BX6" s="55"/>
-      <c r="BY6" s="55"/>
-      <c r="BZ6" s="55"/>
-      <c r="CA6" s="55"/>
-      <c r="CB6" s="55"/>
-      <c r="CC6" s="55"/>
-      <c r="CD6" s="55"/>
-      <c r="CE6" s="55"/>
-      <c r="CF6" s="55"/>
-      <c r="CG6" s="55"/>
-      <c r="CH6" s="55"/>
-      <c r="CI6" s="55"/>
-      <c r="CJ6" s="55"/>
-      <c r="CK6" s="55"/>
-      <c r="CL6" s="55"/>
-      <c r="CM6" s="55"/>
-      <c r="CN6" s="55"/>
-      <c r="CO6" s="55"/>
-      <c r="CP6" s="55"/>
-      <c r="CQ6" s="55"/>
-      <c r="CR6" s="55"/>
-      <c r="CS6" s="55"/>
-      <c r="CT6" s="55"/>
-      <c r="CU6" s="55"/>
-      <c r="CV6" s="55"/>
-      <c r="CW6" s="55"/>
-      <c r="CX6" s="55"/>
-      <c r="CY6" s="55"/>
-      <c r="CZ6" s="55"/>
-      <c r="DA6" s="55"/>
-      <c r="DB6" s="55"/>
-      <c r="DC6" s="55"/>
-      <c r="DD6" s="55"/>
-      <c r="DE6" s="55"/>
-      <c r="DF6" s="55"/>
-      <c r="DG6" s="55"/>
-      <c r="DH6" s="55"/>
-      <c r="DI6" s="55"/>
-      <c r="DJ6" s="55"/>
-      <c r="DK6" s="55"/>
-      <c r="DL6" s="55"/>
-      <c r="DM6" s="55"/>
-      <c r="DN6" s="55"/>
-      <c r="DO6" s="55"/>
-      <c r="DP6" s="55"/>
-      <c r="DQ6" s="55"/>
-      <c r="DR6" s="55"/>
-      <c r="DS6" s="55"/>
-      <c r="DT6" s="55"/>
-      <c r="DU6" s="55"/>
-      <c r="DV6" s="55"/>
-      <c r="DW6" s="55"/>
-      <c r="DX6" s="55"/>
-      <c r="DY6" s="55"/>
-      <c r="DZ6" s="55"/>
-      <c r="EA6" s="55"/>
-      <c r="EB6" s="55"/>
-      <c r="EC6" s="55"/>
-      <c r="ED6" s="55"/>
-      <c r="EE6" s="55"/>
-      <c r="EF6" s="55"/>
-      <c r="EG6" s="55"/>
-      <c r="EH6" s="55"/>
-      <c r="EI6" s="55"/>
-      <c r="EJ6" s="55"/>
-      <c r="EK6" s="55"/>
-      <c r="EL6" s="55"/>
-      <c r="EM6" s="55"/>
-      <c r="EN6" s="55"/>
-      <c r="EO6" s="55"/>
-      <c r="EP6" s="55"/>
-      <c r="EQ6" s="55"/>
-      <c r="ER6" s="55"/>
-      <c r="ES6" s="55"/>
-      <c r="ET6" s="55"/>
-      <c r="EU6" s="55"/>
-      <c r="EV6" s="55"/>
-      <c r="EW6" s="55"/>
-      <c r="EX6" s="55"/>
-      <c r="EY6" s="55"/>
-      <c r="EZ6" s="55"/>
-      <c r="FA6" s="55"/>
-      <c r="FB6" s="55"/>
-      <c r="FC6" s="55"/>
-      <c r="FD6" s="55"/>
-      <c r="FE6" s="55"/>
-      <c r="FF6" s="55"/>
-      <c r="FG6" s="55"/>
-      <c r="FH6" s="55"/>
-      <c r="FI6" s="55"/>
-      <c r="FJ6" s="55"/>
-      <c r="FK6" s="55"/>
-      <c r="FL6" s="55"/>
-      <c r="FM6" s="55"/>
-      <c r="FN6" s="55"/>
-      <c r="FO6" s="55"/>
-      <c r="FP6" s="55"/>
-      <c r="FQ6" s="55"/>
-      <c r="FR6" s="55"/>
-      <c r="FS6" s="55"/>
-      <c r="FT6" s="55"/>
-      <c r="FU6" s="55"/>
-      <c r="FV6" s="55"/>
-      <c r="FW6" s="55"/>
-      <c r="FX6" s="55"/>
-      <c r="FY6" s="55"/>
-      <c r="FZ6" s="55"/>
-      <c r="GA6" s="55"/>
-      <c r="GB6" s="55"/>
-      <c r="GC6" s="55"/>
-      <c r="GD6" s="55"/>
-      <c r="GE6" s="55"/>
-      <c r="GF6" s="55"/>
-      <c r="GG6" s="55"/>
-      <c r="GH6" s="55"/>
-      <c r="GI6" s="55"/>
-      <c r="GJ6" s="55"/>
-      <c r="GK6" s="55"/>
-      <c r="GL6" s="55"/>
-      <c r="GM6" s="55"/>
-      <c r="GN6" s="55"/>
-      <c r="GO6" s="55"/>
-      <c r="GP6" s="55"/>
-      <c r="GQ6" s="55"/>
-      <c r="GR6" s="55"/>
-      <c r="GS6" s="55"/>
-      <c r="GT6" s="55"/>
-      <c r="GU6" s="55"/>
-      <c r="GV6" s="55"/>
-      <c r="GW6" s="55"/>
-      <c r="GX6" s="55"/>
-      <c r="GY6" s="55"/>
-      <c r="GZ6" s="55"/>
-      <c r="HA6" s="55"/>
-      <c r="HB6" s="55"/>
-      <c r="HC6" s="55"/>
-      <c r="HD6" s="55"/>
-      <c r="HE6" s="55"/>
-      <c r="HF6" s="55"/>
-      <c r="HG6" s="55"/>
-      <c r="HH6" s="55"/>
-      <c r="HI6" s="55"/>
-      <c r="HJ6" s="55"/>
-      <c r="HK6" s="55"/>
-      <c r="HL6" s="55"/>
-      <c r="HM6" s="55"/>
-      <c r="HN6" s="55"/>
-      <c r="HO6" s="55"/>
-      <c r="HP6" s="55"/>
-      <c r="HQ6" s="55"/>
-      <c r="HR6" s="55"/>
-      <c r="HS6" s="55"/>
-      <c r="HT6" s="55"/>
-      <c r="HU6" s="55"/>
-      <c r="HV6" s="55"/>
-      <c r="HW6" s="55"/>
-      <c r="HX6" s="55"/>
-      <c r="HY6" s="55"/>
-      <c r="HZ6" s="55"/>
-      <c r="IA6" s="55"/>
-      <c r="IB6" s="55"/>
-      <c r="IC6" s="55"/>
-      <c r="ID6" s="55"/>
-      <c r="IE6" s="56"/>
+      <c r="AI6" s="91"/>
+      <c r="AJ6" s="91"/>
+      <c r="AK6" s="91"/>
+      <c r="AL6" s="91"/>
+      <c r="AM6" s="91"/>
+      <c r="AN6" s="91"/>
+      <c r="AO6" s="91"/>
+      <c r="AP6" s="91"/>
+      <c r="AQ6" s="91"/>
+      <c r="AR6" s="91"/>
+      <c r="AS6" s="91"/>
+      <c r="AT6" s="91"/>
+      <c r="AU6" s="91"/>
+      <c r="AV6" s="91"/>
+      <c r="AW6" s="91"/>
+      <c r="AX6" s="91"/>
+      <c r="AY6" s="91"/>
+      <c r="AZ6" s="91"/>
+      <c r="BA6" s="91"/>
+      <c r="BB6" s="91"/>
+      <c r="BC6" s="91"/>
+      <c r="BD6" s="91"/>
+      <c r="BE6" s="91"/>
+      <c r="BF6" s="91"/>
+      <c r="BG6" s="91"/>
+      <c r="BH6" s="91"/>
+      <c r="BI6" s="91"/>
+      <c r="BJ6" s="91"/>
+      <c r="BK6" s="91"/>
+      <c r="BL6" s="91"/>
+      <c r="BM6" s="91"/>
+      <c r="BN6" s="91"/>
+      <c r="BO6" s="91"/>
+      <c r="BP6" s="91"/>
+      <c r="BQ6" s="91"/>
+      <c r="BR6" s="91"/>
+      <c r="BS6" s="91"/>
+      <c r="BT6" s="91"/>
+      <c r="BU6" s="91"/>
+      <c r="BV6" s="91"/>
+      <c r="BW6" s="91"/>
+      <c r="BX6" s="91"/>
+      <c r="BY6" s="91"/>
+      <c r="BZ6" s="91"/>
+      <c r="CA6" s="91"/>
+      <c r="CB6" s="91"/>
+      <c r="CC6" s="91"/>
+      <c r="CD6" s="91"/>
+      <c r="CE6" s="91"/>
+      <c r="CF6" s="91"/>
+      <c r="CG6" s="91"/>
+      <c r="CH6" s="91"/>
+      <c r="CI6" s="91"/>
+      <c r="CJ6" s="91"/>
+      <c r="CK6" s="91"/>
+      <c r="CL6" s="91"/>
+      <c r="CM6" s="91"/>
+      <c r="CN6" s="91"/>
+      <c r="CO6" s="91"/>
+      <c r="CP6" s="91"/>
+      <c r="CQ6" s="91"/>
+      <c r="CR6" s="91"/>
+      <c r="CS6" s="91"/>
+      <c r="CT6" s="91"/>
+      <c r="CU6" s="91"/>
+      <c r="CV6" s="91"/>
+      <c r="CW6" s="91"/>
+      <c r="CX6" s="91"/>
+      <c r="CY6" s="91"/>
+      <c r="CZ6" s="91"/>
+      <c r="DA6" s="91"/>
+      <c r="DB6" s="91"/>
+      <c r="DC6" s="91"/>
+      <c r="DD6" s="91"/>
+      <c r="DE6" s="91"/>
+      <c r="DF6" s="91"/>
+      <c r="DG6" s="91"/>
+      <c r="DH6" s="91"/>
+      <c r="DI6" s="91"/>
+      <c r="DJ6" s="91"/>
+      <c r="DK6" s="91"/>
+      <c r="DL6" s="91"/>
+      <c r="DM6" s="91"/>
+      <c r="DN6" s="91"/>
+      <c r="DO6" s="91"/>
+      <c r="DP6" s="91"/>
+      <c r="DQ6" s="91"/>
+      <c r="DR6" s="91"/>
+      <c r="DS6" s="91"/>
+      <c r="DT6" s="91"/>
+      <c r="DU6" s="91"/>
+      <c r="DV6" s="91"/>
+      <c r="DW6" s="91"/>
+      <c r="DX6" s="91"/>
+      <c r="DY6" s="91"/>
+      <c r="DZ6" s="91"/>
+      <c r="EA6" s="91"/>
+      <c r="EB6" s="91"/>
+      <c r="EC6" s="91"/>
+      <c r="ED6" s="91"/>
+      <c r="EE6" s="91"/>
+      <c r="EF6" s="91"/>
+      <c r="EG6" s="91"/>
+      <c r="EH6" s="91"/>
+      <c r="EI6" s="91"/>
+      <c r="EJ6" s="91"/>
+      <c r="EK6" s="91"/>
+      <c r="EL6" s="91"/>
+      <c r="EM6" s="91"/>
+      <c r="EN6" s="91"/>
+      <c r="EO6" s="91"/>
+      <c r="EP6" s="91"/>
+      <c r="EQ6" s="91"/>
+      <c r="ER6" s="91"/>
+      <c r="ES6" s="91"/>
+      <c r="ET6" s="91"/>
+      <c r="EU6" s="91"/>
+      <c r="EV6" s="91"/>
+      <c r="EW6" s="91"/>
+      <c r="EX6" s="91"/>
+      <c r="EY6" s="91"/>
+      <c r="EZ6" s="91"/>
+      <c r="FA6" s="91"/>
+      <c r="FB6" s="91"/>
+      <c r="FC6" s="91"/>
+      <c r="FD6" s="91"/>
+      <c r="FE6" s="91"/>
+      <c r="FF6" s="91"/>
+      <c r="FG6" s="91"/>
+      <c r="FH6" s="91"/>
+      <c r="FI6" s="91"/>
+      <c r="FJ6" s="91"/>
+      <c r="FK6" s="91"/>
+      <c r="FL6" s="91"/>
+      <c r="FM6" s="91"/>
+      <c r="FN6" s="91"/>
+      <c r="FO6" s="91"/>
+      <c r="FP6" s="91"/>
+      <c r="FQ6" s="91"/>
+      <c r="FR6" s="91"/>
+      <c r="FS6" s="91"/>
+      <c r="FT6" s="91"/>
+      <c r="FU6" s="91"/>
+      <c r="FV6" s="91"/>
+      <c r="FW6" s="91"/>
+      <c r="FX6" s="91"/>
+      <c r="FY6" s="91"/>
+      <c r="FZ6" s="91"/>
+      <c r="GA6" s="91"/>
+      <c r="GB6" s="91"/>
+      <c r="GC6" s="91"/>
+      <c r="GD6" s="91"/>
+      <c r="GE6" s="91"/>
+      <c r="GF6" s="91"/>
+      <c r="GG6" s="91"/>
+      <c r="GH6" s="91"/>
+      <c r="GI6" s="91"/>
+      <c r="GJ6" s="91"/>
+      <c r="GK6" s="91"/>
+      <c r="GL6" s="91"/>
+      <c r="GM6" s="91"/>
+      <c r="GN6" s="91"/>
+      <c r="GO6" s="91"/>
+      <c r="GP6" s="91"/>
+      <c r="GQ6" s="91"/>
+      <c r="GR6" s="91"/>
+      <c r="GS6" s="91"/>
+      <c r="GT6" s="91"/>
+      <c r="GU6" s="91"/>
+      <c r="GV6" s="91"/>
+      <c r="GW6" s="91"/>
+      <c r="GX6" s="91"/>
+      <c r="GY6" s="91"/>
+      <c r="GZ6" s="91"/>
+      <c r="HA6" s="91"/>
+      <c r="HB6" s="91"/>
+      <c r="HC6" s="91"/>
+      <c r="HD6" s="91"/>
+      <c r="HE6" s="91"/>
+      <c r="HF6" s="91"/>
+      <c r="HG6" s="91"/>
+      <c r="HH6" s="91"/>
+      <c r="HI6" s="91"/>
+      <c r="HJ6" s="91"/>
+      <c r="HK6" s="91"/>
+      <c r="HL6" s="91"/>
+      <c r="HM6" s="91"/>
+      <c r="HN6" s="91"/>
+      <c r="HO6" s="91"/>
+      <c r="HP6" s="91"/>
+      <c r="HQ6" s="91"/>
+      <c r="HR6" s="91"/>
+      <c r="HS6" s="91"/>
+      <c r="HT6" s="91"/>
+      <c r="HU6" s="91"/>
+      <c r="HV6" s="91"/>
+      <c r="HW6" s="91"/>
+      <c r="HX6" s="91"/>
+      <c r="HY6" s="91"/>
+      <c r="HZ6" s="91"/>
+      <c r="IA6" s="91"/>
+      <c r="IB6" s="91"/>
+      <c r="IC6" s="91"/>
+      <c r="ID6" s="91"/>
+      <c r="IE6" s="92"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="53"/>
-      <c r="B7" s="53"/>
-      <c r="C7" s="53"/>
-      <c r="D7" s="53"/>
-      <c r="E7" s="53"/>
+      <c r="A7" s="89"/>
+      <c r="B7" s="89"/>
+      <c r="C7" s="89"/>
+      <c r="D7" s="89"/>
+      <c r="E7" s="89"/>
       <c r="F7" s="11" t="s">
         <v>6</v>
       </c>
       <c r="G7" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="53"/>
-      <c r="I7" s="53"/>
+      <c r="H7" s="89"/>
+      <c r="I7" s="89"/>
       <c r="J7" s="23">
         <v>8</v>
       </c>
@@ -2057,17 +2057,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="57">
+      <c r="A8" s="55">
         <v>1</v>
       </c>
-      <c r="B8" s="87" t="s">
+      <c r="B8" s="56" t="s">
         <v>38</v>
       </c>
-      <c r="C8" s="88"/>
-      <c r="D8" s="57" t="s">
+      <c r="C8" s="57"/>
+      <c r="D8" s="55" t="s">
         <v>31</v>
       </c>
-      <c r="E8" s="57" t="s">
+      <c r="E8" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F8" s="8">
@@ -2076,10 +2076,10 @@
       <c r="G8" s="8">
         <v>42809</v>
       </c>
-      <c r="H8" s="59">
+      <c r="H8" s="53">
         <v>1</v>
       </c>
-      <c r="I8" s="59" t="s">
+      <c r="I8" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2330,19 +2330,19 @@
       <c r="IE8" s="12"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="57"/>
-      <c r="B9" s="89"/>
-      <c r="C9" s="90"/>
-      <c r="D9" s="57"/>
-      <c r="E9" s="57"/>
+      <c r="A9" s="55"/>
+      <c r="B9" s="64"/>
+      <c r="C9" s="65"/>
+      <c r="D9" s="55"/>
+      <c r="E9" s="55"/>
       <c r="F9" s="8">
         <v>42802</v>
       </c>
       <c r="G9" s="8">
         <v>42809</v>
       </c>
-      <c r="H9" s="59"/>
-      <c r="I9" s="60"/>
+      <c r="H9" s="53"/>
+      <c r="I9" s="54"/>
       <c r="J9" s="13" t="s">
         <v>8</v>
       </c>
@@ -2589,15 +2589,15 @@
       <c r="IE9" s="12"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="57">
+      <c r="A10" s="55">
         <v>2</v>
       </c>
-      <c r="B10" s="89"/>
-      <c r="C10" s="90"/>
-      <c r="D10" s="57" t="s">
+      <c r="B10" s="64"/>
+      <c r="C10" s="65"/>
+      <c r="D10" s="55" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="57" t="s">
+      <c r="E10" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F10" s="8">
@@ -2606,10 +2606,10 @@
       <c r="G10" s="8">
         <v>42807</v>
       </c>
-      <c r="H10" s="59">
+      <c r="H10" s="53">
         <v>1</v>
       </c>
-      <c r="I10" s="59" t="s">
+      <c r="I10" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J10" s="24"/>
@@ -2852,19 +2852,19 @@
       <c r="IE10" s="12"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="57"/>
-      <c r="B11" s="89"/>
-      <c r="C11" s="90"/>
-      <c r="D11" s="57"/>
-      <c r="E11" s="57"/>
+      <c r="A11" s="55"/>
+      <c r="B11" s="64"/>
+      <c r="C11" s="65"/>
+      <c r="D11" s="55"/>
+      <c r="E11" s="55"/>
       <c r="F11" s="8">
         <v>42804</v>
       </c>
       <c r="G11" s="8">
         <v>42807</v>
       </c>
-      <c r="H11" s="59"/>
-      <c r="I11" s="60"/>
+      <c r="H11" s="53"/>
+      <c r="I11" s="54"/>
       <c r="J11" s="25"/>
       <c r="K11" s="25"/>
       <c r="L11" s="13" t="s">
@@ -3103,15 +3103,15 @@
       <c r="IE11" s="12"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="57">
+      <c r="A12" s="55">
         <v>3</v>
       </c>
-      <c r="B12" s="89"/>
-      <c r="C12" s="90"/>
-      <c r="D12" s="57" t="s">
+      <c r="B12" s="64"/>
+      <c r="C12" s="65"/>
+      <c r="D12" s="55" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="57" t="s">
+      <c r="E12" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F12" s="8">
@@ -3120,10 +3120,10 @@
       <c r="G12" s="8">
         <v>42807</v>
       </c>
-      <c r="H12" s="59">
+      <c r="H12" s="53">
         <v>1</v>
       </c>
-      <c r="I12" s="59" t="s">
+      <c r="I12" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J12" s="24"/>
@@ -3366,19 +3366,19 @@
       <c r="IE12" s="12"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="57"/>
-      <c r="B13" s="89"/>
-      <c r="C13" s="90"/>
-      <c r="D13" s="57"/>
-      <c r="E13" s="57"/>
+      <c r="A13" s="55"/>
+      <c r="B13" s="64"/>
+      <c r="C13" s="65"/>
+      <c r="D13" s="55"/>
+      <c r="E13" s="55"/>
       <c r="F13" s="8">
         <v>42804</v>
       </c>
       <c r="G13" s="8">
         <v>42807</v>
       </c>
-      <c r="H13" s="59"/>
-      <c r="I13" s="60"/>
+      <c r="H13" s="53"/>
+      <c r="I13" s="54"/>
       <c r="J13" s="25"/>
       <c r="K13" s="25"/>
       <c r="L13" s="13" t="s">
@@ -3617,15 +3617,15 @@
       <c r="IE13" s="12"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="57">
+      <c r="A14" s="55">
         <v>4</v>
       </c>
-      <c r="B14" s="89"/>
-      <c r="C14" s="90"/>
-      <c r="D14" s="57" t="s">
+      <c r="B14" s="64"/>
+      <c r="C14" s="65"/>
+      <c r="D14" s="55" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="57" t="s">
+      <c r="E14" s="55" t="s">
         <v>26</v>
       </c>
       <c r="F14" s="8">
@@ -3634,10 +3634,10 @@
       <c r="G14" s="8">
         <v>42807</v>
       </c>
-      <c r="H14" s="59">
+      <c r="H14" s="53">
         <v>1</v>
       </c>
-      <c r="I14" s="59" t="s">
+      <c r="I14" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J14" s="24"/>
@@ -3880,19 +3880,19 @@
       <c r="IE14" s="13"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="57"/>
-      <c r="B15" s="89"/>
-      <c r="C15" s="90"/>
-      <c r="D15" s="57"/>
-      <c r="E15" s="58"/>
+      <c r="A15" s="55"/>
+      <c r="B15" s="64"/>
+      <c r="C15" s="65"/>
+      <c r="D15" s="55"/>
+      <c r="E15" s="93"/>
       <c r="F15" s="8">
         <v>42804</v>
       </c>
       <c r="G15" s="8">
         <v>42807</v>
       </c>
-      <c r="H15" s="59"/>
-      <c r="I15" s="60"/>
+      <c r="H15" s="53"/>
+      <c r="I15" s="54"/>
       <c r="J15" s="25"/>
       <c r="K15" s="25"/>
       <c r="L15" s="13" t="s">
@@ -4131,15 +4131,15 @@
       <c r="IE15" s="13"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="57">
+      <c r="A16" s="55">
         <v>5</v>
       </c>
-      <c r="B16" s="89"/>
-      <c r="C16" s="90"/>
-      <c r="D16" s="57" t="s">
+      <c r="B16" s="64"/>
+      <c r="C16" s="65"/>
+      <c r="D16" s="55" t="s">
         <v>24</v>
       </c>
-      <c r="E16" s="57" t="s">
+      <c r="E16" s="55" t="s">
         <v>35</v>
       </c>
       <c r="F16" s="8">
@@ -4148,10 +4148,10 @@
       <c r="G16" s="8">
         <v>42809</v>
       </c>
-      <c r="H16" s="59">
+      <c r="H16" s="53">
         <v>1</v>
       </c>
-      <c r="I16" s="59" t="s">
+      <c r="I16" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J16" s="24"/>
@@ -4390,19 +4390,19 @@
       <c r="IE16" s="13"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="57"/>
-      <c r="B17" s="89"/>
-      <c r="C17" s="90"/>
-      <c r="D17" s="57"/>
-      <c r="E17" s="58"/>
+      <c r="A17" s="55"/>
+      <c r="B17" s="64"/>
+      <c r="C17" s="65"/>
+      <c r="D17" s="55"/>
+      <c r="E17" s="93"/>
       <c r="F17" s="8">
         <v>42808</v>
       </c>
       <c r="G17" s="8">
         <v>42809</v>
       </c>
-      <c r="H17" s="59"/>
-      <c r="I17" s="60"/>
+      <c r="H17" s="53"/>
+      <c r="I17" s="54"/>
       <c r="J17" s="25"/>
       <c r="K17" s="25"/>
       <c r="L17" s="25"/>
@@ -4639,15 +4639,15 @@
       <c r="IE17" s="13"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="57">
+      <c r="A18" s="55">
         <v>6</v>
       </c>
-      <c r="B18" s="89"/>
-      <c r="C18" s="90"/>
-      <c r="D18" s="57" t="s">
+      <c r="B18" s="64"/>
+      <c r="C18" s="65"/>
+      <c r="D18" s="55" t="s">
         <v>25</v>
       </c>
-      <c r="E18" s="57" t="s">
+      <c r="E18" s="55" t="s">
         <v>36</v>
       </c>
       <c r="F18" s="8">
@@ -4656,10 +4656,10 @@
       <c r="G18" s="8">
         <v>42809</v>
       </c>
-      <c r="H18" s="59">
+      <c r="H18" s="53">
         <v>1</v>
       </c>
-      <c r="I18" s="59" t="s">
+      <c r="I18" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J18" s="24"/>
@@ -4898,19 +4898,19 @@
       <c r="IE18" s="13"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="57"/>
-      <c r="B19" s="91"/>
-      <c r="C19" s="92"/>
-      <c r="D19" s="57"/>
-      <c r="E19" s="58"/>
+      <c r="A19" s="55"/>
+      <c r="B19" s="58"/>
+      <c r="C19" s="59"/>
+      <c r="D19" s="55"/>
+      <c r="E19" s="93"/>
       <c r="F19" s="8">
         <v>42808</v>
       </c>
       <c r="G19" s="8">
         <v>42809</v>
       </c>
-      <c r="H19" s="59"/>
-      <c r="I19" s="60"/>
+      <c r="H19" s="53"/>
+      <c r="I19" s="54"/>
       <c r="J19" s="25"/>
       <c r="K19" s="25"/>
       <c r="L19" s="25"/>
@@ -5147,17 +5147,17 @@
       <c r="IE19" s="13"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="57">
+      <c r="A20" s="55">
         <v>9</v>
       </c>
-      <c r="B20" s="87" t="s">
+      <c r="B20" s="56" t="s">
         <v>49</v>
       </c>
-      <c r="C20" s="88"/>
-      <c r="D20" s="62" t="s">
+      <c r="C20" s="57"/>
+      <c r="D20" s="60" t="s">
         <v>75</v>
       </c>
-      <c r="E20" s="62" t="s">
+      <c r="E20" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F20" s="30">
@@ -5166,10 +5166,10 @@
       <c r="G20" s="30">
         <v>42813</v>
       </c>
-      <c r="H20" s="59">
+      <c r="H20" s="53">
         <v>1</v>
       </c>
-      <c r="I20" s="59" t="s">
+      <c r="I20" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J20" s="24"/>
@@ -5412,17 +5412,17 @@
       <c r="IE20" s="13"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="57"/>
-      <c r="B21" s="89"/>
-      <c r="C21" s="90"/>
-      <c r="D21" s="63"/>
-      <c r="E21" s="63"/>
+      <c r="A21" s="55"/>
+      <c r="B21" s="64"/>
+      <c r="C21" s="65"/>
+      <c r="D21" s="61"/>
+      <c r="E21" s="61"/>
       <c r="F21" s="30">
         <v>42814</v>
       </c>
       <c r="G21" s="30"/>
-      <c r="H21" s="59"/>
-      <c r="I21" s="60"/>
+      <c r="H21" s="53"/>
+      <c r="I21" s="54"/>
       <c r="J21" s="25"/>
       <c r="K21" s="25"/>
       <c r="L21" s="25"/>
@@ -5669,15 +5669,15 @@
       <c r="IE21" s="13"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="57">
+      <c r="A22" s="55">
         <v>10</v>
       </c>
-      <c r="B22" s="89"/>
-      <c r="C22" s="90"/>
-      <c r="D22" s="62" t="s">
+      <c r="B22" s="64"/>
+      <c r="C22" s="65"/>
+      <c r="D22" s="60" t="s">
         <v>80</v>
       </c>
-      <c r="E22" s="62" t="s">
+      <c r="E22" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F22" s="30">
@@ -5686,10 +5686,10 @@
       <c r="G22" s="30">
         <v>42816</v>
       </c>
-      <c r="H22" s="59">
+      <c r="H22" s="53">
         <v>1</v>
       </c>
-      <c r="I22" s="59" t="s">
+      <c r="I22" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J22" s="24"/>
@@ -5930,17 +5930,17 @@
       <c r="IE22" s="13"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="57"/>
-      <c r="B23" s="89"/>
-      <c r="C23" s="90"/>
-      <c r="D23" s="63"/>
-      <c r="E23" s="63"/>
+      <c r="A23" s="55"/>
+      <c r="B23" s="64"/>
+      <c r="C23" s="65"/>
+      <c r="D23" s="61"/>
+      <c r="E23" s="61"/>
       <c r="F23" s="30">
         <v>42814</v>
       </c>
       <c r="G23" s="30"/>
-      <c r="H23" s="59"/>
-      <c r="I23" s="60"/>
+      <c r="H23" s="53"/>
+      <c r="I23" s="54"/>
       <c r="J23" s="25"/>
       <c r="K23" s="25"/>
       <c r="L23" s="25"/>
@@ -6179,15 +6179,15 @@
       <c r="IE23" s="13"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="57">
+      <c r="A24" s="55">
         <v>11</v>
       </c>
-      <c r="B24" s="89"/>
-      <c r="C24" s="90"/>
-      <c r="D24" s="62" t="s">
+      <c r="B24" s="64"/>
+      <c r="C24" s="65"/>
+      <c r="D24" s="60" t="s">
         <v>81</v>
       </c>
-      <c r="E24" s="62" t="s">
+      <c r="E24" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F24" s="30">
@@ -6196,10 +6196,10 @@
       <c r="G24" s="30">
         <v>42819</v>
       </c>
-      <c r="H24" s="59">
+      <c r="H24" s="53">
         <v>1</v>
       </c>
-      <c r="I24" s="59" t="s">
+      <c r="I24" s="53" t="s">
         <v>77</v>
       </c>
       <c r="J24" s="24"/>
@@ -6438,17 +6438,17 @@
       <c r="IE24" s="13"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="57"/>
-      <c r="B25" s="89"/>
-      <c r="C25" s="90"/>
-      <c r="D25" s="63"/>
-      <c r="E25" s="63"/>
+      <c r="A25" s="55"/>
+      <c r="B25" s="64"/>
+      <c r="C25" s="65"/>
+      <c r="D25" s="61"/>
+      <c r="E25" s="61"/>
       <c r="F25" s="30">
         <v>42814</v>
       </c>
       <c r="G25" s="30"/>
-      <c r="H25" s="59"/>
-      <c r="I25" s="60"/>
+      <c r="H25" s="53"/>
+      <c r="I25" s="54"/>
       <c r="J25" s="25"/>
       <c r="K25" s="25"/>
       <c r="L25" s="25"/>
@@ -6685,15 +6685,15 @@
       <c r="IE25" s="13"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="57">
+      <c r="A26" s="55">
         <v>12</v>
       </c>
-      <c r="B26" s="89"/>
-      <c r="C26" s="90"/>
-      <c r="D26" s="62" t="s">
+      <c r="B26" s="64"/>
+      <c r="C26" s="65"/>
+      <c r="D26" s="60" t="s">
         <v>82</v>
       </c>
-      <c r="E26" s="62" t="s">
+      <c r="E26" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F26" s="30">
@@ -6702,10 +6702,10 @@
       <c r="G26" s="30">
         <v>42822</v>
       </c>
-      <c r="H26" s="59">
+      <c r="H26" s="53">
         <v>0.9</v>
       </c>
-      <c r="I26" s="85"/>
+      <c r="I26" s="62"/>
       <c r="J26" s="24"/>
       <c r="K26" s="24"/>
       <c r="L26" s="24"/>
@@ -6942,17 +6942,17 @@
       <c r="IE26" s="13"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="57"/>
-      <c r="B27" s="89"/>
-      <c r="C27" s="90"/>
-      <c r="D27" s="63"/>
-      <c r="E27" s="63"/>
+      <c r="A27" s="55"/>
+      <c r="B27" s="64"/>
+      <c r="C27" s="65"/>
+      <c r="D27" s="61"/>
+      <c r="E27" s="61"/>
       <c r="F27" s="30">
         <v>42814</v>
       </c>
       <c r="G27" s="30"/>
-      <c r="H27" s="59"/>
-      <c r="I27" s="86"/>
+      <c r="H27" s="53"/>
+      <c r="I27" s="63"/>
       <c r="J27" s="25"/>
       <c r="K27" s="25"/>
       <c r="L27" s="25"/>
@@ -7189,15 +7189,15 @@
       <c r="IE27" s="13"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="57">
+      <c r="A28" s="55">
         <v>13</v>
       </c>
-      <c r="B28" s="89"/>
-      <c r="C28" s="90"/>
-      <c r="D28" s="62" t="s">
+      <c r="B28" s="64"/>
+      <c r="C28" s="65"/>
+      <c r="D28" s="60" t="s">
         <v>83</v>
       </c>
-      <c r="E28" s="62" t="s">
+      <c r="E28" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F28" s="30">
@@ -7206,8 +7206,8 @@
       <c r="G28" s="30">
         <v>42826</v>
       </c>
-      <c r="H28" s="85"/>
-      <c r="I28" s="85"/>
+      <c r="H28" s="62"/>
+      <c r="I28" s="62"/>
       <c r="J28" s="25"/>
       <c r="K28" s="25"/>
       <c r="L28" s="25"/>
@@ -7446,17 +7446,17 @@
       <c r="IE28" s="13"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="57"/>
-      <c r="B29" s="89"/>
-      <c r="C29" s="90"/>
-      <c r="D29" s="63"/>
-      <c r="E29" s="63"/>
+      <c r="A29" s="55"/>
+      <c r="B29" s="64"/>
+      <c r="C29" s="65"/>
+      <c r="D29" s="61"/>
+      <c r="E29" s="61"/>
       <c r="F29" s="30">
         <v>42814</v>
       </c>
       <c r="G29" s="30"/>
-      <c r="H29" s="86"/>
-      <c r="I29" s="86"/>
+      <c r="H29" s="63"/>
+      <c r="I29" s="63"/>
       <c r="J29" s="25"/>
       <c r="K29" s="25"/>
       <c r="L29" s="25"/>
@@ -7689,15 +7689,15 @@
       <c r="IE29" s="13"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="57">
+      <c r="A30" s="55">
         <v>14</v>
       </c>
-      <c r="B30" s="89"/>
-      <c r="C30" s="90"/>
-      <c r="D30" s="62" t="s">
+      <c r="B30" s="64"/>
+      <c r="C30" s="65"/>
+      <c r="D30" s="60" t="s">
         <v>84</v>
       </c>
-      <c r="E30" s="62" t="s">
+      <c r="E30" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F30" s="30">
@@ -7706,8 +7706,8 @@
       <c r="G30" s="30">
         <v>42829</v>
       </c>
-      <c r="H30" s="85"/>
-      <c r="I30" s="85"/>
+      <c r="H30" s="62"/>
+      <c r="I30" s="62"/>
       <c r="J30" s="24"/>
       <c r="K30" s="24"/>
       <c r="L30" s="24"/>
@@ -7944,17 +7944,17 @@
       <c r="IE30" s="13"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="57"/>
-      <c r="B31" s="89"/>
-      <c r="C31" s="90"/>
-      <c r="D31" s="63"/>
-      <c r="E31" s="63"/>
+      <c r="A31" s="55"/>
+      <c r="B31" s="64"/>
+      <c r="C31" s="65"/>
+      <c r="D31" s="61"/>
+      <c r="E31" s="61"/>
       <c r="F31" s="30">
         <v>42814</v>
       </c>
       <c r="G31" s="30"/>
-      <c r="H31" s="86"/>
-      <c r="I31" s="86"/>
+      <c r="H31" s="63"/>
+      <c r="I31" s="63"/>
       <c r="J31" s="25"/>
       <c r="K31" s="25"/>
       <c r="L31" s="25"/>
@@ -8187,15 +8187,15 @@
       <c r="IE31" s="13"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="57">
+      <c r="A32" s="55">
         <v>15</v>
       </c>
-      <c r="B32" s="89"/>
-      <c r="C32" s="90"/>
-      <c r="D32" s="62" t="s">
+      <c r="B32" s="64"/>
+      <c r="C32" s="65"/>
+      <c r="D32" s="60" t="s">
         <v>85</v>
       </c>
-      <c r="E32" s="62" t="s">
+      <c r="E32" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F32" s="30">
@@ -8204,8 +8204,8 @@
       <c r="G32" s="30">
         <v>42832</v>
       </c>
-      <c r="H32" s="85"/>
-      <c r="I32" s="85"/>
+      <c r="H32" s="62"/>
+      <c r="I32" s="62"/>
       <c r="J32" s="24"/>
       <c r="K32" s="24"/>
       <c r="L32" s="24"/>
@@ -8444,17 +8444,17 @@
       <c r="IE32" s="13"/>
     </row>
     <row r="33" spans="1:239">
-      <c r="A33" s="57"/>
-      <c r="B33" s="89"/>
-      <c r="C33" s="90"/>
-      <c r="D33" s="63"/>
-      <c r="E33" s="63"/>
+      <c r="A33" s="55"/>
+      <c r="B33" s="64"/>
+      <c r="C33" s="65"/>
+      <c r="D33" s="61"/>
+      <c r="E33" s="61"/>
       <c r="F33" s="30">
         <v>42814</v>
       </c>
       <c r="G33" s="30"/>
-      <c r="H33" s="86"/>
-      <c r="I33" s="86"/>
+      <c r="H33" s="63"/>
+      <c r="I33" s="63"/>
       <c r="J33" s="25"/>
       <c r="K33" s="25"/>
       <c r="L33" s="25"/>
@@ -8687,15 +8687,15 @@
       <c r="IE33" s="13"/>
     </row>
     <row r="34" spans="1:239" ht="12" customHeight="1">
-      <c r="A34" s="57">
+      <c r="A34" s="55">
         <v>16</v>
       </c>
-      <c r="B34" s="89"/>
-      <c r="C34" s="90"/>
-      <c r="D34" s="62" t="s">
+      <c r="B34" s="64"/>
+      <c r="C34" s="65"/>
+      <c r="D34" s="60" t="s">
         <v>86</v>
       </c>
-      <c r="E34" s="62" t="s">
+      <c r="E34" s="60" t="s">
         <v>76</v>
       </c>
       <c r="F34" s="30">
@@ -8704,8 +8704,8 @@
       <c r="G34" s="30">
         <v>42837</v>
       </c>
-      <c r="H34" s="85"/>
-      <c r="I34" s="85"/>
+      <c r="H34" s="62"/>
+      <c r="I34" s="62"/>
       <c r="J34" s="24"/>
       <c r="K34" s="24"/>
       <c r="L34" s="24"/>
@@ -8948,17 +8948,17 @@
       <c r="IE34" s="13"/>
     </row>
     <row r="35" spans="1:239">
-      <c r="A35" s="57"/>
-      <c r="B35" s="91"/>
-      <c r="C35" s="92"/>
-      <c r="D35" s="63"/>
-      <c r="E35" s="63"/>
+      <c r="A35" s="55"/>
+      <c r="B35" s="58"/>
+      <c r="C35" s="59"/>
+      <c r="D35" s="61"/>
+      <c r="E35" s="61"/>
       <c r="F35" s="30">
         <v>42814</v>
       </c>
       <c r="G35" s="30"/>
-      <c r="H35" s="86"/>
-      <c r="I35" s="86"/>
+      <c r="H35" s="63"/>
+      <c r="I35" s="63"/>
       <c r="J35" s="25"/>
       <c r="K35" s="25"/>
       <c r="L35" s="25"/>
@@ -9191,17 +9191,17 @@
       <c r="IE35" s="13"/>
     </row>
     <row r="36" spans="1:239" ht="12" customHeight="1">
-      <c r="A36" s="57">
+      <c r="A36" s="55">
         <v>17</v>
       </c>
-      <c r="B36" s="87" t="s">
+      <c r="B36" s="56" t="s">
         <v>44</v>
       </c>
-      <c r="C36" s="88"/>
-      <c r="D36" s="62" t="s">
+      <c r="C36" s="57"/>
+      <c r="D36" s="60" t="s">
         <v>66</v>
       </c>
-      <c r="E36" s="62" t="s">
+      <c r="E36" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F36" s="8">
@@ -9210,10 +9210,10 @@
       <c r="G36" s="8">
         <v>42829</v>
       </c>
-      <c r="H36" s="85">
+      <c r="H36" s="62">
         <v>0.95</v>
       </c>
-      <c r="I36" s="85" t="s">
+      <c r="I36" s="62" t="s">
         <v>74</v>
       </c>
       <c r="J36" s="24"/>
@@ -9470,17 +9470,17 @@
       <c r="IE36" s="13"/>
     </row>
     <row r="37" spans="1:239">
-      <c r="A37" s="57"/>
-      <c r="B37" s="89"/>
-      <c r="C37" s="90"/>
-      <c r="D37" s="63"/>
-      <c r="E37" s="63"/>
+      <c r="A37" s="55"/>
+      <c r="B37" s="64"/>
+      <c r="C37" s="65"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
       <c r="F37" s="8">
         <v>42815</v>
       </c>
       <c r="G37" s="8"/>
-      <c r="H37" s="86"/>
-      <c r="I37" s="86"/>
+      <c r="H37" s="63"/>
+      <c r="I37" s="63"/>
       <c r="J37" s="25"/>
       <c r="K37" s="25"/>
       <c r="L37" s="25"/>
@@ -9733,15 +9733,15 @@
       <c r="IE37" s="13"/>
     </row>
     <row r="38" spans="1:239">
-      <c r="A38" s="57">
+      <c r="A38" s="55">
         <v>18</v>
       </c>
-      <c r="B38" s="89"/>
-      <c r="C38" s="90"/>
-      <c r="D38" s="57" t="s">
+      <c r="B38" s="64"/>
+      <c r="C38" s="65"/>
+      <c r="D38" s="55" t="s">
         <v>41</v>
       </c>
-      <c r="E38" s="62" t="s">
+      <c r="E38" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F38" s="8">
@@ -9750,8 +9750,8 @@
       <c r="G38" s="8">
         <v>42837</v>
       </c>
-      <c r="H38" s="85"/>
-      <c r="I38" s="85"/>
+      <c r="H38" s="62"/>
+      <c r="I38" s="62"/>
       <c r="J38" s="24"/>
       <c r="K38" s="24"/>
       <c r="L38" s="24"/>
@@ -9998,15 +9998,15 @@
       <c r="IE38" s="13"/>
     </row>
     <row r="39" spans="1:239">
-      <c r="A39" s="57"/>
-      <c r="B39" s="91"/>
-      <c r="C39" s="92"/>
-      <c r="D39" s="57"/>
-      <c r="E39" s="63"/>
+      <c r="A39" s="55"/>
+      <c r="B39" s="58"/>
+      <c r="C39" s="59"/>
+      <c r="D39" s="55"/>
+      <c r="E39" s="61"/>
       <c r="F39" s="8"/>
       <c r="G39" s="8"/>
-      <c r="H39" s="86"/>
-      <c r="I39" s="86"/>
+      <c r="H39" s="63"/>
+      <c r="I39" s="63"/>
       <c r="J39" s="25"/>
       <c r="K39" s="25"/>
       <c r="L39" s="25"/>
@@ -10239,17 +10239,17 @@
       <c r="IE39" s="13"/>
     </row>
     <row r="40" spans="1:239">
-      <c r="A40" s="57">
+      <c r="A40" s="55">
         <v>19</v>
       </c>
-      <c r="B40" s="87" t="s">
+      <c r="B40" s="56" t="s">
         <v>45</v>
       </c>
-      <c r="C40" s="88"/>
-      <c r="D40" s="62" t="s">
+      <c r="C40" s="57"/>
+      <c r="D40" s="60" t="s">
         <v>70</v>
       </c>
-      <c r="E40" s="62" t="s">
+      <c r="E40" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F40" s="8">
@@ -10258,10 +10258,10 @@
       <c r="G40" s="8">
         <v>42824</v>
       </c>
-      <c r="H40" s="85">
+      <c r="H40" s="62">
         <v>0.75</v>
       </c>
-      <c r="I40" s="85" t="s">
+      <c r="I40" s="62" t="s">
         <v>71</v>
       </c>
       <c r="J40" s="24"/>
@@ -10518,17 +10518,17 @@
       <c r="IE40" s="13"/>
     </row>
     <row r="41" spans="1:239">
-      <c r="A41" s="57"/>
-      <c r="B41" s="89"/>
-      <c r="C41" s="90"/>
-      <c r="D41" s="63"/>
-      <c r="E41" s="63"/>
+      <c r="A41" s="55"/>
+      <c r="B41" s="64"/>
+      <c r="C41" s="65"/>
+      <c r="D41" s="61"/>
+      <c r="E41" s="61"/>
       <c r="F41" s="8">
         <v>42815</v>
       </c>
       <c r="G41" s="8"/>
-      <c r="H41" s="86"/>
-      <c r="I41" s="86"/>
+      <c r="H41" s="63"/>
+      <c r="I41" s="63"/>
       <c r="J41" s="25"/>
       <c r="K41" s="25"/>
       <c r="L41" s="25"/>
@@ -10777,15 +10777,15 @@
       <c r="IE41" s="13"/>
     </row>
     <row r="42" spans="1:239" ht="12" customHeight="1">
-      <c r="A42" s="57">
+      <c r="A42" s="55">
         <v>20</v>
       </c>
-      <c r="B42" s="89"/>
-      <c r="C42" s="90"/>
-      <c r="D42" s="57" t="s">
+      <c r="B42" s="64"/>
+      <c r="C42" s="65"/>
+      <c r="D42" s="55" t="s">
         <v>43</v>
       </c>
-      <c r="E42" s="62" t="s">
+      <c r="E42" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F42" s="8">
@@ -10794,8 +10794,8 @@
       <c r="G42" s="8">
         <v>42835</v>
       </c>
-      <c r="H42" s="93"/>
-      <c r="I42" s="85"/>
+      <c r="H42" s="66"/>
+      <c r="I42" s="62"/>
       <c r="J42" s="24"/>
       <c r="K42" s="24"/>
       <c r="L42" s="24"/>
@@ -11046,15 +11046,15 @@
       <c r="IE42" s="13"/>
     </row>
     <row r="43" spans="1:239">
-      <c r="A43" s="57"/>
-      <c r="B43" s="89"/>
-      <c r="C43" s="90"/>
-      <c r="D43" s="57"/>
-      <c r="E43" s="63"/>
+      <c r="A43" s="55"/>
+      <c r="B43" s="64"/>
+      <c r="C43" s="65"/>
+      <c r="D43" s="55"/>
+      <c r="E43" s="61"/>
       <c r="F43" s="8"/>
       <c r="G43" s="8"/>
-      <c r="H43" s="94"/>
-      <c r="I43" s="86"/>
+      <c r="H43" s="67"/>
+      <c r="I43" s="63"/>
       <c r="J43" s="25"/>
       <c r="K43" s="25"/>
       <c r="L43" s="25"/>
@@ -11287,15 +11287,15 @@
       <c r="IE43" s="13"/>
     </row>
     <row r="44" spans="1:239" ht="12" customHeight="1">
-      <c r="A44" s="57">
+      <c r="A44" s="55">
         <v>21</v>
       </c>
-      <c r="B44" s="89"/>
-      <c r="C44" s="90"/>
-      <c r="D44" s="57" t="s">
+      <c r="B44" s="64"/>
+      <c r="C44" s="65"/>
+      <c r="D44" s="55" t="s">
         <v>42</v>
       </c>
-      <c r="E44" s="62" t="s">
+      <c r="E44" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F44" s="8">
@@ -11304,8 +11304,8 @@
       <c r="G44" s="8">
         <v>42826</v>
       </c>
-      <c r="H44" s="93"/>
-      <c r="I44" s="85"/>
+      <c r="H44" s="66"/>
+      <c r="I44" s="62"/>
       <c r="J44" s="24"/>
       <c r="K44" s="24"/>
       <c r="L44" s="24"/>
@@ -11542,15 +11542,15 @@
       <c r="IE44" s="13"/>
     </row>
     <row r="45" spans="1:239">
-      <c r="A45" s="57"/>
-      <c r="B45" s="91"/>
-      <c r="C45" s="92"/>
-      <c r="D45" s="57"/>
-      <c r="E45" s="63"/>
+      <c r="A45" s="55"/>
+      <c r="B45" s="58"/>
+      <c r="C45" s="59"/>
+      <c r="D45" s="55"/>
+      <c r="E45" s="61"/>
       <c r="F45" s="8"/>
       <c r="G45" s="8"/>
-      <c r="H45" s="94"/>
-      <c r="I45" s="86"/>
+      <c r="H45" s="67"/>
+      <c r="I45" s="63"/>
       <c r="J45" s="25"/>
       <c r="K45" s="25"/>
       <c r="L45" s="25"/>
@@ -11783,17 +11783,17 @@
       <c r="IE45" s="13"/>
     </row>
     <row r="46" spans="1:239" ht="12" customHeight="1">
-      <c r="A46" s="57">
+      <c r="A46" s="55">
         <v>22</v>
       </c>
-      <c r="B46" s="87" t="s">
+      <c r="B46" s="56" t="s">
         <v>46</v>
       </c>
-      <c r="C46" s="88"/>
-      <c r="D46" s="57" t="s">
+      <c r="C46" s="57"/>
+      <c r="D46" s="55" t="s">
         <v>67</v>
       </c>
-      <c r="E46" s="62" t="s">
+      <c r="E46" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F46" s="8">
@@ -11802,10 +11802,10 @@
       <c r="G46" s="8">
         <v>42815</v>
       </c>
-      <c r="H46" s="85">
+      <c r="H46" s="62">
         <v>1</v>
       </c>
-      <c r="I46" s="85" t="s">
+      <c r="I46" s="62" t="s">
         <v>87</v>
       </c>
       <c r="J46" s="24"/>
@@ -12050,19 +12050,19 @@
       <c r="IE46" s="13"/>
     </row>
     <row r="47" spans="1:239">
-      <c r="A47" s="57"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="57"/>
-      <c r="E47" s="63"/>
+      <c r="A47" s="55"/>
+      <c r="B47" s="64"/>
+      <c r="C47" s="65"/>
+      <c r="D47" s="55"/>
+      <c r="E47" s="61"/>
       <c r="F47" s="8">
         <v>42816</v>
       </c>
       <c r="G47" s="8">
         <v>42830</v>
       </c>
-      <c r="H47" s="86"/>
-      <c r="I47" s="86"/>
+      <c r="H47" s="63"/>
+      <c r="I47" s="63"/>
       <c r="J47" s="25"/>
       <c r="K47" s="25"/>
       <c r="L47" s="25"/>
@@ -12319,15 +12319,15 @@
       <c r="IE47" s="13"/>
     </row>
     <row r="48" spans="1:239" ht="12" customHeight="1">
-      <c r="A48" s="57">
+      <c r="A48" s="55">
         <v>23</v>
       </c>
-      <c r="B48" s="89"/>
-      <c r="C48" s="90"/>
-      <c r="D48" s="57" t="s">
+      <c r="B48" s="64"/>
+      <c r="C48" s="65"/>
+      <c r="D48" s="55" t="s">
         <v>61</v>
       </c>
-      <c r="E48" s="62" t="s">
+      <c r="E48" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F48" s="8">
@@ -12336,10 +12336,10 @@
       <c r="G48" s="8">
         <v>42819</v>
       </c>
-      <c r="H48" s="85">
-        <v>0.5</v>
-      </c>
-      <c r="I48" s="85" t="s">
+      <c r="H48" s="62">
+        <v>0.75</v>
+      </c>
+      <c r="I48" s="62" t="s">
         <v>88</v>
       </c>
       <c r="J48" s="24"/>
@@ -12582,17 +12582,17 @@
       <c r="IE48" s="13"/>
     </row>
     <row r="49" spans="1:239">
-      <c r="A49" s="57"/>
-      <c r="B49" s="89"/>
-      <c r="C49" s="90"/>
-      <c r="D49" s="57"/>
-      <c r="E49" s="63"/>
+      <c r="A49" s="55"/>
+      <c r="B49" s="64"/>
+      <c r="C49" s="65"/>
+      <c r="D49" s="55"/>
+      <c r="E49" s="61"/>
       <c r="F49" s="8">
         <v>42831</v>
       </c>
       <c r="G49" s="8"/>
-      <c r="H49" s="86"/>
-      <c r="I49" s="86"/>
+      <c r="H49" s="63"/>
+      <c r="I49" s="63"/>
       <c r="J49" s="25"/>
       <c r="K49" s="25"/>
       <c r="L49" s="25"/>
@@ -12829,15 +12829,15 @@
       <c r="IE49" s="13"/>
     </row>
     <row r="50" spans="1:239" ht="12" customHeight="1">
-      <c r="A50" s="57">
+      <c r="A50" s="55">
         <v>23</v>
       </c>
-      <c r="B50" s="89"/>
-      <c r="C50" s="90"/>
-      <c r="D50" s="57" t="s">
+      <c r="B50" s="64"/>
+      <c r="C50" s="65"/>
+      <c r="D50" s="55" t="s">
         <v>60</v>
       </c>
-      <c r="E50" s="62" t="s">
+      <c r="E50" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F50" s="8">
@@ -12846,8 +12846,8 @@
       <c r="G50" s="8">
         <v>42823</v>
       </c>
-      <c r="H50" s="85"/>
-      <c r="I50" s="85"/>
+      <c r="H50" s="62"/>
+      <c r="I50" s="62"/>
       <c r="J50" s="24"/>
       <c r="K50" s="24"/>
       <c r="L50" s="24"/>
@@ -13086,15 +13086,15 @@
       <c r="IE50" s="13"/>
     </row>
     <row r="51" spans="1:239">
-      <c r="A51" s="57"/>
-      <c r="B51" s="91"/>
-      <c r="C51" s="92"/>
-      <c r="D51" s="57"/>
-      <c r="E51" s="63"/>
+      <c r="A51" s="55"/>
+      <c r="B51" s="58"/>
+      <c r="C51" s="59"/>
+      <c r="D51" s="55"/>
+      <c r="E51" s="61"/>
       <c r="F51" s="8"/>
       <c r="G51" s="8"/>
-      <c r="H51" s="86"/>
-      <c r="I51" s="86"/>
+      <c r="H51" s="63"/>
+      <c r="I51" s="63"/>
       <c r="J51" s="25"/>
       <c r="K51" s="25"/>
       <c r="L51" s="25"/>
@@ -13327,17 +13327,17 @@
       <c r="IE51" s="13"/>
     </row>
     <row r="52" spans="1:239" ht="12" customHeight="1">
-      <c r="A52" s="57">
+      <c r="A52" s="55">
         <v>24</v>
       </c>
-      <c r="B52" s="87" t="s">
+      <c r="B52" s="56" t="s">
         <v>58</v>
       </c>
-      <c r="C52" s="88"/>
-      <c r="D52" s="57" t="s">
+      <c r="C52" s="57"/>
+      <c r="D52" s="55" t="s">
         <v>59</v>
       </c>
-      <c r="E52" s="62" t="s">
+      <c r="E52" s="60" t="s">
         <v>47</v>
       </c>
       <c r="F52" s="8">
@@ -13346,8 +13346,8 @@
       <c r="G52" s="8">
         <v>42837</v>
       </c>
-      <c r="H52" s="85"/>
-      <c r="I52" s="85"/>
+      <c r="H52" s="62"/>
+      <c r="I52" s="62"/>
       <c r="J52" s="24"/>
       <c r="K52" s="24"/>
       <c r="L52" s="24"/>
@@ -13606,15 +13606,15 @@
       <c r="IE52" s="13"/>
     </row>
     <row r="53" spans="1:239">
-      <c r="A53" s="57"/>
-      <c r="B53" s="91"/>
-      <c r="C53" s="92"/>
-      <c r="D53" s="57"/>
-      <c r="E53" s="63"/>
+      <c r="A53" s="55"/>
+      <c r="B53" s="58"/>
+      <c r="C53" s="59"/>
+      <c r="D53" s="55"/>
+      <c r="E53" s="61"/>
       <c r="F53" s="8"/>
       <c r="G53" s="8"/>
-      <c r="H53" s="86"/>
-      <c r="I53" s="86"/>
+      <c r="H53" s="63"/>
+      <c r="I53" s="63"/>
       <c r="J53" s="25"/>
       <c r="K53" s="25"/>
       <c r="L53" s="25"/>
@@ -13847,17 +13847,17 @@
       <c r="IE53" s="13"/>
     </row>
     <row r="54" spans="1:239">
-      <c r="A54" s="57">
+      <c r="A54" s="55">
         <v>25</v>
       </c>
-      <c r="B54" s="87" t="s">
+      <c r="B54" s="56" t="s">
         <v>62</v>
       </c>
-      <c r="C54" s="88"/>
-      <c r="D54" s="62" t="s">
+      <c r="C54" s="57"/>
+      <c r="D54" s="60" t="s">
         <v>50</v>
       </c>
-      <c r="E54" s="62" t="s">
+      <c r="E54" s="60" t="s">
         <v>51</v>
       </c>
       <c r="F54" s="30">
@@ -13866,10 +13866,10 @@
       <c r="G54" s="30">
         <v>42813</v>
       </c>
-      <c r="H54" s="85">
+      <c r="H54" s="62">
         <v>1</v>
       </c>
-      <c r="I54" s="59" t="s">
+      <c r="I54" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J54" s="24"/>
@@ -14112,17 +14112,17 @@
       <c r="IE54" s="13"/>
     </row>
     <row r="55" spans="1:239">
-      <c r="A55" s="57"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="63"/>
-      <c r="E55" s="63"/>
+      <c r="A55" s="55"/>
+      <c r="B55" s="64"/>
+      <c r="C55" s="65"/>
+      <c r="D55" s="61"/>
+      <c r="E55" s="61"/>
       <c r="F55" s="30">
         <v>42810</v>
       </c>
       <c r="G55" s="30"/>
-      <c r="H55" s="86"/>
-      <c r="I55" s="60"/>
+      <c r="H55" s="63"/>
+      <c r="I55" s="54"/>
       <c r="J55" s="25"/>
       <c r="K55" s="25"/>
       <c r="L55" s="25"/>
@@ -14363,15 +14363,15 @@
       <c r="IE55" s="13"/>
     </row>
     <row r="56" spans="1:239">
-      <c r="A56" s="57">
+      <c r="A56" s="55">
         <v>26</v>
       </c>
-      <c r="B56" s="89"/>
-      <c r="C56" s="90"/>
-      <c r="D56" s="57" t="s">
+      <c r="B56" s="64"/>
+      <c r="C56" s="65"/>
+      <c r="D56" s="55" t="s">
         <v>63</v>
       </c>
-      <c r="E56" s="57" t="s">
+      <c r="E56" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F56" s="30">
@@ -14380,10 +14380,10 @@
       <c r="G56" s="30">
         <v>42816</v>
       </c>
-      <c r="H56" s="59">
+      <c r="H56" s="53">
         <v>1</v>
       </c>
-      <c r="I56" s="59" t="s">
+      <c r="I56" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J56" s="24"/>
@@ -14624,17 +14624,17 @@
       <c r="IE56" s="13"/>
     </row>
     <row r="57" spans="1:239">
-      <c r="A57" s="57"/>
-      <c r="B57" s="89"/>
-      <c r="C57" s="90"/>
-      <c r="D57" s="57"/>
-      <c r="E57" s="57"/>
+      <c r="A57" s="55"/>
+      <c r="B57" s="64"/>
+      <c r="C57" s="65"/>
+      <c r="D57" s="55"/>
+      <c r="E57" s="55"/>
       <c r="F57" s="30">
         <v>42814</v>
       </c>
       <c r="G57" s="30"/>
-      <c r="H57" s="59"/>
-      <c r="I57" s="60"/>
+      <c r="H57" s="53"/>
+      <c r="I57" s="54"/>
       <c r="J57" s="25"/>
       <c r="K57" s="25"/>
       <c r="L57" s="25"/>
@@ -14873,15 +14873,15 @@
       <c r="IE57" s="13"/>
     </row>
     <row r="58" spans="1:239">
-      <c r="A58" s="57">
+      <c r="A58" s="55">
         <v>27</v>
       </c>
-      <c r="B58" s="89"/>
-      <c r="C58" s="90"/>
-      <c r="D58" s="57" t="s">
+      <c r="B58" s="64"/>
+      <c r="C58" s="65"/>
+      <c r="D58" s="55" t="s">
         <v>52</v>
       </c>
-      <c r="E58" s="57" t="s">
+      <c r="E58" s="55" t="s">
         <v>64</v>
       </c>
       <c r="F58" s="30">
@@ -14890,10 +14890,10 @@
       <c r="G58" s="30">
         <v>42819</v>
       </c>
-      <c r="H58" s="59">
+      <c r="H58" s="53">
         <v>1</v>
       </c>
-      <c r="I58" s="59" t="s">
+      <c r="I58" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J58" s="24"/>
@@ -15134,17 +15134,17 @@
       <c r="IE58" s="13"/>
     </row>
     <row r="59" spans="1:239" ht="19.5">
-      <c r="A59" s="57"/>
-      <c r="B59" s="89"/>
-      <c r="C59" s="90"/>
-      <c r="D59" s="57"/>
-      <c r="E59" s="57"/>
+      <c r="A59" s="55"/>
+      <c r="B59" s="64"/>
+      <c r="C59" s="65"/>
+      <c r="D59" s="55"/>
+      <c r="E59" s="55"/>
       <c r="F59" s="30">
         <v>42817</v>
       </c>
       <c r="G59" s="30"/>
-      <c r="H59" s="59"/>
-      <c r="I59" s="60"/>
+      <c r="H59" s="53"/>
+      <c r="I59" s="54"/>
       <c r="J59" s="25"/>
       <c r="K59" s="25"/>
       <c r="L59" s="25"/>
@@ -15383,15 +15383,15 @@
       <c r="IE59" s="13"/>
     </row>
     <row r="60" spans="1:239" ht="19.5">
-      <c r="A60" s="57">
+      <c r="A60" s="55">
         <v>28</v>
       </c>
-      <c r="B60" s="89"/>
-      <c r="C60" s="90"/>
-      <c r="D60" s="57" t="s">
+      <c r="B60" s="64"/>
+      <c r="C60" s="65"/>
+      <c r="D60" s="55" t="s">
         <v>53</v>
       </c>
-      <c r="E60" s="57" t="s">
+      <c r="E60" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F60" s="30">
@@ -15400,10 +15400,10 @@
       <c r="G60" s="30">
         <v>42822</v>
       </c>
-      <c r="H60" s="59">
+      <c r="H60" s="53">
         <v>1</v>
       </c>
-      <c r="I60" s="59" t="s">
+      <c r="I60" s="53" t="s">
         <v>18</v>
       </c>
       <c r="J60" s="24"/>
@@ -15644,17 +15644,17 @@
       <c r="IE60" s="13"/>
     </row>
     <row r="61" spans="1:239" ht="19.5">
-      <c r="A61" s="57"/>
-      <c r="B61" s="89"/>
-      <c r="C61" s="90"/>
-      <c r="D61" s="57"/>
-      <c r="E61" s="57"/>
+      <c r="A61" s="55"/>
+      <c r="B61" s="64"/>
+      <c r="C61" s="65"/>
+      <c r="D61" s="55"/>
+      <c r="E61" s="55"/>
       <c r="F61" s="30">
         <v>42820</v>
       </c>
       <c r="G61" s="30"/>
-      <c r="H61" s="59"/>
-      <c r="I61" s="60"/>
+      <c r="H61" s="53"/>
+      <c r="I61" s="54"/>
       <c r="J61" s="25"/>
       <c r="K61" s="25"/>
       <c r="L61" s="25"/>
@@ -15893,15 +15893,15 @@
       <c r="IE61" s="13"/>
     </row>
     <row r="62" spans="1:239" ht="19.5">
-      <c r="A62" s="57">
+      <c r="A62" s="55">
         <v>29</v>
       </c>
-      <c r="B62" s="89"/>
-      <c r="C62" s="90"/>
-      <c r="D62" s="57" t="s">
+      <c r="B62" s="64"/>
+      <c r="C62" s="65"/>
+      <c r="D62" s="55" t="s">
         <v>54</v>
       </c>
-      <c r="E62" s="57" t="s">
+      <c r="E62" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F62" s="30">
@@ -15910,10 +15910,10 @@
       <c r="G62" s="30">
         <v>42826</v>
       </c>
-      <c r="H62" s="59">
+      <c r="H62" s="53">
         <v>1</v>
       </c>
-      <c r="I62" s="59" t="s">
+      <c r="I62" s="53" t="s">
         <v>72</v>
       </c>
       <c r="J62" s="25"/>
@@ -16156,15 +16156,15 @@
       <c r="IE62" s="13"/>
     </row>
     <row r="63" spans="1:239">
-      <c r="A63" s="57"/>
-      <c r="B63" s="89"/>
-      <c r="C63" s="90"/>
-      <c r="D63" s="57"/>
-      <c r="E63" s="57"/>
+      <c r="A63" s="55"/>
+      <c r="B63" s="64"/>
+      <c r="C63" s="65"/>
+      <c r="D63" s="55"/>
+      <c r="E63" s="55"/>
       <c r="F63" s="30"/>
       <c r="G63" s="30"/>
-      <c r="H63" s="59"/>
-      <c r="I63" s="60"/>
+      <c r="H63" s="53"/>
+      <c r="I63" s="54"/>
       <c r="J63" s="25"/>
       <c r="K63" s="25"/>
       <c r="L63" s="25"/>
@@ -16405,15 +16405,15 @@
       <c r="IE63" s="13"/>
     </row>
     <row r="64" spans="1:239">
-      <c r="A64" s="57">
+      <c r="A64" s="55">
         <v>30</v>
       </c>
-      <c r="B64" s="89"/>
-      <c r="C64" s="90"/>
-      <c r="D64" s="62" t="s">
+      <c r="B64" s="64"/>
+      <c r="C64" s="65"/>
+      <c r="D64" s="60" t="s">
         <v>57</v>
       </c>
-      <c r="E64" s="57" t="s">
+      <c r="E64" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F64" s="30">
@@ -16422,8 +16422,8 @@
       <c r="G64" s="30">
         <v>42829</v>
       </c>
-      <c r="H64" s="85"/>
-      <c r="I64" s="85"/>
+      <c r="H64" s="62"/>
+      <c r="I64" s="62"/>
       <c r="J64" s="24"/>
       <c r="K64" s="24"/>
       <c r="L64" s="24"/>
@@ -16662,15 +16662,15 @@
       <c r="IE64" s="13"/>
     </row>
     <row r="65" spans="1:239">
-      <c r="A65" s="57"/>
-      <c r="B65" s="89"/>
-      <c r="C65" s="90"/>
-      <c r="D65" s="63"/>
-      <c r="E65" s="57"/>
+      <c r="A65" s="55"/>
+      <c r="B65" s="64"/>
+      <c r="C65" s="65"/>
+      <c r="D65" s="61"/>
+      <c r="E65" s="55"/>
       <c r="F65" s="30"/>
       <c r="G65" s="30"/>
-      <c r="H65" s="86"/>
-      <c r="I65" s="86"/>
+      <c r="H65" s="63"/>
+      <c r="I65" s="63"/>
       <c r="J65" s="25"/>
       <c r="K65" s="25"/>
       <c r="L65" s="25"/>
@@ -16903,15 +16903,15 @@
       <c r="IE65" s="13"/>
     </row>
     <row r="66" spans="1:239">
-      <c r="A66" s="62">
+      <c r="A66" s="60">
         <v>31</v>
       </c>
-      <c r="B66" s="89"/>
-      <c r="C66" s="90"/>
-      <c r="D66" s="57" t="s">
+      <c r="B66" s="64"/>
+      <c r="C66" s="65"/>
+      <c r="D66" s="55" t="s">
         <v>55</v>
       </c>
-      <c r="E66" s="57" t="s">
+      <c r="E66" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F66" s="30">
@@ -16920,8 +16920,8 @@
       <c r="G66" s="30">
         <v>42832</v>
       </c>
-      <c r="H66" s="59"/>
-      <c r="I66" s="59"/>
+      <c r="H66" s="53"/>
+      <c r="I66" s="53"/>
       <c r="J66" s="24"/>
       <c r="K66" s="24"/>
       <c r="L66" s="24"/>
@@ -17160,15 +17160,15 @@
       <c r="IE66" s="13"/>
     </row>
     <row r="67" spans="1:239">
-      <c r="A67" s="63"/>
-      <c r="B67" s="89"/>
-      <c r="C67" s="90"/>
-      <c r="D67" s="57"/>
-      <c r="E67" s="57"/>
+      <c r="A67" s="61"/>
+      <c r="B67" s="64"/>
+      <c r="C67" s="65"/>
+      <c r="D67" s="55"/>
+      <c r="E67" s="55"/>
       <c r="F67" s="30"/>
       <c r="G67" s="30"/>
-      <c r="H67" s="59"/>
-      <c r="I67" s="60"/>
+      <c r="H67" s="53"/>
+      <c r="I67" s="54"/>
       <c r="J67" s="25"/>
       <c r="K67" s="25"/>
       <c r="L67" s="25"/>
@@ -17401,15 +17401,15 @@
       <c r="IE67" s="13"/>
     </row>
     <row r="68" spans="1:239">
-      <c r="A68" s="62">
+      <c r="A68" s="60">
         <v>32</v>
       </c>
-      <c r="B68" s="89"/>
-      <c r="C68" s="90"/>
-      <c r="D68" s="57" t="s">
+      <c r="B68" s="64"/>
+      <c r="C68" s="65"/>
+      <c r="D68" s="55" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="57" t="s">
+      <c r="E68" s="55" t="s">
         <v>51</v>
       </c>
       <c r="F68" s="30">
@@ -17418,8 +17418,8 @@
       <c r="G68" s="30">
         <v>42837</v>
       </c>
-      <c r="H68" s="59"/>
-      <c r="I68" s="59"/>
+      <c r="H68" s="53"/>
+      <c r="I68" s="53"/>
       <c r="J68" s="24"/>
       <c r="K68" s="24"/>
       <c r="L68" s="24"/>
@@ -17662,15 +17662,15 @@
       <c r="IE68" s="13"/>
     </row>
     <row r="69" spans="1:239">
-      <c r="A69" s="63"/>
-      <c r="B69" s="91"/>
-      <c r="C69" s="92"/>
-      <c r="D69" s="57"/>
-      <c r="E69" s="57"/>
+      <c r="A69" s="61"/>
+      <c r="B69" s="58"/>
+      <c r="C69" s="59"/>
+      <c r="D69" s="55"/>
+      <c r="E69" s="55"/>
       <c r="F69" s="30"/>
       <c r="G69" s="30"/>
-      <c r="H69" s="59"/>
-      <c r="I69" s="60"/>
+      <c r="H69" s="53"/>
+      <c r="I69" s="54"/>
       <c r="J69" s="25"/>
       <c r="K69" s="25"/>
       <c r="L69" s="25"/>
@@ -17902,77 +17902,234 @@
       <c r="ID69" s="13"/>
       <c r="IE69" s="13"/>
     </row>
-    <row r="71" spans="1:239">
-      <c r="A71" s="61" t="s">
+    <row r="71" spans="1:239" ht="409.6">
+      <c r="A71" s="94" t="s">
         <v>15</v>
       </c>
-      <c r="B71" s="61"/>
-      <c r="C71" s="61"/>
-      <c r="D71" s="61"/>
-      <c r="E71" s="61"/>
-      <c r="F71" s="61"/>
-      <c r="G71" s="61"/>
-      <c r="H71" s="61"/>
-      <c r="I71" s="61"/>
-      <c r="J71" s="61"/>
-      <c r="K71" s="61"/>
-      <c r="L71" s="61"/>
-      <c r="M71" s="61"/>
-      <c r="N71" s="61"/>
-      <c r="O71" s="61"/>
-      <c r="P71" s="61"/>
-      <c r="Q71" s="61"/>
-      <c r="R71" s="61"/>
-      <c r="S71" s="61"/>
-      <c r="T71" s="61"/>
-      <c r="U71" s="61"/>
-      <c r="V71" s="61"/>
-      <c r="W71" s="61"/>
-      <c r="X71" s="61"/>
-      <c r="Y71" s="61"/>
-      <c r="Z71" s="61"/>
-      <c r="AA71" s="61"/>
-      <c r="AB71" s="61"/>
-      <c r="AC71" s="61"/>
-      <c r="AD71" s="61"/>
-      <c r="AE71" s="61"/>
+      <c r="B71" s="94"/>
+      <c r="C71" s="94"/>
+      <c r="D71" s="94"/>
+      <c r="E71" s="94"/>
+      <c r="F71" s="94"/>
+      <c r="G71" s="94"/>
+      <c r="H71" s="94"/>
+      <c r="I71" s="94"/>
+      <c r="J71" s="94"/>
+      <c r="K71" s="94"/>
+      <c r="L71" s="94"/>
+      <c r="M71" s="94"/>
+      <c r="N71" s="94"/>
+      <c r="O71" s="94"/>
+      <c r="P71" s="94"/>
+      <c r="Q71" s="94"/>
+      <c r="R71" s="94"/>
+      <c r="S71" s="94"/>
+      <c r="T71" s="94"/>
+      <c r="U71" s="94"/>
+      <c r="V71" s="94"/>
+      <c r="W71" s="94"/>
+      <c r="X71" s="94"/>
+      <c r="Y71" s="94"/>
+      <c r="Z71" s="94"/>
+      <c r="AA71" s="94"/>
+      <c r="AB71" s="94"/>
+      <c r="AC71" s="94"/>
+      <c r="AD71" s="94"/>
+      <c r="AE71" s="94"/>
     </row>
-    <row r="72" spans="1:239">
-      <c r="A72" s="61"/>
-      <c r="B72" s="61"/>
-      <c r="C72" s="61"/>
-      <c r="D72" s="61"/>
-      <c r="E72" s="61"/>
-      <c r="F72" s="61"/>
-      <c r="G72" s="61"/>
-      <c r="H72" s="61"/>
-      <c r="I72" s="61"/>
-      <c r="J72" s="61"/>
-      <c r="K72" s="61"/>
-      <c r="L72" s="61"/>
-      <c r="M72" s="61"/>
-      <c r="N72" s="61"/>
-      <c r="O72" s="61"/>
-      <c r="P72" s="61"/>
-      <c r="Q72" s="61"/>
-      <c r="R72" s="61"/>
-      <c r="S72" s="61"/>
-      <c r="T72" s="61"/>
-      <c r="U72" s="61"/>
-      <c r="V72" s="61"/>
-      <c r="W72" s="61"/>
-      <c r="X72" s="61"/>
-      <c r="Y72" s="61"/>
-      <c r="Z72" s="61"/>
-      <c r="AA72" s="61"/>
-      <c r="AB72" s="61"/>
-      <c r="AC72" s="61"/>
-      <c r="AD72" s="61"/>
-      <c r="AE72" s="61"/>
+    <row r="72" spans="1:239" ht="409.6">
+      <c r="A72" s="94"/>
+      <c r="B72" s="94"/>
+      <c r="C72" s="94"/>
+      <c r="D72" s="94"/>
+      <c r="E72" s="94"/>
+      <c r="F72" s="94"/>
+      <c r="G72" s="94"/>
+      <c r="H72" s="94"/>
+      <c r="I72" s="94"/>
+      <c r="J72" s="94"/>
+      <c r="K72" s="94"/>
+      <c r="L72" s="94"/>
+      <c r="M72" s="94"/>
+      <c r="N72" s="94"/>
+      <c r="O72" s="94"/>
+      <c r="P72" s="94"/>
+      <c r="Q72" s="94"/>
+      <c r="R72" s="94"/>
+      <c r="S72" s="94"/>
+      <c r="T72" s="94"/>
+      <c r="U72" s="94"/>
+      <c r="V72" s="94"/>
+      <c r="W72" s="94"/>
+      <c r="X72" s="94"/>
+      <c r="Y72" s="94"/>
+      <c r="Z72" s="94"/>
+      <c r="AA72" s="94"/>
+      <c r="AB72" s="94"/>
+      <c r="AC72" s="94"/>
+      <c r="AD72" s="94"/>
+      <c r="AE72" s="94"/>
     </row>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="181">
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A71:AE72"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="B40:C45"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="B36:C39"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="B46:C51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="I64:I65"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="A62:A63"/>
     <mergeCell ref="D62:D63"/>
@@ -17997,163 +18154,6 @@
     <mergeCell ref="D68:D69"/>
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="H68:H69"/>
-    <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="B46:C51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="B40:C45"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="B36:C39"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A71:AE72"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="2640" windowWidth="23640" windowHeight="8985" tabRatio="516"/>
+    <workbookView xWindow="5070" yWindow="1695" windowWidth="23640" windowHeight="8985" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="361" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -168,46 +168,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>양성주</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>지도표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>코딩</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>카테고리별검색</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>매장표시</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>선택매장정보조회</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품정보화면</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>상품상황정보수신</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>연관상품추천기능</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>검색한기록</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>석지연</t>
   </si>
   <si>
@@ -320,6 +280,18 @@
   </si>
   <si>
     <t>※정렬순서는 담당자 업무 분장별로 함</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>양성주</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>카테고리별검색</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>검색한기록</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -1606,10 +1578,10 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:IE74"/>
+  <dimension ref="A1:IF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F31" sqref="F31"/>
+    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D87" sqref="D87"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -5399,26 +5371,26 @@
         <v>9</v>
       </c>
       <c r="B20" s="85" t="s">
-        <v>38</v>
+        <v>68</v>
       </c>
       <c r="C20" s="86"/>
       <c r="D20" s="60" t="s">
-        <v>39</v>
+        <v>59</v>
       </c>
       <c r="E20" s="60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F20" s="27">
         <v>42810</v>
       </c>
       <c r="G20" s="27">
-        <v>42813</v>
+        <v>42811</v>
       </c>
       <c r="H20" s="57">
         <v>1</v>
       </c>
       <c r="I20" s="57" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J20" s="22"/>
       <c r="K20" s="22"/>
@@ -5429,17 +5401,13 @@
       <c r="P20" s="12"/>
       <c r="Q20" s="12"/>
       <c r="R20" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="S20" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="T20" s="13" t="s">
-        <v>4</v>
-      </c>
-      <c r="U20" s="13" t="s">
-        <v>4</v>
-      </c>
+        <v>49</v>
+      </c>
+      <c r="T20" s="13"/>
+      <c r="U20" s="13"/>
       <c r="V20" s="12"/>
       <c r="W20" s="11"/>
       <c r="X20" s="12"/>
@@ -5666,9 +5634,11 @@
       <c r="D21" s="61"/>
       <c r="E21" s="61"/>
       <c r="F21" s="27">
-        <v>42814</v>
-      </c>
-      <c r="G21" s="27"/>
+        <v>42810</v>
+      </c>
+      <c r="G21" s="27">
+        <v>42818</v>
+      </c>
       <c r="H21" s="57"/>
       <c r="I21" s="58"/>
       <c r="J21" s="23"/>
@@ -5680,27 +5650,27 @@
       <c r="P21" s="12"/>
       <c r="Q21" s="12"/>
       <c r="R21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="S21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="T21" s="13"/>
       <c r="U21" s="13"/>
       <c r="V21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="W21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="X21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Y21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Z21" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AA21" s="13"/>
       <c r="AB21" s="13"/>
@@ -5923,10 +5893,10 @@
       <c r="B22" s="87"/>
       <c r="C22" s="88"/>
       <c r="D22" s="60" t="s">
-        <v>41</v>
+        <v>69</v>
       </c>
       <c r="E22" s="60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F22" s="27">
         <v>42814</v>
@@ -5938,7 +5908,7 @@
         <v>1</v>
       </c>
       <c r="I22" s="57" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J22" s="22"/>
       <c r="K22" s="22"/>
@@ -6186,7 +6156,9 @@
       <c r="F23" s="27">
         <v>42814</v>
       </c>
-      <c r="G23" s="27"/>
+      <c r="G23" s="27">
+        <v>42816</v>
+      </c>
       <c r="H23" s="57"/>
       <c r="I23" s="58"/>
       <c r="J23" s="23"/>
@@ -6202,13 +6174,13 @@
       <c r="T23" s="13"/>
       <c r="U23" s="13"/>
       <c r="V23" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="W23" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="X23" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Y23" s="12"/>
       <c r="Z23" s="12"/>
@@ -6433,22 +6405,22 @@
       <c r="B24" s="87"/>
       <c r="C24" s="88"/>
       <c r="D24" s="60" t="s">
-        <v>42</v>
+        <v>61</v>
       </c>
       <c r="E24" s="60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F24" s="27">
         <v>42817</v>
       </c>
       <c r="G24" s="27">
-        <v>42819</v>
+        <v>42818</v>
       </c>
       <c r="H24" s="57">
         <v>1</v>
       </c>
       <c r="I24" s="57" t="s">
-        <v>29</v>
+        <v>53</v>
       </c>
       <c r="J24" s="22"/>
       <c r="K24" s="22"/>
@@ -6692,9 +6664,11 @@
       <c r="D25" s="61"/>
       <c r="E25" s="61"/>
       <c r="F25" s="27">
-        <v>42814</v>
-      </c>
-      <c r="G25" s="27"/>
+        <v>42817</v>
+      </c>
+      <c r="G25" s="27">
+        <v>42818</v>
+      </c>
       <c r="H25" s="57"/>
       <c r="I25" s="58"/>
       <c r="J25" s="23"/>
@@ -6713,10 +6687,10 @@
       <c r="W25" s="12"/>
       <c r="X25" s="12"/>
       <c r="Y25" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="Z25" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AA25" s="13"/>
       <c r="AB25" s="13"/>
@@ -6939,21 +6913,23 @@
       <c r="B26" s="87"/>
       <c r="C26" s="88"/>
       <c r="D26" s="60" t="s">
-        <v>43</v>
+        <v>62</v>
       </c>
       <c r="E26" s="60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F26" s="27">
-        <v>42820</v>
+        <v>42821</v>
       </c>
       <c r="G26" s="27">
-        <v>42822</v>
+        <v>42824</v>
       </c>
       <c r="H26" s="57">
-        <v>0.9</v>
-      </c>
-      <c r="I26" s="83"/>
+        <v>1</v>
+      </c>
+      <c r="I26" s="83" t="s">
+        <v>53</v>
+      </c>
       <c r="J26" s="22"/>
       <c r="K26" s="22"/>
       <c r="L26" s="22"/>
@@ -6979,8 +6955,12 @@
       <c r="AD26" s="26" t="s">
         <v>4</v>
       </c>
-      <c r="AE26" s="12"/>
-      <c r="AF26" s="12"/>
+      <c r="AE26" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="AF26" s="12" t="s">
+        <v>49</v>
+      </c>
       <c r="AG26" s="12"/>
       <c r="AH26" s="36"/>
       <c r="AI26" s="36"/>
@@ -7196,9 +7176,11 @@
       <c r="D27" s="61"/>
       <c r="E27" s="61"/>
       <c r="F27" s="27">
-        <v>42814</v>
-      </c>
-      <c r="G27" s="27"/>
+        <v>42821</v>
+      </c>
+      <c r="G27" s="27">
+        <v>42824</v>
+      </c>
       <c r="H27" s="57"/>
       <c r="I27" s="84"/>
       <c r="J27" s="23"/>
@@ -7221,13 +7203,17 @@
       <c r="AA27" s="38"/>
       <c r="AB27" s="38"/>
       <c r="AC27" s="12" t="s">
-        <v>31</v>
+        <v>47</v>
       </c>
       <c r="AD27" s="12" t="s">
-        <v>31</v>
-      </c>
-      <c r="AE27" s="12"/>
-      <c r="AF27" s="12"/>
+        <v>47</v>
+      </c>
+      <c r="AE27" s="12" t="s">
+        <v>47</v>
+      </c>
+      <c r="AF27" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="AG27" s="12"/>
       <c r="AH27" s="39"/>
       <c r="AI27" s="39"/>
@@ -7443,16 +7429,16 @@
       <c r="B28" s="87"/>
       <c r="C28" s="88"/>
       <c r="D28" s="60" t="s">
-        <v>44</v>
+        <v>63</v>
       </c>
       <c r="E28" s="60" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="F28" s="27">
-        <v>42823</v>
+        <v>42825</v>
       </c>
       <c r="G28" s="27">
-        <v>42826</v>
+        <v>42828</v>
       </c>
       <c r="H28" s="83"/>
       <c r="I28" s="83"/>
@@ -7477,19 +7463,17 @@
       <c r="AB28" s="38"/>
       <c r="AC28" s="14"/>
       <c r="AD28" s="14"/>
-      <c r="AE28" s="12" t="s">
-        <v>30</v>
-      </c>
-      <c r="AF28" s="12" t="s">
-        <v>30</v>
-      </c>
+      <c r="AE28" s="12"/>
+      <c r="AF28" s="12"/>
       <c r="AG28" s="12" t="s">
-        <v>30</v>
+        <v>49</v>
       </c>
       <c r="AH28" s="41"/>
       <c r="AI28" s="39"/>
-      <c r="AJ28" s="40"/>
-      <c r="AK28" s="40"/>
+      <c r="AJ28" s="12" t="s">
+        <v>4</v>
+      </c>
+      <c r="AK28" s="12"/>
       <c r="AL28" s="42"/>
       <c r="AM28" s="12"/>
       <c r="AN28" s="40"/>
@@ -7700,7 +7684,7 @@
       <c r="D29" s="61"/>
       <c r="E29" s="61"/>
       <c r="F29" s="27">
-        <v>42814</v>
+        <v>42825</v>
       </c>
       <c r="G29" s="27"/>
       <c r="H29" s="84"/>
@@ -7728,7 +7712,9 @@
       <c r="AD29" s="14"/>
       <c r="AE29" s="12"/>
       <c r="AF29" s="12"/>
-      <c r="AG29" s="12"/>
+      <c r="AG29" s="12" t="s">
+        <v>47</v>
+      </c>
       <c r="AH29" s="28"/>
       <c r="AI29" s="28"/>
       <c r="AJ29" s="12"/>
@@ -7943,17 +7929,13 @@
       <c r="B30" s="87"/>
       <c r="C30" s="88"/>
       <c r="D30" s="60" t="s">
-        <v>45</v>
+        <v>64</v>
       </c>
       <c r="E30" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F30" s="27">
-        <v>42827</v>
-      </c>
-      <c r="G30" s="27">
-        <v>42829</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F30" s="27"/>
+      <c r="G30" s="27"/>
       <c r="H30" s="83"/>
       <c r="I30" s="83"/>
       <c r="J30" s="22"/>
@@ -7982,12 +7964,8 @@
       <c r="AG30" s="12"/>
       <c r="AH30" s="28"/>
       <c r="AI30" s="28"/>
-      <c r="AJ30" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AK30" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="AJ30" s="12"/>
+      <c r="AK30" s="12"/>
       <c r="AL30" s="12"/>
       <c r="AM30" s="12"/>
       <c r="AN30" s="12"/>
@@ -8197,9 +8175,7 @@
       <c r="C31" s="88"/>
       <c r="D31" s="61"/>
       <c r="E31" s="61"/>
-      <c r="F31" s="27">
-        <v>42814</v>
-      </c>
+      <c r="F31" s="27"/>
       <c r="G31" s="27"/>
       <c r="H31" s="84"/>
       <c r="I31" s="84"/>
@@ -8441,17 +8417,13 @@
       <c r="B32" s="87"/>
       <c r="C32" s="88"/>
       <c r="D32" s="60" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="60" t="s">
         <v>46</v>
       </c>
-      <c r="E32" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F32" s="27">
-        <v>42830</v>
-      </c>
-      <c r="G32" s="27">
-        <v>42832</v>
-      </c>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
       <c r="H32" s="83"/>
       <c r="I32" s="83"/>
       <c r="J32" s="22"/>
@@ -8482,15 +8454,9 @@
       <c r="AI32" s="28"/>
       <c r="AJ32" s="12"/>
       <c r="AK32" s="12"/>
-      <c r="AL32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AM32" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AN32" s="12" t="s">
-        <v>4</v>
-      </c>
+      <c r="AL32" s="12"/>
+      <c r="AM32" s="12"/>
+      <c r="AN32" s="12"/>
       <c r="AO32" s="28"/>
       <c r="AP32" s="28"/>
       <c r="AQ32" s="12"/>
@@ -8691,15 +8657,13 @@
       <c r="ID32" s="12"/>
       <c r="IE32" s="12"/>
     </row>
-    <row r="33" spans="1:239">
+    <row r="33" spans="1:240">
       <c r="A33" s="55"/>
       <c r="B33" s="87"/>
       <c r="C33" s="88"/>
       <c r="D33" s="61"/>
       <c r="E33" s="61"/>
-      <c r="F33" s="27">
-        <v>42814</v>
-      </c>
+      <c r="F33" s="27"/>
       <c r="G33" s="27"/>
       <c r="H33" s="84"/>
       <c r="I33" s="84"/>
@@ -8934,24 +8898,20 @@
       <c r="ID33" s="12"/>
       <c r="IE33" s="12"/>
     </row>
-    <row r="34" spans="1:239" ht="12" customHeight="1">
+    <row r="34" spans="1:240" ht="12" customHeight="1">
       <c r="A34" s="55">
         <v>16</v>
       </c>
       <c r="B34" s="87"/>
       <c r="C34" s="88"/>
       <c r="D34" s="60" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="E34" s="60" t="s">
-        <v>40</v>
-      </c>
-      <c r="F34" s="27">
-        <v>42833</v>
-      </c>
-      <c r="G34" s="27">
-        <v>42837</v>
-      </c>
+        <v>46</v>
+      </c>
+      <c r="F34" s="27"/>
+      <c r="G34" s="27"/>
       <c r="H34" s="83"/>
       <c r="I34" s="83"/>
       <c r="J34" s="22"/>
@@ -8985,21 +8945,11 @@
       <c r="AL34" s="12"/>
       <c r="AM34" s="12"/>
       <c r="AN34" s="12"/>
-      <c r="AO34" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AP34" s="28" t="s">
-        <v>4</v>
-      </c>
-      <c r="AQ34" s="12" t="s">
-        <v>4</v>
-      </c>
-      <c r="AR34" s="47" t="s">
-        <v>4</v>
-      </c>
-      <c r="AS34" s="47" t="s">
-        <v>4</v>
-      </c>
+      <c r="AO34" s="28"/>
+      <c r="AP34" s="28"/>
+      <c r="AQ34" s="12"/>
+      <c r="AR34" s="47"/>
+      <c r="AS34" s="47"/>
       <c r="AT34" s="12"/>
       <c r="AU34" s="12"/>
       <c r="AV34" s="35"/>
@@ -9195,15 +9145,13 @@
       <c r="ID34" s="12"/>
       <c r="IE34" s="12"/>
     </row>
-    <row r="35" spans="1:239">
+    <row r="35" spans="1:240">
       <c r="A35" s="55"/>
       <c r="B35" s="89"/>
       <c r="C35" s="90"/>
       <c r="D35" s="61"/>
       <c r="E35" s="61"/>
-      <c r="F35" s="27">
-        <v>42814</v>
-      </c>
+      <c r="F35" s="27"/>
       <c r="G35" s="27"/>
       <c r="H35" s="84"/>
       <c r="I35" s="84"/>
@@ -9438,19 +9386,19 @@
       <c r="ID35" s="12"/>
       <c r="IE35" s="12"/>
     </row>
-    <row r="36" spans="1:239" ht="12" customHeight="1">
+    <row r="36" spans="1:240" ht="12" customHeight="1">
       <c r="A36" s="93">
         <v>17</v>
       </c>
       <c r="B36" s="94" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C36" s="95"/>
       <c r="D36" s="96" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="E36" s="96" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F36" s="97">
         <v>42814</v>
@@ -9462,7 +9410,7 @@
         <v>1</v>
       </c>
       <c r="I36" s="83" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J36" s="99"/>
       <c r="K36" s="99"/>
@@ -9723,7 +9671,7 @@
       <c r="ID36" s="101"/>
       <c r="IE36" s="101"/>
     </row>
-    <row r="37" spans="1:239">
+    <row r="37" spans="1:240">
       <c r="A37" s="93"/>
       <c r="B37" s="112"/>
       <c r="C37" s="113"/>
@@ -9994,17 +9942,17 @@
       <c r="ID37" s="101"/>
       <c r="IE37" s="101"/>
     </row>
-    <row r="38" spans="1:239">
+    <row r="38" spans="1:240">
       <c r="A38" s="93">
         <v>18</v>
       </c>
       <c r="B38" s="112"/>
       <c r="C38" s="113"/>
       <c r="D38" s="96" t="s">
-        <v>52</v>
+        <v>42</v>
       </c>
       <c r="E38" s="96" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F38" s="97">
         <v>42829</v>
@@ -10016,7 +9964,7 @@
         <v>1</v>
       </c>
       <c r="I38" s="83" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J38" s="116"/>
       <c r="K38" s="116"/>
@@ -10251,7 +10199,7 @@
       <c r="ID38" s="101"/>
       <c r="IE38" s="101"/>
     </row>
-    <row r="39" spans="1:239">
+    <row r="39" spans="1:240">
       <c r="A39" s="93"/>
       <c r="B39" s="112"/>
       <c r="C39" s="113"/>
@@ -10498,17 +10446,17 @@
       <c r="ID39" s="101"/>
       <c r="IE39" s="101"/>
     </row>
-    <row r="40" spans="1:239" ht="12" customHeight="1">
+    <row r="40" spans="1:240" ht="12" customHeight="1">
       <c r="A40" s="93">
         <v>19</v>
       </c>
       <c r="B40" s="112"/>
       <c r="C40" s="113"/>
       <c r="D40" s="93" t="s">
-        <v>53</v>
+        <v>43</v>
       </c>
       <c r="E40" s="96" t="s">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="F40" s="97">
         <v>42830</v>
@@ -10767,7 +10715,7 @@
       <c r="ID40" s="101"/>
       <c r="IE40" s="101"/>
     </row>
-    <row r="41" spans="1:239">
+    <row r="41" spans="1:240">
       <c r="A41" s="93"/>
       <c r="B41" s="120"/>
       <c r="C41" s="121"/>
@@ -11016,19 +10964,19 @@
       <c r="ID41" s="101"/>
       <c r="IE41" s="101"/>
     </row>
-    <row r="42" spans="1:239" ht="12" customHeight="1">
+    <row r="42" spans="1:240" ht="12" customHeight="1">
       <c r="A42" s="55">
         <v>20</v>
       </c>
       <c r="B42" s="85" t="s">
-        <v>54</v>
+        <v>44</v>
       </c>
       <c r="C42" s="86"/>
       <c r="D42" s="60" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="E42" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F42" s="27">
         <v>42814</v>
@@ -11040,7 +10988,7 @@
         <v>0.8</v>
       </c>
       <c r="I42" s="83" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J42" s="22"/>
       <c r="K42" s="22"/>
@@ -11295,7 +11243,7 @@
       <c r="ID42" s="12"/>
       <c r="IE42" s="12"/>
     </row>
-    <row r="43" spans="1:239">
+    <row r="43" spans="1:240">
       <c r="A43" s="55"/>
       <c r="B43" s="87"/>
       <c r="C43" s="88"/>
@@ -11321,39 +11269,39 @@
       <c r="U43" s="13"/>
       <c r="V43" s="11"/>
       <c r="W43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Y43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Z43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AA43" s="13"/>
       <c r="AB43" s="13"/>
       <c r="AC43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AD43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AE43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AF43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AG43" s="21"/>
       <c r="AH43" s="28"/>
       <c r="AI43" s="28"/>
       <c r="AJ43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AK43" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AL43" s="12"/>
       <c r="AM43" s="12"/>
@@ -11558,17 +11506,17 @@
       <c r="ID43" s="12"/>
       <c r="IE43" s="12"/>
     </row>
-    <row r="44" spans="1:239" ht="12" customHeight="1">
+    <row r="44" spans="1:240" ht="12" customHeight="1">
       <c r="A44" s="55">
         <v>21</v>
       </c>
       <c r="B44" s="87"/>
       <c r="C44" s="88"/>
       <c r="D44" s="55" t="s">
-        <v>58</v>
+        <v>48</v>
       </c>
       <c r="E44" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F44" s="27">
         <v>42825</v>
@@ -11580,7 +11528,7 @@
         <v>0.8</v>
       </c>
       <c r="I44" s="83" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J44" s="22"/>
       <c r="K44" s="22"/>
@@ -11609,7 +11557,7 @@
         <v>4</v>
       </c>
       <c r="AH44" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AI44" s="41"/>
       <c r="AJ44" s="12"/>
@@ -11817,7 +11765,7 @@
       <c r="ID44" s="12"/>
       <c r="IE44" s="12"/>
     </row>
-    <row r="45" spans="1:239">
+    <row r="45" spans="1:240">
       <c r="A45" s="55"/>
       <c r="B45" s="87"/>
       <c r="C45" s="88"/>
@@ -11858,10 +11806,10 @@
       <c r="AJ45" s="12"/>
       <c r="AK45" s="12"/>
       <c r="AL45" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AM45" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AN45" s="12"/>
       <c r="AO45" s="28"/>
@@ -12064,17 +12012,17 @@
       <c r="ID45" s="12"/>
       <c r="IE45" s="12"/>
     </row>
-    <row r="46" spans="1:239" ht="12" customHeight="1">
+    <row r="46" spans="1:240" ht="12" customHeight="1">
       <c r="A46" s="55">
         <v>22</v>
       </c>
       <c r="B46" s="87"/>
       <c r="C46" s="88"/>
       <c r="D46" s="55" t="s">
-        <v>60</v>
+        <v>50</v>
       </c>
       <c r="E46" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F46" s="27">
         <v>42827</v>
@@ -12086,7 +12034,7 @@
         <v>0.1</v>
       </c>
       <c r="I46" s="83" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J46" s="22"/>
       <c r="K46" s="22"/>
@@ -12114,7 +12062,7 @@
       <c r="AG46" s="26"/>
       <c r="AH46" s="41"/>
       <c r="AI46" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AJ46" s="12" t="s">
         <v>4</v>
@@ -12132,10 +12080,10 @@
         <v>4</v>
       </c>
       <c r="AO46" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AP46" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AQ46" s="12" t="s">
         <v>4</v>
@@ -12337,7 +12285,7 @@
       <c r="ID46" s="12"/>
       <c r="IE46" s="12"/>
     </row>
-    <row r="47" spans="1:239">
+    <row r="47" spans="1:240">
       <c r="A47" s="55"/>
       <c r="B47" s="89"/>
       <c r="C47" s="90"/>
@@ -12379,13 +12327,13 @@
       <c r="AK47" s="12"/>
       <c r="AL47" s="12"/>
       <c r="AN47" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AO47" s="28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AP47" s="28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AQ47" s="12"/>
       <c r="AR47" s="12"/>
@@ -12585,19 +12533,19 @@
       <c r="ID47" s="12"/>
       <c r="IE47" s="12"/>
     </row>
-    <row r="48" spans="1:239" ht="12" customHeight="1">
+    <row r="48" spans="1:240" ht="12" customHeight="1">
       <c r="A48" s="55">
         <v>23</v>
       </c>
       <c r="B48" s="85" t="s">
-        <v>61</v>
+        <v>51</v>
       </c>
       <c r="C48" s="86"/>
       <c r="D48" s="55" t="s">
-        <v>62</v>
+        <v>52</v>
       </c>
       <c r="E48" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F48" s="27">
         <v>42811</v>
@@ -12609,7 +12557,7 @@
         <v>1</v>
       </c>
       <c r="I48" s="83" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J48" s="22"/>
       <c r="K48" s="22"/>
@@ -12621,7 +12569,7 @@
       <c r="Q48" s="12"/>
       <c r="R48" s="12"/>
       <c r="S48" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="T48" s="13" t="s">
         <v>4</v>
@@ -12630,10 +12578,10 @@
         <v>4</v>
       </c>
       <c r="V48" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="W48" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="X48" s="12"/>
       <c r="Y48" s="12"/>
@@ -12852,7 +12800,7 @@
       <c r="ID48" s="12"/>
       <c r="IE48" s="12"/>
     </row>
-    <row r="49" spans="1:239">
+    <row r="49" spans="1:240">
       <c r="A49" s="55"/>
       <c r="B49" s="87"/>
       <c r="C49" s="88"/>
@@ -12881,43 +12829,43 @@
       <c r="V49" s="12"/>
       <c r="W49" s="12"/>
       <c r="X49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Y49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="Z49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AA49" s="13" t="s">
         <v>5</v>
       </c>
       <c r="AB49" s="13"/>
       <c r="AC49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AD49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AE49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AF49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AG49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AH49" s="28"/>
       <c r="AI49" s="28"/>
       <c r="AJ49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AK49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AL49" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AM49" s="12"/>
       <c r="AN49" s="12"/>
@@ -13121,17 +13069,17 @@
       <c r="ID49" s="12"/>
       <c r="IE49" s="12"/>
     </row>
-    <row r="50" spans="1:239" ht="12" customHeight="1">
+    <row r="50" spans="1:240" ht="12" customHeight="1">
       <c r="A50" s="55">
         <v>24</v>
       </c>
       <c r="B50" s="87"/>
       <c r="C50" s="88"/>
       <c r="D50" s="55" t="s">
-        <v>64</v>
+        <v>54</v>
       </c>
       <c r="E50" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F50" s="27">
         <v>42816</v>
@@ -13143,7 +13091,7 @@
         <v>0.75</v>
       </c>
       <c r="I50" s="83" t="s">
-        <v>51</v>
+        <v>41</v>
       </c>
       <c r="J50" s="22"/>
       <c r="K50" s="22"/>
@@ -13160,13 +13108,13 @@
       <c r="V50" s="12"/>
       <c r="W50" s="12"/>
       <c r="X50" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="Y50" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="Z50" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AA50" s="13" t="s">
         <v>4</v>
@@ -13384,7 +13332,7 @@
       <c r="ID50" s="12"/>
       <c r="IE50" s="12"/>
     </row>
-    <row r="51" spans="1:239">
+    <row r="51" spans="1:240">
       <c r="A51" s="55"/>
       <c r="B51" s="87"/>
       <c r="C51" s="88"/>
@@ -13426,10 +13374,10 @@
       <c r="AK51" s="12"/>
       <c r="AL51" s="12"/>
       <c r="AM51" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AN51" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AO51" s="28"/>
       <c r="AP51" s="28"/>
@@ -13631,17 +13579,17 @@
       <c r="ID51" s="12"/>
       <c r="IE51" s="12"/>
     </row>
-    <row r="52" spans="1:239" ht="12" customHeight="1">
+    <row r="52" spans="1:240" ht="12" customHeight="1">
       <c r="A52" s="55">
         <v>25</v>
       </c>
       <c r="B52" s="87"/>
       <c r="C52" s="88"/>
       <c r="D52" s="55" t="s">
-        <v>65</v>
+        <v>55</v>
       </c>
       <c r="E52" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F52" s="27">
         <v>42821</v>
@@ -13671,13 +13619,13 @@
       <c r="AA52" s="13"/>
       <c r="AB52" s="13"/>
       <c r="AC52" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AD52" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AE52" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AF52" s="14"/>
       <c r="AG52" s="19"/>
@@ -13888,7 +13836,7 @@
       <c r="ID52" s="12"/>
       <c r="IE52" s="12"/>
     </row>
-    <row r="53" spans="1:239">
+    <row r="53" spans="1:240">
       <c r="A53" s="55"/>
       <c r="B53" s="89"/>
       <c r="C53" s="90"/>
@@ -14129,19 +14077,19 @@
       <c r="ID53" s="12"/>
       <c r="IE53" s="12"/>
     </row>
-    <row r="54" spans="1:239" ht="12" customHeight="1">
+    <row r="54" spans="1:240" ht="12" customHeight="1">
       <c r="A54" s="55">
         <v>26</v>
       </c>
       <c r="B54" s="85" t="s">
-        <v>66</v>
+        <v>56</v>
       </c>
       <c r="C54" s="86"/>
       <c r="D54" s="55" t="s">
-        <v>67</v>
+        <v>57</v>
       </c>
       <c r="E54" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F54" s="27">
         <v>42825</v>
@@ -14175,43 +14123,43 @@
       <c r="AE54" s="12"/>
       <c r="AF54" s="12"/>
       <c r="AG54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AH54" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AI54" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AJ54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AK54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AL54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AM54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AN54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AO54" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AP54" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AQ54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AR54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AS54" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AT54" s="34"/>
       <c r="AU54" s="12"/>
@@ -14408,7 +14356,7 @@
       <c r="ID54" s="12"/>
       <c r="IE54" s="12"/>
     </row>
-    <row r="55" spans="1:239">
+    <row r="55" spans="1:240">
       <c r="A55" s="55"/>
       <c r="B55" s="89"/>
       <c r="C55" s="90"/>
@@ -14649,19 +14597,19 @@
       <c r="ID55" s="12"/>
       <c r="IE55" s="12"/>
     </row>
-    <row r="56" spans="1:239">
+    <row r="56" spans="1:240">
       <c r="A56" s="55">
         <v>27</v>
       </c>
       <c r="B56" s="85" t="s">
-        <v>68</v>
+        <v>58</v>
       </c>
       <c r="C56" s="86"/>
       <c r="D56" s="60" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="E56" s="60" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F56" s="27">
         <v>42810</v>
@@ -14673,7 +14621,7 @@
         <v>1</v>
       </c>
       <c r="I56" s="57" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J56" s="22"/>
       <c r="K56" s="22"/>
@@ -14684,10 +14632,10 @@
       <c r="P56" s="12"/>
       <c r="Q56" s="12"/>
       <c r="R56" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="S56" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="T56" s="13" t="s">
         <v>4</v>
@@ -14914,7 +14862,7 @@
       <c r="ID56" s="12"/>
       <c r="IE56" s="12"/>
     </row>
-    <row r="57" spans="1:239">
+    <row r="57" spans="1:240">
       <c r="A57" s="55"/>
       <c r="B57" s="87"/>
       <c r="C57" s="88"/>
@@ -14935,10 +14883,10 @@
       <c r="P57" s="12"/>
       <c r="Q57" s="12"/>
       <c r="R57" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="S57" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="T57" s="13" t="s">
         <v>5</v>
@@ -15165,17 +15113,17 @@
       <c r="ID57" s="12"/>
       <c r="IE57" s="12"/>
     </row>
-    <row r="58" spans="1:239">
+    <row r="58" spans="1:240">
       <c r="A58" s="55">
         <v>28</v>
       </c>
       <c r="B58" s="87"/>
       <c r="C58" s="88"/>
       <c r="D58" s="55" t="s">
-        <v>70</v>
+        <v>60</v>
       </c>
       <c r="E58" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F58" s="27">
         <v>42814</v>
@@ -15187,7 +15135,7 @@
         <v>1</v>
       </c>
       <c r="I58" s="57" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J58" s="22"/>
       <c r="K58" s="22"/>
@@ -15426,7 +15374,7 @@
       <c r="ID58" s="12"/>
       <c r="IE58" s="12"/>
     </row>
-    <row r="59" spans="1:239">
+    <row r="59" spans="1:240">
       <c r="A59" s="55"/>
       <c r="B59" s="87"/>
       <c r="C59" s="88"/>
@@ -15451,10 +15399,10 @@
       <c r="T59" s="13"/>
       <c r="U59" s="13"/>
       <c r="V59" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="W59" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="X59" s="12" t="s">
         <v>5</v>
@@ -15675,17 +15623,17 @@
       <c r="ID59" s="12"/>
       <c r="IE59" s="12"/>
     </row>
-    <row r="60" spans="1:239">
+    <row r="60" spans="1:240">
       <c r="A60" s="55">
         <v>29</v>
       </c>
       <c r="B60" s="87"/>
       <c r="C60" s="88"/>
       <c r="D60" s="55" t="s">
-        <v>71</v>
+        <v>61</v>
       </c>
       <c r="E60" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F60" s="27">
         <v>42817</v>
@@ -15697,7 +15645,7 @@
         <v>1</v>
       </c>
       <c r="I60" s="57" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J60" s="22"/>
       <c r="K60" s="22"/>
@@ -15936,7 +15884,7 @@
       <c r="ID60" s="12"/>
       <c r="IE60" s="12"/>
     </row>
-    <row r="61" spans="1:239" ht="19.5">
+    <row r="61" spans="1:240" ht="19.5">
       <c r="A61" s="55"/>
       <c r="B61" s="87"/>
       <c r="C61" s="88"/>
@@ -15967,7 +15915,7 @@
         <v>5</v>
       </c>
       <c r="Z61" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AA61" s="13" t="s">
         <v>5</v>
@@ -16185,17 +16133,17 @@
       <c r="ID61" s="12"/>
       <c r="IE61" s="12"/>
     </row>
-    <row r="62" spans="1:239" ht="19.5">
+    <row r="62" spans="1:240" ht="19.5">
       <c r="A62" s="55">
         <v>30</v>
       </c>
       <c r="B62" s="87"/>
       <c r="C62" s="88"/>
       <c r="D62" s="55" t="s">
-        <v>72</v>
+        <v>62</v>
       </c>
       <c r="E62" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F62" s="27">
         <v>42820</v>
@@ -16207,7 +16155,7 @@
         <v>1</v>
       </c>
       <c r="I62" s="57" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J62" s="22"/>
       <c r="K62" s="22"/>
@@ -16446,7 +16394,7 @@
       <c r="ID62" s="12"/>
       <c r="IE62" s="12"/>
     </row>
-    <row r="63" spans="1:239" ht="19.5">
+    <row r="63" spans="1:240" ht="19.5">
       <c r="A63" s="55"/>
       <c r="B63" s="87"/>
       <c r="C63" s="88"/>
@@ -16477,13 +16425,13 @@
       <c r="Z63" s="12"/>
       <c r="AA63" s="38"/>
       <c r="AB63" s="48" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AC63" s="14" t="s">
         <v>5</v>
       </c>
       <c r="AD63" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AE63" s="12"/>
       <c r="AF63" s="12"/>
@@ -16695,17 +16643,17 @@
       <c r="ID63" s="12"/>
       <c r="IE63" s="12"/>
     </row>
-    <row r="64" spans="1:239" ht="19.5">
+    <row r="64" spans="1:240" ht="19.5">
       <c r="A64" s="55">
         <v>31</v>
       </c>
       <c r="B64" s="87"/>
       <c r="C64" s="88"/>
       <c r="D64" s="55" t="s">
-        <v>73</v>
+        <v>63</v>
       </c>
       <c r="E64" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F64" s="27">
         <v>42823</v>
@@ -16717,7 +16665,7 @@
         <v>1</v>
       </c>
       <c r="I64" s="57" t="s">
-        <v>63</v>
+        <v>53</v>
       </c>
       <c r="J64" s="23"/>
       <c r="K64" s="23"/>
@@ -16741,16 +16689,16 @@
       <c r="AC64" s="14"/>
       <c r="AD64" s="14"/>
       <c r="AE64" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AF64" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AG64" s="12" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AH64" s="41" t="s">
-        <v>59</v>
+        <v>49</v>
       </c>
       <c r="AI64" s="39"/>
       <c r="AJ64" s="40"/>
@@ -16958,7 +16906,7 @@
       <c r="ID64" s="12"/>
       <c r="IE64" s="12"/>
     </row>
-    <row r="65" spans="1:239">
+    <row r="65" spans="1:240">
       <c r="A65" s="55"/>
       <c r="B65" s="87"/>
       <c r="C65" s="88"/>
@@ -16990,16 +16938,16 @@
       <c r="AC65" s="14"/>
       <c r="AD65" s="14"/>
       <c r="AE65" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AF65" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AG65" s="12" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AH65" s="28" t="s">
-        <v>57</v>
+        <v>47</v>
       </c>
       <c r="AI65" s="28"/>
       <c r="AJ65" s="12"/>
@@ -17207,17 +17155,17 @@
       <c r="ID65" s="12"/>
       <c r="IE65" s="12"/>
     </row>
-    <row r="66" spans="1:239">
+    <row r="66" spans="1:240">
       <c r="A66" s="55">
         <v>32</v>
       </c>
       <c r="B66" s="87"/>
       <c r="C66" s="88"/>
       <c r="D66" s="60" t="s">
-        <v>74</v>
+        <v>64</v>
       </c>
       <c r="E66" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F66" s="27">
         <v>42827</v>
@@ -17464,7 +17412,7 @@
       <c r="ID66" s="12"/>
       <c r="IE66" s="12"/>
     </row>
-    <row r="67" spans="1:239">
+    <row r="67" spans="1:240">
       <c r="A67" s="55"/>
       <c r="B67" s="87"/>
       <c r="C67" s="88"/>
@@ -17705,17 +17653,17 @@
       <c r="ID67" s="12"/>
       <c r="IE67" s="12"/>
     </row>
-    <row r="68" spans="1:239">
+    <row r="68" spans="1:240">
       <c r="A68" s="60">
         <v>33</v>
       </c>
       <c r="B68" s="87"/>
       <c r="C68" s="88"/>
       <c r="D68" s="55" t="s">
-        <v>75</v>
+        <v>65</v>
       </c>
       <c r="E68" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F68" s="27">
         <v>42830</v>
@@ -17962,7 +17910,7 @@
       <c r="ID68" s="12"/>
       <c r="IE68" s="12"/>
     </row>
-    <row r="69" spans="1:239">
+    <row r="69" spans="1:240">
       <c r="A69" s="61"/>
       <c r="B69" s="87"/>
       <c r="C69" s="88"/>
@@ -18203,17 +18151,17 @@
       <c r="ID69" s="12"/>
       <c r="IE69" s="12"/>
     </row>
-    <row r="70" spans="1:239">
+    <row r="70" spans="1:240">
       <c r="A70" s="60">
         <v>34</v>
       </c>
       <c r="B70" s="87"/>
       <c r="C70" s="88"/>
       <c r="D70" s="55" t="s">
-        <v>76</v>
+        <v>66</v>
       </c>
       <c r="E70" s="55" t="s">
-        <v>56</v>
+        <v>46</v>
       </c>
       <c r="F70" s="27">
         <v>42833</v>
@@ -18464,7 +18412,7 @@
       <c r="ID70" s="12"/>
       <c r="IE70" s="12"/>
     </row>
-    <row r="71" spans="1:239" ht="12" customHeight="1">
+    <row r="71" spans="1:240" ht="12" customHeight="1">
       <c r="A71" s="61"/>
       <c r="B71" s="89"/>
       <c r="C71" s="90"/>
@@ -18705,10 +18653,10 @@
       <c r="ID71" s="12"/>
       <c r="IE71" s="12"/>
     </row>
-    <row r="72" spans="1:239" ht="12" customHeight="1"/>
-    <row r="73" spans="1:239">
+    <row r="72" spans="1:240" ht="12" customHeight="1"/>
+    <row r="73" spans="1:240">
       <c r="A73" s="59" t="s">
-        <v>77</v>
+        <v>67</v>
       </c>
       <c r="B73" s="59"/>
       <c r="C73" s="59"/>
@@ -18741,7 +18689,7 @@
       <c r="AD73" s="59"/>
       <c r="AE73" s="59"/>
     </row>
-    <row r="74" spans="1:239">
+    <row r="74" spans="1:240">
       <c r="A74" s="59"/>
       <c r="B74" s="59"/>
       <c r="C74" s="59"/>
@@ -18774,6 +18722,57 @@
       <c r="AD74" s="59"/>
       <c r="AE74" s="59"/>
     </row>
+    <row r="75" spans="1:240"/>
+    <row r="76" spans="1:240"/>
+    <row r="77" spans="1:240"/>
+    <row r="78" spans="1:240"/>
+    <row r="79" spans="1:240"/>
+    <row r="80" spans="1:240"/>
+    <row r="91" spans="1:240"/>
+    <row r="92" spans="1:240"/>
+    <row r="93" spans="1:240"/>
+    <row r="94" spans="1:240"/>
+    <row r="95" spans="1:240"/>
+    <row r="96" spans="1:240"/>
+    <row r="97" spans="1:240"/>
+    <row r="98" spans="1:240"/>
+    <row r="99" spans="1:240"/>
+    <row r="100" spans="1:240"/>
+    <row r="101" spans="1:240"/>
+    <row r="102" spans="1:240"/>
+    <row r="103" spans="1:240"/>
+    <row r="104" spans="1:240"/>
+    <row r="105" spans="1:240"/>
+    <row r="106" spans="1:240"/>
+    <row r="107" spans="1:240"/>
+    <row r="108" spans="1:240"/>
+    <row r="109" spans="1:240"/>
+    <row r="110" spans="1:240"/>
+    <row r="111" spans="1:240"/>
+    <row r="112" spans="1:240"/>
+    <row r="113" spans="1:240"/>
+    <row r="114" spans="1:240"/>
+    <row r="115" spans="1:240"/>
+    <row r="116" spans="1:240"/>
+    <row r="117" spans="1:240"/>
+    <row r="118" spans="1:240"/>
+    <row r="119" spans="1:240"/>
+    <row r="120" spans="1:240"/>
+    <row r="121" spans="1:240"/>
+    <row r="122" spans="1:240"/>
+    <row r="123" spans="1:240"/>
+    <row r="124" spans="1:240"/>
+    <row r="125" spans="1:240"/>
+    <row r="126" spans="1:240"/>
+    <row r="127" spans="1:240"/>
+    <row r="128" spans="1:240"/>
+    <row r="129" spans="1:240"/>
+    <row r="130" spans="1:240"/>
+    <row r="131" spans="1:240"/>
+    <row r="132" spans="1:240"/>
+    <row r="133" spans="1:240"/>
+    <row r="134" spans="1:240"/>
+    <row r="135" spans="1:240"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="186">

--- a/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
+++ b/jaegojaego/공정도/조별 프로젝트 공정도(B반6조).xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="4" rupBuild="9302"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="5070" yWindow="1695" windowWidth="23640" windowHeight="8985" tabRatio="516"/>
+    <workbookView xWindow="0" yWindow="2640" windowWidth="23580" windowHeight="5580" tabRatio="516"/>
   </bookViews>
   <sheets>
     <sheet name="B반 6조 상세업무스케줄표" sheetId="7" r:id="rId1"/>
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="71">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="357" uniqueCount="71">
   <si>
     <t>No</t>
   </si>
@@ -993,23 +993,62 @@
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="9" fontId="12" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="9" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
@@ -1017,13 +1056,76 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="9" fontId="12" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -1089,122 +1191,20 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="2" fillId="3" borderId="13" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="18" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="19" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="12" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="13" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="14" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="10" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="24" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="25" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="26" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="9" fontId="12" fillId="12" borderId="26" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="15" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="16" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="11" borderId="16" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="12" borderId="28" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -1580,8 +1580,8 @@
   </sheetPr>
   <dimension ref="A1:IF135"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A64" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D87" sqref="D87"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:AN2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12"/>
@@ -1605,226 +1605,226 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:239" ht="31.5" customHeight="1">
-      <c r="A1" s="62" t="s">
+      <c r="A1" s="96" t="s">
         <v>6</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
-      <c r="D1" s="63"/>
-      <c r="E1" s="63"/>
-      <c r="F1" s="63"/>
-      <c r="G1" s="63"/>
-      <c r="H1" s="63"/>
-      <c r="I1" s="63"/>
-      <c r="J1" s="63"/>
-      <c r="K1" s="63"/>
-      <c r="L1" s="63"/>
-      <c r="M1" s="63"/>
-      <c r="N1" s="63"/>
-      <c r="O1" s="63"/>
-      <c r="P1" s="63"/>
-      <c r="Q1" s="63"/>
-      <c r="R1" s="63"/>
-      <c r="S1" s="63"/>
-      <c r="T1" s="63"/>
-      <c r="U1" s="63"/>
-      <c r="V1" s="63"/>
-      <c r="W1" s="63"/>
-      <c r="X1" s="63"/>
-      <c r="Y1" s="63"/>
-      <c r="Z1" s="63"/>
-      <c r="AA1" s="63"/>
-      <c r="AB1" s="63"/>
-      <c r="AC1" s="63"/>
-      <c r="AD1" s="63"/>
-      <c r="AE1" s="63"/>
-      <c r="AF1" s="63"/>
-      <c r="AG1" s="63"/>
-      <c r="AH1" s="63"/>
-      <c r="AI1" s="63"/>
-      <c r="AJ1" s="63"/>
-      <c r="AK1" s="63"/>
-      <c r="AL1" s="63"/>
-      <c r="AM1" s="63"/>
-      <c r="AN1" s="63"/>
+      <c r="B1" s="97"/>
+      <c r="C1" s="97"/>
+      <c r="D1" s="97"/>
+      <c r="E1" s="97"/>
+      <c r="F1" s="97"/>
+      <c r="G1" s="97"/>
+      <c r="H1" s="97"/>
+      <c r="I1" s="97"/>
+      <c r="J1" s="97"/>
+      <c r="K1" s="97"/>
+      <c r="L1" s="97"/>
+      <c r="M1" s="97"/>
+      <c r="N1" s="97"/>
+      <c r="O1" s="97"/>
+      <c r="P1" s="97"/>
+      <c r="Q1" s="97"/>
+      <c r="R1" s="97"/>
+      <c r="S1" s="97"/>
+      <c r="T1" s="97"/>
+      <c r="U1" s="97"/>
+      <c r="V1" s="97"/>
+      <c r="W1" s="97"/>
+      <c r="X1" s="97"/>
+      <c r="Y1" s="97"/>
+      <c r="Z1" s="97"/>
+      <c r="AA1" s="97"/>
+      <c r="AB1" s="97"/>
+      <c r="AC1" s="97"/>
+      <c r="AD1" s="97"/>
+      <c r="AE1" s="97"/>
+      <c r="AF1" s="97"/>
+      <c r="AG1" s="97"/>
+      <c r="AH1" s="97"/>
+      <c r="AI1" s="97"/>
+      <c r="AJ1" s="97"/>
+      <c r="AK1" s="97"/>
+      <c r="AL1" s="97"/>
+      <c r="AM1" s="97"/>
+      <c r="AN1" s="97"/>
     </row>
     <row r="2" spans="1:239" ht="28.35" customHeight="1">
-      <c r="A2" s="62"/>
-      <c r="B2" s="63"/>
-      <c r="C2" s="63"/>
-      <c r="D2" s="63"/>
-      <c r="E2" s="63"/>
-      <c r="F2" s="63"/>
-      <c r="G2" s="63"/>
-      <c r="H2" s="63"/>
-      <c r="I2" s="63"/>
-      <c r="J2" s="63"/>
-      <c r="K2" s="63"/>
-      <c r="L2" s="63"/>
-      <c r="M2" s="63"/>
-      <c r="N2" s="63"/>
-      <c r="O2" s="63"/>
-      <c r="P2" s="63"/>
-      <c r="Q2" s="63"/>
-      <c r="R2" s="63"/>
-      <c r="S2" s="63"/>
-      <c r="T2" s="63"/>
-      <c r="U2" s="63"/>
-      <c r="V2" s="63"/>
-      <c r="W2" s="63"/>
-      <c r="X2" s="63"/>
-      <c r="Y2" s="63"/>
-      <c r="Z2" s="63"/>
-      <c r="AA2" s="63"/>
-      <c r="AB2" s="63"/>
-      <c r="AC2" s="63"/>
-      <c r="AD2" s="63"/>
-      <c r="AE2" s="63"/>
-      <c r="AF2" s="63"/>
-      <c r="AG2" s="63"/>
-      <c r="AH2" s="63"/>
-      <c r="AI2" s="63"/>
-      <c r="AJ2" s="63"/>
-      <c r="AK2" s="63"/>
-      <c r="AL2" s="63"/>
-      <c r="AM2" s="63"/>
-      <c r="AN2" s="63"/>
+      <c r="A2" s="96"/>
+      <c r="B2" s="97"/>
+      <c r="C2" s="97"/>
+      <c r="D2" s="97"/>
+      <c r="E2" s="97"/>
+      <c r="F2" s="97"/>
+      <c r="G2" s="97"/>
+      <c r="H2" s="97"/>
+      <c r="I2" s="97"/>
+      <c r="J2" s="97"/>
+      <c r="K2" s="97"/>
+      <c r="L2" s="97"/>
+      <c r="M2" s="97"/>
+      <c r="N2" s="97"/>
+      <c r="O2" s="97"/>
+      <c r="P2" s="97"/>
+      <c r="Q2" s="97"/>
+      <c r="R2" s="97"/>
+      <c r="S2" s="97"/>
+      <c r="T2" s="97"/>
+      <c r="U2" s="97"/>
+      <c r="V2" s="97"/>
+      <c r="W2" s="97"/>
+      <c r="X2" s="97"/>
+      <c r="Y2" s="97"/>
+      <c r="Z2" s="97"/>
+      <c r="AA2" s="97"/>
+      <c r="AB2" s="97"/>
+      <c r="AC2" s="97"/>
+      <c r="AD2" s="97"/>
+      <c r="AE2" s="97"/>
+      <c r="AF2" s="97"/>
+      <c r="AG2" s="97"/>
+      <c r="AH2" s="97"/>
+      <c r="AI2" s="97"/>
+      <c r="AJ2" s="97"/>
+      <c r="AK2" s="97"/>
+      <c r="AL2" s="97"/>
+      <c r="AM2" s="97"/>
+      <c r="AN2" s="97"/>
       <c r="HS2" s="2" t="s">
         <v>4</v>
       </c>
     </row>
     <row r="3" spans="1:239" ht="33.75" customHeight="1">
-      <c r="A3" s="64" t="s">
+      <c r="A3" s="98" t="s">
         <v>7</v>
       </c>
-      <c r="B3" s="64"/>
-      <c r="C3" s="64"/>
-      <c r="D3" s="64"/>
-      <c r="E3" s="64"/>
-      <c r="F3" s="64"/>
-      <c r="G3" s="68" t="s">
+      <c r="B3" s="98"/>
+      <c r="C3" s="98"/>
+      <c r="D3" s="98"/>
+      <c r="E3" s="98"/>
+      <c r="F3" s="98"/>
+      <c r="G3" s="102" t="s">
         <v>8</v>
       </c>
-      <c r="H3" s="69"/>
-      <c r="I3" s="70" t="s">
+      <c r="H3" s="103"/>
+      <c r="I3" s="104" t="s">
         <v>9</v>
       </c>
-      <c r="J3" s="71"/>
-      <c r="K3" s="71"/>
-      <c r="L3" s="71"/>
-      <c r="M3" s="71"/>
-      <c r="N3" s="71"/>
-      <c r="O3" s="71"/>
-      <c r="P3" s="71"/>
-      <c r="Q3" s="64" t="s">
+      <c r="J3" s="105"/>
+      <c r="K3" s="105"/>
+      <c r="L3" s="105"/>
+      <c r="M3" s="105"/>
+      <c r="N3" s="105"/>
+      <c r="O3" s="105"/>
+      <c r="P3" s="105"/>
+      <c r="Q3" s="98" t="s">
         <v>10</v>
       </c>
-      <c r="R3" s="64"/>
-      <c r="S3" s="64"/>
-      <c r="T3" s="64"/>
-      <c r="U3" s="64"/>
-      <c r="V3" s="64"/>
-      <c r="W3" s="64"/>
-      <c r="X3" s="64"/>
-      <c r="Y3" s="64"/>
-      <c r="Z3" s="64"/>
-      <c r="AA3" s="64"/>
-      <c r="AB3" s="64"/>
-      <c r="AC3" s="64"/>
-      <c r="AD3" s="64"/>
-      <c r="AE3" s="64"/>
-      <c r="AF3" s="64"/>
-      <c r="AG3" s="64"/>
-      <c r="AH3" s="64"/>
-      <c r="AI3" s="64"/>
-      <c r="AJ3" s="64"/>
-      <c r="AK3" s="64"/>
-      <c r="AL3" s="64"/>
-      <c r="AM3" s="64"/>
-      <c r="AN3" s="64"/>
+      <c r="R3" s="98"/>
+      <c r="S3" s="98"/>
+      <c r="T3" s="98"/>
+      <c r="U3" s="98"/>
+      <c r="V3" s="98"/>
+      <c r="W3" s="98"/>
+      <c r="X3" s="98"/>
+      <c r="Y3" s="98"/>
+      <c r="Z3" s="98"/>
+      <c r="AA3" s="98"/>
+      <c r="AB3" s="98"/>
+      <c r="AC3" s="98"/>
+      <c r="AD3" s="98"/>
+      <c r="AE3" s="98"/>
+      <c r="AF3" s="98"/>
+      <c r="AG3" s="98"/>
+      <c r="AH3" s="98"/>
+      <c r="AI3" s="98"/>
+      <c r="AJ3" s="98"/>
+      <c r="AK3" s="98"/>
+      <c r="AL3" s="98"/>
+      <c r="AM3" s="98"/>
+      <c r="AN3" s="98"/>
     </row>
     <row r="4" spans="1:239" ht="21.2" customHeight="1">
-      <c r="A4" s="72" t="s">
+      <c r="A4" s="106" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="72"/>
-      <c r="C4" s="72"/>
-      <c r="D4" s="72"/>
-      <c r="E4" s="72"/>
-      <c r="F4" s="72"/>
-      <c r="G4" s="73" t="s">
+      <c r="B4" s="106"/>
+      <c r="C4" s="106"/>
+      <c r="D4" s="106"/>
+      <c r="E4" s="106"/>
+      <c r="F4" s="106"/>
+      <c r="G4" s="107" t="s">
         <v>12</v>
       </c>
-      <c r="H4" s="74"/>
-      <c r="I4" s="75" t="s">
+      <c r="H4" s="108"/>
+      <c r="I4" s="109" t="s">
         <v>13</v>
       </c>
-      <c r="J4" s="76"/>
-      <c r="K4" s="76"/>
-      <c r="L4" s="76"/>
-      <c r="M4" s="76"/>
-      <c r="N4" s="76"/>
-      <c r="O4" s="76"/>
-      <c r="P4" s="77"/>
-      <c r="Q4" s="65" t="s">
+      <c r="J4" s="110"/>
+      <c r="K4" s="110"/>
+      <c r="L4" s="110"/>
+      <c r="M4" s="110"/>
+      <c r="N4" s="110"/>
+      <c r="O4" s="110"/>
+      <c r="P4" s="111"/>
+      <c r="Q4" s="99" t="s">
         <v>14</v>
       </c>
-      <c r="R4" s="66"/>
-      <c r="S4" s="66"/>
-      <c r="T4" s="66"/>
-      <c r="U4" s="66"/>
-      <c r="V4" s="66"/>
-      <c r="W4" s="66"/>
-      <c r="X4" s="66"/>
-      <c r="Y4" s="66"/>
-      <c r="Z4" s="66"/>
-      <c r="AA4" s="66"/>
-      <c r="AB4" s="66"/>
-      <c r="AC4" s="66"/>
-      <c r="AD4" s="66"/>
-      <c r="AE4" s="66"/>
-      <c r="AF4" s="66"/>
-      <c r="AG4" s="66"/>
-      <c r="AH4" s="66"/>
-      <c r="AI4" s="66"/>
-      <c r="AJ4" s="66"/>
-      <c r="AK4" s="66"/>
-      <c r="AL4" s="66"/>
-      <c r="AM4" s="66"/>
-      <c r="AN4" s="67"/>
+      <c r="R4" s="100"/>
+      <c r="S4" s="100"/>
+      <c r="T4" s="100"/>
+      <c r="U4" s="100"/>
+      <c r="V4" s="100"/>
+      <c r="W4" s="100"/>
+      <c r="X4" s="100"/>
+      <c r="Y4" s="100"/>
+      <c r="Z4" s="100"/>
+      <c r="AA4" s="100"/>
+      <c r="AB4" s="100"/>
+      <c r="AC4" s="100"/>
+      <c r="AD4" s="100"/>
+      <c r="AE4" s="100"/>
+      <c r="AF4" s="100"/>
+      <c r="AG4" s="100"/>
+      <c r="AH4" s="100"/>
+      <c r="AI4" s="100"/>
+      <c r="AJ4" s="100"/>
+      <c r="AK4" s="100"/>
+      <c r="AL4" s="100"/>
+      <c r="AM4" s="100"/>
+      <c r="AN4" s="101"/>
     </row>
     <row r="5" spans="1:239" ht="15" customHeight="1">
-      <c r="A5" s="81"/>
-      <c r="B5" s="81"/>
-      <c r="C5" s="81"/>
-      <c r="D5" s="81"/>
-      <c r="E5" s="81"/>
-      <c r="F5" s="81"/>
-      <c r="G5" s="81"/>
-      <c r="H5" s="81"/>
-      <c r="I5" s="81"/>
-      <c r="J5" s="82"/>
-      <c r="K5" s="82"/>
-      <c r="L5" s="82"/>
-      <c r="M5" s="82"/>
-      <c r="N5" s="82"/>
-      <c r="O5" s="82"/>
-      <c r="P5" s="82"/>
-      <c r="Q5" s="82"/>
-      <c r="R5" s="82"/>
-      <c r="S5" s="82"/>
-      <c r="T5" s="82"/>
-      <c r="U5" s="82"/>
-      <c r="V5" s="82"/>
-      <c r="W5" s="82"/>
-      <c r="X5" s="82"/>
-      <c r="Y5" s="82"/>
-      <c r="Z5" s="82"/>
-      <c r="AA5" s="82"/>
-      <c r="AB5" s="82"/>
-      <c r="AC5" s="82"/>
-      <c r="AD5" s="82"/>
-      <c r="AE5" s="82"/>
+      <c r="A5" s="115"/>
+      <c r="B5" s="115"/>
+      <c r="C5" s="115"/>
+      <c r="D5" s="115"/>
+      <c r="E5" s="115"/>
+      <c r="F5" s="115"/>
+      <c r="G5" s="115"/>
+      <c r="H5" s="115"/>
+      <c r="I5" s="115"/>
+      <c r="J5" s="116"/>
+      <c r="K5" s="116"/>
+      <c r="L5" s="116"/>
+      <c r="M5" s="116"/>
+      <c r="N5" s="116"/>
+      <c r="O5" s="116"/>
+      <c r="P5" s="116"/>
+      <c r="Q5" s="116"/>
+      <c r="R5" s="116"/>
+      <c r="S5" s="116"/>
+      <c r="T5" s="116"/>
+      <c r="U5" s="116"/>
+      <c r="V5" s="116"/>
+      <c r="W5" s="116"/>
+      <c r="X5" s="116"/>
+      <c r="Y5" s="116"/>
+      <c r="Z5" s="116"/>
+      <c r="AA5" s="116"/>
+      <c r="AB5" s="116"/>
+      <c r="AC5" s="116"/>
+      <c r="AD5" s="116"/>
+      <c r="AE5" s="116"/>
       <c r="AF5" s="8"/>
       <c r="AG5" s="8"/>
       <c r="AH5" s="8"/>
@@ -1836,17 +1836,17 @@
       <c r="AN5" s="8"/>
     </row>
     <row r="6" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A6" s="51" t="s">
+      <c r="A6" s="117" t="s">
         <v>0</v>
       </c>
-      <c r="B6" s="51" t="s">
+      <c r="B6" s="117" t="s">
         <v>15</v>
       </c>
-      <c r="C6" s="51"/>
-      <c r="D6" s="51" t="s">
+      <c r="C6" s="117"/>
+      <c r="D6" s="117" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="51" t="s">
+      <c r="E6" s="117" t="s">
         <v>17</v>
       </c>
       <c r="F6" s="10" t="s">
@@ -1855,261 +1855,261 @@
       <c r="G6" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="H6" s="51" t="s">
+      <c r="H6" s="117" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="51" t="s">
+      <c r="I6" s="117" t="s">
         <v>19</v>
       </c>
-      <c r="J6" s="78" t="s">
+      <c r="J6" s="112" t="s">
         <v>20</v>
       </c>
-      <c r="K6" s="79"/>
-      <c r="L6" s="79"/>
-      <c r="M6" s="79"/>
-      <c r="N6" s="79"/>
-      <c r="O6" s="79"/>
-      <c r="P6" s="79"/>
-      <c r="Q6" s="79"/>
-      <c r="R6" s="79"/>
-      <c r="S6" s="79"/>
-      <c r="T6" s="79"/>
-      <c r="U6" s="79"/>
-      <c r="V6" s="79"/>
-      <c r="W6" s="79"/>
-      <c r="X6" s="79"/>
-      <c r="Y6" s="79"/>
-      <c r="Z6" s="79"/>
-      <c r="AA6" s="79"/>
-      <c r="AB6" s="79"/>
-      <c r="AC6" s="79"/>
-      <c r="AD6" s="79"/>
-      <c r="AE6" s="79"/>
-      <c r="AF6" s="79"/>
-      <c r="AG6" s="80"/>
-      <c r="AH6" s="52" t="s">
+      <c r="K6" s="113"/>
+      <c r="L6" s="113"/>
+      <c r="M6" s="113"/>
+      <c r="N6" s="113"/>
+      <c r="O6" s="113"/>
+      <c r="P6" s="113"/>
+      <c r="Q6" s="113"/>
+      <c r="R6" s="113"/>
+      <c r="S6" s="113"/>
+      <c r="T6" s="113"/>
+      <c r="U6" s="113"/>
+      <c r="V6" s="113"/>
+      <c r="W6" s="113"/>
+      <c r="X6" s="113"/>
+      <c r="Y6" s="113"/>
+      <c r="Z6" s="113"/>
+      <c r="AA6" s="113"/>
+      <c r="AB6" s="113"/>
+      <c r="AC6" s="113"/>
+      <c r="AD6" s="113"/>
+      <c r="AE6" s="113"/>
+      <c r="AF6" s="113"/>
+      <c r="AG6" s="114"/>
+      <c r="AH6" s="118" t="s">
         <v>21</v>
       </c>
-      <c r="AI6" s="53"/>
-      <c r="AJ6" s="53"/>
-      <c r="AK6" s="53"/>
-      <c r="AL6" s="53"/>
-      <c r="AM6" s="53"/>
-      <c r="AN6" s="53"/>
-      <c r="AO6" s="53"/>
-      <c r="AP6" s="53"/>
-      <c r="AQ6" s="53"/>
-      <c r="AR6" s="53"/>
-      <c r="AS6" s="53"/>
-      <c r="AT6" s="53"/>
-      <c r="AU6" s="53"/>
-      <c r="AV6" s="53"/>
-      <c r="AW6" s="53"/>
-      <c r="AX6" s="53"/>
-      <c r="AY6" s="53"/>
-      <c r="AZ6" s="53"/>
-      <c r="BA6" s="53"/>
-      <c r="BB6" s="53"/>
-      <c r="BC6" s="53"/>
-      <c r="BD6" s="53"/>
-      <c r="BE6" s="53"/>
-      <c r="BF6" s="53"/>
-      <c r="BG6" s="53"/>
-      <c r="BH6" s="53"/>
-      <c r="BI6" s="53"/>
-      <c r="BJ6" s="53"/>
-      <c r="BK6" s="53"/>
-      <c r="BL6" s="53"/>
-      <c r="BM6" s="53"/>
-      <c r="BN6" s="53"/>
-      <c r="BO6" s="53"/>
-      <c r="BP6" s="53"/>
-      <c r="BQ6" s="53"/>
-      <c r="BR6" s="53"/>
-      <c r="BS6" s="53"/>
-      <c r="BT6" s="53"/>
-      <c r="BU6" s="53"/>
-      <c r="BV6" s="53"/>
-      <c r="BW6" s="53"/>
-      <c r="BX6" s="53"/>
-      <c r="BY6" s="53"/>
-      <c r="BZ6" s="53"/>
-      <c r="CA6" s="53"/>
-      <c r="CB6" s="53"/>
-      <c r="CC6" s="53"/>
-      <c r="CD6" s="53"/>
-      <c r="CE6" s="53"/>
-      <c r="CF6" s="53"/>
-      <c r="CG6" s="53"/>
-      <c r="CH6" s="53"/>
-      <c r="CI6" s="53"/>
-      <c r="CJ6" s="53"/>
-      <c r="CK6" s="53"/>
-      <c r="CL6" s="53"/>
-      <c r="CM6" s="53"/>
-      <c r="CN6" s="53"/>
-      <c r="CO6" s="53"/>
-      <c r="CP6" s="53"/>
-      <c r="CQ6" s="53"/>
-      <c r="CR6" s="53"/>
-      <c r="CS6" s="53"/>
-      <c r="CT6" s="53"/>
-      <c r="CU6" s="53"/>
-      <c r="CV6" s="53"/>
-      <c r="CW6" s="53"/>
-      <c r="CX6" s="53"/>
-      <c r="CY6" s="53"/>
-      <c r="CZ6" s="53"/>
-      <c r="DA6" s="53"/>
-      <c r="DB6" s="53"/>
-      <c r="DC6" s="53"/>
-      <c r="DD6" s="53"/>
-      <c r="DE6" s="53"/>
-      <c r="DF6" s="53"/>
-      <c r="DG6" s="53"/>
-      <c r="DH6" s="53"/>
-      <c r="DI6" s="53"/>
-      <c r="DJ6" s="53"/>
-      <c r="DK6" s="53"/>
-      <c r="DL6" s="53"/>
-      <c r="DM6" s="53"/>
-      <c r="DN6" s="53"/>
-      <c r="DO6" s="53"/>
-      <c r="DP6" s="53"/>
-      <c r="DQ6" s="53"/>
-      <c r="DR6" s="53"/>
-      <c r="DS6" s="53"/>
-      <c r="DT6" s="53"/>
-      <c r="DU6" s="53"/>
-      <c r="DV6" s="53"/>
-      <c r="DW6" s="53"/>
-      <c r="DX6" s="53"/>
-      <c r="DY6" s="53"/>
-      <c r="DZ6" s="53"/>
-      <c r="EA6" s="53"/>
-      <c r="EB6" s="53"/>
-      <c r="EC6" s="53"/>
-      <c r="ED6" s="53"/>
-      <c r="EE6" s="53"/>
-      <c r="EF6" s="53"/>
-      <c r="EG6" s="53"/>
-      <c r="EH6" s="53"/>
-      <c r="EI6" s="53"/>
-      <c r="EJ6" s="53"/>
-      <c r="EK6" s="53"/>
-      <c r="EL6" s="53"/>
-      <c r="EM6" s="53"/>
-      <c r="EN6" s="53"/>
-      <c r="EO6" s="53"/>
-      <c r="EP6" s="53"/>
-      <c r="EQ6" s="53"/>
-      <c r="ER6" s="53"/>
-      <c r="ES6" s="53"/>
-      <c r="ET6" s="53"/>
-      <c r="EU6" s="53"/>
-      <c r="EV6" s="53"/>
-      <c r="EW6" s="53"/>
-      <c r="EX6" s="53"/>
-      <c r="EY6" s="53"/>
-      <c r="EZ6" s="53"/>
-      <c r="FA6" s="53"/>
-      <c r="FB6" s="53"/>
-      <c r="FC6" s="53"/>
-      <c r="FD6" s="53"/>
-      <c r="FE6" s="53"/>
-      <c r="FF6" s="53"/>
-      <c r="FG6" s="53"/>
-      <c r="FH6" s="53"/>
-      <c r="FI6" s="53"/>
-      <c r="FJ6" s="53"/>
-      <c r="FK6" s="53"/>
-      <c r="FL6" s="53"/>
-      <c r="FM6" s="53"/>
-      <c r="FN6" s="53"/>
-      <c r="FO6" s="53"/>
-      <c r="FP6" s="53"/>
-      <c r="FQ6" s="53"/>
-      <c r="FR6" s="53"/>
-      <c r="FS6" s="53"/>
-      <c r="FT6" s="53"/>
-      <c r="FU6" s="53"/>
-      <c r="FV6" s="53"/>
-      <c r="FW6" s="53"/>
-      <c r="FX6" s="53"/>
-      <c r="FY6" s="53"/>
-      <c r="FZ6" s="53"/>
-      <c r="GA6" s="53"/>
-      <c r="GB6" s="53"/>
-      <c r="GC6" s="53"/>
-      <c r="GD6" s="53"/>
-      <c r="GE6" s="53"/>
-      <c r="GF6" s="53"/>
-      <c r="GG6" s="53"/>
-      <c r="GH6" s="53"/>
-      <c r="GI6" s="53"/>
-      <c r="GJ6" s="53"/>
-      <c r="GK6" s="53"/>
-      <c r="GL6" s="53"/>
-      <c r="GM6" s="53"/>
-      <c r="GN6" s="53"/>
-      <c r="GO6" s="53"/>
-      <c r="GP6" s="53"/>
-      <c r="GQ6" s="53"/>
-      <c r="GR6" s="53"/>
-      <c r="GS6" s="53"/>
-      <c r="GT6" s="53"/>
-      <c r="GU6" s="53"/>
-      <c r="GV6" s="53"/>
-      <c r="GW6" s="53"/>
-      <c r="GX6" s="53"/>
-      <c r="GY6" s="53"/>
-      <c r="GZ6" s="53"/>
-      <c r="HA6" s="53"/>
-      <c r="HB6" s="53"/>
-      <c r="HC6" s="53"/>
-      <c r="HD6" s="53"/>
-      <c r="HE6" s="53"/>
-      <c r="HF6" s="53"/>
-      <c r="HG6" s="53"/>
-      <c r="HH6" s="53"/>
-      <c r="HI6" s="53"/>
-      <c r="HJ6" s="53"/>
-      <c r="HK6" s="53"/>
-      <c r="HL6" s="53"/>
-      <c r="HM6" s="53"/>
-      <c r="HN6" s="53"/>
-      <c r="HO6" s="53"/>
-      <c r="HP6" s="53"/>
-      <c r="HQ6" s="53"/>
-      <c r="HR6" s="53"/>
-      <c r="HS6" s="53"/>
-      <c r="HT6" s="53"/>
-      <c r="HU6" s="53"/>
-      <c r="HV6" s="53"/>
-      <c r="HW6" s="53"/>
-      <c r="HX6" s="53"/>
-      <c r="HY6" s="53"/>
-      <c r="HZ6" s="53"/>
-      <c r="IA6" s="53"/>
-      <c r="IB6" s="53"/>
-      <c r="IC6" s="53"/>
-      <c r="ID6" s="53"/>
-      <c r="IE6" s="54"/>
+      <c r="AI6" s="119"/>
+      <c r="AJ6" s="119"/>
+      <c r="AK6" s="119"/>
+      <c r="AL6" s="119"/>
+      <c r="AM6" s="119"/>
+      <c r="AN6" s="119"/>
+      <c r="AO6" s="119"/>
+      <c r="AP6" s="119"/>
+      <c r="AQ6" s="119"/>
+      <c r="AR6" s="119"/>
+      <c r="AS6" s="119"/>
+      <c r="AT6" s="119"/>
+      <c r="AU6" s="119"/>
+      <c r="AV6" s="119"/>
+      <c r="AW6" s="119"/>
+      <c r="AX6" s="119"/>
+      <c r="AY6" s="119"/>
+      <c r="AZ6" s="119"/>
+      <c r="BA6" s="119"/>
+      <c r="BB6" s="119"/>
+      <c r="BC6" s="119"/>
+      <c r="BD6" s="119"/>
+      <c r="BE6" s="119"/>
+      <c r="BF6" s="119"/>
+      <c r="BG6" s="119"/>
+      <c r="BH6" s="119"/>
+      <c r="BI6" s="119"/>
+      <c r="BJ6" s="119"/>
+      <c r="BK6" s="119"/>
+      <c r="BL6" s="119"/>
+      <c r="BM6" s="119"/>
+      <c r="BN6" s="119"/>
+      <c r="BO6" s="119"/>
+      <c r="BP6" s="119"/>
+      <c r="BQ6" s="119"/>
+      <c r="BR6" s="119"/>
+      <c r="BS6" s="119"/>
+      <c r="BT6" s="119"/>
+      <c r="BU6" s="119"/>
+      <c r="BV6" s="119"/>
+      <c r="BW6" s="119"/>
+      <c r="BX6" s="119"/>
+      <c r="BY6" s="119"/>
+      <c r="BZ6" s="119"/>
+      <c r="CA6" s="119"/>
+      <c r="CB6" s="119"/>
+      <c r="CC6" s="119"/>
+      <c r="CD6" s="119"/>
+      <c r="CE6" s="119"/>
+      <c r="CF6" s="119"/>
+      <c r="CG6" s="119"/>
+      <c r="CH6" s="119"/>
+      <c r="CI6" s="119"/>
+      <c r="CJ6" s="119"/>
+      <c r="CK6" s="119"/>
+      <c r="CL6" s="119"/>
+      <c r="CM6" s="119"/>
+      <c r="CN6" s="119"/>
+      <c r="CO6" s="119"/>
+      <c r="CP6" s="119"/>
+      <c r="CQ6" s="119"/>
+      <c r="CR6" s="119"/>
+      <c r="CS6" s="119"/>
+      <c r="CT6" s="119"/>
+      <c r="CU6" s="119"/>
+      <c r="CV6" s="119"/>
+      <c r="CW6" s="119"/>
+      <c r="CX6" s="119"/>
+      <c r="CY6" s="119"/>
+      <c r="CZ6" s="119"/>
+      <c r="DA6" s="119"/>
+      <c r="DB6" s="119"/>
+      <c r="DC6" s="119"/>
+      <c r="DD6" s="119"/>
+      <c r="DE6" s="119"/>
+      <c r="DF6" s="119"/>
+      <c r="DG6" s="119"/>
+      <c r="DH6" s="119"/>
+      <c r="DI6" s="119"/>
+      <c r="DJ6" s="119"/>
+      <c r="DK6" s="119"/>
+      <c r="DL6" s="119"/>
+      <c r="DM6" s="119"/>
+      <c r="DN6" s="119"/>
+      <c r="DO6" s="119"/>
+      <c r="DP6" s="119"/>
+      <c r="DQ6" s="119"/>
+      <c r="DR6" s="119"/>
+      <c r="DS6" s="119"/>
+      <c r="DT6" s="119"/>
+      <c r="DU6" s="119"/>
+      <c r="DV6" s="119"/>
+      <c r="DW6" s="119"/>
+      <c r="DX6" s="119"/>
+      <c r="DY6" s="119"/>
+      <c r="DZ6" s="119"/>
+      <c r="EA6" s="119"/>
+      <c r="EB6" s="119"/>
+      <c r="EC6" s="119"/>
+      <c r="ED6" s="119"/>
+      <c r="EE6" s="119"/>
+      <c r="EF6" s="119"/>
+      <c r="EG6" s="119"/>
+      <c r="EH6" s="119"/>
+      <c r="EI6" s="119"/>
+      <c r="EJ6" s="119"/>
+      <c r="EK6" s="119"/>
+      <c r="EL6" s="119"/>
+      <c r="EM6" s="119"/>
+      <c r="EN6" s="119"/>
+      <c r="EO6" s="119"/>
+      <c r="EP6" s="119"/>
+      <c r="EQ6" s="119"/>
+      <c r="ER6" s="119"/>
+      <c r="ES6" s="119"/>
+      <c r="ET6" s="119"/>
+      <c r="EU6" s="119"/>
+      <c r="EV6" s="119"/>
+      <c r="EW6" s="119"/>
+      <c r="EX6" s="119"/>
+      <c r="EY6" s="119"/>
+      <c r="EZ6" s="119"/>
+      <c r="FA6" s="119"/>
+      <c r="FB6" s="119"/>
+      <c r="FC6" s="119"/>
+      <c r="FD6" s="119"/>
+      <c r="FE6" s="119"/>
+      <c r="FF6" s="119"/>
+      <c r="FG6" s="119"/>
+      <c r="FH6" s="119"/>
+      <c r="FI6" s="119"/>
+      <c r="FJ6" s="119"/>
+      <c r="FK6" s="119"/>
+      <c r="FL6" s="119"/>
+      <c r="FM6" s="119"/>
+      <c r="FN6" s="119"/>
+      <c r="FO6" s="119"/>
+      <c r="FP6" s="119"/>
+      <c r="FQ6" s="119"/>
+      <c r="FR6" s="119"/>
+      <c r="FS6" s="119"/>
+      <c r="FT6" s="119"/>
+      <c r="FU6" s="119"/>
+      <c r="FV6" s="119"/>
+      <c r="FW6" s="119"/>
+      <c r="FX6" s="119"/>
+      <c r="FY6" s="119"/>
+      <c r="FZ6" s="119"/>
+      <c r="GA6" s="119"/>
+      <c r="GB6" s="119"/>
+      <c r="GC6" s="119"/>
+      <c r="GD6" s="119"/>
+      <c r="GE6" s="119"/>
+      <c r="GF6" s="119"/>
+      <c r="GG6" s="119"/>
+      <c r="GH6" s="119"/>
+      <c r="GI6" s="119"/>
+      <c r="GJ6" s="119"/>
+      <c r="GK6" s="119"/>
+      <c r="GL6" s="119"/>
+      <c r="GM6" s="119"/>
+      <c r="GN6" s="119"/>
+      <c r="GO6" s="119"/>
+      <c r="GP6" s="119"/>
+      <c r="GQ6" s="119"/>
+      <c r="GR6" s="119"/>
+      <c r="GS6" s="119"/>
+      <c r="GT6" s="119"/>
+      <c r="GU6" s="119"/>
+      <c r="GV6" s="119"/>
+      <c r="GW6" s="119"/>
+      <c r="GX6" s="119"/>
+      <c r="GY6" s="119"/>
+      <c r="GZ6" s="119"/>
+      <c r="HA6" s="119"/>
+      <c r="HB6" s="119"/>
+      <c r="HC6" s="119"/>
+      <c r="HD6" s="119"/>
+      <c r="HE6" s="119"/>
+      <c r="HF6" s="119"/>
+      <c r="HG6" s="119"/>
+      <c r="HH6" s="119"/>
+      <c r="HI6" s="119"/>
+      <c r="HJ6" s="119"/>
+      <c r="HK6" s="119"/>
+      <c r="HL6" s="119"/>
+      <c r="HM6" s="119"/>
+      <c r="HN6" s="119"/>
+      <c r="HO6" s="119"/>
+      <c r="HP6" s="119"/>
+      <c r="HQ6" s="119"/>
+      <c r="HR6" s="119"/>
+      <c r="HS6" s="119"/>
+      <c r="HT6" s="119"/>
+      <c r="HU6" s="119"/>
+      <c r="HV6" s="119"/>
+      <c r="HW6" s="119"/>
+      <c r="HX6" s="119"/>
+      <c r="HY6" s="119"/>
+      <c r="HZ6" s="119"/>
+      <c r="IA6" s="119"/>
+      <c r="IB6" s="119"/>
+      <c r="IC6" s="119"/>
+      <c r="ID6" s="119"/>
+      <c r="IE6" s="120"/>
     </row>
     <row r="7" spans="1:239" s="3" customFormat="1" ht="14.1" customHeight="1">
-      <c r="A7" s="51"/>
-      <c r="B7" s="51"/>
-      <c r="C7" s="51"/>
-      <c r="D7" s="51"/>
-      <c r="E7" s="51"/>
+      <c r="A7" s="117"/>
+      <c r="B7" s="117"/>
+      <c r="C7" s="117"/>
+      <c r="D7" s="117"/>
+      <c r="E7" s="117"/>
       <c r="F7" s="10" t="s">
         <v>22</v>
       </c>
       <c r="G7" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="H7" s="51"/>
-      <c r="I7" s="51"/>
+      <c r="H7" s="117"/>
+      <c r="I7" s="117"/>
       <c r="J7" s="50">
         <v>8</v>
       </c>
@@ -2277,17 +2277,17 @@
       </c>
     </row>
     <row r="8" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A8" s="55">
+      <c r="A8" s="72">
         <v>1</v>
       </c>
-      <c r="B8" s="85" t="s">
+      <c r="B8" s="77" t="s">
         <v>26</v>
       </c>
-      <c r="C8" s="86"/>
-      <c r="D8" s="55" t="s">
+      <c r="C8" s="78"/>
+      <c r="D8" s="72" t="s">
         <v>27</v>
       </c>
-      <c r="E8" s="55" t="s">
+      <c r="E8" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F8" s="27">
@@ -2296,10 +2296,10 @@
       <c r="G8" s="27">
         <v>42809</v>
       </c>
-      <c r="H8" s="57">
+      <c r="H8" s="70">
         <v>1</v>
       </c>
-      <c r="I8" s="57" t="s">
+      <c r="I8" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J8" s="12" t="s">
@@ -2550,19 +2550,19 @@
       <c r="IE8" s="11"/>
     </row>
     <row r="9" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A9" s="55"/>
-      <c r="B9" s="87"/>
-      <c r="C9" s="88"/>
-      <c r="D9" s="55"/>
-      <c r="E9" s="55"/>
+      <c r="A9" s="72"/>
+      <c r="B9" s="79"/>
+      <c r="C9" s="80"/>
+      <c r="D9" s="72"/>
+      <c r="E9" s="72"/>
       <c r="F9" s="27">
         <v>42802</v>
       </c>
       <c r="G9" s="27">
         <v>42809</v>
       </c>
-      <c r="H9" s="57"/>
-      <c r="I9" s="58"/>
+      <c r="H9" s="70"/>
+      <c r="I9" s="71"/>
       <c r="J9" s="12" t="s">
         <v>31</v>
       </c>
@@ -2809,15 +2809,15 @@
       <c r="IE9" s="11"/>
     </row>
     <row r="10" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A10" s="55">
+      <c r="A10" s="72">
         <v>2</v>
       </c>
-      <c r="B10" s="87"/>
-      <c r="C10" s="88"/>
-      <c r="D10" s="55" t="s">
+      <c r="B10" s="79"/>
+      <c r="C10" s="80"/>
+      <c r="D10" s="72" t="s">
         <v>32</v>
       </c>
-      <c r="E10" s="55" t="s">
+      <c r="E10" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F10" s="27">
@@ -2826,10 +2826,10 @@
       <c r="G10" s="27">
         <v>42807</v>
       </c>
-      <c r="H10" s="57">
+      <c r="H10" s="70">
         <v>1</v>
       </c>
-      <c r="I10" s="57" t="s">
+      <c r="I10" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J10" s="22"/>
@@ -3072,19 +3072,19 @@
       <c r="IE10" s="11"/>
     </row>
     <row r="11" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A11" s="55"/>
-      <c r="B11" s="87"/>
-      <c r="C11" s="88"/>
-      <c r="D11" s="55"/>
-      <c r="E11" s="55"/>
+      <c r="A11" s="72"/>
+      <c r="B11" s="79"/>
+      <c r="C11" s="80"/>
+      <c r="D11" s="72"/>
+      <c r="E11" s="72"/>
       <c r="F11" s="27">
         <v>42804</v>
       </c>
       <c r="G11" s="27">
         <v>42807</v>
       </c>
-      <c r="H11" s="57"/>
-      <c r="I11" s="58"/>
+      <c r="H11" s="70"/>
+      <c r="I11" s="71"/>
       <c r="J11" s="23"/>
       <c r="K11" s="23"/>
       <c r="L11" s="12" t="s">
@@ -3323,15 +3323,15 @@
       <c r="IE11" s="11"/>
     </row>
     <row r="12" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A12" s="55">
+      <c r="A12" s="72">
         <v>3</v>
       </c>
-      <c r="B12" s="87"/>
-      <c r="C12" s="88"/>
-      <c r="D12" s="55" t="s">
+      <c r="B12" s="79"/>
+      <c r="C12" s="80"/>
+      <c r="D12" s="72" t="s">
         <v>33</v>
       </c>
-      <c r="E12" s="55" t="s">
+      <c r="E12" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F12" s="27">
@@ -3340,10 +3340,10 @@
       <c r="G12" s="27">
         <v>42807</v>
       </c>
-      <c r="H12" s="57">
+      <c r="H12" s="70">
         <v>1</v>
       </c>
-      <c r="I12" s="57" t="s">
+      <c r="I12" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J12" s="22"/>
@@ -3586,19 +3586,19 @@
       <c r="IE12" s="11"/>
     </row>
     <row r="13" spans="1:239" s="4" customFormat="1" ht="11.65" customHeight="1">
-      <c r="A13" s="55"/>
-      <c r="B13" s="87"/>
-      <c r="C13" s="88"/>
-      <c r="D13" s="55"/>
-      <c r="E13" s="55"/>
+      <c r="A13" s="72"/>
+      <c r="B13" s="79"/>
+      <c r="C13" s="80"/>
+      <c r="D13" s="72"/>
+      <c r="E13" s="72"/>
       <c r="F13" s="27">
         <v>42804</v>
       </c>
       <c r="G13" s="27">
         <v>42807</v>
       </c>
-      <c r="H13" s="57"/>
-      <c r="I13" s="58"/>
+      <c r="H13" s="70"/>
+      <c r="I13" s="71"/>
       <c r="J13" s="23"/>
       <c r="K13" s="23"/>
       <c r="L13" s="12" t="s">
@@ -3837,15 +3837,15 @@
       <c r="IE13" s="11"/>
     </row>
     <row r="14" spans="1:239" ht="12" customHeight="1">
-      <c r="A14" s="55">
+      <c r="A14" s="72">
         <v>4</v>
       </c>
-      <c r="B14" s="87"/>
-      <c r="C14" s="88"/>
-      <c r="D14" s="55" t="s">
+      <c r="B14" s="79"/>
+      <c r="C14" s="80"/>
+      <c r="D14" s="72" t="s">
         <v>34</v>
       </c>
-      <c r="E14" s="55" t="s">
+      <c r="E14" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F14" s="27">
@@ -3854,10 +3854,10 @@
       <c r="G14" s="27">
         <v>42807</v>
       </c>
-      <c r="H14" s="57">
+      <c r="H14" s="70">
         <v>1</v>
       </c>
-      <c r="I14" s="57" t="s">
+      <c r="I14" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J14" s="22"/>
@@ -4100,19 +4100,19 @@
       <c r="IE14" s="12"/>
     </row>
     <row r="15" spans="1:239">
-      <c r="A15" s="55"/>
-      <c r="B15" s="87"/>
-      <c r="C15" s="88"/>
-      <c r="D15" s="55"/>
-      <c r="E15" s="56"/>
+      <c r="A15" s="72"/>
+      <c r="B15" s="79"/>
+      <c r="C15" s="80"/>
+      <c r="D15" s="72"/>
+      <c r="E15" s="121"/>
       <c r="F15" s="27">
         <v>42804</v>
       </c>
       <c r="G15" s="27">
         <v>42807</v>
       </c>
-      <c r="H15" s="57"/>
-      <c r="I15" s="58"/>
+      <c r="H15" s="70"/>
+      <c r="I15" s="71"/>
       <c r="J15" s="23"/>
       <c r="K15" s="23"/>
       <c r="L15" s="12" t="s">
@@ -4351,15 +4351,15 @@
       <c r="IE15" s="12"/>
     </row>
     <row r="16" spans="1:239" ht="12" customHeight="1">
-      <c r="A16" s="55">
+      <c r="A16" s="72">
         <v>5</v>
       </c>
-      <c r="B16" s="87"/>
-      <c r="C16" s="88"/>
-      <c r="D16" s="55" t="s">
+      <c r="B16" s="79"/>
+      <c r="C16" s="80"/>
+      <c r="D16" s="72" t="s">
         <v>35</v>
       </c>
-      <c r="E16" s="55" t="s">
+      <c r="E16" s="72" t="s">
         <v>28</v>
       </c>
       <c r="F16" s="27">
@@ -4368,10 +4368,10 @@
       <c r="G16" s="27">
         <v>42809</v>
       </c>
-      <c r="H16" s="57">
+      <c r="H16" s="70">
         <v>1</v>
       </c>
-      <c r="I16" s="57" t="s">
+      <c r="I16" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J16" s="22"/>
@@ -4610,19 +4610,19 @@
       <c r="IE16" s="12"/>
     </row>
     <row r="17" spans="1:239">
-      <c r="A17" s="55"/>
-      <c r="B17" s="87"/>
-      <c r="C17" s="88"/>
-      <c r="D17" s="55"/>
-      <c r="E17" s="56"/>
+      <c r="A17" s="72"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="80"/>
+      <c r="D17" s="72"/>
+      <c r="E17" s="121"/>
       <c r="F17" s="27">
         <v>42808</v>
       </c>
       <c r="G17" s="27">
         <v>42809</v>
       </c>
-      <c r="H17" s="57"/>
-      <c r="I17" s="58"/>
+      <c r="H17" s="70"/>
+      <c r="I17" s="71"/>
       <c r="J17" s="23"/>
       <c r="K17" s="23"/>
       <c r="L17" s="23"/>
@@ -4859,15 +4859,15 @@
       <c r="IE17" s="12"/>
     </row>
     <row r="18" spans="1:239" ht="12" customHeight="1">
-      <c r="A18" s="55">
+      <c r="A18" s="72">
         <v>6</v>
       </c>
-      <c r="B18" s="87"/>
-      <c r="C18" s="88"/>
-      <c r="D18" s="55" t="s">
+      <c r="B18" s="79"/>
+      <c r="C18" s="80"/>
+      <c r="D18" s="72" t="s">
         <v>36</v>
       </c>
-      <c r="E18" s="55" t="s">
+      <c r="E18" s="72" t="s">
         <v>37</v>
       </c>
       <c r="F18" s="27">
@@ -4876,10 +4876,10 @@
       <c r="G18" s="27">
         <v>42809</v>
       </c>
-      <c r="H18" s="57">
+      <c r="H18" s="70">
         <v>1</v>
       </c>
-      <c r="I18" s="57" t="s">
+      <c r="I18" s="70" t="s">
         <v>29</v>
       </c>
       <c r="J18" s="22"/>
@@ -5118,19 +5118,19 @@
       <c r="IE18" s="12"/>
     </row>
     <row r="19" spans="1:239">
-      <c r="A19" s="55"/>
-      <c r="B19" s="89"/>
-      <c r="C19" s="90"/>
-      <c r="D19" s="55"/>
-      <c r="E19" s="56"/>
+      <c r="A19" s="72"/>
+      <c r="B19" s="81"/>
+      <c r="C19" s="82"/>
+      <c r="D19" s="72"/>
+      <c r="E19" s="121"/>
       <c r="F19" s="27">
         <v>42808</v>
       </c>
       <c r="G19" s="27">
         <v>42809</v>
       </c>
-      <c r="H19" s="57"/>
-      <c r="I19" s="58"/>
+      <c r="H19" s="70"/>
+      <c r="I19" s="71"/>
       <c r="J19" s="23"/>
       <c r="K19" s="23"/>
       <c r="L19" s="23"/>
@@ -5367,17 +5367,17 @@
       <c r="IE19" s="12"/>
     </row>
     <row r="20" spans="1:239" ht="12" customHeight="1">
-      <c r="A20" s="55">
+      <c r="A20" s="72">
         <v>9</v>
       </c>
-      <c r="B20" s="85" t="s">
+      <c r="B20" s="77" t="s">
         <v>68</v>
       </c>
-      <c r="C20" s="86"/>
-      <c r="D20" s="60" t="s">
+      <c r="C20" s="78"/>
+      <c r="D20" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E20" s="60" t="s">
+      <c r="E20" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F20" s="27">
@@ -5386,10 +5386,10 @@
       <c r="G20" s="27">
         <v>42811</v>
       </c>
-      <c r="H20" s="57">
+      <c r="H20" s="70">
         <v>1</v>
       </c>
-      <c r="I20" s="57" t="s">
+      <c r="I20" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J20" s="22"/>
@@ -5628,19 +5628,19 @@
       <c r="IE20" s="12"/>
     </row>
     <row r="21" spans="1:239">
-      <c r="A21" s="55"/>
-      <c r="B21" s="87"/>
-      <c r="C21" s="88"/>
-      <c r="D21" s="61"/>
-      <c r="E21" s="61"/>
+      <c r="A21" s="72"/>
+      <c r="B21" s="79"/>
+      <c r="C21" s="80"/>
+      <c r="D21" s="74"/>
+      <c r="E21" s="74"/>
       <c r="F21" s="27">
         <v>42810</v>
       </c>
       <c r="G21" s="27">
         <v>42818</v>
       </c>
-      <c r="H21" s="57"/>
-      <c r="I21" s="58"/>
+      <c r="H21" s="70"/>
+      <c r="I21" s="71"/>
       <c r="J21" s="23"/>
       <c r="K21" s="23"/>
       <c r="L21" s="23"/>
@@ -5887,15 +5887,15 @@
       <c r="IE21" s="12"/>
     </row>
     <row r="22" spans="1:239" ht="12" customHeight="1">
-      <c r="A22" s="55">
+      <c r="A22" s="72">
         <v>10</v>
       </c>
-      <c r="B22" s="87"/>
-      <c r="C22" s="88"/>
-      <c r="D22" s="60" t="s">
+      <c r="B22" s="79"/>
+      <c r="C22" s="80"/>
+      <c r="D22" s="73" t="s">
         <v>69</v>
       </c>
-      <c r="E22" s="60" t="s">
+      <c r="E22" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F22" s="27">
@@ -5904,10 +5904,10 @@
       <c r="G22" s="27">
         <v>42816</v>
       </c>
-      <c r="H22" s="57">
+      <c r="H22" s="70">
         <v>1</v>
       </c>
-      <c r="I22" s="57" t="s">
+      <c r="I22" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J22" s="22"/>
@@ -6148,19 +6148,19 @@
       <c r="IE22" s="12"/>
     </row>
     <row r="23" spans="1:239">
-      <c r="A23" s="55"/>
-      <c r="B23" s="87"/>
-      <c r="C23" s="88"/>
-      <c r="D23" s="61"/>
-      <c r="E23" s="61"/>
+      <c r="A23" s="72"/>
+      <c r="B23" s="79"/>
+      <c r="C23" s="80"/>
+      <c r="D23" s="74"/>
+      <c r="E23" s="74"/>
       <c r="F23" s="27">
         <v>42814</v>
       </c>
       <c r="G23" s="27">
         <v>42816</v>
       </c>
-      <c r="H23" s="57"/>
-      <c r="I23" s="58"/>
+      <c r="H23" s="70"/>
+      <c r="I23" s="71"/>
       <c r="J23" s="23"/>
       <c r="K23" s="23"/>
       <c r="L23" s="23"/>
@@ -6399,15 +6399,15 @@
       <c r="IE23" s="12"/>
     </row>
     <row r="24" spans="1:239" ht="12" customHeight="1">
-      <c r="A24" s="55">
+      <c r="A24" s="72">
         <v>11</v>
       </c>
-      <c r="B24" s="87"/>
-      <c r="C24" s="88"/>
-      <c r="D24" s="60" t="s">
+      <c r="B24" s="79"/>
+      <c r="C24" s="80"/>
+      <c r="D24" s="73" t="s">
         <v>61</v>
       </c>
-      <c r="E24" s="60" t="s">
+      <c r="E24" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F24" s="27">
@@ -6416,10 +6416,10 @@
       <c r="G24" s="27">
         <v>42818</v>
       </c>
-      <c r="H24" s="57">
+      <c r="H24" s="70">
         <v>1</v>
       </c>
-      <c r="I24" s="57" t="s">
+      <c r="I24" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J24" s="22"/>
@@ -6658,19 +6658,19 @@
       <c r="IE24" s="12"/>
     </row>
     <row r="25" spans="1:239" ht="19.5">
-      <c r="A25" s="55"/>
-      <c r="B25" s="87"/>
-      <c r="C25" s="88"/>
-      <c r="D25" s="61"/>
-      <c r="E25" s="61"/>
+      <c r="A25" s="72"/>
+      <c r="B25" s="79"/>
+      <c r="C25" s="80"/>
+      <c r="D25" s="74"/>
+      <c r="E25" s="74"/>
       <c r="F25" s="27">
         <v>42817</v>
       </c>
       <c r="G25" s="27">
         <v>42818</v>
       </c>
-      <c r="H25" s="57"/>
-      <c r="I25" s="58"/>
+      <c r="H25" s="70"/>
+      <c r="I25" s="71"/>
       <c r="J25" s="23"/>
       <c r="K25" s="23"/>
       <c r="L25" s="23"/>
@@ -6907,15 +6907,15 @@
       <c r="IE25" s="12"/>
     </row>
     <row r="26" spans="1:239" ht="12" customHeight="1">
-      <c r="A26" s="55">
+      <c r="A26" s="72">
         <v>12</v>
       </c>
-      <c r="B26" s="87"/>
-      <c r="C26" s="88"/>
-      <c r="D26" s="60" t="s">
+      <c r="B26" s="79"/>
+      <c r="C26" s="80"/>
+      <c r="D26" s="73" t="s">
         <v>62</v>
       </c>
-      <c r="E26" s="60" t="s">
+      <c r="E26" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F26" s="27">
@@ -6924,10 +6924,10 @@
       <c r="G26" s="27">
         <v>42824</v>
       </c>
-      <c r="H26" s="57">
+      <c r="H26" s="70">
         <v>1</v>
       </c>
-      <c r="I26" s="83" t="s">
+      <c r="I26" s="75" t="s">
         <v>53</v>
       </c>
       <c r="J26" s="22"/>
@@ -7170,19 +7170,19 @@
       <c r="IE26" s="12"/>
     </row>
     <row r="27" spans="1:239" ht="19.5">
-      <c r="A27" s="55"/>
-      <c r="B27" s="87"/>
-      <c r="C27" s="88"/>
-      <c r="D27" s="61"/>
-      <c r="E27" s="61"/>
+      <c r="A27" s="72"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="80"/>
+      <c r="D27" s="74"/>
+      <c r="E27" s="74"/>
       <c r="F27" s="27">
         <v>42821</v>
       </c>
       <c r="G27" s="27">
         <v>42824</v>
       </c>
-      <c r="H27" s="57"/>
-      <c r="I27" s="84"/>
+      <c r="H27" s="70"/>
+      <c r="I27" s="76"/>
       <c r="J27" s="23"/>
       <c r="K27" s="23"/>
       <c r="L27" s="23"/>
@@ -7423,15 +7423,15 @@
       <c r="IE27" s="12"/>
     </row>
     <row r="28" spans="1:239" ht="12" customHeight="1">
-      <c r="A28" s="55">
+      <c r="A28" s="72">
         <v>13</v>
       </c>
-      <c r="B28" s="87"/>
-      <c r="C28" s="88"/>
-      <c r="D28" s="60" t="s">
+      <c r="B28" s="79"/>
+      <c r="C28" s="80"/>
+      <c r="D28" s="73" t="s">
         <v>63</v>
       </c>
-      <c r="E28" s="60" t="s">
+      <c r="E28" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F28" s="27">
@@ -7440,8 +7440,8 @@
       <c r="G28" s="27">
         <v>42828</v>
       </c>
-      <c r="H28" s="83"/>
-      <c r="I28" s="83"/>
+      <c r="H28" s="75"/>
+      <c r="I28" s="75"/>
       <c r="J28" s="23"/>
       <c r="K28" s="23"/>
       <c r="L28" s="23"/>
@@ -7678,17 +7678,17 @@
       <c r="IE28" s="12"/>
     </row>
     <row r="29" spans="1:239">
-      <c r="A29" s="55"/>
-      <c r="B29" s="87"/>
-      <c r="C29" s="88"/>
-      <c r="D29" s="61"/>
-      <c r="E29" s="61"/>
+      <c r="A29" s="72"/>
+      <c r="B29" s="79"/>
+      <c r="C29" s="80"/>
+      <c r="D29" s="74"/>
+      <c r="E29" s="74"/>
       <c r="F29" s="27">
         <v>42825</v>
       </c>
       <c r="G29" s="27"/>
-      <c r="H29" s="84"/>
-      <c r="I29" s="84"/>
+      <c r="H29" s="76"/>
+      <c r="I29" s="76"/>
       <c r="J29" s="23"/>
       <c r="K29" s="23"/>
       <c r="L29" s="23"/>
@@ -7923,21 +7923,21 @@
       <c r="IE29" s="12"/>
     </row>
     <row r="30" spans="1:239" ht="12" customHeight="1">
-      <c r="A30" s="55">
+      <c r="A30" s="72">
         <v>14</v>
       </c>
-      <c r="B30" s="87"/>
-      <c r="C30" s="88"/>
-      <c r="D30" s="60" t="s">
+      <c r="B30" s="79"/>
+      <c r="C30" s="80"/>
+      <c r="D30" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E30" s="60" t="s">
+      <c r="E30" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F30" s="27"/>
       <c r="G30" s="27"/>
-      <c r="H30" s="83"/>
-      <c r="I30" s="83"/>
+      <c r="H30" s="75"/>
+      <c r="I30" s="75"/>
       <c r="J30" s="22"/>
       <c r="K30" s="22"/>
       <c r="L30" s="22"/>
@@ -8170,15 +8170,15 @@
       <c r="IE30" s="12"/>
     </row>
     <row r="31" spans="1:239" ht="12" customHeight="1">
-      <c r="A31" s="55"/>
-      <c r="B31" s="87"/>
-      <c r="C31" s="88"/>
-      <c r="D31" s="61"/>
-      <c r="E31" s="61"/>
+      <c r="A31" s="72"/>
+      <c r="B31" s="79"/>
+      <c r="C31" s="80"/>
+      <c r="D31" s="74"/>
+      <c r="E31" s="74"/>
       <c r="F31" s="27"/>
       <c r="G31" s="27"/>
-      <c r="H31" s="84"/>
-      <c r="I31" s="84"/>
+      <c r="H31" s="76"/>
+      <c r="I31" s="76"/>
       <c r="J31" s="23"/>
       <c r="K31" s="23"/>
       <c r="L31" s="23"/>
@@ -8411,21 +8411,21 @@
       <c r="IE31" s="12"/>
     </row>
     <row r="32" spans="1:239" ht="12" customHeight="1">
-      <c r="A32" s="55">
+      <c r="A32" s="72">
         <v>15</v>
       </c>
-      <c r="B32" s="87"/>
-      <c r="C32" s="88"/>
-      <c r="D32" s="60" t="s">
+      <c r="B32" s="79"/>
+      <c r="C32" s="80"/>
+      <c r="D32" s="73" t="s">
         <v>65</v>
       </c>
-      <c r="E32" s="60" t="s">
+      <c r="E32" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F32" s="27"/>
       <c r="G32" s="27"/>
-      <c r="H32" s="83"/>
-      <c r="I32" s="83"/>
+      <c r="H32" s="75"/>
+      <c r="I32" s="75"/>
       <c r="J32" s="22"/>
       <c r="K32" s="22"/>
       <c r="L32" s="22"/>
@@ -8658,15 +8658,15 @@
       <c r="IE32" s="12"/>
     </row>
     <row r="33" spans="1:240">
-      <c r="A33" s="55"/>
-      <c r="B33" s="87"/>
-      <c r="C33" s="88"/>
-      <c r="D33" s="61"/>
-      <c r="E33" s="61"/>
+      <c r="A33" s="72"/>
+      <c r="B33" s="79"/>
+      <c r="C33" s="80"/>
+      <c r="D33" s="74"/>
+      <c r="E33" s="74"/>
       <c r="F33" s="27"/>
       <c r="G33" s="27"/>
-      <c r="H33" s="84"/>
-      <c r="I33" s="84"/>
+      <c r="H33" s="76"/>
+      <c r="I33" s="76"/>
       <c r="J33" s="23"/>
       <c r="K33" s="23"/>
       <c r="L33" s="23"/>
@@ -8899,21 +8899,21 @@
       <c r="IE33" s="12"/>
     </row>
     <row r="34" spans="1:240" ht="12" customHeight="1">
-      <c r="A34" s="55">
+      <c r="A34" s="72">
         <v>16</v>
       </c>
-      <c r="B34" s="87"/>
-      <c r="C34" s="88"/>
-      <c r="D34" s="60" t="s">
+      <c r="B34" s="79"/>
+      <c r="C34" s="80"/>
+      <c r="D34" s="73" t="s">
         <v>70</v>
       </c>
-      <c r="E34" s="60" t="s">
+      <c r="E34" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F34" s="27"/>
       <c r="G34" s="27"/>
-      <c r="H34" s="83"/>
-      <c r="I34" s="83"/>
+      <c r="H34" s="75"/>
+      <c r="I34" s="75"/>
       <c r="J34" s="22"/>
       <c r="K34" s="22"/>
       <c r="L34" s="22"/>
@@ -9146,15 +9146,15 @@
       <c r="IE34" s="12"/>
     </row>
     <row r="35" spans="1:240">
-      <c r="A35" s="55"/>
-      <c r="B35" s="89"/>
-      <c r="C35" s="90"/>
-      <c r="D35" s="61"/>
-      <c r="E35" s="61"/>
+      <c r="A35" s="72"/>
+      <c r="B35" s="81"/>
+      <c r="C35" s="82"/>
+      <c r="D35" s="74"/>
+      <c r="E35" s="74"/>
       <c r="F35" s="27"/>
       <c r="G35" s="27"/>
-      <c r="H35" s="84"/>
-      <c r="I35" s="84"/>
+      <c r="H35" s="76"/>
+      <c r="I35" s="76"/>
       <c r="J35" s="23"/>
       <c r="K35" s="23"/>
       <c r="L35" s="23"/>
@@ -9387,1595 +9387,1595 @@
       <c r="IE35" s="12"/>
     </row>
     <row r="36" spans="1:240" ht="12" customHeight="1">
-      <c r="A36" s="93">
+      <c r="A36" s="85">
         <v>17</v>
       </c>
-      <c r="B36" s="94" t="s">
+      <c r="B36" s="90" t="s">
         <v>38</v>
       </c>
-      <c r="C36" s="95"/>
-      <c r="D36" s="96" t="s">
+      <c r="C36" s="91"/>
+      <c r="D36" s="86" t="s">
         <v>39</v>
       </c>
-      <c r="E36" s="96" t="s">
+      <c r="E36" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F36" s="97">
+      <c r="F36" s="51">
         <v>42814</v>
       </c>
-      <c r="G36" s="97">
+      <c r="G36" s="51">
         <v>42829</v>
       </c>
-      <c r="H36" s="98">
+      <c r="H36" s="88">
         <v>1</v>
       </c>
-      <c r="I36" s="83" t="s">
+      <c r="I36" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J36" s="99"/>
-      <c r="K36" s="99"/>
-      <c r="L36" s="99"/>
-      <c r="M36" s="100"/>
-      <c r="N36" s="100"/>
-      <c r="O36" s="101"/>
-      <c r="P36" s="101"/>
-      <c r="Q36" s="101"/>
-      <c r="R36" s="101"/>
-      <c r="S36" s="102"/>
-      <c r="T36" s="103"/>
-      <c r="U36" s="103"/>
-      <c r="V36" s="104" t="s">
+      <c r="J36" s="52"/>
+      <c r="K36" s="52"/>
+      <c r="L36" s="52"/>
+      <c r="M36" s="53"/>
+      <c r="N36" s="53"/>
+      <c r="O36" s="54"/>
+      <c r="P36" s="54"/>
+      <c r="Q36" s="54"/>
+      <c r="R36" s="54"/>
+      <c r="S36" s="55"/>
+      <c r="T36" s="56"/>
+      <c r="U36" s="56"/>
+      <c r="V36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="W36" s="104" t="s">
+      <c r="W36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="X36" s="104" t="s">
+      <c r="X36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Y36" s="104" t="s">
+      <c r="Y36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="Z36" s="104" t="s">
+      <c r="Z36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AA36" s="103" t="s">
+      <c r="AA36" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AB36" s="103" t="s">
+      <c r="AB36" s="56" t="s">
         <v>4</v>
       </c>
-      <c r="AC36" s="104" t="s">
+      <c r="AC36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AD36" s="104" t="s">
+      <c r="AD36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AE36" s="104" t="s">
+      <c r="AE36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AF36" s="104" t="s">
+      <c r="AF36" s="57" t="s">
         <v>4</v>
       </c>
-      <c r="AG36" s="105" t="s">
+      <c r="AG36" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="AH36" s="106"/>
-      <c r="AI36" s="106"/>
-      <c r="AJ36" s="101" t="s">
+      <c r="AH36" s="59"/>
+      <c r="AI36" s="59"/>
+      <c r="AJ36" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AK36" s="101" t="s">
+      <c r="AK36" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL36" s="101"/>
-      <c r="AM36" s="101"/>
-      <c r="AN36" s="101"/>
-      <c r="AO36" s="106"/>
-      <c r="AP36" s="106"/>
-      <c r="AQ36" s="101"/>
-      <c r="AR36" s="101"/>
-      <c r="AS36" s="107"/>
-      <c r="AT36" s="108"/>
-      <c r="AU36" s="101"/>
-      <c r="AV36" s="109"/>
-      <c r="AW36" s="109"/>
-      <c r="AX36" s="109"/>
-      <c r="AY36" s="109"/>
-      <c r="AZ36" s="109"/>
-      <c r="BA36" s="109"/>
-      <c r="BB36" s="109"/>
-      <c r="BC36" s="109"/>
-      <c r="BD36" s="109"/>
-      <c r="BE36" s="109"/>
-      <c r="BF36" s="109"/>
-      <c r="BG36" s="109"/>
-      <c r="BH36" s="109"/>
-      <c r="BI36" s="109"/>
-      <c r="BJ36" s="109"/>
-      <c r="BK36" s="109"/>
-      <c r="BL36" s="109"/>
-      <c r="BM36" s="109"/>
-      <c r="BN36" s="109"/>
-      <c r="BO36" s="109"/>
-      <c r="BP36" s="109"/>
-      <c r="BQ36" s="109"/>
-      <c r="BR36" s="109"/>
-      <c r="BS36" s="109"/>
-      <c r="BT36" s="109"/>
-      <c r="BU36" s="109"/>
-      <c r="BV36" s="109"/>
-      <c r="BW36" s="109"/>
-      <c r="BX36" s="109"/>
-      <c r="BY36" s="109"/>
-      <c r="BZ36" s="109"/>
-      <c r="CA36" s="109"/>
-      <c r="CB36" s="109"/>
-      <c r="CC36" s="109"/>
-      <c r="CD36" s="109"/>
-      <c r="CE36" s="109"/>
-      <c r="CF36" s="109"/>
-      <c r="CG36" s="109"/>
-      <c r="CH36" s="109"/>
-      <c r="CI36" s="109"/>
-      <c r="CJ36" s="109"/>
-      <c r="CK36" s="109"/>
-      <c r="CL36" s="109"/>
-      <c r="CM36" s="109"/>
-      <c r="CN36" s="109"/>
-      <c r="CO36" s="109"/>
-      <c r="CP36" s="109"/>
-      <c r="CQ36" s="109"/>
-      <c r="CR36" s="109"/>
-      <c r="CS36" s="109"/>
-      <c r="CT36" s="109"/>
-      <c r="CU36" s="109"/>
-      <c r="CV36" s="109"/>
-      <c r="CW36" s="109"/>
-      <c r="CX36" s="109"/>
-      <c r="CY36" s="109"/>
-      <c r="CZ36" s="109"/>
-      <c r="DA36" s="109"/>
-      <c r="DB36" s="109"/>
-      <c r="DC36" s="109"/>
-      <c r="DD36" s="109"/>
-      <c r="DE36" s="109"/>
-      <c r="DF36" s="109"/>
-      <c r="DG36" s="109"/>
-      <c r="DH36" s="109"/>
-      <c r="DI36" s="109"/>
-      <c r="DJ36" s="109"/>
-      <c r="DK36" s="109"/>
-      <c r="DL36" s="109"/>
-      <c r="DM36" s="109"/>
-      <c r="DN36" s="109"/>
-      <c r="DO36" s="109"/>
-      <c r="DP36" s="109"/>
-      <c r="DQ36" s="109"/>
-      <c r="DR36" s="109"/>
-      <c r="DS36" s="109"/>
-      <c r="DT36" s="109"/>
-      <c r="DU36" s="109"/>
-      <c r="DV36" s="109"/>
-      <c r="DW36" s="109"/>
-      <c r="DX36" s="109"/>
-      <c r="DY36" s="109"/>
-      <c r="DZ36" s="109"/>
-      <c r="EA36" s="109"/>
-      <c r="EB36" s="109"/>
-      <c r="EC36" s="109"/>
-      <c r="ED36" s="109"/>
-      <c r="EE36" s="109"/>
-      <c r="EF36" s="109"/>
-      <c r="EG36" s="109"/>
-      <c r="EH36" s="109"/>
-      <c r="EI36" s="109"/>
-      <c r="EJ36" s="109"/>
-      <c r="EK36" s="109"/>
-      <c r="EL36" s="109"/>
-      <c r="EM36" s="109"/>
-      <c r="EN36" s="109"/>
-      <c r="EO36" s="109"/>
-      <c r="EP36" s="109"/>
-      <c r="EQ36" s="109"/>
-      <c r="ER36" s="109"/>
-      <c r="ES36" s="109"/>
-      <c r="ET36" s="109"/>
-      <c r="EU36" s="109"/>
-      <c r="EV36" s="109"/>
-      <c r="EW36" s="109"/>
-      <c r="EX36" s="109"/>
-      <c r="EY36" s="109"/>
-      <c r="EZ36" s="109"/>
-      <c r="FA36" s="109"/>
-      <c r="FB36" s="109"/>
-      <c r="FC36" s="109"/>
-      <c r="FD36" s="109"/>
-      <c r="FE36" s="109"/>
-      <c r="FF36" s="109"/>
-      <c r="FG36" s="109"/>
-      <c r="FH36" s="109"/>
-      <c r="FI36" s="109"/>
-      <c r="FJ36" s="109"/>
-      <c r="FK36" s="109"/>
-      <c r="FL36" s="109"/>
-      <c r="FM36" s="109"/>
-      <c r="FN36" s="109"/>
-      <c r="FO36" s="109"/>
-      <c r="FP36" s="109"/>
-      <c r="FQ36" s="109"/>
-      <c r="FR36" s="109"/>
-      <c r="FS36" s="109"/>
-      <c r="FT36" s="109"/>
-      <c r="FU36" s="109"/>
-      <c r="FV36" s="109"/>
-      <c r="FW36" s="109"/>
-      <c r="FX36" s="109"/>
-      <c r="FY36" s="109"/>
-      <c r="FZ36" s="109"/>
-      <c r="GA36" s="109"/>
-      <c r="GB36" s="109"/>
-      <c r="GC36" s="109"/>
-      <c r="GD36" s="109"/>
-      <c r="GE36" s="109"/>
-      <c r="GF36" s="109"/>
-      <c r="GG36" s="109"/>
-      <c r="GH36" s="109"/>
-      <c r="GI36" s="109"/>
-      <c r="GJ36" s="109"/>
-      <c r="GK36" s="109"/>
-      <c r="GL36" s="109"/>
-      <c r="GM36" s="109"/>
-      <c r="GN36" s="109"/>
-      <c r="GO36" s="109"/>
-      <c r="GP36" s="109"/>
-      <c r="GQ36" s="109"/>
-      <c r="GR36" s="109"/>
-      <c r="GS36" s="109"/>
-      <c r="GT36" s="109"/>
-      <c r="GU36" s="109"/>
-      <c r="GV36" s="109"/>
-      <c r="GW36" s="109"/>
-      <c r="GX36" s="109"/>
-      <c r="GY36" s="109"/>
-      <c r="GZ36" s="109"/>
-      <c r="HA36" s="109"/>
-      <c r="HB36" s="109"/>
-      <c r="HC36" s="109"/>
-      <c r="HD36" s="109"/>
-      <c r="HE36" s="109"/>
-      <c r="HF36" s="109"/>
-      <c r="HG36" s="109"/>
-      <c r="HH36" s="110"/>
-      <c r="HI36" s="110"/>
-      <c r="HJ36" s="110"/>
-      <c r="HK36" s="110"/>
-      <c r="HL36" s="110"/>
-      <c r="HM36" s="110"/>
-      <c r="HN36" s="110"/>
-      <c r="HO36" s="110"/>
-      <c r="HP36" s="111"/>
-      <c r="HQ36" s="101"/>
-      <c r="HR36" s="106"/>
-      <c r="HS36" s="106"/>
-      <c r="HT36" s="101"/>
-      <c r="HU36" s="101"/>
-      <c r="HV36" s="101"/>
-      <c r="HW36" s="101"/>
-      <c r="HX36" s="101"/>
-      <c r="HY36" s="106"/>
-      <c r="HZ36" s="106"/>
-      <c r="IA36" s="101"/>
-      <c r="IB36" s="101"/>
-      <c r="IC36" s="101"/>
-      <c r="ID36" s="101"/>
-      <c r="IE36" s="101"/>
+      <c r="AL36" s="54"/>
+      <c r="AM36" s="54"/>
+      <c r="AN36" s="54"/>
+      <c r="AO36" s="59"/>
+      <c r="AP36" s="59"/>
+      <c r="AQ36" s="54"/>
+      <c r="AR36" s="54"/>
+      <c r="AS36" s="60"/>
+      <c r="AT36" s="61"/>
+      <c r="AU36" s="54"/>
+      <c r="AV36" s="62"/>
+      <c r="AW36" s="62"/>
+      <c r="AX36" s="62"/>
+      <c r="AY36" s="62"/>
+      <c r="AZ36" s="62"/>
+      <c r="BA36" s="62"/>
+      <c r="BB36" s="62"/>
+      <c r="BC36" s="62"/>
+      <c r="BD36" s="62"/>
+      <c r="BE36" s="62"/>
+      <c r="BF36" s="62"/>
+      <c r="BG36" s="62"/>
+      <c r="BH36" s="62"/>
+      <c r="BI36" s="62"/>
+      <c r="BJ36" s="62"/>
+      <c r="BK36" s="62"/>
+      <c r="BL36" s="62"/>
+      <c r="BM36" s="62"/>
+      <c r="BN36" s="62"/>
+      <c r="BO36" s="62"/>
+      <c r="BP36" s="62"/>
+      <c r="BQ36" s="62"/>
+      <c r="BR36" s="62"/>
+      <c r="BS36" s="62"/>
+      <c r="BT36" s="62"/>
+      <c r="BU36" s="62"/>
+      <c r="BV36" s="62"/>
+      <c r="BW36" s="62"/>
+      <c r="BX36" s="62"/>
+      <c r="BY36" s="62"/>
+      <c r="BZ36" s="62"/>
+      <c r="CA36" s="62"/>
+      <c r="CB36" s="62"/>
+      <c r="CC36" s="62"/>
+      <c r="CD36" s="62"/>
+      <c r="CE36" s="62"/>
+      <c r="CF36" s="62"/>
+      <c r="CG36" s="62"/>
+      <c r="CH36" s="62"/>
+      <c r="CI36" s="62"/>
+      <c r="CJ36" s="62"/>
+      <c r="CK36" s="62"/>
+      <c r="CL36" s="62"/>
+      <c r="CM36" s="62"/>
+      <c r="CN36" s="62"/>
+      <c r="CO36" s="62"/>
+      <c r="CP36" s="62"/>
+      <c r="CQ36" s="62"/>
+      <c r="CR36" s="62"/>
+      <c r="CS36" s="62"/>
+      <c r="CT36" s="62"/>
+      <c r="CU36" s="62"/>
+      <c r="CV36" s="62"/>
+      <c r="CW36" s="62"/>
+      <c r="CX36" s="62"/>
+      <c r="CY36" s="62"/>
+      <c r="CZ36" s="62"/>
+      <c r="DA36" s="62"/>
+      <c r="DB36" s="62"/>
+      <c r="DC36" s="62"/>
+      <c r="DD36" s="62"/>
+      <c r="DE36" s="62"/>
+      <c r="DF36" s="62"/>
+      <c r="DG36" s="62"/>
+      <c r="DH36" s="62"/>
+      <c r="DI36" s="62"/>
+      <c r="DJ36" s="62"/>
+      <c r="DK36" s="62"/>
+      <c r="DL36" s="62"/>
+      <c r="DM36" s="62"/>
+      <c r="DN36" s="62"/>
+      <c r="DO36" s="62"/>
+      <c r="DP36" s="62"/>
+      <c r="DQ36" s="62"/>
+      <c r="DR36" s="62"/>
+      <c r="DS36" s="62"/>
+      <c r="DT36" s="62"/>
+      <c r="DU36" s="62"/>
+      <c r="DV36" s="62"/>
+      <c r="DW36" s="62"/>
+      <c r="DX36" s="62"/>
+      <c r="DY36" s="62"/>
+      <c r="DZ36" s="62"/>
+      <c r="EA36" s="62"/>
+      <c r="EB36" s="62"/>
+      <c r="EC36" s="62"/>
+      <c r="ED36" s="62"/>
+      <c r="EE36" s="62"/>
+      <c r="EF36" s="62"/>
+      <c r="EG36" s="62"/>
+      <c r="EH36" s="62"/>
+      <c r="EI36" s="62"/>
+      <c r="EJ36" s="62"/>
+      <c r="EK36" s="62"/>
+      <c r="EL36" s="62"/>
+      <c r="EM36" s="62"/>
+      <c r="EN36" s="62"/>
+      <c r="EO36" s="62"/>
+      <c r="EP36" s="62"/>
+      <c r="EQ36" s="62"/>
+      <c r="ER36" s="62"/>
+      <c r="ES36" s="62"/>
+      <c r="ET36" s="62"/>
+      <c r="EU36" s="62"/>
+      <c r="EV36" s="62"/>
+      <c r="EW36" s="62"/>
+      <c r="EX36" s="62"/>
+      <c r="EY36" s="62"/>
+      <c r="EZ36" s="62"/>
+      <c r="FA36" s="62"/>
+      <c r="FB36" s="62"/>
+      <c r="FC36" s="62"/>
+      <c r="FD36" s="62"/>
+      <c r="FE36" s="62"/>
+      <c r="FF36" s="62"/>
+      <c r="FG36" s="62"/>
+      <c r="FH36" s="62"/>
+      <c r="FI36" s="62"/>
+      <c r="FJ36" s="62"/>
+      <c r="FK36" s="62"/>
+      <c r="FL36" s="62"/>
+      <c r="FM36" s="62"/>
+      <c r="FN36" s="62"/>
+      <c r="FO36" s="62"/>
+      <c r="FP36" s="62"/>
+      <c r="FQ36" s="62"/>
+      <c r="FR36" s="62"/>
+      <c r="FS36" s="62"/>
+      <c r="FT36" s="62"/>
+      <c r="FU36" s="62"/>
+      <c r="FV36" s="62"/>
+      <c r="FW36" s="62"/>
+      <c r="FX36" s="62"/>
+      <c r="FY36" s="62"/>
+      <c r="FZ36" s="62"/>
+      <c r="GA36" s="62"/>
+      <c r="GB36" s="62"/>
+      <c r="GC36" s="62"/>
+      <c r="GD36" s="62"/>
+      <c r="GE36" s="62"/>
+      <c r="GF36" s="62"/>
+      <c r="GG36" s="62"/>
+      <c r="GH36" s="62"/>
+      <c r="GI36" s="62"/>
+      <c r="GJ36" s="62"/>
+      <c r="GK36" s="62"/>
+      <c r="GL36" s="62"/>
+      <c r="GM36" s="62"/>
+      <c r="GN36" s="62"/>
+      <c r="GO36" s="62"/>
+      <c r="GP36" s="62"/>
+      <c r="GQ36" s="62"/>
+      <c r="GR36" s="62"/>
+      <c r="GS36" s="62"/>
+      <c r="GT36" s="62"/>
+      <c r="GU36" s="62"/>
+      <c r="GV36" s="62"/>
+      <c r="GW36" s="62"/>
+      <c r="GX36" s="62"/>
+      <c r="GY36" s="62"/>
+      <c r="GZ36" s="62"/>
+      <c r="HA36" s="62"/>
+      <c r="HB36" s="62"/>
+      <c r="HC36" s="62"/>
+      <c r="HD36" s="62"/>
+      <c r="HE36" s="62"/>
+      <c r="HF36" s="62"/>
+      <c r="HG36" s="62"/>
+      <c r="HH36" s="63"/>
+      <c r="HI36" s="63"/>
+      <c r="HJ36" s="63"/>
+      <c r="HK36" s="63"/>
+      <c r="HL36" s="63"/>
+      <c r="HM36" s="63"/>
+      <c r="HN36" s="63"/>
+      <c r="HO36" s="63"/>
+      <c r="HP36" s="64"/>
+      <c r="HQ36" s="54"/>
+      <c r="HR36" s="59"/>
+      <c r="HS36" s="59"/>
+      <c r="HT36" s="54"/>
+      <c r="HU36" s="54"/>
+      <c r="HV36" s="54"/>
+      <c r="HW36" s="54"/>
+      <c r="HX36" s="54"/>
+      <c r="HY36" s="59"/>
+      <c r="HZ36" s="59"/>
+      <c r="IA36" s="54"/>
+      <c r="IB36" s="54"/>
+      <c r="IC36" s="54"/>
+      <c r="ID36" s="54"/>
+      <c r="IE36" s="54"/>
     </row>
     <row r="37" spans="1:240">
-      <c r="A37" s="93"/>
-      <c r="B37" s="112"/>
-      <c r="C37" s="113"/>
-      <c r="D37" s="114"/>
-      <c r="E37" s="114"/>
-      <c r="F37" s="97">
+      <c r="A37" s="85"/>
+      <c r="B37" s="92"/>
+      <c r="C37" s="93"/>
+      <c r="D37" s="87"/>
+      <c r="E37" s="87"/>
+      <c r="F37" s="51">
         <v>42814</v>
       </c>
-      <c r="G37" s="97">
+      <c r="G37" s="51">
         <v>42829</v>
       </c>
-      <c r="H37" s="115"/>
-      <c r="I37" s="84"/>
-      <c r="J37" s="116"/>
-      <c r="K37" s="116"/>
-      <c r="L37" s="116"/>
-      <c r="M37" s="117"/>
-      <c r="N37" s="117"/>
-      <c r="O37" s="101"/>
-      <c r="P37" s="101"/>
-      <c r="Q37" s="101"/>
-      <c r="R37" s="101"/>
-      <c r="S37" s="102"/>
-      <c r="T37" s="103"/>
-      <c r="U37" s="103"/>
-      <c r="V37" s="102" t="s">
+      <c r="H37" s="89"/>
+      <c r="I37" s="76"/>
+      <c r="J37" s="65"/>
+      <c r="K37" s="65"/>
+      <c r="L37" s="65"/>
+      <c r="M37" s="66"/>
+      <c r="N37" s="66"/>
+      <c r="O37" s="54"/>
+      <c r="P37" s="54"/>
+      <c r="Q37" s="54"/>
+      <c r="R37" s="54"/>
+      <c r="S37" s="55"/>
+      <c r="T37" s="56"/>
+      <c r="U37" s="56"/>
+      <c r="V37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="W37" s="102" t="s">
+      <c r="W37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="X37" s="102" t="s">
+      <c r="X37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Y37" s="102" t="s">
+      <c r="Y37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="Z37" s="102" t="s">
+      <c r="Z37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AA37" s="103"/>
-      <c r="AB37" s="103" t="s">
+      <c r="AA37" s="56"/>
+      <c r="AB37" s="56" t="s">
         <v>5</v>
       </c>
-      <c r="AC37" s="102" t="s">
+      <c r="AC37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AD37" s="102" t="s">
+      <c r="AD37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AE37" s="102" t="s">
+      <c r="AE37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AF37" s="102" t="s">
+      <c r="AF37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AG37" s="102" t="s">
+      <c r="AG37" s="55" t="s">
         <v>5</v>
       </c>
-      <c r="AH37" s="106"/>
-      <c r="AI37" s="106"/>
-      <c r="AJ37" s="101" t="s">
+      <c r="AH37" s="59"/>
+      <c r="AI37" s="59"/>
+      <c r="AJ37" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AK37" s="101" t="s">
+      <c r="AK37" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AL37" s="101"/>
-      <c r="AM37" s="101"/>
-      <c r="AN37" s="101"/>
-      <c r="AO37" s="106"/>
-      <c r="AP37" s="106"/>
-      <c r="AQ37" s="101"/>
-      <c r="AR37" s="101"/>
-      <c r="AS37" s="107"/>
-      <c r="AT37" s="108"/>
-      <c r="AU37" s="101"/>
-      <c r="AV37" s="109"/>
-      <c r="AW37" s="109"/>
-      <c r="AX37" s="109"/>
-      <c r="AY37" s="109"/>
-      <c r="AZ37" s="109"/>
-      <c r="BA37" s="109"/>
-      <c r="BB37" s="109"/>
-      <c r="BC37" s="109"/>
-      <c r="BD37" s="109"/>
-      <c r="BE37" s="109"/>
-      <c r="BF37" s="109"/>
-      <c r="BG37" s="109"/>
-      <c r="BH37" s="109"/>
-      <c r="BI37" s="109"/>
-      <c r="BJ37" s="109"/>
-      <c r="BK37" s="109"/>
-      <c r="BL37" s="109"/>
-      <c r="BM37" s="109"/>
-      <c r="BN37" s="109"/>
-      <c r="BO37" s="109"/>
-      <c r="BP37" s="109"/>
-      <c r="BQ37" s="109"/>
-      <c r="BR37" s="109"/>
-      <c r="BS37" s="109"/>
-      <c r="BT37" s="109"/>
-      <c r="BU37" s="109"/>
-      <c r="BV37" s="109"/>
-      <c r="BW37" s="109"/>
-      <c r="BX37" s="109"/>
-      <c r="BY37" s="109"/>
-      <c r="BZ37" s="109"/>
-      <c r="CA37" s="109"/>
-      <c r="CB37" s="109"/>
-      <c r="CC37" s="109"/>
-      <c r="CD37" s="109"/>
-      <c r="CE37" s="109"/>
-      <c r="CF37" s="109"/>
-      <c r="CG37" s="109"/>
-      <c r="CH37" s="109"/>
-      <c r="CI37" s="109"/>
-      <c r="CJ37" s="109"/>
-      <c r="CK37" s="109"/>
-      <c r="CL37" s="109"/>
-      <c r="CM37" s="109"/>
-      <c r="CN37" s="109"/>
-      <c r="CO37" s="109"/>
-      <c r="CP37" s="109"/>
-      <c r="CQ37" s="109"/>
-      <c r="CR37" s="109"/>
-      <c r="CS37" s="109"/>
-      <c r="CT37" s="109"/>
-      <c r="CU37" s="109"/>
-      <c r="CV37" s="109"/>
-      <c r="CW37" s="109"/>
-      <c r="CX37" s="109"/>
-      <c r="CY37" s="109"/>
-      <c r="CZ37" s="109"/>
-      <c r="DA37" s="109"/>
-      <c r="DB37" s="109"/>
-      <c r="DC37" s="109"/>
-      <c r="DD37" s="109"/>
-      <c r="DE37" s="109"/>
-      <c r="DF37" s="109"/>
-      <c r="DG37" s="109"/>
-      <c r="DH37" s="109"/>
-      <c r="DI37" s="109"/>
-      <c r="DJ37" s="109"/>
-      <c r="DK37" s="109"/>
-      <c r="DL37" s="109"/>
-      <c r="DM37" s="109"/>
-      <c r="DN37" s="109"/>
-      <c r="DO37" s="109"/>
-      <c r="DP37" s="109"/>
-      <c r="DQ37" s="109"/>
-      <c r="DR37" s="109"/>
-      <c r="DS37" s="109"/>
-      <c r="DT37" s="109"/>
-      <c r="DU37" s="109"/>
-      <c r="DV37" s="109"/>
-      <c r="DW37" s="109"/>
-      <c r="DX37" s="109"/>
-      <c r="DY37" s="109"/>
-      <c r="DZ37" s="109"/>
-      <c r="EA37" s="109"/>
-      <c r="EB37" s="109"/>
-      <c r="EC37" s="109"/>
-      <c r="ED37" s="109"/>
-      <c r="EE37" s="109"/>
-      <c r="EF37" s="109"/>
-      <c r="EG37" s="109"/>
-      <c r="EH37" s="109"/>
-      <c r="EI37" s="109"/>
-      <c r="EJ37" s="109"/>
-      <c r="EK37" s="109"/>
-      <c r="EL37" s="109"/>
-      <c r="EM37" s="109"/>
-      <c r="EN37" s="109"/>
-      <c r="EO37" s="109"/>
-      <c r="EP37" s="109"/>
-      <c r="EQ37" s="109"/>
-      <c r="ER37" s="109"/>
-      <c r="ES37" s="109"/>
-      <c r="ET37" s="109"/>
-      <c r="EU37" s="109"/>
-      <c r="EV37" s="109"/>
-      <c r="EW37" s="109"/>
-      <c r="EX37" s="109"/>
-      <c r="EY37" s="109"/>
-      <c r="EZ37" s="109"/>
-      <c r="FA37" s="109"/>
-      <c r="FB37" s="109"/>
-      <c r="FC37" s="109"/>
-      <c r="FD37" s="109"/>
-      <c r="FE37" s="109"/>
-      <c r="FF37" s="109"/>
-      <c r="FG37" s="109"/>
-      <c r="FH37" s="109"/>
-      <c r="FI37" s="109"/>
-      <c r="FJ37" s="109"/>
-      <c r="FK37" s="109"/>
-      <c r="FL37" s="109"/>
-      <c r="FM37" s="109"/>
-      <c r="FN37" s="109"/>
-      <c r="FO37" s="109"/>
-      <c r="FP37" s="109"/>
-      <c r="FQ37" s="109"/>
-      <c r="FR37" s="109"/>
-      <c r="FS37" s="109"/>
-      <c r="FT37" s="109"/>
-      <c r="FU37" s="109"/>
-      <c r="FV37" s="109"/>
-      <c r="FW37" s="109"/>
-      <c r="FX37" s="109"/>
-      <c r="FY37" s="109"/>
-      <c r="FZ37" s="109"/>
-      <c r="GA37" s="109"/>
-      <c r="GB37" s="109"/>
-      <c r="GC37" s="109"/>
-      <c r="GD37" s="109"/>
-      <c r="GE37" s="109"/>
-      <c r="GF37" s="109"/>
-      <c r="GG37" s="109"/>
-      <c r="GH37" s="109"/>
-      <c r="GI37" s="109"/>
-      <c r="GJ37" s="109"/>
-      <c r="GK37" s="109"/>
-      <c r="GL37" s="109"/>
-      <c r="GM37" s="109"/>
-      <c r="GN37" s="109"/>
-      <c r="GO37" s="109"/>
-      <c r="GP37" s="109"/>
-      <c r="GQ37" s="109"/>
-      <c r="GR37" s="109"/>
-      <c r="GS37" s="109"/>
-      <c r="GT37" s="109"/>
-      <c r="GU37" s="109"/>
-      <c r="GV37" s="109"/>
-      <c r="GW37" s="109"/>
-      <c r="GX37" s="109"/>
-      <c r="GY37" s="109"/>
-      <c r="GZ37" s="109"/>
-      <c r="HA37" s="109"/>
-      <c r="HB37" s="109"/>
-      <c r="HC37" s="109"/>
-      <c r="HD37" s="109"/>
-      <c r="HE37" s="109"/>
-      <c r="HF37" s="109"/>
-      <c r="HG37" s="109"/>
-      <c r="HH37" s="110"/>
-      <c r="HI37" s="110"/>
-      <c r="HJ37" s="110"/>
-      <c r="HK37" s="110"/>
-      <c r="HL37" s="110"/>
-      <c r="HM37" s="110"/>
-      <c r="HN37" s="110"/>
-      <c r="HO37" s="110"/>
-      <c r="HP37" s="111"/>
-      <c r="HQ37" s="101"/>
-      <c r="HR37" s="106"/>
-      <c r="HS37" s="106"/>
-      <c r="HT37" s="101"/>
-      <c r="HU37" s="101"/>
-      <c r="HV37" s="101"/>
-      <c r="HW37" s="101"/>
-      <c r="HX37" s="101"/>
-      <c r="HY37" s="106"/>
-      <c r="HZ37" s="106"/>
-      <c r="IA37" s="101"/>
-      <c r="IB37" s="101"/>
-      <c r="IC37" s="101"/>
-      <c r="ID37" s="101"/>
-      <c r="IE37" s="101"/>
+      <c r="AL37" s="54"/>
+      <c r="AM37" s="54"/>
+      <c r="AN37" s="54"/>
+      <c r="AO37" s="59"/>
+      <c r="AP37" s="59"/>
+      <c r="AQ37" s="54"/>
+      <c r="AR37" s="54"/>
+      <c r="AS37" s="60"/>
+      <c r="AT37" s="61"/>
+      <c r="AU37" s="54"/>
+      <c r="AV37" s="62"/>
+      <c r="AW37" s="62"/>
+      <c r="AX37" s="62"/>
+      <c r="AY37" s="62"/>
+      <c r="AZ37" s="62"/>
+      <c r="BA37" s="62"/>
+      <c r="BB37" s="62"/>
+      <c r="BC37" s="62"/>
+      <c r="BD37" s="62"/>
+      <c r="BE37" s="62"/>
+      <c r="BF37" s="62"/>
+      <c r="BG37" s="62"/>
+      <c r="BH37" s="62"/>
+      <c r="BI37" s="62"/>
+      <c r="BJ37" s="62"/>
+      <c r="BK37" s="62"/>
+      <c r="BL37" s="62"/>
+      <c r="BM37" s="62"/>
+      <c r="BN37" s="62"/>
+      <c r="BO37" s="62"/>
+      <c r="BP37" s="62"/>
+      <c r="BQ37" s="62"/>
+      <c r="BR37" s="62"/>
+      <c r="BS37" s="62"/>
+      <c r="BT37" s="62"/>
+      <c r="BU37" s="62"/>
+      <c r="BV37" s="62"/>
+      <c r="BW37" s="62"/>
+      <c r="BX37" s="62"/>
+      <c r="BY37" s="62"/>
+      <c r="BZ37" s="62"/>
+      <c r="CA37" s="62"/>
+      <c r="CB37" s="62"/>
+      <c r="CC37" s="62"/>
+      <c r="CD37" s="62"/>
+      <c r="CE37" s="62"/>
+      <c r="CF37" s="62"/>
+      <c r="CG37" s="62"/>
+      <c r="CH37" s="62"/>
+      <c r="CI37" s="62"/>
+      <c r="CJ37" s="62"/>
+      <c r="CK37" s="62"/>
+      <c r="CL37" s="62"/>
+      <c r="CM37" s="62"/>
+      <c r="CN37" s="62"/>
+      <c r="CO37" s="62"/>
+      <c r="CP37" s="62"/>
+      <c r="CQ37" s="62"/>
+      <c r="CR37" s="62"/>
+      <c r="CS37" s="62"/>
+      <c r="CT37" s="62"/>
+      <c r="CU37" s="62"/>
+      <c r="CV37" s="62"/>
+      <c r="CW37" s="62"/>
+      <c r="CX37" s="62"/>
+      <c r="CY37" s="62"/>
+      <c r="CZ37" s="62"/>
+      <c r="DA37" s="62"/>
+      <c r="DB37" s="62"/>
+      <c r="DC37" s="62"/>
+      <c r="DD37" s="62"/>
+      <c r="DE37" s="62"/>
+      <c r="DF37" s="62"/>
+      <c r="DG37" s="62"/>
+      <c r="DH37" s="62"/>
+      <c r="DI37" s="62"/>
+      <c r="DJ37" s="62"/>
+      <c r="DK37" s="62"/>
+      <c r="DL37" s="62"/>
+      <c r="DM37" s="62"/>
+      <c r="DN37" s="62"/>
+      <c r="DO37" s="62"/>
+      <c r="DP37" s="62"/>
+      <c r="DQ37" s="62"/>
+      <c r="DR37" s="62"/>
+      <c r="DS37" s="62"/>
+      <c r="DT37" s="62"/>
+      <c r="DU37" s="62"/>
+      <c r="DV37" s="62"/>
+      <c r="DW37" s="62"/>
+      <c r="DX37" s="62"/>
+      <c r="DY37" s="62"/>
+      <c r="DZ37" s="62"/>
+      <c r="EA37" s="62"/>
+      <c r="EB37" s="62"/>
+      <c r="EC37" s="62"/>
+      <c r="ED37" s="62"/>
+      <c r="EE37" s="62"/>
+      <c r="EF37" s="62"/>
+      <c r="EG37" s="62"/>
+      <c r="EH37" s="62"/>
+      <c r="EI37" s="62"/>
+      <c r="EJ37" s="62"/>
+      <c r="EK37" s="62"/>
+      <c r="EL37" s="62"/>
+      <c r="EM37" s="62"/>
+      <c r="EN37" s="62"/>
+      <c r="EO37" s="62"/>
+      <c r="EP37" s="62"/>
+      <c r="EQ37" s="62"/>
+      <c r="ER37" s="62"/>
+      <c r="ES37" s="62"/>
+      <c r="ET37" s="62"/>
+      <c r="EU37" s="62"/>
+      <c r="EV37" s="62"/>
+      <c r="EW37" s="62"/>
+      <c r="EX37" s="62"/>
+      <c r="EY37" s="62"/>
+      <c r="EZ37" s="62"/>
+      <c r="FA37" s="62"/>
+      <c r="FB37" s="62"/>
+      <c r="FC37" s="62"/>
+      <c r="FD37" s="62"/>
+      <c r="FE37" s="62"/>
+      <c r="FF37" s="62"/>
+      <c r="FG37" s="62"/>
+      <c r="FH37" s="62"/>
+      <c r="FI37" s="62"/>
+      <c r="FJ37" s="62"/>
+      <c r="FK37" s="62"/>
+      <c r="FL37" s="62"/>
+      <c r="FM37" s="62"/>
+      <c r="FN37" s="62"/>
+      <c r="FO37" s="62"/>
+      <c r="FP37" s="62"/>
+      <c r="FQ37" s="62"/>
+      <c r="FR37" s="62"/>
+      <c r="FS37" s="62"/>
+      <c r="FT37" s="62"/>
+      <c r="FU37" s="62"/>
+      <c r="FV37" s="62"/>
+      <c r="FW37" s="62"/>
+      <c r="FX37" s="62"/>
+      <c r="FY37" s="62"/>
+      <c r="FZ37" s="62"/>
+      <c r="GA37" s="62"/>
+      <c r="GB37" s="62"/>
+      <c r="GC37" s="62"/>
+      <c r="GD37" s="62"/>
+      <c r="GE37" s="62"/>
+      <c r="GF37" s="62"/>
+      <c r="GG37" s="62"/>
+      <c r="GH37" s="62"/>
+      <c r="GI37" s="62"/>
+      <c r="GJ37" s="62"/>
+      <c r="GK37" s="62"/>
+      <c r="GL37" s="62"/>
+      <c r="GM37" s="62"/>
+      <c r="GN37" s="62"/>
+      <c r="GO37" s="62"/>
+      <c r="GP37" s="62"/>
+      <c r="GQ37" s="62"/>
+      <c r="GR37" s="62"/>
+      <c r="GS37" s="62"/>
+      <c r="GT37" s="62"/>
+      <c r="GU37" s="62"/>
+      <c r="GV37" s="62"/>
+      <c r="GW37" s="62"/>
+      <c r="GX37" s="62"/>
+      <c r="GY37" s="62"/>
+      <c r="GZ37" s="62"/>
+      <c r="HA37" s="62"/>
+      <c r="HB37" s="62"/>
+      <c r="HC37" s="62"/>
+      <c r="HD37" s="62"/>
+      <c r="HE37" s="62"/>
+      <c r="HF37" s="62"/>
+      <c r="HG37" s="62"/>
+      <c r="HH37" s="63"/>
+      <c r="HI37" s="63"/>
+      <c r="HJ37" s="63"/>
+      <c r="HK37" s="63"/>
+      <c r="HL37" s="63"/>
+      <c r="HM37" s="63"/>
+      <c r="HN37" s="63"/>
+      <c r="HO37" s="63"/>
+      <c r="HP37" s="64"/>
+      <c r="HQ37" s="54"/>
+      <c r="HR37" s="59"/>
+      <c r="HS37" s="59"/>
+      <c r="HT37" s="54"/>
+      <c r="HU37" s="54"/>
+      <c r="HV37" s="54"/>
+      <c r="HW37" s="54"/>
+      <c r="HX37" s="54"/>
+      <c r="HY37" s="59"/>
+      <c r="HZ37" s="59"/>
+      <c r="IA37" s="54"/>
+      <c r="IB37" s="54"/>
+      <c r="IC37" s="54"/>
+      <c r="ID37" s="54"/>
+      <c r="IE37" s="54"/>
     </row>
     <row r="38" spans="1:240">
-      <c r="A38" s="93">
+      <c r="A38" s="85">
         <v>18</v>
       </c>
-      <c r="B38" s="112"/>
-      <c r="C38" s="113"/>
-      <c r="D38" s="96" t="s">
+      <c r="B38" s="92"/>
+      <c r="C38" s="93"/>
+      <c r="D38" s="86" t="s">
         <v>42</v>
       </c>
-      <c r="E38" s="96" t="s">
+      <c r="E38" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F38" s="97">
+      <c r="F38" s="51">
         <v>42829</v>
       </c>
-      <c r="G38" s="97">
+      <c r="G38" s="51">
         <v>42829</v>
       </c>
-      <c r="H38" s="98">
+      <c r="H38" s="88">
         <v>1</v>
       </c>
-      <c r="I38" s="83" t="s">
+      <c r="I38" s="75" t="s">
         <v>41</v>
       </c>
-      <c r="J38" s="116"/>
-      <c r="K38" s="116"/>
-      <c r="L38" s="116"/>
-      <c r="M38" s="117"/>
-      <c r="N38" s="117"/>
-      <c r="O38" s="101"/>
-      <c r="P38" s="101"/>
-      <c r="Q38" s="101"/>
-      <c r="R38" s="101"/>
-      <c r="S38" s="102"/>
-      <c r="T38" s="103"/>
-      <c r="U38" s="103"/>
-      <c r="V38" s="102"/>
-      <c r="W38" s="102"/>
-      <c r="X38" s="102"/>
-      <c r="Y38" s="102"/>
-      <c r="Z38" s="102"/>
-      <c r="AA38" s="103"/>
-      <c r="AB38" s="103"/>
-      <c r="AC38" s="102"/>
-      <c r="AD38" s="102"/>
-      <c r="AE38" s="102"/>
-      <c r="AF38" s="102"/>
-      <c r="AG38" s="118"/>
-      <c r="AH38" s="106"/>
-      <c r="AI38" s="106"/>
-      <c r="AJ38" s="101"/>
-      <c r="AK38" s="101" t="s">
+      <c r="J38" s="65"/>
+      <c r="K38" s="65"/>
+      <c r="L38" s="65"/>
+      <c r="M38" s="66"/>
+      <c r="N38" s="66"/>
+      <c r="O38" s="54"/>
+      <c r="P38" s="54"/>
+      <c r="Q38" s="54"/>
+      <c r="R38" s="54"/>
+      <c r="S38" s="55"/>
+      <c r="T38" s="56"/>
+      <c r="U38" s="56"/>
+      <c r="V38" s="55"/>
+      <c r="W38" s="55"/>
+      <c r="X38" s="55"/>
+      <c r="Y38" s="55"/>
+      <c r="Z38" s="55"/>
+      <c r="AA38" s="56"/>
+      <c r="AB38" s="56"/>
+      <c r="AC38" s="55"/>
+      <c r="AD38" s="55"/>
+      <c r="AE38" s="55"/>
+      <c r="AF38" s="55"/>
+      <c r="AG38" s="67"/>
+      <c r="AH38" s="59"/>
+      <c r="AI38" s="59"/>
+      <c r="AJ38" s="54"/>
+      <c r="AK38" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AL38" s="101"/>
-      <c r="AM38" s="101"/>
-      <c r="AN38" s="101"/>
-      <c r="AO38" s="106"/>
-      <c r="AP38" s="106"/>
-      <c r="AQ38" s="101"/>
-      <c r="AR38" s="101"/>
-      <c r="AS38" s="107"/>
-      <c r="AT38" s="108"/>
-      <c r="AU38" s="101"/>
-      <c r="AV38" s="109"/>
-      <c r="AW38" s="109"/>
-      <c r="AX38" s="109"/>
-      <c r="AY38" s="109"/>
-      <c r="AZ38" s="109"/>
-      <c r="BA38" s="109"/>
-      <c r="BB38" s="109"/>
-      <c r="BC38" s="109"/>
-      <c r="BD38" s="109"/>
-      <c r="BE38" s="109"/>
-      <c r="BF38" s="109"/>
-      <c r="BG38" s="109"/>
-      <c r="BH38" s="109"/>
-      <c r="BI38" s="109"/>
-      <c r="BJ38" s="109"/>
-      <c r="BK38" s="109"/>
-      <c r="BL38" s="109"/>
-      <c r="BM38" s="109"/>
-      <c r="BN38" s="109"/>
-      <c r="BO38" s="109"/>
-      <c r="BP38" s="109"/>
-      <c r="BQ38" s="109"/>
-      <c r="BR38" s="109"/>
-      <c r="BS38" s="109"/>
-      <c r="BT38" s="109"/>
-      <c r="BU38" s="109"/>
-      <c r="BV38" s="109"/>
-      <c r="BW38" s="109"/>
-      <c r="BX38" s="109"/>
-      <c r="BY38" s="109"/>
-      <c r="BZ38" s="109"/>
-      <c r="CA38" s="109"/>
-      <c r="CB38" s="109"/>
-      <c r="CC38" s="109"/>
-      <c r="CD38" s="109"/>
-      <c r="CE38" s="109"/>
-      <c r="CF38" s="109"/>
-      <c r="CG38" s="109"/>
-      <c r="CH38" s="109"/>
-      <c r="CI38" s="109"/>
-      <c r="CJ38" s="109"/>
-      <c r="CK38" s="109"/>
-      <c r="CL38" s="109"/>
-      <c r="CM38" s="109"/>
-      <c r="CN38" s="109"/>
-      <c r="CO38" s="109"/>
-      <c r="CP38" s="109"/>
-      <c r="CQ38" s="109"/>
-      <c r="CR38" s="109"/>
-      <c r="CS38" s="109"/>
-      <c r="CT38" s="109"/>
-      <c r="CU38" s="109"/>
-      <c r="CV38" s="109"/>
-      <c r="CW38" s="109"/>
-      <c r="CX38" s="109"/>
-      <c r="CY38" s="109"/>
-      <c r="CZ38" s="109"/>
-      <c r="DA38" s="109"/>
-      <c r="DB38" s="109"/>
-      <c r="DC38" s="109"/>
-      <c r="DD38" s="109"/>
-      <c r="DE38" s="109"/>
-      <c r="DF38" s="109"/>
-      <c r="DG38" s="109"/>
-      <c r="DH38" s="109"/>
-      <c r="DI38" s="109"/>
-      <c r="DJ38" s="109"/>
-      <c r="DK38" s="109"/>
-      <c r="DL38" s="109"/>
-      <c r="DM38" s="109"/>
-      <c r="DN38" s="109"/>
-      <c r="DO38" s="109"/>
-      <c r="DP38" s="109"/>
-      <c r="DQ38" s="109"/>
-      <c r="DR38" s="109"/>
-      <c r="DS38" s="109"/>
-      <c r="DT38" s="109"/>
-      <c r="DU38" s="109"/>
-      <c r="DV38" s="109"/>
-      <c r="DW38" s="109"/>
-      <c r="DX38" s="109"/>
-      <c r="DY38" s="109"/>
-      <c r="DZ38" s="109"/>
-      <c r="EA38" s="109"/>
-      <c r="EB38" s="109"/>
-      <c r="EC38" s="109"/>
-      <c r="ED38" s="109"/>
-      <c r="EE38" s="109"/>
-      <c r="EF38" s="109"/>
-      <c r="EG38" s="109"/>
-      <c r="EH38" s="109"/>
-      <c r="EI38" s="109"/>
-      <c r="EJ38" s="109"/>
-      <c r="EK38" s="109"/>
-      <c r="EL38" s="109"/>
-      <c r="EM38" s="109"/>
-      <c r="EN38" s="109"/>
-      <c r="EO38" s="109"/>
-      <c r="EP38" s="109"/>
-      <c r="EQ38" s="109"/>
-      <c r="ER38" s="109"/>
-      <c r="ES38" s="109"/>
-      <c r="ET38" s="109"/>
-      <c r="EU38" s="109"/>
-      <c r="EV38" s="109"/>
-      <c r="EW38" s="109"/>
-      <c r="EX38" s="109"/>
-      <c r="EY38" s="109"/>
-      <c r="EZ38" s="109"/>
-      <c r="FA38" s="109"/>
-      <c r="FB38" s="109"/>
-      <c r="FC38" s="109"/>
-      <c r="FD38" s="109"/>
-      <c r="FE38" s="109"/>
-      <c r="FF38" s="109"/>
-      <c r="FG38" s="109"/>
-      <c r="FH38" s="109"/>
-      <c r="FI38" s="109"/>
-      <c r="FJ38" s="109"/>
-      <c r="FK38" s="109"/>
-      <c r="FL38" s="109"/>
-      <c r="FM38" s="109"/>
-      <c r="FN38" s="109"/>
-      <c r="FO38" s="109"/>
-      <c r="FP38" s="109"/>
-      <c r="FQ38" s="109"/>
-      <c r="FR38" s="109"/>
-      <c r="FS38" s="109"/>
-      <c r="FT38" s="109"/>
-      <c r="FU38" s="109"/>
-      <c r="FV38" s="109"/>
-      <c r="FW38" s="109"/>
-      <c r="FX38" s="109"/>
-      <c r="FY38" s="109"/>
-      <c r="FZ38" s="109"/>
-      <c r="GA38" s="109"/>
-      <c r="GB38" s="109"/>
-      <c r="GC38" s="109"/>
-      <c r="GD38" s="109"/>
-      <c r="GE38" s="109"/>
-      <c r="GF38" s="109"/>
-      <c r="GG38" s="109"/>
-      <c r="GH38" s="109"/>
-      <c r="GI38" s="109"/>
-      <c r="GJ38" s="109"/>
-      <c r="GK38" s="109"/>
-      <c r="GL38" s="109"/>
-      <c r="GM38" s="109"/>
-      <c r="GN38" s="109"/>
-      <c r="GO38" s="109"/>
-      <c r="GP38" s="109"/>
-      <c r="GQ38" s="109"/>
-      <c r="GR38" s="109"/>
-      <c r="GS38" s="109"/>
-      <c r="GT38" s="109"/>
-      <c r="GU38" s="109"/>
-      <c r="GV38" s="109"/>
-      <c r="GW38" s="109"/>
-      <c r="GX38" s="109"/>
-      <c r="GY38" s="109"/>
-      <c r="GZ38" s="109"/>
-      <c r="HA38" s="109"/>
-      <c r="HB38" s="109"/>
-      <c r="HC38" s="109"/>
-      <c r="HD38" s="109"/>
-      <c r="HE38" s="109"/>
-      <c r="HF38" s="109"/>
-      <c r="HG38" s="109"/>
-      <c r="HH38" s="110"/>
-      <c r="HI38" s="110"/>
-      <c r="HJ38" s="110"/>
-      <c r="HK38" s="110"/>
-      <c r="HL38" s="110"/>
-      <c r="HM38" s="110"/>
-      <c r="HN38" s="110"/>
-      <c r="HO38" s="110"/>
-      <c r="HP38" s="111"/>
-      <c r="HQ38" s="101"/>
-      <c r="HR38" s="106"/>
-      <c r="HS38" s="106"/>
-      <c r="HT38" s="101"/>
-      <c r="HU38" s="101"/>
-      <c r="HV38" s="101"/>
-      <c r="HW38" s="101"/>
-      <c r="HX38" s="101"/>
-      <c r="HY38" s="106"/>
-      <c r="HZ38" s="106"/>
-      <c r="IA38" s="101"/>
-      <c r="IB38" s="101"/>
-      <c r="IC38" s="101"/>
-      <c r="ID38" s="101"/>
-      <c r="IE38" s="101"/>
+      <c r="AL38" s="54"/>
+      <c r="AM38" s="54"/>
+      <c r="AN38" s="54"/>
+      <c r="AO38" s="59"/>
+      <c r="AP38" s="59"/>
+      <c r="AQ38" s="54"/>
+      <c r="AR38" s="54"/>
+      <c r="AS38" s="60"/>
+      <c r="AT38" s="61"/>
+      <c r="AU38" s="54"/>
+      <c r="AV38" s="62"/>
+      <c r="AW38" s="62"/>
+      <c r="AX38" s="62"/>
+      <c r="AY38" s="62"/>
+      <c r="AZ38" s="62"/>
+      <c r="BA38" s="62"/>
+      <c r="BB38" s="62"/>
+      <c r="BC38" s="62"/>
+      <c r="BD38" s="62"/>
+      <c r="BE38" s="62"/>
+      <c r="BF38" s="62"/>
+      <c r="BG38" s="62"/>
+      <c r="BH38" s="62"/>
+      <c r="BI38" s="62"/>
+      <c r="BJ38" s="62"/>
+      <c r="BK38" s="62"/>
+      <c r="BL38" s="62"/>
+      <c r="BM38" s="62"/>
+      <c r="BN38" s="62"/>
+      <c r="BO38" s="62"/>
+      <c r="BP38" s="62"/>
+      <c r="BQ38" s="62"/>
+      <c r="BR38" s="62"/>
+      <c r="BS38" s="62"/>
+      <c r="BT38" s="62"/>
+      <c r="BU38" s="62"/>
+      <c r="BV38" s="62"/>
+      <c r="BW38" s="62"/>
+      <c r="BX38" s="62"/>
+      <c r="BY38" s="62"/>
+      <c r="BZ38" s="62"/>
+      <c r="CA38" s="62"/>
+      <c r="CB38" s="62"/>
+      <c r="CC38" s="62"/>
+      <c r="CD38" s="62"/>
+      <c r="CE38" s="62"/>
+      <c r="CF38" s="62"/>
+      <c r="CG38" s="62"/>
+      <c r="CH38" s="62"/>
+      <c r="CI38" s="62"/>
+      <c r="CJ38" s="62"/>
+      <c r="CK38" s="62"/>
+      <c r="CL38" s="62"/>
+      <c r="CM38" s="62"/>
+      <c r="CN38" s="62"/>
+      <c r="CO38" s="62"/>
+      <c r="CP38" s="62"/>
+      <c r="CQ38" s="62"/>
+      <c r="CR38" s="62"/>
+      <c r="CS38" s="62"/>
+      <c r="CT38" s="62"/>
+      <c r="CU38" s="62"/>
+      <c r="CV38" s="62"/>
+      <c r="CW38" s="62"/>
+      <c r="CX38" s="62"/>
+      <c r="CY38" s="62"/>
+      <c r="CZ38" s="62"/>
+      <c r="DA38" s="62"/>
+      <c r="DB38" s="62"/>
+      <c r="DC38" s="62"/>
+      <c r="DD38" s="62"/>
+      <c r="DE38" s="62"/>
+      <c r="DF38" s="62"/>
+      <c r="DG38" s="62"/>
+      <c r="DH38" s="62"/>
+      <c r="DI38" s="62"/>
+      <c r="DJ38" s="62"/>
+      <c r="DK38" s="62"/>
+      <c r="DL38" s="62"/>
+      <c r="DM38" s="62"/>
+      <c r="DN38" s="62"/>
+      <c r="DO38" s="62"/>
+      <c r="DP38" s="62"/>
+      <c r="DQ38" s="62"/>
+      <c r="DR38" s="62"/>
+      <c r="DS38" s="62"/>
+      <c r="DT38" s="62"/>
+      <c r="DU38" s="62"/>
+      <c r="DV38" s="62"/>
+      <c r="DW38" s="62"/>
+      <c r="DX38" s="62"/>
+      <c r="DY38" s="62"/>
+      <c r="DZ38" s="62"/>
+      <c r="EA38" s="62"/>
+      <c r="EB38" s="62"/>
+      <c r="EC38" s="62"/>
+      <c r="ED38" s="62"/>
+      <c r="EE38" s="62"/>
+      <c r="EF38" s="62"/>
+      <c r="EG38" s="62"/>
+      <c r="EH38" s="62"/>
+      <c r="EI38" s="62"/>
+      <c r="EJ38" s="62"/>
+      <c r="EK38" s="62"/>
+      <c r="EL38" s="62"/>
+      <c r="EM38" s="62"/>
+      <c r="EN38" s="62"/>
+      <c r="EO38" s="62"/>
+      <c r="EP38" s="62"/>
+      <c r="EQ38" s="62"/>
+      <c r="ER38" s="62"/>
+      <c r="ES38" s="62"/>
+      <c r="ET38" s="62"/>
+      <c r="EU38" s="62"/>
+      <c r="EV38" s="62"/>
+      <c r="EW38" s="62"/>
+      <c r="EX38" s="62"/>
+      <c r="EY38" s="62"/>
+      <c r="EZ38" s="62"/>
+      <c r="FA38" s="62"/>
+      <c r="FB38" s="62"/>
+      <c r="FC38" s="62"/>
+      <c r="FD38" s="62"/>
+      <c r="FE38" s="62"/>
+      <c r="FF38" s="62"/>
+      <c r="FG38" s="62"/>
+      <c r="FH38" s="62"/>
+      <c r="FI38" s="62"/>
+      <c r="FJ38" s="62"/>
+      <c r="FK38" s="62"/>
+      <c r="FL38" s="62"/>
+      <c r="FM38" s="62"/>
+      <c r="FN38" s="62"/>
+      <c r="FO38" s="62"/>
+      <c r="FP38" s="62"/>
+      <c r="FQ38" s="62"/>
+      <c r="FR38" s="62"/>
+      <c r="FS38" s="62"/>
+      <c r="FT38" s="62"/>
+      <c r="FU38" s="62"/>
+      <c r="FV38" s="62"/>
+      <c r="FW38" s="62"/>
+      <c r="FX38" s="62"/>
+      <c r="FY38" s="62"/>
+      <c r="FZ38" s="62"/>
+      <c r="GA38" s="62"/>
+      <c r="GB38" s="62"/>
+      <c r="GC38" s="62"/>
+      <c r="GD38" s="62"/>
+      <c r="GE38" s="62"/>
+      <c r="GF38" s="62"/>
+      <c r="GG38" s="62"/>
+      <c r="GH38" s="62"/>
+      <c r="GI38" s="62"/>
+      <c r="GJ38" s="62"/>
+      <c r="GK38" s="62"/>
+      <c r="GL38" s="62"/>
+      <c r="GM38" s="62"/>
+      <c r="GN38" s="62"/>
+      <c r="GO38" s="62"/>
+      <c r="GP38" s="62"/>
+      <c r="GQ38" s="62"/>
+      <c r="GR38" s="62"/>
+      <c r="GS38" s="62"/>
+      <c r="GT38" s="62"/>
+      <c r="GU38" s="62"/>
+      <c r="GV38" s="62"/>
+      <c r="GW38" s="62"/>
+      <c r="GX38" s="62"/>
+      <c r="GY38" s="62"/>
+      <c r="GZ38" s="62"/>
+      <c r="HA38" s="62"/>
+      <c r="HB38" s="62"/>
+      <c r="HC38" s="62"/>
+      <c r="HD38" s="62"/>
+      <c r="HE38" s="62"/>
+      <c r="HF38" s="62"/>
+      <c r="HG38" s="62"/>
+      <c r="HH38" s="63"/>
+      <c r="HI38" s="63"/>
+      <c r="HJ38" s="63"/>
+      <c r="HK38" s="63"/>
+      <c r="HL38" s="63"/>
+      <c r="HM38" s="63"/>
+      <c r="HN38" s="63"/>
+      <c r="HO38" s="63"/>
+      <c r="HP38" s="64"/>
+      <c r="HQ38" s="54"/>
+      <c r="HR38" s="59"/>
+      <c r="HS38" s="59"/>
+      <c r="HT38" s="54"/>
+      <c r="HU38" s="54"/>
+      <c r="HV38" s="54"/>
+      <c r="HW38" s="54"/>
+      <c r="HX38" s="54"/>
+      <c r="HY38" s="59"/>
+      <c r="HZ38" s="59"/>
+      <c r="IA38" s="54"/>
+      <c r="IB38" s="54"/>
+      <c r="IC38" s="54"/>
+      <c r="ID38" s="54"/>
+      <c r="IE38" s="54"/>
     </row>
     <row r="39" spans="1:240">
-      <c r="A39" s="93"/>
-      <c r="B39" s="112"/>
-      <c r="C39" s="113"/>
-      <c r="D39" s="114"/>
-      <c r="E39" s="114"/>
-      <c r="F39" s="97">
+      <c r="A39" s="85"/>
+      <c r="B39" s="92"/>
+      <c r="C39" s="93"/>
+      <c r="D39" s="87"/>
+      <c r="E39" s="87"/>
+      <c r="F39" s="51">
         <v>42829</v>
       </c>
-      <c r="G39" s="97">
+      <c r="G39" s="51">
         <v>42829</v>
       </c>
-      <c r="H39" s="115"/>
-      <c r="I39" s="84"/>
-      <c r="J39" s="116"/>
-      <c r="K39" s="116"/>
-      <c r="L39" s="116"/>
-      <c r="M39" s="117"/>
-      <c r="N39" s="117"/>
-      <c r="O39" s="101"/>
-      <c r="P39" s="101"/>
-      <c r="Q39" s="101"/>
-      <c r="R39" s="101"/>
-      <c r="S39" s="102"/>
-      <c r="T39" s="103"/>
-      <c r="U39" s="103"/>
-      <c r="V39" s="102"/>
-      <c r="W39" s="102"/>
-      <c r="X39" s="102"/>
-      <c r="Y39" s="102"/>
-      <c r="Z39" s="102"/>
-      <c r="AA39" s="103"/>
-      <c r="AB39" s="103"/>
-      <c r="AC39" s="102"/>
-      <c r="AD39" s="102"/>
-      <c r="AE39" s="102"/>
-      <c r="AF39" s="102"/>
-      <c r="AG39" s="118"/>
-      <c r="AH39" s="106"/>
-      <c r="AI39" s="106"/>
-      <c r="AJ39" s="101"/>
-      <c r="AK39" s="101" t="s">
+      <c r="H39" s="89"/>
+      <c r="I39" s="76"/>
+      <c r="J39" s="65"/>
+      <c r="K39" s="65"/>
+      <c r="L39" s="65"/>
+      <c r="M39" s="66"/>
+      <c r="N39" s="66"/>
+      <c r="O39" s="54"/>
+      <c r="P39" s="54"/>
+      <c r="Q39" s="54"/>
+      <c r="R39" s="54"/>
+      <c r="S39" s="55"/>
+      <c r="T39" s="56"/>
+      <c r="U39" s="56"/>
+      <c r="V39" s="55"/>
+      <c r="W39" s="55"/>
+      <c r="X39" s="55"/>
+      <c r="Y39" s="55"/>
+      <c r="Z39" s="55"/>
+      <c r="AA39" s="56"/>
+      <c r="AB39" s="56"/>
+      <c r="AC39" s="55"/>
+      <c r="AD39" s="55"/>
+      <c r="AE39" s="55"/>
+      <c r="AF39" s="55"/>
+      <c r="AG39" s="67"/>
+      <c r="AH39" s="59"/>
+      <c r="AI39" s="59"/>
+      <c r="AJ39" s="54"/>
+      <c r="AK39" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AL39" s="101"/>
-      <c r="AM39" s="101"/>
-      <c r="AN39" s="101"/>
-      <c r="AO39" s="106"/>
-      <c r="AP39" s="106"/>
-      <c r="AQ39" s="101"/>
-      <c r="AR39" s="101"/>
-      <c r="AS39" s="107"/>
-      <c r="AT39" s="108"/>
-      <c r="AU39" s="101"/>
-      <c r="AV39" s="109"/>
-      <c r="AW39" s="109"/>
-      <c r="AX39" s="109"/>
-      <c r="AY39" s="109"/>
-      <c r="AZ39" s="109"/>
-      <c r="BA39" s="109"/>
-      <c r="BB39" s="109"/>
-      <c r="BC39" s="109"/>
-      <c r="BD39" s="109"/>
-      <c r="BE39" s="109"/>
-      <c r="BF39" s="109"/>
-      <c r="BG39" s="109"/>
-      <c r="BH39" s="109"/>
-      <c r="BI39" s="109"/>
-      <c r="BJ39" s="109"/>
-      <c r="BK39" s="109"/>
-      <c r="BL39" s="109"/>
-      <c r="BM39" s="109"/>
-      <c r="BN39" s="109"/>
-      <c r="BO39" s="109"/>
-      <c r="BP39" s="109"/>
-      <c r="BQ39" s="109"/>
-      <c r="BR39" s="109"/>
-      <c r="BS39" s="109"/>
-      <c r="BT39" s="109"/>
-      <c r="BU39" s="109"/>
-      <c r="BV39" s="109"/>
-      <c r="BW39" s="109"/>
-      <c r="BX39" s="109"/>
-      <c r="BY39" s="109"/>
-      <c r="BZ39" s="109"/>
-      <c r="CA39" s="109"/>
-      <c r="CB39" s="109"/>
-      <c r="CC39" s="109"/>
-      <c r="CD39" s="109"/>
-      <c r="CE39" s="109"/>
-      <c r="CF39" s="109"/>
-      <c r="CG39" s="109"/>
-      <c r="CH39" s="109"/>
-      <c r="CI39" s="109"/>
-      <c r="CJ39" s="109"/>
-      <c r="CK39" s="109"/>
-      <c r="CL39" s="109"/>
-      <c r="CM39" s="109"/>
-      <c r="CN39" s="109"/>
-      <c r="CO39" s="109"/>
-      <c r="CP39" s="109"/>
-      <c r="CQ39" s="109"/>
-      <c r="CR39" s="109"/>
-      <c r="CS39" s="109"/>
-      <c r="CT39" s="109"/>
-      <c r="CU39" s="109"/>
-      <c r="CV39" s="109"/>
-      <c r="CW39" s="109"/>
-      <c r="CX39" s="109"/>
-      <c r="CY39" s="109"/>
-      <c r="CZ39" s="109"/>
-      <c r="DA39" s="109"/>
-      <c r="DB39" s="109"/>
-      <c r="DC39" s="109"/>
-      <c r="DD39" s="109"/>
-      <c r="DE39" s="109"/>
-      <c r="DF39" s="109"/>
-      <c r="DG39" s="109"/>
-      <c r="DH39" s="109"/>
-      <c r="DI39" s="109"/>
-      <c r="DJ39" s="109"/>
-      <c r="DK39" s="109"/>
-      <c r="DL39" s="109"/>
-      <c r="DM39" s="109"/>
-      <c r="DN39" s="109"/>
-      <c r="DO39" s="109"/>
-      <c r="DP39" s="109"/>
-      <c r="DQ39" s="109"/>
-      <c r="DR39" s="109"/>
-      <c r="DS39" s="109"/>
-      <c r="DT39" s="109"/>
-      <c r="DU39" s="109"/>
-      <c r="DV39" s="109"/>
-      <c r="DW39" s="109"/>
-      <c r="DX39" s="109"/>
-      <c r="DY39" s="109"/>
-      <c r="DZ39" s="109"/>
-      <c r="EA39" s="109"/>
-      <c r="EB39" s="109"/>
-      <c r="EC39" s="109"/>
-      <c r="ED39" s="109"/>
-      <c r="EE39" s="109"/>
-      <c r="EF39" s="109"/>
-      <c r="EG39" s="109"/>
-      <c r="EH39" s="109"/>
-      <c r="EI39" s="109"/>
-      <c r="EJ39" s="109"/>
-      <c r="EK39" s="109"/>
-      <c r="EL39" s="109"/>
-      <c r="EM39" s="109"/>
-      <c r="EN39" s="109"/>
-      <c r="EO39" s="109"/>
-      <c r="EP39" s="109"/>
-      <c r="EQ39" s="109"/>
-      <c r="ER39" s="109"/>
-      <c r="ES39" s="109"/>
-      <c r="ET39" s="109"/>
-      <c r="EU39" s="109"/>
-      <c r="EV39" s="109"/>
-      <c r="EW39" s="109"/>
-      <c r="EX39" s="109"/>
-      <c r="EY39" s="109"/>
-      <c r="EZ39" s="109"/>
-      <c r="FA39" s="109"/>
-      <c r="FB39" s="109"/>
-      <c r="FC39" s="109"/>
-      <c r="FD39" s="109"/>
-      <c r="FE39" s="109"/>
-      <c r="FF39" s="109"/>
-      <c r="FG39" s="109"/>
-      <c r="FH39" s="109"/>
-      <c r="FI39" s="109"/>
-      <c r="FJ39" s="109"/>
-      <c r="FK39" s="109"/>
-      <c r="FL39" s="109"/>
-      <c r="FM39" s="109"/>
-      <c r="FN39" s="109"/>
-      <c r="FO39" s="109"/>
-      <c r="FP39" s="109"/>
-      <c r="FQ39" s="109"/>
-      <c r="FR39" s="109"/>
-      <c r="FS39" s="109"/>
-      <c r="FT39" s="109"/>
-      <c r="FU39" s="109"/>
-      <c r="FV39" s="109"/>
-      <c r="FW39" s="109"/>
-      <c r="FX39" s="109"/>
-      <c r="FY39" s="109"/>
-      <c r="FZ39" s="109"/>
-      <c r="GA39" s="109"/>
-      <c r="GB39" s="109"/>
-      <c r="GC39" s="109"/>
-      <c r="GD39" s="109"/>
-      <c r="GE39" s="109"/>
-      <c r="GF39" s="109"/>
-      <c r="GG39" s="109"/>
-      <c r="GH39" s="109"/>
-      <c r="GI39" s="109"/>
-      <c r="GJ39" s="109"/>
-      <c r="GK39" s="109"/>
-      <c r="GL39" s="109"/>
-      <c r="GM39" s="109"/>
-      <c r="GN39" s="109"/>
-      <c r="GO39" s="109"/>
-      <c r="GP39" s="109"/>
-      <c r="GQ39" s="109"/>
-      <c r="GR39" s="109"/>
-      <c r="GS39" s="109"/>
-      <c r="GT39" s="109"/>
-      <c r="GU39" s="109"/>
-      <c r="GV39" s="109"/>
-      <c r="GW39" s="109"/>
-      <c r="GX39" s="109"/>
-      <c r="GY39" s="109"/>
-      <c r="GZ39" s="109"/>
-      <c r="HA39" s="109"/>
-      <c r="HB39" s="109"/>
-      <c r="HC39" s="109"/>
-      <c r="HD39" s="109"/>
-      <c r="HE39" s="109"/>
-      <c r="HF39" s="109"/>
-      <c r="HG39" s="109"/>
-      <c r="HH39" s="110"/>
-      <c r="HI39" s="110"/>
-      <c r="HJ39" s="110"/>
-      <c r="HK39" s="110"/>
-      <c r="HL39" s="110"/>
-      <c r="HM39" s="110"/>
-      <c r="HN39" s="110"/>
-      <c r="HO39" s="110"/>
-      <c r="HP39" s="111"/>
-      <c r="HQ39" s="101"/>
-      <c r="HR39" s="106"/>
-      <c r="HS39" s="106"/>
-      <c r="HT39" s="101"/>
-      <c r="HU39" s="101"/>
-      <c r="HV39" s="101"/>
-      <c r="HW39" s="101"/>
-      <c r="HX39" s="101"/>
-      <c r="HY39" s="106"/>
-      <c r="HZ39" s="106"/>
-      <c r="IA39" s="101"/>
-      <c r="IB39" s="101"/>
-      <c r="IC39" s="101"/>
-      <c r="ID39" s="101"/>
-      <c r="IE39" s="101"/>
+      <c r="AL39" s="54"/>
+      <c r="AM39" s="54"/>
+      <c r="AN39" s="54"/>
+      <c r="AO39" s="59"/>
+      <c r="AP39" s="59"/>
+      <c r="AQ39" s="54"/>
+      <c r="AR39" s="54"/>
+      <c r="AS39" s="60"/>
+      <c r="AT39" s="61"/>
+      <c r="AU39" s="54"/>
+      <c r="AV39" s="62"/>
+      <c r="AW39" s="62"/>
+      <c r="AX39" s="62"/>
+      <c r="AY39" s="62"/>
+      <c r="AZ39" s="62"/>
+      <c r="BA39" s="62"/>
+      <c r="BB39" s="62"/>
+      <c r="BC39" s="62"/>
+      <c r="BD39" s="62"/>
+      <c r="BE39" s="62"/>
+      <c r="BF39" s="62"/>
+      <c r="BG39" s="62"/>
+      <c r="BH39" s="62"/>
+      <c r="BI39" s="62"/>
+      <c r="BJ39" s="62"/>
+      <c r="BK39" s="62"/>
+      <c r="BL39" s="62"/>
+      <c r="BM39" s="62"/>
+      <c r="BN39" s="62"/>
+      <c r="BO39" s="62"/>
+      <c r="BP39" s="62"/>
+      <c r="BQ39" s="62"/>
+      <c r="BR39" s="62"/>
+      <c r="BS39" s="62"/>
+      <c r="BT39" s="62"/>
+      <c r="BU39" s="62"/>
+      <c r="BV39" s="62"/>
+      <c r="BW39" s="62"/>
+      <c r="BX39" s="62"/>
+      <c r="BY39" s="62"/>
+      <c r="BZ39" s="62"/>
+      <c r="CA39" s="62"/>
+      <c r="CB39" s="62"/>
+      <c r="CC39" s="62"/>
+      <c r="CD39" s="62"/>
+      <c r="CE39" s="62"/>
+      <c r="CF39" s="62"/>
+      <c r="CG39" s="62"/>
+      <c r="CH39" s="62"/>
+      <c r="CI39" s="62"/>
+      <c r="CJ39" s="62"/>
+      <c r="CK39" s="62"/>
+      <c r="CL39" s="62"/>
+      <c r="CM39" s="62"/>
+      <c r="CN39" s="62"/>
+      <c r="CO39" s="62"/>
+      <c r="CP39" s="62"/>
+      <c r="CQ39" s="62"/>
+      <c r="CR39" s="62"/>
+      <c r="CS39" s="62"/>
+      <c r="CT39" s="62"/>
+      <c r="CU39" s="62"/>
+      <c r="CV39" s="62"/>
+      <c r="CW39" s="62"/>
+      <c r="CX39" s="62"/>
+      <c r="CY39" s="62"/>
+      <c r="CZ39" s="62"/>
+      <c r="DA39" s="62"/>
+      <c r="DB39" s="62"/>
+      <c r="DC39" s="62"/>
+      <c r="DD39" s="62"/>
+      <c r="DE39" s="62"/>
+      <c r="DF39" s="62"/>
+      <c r="DG39" s="62"/>
+      <c r="DH39" s="62"/>
+      <c r="DI39" s="62"/>
+      <c r="DJ39" s="62"/>
+      <c r="DK39" s="62"/>
+      <c r="DL39" s="62"/>
+      <c r="DM39" s="62"/>
+      <c r="DN39" s="62"/>
+      <c r="DO39" s="62"/>
+      <c r="DP39" s="62"/>
+      <c r="DQ39" s="62"/>
+      <c r="DR39" s="62"/>
+      <c r="DS39" s="62"/>
+      <c r="DT39" s="62"/>
+      <c r="DU39" s="62"/>
+      <c r="DV39" s="62"/>
+      <c r="DW39" s="62"/>
+      <c r="DX39" s="62"/>
+      <c r="DY39" s="62"/>
+      <c r="DZ39" s="62"/>
+      <c r="EA39" s="62"/>
+      <c r="EB39" s="62"/>
+      <c r="EC39" s="62"/>
+      <c r="ED39" s="62"/>
+      <c r="EE39" s="62"/>
+      <c r="EF39" s="62"/>
+      <c r="EG39" s="62"/>
+      <c r="EH39" s="62"/>
+      <c r="EI39" s="62"/>
+      <c r="EJ39" s="62"/>
+      <c r="EK39" s="62"/>
+      <c r="EL39" s="62"/>
+      <c r="EM39" s="62"/>
+      <c r="EN39" s="62"/>
+      <c r="EO39" s="62"/>
+      <c r="EP39" s="62"/>
+      <c r="EQ39" s="62"/>
+      <c r="ER39" s="62"/>
+      <c r="ES39" s="62"/>
+      <c r="ET39" s="62"/>
+      <c r="EU39" s="62"/>
+      <c r="EV39" s="62"/>
+      <c r="EW39" s="62"/>
+      <c r="EX39" s="62"/>
+      <c r="EY39" s="62"/>
+      <c r="EZ39" s="62"/>
+      <c r="FA39" s="62"/>
+      <c r="FB39" s="62"/>
+      <c r="FC39" s="62"/>
+      <c r="FD39" s="62"/>
+      <c r="FE39" s="62"/>
+      <c r="FF39" s="62"/>
+      <c r="FG39" s="62"/>
+      <c r="FH39" s="62"/>
+      <c r="FI39" s="62"/>
+      <c r="FJ39" s="62"/>
+      <c r="FK39" s="62"/>
+      <c r="FL39" s="62"/>
+      <c r="FM39" s="62"/>
+      <c r="FN39" s="62"/>
+      <c r="FO39" s="62"/>
+      <c r="FP39" s="62"/>
+      <c r="FQ39" s="62"/>
+      <c r="FR39" s="62"/>
+      <c r="FS39" s="62"/>
+      <c r="FT39" s="62"/>
+      <c r="FU39" s="62"/>
+      <c r="FV39" s="62"/>
+      <c r="FW39" s="62"/>
+      <c r="FX39" s="62"/>
+      <c r="FY39" s="62"/>
+      <c r="FZ39" s="62"/>
+      <c r="GA39" s="62"/>
+      <c r="GB39" s="62"/>
+      <c r="GC39" s="62"/>
+      <c r="GD39" s="62"/>
+      <c r="GE39" s="62"/>
+      <c r="GF39" s="62"/>
+      <c r="GG39" s="62"/>
+      <c r="GH39" s="62"/>
+      <c r="GI39" s="62"/>
+      <c r="GJ39" s="62"/>
+      <c r="GK39" s="62"/>
+      <c r="GL39" s="62"/>
+      <c r="GM39" s="62"/>
+      <c r="GN39" s="62"/>
+      <c r="GO39" s="62"/>
+      <c r="GP39" s="62"/>
+      <c r="GQ39" s="62"/>
+      <c r="GR39" s="62"/>
+      <c r="GS39" s="62"/>
+      <c r="GT39" s="62"/>
+      <c r="GU39" s="62"/>
+      <c r="GV39" s="62"/>
+      <c r="GW39" s="62"/>
+      <c r="GX39" s="62"/>
+      <c r="GY39" s="62"/>
+      <c r="GZ39" s="62"/>
+      <c r="HA39" s="62"/>
+      <c r="HB39" s="62"/>
+      <c r="HC39" s="62"/>
+      <c r="HD39" s="62"/>
+      <c r="HE39" s="62"/>
+      <c r="HF39" s="62"/>
+      <c r="HG39" s="62"/>
+      <c r="HH39" s="63"/>
+      <c r="HI39" s="63"/>
+      <c r="HJ39" s="63"/>
+      <c r="HK39" s="63"/>
+      <c r="HL39" s="63"/>
+      <c r="HM39" s="63"/>
+      <c r="HN39" s="63"/>
+      <c r="HO39" s="63"/>
+      <c r="HP39" s="64"/>
+      <c r="HQ39" s="54"/>
+      <c r="HR39" s="59"/>
+      <c r="HS39" s="59"/>
+      <c r="HT39" s="54"/>
+      <c r="HU39" s="54"/>
+      <c r="HV39" s="54"/>
+      <c r="HW39" s="54"/>
+      <c r="HX39" s="54"/>
+      <c r="HY39" s="59"/>
+      <c r="HZ39" s="59"/>
+      <c r="IA39" s="54"/>
+      <c r="IB39" s="54"/>
+      <c r="IC39" s="54"/>
+      <c r="ID39" s="54"/>
+      <c r="IE39" s="54"/>
     </row>
     <row r="40" spans="1:240" ht="12" customHeight="1">
-      <c r="A40" s="93">
+      <c r="A40" s="85">
         <v>19</v>
       </c>
-      <c r="B40" s="112"/>
-      <c r="C40" s="113"/>
-      <c r="D40" s="93" t="s">
+      <c r="B40" s="92"/>
+      <c r="C40" s="93"/>
+      <c r="D40" s="85" t="s">
         <v>43</v>
       </c>
-      <c r="E40" s="96" t="s">
+      <c r="E40" s="86" t="s">
         <v>40</v>
       </c>
-      <c r="F40" s="97">
+      <c r="F40" s="51">
         <v>42830</v>
       </c>
-      <c r="G40" s="97">
+      <c r="G40" s="51">
         <v>42837</v>
       </c>
-      <c r="H40" s="98">
+      <c r="H40" s="88">
         <v>0.05</v>
       </c>
-      <c r="I40" s="98"/>
-      <c r="J40" s="99"/>
-      <c r="K40" s="99"/>
-      <c r="L40" s="99"/>
-      <c r="M40" s="100"/>
-      <c r="N40" s="100"/>
-      <c r="O40" s="101"/>
-      <c r="P40" s="101"/>
-      <c r="Q40" s="101"/>
-      <c r="R40" s="101"/>
-      <c r="S40" s="101"/>
-      <c r="T40" s="103"/>
-      <c r="U40" s="103"/>
-      <c r="V40" s="102"/>
-      <c r="W40" s="102"/>
-      <c r="X40" s="101"/>
-      <c r="Y40" s="101"/>
-      <c r="Z40" s="101"/>
-      <c r="AA40" s="103"/>
-      <c r="AB40" s="103"/>
-      <c r="AC40" s="101"/>
-      <c r="AD40" s="102"/>
-      <c r="AE40" s="102"/>
-      <c r="AF40" s="102"/>
-      <c r="AG40" s="118"/>
-      <c r="AH40" s="119"/>
-      <c r="AI40" s="119"/>
-      <c r="AJ40" s="101"/>
-      <c r="AK40" s="101"/>
-      <c r="AL40" s="101" t="s">
+      <c r="I40" s="88"/>
+      <c r="J40" s="52"/>
+      <c r="K40" s="52"/>
+      <c r="L40" s="52"/>
+      <c r="M40" s="53"/>
+      <c r="N40" s="53"/>
+      <c r="O40" s="54"/>
+      <c r="P40" s="54"/>
+      <c r="Q40" s="54"/>
+      <c r="R40" s="54"/>
+      <c r="S40" s="54"/>
+      <c r="T40" s="56"/>
+      <c r="U40" s="56"/>
+      <c r="V40" s="55"/>
+      <c r="W40" s="55"/>
+      <c r="X40" s="54"/>
+      <c r="Y40" s="54"/>
+      <c r="Z40" s="54"/>
+      <c r="AA40" s="56"/>
+      <c r="AB40" s="56"/>
+      <c r="AC40" s="54"/>
+      <c r="AD40" s="55"/>
+      <c r="AE40" s="55"/>
+      <c r="AF40" s="55"/>
+      <c r="AG40" s="67"/>
+      <c r="AH40" s="68"/>
+      <c r="AI40" s="68"/>
+      <c r="AJ40" s="54"/>
+      <c r="AK40" s="54"/>
+      <c r="AL40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AM40" s="101" t="s">
+      <c r="AM40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AN40" s="101" t="s">
+      <c r="AN40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AO40" s="106" t="s">
+      <c r="AO40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AP40" s="106" t="s">
+      <c r="AP40" s="59" t="s">
         <v>4</v>
       </c>
-      <c r="AQ40" s="101" t="s">
+      <c r="AQ40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AR40" s="101" t="s">
+      <c r="AR40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AS40" s="101" t="s">
+      <c r="AS40" s="54" t="s">
         <v>4</v>
       </c>
-      <c r="AT40" s="108"/>
-      <c r="AU40" s="101"/>
-      <c r="AV40" s="109"/>
-      <c r="AW40" s="109"/>
-      <c r="AX40" s="109"/>
-      <c r="AY40" s="109"/>
-      <c r="AZ40" s="109"/>
-      <c r="BA40" s="109"/>
-      <c r="BB40" s="109"/>
-      <c r="BC40" s="109"/>
-      <c r="BD40" s="109"/>
-      <c r="BE40" s="109"/>
-      <c r="BF40" s="109"/>
-      <c r="BG40" s="109"/>
-      <c r="BH40" s="109"/>
-      <c r="BI40" s="109"/>
-      <c r="BJ40" s="109"/>
-      <c r="BK40" s="109"/>
-      <c r="BL40" s="109"/>
-      <c r="BM40" s="109"/>
-      <c r="BN40" s="109"/>
-      <c r="BO40" s="109"/>
-      <c r="BP40" s="109"/>
-      <c r="BQ40" s="109"/>
-      <c r="BR40" s="109"/>
-      <c r="BS40" s="109"/>
-      <c r="BT40" s="109"/>
-      <c r="BU40" s="109"/>
-      <c r="BV40" s="109"/>
-      <c r="BW40" s="109"/>
-      <c r="BX40" s="109"/>
-      <c r="BY40" s="109"/>
-      <c r="BZ40" s="109"/>
-      <c r="CA40" s="109"/>
-      <c r="CB40" s="109"/>
-      <c r="CC40" s="109"/>
-      <c r="CD40" s="109"/>
-      <c r="CE40" s="109"/>
-      <c r="CF40" s="109"/>
-      <c r="CG40" s="109"/>
-      <c r="CH40" s="109"/>
-      <c r="CI40" s="109"/>
-      <c r="CJ40" s="109"/>
-      <c r="CK40" s="109"/>
-      <c r="CL40" s="109"/>
-      <c r="CM40" s="109"/>
-      <c r="CN40" s="109"/>
-      <c r="CO40" s="109"/>
-      <c r="CP40" s="109"/>
-      <c r="CQ40" s="109"/>
-      <c r="CR40" s="109"/>
-      <c r="CS40" s="109"/>
-      <c r="CT40" s="109"/>
-      <c r="CU40" s="109"/>
-      <c r="CV40" s="109"/>
-      <c r="CW40" s="109"/>
-      <c r="CX40" s="109"/>
-      <c r="CY40" s="109"/>
-      <c r="CZ40" s="109"/>
-      <c r="DA40" s="109"/>
-      <c r="DB40" s="109"/>
-      <c r="DC40" s="109"/>
-      <c r="DD40" s="109"/>
-      <c r="DE40" s="109"/>
-      <c r="DF40" s="109"/>
-      <c r="DG40" s="109"/>
-      <c r="DH40" s="109"/>
-      <c r="DI40" s="109"/>
-      <c r="DJ40" s="109"/>
-      <c r="DK40" s="109"/>
-      <c r="DL40" s="109"/>
-      <c r="DM40" s="109"/>
-      <c r="DN40" s="109"/>
-      <c r="DO40" s="109"/>
-      <c r="DP40" s="109"/>
-      <c r="DQ40" s="109"/>
-      <c r="DR40" s="109"/>
-      <c r="DS40" s="109"/>
-      <c r="DT40" s="109"/>
-      <c r="DU40" s="109"/>
-      <c r="DV40" s="109"/>
-      <c r="DW40" s="109"/>
-      <c r="DX40" s="109"/>
-      <c r="DY40" s="109"/>
-      <c r="DZ40" s="109"/>
-      <c r="EA40" s="109"/>
-      <c r="EB40" s="109"/>
-      <c r="EC40" s="109"/>
-      <c r="ED40" s="109"/>
-      <c r="EE40" s="109"/>
-      <c r="EF40" s="109"/>
-      <c r="EG40" s="109"/>
-      <c r="EH40" s="109"/>
-      <c r="EI40" s="109"/>
-      <c r="EJ40" s="109"/>
-      <c r="EK40" s="109"/>
-      <c r="EL40" s="109"/>
-      <c r="EM40" s="109"/>
-      <c r="EN40" s="109"/>
-      <c r="EO40" s="109"/>
-      <c r="EP40" s="109"/>
-      <c r="EQ40" s="109"/>
-      <c r="ER40" s="109"/>
-      <c r="ES40" s="109"/>
-      <c r="ET40" s="109"/>
-      <c r="EU40" s="109"/>
-      <c r="EV40" s="109"/>
-      <c r="EW40" s="109"/>
-      <c r="EX40" s="109"/>
-      <c r="EY40" s="109"/>
-      <c r="EZ40" s="109"/>
-      <c r="FA40" s="109"/>
-      <c r="FB40" s="109"/>
-      <c r="FC40" s="109"/>
-      <c r="FD40" s="109"/>
-      <c r="FE40" s="109"/>
-      <c r="FF40" s="109"/>
-      <c r="FG40" s="109"/>
-      <c r="FH40" s="109"/>
-      <c r="FI40" s="109"/>
-      <c r="FJ40" s="109"/>
-      <c r="FK40" s="109"/>
-      <c r="FL40" s="109"/>
-      <c r="FM40" s="109"/>
-      <c r="FN40" s="109"/>
-      <c r="FO40" s="109"/>
-      <c r="FP40" s="109"/>
-      <c r="FQ40" s="109"/>
-      <c r="FR40" s="109"/>
-      <c r="FS40" s="109"/>
-      <c r="FT40" s="109"/>
-      <c r="FU40" s="109"/>
-      <c r="FV40" s="109"/>
-      <c r="FW40" s="109"/>
-      <c r="FX40" s="109"/>
-      <c r="FY40" s="109"/>
-      <c r="FZ40" s="109"/>
-      <c r="GA40" s="109"/>
-      <c r="GB40" s="109"/>
-      <c r="GC40" s="109"/>
-      <c r="GD40" s="109"/>
-      <c r="GE40" s="109"/>
-      <c r="GF40" s="109"/>
-      <c r="GG40" s="109"/>
-      <c r="GH40" s="109"/>
-      <c r="GI40" s="109"/>
-      <c r="GJ40" s="109"/>
-      <c r="GK40" s="109"/>
-      <c r="GL40" s="109"/>
-      <c r="GM40" s="109"/>
-      <c r="GN40" s="109"/>
-      <c r="GO40" s="109"/>
-      <c r="GP40" s="109"/>
-      <c r="GQ40" s="109"/>
-      <c r="GR40" s="109"/>
-      <c r="GS40" s="109"/>
-      <c r="GT40" s="109"/>
-      <c r="GU40" s="109"/>
-      <c r="GV40" s="109"/>
-      <c r="GW40" s="109"/>
-      <c r="GX40" s="109"/>
-      <c r="GY40" s="109"/>
-      <c r="GZ40" s="109"/>
-      <c r="HA40" s="109"/>
-      <c r="HB40" s="109"/>
-      <c r="HC40" s="109"/>
-      <c r="HD40" s="109"/>
-      <c r="HE40" s="109"/>
-      <c r="HF40" s="109"/>
-      <c r="HG40" s="109"/>
-      <c r="HH40" s="110"/>
-      <c r="HI40" s="110"/>
-      <c r="HJ40" s="110"/>
-      <c r="HK40" s="110"/>
-      <c r="HL40" s="110"/>
-      <c r="HM40" s="110"/>
-      <c r="HN40" s="110"/>
-      <c r="HO40" s="110"/>
-      <c r="HP40" s="111"/>
-      <c r="HQ40" s="101"/>
-      <c r="HR40" s="106"/>
-      <c r="HS40" s="106"/>
-      <c r="HT40" s="101"/>
-      <c r="HU40" s="101"/>
-      <c r="HV40" s="101"/>
-      <c r="HW40" s="101"/>
-      <c r="HX40" s="101"/>
-      <c r="HY40" s="106"/>
-      <c r="HZ40" s="106"/>
-      <c r="IA40" s="101"/>
-      <c r="IB40" s="101"/>
-      <c r="IC40" s="101"/>
-      <c r="ID40" s="101"/>
-      <c r="IE40" s="101"/>
+      <c r="AT40" s="61"/>
+      <c r="AU40" s="54"/>
+      <c r="AV40" s="62"/>
+      <c r="AW40" s="62"/>
+      <c r="AX40" s="62"/>
+      <c r="AY40" s="62"/>
+      <c r="AZ40" s="62"/>
+      <c r="BA40" s="62"/>
+      <c r="BB40" s="62"/>
+      <c r="BC40" s="62"/>
+      <c r="BD40" s="62"/>
+      <c r="BE40" s="62"/>
+      <c r="BF40" s="62"/>
+      <c r="BG40" s="62"/>
+      <c r="BH40" s="62"/>
+      <c r="BI40" s="62"/>
+      <c r="BJ40" s="62"/>
+      <c r="BK40" s="62"/>
+      <c r="BL40" s="62"/>
+      <c r="BM40" s="62"/>
+      <c r="BN40" s="62"/>
+      <c r="BO40" s="62"/>
+      <c r="BP40" s="62"/>
+      <c r="BQ40" s="62"/>
+      <c r="BR40" s="62"/>
+      <c r="BS40" s="62"/>
+      <c r="BT40" s="62"/>
+      <c r="BU40" s="62"/>
+      <c r="BV40" s="62"/>
+      <c r="BW40" s="62"/>
+      <c r="BX40" s="62"/>
+      <c r="BY40" s="62"/>
+      <c r="BZ40" s="62"/>
+      <c r="CA40" s="62"/>
+      <c r="CB40" s="62"/>
+      <c r="CC40" s="62"/>
+      <c r="CD40" s="62"/>
+      <c r="CE40" s="62"/>
+      <c r="CF40" s="62"/>
+      <c r="CG40" s="62"/>
+      <c r="CH40" s="62"/>
+      <c r="CI40" s="62"/>
+      <c r="CJ40" s="62"/>
+      <c r="CK40" s="62"/>
+      <c r="CL40" s="62"/>
+      <c r="CM40" s="62"/>
+      <c r="CN40" s="62"/>
+      <c r="CO40" s="62"/>
+      <c r="CP40" s="62"/>
+      <c r="CQ40" s="62"/>
+      <c r="CR40" s="62"/>
+      <c r="CS40" s="62"/>
+      <c r="CT40" s="62"/>
+      <c r="CU40" s="62"/>
+      <c r="CV40" s="62"/>
+      <c r="CW40" s="62"/>
+      <c r="CX40" s="62"/>
+      <c r="CY40" s="62"/>
+      <c r="CZ40" s="62"/>
+      <c r="DA40" s="62"/>
+      <c r="DB40" s="62"/>
+      <c r="DC40" s="62"/>
+      <c r="DD40" s="62"/>
+      <c r="DE40" s="62"/>
+      <c r="DF40" s="62"/>
+      <c r="DG40" s="62"/>
+      <c r="DH40" s="62"/>
+      <c r="DI40" s="62"/>
+      <c r="DJ40" s="62"/>
+      <c r="DK40" s="62"/>
+      <c r="DL40" s="62"/>
+      <c r="DM40" s="62"/>
+      <c r="DN40" s="62"/>
+      <c r="DO40" s="62"/>
+      <c r="DP40" s="62"/>
+      <c r="DQ40" s="62"/>
+      <c r="DR40" s="62"/>
+      <c r="DS40" s="62"/>
+      <c r="DT40" s="62"/>
+      <c r="DU40" s="62"/>
+      <c r="DV40" s="62"/>
+      <c r="DW40" s="62"/>
+      <c r="DX40" s="62"/>
+      <c r="DY40" s="62"/>
+      <c r="DZ40" s="62"/>
+      <c r="EA40" s="62"/>
+      <c r="EB40" s="62"/>
+      <c r="EC40" s="62"/>
+      <c r="ED40" s="62"/>
+      <c r="EE40" s="62"/>
+      <c r="EF40" s="62"/>
+      <c r="EG40" s="62"/>
+      <c r="EH40" s="62"/>
+      <c r="EI40" s="62"/>
+      <c r="EJ40" s="62"/>
+      <c r="EK40" s="62"/>
+      <c r="EL40" s="62"/>
+      <c r="EM40" s="62"/>
+      <c r="EN40" s="62"/>
+      <c r="EO40" s="62"/>
+      <c r="EP40" s="62"/>
+      <c r="EQ40" s="62"/>
+      <c r="ER40" s="62"/>
+      <c r="ES40" s="62"/>
+      <c r="ET40" s="62"/>
+      <c r="EU40" s="62"/>
+      <c r="EV40" s="62"/>
+      <c r="EW40" s="62"/>
+      <c r="EX40" s="62"/>
+      <c r="EY40" s="62"/>
+      <c r="EZ40" s="62"/>
+      <c r="FA40" s="62"/>
+      <c r="FB40" s="62"/>
+      <c r="FC40" s="62"/>
+      <c r="FD40" s="62"/>
+      <c r="FE40" s="62"/>
+      <c r="FF40" s="62"/>
+      <c r="FG40" s="62"/>
+      <c r="FH40" s="62"/>
+      <c r="FI40" s="62"/>
+      <c r="FJ40" s="62"/>
+      <c r="FK40" s="62"/>
+      <c r="FL40" s="62"/>
+      <c r="FM40" s="62"/>
+      <c r="FN40" s="62"/>
+      <c r="FO40" s="62"/>
+      <c r="FP40" s="62"/>
+      <c r="FQ40" s="62"/>
+      <c r="FR40" s="62"/>
+      <c r="FS40" s="62"/>
+      <c r="FT40" s="62"/>
+      <c r="FU40" s="62"/>
+      <c r="FV40" s="62"/>
+      <c r="FW40" s="62"/>
+      <c r="FX40" s="62"/>
+      <c r="FY40" s="62"/>
+      <c r="FZ40" s="62"/>
+      <c r="GA40" s="62"/>
+      <c r="GB40" s="62"/>
+      <c r="GC40" s="62"/>
+      <c r="GD40" s="62"/>
+      <c r="GE40" s="62"/>
+      <c r="GF40" s="62"/>
+      <c r="GG40" s="62"/>
+      <c r="GH40" s="62"/>
+      <c r="GI40" s="62"/>
+      <c r="GJ40" s="62"/>
+      <c r="GK40" s="62"/>
+      <c r="GL40" s="62"/>
+      <c r="GM40" s="62"/>
+      <c r="GN40" s="62"/>
+      <c r="GO40" s="62"/>
+      <c r="GP40" s="62"/>
+      <c r="GQ40" s="62"/>
+      <c r="GR40" s="62"/>
+      <c r="GS40" s="62"/>
+      <c r="GT40" s="62"/>
+      <c r="GU40" s="62"/>
+      <c r="GV40" s="62"/>
+      <c r="GW40" s="62"/>
+      <c r="GX40" s="62"/>
+      <c r="GY40" s="62"/>
+      <c r="GZ40" s="62"/>
+      <c r="HA40" s="62"/>
+      <c r="HB40" s="62"/>
+      <c r="HC40" s="62"/>
+      <c r="HD40" s="62"/>
+      <c r="HE40" s="62"/>
+      <c r="HF40" s="62"/>
+      <c r="HG40" s="62"/>
+      <c r="HH40" s="63"/>
+      <c r="HI40" s="63"/>
+      <c r="HJ40" s="63"/>
+      <c r="HK40" s="63"/>
+      <c r="HL40" s="63"/>
+      <c r="HM40" s="63"/>
+      <c r="HN40" s="63"/>
+      <c r="HO40" s="63"/>
+      <c r="HP40" s="64"/>
+      <c r="HQ40" s="54"/>
+      <c r="HR40" s="59"/>
+      <c r="HS40" s="59"/>
+      <c r="HT40" s="54"/>
+      <c r="HU40" s="54"/>
+      <c r="HV40" s="54"/>
+      <c r="HW40" s="54"/>
+      <c r="HX40" s="54"/>
+      <c r="HY40" s="59"/>
+      <c r="HZ40" s="59"/>
+      <c r="IA40" s="54"/>
+      <c r="IB40" s="54"/>
+      <c r="IC40" s="54"/>
+      <c r="ID40" s="54"/>
+      <c r="IE40" s="54"/>
     </row>
     <row r="41" spans="1:240">
-      <c r="A41" s="93"/>
-      <c r="B41" s="120"/>
-      <c r="C41" s="121"/>
-      <c r="D41" s="93"/>
-      <c r="E41" s="114"/>
-      <c r="F41" s="97">
+      <c r="A41" s="85"/>
+      <c r="B41" s="94"/>
+      <c r="C41" s="95"/>
+      <c r="D41" s="85"/>
+      <c r="E41" s="87"/>
+      <c r="F41" s="51">
         <v>42830</v>
       </c>
-      <c r="G41" s="97"/>
-      <c r="H41" s="115"/>
-      <c r="I41" s="115"/>
-      <c r="J41" s="116"/>
-      <c r="K41" s="116"/>
-      <c r="L41" s="116"/>
-      <c r="M41" s="117"/>
-      <c r="N41" s="117"/>
-      <c r="O41" s="101"/>
-      <c r="P41" s="101"/>
-      <c r="Q41" s="101"/>
-      <c r="R41" s="101"/>
-      <c r="S41" s="102"/>
-      <c r="T41" s="103"/>
-      <c r="U41" s="103"/>
-      <c r="V41" s="102"/>
-      <c r="W41" s="102"/>
-      <c r="X41" s="101"/>
-      <c r="Y41" s="101"/>
-      <c r="Z41" s="101"/>
-      <c r="AA41" s="103"/>
-      <c r="AB41" s="103"/>
-      <c r="AC41" s="101"/>
-      <c r="AD41" s="102"/>
-      <c r="AE41" s="102"/>
-      <c r="AF41" s="102"/>
-      <c r="AG41" s="118"/>
-      <c r="AH41" s="106"/>
-      <c r="AI41" s="106"/>
-      <c r="AJ41" s="101"/>
-      <c r="AK41" s="101"/>
-      <c r="AL41" s="101" t="s">
+      <c r="G41" s="51"/>
+      <c r="H41" s="89"/>
+      <c r="I41" s="89"/>
+      <c r="J41" s="65"/>
+      <c r="K41" s="65"/>
+      <c r="L41" s="65"/>
+      <c r="M41" s="66"/>
+      <c r="N41" s="66"/>
+      <c r="O41" s="54"/>
+      <c r="P41" s="54"/>
+      <c r="Q41" s="54"/>
+      <c r="R41" s="54"/>
+      <c r="S41" s="55"/>
+      <c r="T41" s="56"/>
+      <c r="U41" s="56"/>
+      <c r="V41" s="55"/>
+      <c r="W41" s="55"/>
+      <c r="X41" s="54"/>
+      <c r="Y41" s="54"/>
+      <c r="Z41" s="54"/>
+      <c r="AA41" s="56"/>
+      <c r="AB41" s="56"/>
+      <c r="AC41" s="54"/>
+      <c r="AD41" s="55"/>
+      <c r="AE41" s="55"/>
+      <c r="AF41" s="55"/>
+      <c r="AG41" s="67"/>
+      <c r="AH41" s="59"/>
+      <c r="AI41" s="59"/>
+      <c r="AJ41" s="54"/>
+      <c r="AK41" s="54"/>
+      <c r="AL41" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AM41" s="101" t="s">
+      <c r="AM41" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AN41" s="101" t="s">
+      <c r="AN41" s="54" t="s">
         <v>5</v>
       </c>
-      <c r="AO41" s="106"/>
-      <c r="AP41" s="106"/>
-      <c r="AQ41" s="101"/>
-      <c r="AR41" s="101"/>
-      <c r="AS41" s="107"/>
-      <c r="AT41" s="108"/>
-      <c r="AU41" s="101"/>
-      <c r="AV41" s="109"/>
-      <c r="AW41" s="109"/>
-      <c r="AX41" s="109"/>
-      <c r="AY41" s="109"/>
-      <c r="AZ41" s="109"/>
-      <c r="BA41" s="109"/>
-      <c r="BB41" s="109"/>
-      <c r="BC41" s="109"/>
-      <c r="BD41" s="109"/>
-      <c r="BE41" s="109"/>
-      <c r="BF41" s="109"/>
-      <c r="BG41" s="109"/>
-      <c r="BH41" s="109"/>
-      <c r="BI41" s="109"/>
-      <c r="BJ41" s="109"/>
-      <c r="BK41" s="109"/>
-      <c r="BL41" s="109"/>
-      <c r="BM41" s="109"/>
-      <c r="BN41" s="109"/>
-      <c r="BO41" s="109"/>
-      <c r="BP41" s="109"/>
-      <c r="BQ41" s="109"/>
-      <c r="BR41" s="109"/>
-      <c r="BS41" s="109"/>
-      <c r="BT41" s="109"/>
-      <c r="BU41" s="109"/>
-      <c r="BV41" s="109"/>
-      <c r="BW41" s="109"/>
-      <c r="BX41" s="109"/>
-      <c r="BY41" s="109"/>
-      <c r="BZ41" s="109"/>
-      <c r="CA41" s="109"/>
-      <c r="CB41" s="109"/>
-      <c r="CC41" s="109"/>
-      <c r="CD41" s="109"/>
-      <c r="CE41" s="109"/>
-      <c r="CF41" s="109"/>
-      <c r="CG41" s="109"/>
-      <c r="CH41" s="109"/>
-      <c r="CI41" s="109"/>
-      <c r="CJ41" s="109"/>
-      <c r="CK41" s="109"/>
-      <c r="CL41" s="109"/>
-      <c r="CM41" s="109"/>
-      <c r="CN41" s="109"/>
-      <c r="CO41" s="109"/>
-      <c r="CP41" s="109"/>
-      <c r="CQ41" s="109"/>
-      <c r="CR41" s="109"/>
-      <c r="CS41" s="109"/>
-      <c r="CT41" s="109"/>
-      <c r="CU41" s="109"/>
-      <c r="CV41" s="109"/>
-      <c r="CW41" s="109"/>
-      <c r="CX41" s="109"/>
-      <c r="CY41" s="109"/>
-      <c r="CZ41" s="109"/>
-      <c r="DA41" s="109"/>
-      <c r="DB41" s="109"/>
-      <c r="DC41" s="109"/>
-      <c r="DD41" s="109"/>
-      <c r="DE41" s="109"/>
-      <c r="DF41" s="109"/>
-      <c r="DG41" s="109"/>
-      <c r="DH41" s="109"/>
-      <c r="DI41" s="109"/>
-      <c r="DJ41" s="109"/>
-      <c r="DK41" s="109"/>
-      <c r="DL41" s="109"/>
-      <c r="DM41" s="109"/>
-      <c r="DN41" s="109"/>
-      <c r="DO41" s="109"/>
-      <c r="DP41" s="109"/>
-      <c r="DQ41" s="109"/>
-      <c r="DR41" s="109"/>
-      <c r="DS41" s="109"/>
-      <c r="DT41" s="109"/>
-      <c r="DU41" s="109"/>
-      <c r="DV41" s="109"/>
-      <c r="DW41" s="109"/>
-      <c r="DX41" s="109"/>
-      <c r="DY41" s="109"/>
-      <c r="DZ41" s="109"/>
-      <c r="EA41" s="109"/>
-      <c r="EB41" s="109"/>
-      <c r="EC41" s="109"/>
-      <c r="ED41" s="109"/>
-      <c r="EE41" s="109"/>
-      <c r="EF41" s="109"/>
-      <c r="EG41" s="109"/>
-      <c r="EH41" s="109"/>
-      <c r="EI41" s="109"/>
-      <c r="EJ41" s="109"/>
-      <c r="EK41" s="109"/>
-      <c r="EL41" s="109"/>
-      <c r="EM41" s="109"/>
-      <c r="EN41" s="109"/>
-      <c r="EO41" s="109"/>
-      <c r="EP41" s="109"/>
-      <c r="EQ41" s="109"/>
-      <c r="ER41" s="109"/>
-      <c r="ES41" s="109"/>
-      <c r="ET41" s="109"/>
-      <c r="EU41" s="109"/>
-      <c r="EV41" s="109"/>
-      <c r="EW41" s="109"/>
-      <c r="EX41" s="109"/>
-      <c r="EY41" s="109"/>
-      <c r="EZ41" s="109"/>
-      <c r="FA41" s="109"/>
-      <c r="FB41" s="109"/>
-      <c r="FC41" s="109"/>
-      <c r="FD41" s="109"/>
-      <c r="FE41" s="109"/>
-      <c r="FF41" s="109"/>
-      <c r="FG41" s="109"/>
-      <c r="FH41" s="109"/>
-      <c r="FI41" s="109"/>
-      <c r="FJ41" s="109"/>
-      <c r="FK41" s="109"/>
-      <c r="FL41" s="109"/>
-      <c r="FM41" s="109"/>
-      <c r="FN41" s="109"/>
-      <c r="FO41" s="109"/>
-      <c r="FP41" s="109"/>
-      <c r="FQ41" s="109"/>
-      <c r="FR41" s="109"/>
-      <c r="FS41" s="109"/>
-      <c r="FT41" s="109"/>
-      <c r="FU41" s="109"/>
-      <c r="FV41" s="109"/>
-      <c r="FW41" s="109"/>
-      <c r="FX41" s="109"/>
-      <c r="FY41" s="109"/>
-      <c r="FZ41" s="109"/>
-      <c r="GA41" s="109"/>
-      <c r="GB41" s="109"/>
-      <c r="GC41" s="109"/>
-      <c r="GD41" s="109"/>
-      <c r="GE41" s="109"/>
-      <c r="GF41" s="109"/>
-      <c r="GG41" s="109"/>
-      <c r="GH41" s="109"/>
-      <c r="GI41" s="109"/>
-      <c r="GJ41" s="109"/>
-      <c r="GK41" s="109"/>
-      <c r="GL41" s="109"/>
-      <c r="GM41" s="109"/>
-      <c r="GN41" s="109"/>
-      <c r="GO41" s="109"/>
-      <c r="GP41" s="109"/>
-      <c r="GQ41" s="109"/>
-      <c r="GR41" s="109"/>
-      <c r="GS41" s="109"/>
-      <c r="GT41" s="109"/>
-      <c r="GU41" s="109"/>
-      <c r="GV41" s="109"/>
-      <c r="GW41" s="109"/>
-      <c r="GX41" s="109"/>
-      <c r="GY41" s="109"/>
-      <c r="GZ41" s="109"/>
-      <c r="HA41" s="109"/>
-      <c r="HB41" s="109"/>
-      <c r="HC41" s="109"/>
-      <c r="HD41" s="109"/>
-      <c r="HE41" s="109"/>
-      <c r="HF41" s="109"/>
-      <c r="HG41" s="109"/>
-      <c r="HH41" s="110"/>
-      <c r="HI41" s="110"/>
-      <c r="HJ41" s="110"/>
-      <c r="HK41" s="110"/>
-      <c r="HL41" s="110"/>
-      <c r="HM41" s="110"/>
-      <c r="HN41" s="110"/>
-      <c r="HO41" s="110"/>
-      <c r="HP41" s="111"/>
-      <c r="HQ41" s="101"/>
-      <c r="HR41" s="106"/>
-      <c r="HS41" s="106"/>
-      <c r="HT41" s="101"/>
-      <c r="HU41" s="101"/>
-      <c r="HV41" s="101"/>
-      <c r="HW41" s="101"/>
-      <c r="HX41" s="101"/>
-      <c r="HY41" s="106"/>
-      <c r="HZ41" s="106"/>
-      <c r="IA41" s="101"/>
-      <c r="IB41" s="101"/>
-      <c r="IC41" s="101"/>
-      <c r="ID41" s="101"/>
-      <c r="IE41" s="101"/>
+      <c r="AO41" s="59"/>
+      <c r="AP41" s="59"/>
+      <c r="AQ41" s="54"/>
+      <c r="AR41" s="54"/>
+      <c r="AS41" s="60"/>
+      <c r="AT41" s="61"/>
+      <c r="AU41" s="54"/>
+      <c r="AV41" s="62"/>
+      <c r="AW41" s="62"/>
+      <c r="AX41" s="62"/>
+      <c r="AY41" s="62"/>
+      <c r="AZ41" s="62"/>
+      <c r="BA41" s="62"/>
+      <c r="BB41" s="62"/>
+      <c r="BC41" s="62"/>
+      <c r="BD41" s="62"/>
+      <c r="BE41" s="62"/>
+      <c r="BF41" s="62"/>
+      <c r="BG41" s="62"/>
+      <c r="BH41" s="62"/>
+      <c r="BI41" s="62"/>
+      <c r="BJ41" s="62"/>
+      <c r="BK41" s="62"/>
+      <c r="BL41" s="62"/>
+      <c r="BM41" s="62"/>
+      <c r="BN41" s="62"/>
+      <c r="BO41" s="62"/>
+      <c r="BP41" s="62"/>
+      <c r="BQ41" s="62"/>
+      <c r="BR41" s="62"/>
+      <c r="BS41" s="62"/>
+      <c r="BT41" s="62"/>
+      <c r="BU41" s="62"/>
+      <c r="BV41" s="62"/>
+      <c r="BW41" s="62"/>
+      <c r="BX41" s="62"/>
+      <c r="BY41" s="62"/>
+      <c r="BZ41" s="62"/>
+      <c r="CA41" s="62"/>
+      <c r="CB41" s="62"/>
+      <c r="CC41" s="62"/>
+      <c r="CD41" s="62"/>
+      <c r="CE41" s="62"/>
+      <c r="CF41" s="62"/>
+      <c r="CG41" s="62"/>
+      <c r="CH41" s="62"/>
+      <c r="CI41" s="62"/>
+      <c r="CJ41" s="62"/>
+      <c r="CK41" s="62"/>
+      <c r="CL41" s="62"/>
+      <c r="CM41" s="62"/>
+      <c r="CN41" s="62"/>
+      <c r="CO41" s="62"/>
+      <c r="CP41" s="62"/>
+      <c r="CQ41" s="62"/>
+      <c r="CR41" s="62"/>
+      <c r="CS41" s="62"/>
+      <c r="CT41" s="62"/>
+      <c r="CU41" s="62"/>
+      <c r="CV41" s="62"/>
+      <c r="CW41" s="62"/>
+      <c r="CX41" s="62"/>
+      <c r="CY41" s="62"/>
+      <c r="CZ41" s="62"/>
+      <c r="DA41" s="62"/>
+      <c r="DB41" s="62"/>
+      <c r="DC41" s="62"/>
+      <c r="DD41" s="62"/>
+      <c r="DE41" s="62"/>
+      <c r="DF41" s="62"/>
+      <c r="DG41" s="62"/>
+      <c r="DH41" s="62"/>
+      <c r="DI41" s="62"/>
+      <c r="DJ41" s="62"/>
+      <c r="DK41" s="62"/>
+      <c r="DL41" s="62"/>
+      <c r="DM41" s="62"/>
+      <c r="DN41" s="62"/>
+      <c r="DO41" s="62"/>
+      <c r="DP41" s="62"/>
+      <c r="DQ41" s="62"/>
+      <c r="DR41" s="62"/>
+      <c r="DS41" s="62"/>
+      <c r="DT41" s="62"/>
+      <c r="DU41" s="62"/>
+      <c r="DV41" s="62"/>
+      <c r="DW41" s="62"/>
+      <c r="DX41" s="62"/>
+      <c r="DY41" s="62"/>
+      <c r="DZ41" s="62"/>
+      <c r="EA41" s="62"/>
+      <c r="EB41" s="62"/>
+      <c r="EC41" s="62"/>
+      <c r="ED41" s="62"/>
+      <c r="EE41" s="62"/>
+      <c r="EF41" s="62"/>
+      <c r="EG41" s="62"/>
+      <c r="EH41" s="62"/>
+      <c r="EI41" s="62"/>
+      <c r="EJ41" s="62"/>
+      <c r="EK41" s="62"/>
+      <c r="EL41" s="62"/>
+      <c r="EM41" s="62"/>
+      <c r="EN41" s="62"/>
+      <c r="EO41" s="62"/>
+      <c r="EP41" s="62"/>
+      <c r="EQ41" s="62"/>
+      <c r="ER41" s="62"/>
+      <c r="ES41" s="62"/>
+      <c r="ET41" s="62"/>
+      <c r="EU41" s="62"/>
+      <c r="EV41" s="62"/>
+      <c r="EW41" s="62"/>
+      <c r="EX41" s="62"/>
+      <c r="EY41" s="62"/>
+      <c r="EZ41" s="62"/>
+      <c r="FA41" s="62"/>
+      <c r="FB41" s="62"/>
+      <c r="FC41" s="62"/>
+      <c r="FD41" s="62"/>
+      <c r="FE41" s="62"/>
+      <c r="FF41" s="62"/>
+      <c r="FG41" s="62"/>
+      <c r="FH41" s="62"/>
+      <c r="FI41" s="62"/>
+      <c r="FJ41" s="62"/>
+      <c r="FK41" s="62"/>
+      <c r="FL41" s="62"/>
+      <c r="FM41" s="62"/>
+      <c r="FN41" s="62"/>
+      <c r="FO41" s="62"/>
+      <c r="FP41" s="62"/>
+      <c r="FQ41" s="62"/>
+      <c r="FR41" s="62"/>
+      <c r="FS41" s="62"/>
+      <c r="FT41" s="62"/>
+      <c r="FU41" s="62"/>
+      <c r="FV41" s="62"/>
+      <c r="FW41" s="62"/>
+      <c r="FX41" s="62"/>
+      <c r="FY41" s="62"/>
+      <c r="FZ41" s="62"/>
+      <c r="GA41" s="62"/>
+      <c r="GB41" s="62"/>
+      <c r="GC41" s="62"/>
+      <c r="GD41" s="62"/>
+      <c r="GE41" s="62"/>
+      <c r="GF41" s="62"/>
+      <c r="GG41" s="62"/>
+      <c r="GH41" s="62"/>
+      <c r="GI41" s="62"/>
+      <c r="GJ41" s="62"/>
+      <c r="GK41" s="62"/>
+      <c r="GL41" s="62"/>
+      <c r="GM41" s="62"/>
+      <c r="GN41" s="62"/>
+      <c r="GO41" s="62"/>
+      <c r="GP41" s="62"/>
+      <c r="GQ41" s="62"/>
+      <c r="GR41" s="62"/>
+      <c r="GS41" s="62"/>
+      <c r="GT41" s="62"/>
+      <c r="GU41" s="62"/>
+      <c r="GV41" s="62"/>
+      <c r="GW41" s="62"/>
+      <c r="GX41" s="62"/>
+      <c r="GY41" s="62"/>
+      <c r="GZ41" s="62"/>
+      <c r="HA41" s="62"/>
+      <c r="HB41" s="62"/>
+      <c r="HC41" s="62"/>
+      <c r="HD41" s="62"/>
+      <c r="HE41" s="62"/>
+      <c r="HF41" s="62"/>
+      <c r="HG41" s="62"/>
+      <c r="HH41" s="63"/>
+      <c r="HI41" s="63"/>
+      <c r="HJ41" s="63"/>
+      <c r="HK41" s="63"/>
+      <c r="HL41" s="63"/>
+      <c r="HM41" s="63"/>
+      <c r="HN41" s="63"/>
+      <c r="HO41" s="63"/>
+      <c r="HP41" s="64"/>
+      <c r="HQ41" s="54"/>
+      <c r="HR41" s="59"/>
+      <c r="HS41" s="59"/>
+      <c r="HT41" s="54"/>
+      <c r="HU41" s="54"/>
+      <c r="HV41" s="54"/>
+      <c r="HW41" s="54"/>
+      <c r="HX41" s="54"/>
+      <c r="HY41" s="59"/>
+      <c r="HZ41" s="59"/>
+      <c r="IA41" s="54"/>
+      <c r="IB41" s="54"/>
+      <c r="IC41" s="54"/>
+      <c r="ID41" s="54"/>
+      <c r="IE41" s="54"/>
     </row>
     <row r="42" spans="1:240" ht="12" customHeight="1">
-      <c r="A42" s="55">
+      <c r="A42" s="72">
         <v>20</v>
       </c>
-      <c r="B42" s="85" t="s">
+      <c r="B42" s="77" t="s">
         <v>44</v>
       </c>
-      <c r="C42" s="86"/>
-      <c r="D42" s="60" t="s">
+      <c r="C42" s="78"/>
+      <c r="D42" s="73" t="s">
         <v>45</v>
       </c>
-      <c r="E42" s="60" t="s">
+      <c r="E42" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F42" s="27">
@@ -10984,10 +10984,10 @@
       <c r="G42" s="27">
         <v>42824</v>
       </c>
-      <c r="H42" s="83">
+      <c r="H42" s="75">
         <v>0.8</v>
       </c>
-      <c r="I42" s="83" t="s">
+      <c r="I42" s="75" t="s">
         <v>41</v>
       </c>
       <c r="J42" s="22"/>
@@ -11244,17 +11244,17 @@
       <c r="IE42" s="12"/>
     </row>
     <row r="43" spans="1:240">
-      <c r="A43" s="55"/>
-      <c r="B43" s="87"/>
-      <c r="C43" s="88"/>
-      <c r="D43" s="61"/>
-      <c r="E43" s="61"/>
+      <c r="A43" s="72"/>
+      <c r="B43" s="79"/>
+      <c r="C43" s="80"/>
+      <c r="D43" s="74"/>
+      <c r="E43" s="74"/>
       <c r="F43" s="27">
         <v>42815</v>
       </c>
       <c r="G43" s="27"/>
-      <c r="H43" s="84"/>
-      <c r="I43" s="84"/>
+      <c r="H43" s="76"/>
+      <c r="I43" s="76"/>
       <c r="J43" s="23"/>
       <c r="K43" s="23"/>
       <c r="L43" s="23"/>
@@ -11507,15 +11507,15 @@
       <c r="IE43" s="12"/>
     </row>
     <row r="44" spans="1:240" ht="12" customHeight="1">
-      <c r="A44" s="55">
+      <c r="A44" s="72">
         <v>21</v>
       </c>
-      <c r="B44" s="87"/>
-      <c r="C44" s="88"/>
-      <c r="D44" s="55" t="s">
+      <c r="B44" s="79"/>
+      <c r="C44" s="80"/>
+      <c r="D44" s="72" t="s">
         <v>48</v>
       </c>
-      <c r="E44" s="60" t="s">
+      <c r="E44" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F44" s="27">
@@ -11524,10 +11524,10 @@
       <c r="G44" s="27">
         <v>42826</v>
       </c>
-      <c r="H44" s="91">
+      <c r="H44" s="83">
         <v>0.8</v>
       </c>
-      <c r="I44" s="83" t="s">
+      <c r="I44" s="75" t="s">
         <v>41</v>
       </c>
       <c r="J44" s="22"/>
@@ -11766,17 +11766,17 @@
       <c r="IE44" s="12"/>
     </row>
     <row r="45" spans="1:240">
-      <c r="A45" s="55"/>
-      <c r="B45" s="87"/>
-      <c r="C45" s="88"/>
-      <c r="D45" s="55"/>
-      <c r="E45" s="61"/>
+      <c r="A45" s="72"/>
+      <c r="B45" s="79"/>
+      <c r="C45" s="80"/>
+      <c r="D45" s="72"/>
+      <c r="E45" s="74"/>
       <c r="F45" s="27">
         <v>42830</v>
       </c>
       <c r="G45" s="27"/>
-      <c r="H45" s="92"/>
-      <c r="I45" s="84"/>
+      <c r="H45" s="84"/>
+      <c r="I45" s="76"/>
       <c r="J45" s="23"/>
       <c r="K45" s="23"/>
       <c r="L45" s="23"/>
@@ -12013,15 +12013,15 @@
       <c r="IE45" s="12"/>
     </row>
     <row r="46" spans="1:240" ht="12" customHeight="1">
-      <c r="A46" s="55">
+      <c r="A46" s="72">
         <v>22</v>
       </c>
-      <c r="B46" s="87"/>
-      <c r="C46" s="88"/>
-      <c r="D46" s="55" t="s">
+      <c r="B46" s="79"/>
+      <c r="C46" s="80"/>
+      <c r="D46" s="72" t="s">
         <v>50</v>
       </c>
-      <c r="E46" s="60" t="s">
+      <c r="E46" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F46" s="27">
@@ -12030,10 +12030,10 @@
       <c r="G46" s="27">
         <v>42835</v>
       </c>
-      <c r="H46" s="91">
+      <c r="H46" s="83">
         <v>0.1</v>
       </c>
-      <c r="I46" s="83" t="s">
+      <c r="I46" s="75" t="s">
         <v>41</v>
       </c>
       <c r="J46" s="22"/>
@@ -12286,17 +12286,17 @@
       <c r="IE46" s="12"/>
     </row>
     <row r="47" spans="1:240">
-      <c r="A47" s="55"/>
-      <c r="B47" s="89"/>
-      <c r="C47" s="90"/>
-      <c r="D47" s="55"/>
-      <c r="E47" s="61"/>
+      <c r="A47" s="72"/>
+      <c r="B47" s="81"/>
+      <c r="C47" s="82"/>
+      <c r="D47" s="72"/>
+      <c r="E47" s="74"/>
       <c r="F47" s="27">
         <v>42832</v>
       </c>
       <c r="G47" s="27"/>
-      <c r="H47" s="92"/>
-      <c r="I47" s="84"/>
+      <c r="H47" s="84"/>
+      <c r="I47" s="76"/>
       <c r="J47" s="23"/>
       <c r="K47" s="23"/>
       <c r="L47" s="23"/>
@@ -12534,17 +12534,17 @@
       <c r="IE47" s="12"/>
     </row>
     <row r="48" spans="1:240" ht="12" customHeight="1">
-      <c r="A48" s="55">
+      <c r="A48" s="72">
         <v>23</v>
       </c>
-      <c r="B48" s="85" t="s">
+      <c r="B48" s="77" t="s">
         <v>51</v>
       </c>
-      <c r="C48" s="86"/>
-      <c r="D48" s="55" t="s">
+      <c r="C48" s="78"/>
+      <c r="D48" s="72" t="s">
         <v>52</v>
       </c>
-      <c r="E48" s="60" t="s">
+      <c r="E48" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F48" s="27">
@@ -12553,10 +12553,10 @@
       <c r="G48" s="27">
         <v>42815</v>
       </c>
-      <c r="H48" s="83">
+      <c r="H48" s="75">
         <v>1</v>
       </c>
-      <c r="I48" s="83" t="s">
+      <c r="I48" s="75" t="s">
         <v>53</v>
       </c>
       <c r="J48" s="22"/>
@@ -12801,19 +12801,19 @@
       <c r="IE48" s="12"/>
     </row>
     <row r="49" spans="1:240">
-      <c r="A49" s="55"/>
-      <c r="B49" s="87"/>
-      <c r="C49" s="88"/>
-      <c r="D49" s="55"/>
-      <c r="E49" s="61"/>
+      <c r="A49" s="72"/>
+      <c r="B49" s="79"/>
+      <c r="C49" s="80"/>
+      <c r="D49" s="72"/>
+      <c r="E49" s="74"/>
       <c r="F49" s="27">
         <v>42816</v>
       </c>
       <c r="G49" s="27">
         <v>42830</v>
       </c>
-      <c r="H49" s="84"/>
-      <c r="I49" s="84"/>
+      <c r="H49" s="76"/>
+      <c r="I49" s="76"/>
       <c r="J49" s="23"/>
       <c r="K49" s="23"/>
       <c r="L49" s="23"/>
@@ -13070,15 +13070,15 @@
       <c r="IE49" s="12"/>
     </row>
     <row r="50" spans="1:240" ht="12" customHeight="1">
-      <c r="A50" s="55">
+      <c r="A50" s="72">
         <v>24</v>
       </c>
-      <c r="B50" s="87"/>
-      <c r="C50" s="88"/>
-      <c r="D50" s="55" t="s">
+      <c r="B50" s="79"/>
+      <c r="C50" s="80"/>
+      <c r="D50" s="72" t="s">
         <v>54</v>
       </c>
-      <c r="E50" s="60" t="s">
+      <c r="E50" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F50" s="27">
@@ -13087,10 +13087,10 @@
       <c r="G50" s="27">
         <v>42819</v>
       </c>
-      <c r="H50" s="83">
-        <v>0.75</v>
-      </c>
-      <c r="I50" s="83" t="s">
+      <c r="H50" s="75">
+        <v>0.9</v>
+      </c>
+      <c r="I50" s="75" t="s">
         <v>41</v>
       </c>
       <c r="J50" s="22"/>
@@ -13333,17 +13333,17 @@
       <c r="IE50" s="12"/>
     </row>
     <row r="51" spans="1:240">
-      <c r="A51" s="55"/>
-      <c r="B51" s="87"/>
-      <c r="C51" s="88"/>
-      <c r="D51" s="55"/>
-      <c r="E51" s="61"/>
+      <c r="A51" s="72"/>
+      <c r="B51" s="79"/>
+      <c r="C51" s="80"/>
+      <c r="D51" s="72"/>
+      <c r="E51" s="74"/>
       <c r="F51" s="27">
         <v>42831</v>
       </c>
       <c r="G51" s="27"/>
-      <c r="H51" s="84"/>
-      <c r="I51" s="84"/>
+      <c r="H51" s="76"/>
+      <c r="I51" s="76"/>
       <c r="J51" s="23"/>
       <c r="K51" s="23"/>
       <c r="L51" s="23"/>
@@ -13381,9 +13381,15 @@
       </c>
       <c r="AO51" s="28"/>
       <c r="AP51" s="28"/>
-      <c r="AQ51" s="12"/>
-      <c r="AR51" s="12"/>
-      <c r="AS51" s="33"/>
+      <c r="AQ51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AR51" s="12" t="s">
+        <v>31</v>
+      </c>
+      <c r="AS51" s="12" t="s">
+        <v>31</v>
+      </c>
       <c r="AT51" s="34"/>
       <c r="AU51" s="12"/>
       <c r="AV51" s="35"/>
@@ -13580,15 +13586,15 @@
       <c r="IE51" s="12"/>
     </row>
     <row r="52" spans="1:240" ht="12" customHeight="1">
-      <c r="A52" s="55">
+      <c r="A52" s="72">
         <v>25</v>
       </c>
-      <c r="B52" s="87"/>
-      <c r="C52" s="88"/>
-      <c r="D52" s="55" t="s">
+      <c r="B52" s="79"/>
+      <c r="C52" s="80"/>
+      <c r="D52" s="72" t="s">
         <v>55</v>
       </c>
-      <c r="E52" s="60" t="s">
+      <c r="E52" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F52" s="27">
@@ -13597,8 +13603,8 @@
       <c r="G52" s="27">
         <v>42823</v>
       </c>
-      <c r="H52" s="83"/>
-      <c r="I52" s="83"/>
+      <c r="H52" s="75"/>
+      <c r="I52" s="75"/>
       <c r="J52" s="22"/>
       <c r="K52" s="22"/>
       <c r="L52" s="22"/>
@@ -13837,15 +13843,15 @@
       <c r="IE52" s="12"/>
     </row>
     <row r="53" spans="1:240">
-      <c r="A53" s="55"/>
-      <c r="B53" s="89"/>
-      <c r="C53" s="90"/>
-      <c r="D53" s="55"/>
-      <c r="E53" s="61"/>
+      <c r="A53" s="72"/>
+      <c r="B53" s="81"/>
+      <c r="C53" s="82"/>
+      <c r="D53" s="72"/>
+      <c r="E53" s="74"/>
       <c r="F53" s="27"/>
       <c r="G53" s="27"/>
-      <c r="H53" s="84"/>
-      <c r="I53" s="84"/>
+      <c r="H53" s="76"/>
+      <c r="I53" s="76"/>
       <c r="J53" s="23"/>
       <c r="K53" s="23"/>
       <c r="L53" s="23"/>
@@ -14078,17 +14084,17 @@
       <c r="IE53" s="12"/>
     </row>
     <row r="54" spans="1:240" ht="12" customHeight="1">
-      <c r="A54" s="55">
+      <c r="A54" s="72">
         <v>26</v>
       </c>
-      <c r="B54" s="85" t="s">
+      <c r="B54" s="77" t="s">
         <v>56</v>
       </c>
-      <c r="C54" s="86"/>
-      <c r="D54" s="55" t="s">
+      <c r="C54" s="78"/>
+      <c r="D54" s="72" t="s">
         <v>57</v>
       </c>
-      <c r="E54" s="60" t="s">
+      <c r="E54" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F54" s="27">
@@ -14097,8 +14103,8 @@
       <c r="G54" s="27">
         <v>42837</v>
       </c>
-      <c r="H54" s="83"/>
-      <c r="I54" s="83"/>
+      <c r="H54" s="75"/>
+      <c r="I54" s="75"/>
       <c r="J54" s="22"/>
       <c r="K54" s="22"/>
       <c r="L54" s="22"/>
@@ -14357,15 +14363,15 @@
       <c r="IE54" s="12"/>
     </row>
     <row r="55" spans="1:240">
-      <c r="A55" s="55"/>
-      <c r="B55" s="89"/>
-      <c r="C55" s="90"/>
-      <c r="D55" s="55"/>
-      <c r="E55" s="61"/>
+      <c r="A55" s="72"/>
+      <c r="B55" s="81"/>
+      <c r="C55" s="82"/>
+      <c r="D55" s="72"/>
+      <c r="E55" s="74"/>
       <c r="F55" s="27"/>
       <c r="G55" s="27"/>
-      <c r="H55" s="84"/>
-      <c r="I55" s="84"/>
+      <c r="H55" s="76"/>
+      <c r="I55" s="76"/>
       <c r="J55" s="23"/>
       <c r="K55" s="23"/>
       <c r="L55" s="23"/>
@@ -14598,17 +14604,17 @@
       <c r="IE55" s="12"/>
     </row>
     <row r="56" spans="1:240">
-      <c r="A56" s="55">
+      <c r="A56" s="72">
         <v>27</v>
       </c>
-      <c r="B56" s="85" t="s">
+      <c r="B56" s="77" t="s">
         <v>58</v>
       </c>
-      <c r="C56" s="86"/>
-      <c r="D56" s="60" t="s">
+      <c r="C56" s="78"/>
+      <c r="D56" s="73" t="s">
         <v>59</v>
       </c>
-      <c r="E56" s="60" t="s">
+      <c r="E56" s="73" t="s">
         <v>46</v>
       </c>
       <c r="F56" s="27">
@@ -14617,10 +14623,10 @@
       <c r="G56" s="27">
         <v>42813</v>
       </c>
-      <c r="H56" s="83">
+      <c r="H56" s="75">
         <v>1</v>
       </c>
-      <c r="I56" s="57" t="s">
+      <c r="I56" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J56" s="22"/>
@@ -14863,17 +14869,17 @@
       <c r="IE56" s="12"/>
     </row>
     <row r="57" spans="1:240">
-      <c r="A57" s="55"/>
-      <c r="B57" s="87"/>
-      <c r="C57" s="88"/>
-      <c r="D57" s="61"/>
-      <c r="E57" s="61"/>
+      <c r="A57" s="72"/>
+      <c r="B57" s="79"/>
+      <c r="C57" s="80"/>
+      <c r="D57" s="74"/>
+      <c r="E57" s="74"/>
       <c r="F57" s="27">
         <v>42810</v>
       </c>
       <c r="G57" s="27"/>
-      <c r="H57" s="84"/>
-      <c r="I57" s="58"/>
+      <c r="H57" s="76"/>
+      <c r="I57" s="71"/>
       <c r="J57" s="23"/>
       <c r="K57" s="23"/>
       <c r="L57" s="23"/>
@@ -15114,15 +15120,15 @@
       <c r="IE57" s="12"/>
     </row>
     <row r="58" spans="1:240">
-      <c r="A58" s="55">
+      <c r="A58" s="72">
         <v>28</v>
       </c>
-      <c r="B58" s="87"/>
-      <c r="C58" s="88"/>
-      <c r="D58" s="55" t="s">
+      <c r="B58" s="79"/>
+      <c r="C58" s="80"/>
+      <c r="D58" s="72" t="s">
         <v>60</v>
       </c>
-      <c r="E58" s="55" t="s">
+      <c r="E58" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F58" s="27">
@@ -15131,10 +15137,10 @@
       <c r="G58" s="27">
         <v>42816</v>
       </c>
-      <c r="H58" s="57">
+      <c r="H58" s="70">
         <v>1</v>
       </c>
-      <c r="I58" s="57" t="s">
+      <c r="I58" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J58" s="22"/>
@@ -15375,17 +15381,17 @@
       <c r="IE58" s="12"/>
     </row>
     <row r="59" spans="1:240">
-      <c r="A59" s="55"/>
-      <c r="B59" s="87"/>
-      <c r="C59" s="88"/>
-      <c r="D59" s="55"/>
-      <c r="E59" s="55"/>
+      <c r="A59" s="72"/>
+      <c r="B59" s="79"/>
+      <c r="C59" s="80"/>
+      <c r="D59" s="72"/>
+      <c r="E59" s="72"/>
       <c r="F59" s="27">
         <v>42814</v>
       </c>
       <c r="G59" s="27"/>
-      <c r="H59" s="57"/>
-      <c r="I59" s="58"/>
+      <c r="H59" s="70"/>
+      <c r="I59" s="71"/>
       <c r="J59" s="23"/>
       <c r="K59" s="23"/>
       <c r="L59" s="23"/>
@@ -15624,15 +15630,15 @@
       <c r="IE59" s="12"/>
     </row>
     <row r="60" spans="1:240">
-      <c r="A60" s="55">
+      <c r="A60" s="72">
         <v>29</v>
       </c>
-      <c r="B60" s="87"/>
-      <c r="C60" s="88"/>
-      <c r="D60" s="55" t="s">
+      <c r="B60" s="79"/>
+      <c r="C60" s="80"/>
+      <c r="D60" s="72" t="s">
         <v>61</v>
       </c>
-      <c r="E60" s="55" t="s">
+      <c r="E60" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F60" s="27">
@@ -15641,10 +15647,10 @@
       <c r="G60" s="27">
         <v>42819</v>
       </c>
-      <c r="H60" s="57">
+      <c r="H60" s="70">
         <v>1</v>
       </c>
-      <c r="I60" s="57" t="s">
+      <c r="I60" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J60" s="22"/>
@@ -15885,17 +15891,17 @@
       <c r="IE60" s="12"/>
     </row>
     <row r="61" spans="1:240" ht="19.5">
-      <c r="A61" s="55"/>
-      <c r="B61" s="87"/>
-      <c r="C61" s="88"/>
-      <c r="D61" s="55"/>
-      <c r="E61" s="55"/>
+      <c r="A61" s="72"/>
+      <c r="B61" s="79"/>
+      <c r="C61" s="80"/>
+      <c r="D61" s="72"/>
+      <c r="E61" s="72"/>
       <c r="F61" s="27">
         <v>42817</v>
       </c>
       <c r="G61" s="27"/>
-      <c r="H61" s="57"/>
-      <c r="I61" s="58"/>
+      <c r="H61" s="70"/>
+      <c r="I61" s="71"/>
       <c r="J61" s="23"/>
       <c r="K61" s="23"/>
       <c r="L61" s="23"/>
@@ -16134,15 +16140,15 @@
       <c r="IE61" s="12"/>
     </row>
     <row r="62" spans="1:240" ht="19.5">
-      <c r="A62" s="55">
+      <c r="A62" s="72">
         <v>30</v>
       </c>
-      <c r="B62" s="87"/>
-      <c r="C62" s="88"/>
-      <c r="D62" s="55" t="s">
+      <c r="B62" s="79"/>
+      <c r="C62" s="80"/>
+      <c r="D62" s="72" t="s">
         <v>62</v>
       </c>
-      <c r="E62" s="55" t="s">
+      <c r="E62" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F62" s="27">
@@ -16151,10 +16157,10 @@
       <c r="G62" s="27">
         <v>42822</v>
       </c>
-      <c r="H62" s="57">
+      <c r="H62" s="70">
         <v>1</v>
       </c>
-      <c r="I62" s="57" t="s">
+      <c r="I62" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J62" s="22"/>
@@ -16395,17 +16401,17 @@
       <c r="IE62" s="12"/>
     </row>
     <row r="63" spans="1:240" ht="19.5">
-      <c r="A63" s="55"/>
-      <c r="B63" s="87"/>
-      <c r="C63" s="88"/>
-      <c r="D63" s="55"/>
-      <c r="E63" s="55"/>
+      <c r="A63" s="72"/>
+      <c r="B63" s="79"/>
+      <c r="C63" s="80"/>
+      <c r="D63" s="72"/>
+      <c r="E63" s="72"/>
       <c r="F63" s="27">
         <v>42820</v>
       </c>
       <c r="G63" s="27"/>
-      <c r="H63" s="57"/>
-      <c r="I63" s="58"/>
+      <c r="H63" s="70"/>
+      <c r="I63" s="71"/>
       <c r="J63" s="23"/>
       <c r="K63" s="23"/>
       <c r="L63" s="23"/>
@@ -16644,15 +16650,15 @@
       <c r="IE63" s="12"/>
     </row>
     <row r="64" spans="1:240" ht="19.5">
-      <c r="A64" s="55">
+      <c r="A64" s="72">
         <v>31</v>
       </c>
-      <c r="B64" s="87"/>
-      <c r="C64" s="88"/>
-      <c r="D64" s="55" t="s">
+      <c r="B64" s="79"/>
+      <c r="C64" s="80"/>
+      <c r="D64" s="72" t="s">
         <v>63</v>
       </c>
-      <c r="E64" s="55" t="s">
+      <c r="E64" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F64" s="27">
@@ -16661,10 +16667,10 @@
       <c r="G64" s="27">
         <v>42826</v>
       </c>
-      <c r="H64" s="57">
+      <c r="H64" s="70">
         <v>1</v>
       </c>
-      <c r="I64" s="57" t="s">
+      <c r="I64" s="70" t="s">
         <v>53</v>
       </c>
       <c r="J64" s="23"/>
@@ -16907,15 +16913,15 @@
       <c r="IE64" s="12"/>
     </row>
     <row r="65" spans="1:240">
-      <c r="A65" s="55"/>
-      <c r="B65" s="87"/>
-      <c r="C65" s="88"/>
-      <c r="D65" s="55"/>
-      <c r="E65" s="55"/>
+      <c r="A65" s="72"/>
+      <c r="B65" s="79"/>
+      <c r="C65" s="80"/>
+      <c r="D65" s="72"/>
+      <c r="E65" s="72"/>
       <c r="F65" s="27"/>
       <c r="G65" s="27"/>
-      <c r="H65" s="57"/>
-      <c r="I65" s="58"/>
+      <c r="H65" s="70"/>
+      <c r="I65" s="71"/>
       <c r="J65" s="23"/>
       <c r="K65" s="23"/>
       <c r="L65" s="23"/>
@@ -17156,15 +17162,15 @@
       <c r="IE65" s="12"/>
     </row>
     <row r="66" spans="1:240">
-      <c r="A66" s="55">
+      <c r="A66" s="72">
         <v>32</v>
       </c>
-      <c r="B66" s="87"/>
-      <c r="C66" s="88"/>
-      <c r="D66" s="60" t="s">
+      <c r="B66" s="79"/>
+      <c r="C66" s="80"/>
+      <c r="D66" s="73" t="s">
         <v>64</v>
       </c>
-      <c r="E66" s="55" t="s">
+      <c r="E66" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F66" s="27">
@@ -17173,8 +17179,8 @@
       <c r="G66" s="27">
         <v>42829</v>
       </c>
-      <c r="H66" s="83"/>
-      <c r="I66" s="83"/>
+      <c r="H66" s="75"/>
+      <c r="I66" s="75"/>
       <c r="J66" s="22"/>
       <c r="K66" s="22"/>
       <c r="L66" s="22"/>
@@ -17413,15 +17419,15 @@
       <c r="IE66" s="12"/>
     </row>
     <row r="67" spans="1:240">
-      <c r="A67" s="55"/>
-      <c r="B67" s="87"/>
-      <c r="C67" s="88"/>
-      <c r="D67" s="61"/>
-      <c r="E67" s="55"/>
+      <c r="A67" s="72"/>
+      <c r="B67" s="79"/>
+      <c r="C67" s="80"/>
+      <c r="D67" s="74"/>
+      <c r="E67" s="72"/>
       <c r="F67" s="27"/>
       <c r="G67" s="27"/>
-      <c r="H67" s="84"/>
-      <c r="I67" s="84"/>
+      <c r="H67" s="76"/>
+      <c r="I67" s="76"/>
       <c r="J67" s="23"/>
       <c r="K67" s="23"/>
       <c r="L67" s="23"/>
@@ -17654,15 +17660,15 @@
       <c r="IE67" s="12"/>
     </row>
     <row r="68" spans="1:240">
-      <c r="A68" s="60">
+      <c r="A68" s="73">
         <v>33</v>
       </c>
-      <c r="B68" s="87"/>
-      <c r="C68" s="88"/>
-      <c r="D68" s="55" t="s">
+      <c r="B68" s="79"/>
+      <c r="C68" s="80"/>
+      <c r="D68" s="72" t="s">
         <v>65</v>
       </c>
-      <c r="E68" s="55" t="s">
+      <c r="E68" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F68" s="27">
@@ -17671,8 +17677,8 @@
       <c r="G68" s="27">
         <v>42832</v>
       </c>
-      <c r="H68" s="57"/>
-      <c r="I68" s="57"/>
+      <c r="H68" s="70"/>
+      <c r="I68" s="70"/>
       <c r="J68" s="22"/>
       <c r="K68" s="22"/>
       <c r="L68" s="22"/>
@@ -17911,15 +17917,15 @@
       <c r="IE68" s="12"/>
     </row>
     <row r="69" spans="1:240">
-      <c r="A69" s="61"/>
-      <c r="B69" s="87"/>
-      <c r="C69" s="88"/>
-      <c r="D69" s="55"/>
-      <c r="E69" s="55"/>
+      <c r="A69" s="74"/>
+      <c r="B69" s="79"/>
+      <c r="C69" s="80"/>
+      <c r="D69" s="72"/>
+      <c r="E69" s="72"/>
       <c r="F69" s="27"/>
       <c r="G69" s="27"/>
-      <c r="H69" s="57"/>
-      <c r="I69" s="58"/>
+      <c r="H69" s="70"/>
+      <c r="I69" s="71"/>
       <c r="J69" s="23"/>
       <c r="K69" s="23"/>
       <c r="L69" s="23"/>
@@ -18152,15 +18158,15 @@
       <c r="IE69" s="12"/>
     </row>
     <row r="70" spans="1:240">
-      <c r="A70" s="60">
+      <c r="A70" s="73">
         <v>34</v>
       </c>
-      <c r="B70" s="87"/>
-      <c r="C70" s="88"/>
-      <c r="D70" s="55" t="s">
+      <c r="B70" s="79"/>
+      <c r="C70" s="80"/>
+      <c r="D70" s="72" t="s">
         <v>66</v>
       </c>
-      <c r="E70" s="55" t="s">
+      <c r="E70" s="72" t="s">
         <v>46</v>
       </c>
       <c r="F70" s="27">
@@ -18169,8 +18175,8 @@
       <c r="G70" s="27">
         <v>42837</v>
       </c>
-      <c r="H70" s="57"/>
-      <c r="I70" s="57"/>
+      <c r="H70" s="70"/>
+      <c r="I70" s="70"/>
       <c r="J70" s="22"/>
       <c r="K70" s="22"/>
       <c r="L70" s="22"/>
@@ -18413,15 +18419,15 @@
       <c r="IE70" s="12"/>
     </row>
     <row r="71" spans="1:240" ht="12" customHeight="1">
-      <c r="A71" s="61"/>
-      <c r="B71" s="89"/>
-      <c r="C71" s="90"/>
-      <c r="D71" s="55"/>
-      <c r="E71" s="55"/>
+      <c r="A71" s="74"/>
+      <c r="B71" s="81"/>
+      <c r="C71" s="82"/>
+      <c r="D71" s="72"/>
+      <c r="E71" s="72"/>
       <c r="F71" s="27"/>
       <c r="G71" s="27"/>
-      <c r="H71" s="57"/>
-      <c r="I71" s="58"/>
+      <c r="H71" s="70"/>
+      <c r="I71" s="71"/>
       <c r="J71" s="23"/>
       <c r="K71" s="23"/>
       <c r="L71" s="23"/>
@@ -18655,72 +18661,72 @@
     </row>
     <row r="72" spans="1:240" ht="12" customHeight="1"/>
     <row r="73" spans="1:240">
-      <c r="A73" s="59" t="s">
+      <c r="A73" s="69" t="s">
         <v>67</v>
       </c>
-      <c r="B73" s="59"/>
-      <c r="C73" s="59"/>
-      <c r="D73" s="59"/>
-      <c r="E73" s="59"/>
-      <c r="F73" s="59"/>
-      <c r="G73" s="59"/>
-      <c r="H73" s="59"/>
-      <c r="I73" s="59"/>
-      <c r="J73" s="59"/>
-      <c r="K73" s="59"/>
-      <c r="L73" s="59"/>
-      <c r="M73" s="59"/>
-      <c r="N73" s="59"/>
-      <c r="O73" s="59"/>
-      <c r="P73" s="59"/>
-      <c r="Q73" s="59"/>
-      <c r="R73" s="59"/>
-      <c r="S73" s="59"/>
-      <c r="T73" s="59"/>
-      <c r="U73" s="59"/>
-      <c r="V73" s="59"/>
-      <c r="W73" s="59"/>
-      <c r="X73" s="59"/>
-      <c r="Y73" s="59"/>
-      <c r="Z73" s="59"/>
-      <c r="AA73" s="59"/>
-      <c r="AB73" s="59"/>
-      <c r="AC73" s="59"/>
-      <c r="AD73" s="59"/>
-      <c r="AE73" s="59"/>
+      <c r="B73" s="69"/>
+      <c r="C73" s="69"/>
+      <c r="D73" s="69"/>
+      <c r="E73" s="69"/>
+      <c r="F73" s="69"/>
+      <c r="G73" s="69"/>
+      <c r="H73" s="69"/>
+      <c r="I73" s="69"/>
+      <c r="J73" s="69"/>
+      <c r="K73" s="69"/>
+      <c r="L73" s="69"/>
+      <c r="M73" s="69"/>
+      <c r="N73" s="69"/>
+      <c r="O73" s="69"/>
+      <c r="P73" s="69"/>
+      <c r="Q73" s="69"/>
+      <c r="R73" s="69"/>
+      <c r="S73" s="69"/>
+      <c r="T73" s="69"/>
+      <c r="U73" s="69"/>
+      <c r="V73" s="69"/>
+      <c r="W73" s="69"/>
+      <c r="X73" s="69"/>
+      <c r="Y73" s="69"/>
+      <c r="Z73" s="69"/>
+      <c r="AA73" s="69"/>
+      <c r="AB73" s="69"/>
+      <c r="AC73" s="69"/>
+      <c r="AD73" s="69"/>
+      <c r="AE73" s="69"/>
     </row>
     <row r="74" spans="1:240">
-      <c r="A74" s="59"/>
-      <c r="B74" s="59"/>
-      <c r="C74" s="59"/>
-      <c r="D74" s="59"/>
-      <c r="E74" s="59"/>
-      <c r="F74" s="59"/>
-      <c r="G74" s="59"/>
-      <c r="H74" s="59"/>
-      <c r="I74" s="59"/>
-      <c r="J74" s="59"/>
-      <c r="K74" s="59"/>
-      <c r="L74" s="59"/>
-      <c r="M74" s="59"/>
-      <c r="N74" s="59"/>
-      <c r="O74" s="59"/>
-      <c r="P74" s="59"/>
-      <c r="Q74" s="59"/>
-      <c r="R74" s="59"/>
-      <c r="S74" s="59"/>
-      <c r="T74" s="59"/>
-      <c r="U74" s="59"/>
-      <c r="V74" s="59"/>
-      <c r="W74" s="59"/>
-      <c r="X74" s="59"/>
-      <c r="Y74" s="59"/>
-      <c r="Z74" s="59"/>
-      <c r="AA74" s="59"/>
-      <c r="AB74" s="59"/>
-      <c r="AC74" s="59"/>
-      <c r="AD74" s="59"/>
-      <c r="AE74" s="59"/>
+      <c r="A74" s="69"/>
+      <c r="B74" s="69"/>
+      <c r="C74" s="69"/>
+      <c r="D74" s="69"/>
+      <c r="E74" s="69"/>
+      <c r="F74" s="69"/>
+      <c r="G74" s="69"/>
+      <c r="H74" s="69"/>
+      <c r="I74" s="69"/>
+      <c r="J74" s="69"/>
+      <c r="K74" s="69"/>
+      <c r="L74" s="69"/>
+      <c r="M74" s="69"/>
+      <c r="N74" s="69"/>
+      <c r="O74" s="69"/>
+      <c r="P74" s="69"/>
+      <c r="Q74" s="69"/>
+      <c r="R74" s="69"/>
+      <c r="S74" s="69"/>
+      <c r="T74" s="69"/>
+      <c r="U74" s="69"/>
+      <c r="V74" s="69"/>
+      <c r="W74" s="69"/>
+      <c r="X74" s="69"/>
+      <c r="Y74" s="69"/>
+      <c r="Z74" s="69"/>
+      <c r="AA74" s="69"/>
+      <c r="AB74" s="69"/>
+      <c r="AC74" s="69"/>
+      <c r="AD74" s="69"/>
+      <c r="AE74" s="69"/>
     </row>
     <row r="75" spans="1:240"/>
     <row r="76" spans="1:240"/>
@@ -18735,47 +18741,209 @@
     <row r="95" spans="1:240"/>
     <row r="96" spans="1:240"/>
     <row r="97" spans="1:240"/>
-    <row r="98" spans="1:240"/>
-    <row r="99" spans="1:240"/>
-    <row r="100" spans="1:240"/>
-    <row r="101" spans="1:240"/>
-    <row r="102" spans="1:240"/>
-    <row r="103" spans="1:240"/>
-    <row r="104" spans="1:240"/>
-    <row r="105" spans="1:240"/>
-    <row r="106" spans="1:240"/>
-    <row r="107" spans="1:240"/>
-    <row r="108" spans="1:240"/>
-    <row r="109" spans="1:240"/>
-    <row r="110" spans="1:240"/>
-    <row r="111" spans="1:240"/>
-    <row r="112" spans="1:240"/>
-    <row r="113" spans="1:240"/>
-    <row r="114" spans="1:240"/>
-    <row r="115" spans="1:240"/>
-    <row r="116" spans="1:240"/>
-    <row r="117" spans="1:240"/>
-    <row r="118" spans="1:240"/>
-    <row r="119" spans="1:240"/>
-    <row r="120" spans="1:240"/>
-    <row r="121" spans="1:240"/>
-    <row r="122" spans="1:240"/>
-    <row r="123" spans="1:240"/>
-    <row r="124" spans="1:240"/>
-    <row r="125" spans="1:240"/>
-    <row r="126" spans="1:240"/>
-    <row r="127" spans="1:240"/>
-    <row r="128" spans="1:240"/>
-    <row r="129" spans="1:240"/>
-    <row r="130" spans="1:240"/>
-    <row r="131" spans="1:240"/>
-    <row r="132" spans="1:240"/>
-    <row r="133" spans="1:240"/>
-    <row r="134" spans="1:240"/>
-    <row r="135" spans="1:240"/>
+    <row r="98" spans="1:240" ht="409.6"/>
+    <row r="99" spans="1:240" ht="409.6"/>
+    <row r="100" spans="1:240" ht="409.6"/>
+    <row r="101" spans="1:240" ht="409.6"/>
+    <row r="102" spans="1:240" ht="409.6"/>
+    <row r="103" spans="1:240" ht="409.6"/>
+    <row r="104" spans="1:240" ht="409.6"/>
+    <row r="105" spans="1:240" ht="409.6"/>
+    <row r="106" spans="1:240" ht="409.6"/>
+    <row r="107" spans="1:240" ht="409.6"/>
+    <row r="108" spans="1:240" ht="409.6"/>
+    <row r="109" spans="1:240" ht="409.6"/>
+    <row r="110" spans="1:240" ht="409.6"/>
+    <row r="111" spans="1:240" ht="409.6"/>
+    <row r="112" spans="1:240" ht="409.6"/>
+    <row r="113" spans="1:240" ht="409.6"/>
+    <row r="114" spans="1:240" ht="409.6"/>
+    <row r="115" spans="1:240" ht="409.6"/>
+    <row r="116" spans="1:240" ht="409.6"/>
+    <row r="117" spans="1:240" ht="409.6"/>
+    <row r="118" spans="1:240" ht="409.6"/>
+    <row r="119" spans="1:240" ht="409.6"/>
+    <row r="120" spans="1:240" ht="409.6"/>
+    <row r="121" spans="1:240" ht="409.6"/>
+    <row r="122" spans="1:240" ht="409.6"/>
+    <row r="123" spans="1:240" ht="409.6"/>
+    <row r="124" spans="1:240" ht="409.6"/>
+    <row r="125" spans="1:240" ht="409.6"/>
+    <row r="126" spans="1:240" ht="409.6"/>
+    <row r="127" spans="1:240" ht="409.6"/>
+    <row r="128" spans="1:240" ht="409.6"/>
+    <row r="129" spans="1:240" ht="409.6"/>
+    <row r="130" spans="1:240" ht="409.6"/>
+    <row r="131" spans="1:240" ht="409.6"/>
+    <row r="132" spans="1:240" ht="409.6"/>
+    <row r="133" spans="1:240" ht="409.6"/>
+    <row r="134" spans="1:240" ht="409.6"/>
+    <row r="135" spans="1:240" ht="409.6"/>
   </sheetData>
   <sheetProtection selectLockedCells="1" selectUnlockedCells="1"/>
   <mergeCells count="186">
+    <mergeCell ref="E22:E23"/>
+    <mergeCell ref="I6:I7"/>
+    <mergeCell ref="AH6:IE6"/>
+    <mergeCell ref="E14:E15"/>
+    <mergeCell ref="H14:H15"/>
+    <mergeCell ref="I14:I15"/>
+    <mergeCell ref="A8:A9"/>
+    <mergeCell ref="D8:D9"/>
+    <mergeCell ref="E18:E19"/>
+    <mergeCell ref="H18:H19"/>
+    <mergeCell ref="E16:E17"/>
+    <mergeCell ref="H16:H17"/>
+    <mergeCell ref="I16:I17"/>
+    <mergeCell ref="I18:I19"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="D12:D13"/>
+    <mergeCell ref="A14:A15"/>
+    <mergeCell ref="D14:D15"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="D18:D19"/>
+    <mergeCell ref="A16:A17"/>
+    <mergeCell ref="D16:D17"/>
+    <mergeCell ref="A1:AN2"/>
+    <mergeCell ref="Q3:AN3"/>
+    <mergeCell ref="Q4:AN4"/>
+    <mergeCell ref="E8:E9"/>
+    <mergeCell ref="E10:E11"/>
+    <mergeCell ref="A10:A11"/>
+    <mergeCell ref="D10:D11"/>
+    <mergeCell ref="A3:F3"/>
+    <mergeCell ref="G3:H3"/>
+    <mergeCell ref="I3:P3"/>
+    <mergeCell ref="A4:F4"/>
+    <mergeCell ref="G4:H4"/>
+    <mergeCell ref="I4:P4"/>
+    <mergeCell ref="J6:AG6"/>
+    <mergeCell ref="H8:H9"/>
+    <mergeCell ref="I8:I9"/>
+    <mergeCell ref="H10:H11"/>
+    <mergeCell ref="I10:I11"/>
+    <mergeCell ref="A5:AE5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:C7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="E6:E7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="E28:E29"/>
+    <mergeCell ref="H28:H29"/>
+    <mergeCell ref="I28:I29"/>
+    <mergeCell ref="D28:D29"/>
+    <mergeCell ref="B8:C19"/>
+    <mergeCell ref="A26:A27"/>
+    <mergeCell ref="D26:D27"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="E12:E13"/>
+    <mergeCell ref="H12:H13"/>
+    <mergeCell ref="I12:I13"/>
+    <mergeCell ref="I22:I23"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="E24:E25"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="I24:I25"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="D20:D21"/>
+    <mergeCell ref="E20:E21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="I20:I21"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="I34:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="E38:E39"/>
+    <mergeCell ref="H38:H39"/>
+    <mergeCell ref="I38:I39"/>
+    <mergeCell ref="B20:C35"/>
+    <mergeCell ref="A34:A35"/>
+    <mergeCell ref="D34:D35"/>
+    <mergeCell ref="E34:E35"/>
+    <mergeCell ref="H34:H35"/>
+    <mergeCell ref="I30:I31"/>
+    <mergeCell ref="A32:A33"/>
+    <mergeCell ref="D32:D33"/>
+    <mergeCell ref="E32:E33"/>
+    <mergeCell ref="H32:H33"/>
+    <mergeCell ref="I32:I33"/>
+    <mergeCell ref="A30:A31"/>
+    <mergeCell ref="D30:D31"/>
+    <mergeCell ref="E30:E31"/>
+    <mergeCell ref="H30:H31"/>
+    <mergeCell ref="E26:E27"/>
+    <mergeCell ref="H26:H27"/>
+    <mergeCell ref="I26:I27"/>
+    <mergeCell ref="A28:A29"/>
+    <mergeCell ref="I36:I37"/>
+    <mergeCell ref="A40:A41"/>
+    <mergeCell ref="E40:E41"/>
+    <mergeCell ref="H40:H41"/>
+    <mergeCell ref="I40:I41"/>
+    <mergeCell ref="A38:A39"/>
+    <mergeCell ref="E36:E37"/>
+    <mergeCell ref="H36:H37"/>
+    <mergeCell ref="D44:D45"/>
+    <mergeCell ref="D42:D43"/>
+    <mergeCell ref="D38:D39"/>
+    <mergeCell ref="D36:D37"/>
+    <mergeCell ref="D40:D41"/>
+    <mergeCell ref="B36:C41"/>
+    <mergeCell ref="E46:E47"/>
+    <mergeCell ref="H46:H47"/>
+    <mergeCell ref="I46:I47"/>
+    <mergeCell ref="A46:A47"/>
+    <mergeCell ref="E50:E51"/>
+    <mergeCell ref="H50:H51"/>
+    <mergeCell ref="D48:D49"/>
+    <mergeCell ref="E48:E49"/>
+    <mergeCell ref="H48:H49"/>
+    <mergeCell ref="I48:I49"/>
+    <mergeCell ref="A50:A51"/>
+    <mergeCell ref="D46:D47"/>
+    <mergeCell ref="D50:D51"/>
+    <mergeCell ref="B42:C47"/>
+    <mergeCell ref="I42:I43"/>
+    <mergeCell ref="A44:A45"/>
+    <mergeCell ref="E44:E45"/>
+    <mergeCell ref="H44:H45"/>
+    <mergeCell ref="I44:I45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="E42:E43"/>
+    <mergeCell ref="H42:H43"/>
+    <mergeCell ref="I52:I53"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="E52:E53"/>
+    <mergeCell ref="H52:H53"/>
+    <mergeCell ref="A58:A59"/>
+    <mergeCell ref="D58:D59"/>
+    <mergeCell ref="I58:I59"/>
+    <mergeCell ref="B48:C53"/>
+    <mergeCell ref="B54:C55"/>
+    <mergeCell ref="I50:I51"/>
+    <mergeCell ref="A48:A49"/>
+    <mergeCell ref="A66:A67"/>
+    <mergeCell ref="D66:D67"/>
+    <mergeCell ref="E66:E67"/>
+    <mergeCell ref="H66:H67"/>
+    <mergeCell ref="I66:I67"/>
+    <mergeCell ref="A64:A65"/>
+    <mergeCell ref="D64:D65"/>
+    <mergeCell ref="E64:E65"/>
+    <mergeCell ref="H64:H65"/>
+    <mergeCell ref="B56:C71"/>
+    <mergeCell ref="A70:A71"/>
+    <mergeCell ref="D70:D71"/>
+    <mergeCell ref="E70:E71"/>
+    <mergeCell ref="H70:H71"/>
+    <mergeCell ref="I70:I71"/>
+    <mergeCell ref="A56:A57"/>
+    <mergeCell ref="D56:D57"/>
+    <mergeCell ref="E56:E57"/>
+    <mergeCell ref="H56:H57"/>
+    <mergeCell ref="E58:E59"/>
+    <mergeCell ref="H58:H59"/>
     <mergeCell ref="A73:AE74"/>
     <mergeCell ref="I60:I61"/>
     <mergeCell ref="A62:A63"/>
@@ -18800,168 +18968,6 @@
     <mergeCell ref="E68:E69"/>
     <mergeCell ref="H68:H69"/>
     <mergeCell ref="I64:I65"/>
-    <mergeCell ref="A66:A67"/>
-    <mergeCell ref="D66:D67"/>
-    <mergeCell ref="E66:E67"/>
-    <mergeCell ref="H66:H67"/>
-    <mergeCell ref="I66:I67"/>
-    <mergeCell ref="A64:A65"/>
-    <mergeCell ref="D64:D65"/>
-    <mergeCell ref="E64:E65"/>
-    <mergeCell ref="H64:H65"/>
-    <mergeCell ref="B56:C71"/>
-    <mergeCell ref="A70:A71"/>
-    <mergeCell ref="D70:D71"/>
-    <mergeCell ref="E70:E71"/>
-    <mergeCell ref="H70:H71"/>
-    <mergeCell ref="I70:I71"/>
-    <mergeCell ref="A56:A57"/>
-    <mergeCell ref="D56:D57"/>
-    <mergeCell ref="E56:E57"/>
-    <mergeCell ref="H56:H57"/>
-    <mergeCell ref="E58:E59"/>
-    <mergeCell ref="H58:H59"/>
-    <mergeCell ref="I52:I53"/>
-    <mergeCell ref="A52:A53"/>
-    <mergeCell ref="E52:E53"/>
-    <mergeCell ref="H52:H53"/>
-    <mergeCell ref="A58:A59"/>
-    <mergeCell ref="D58:D59"/>
-    <mergeCell ref="I58:I59"/>
-    <mergeCell ref="B48:C53"/>
-    <mergeCell ref="B54:C55"/>
-    <mergeCell ref="I50:I51"/>
-    <mergeCell ref="A48:A49"/>
-    <mergeCell ref="E46:E47"/>
-    <mergeCell ref="H46:H47"/>
-    <mergeCell ref="I46:I47"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="E50:E51"/>
-    <mergeCell ref="H50:H51"/>
-    <mergeCell ref="D48:D49"/>
-    <mergeCell ref="E48:E49"/>
-    <mergeCell ref="H48:H49"/>
-    <mergeCell ref="I48:I49"/>
-    <mergeCell ref="A50:A51"/>
-    <mergeCell ref="D46:D47"/>
-    <mergeCell ref="D50:D51"/>
-    <mergeCell ref="B42:C47"/>
-    <mergeCell ref="I42:I43"/>
-    <mergeCell ref="A44:A45"/>
-    <mergeCell ref="E44:E45"/>
-    <mergeCell ref="H44:H45"/>
-    <mergeCell ref="I44:I45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="E42:E43"/>
-    <mergeCell ref="H42:H43"/>
-    <mergeCell ref="I36:I37"/>
-    <mergeCell ref="A40:A41"/>
-    <mergeCell ref="E40:E41"/>
-    <mergeCell ref="H40:H41"/>
-    <mergeCell ref="I40:I41"/>
-    <mergeCell ref="A38:A39"/>
-    <mergeCell ref="E36:E37"/>
-    <mergeCell ref="H36:H37"/>
-    <mergeCell ref="D44:D45"/>
-    <mergeCell ref="D42:D43"/>
-    <mergeCell ref="D38:D39"/>
-    <mergeCell ref="D36:D37"/>
-    <mergeCell ref="D40:D41"/>
-    <mergeCell ref="B36:C41"/>
-    <mergeCell ref="I34:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="E38:E39"/>
-    <mergeCell ref="H38:H39"/>
-    <mergeCell ref="I38:I39"/>
-    <mergeCell ref="B20:C35"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="D34:D35"/>
-    <mergeCell ref="E34:E35"/>
-    <mergeCell ref="H34:H35"/>
-    <mergeCell ref="I30:I31"/>
-    <mergeCell ref="A32:A33"/>
-    <mergeCell ref="D32:D33"/>
-    <mergeCell ref="E32:E33"/>
-    <mergeCell ref="H32:H33"/>
-    <mergeCell ref="I32:I33"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="D30:D31"/>
-    <mergeCell ref="E30:E31"/>
-    <mergeCell ref="H30:H31"/>
-    <mergeCell ref="E26:E27"/>
-    <mergeCell ref="H26:H27"/>
-    <mergeCell ref="I26:I27"/>
-    <mergeCell ref="A28:A29"/>
-    <mergeCell ref="E28:E29"/>
-    <mergeCell ref="H28:H29"/>
-    <mergeCell ref="I28:I29"/>
-    <mergeCell ref="D28:D29"/>
-    <mergeCell ref="B8:C19"/>
-    <mergeCell ref="A26:A27"/>
-    <mergeCell ref="D26:D27"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="E12:E13"/>
-    <mergeCell ref="H12:H13"/>
-    <mergeCell ref="I12:I13"/>
-    <mergeCell ref="I22:I23"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="E24:E25"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="I24:I25"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="D20:D21"/>
-    <mergeCell ref="E20:E21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="I20:I21"/>
-    <mergeCell ref="A1:AN2"/>
-    <mergeCell ref="Q3:AN3"/>
-    <mergeCell ref="Q4:AN4"/>
-    <mergeCell ref="E8:E9"/>
-    <mergeCell ref="E10:E11"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="D10:D11"/>
-    <mergeCell ref="A3:F3"/>
-    <mergeCell ref="G3:H3"/>
-    <mergeCell ref="I3:P3"/>
-    <mergeCell ref="A4:F4"/>
-    <mergeCell ref="G4:H4"/>
-    <mergeCell ref="I4:P4"/>
-    <mergeCell ref="J6:AG6"/>
-    <mergeCell ref="H8:H9"/>
-    <mergeCell ref="I8:I9"/>
-    <mergeCell ref="H10:H11"/>
-    <mergeCell ref="I10:I11"/>
-    <mergeCell ref="A5:AE5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:C7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="E6:E7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="I6:I7"/>
-    <mergeCell ref="AH6:IE6"/>
-    <mergeCell ref="E14:E15"/>
-    <mergeCell ref="H14:H15"/>
-    <mergeCell ref="I14:I15"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="D8:D9"/>
-    <mergeCell ref="E18:E19"/>
-    <mergeCell ref="H18:H19"/>
-    <mergeCell ref="E16:E17"/>
-    <mergeCell ref="H16:H17"/>
-    <mergeCell ref="I16:I17"/>
-    <mergeCell ref="I18:I19"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="D12:D13"/>
-    <mergeCell ref="A14:A15"/>
-    <mergeCell ref="D14:D15"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="D18:D19"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="A16:A17"/>
-    <mergeCell ref="D16:D17"/>
-    <mergeCell ref="E22:E23"/>
   </mergeCells>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.78749999999999998" right="0.78749999999999998" top="1.0249999999999999" bottom="1.0249999999999999" header="0.78749999999999998" footer="0.78749999999999998"/>
